--- a/PCosta.xlsx
+++ b/PCosta.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ce9537a3d4953a2/Desktop/COMERCIAIS/Comerciais_Sttremlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{B3E6CA3C-B130-407D-BDFC-7EC1AFB665BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7CA7FD3-7D08-4AB7-992A-557A5E94B48F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{B3E6CA3C-B130-407D-BDFC-7EC1AFB665BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55FFF478-1B0F-4B68-A222-08B40A457AC4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FEBCBBD6-9125-4308-829D-349325E88E11}"/>
   </bookViews>
   <sheets>
-    <sheet name="BBrito" sheetId="1" r:id="rId1"/>
+    <sheet name="PCosta" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PCosta.xlsx
+++ b/PCosta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DA17D48-43BF-4563-8A9F-5D001B14E8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5921178-DB96-47D7-ADE7-455E4F5A8BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F8F3D65-BB50-4D14-936D-C9FEA2B7CDDC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="57">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Dominantexemplo Unipessoal, Lda</t>
   </si>
   <si>
-    <t>Albino Novais Unipessoal, Lda</t>
-  </si>
-  <si>
     <t>Gelfer Unipessoal, Lda</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>Pps, Sa</t>
+  </si>
+  <si>
+    <t>Sara Macedo Unip., Lda</t>
   </si>
 </sst>
 </file>
@@ -581,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4044F161-0F67-4AC3-9595-1EB749614D68}">
-  <dimension ref="A1:M174"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,13 +661,13 @@
         <v>45821.504756944443</v>
       </c>
       <c r="I2" s="2">
-        <v>10.495844907411083</v>
+        <v>12.495844907411083</v>
       </c>
       <c r="J2" s="3">
         <v>112.18</v>
       </c>
       <c r="K2" s="3">
-        <v>112.18</v>
+        <v>224.36</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -702,13 +702,13 @@
         <v>45835.425567129627</v>
       </c>
       <c r="I3" s="2">
-        <v>-3.4249074074032251</v>
+        <v>-1.4249074074032251</v>
       </c>
       <c r="J3" s="3">
         <v>58.04</v>
       </c>
       <c r="K3" s="3">
-        <v>58.04</v>
+        <v>116.08</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -734,7 +734,7 @@
         <v>10162</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1">
         <v>45872.494027777779</v>
@@ -743,7 +743,7 @@
         <v>45842.494027777779</v>
       </c>
       <c r="I4" s="2">
-        <v>-10.494027777778683</v>
+        <v>-8.4940277777786832</v>
       </c>
       <c r="J4" s="3">
         <v>121.12</v>
@@ -784,7 +784,7 @@
         <v>45849.432291666664</v>
       </c>
       <c r="I5" s="2">
-        <v>-17.432291666664241</v>
+        <v>-15.432291666664241</v>
       </c>
       <c r="J5" s="3">
         <v>105.91</v>
@@ -825,7 +825,7 @@
         <v>45856.494421296295</v>
       </c>
       <c r="I6" s="2">
-        <v>-24.494421296294604</v>
+        <v>-22.494421296294604</v>
       </c>
       <c r="J6" s="3">
         <v>112.93</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>211110212</v>
+        <v>211110090</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -854,31 +854,31 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>8703</v>
+        <v>11051</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="1">
-        <v>45840.358078703699</v>
+        <v>45893.509270833332</v>
       </c>
       <c r="H7" s="1">
-        <v>45810.358773148146</v>
+        <v>45863.509282407409</v>
       </c>
       <c r="I7" s="2">
-        <v>21.641921296301007</v>
+        <v>-29.509270833332266</v>
       </c>
       <c r="J7" s="3">
-        <v>1367.46</v>
+        <v>84.06</v>
       </c>
       <c r="K7" s="3">
-        <v>1367.46</v>
+        <v>84.06</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -889,31 +889,31 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8">
-        <v>480</v>
+        <v>8703</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1">
-        <v>45843</v>
+        <v>45840.358078703699</v>
       </c>
       <c r="H8" s="1">
-        <v>45813</v>
+        <v>45810.358773148146</v>
       </c>
       <c r="I8" s="2">
-        <v>19</v>
+        <v>23.641921296301007</v>
       </c>
       <c r="J8" s="3">
-        <v>-7.6400000000000006</v>
+        <v>1367.46</v>
       </c>
       <c r="K8" s="3">
-        <v>-7.6400000000000006</v>
+        <v>1367.46</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -930,31 +930,31 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9">
-        <v>8925</v>
+        <v>480</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>45843.536203703705</v>
+        <v>45843</v>
       </c>
       <c r="H9" s="1">
-        <v>45813.550266203703</v>
+        <v>45813</v>
       </c>
       <c r="I9" s="2">
-        <v>18.463796296295186</v>
+        <v>21</v>
       </c>
       <c r="J9" s="3">
-        <v>557.66999999999996</v>
+        <v>-7.6400000000000006</v>
       </c>
       <c r="K9" s="3">
-        <v>557.66999999999996</v>
+        <v>-7.6400000000000006</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -971,31 +971,31 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>545</v>
+        <v>8925</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="1">
-        <v>45849</v>
+        <v>45843.536203703705</v>
       </c>
       <c r="H10" s="1">
-        <v>45819</v>
+        <v>45813.550266203703</v>
       </c>
       <c r="I10" s="2">
-        <v>13</v>
+        <v>20.463796296295186</v>
       </c>
       <c r="J10" s="3">
-        <v>-747.85</v>
+        <v>557.66999999999996</v>
       </c>
       <c r="K10" s="3">
-        <v>-747.85</v>
+        <v>557.66999999999996</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -1012,31 +1012,31 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>2025</v>
       </c>
       <c r="E11">
-        <v>9100</v>
+        <v>545</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="1">
-        <v>45849.546481481477</v>
+        <v>45849</v>
       </c>
       <c r="H11" s="1">
-        <v>45819.54788194444</v>
+        <v>45819</v>
       </c>
       <c r="I11" s="2">
-        <v>12.453518518523197</v>
+        <v>15</v>
       </c>
       <c r="J11" s="3">
-        <v>878.45</v>
+        <v>-747.85</v>
       </c>
       <c r="K11" s="3">
-        <v>878.45</v>
+        <v>-747.85</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -1059,25 +1059,25 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>9249</v>
+        <v>9100</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="1">
-        <v>45851.563391203701</v>
+        <v>45849.546481481477</v>
       </c>
       <c r="H12" s="1">
-        <v>45821.563634259255</v>
+        <v>45819.54788194444</v>
       </c>
       <c r="I12" s="2">
-        <v>10.43660879629897</v>
+        <v>14.453518518523197</v>
       </c>
       <c r="J12" s="3">
-        <v>57.01</v>
+        <v>878.45</v>
       </c>
       <c r="K12" s="3">
-        <v>57.01</v>
+        <v>878.45</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1100,25 +1100,25 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>9297</v>
+        <v>9249</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="1">
-        <v>45854.453182870369</v>
+        <v>45851.563391203701</v>
       </c>
       <c r="H13" s="1">
-        <v>45824.453576388885</v>
+        <v>45821.563634259255</v>
       </c>
       <c r="I13" s="2">
-        <v>7.5468171296306537</v>
+        <v>12.43660879629897</v>
       </c>
       <c r="J13" s="3">
-        <v>81.16</v>
+        <v>57.01</v>
       </c>
       <c r="K13" s="3">
-        <v>81.16</v>
+        <v>57.01</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1141,31 +1141,31 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>9430</v>
+        <v>9297</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="1">
-        <v>45856.45107638889</v>
+        <v>45854.453182870369</v>
       </c>
       <c r="H14" s="1">
-        <v>45826.451354166667</v>
+        <v>45824.453576388885</v>
       </c>
       <c r="I14" s="2">
-        <v>5.5489236111097853</v>
+        <v>9.5468171296306537</v>
       </c>
       <c r="J14" s="3">
-        <v>1336.5</v>
+        <v>81.16</v>
       </c>
       <c r="K14" s="3">
-        <v>1336.5</v>
+        <v>81.16</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1182,31 +1182,31 @@
         <v>15</v>
       </c>
       <c r="E15">
-        <v>9513</v>
+        <v>9430</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="1">
-        <v>45858.523819444439</v>
+        <v>45856.45107638889</v>
       </c>
       <c r="H15" s="1">
-        <v>45828.528136574074</v>
+        <v>45826.451354166667</v>
       </c>
       <c r="I15" s="2">
-        <v>3.4761805555608589</v>
+        <v>7.5489236111097853</v>
       </c>
       <c r="J15" s="3">
-        <v>204.67000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="K15" s="3">
-        <v>204.67000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1223,25 +1223,25 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>9714</v>
+        <v>9513</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="1">
-        <v>45863.514756944445</v>
+        <v>45858.523819444439</v>
       </c>
       <c r="H16" s="1">
-        <v>45833.515277777777</v>
+        <v>45828.528136574074</v>
       </c>
       <c r="I16" s="2">
-        <v>-1.5147569444452529</v>
+        <v>5.4761805555608589</v>
       </c>
       <c r="J16" s="3">
-        <v>168.22</v>
+        <v>204.67000000000002</v>
       </c>
       <c r="K16" s="3">
-        <v>168.22</v>
+        <v>204.67000000000002</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1264,25 +1264,25 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>9784</v>
+        <v>9714</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="1">
-        <v>45864.463958333334</v>
+        <v>45863.514756944445</v>
       </c>
       <c r="H17" s="1">
-        <v>45834.465057870366</v>
+        <v>45833.515277777777</v>
       </c>
       <c r="I17" s="2">
-        <v>-2.4639583333337214</v>
+        <v>0.48524305555474712</v>
       </c>
       <c r="J17" s="3">
-        <v>148.22999999999999</v>
+        <v>168.22</v>
       </c>
       <c r="K17" s="3">
-        <v>148.22999999999999</v>
+        <v>168.22</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1305,25 +1305,25 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>9869</v>
+        <v>9784</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="1">
-        <v>45865.477581018517</v>
+        <v>45864.463958333334</v>
       </c>
       <c r="H18" s="1">
-        <v>45835.477847222217</v>
+        <v>45834.465057870366</v>
       </c>
       <c r="I18" s="2">
-        <v>-3.4775810185165028</v>
+        <v>-0.46395833333372138</v>
       </c>
       <c r="J18" s="3">
-        <v>199.83</v>
+        <v>148.22999999999999</v>
       </c>
       <c r="K18" s="3">
-        <v>199.83</v>
+        <v>148.22999999999999</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -1346,25 +1346,25 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>9932</v>
+        <v>9869</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="1">
-        <v>45869.375613425924</v>
+        <v>45865.477581018517</v>
       </c>
       <c r="H19" s="1">
-        <v>45839.378171296295</v>
+        <v>45835.477847222217</v>
       </c>
       <c r="I19" s="2">
-        <v>-7.3756134259238024</v>
+        <v>-1.4775810185165028</v>
       </c>
       <c r="J19" s="3">
-        <v>45.85</v>
+        <v>199.83</v>
       </c>
       <c r="K19" s="3">
-        <v>45.85</v>
+        <v>199.83</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -1381,31 +1381,31 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>612</v>
+        <v>9932</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="1">
-        <v>45871</v>
+        <v>45869.375613425924</v>
       </c>
       <c r="H20" s="1">
-        <v>45841</v>
+        <v>45839.378171296295</v>
       </c>
       <c r="I20" s="2">
-        <v>-9</v>
+        <v>-5.3756134259238024</v>
       </c>
       <c r="J20" s="3">
-        <v>-36.31</v>
+        <v>45.85</v>
       </c>
       <c r="K20" s="3">
-        <v>-36.31</v>
+        <v>45.85</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -1422,31 +1422,31 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>2025</v>
       </c>
       <c r="E21">
-        <v>10045</v>
+        <v>612</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="1">
-        <v>45871.497974537036</v>
+        <v>45871</v>
       </c>
       <c r="H21" s="1">
-        <v>45841.497974537036</v>
+        <v>45841</v>
       </c>
       <c r="I21" s="2">
-        <v>-9.4979745370364981</v>
+        <v>-7</v>
       </c>
       <c r="J21" s="3">
-        <v>140.92000000000002</v>
+        <v>-36.31</v>
       </c>
       <c r="K21" s="3">
-        <v>140.92000000000002</v>
+        <v>-36.31</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
@@ -1469,25 +1469,25 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>10181</v>
+        <v>10045</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="1">
-        <v>45872.603391203702</v>
+        <v>45871.497974537036</v>
       </c>
       <c r="H22" s="1">
-        <v>45842.603391203702</v>
+        <v>45841.497974537036</v>
       </c>
       <c r="I22" s="2">
-        <v>-10.603391203701904</v>
+        <v>-7.4979745370364981</v>
       </c>
       <c r="J22" s="3">
-        <v>64.11</v>
+        <v>140.92000000000002</v>
       </c>
       <c r="K22" s="3">
-        <v>64.11</v>
+        <v>140.92000000000002</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
@@ -1510,25 +1510,25 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>10358</v>
+        <v>10181</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="1">
-        <v>45877.498981481476</v>
+        <v>45872.603391203702</v>
       </c>
       <c r="H23" s="1">
-        <v>45847.498993055553</v>
+        <v>45842.603391203702</v>
       </c>
       <c r="I23" s="2">
-        <v>-15.498981481476221</v>
+        <v>-8.6033912037019036</v>
       </c>
       <c r="J23" s="3">
-        <v>174.55</v>
+        <v>64.11</v>
       </c>
       <c r="K23" s="3">
-        <v>174.55</v>
+        <v>64.11</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
@@ -1551,25 +1551,25 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>10491</v>
+        <v>10358</v>
       </c>
       <c r="F24" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="1">
-        <v>45879.477118055554</v>
+        <v>45877.498981481476</v>
       </c>
       <c r="H24" s="1">
-        <v>45849.477754629625</v>
+        <v>45847.498993055553</v>
       </c>
       <c r="I24" s="2">
-        <v>-17.477118055554456</v>
+        <v>-13.498981481476221</v>
       </c>
       <c r="J24" s="3">
-        <v>208.79</v>
+        <v>174.55</v>
       </c>
       <c r="K24" s="3">
-        <v>208.79</v>
+        <v>174.55</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
@@ -1592,25 +1592,25 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>10555</v>
+        <v>10491</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="1">
-        <v>45883.417129629626</v>
+        <v>45879.477118055554</v>
       </c>
       <c r="H25" s="1">
-        <v>45853.417523148149</v>
+        <v>45849.477754629625</v>
       </c>
       <c r="I25" s="2">
-        <v>-21.417129629626288</v>
+        <v>-15.477118055554456</v>
       </c>
       <c r="J25" s="3">
-        <v>231.02</v>
+        <v>208.79</v>
       </c>
       <c r="K25" s="3">
-        <v>231.02</v>
+        <v>208.79</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
@@ -1633,25 +1633,25 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>10716</v>
+        <v>10555</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="1">
-        <v>45885.561157407406</v>
+        <v>45883.417129629626</v>
       </c>
       <c r="H26" s="1">
-        <v>45855.561655092592</v>
+        <v>45853.417523148149</v>
       </c>
       <c r="I26" s="2">
-        <v>-23.561157407406427</v>
+        <v>-19.417129629626288</v>
       </c>
       <c r="J26" s="3">
-        <v>236.83</v>
+        <v>231.02</v>
       </c>
       <c r="K26" s="3">
-        <v>236.83</v>
+        <v>231.02</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -1674,25 +1674,25 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>10887</v>
+        <v>10716</v>
       </c>
       <c r="F27" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="1">
-        <v>45890.594178240739</v>
+        <v>45885.561157407406</v>
       </c>
       <c r="H27" s="1">
-        <v>45860.594571759255</v>
+        <v>45855.561655092592</v>
       </c>
       <c r="I27" s="2">
-        <v>-28.594178240738984</v>
+        <v>-21.561157407406427</v>
       </c>
       <c r="J27" s="3">
-        <v>66.320000000000007</v>
+        <v>236.83</v>
       </c>
       <c r="K27" s="3">
-        <v>66.320000000000007</v>
+        <v>236.83</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -1715,25 +1715,25 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>10960</v>
+        <v>10887</v>
       </c>
       <c r="F28" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="1">
-        <v>45891.569016203699</v>
+        <v>45890.594178240739</v>
       </c>
       <c r="H28" s="1">
-        <v>45861.569016203699</v>
+        <v>45860.594571759255</v>
       </c>
       <c r="I28" s="2">
-        <v>-29.569016203698993</v>
+        <v>-26.594178240738984</v>
       </c>
       <c r="J28" s="3">
-        <v>217.13</v>
+        <v>66.320000000000007</v>
       </c>
       <c r="K28" s="3">
-        <v>217.13</v>
+        <v>66.320000000000007</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
@@ -1744,10 +1744,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>211110264</v>
+        <v>211110212</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1756,39 +1756,39 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>6743</v>
+        <v>10960</v>
       </c>
       <c r="F29" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="1">
-        <v>45800.598414351851</v>
+        <v>45891.569016203699</v>
       </c>
       <c r="H29" s="1">
-        <v>45770.600486111107</v>
+        <v>45861.569016203699</v>
       </c>
       <c r="I29" s="2">
-        <v>61.401585648149194</v>
+        <v>-27.569016203698993</v>
       </c>
       <c r="J29" s="3">
-        <v>519.91999999999996</v>
+        <v>217.13</v>
       </c>
       <c r="K29" s="3">
-        <v>519.91999999999996</v>
+        <v>217.13</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>211110264</v>
+        <v>211110212</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1797,39 +1797,39 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>8698</v>
+        <v>11077</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="1">
-        <v>45837.66951388889</v>
+        <v>45893.634097222217</v>
       </c>
       <c r="H30" s="1">
-        <v>45807.669710648144</v>
+        <v>45863.634097222217</v>
       </c>
       <c r="I30" s="2">
-        <v>24.330486111110076</v>
+        <v>-29.634097222216951</v>
       </c>
       <c r="J30" s="3">
-        <v>87.67</v>
+        <v>22.37</v>
       </c>
       <c r="K30" s="3">
-        <v>87.67</v>
+        <v>22.37</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>211110285</v>
+        <v>211110264</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1838,39 +1838,39 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>10280</v>
+        <v>6743</v>
       </c>
       <c r="F31" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="1">
-        <v>45876.500960648147</v>
+        <v>45800.598414351851</v>
       </c>
       <c r="H31" s="1">
-        <v>45846.501273148147</v>
+        <v>45770.600486111107</v>
       </c>
       <c r="I31" s="2">
-        <v>-14.500960648147156</v>
+        <v>63.401585648149194</v>
       </c>
       <c r="J31" s="3">
-        <v>285.86</v>
+        <v>519.91999999999996</v>
       </c>
       <c r="K31" s="3">
-        <v>285.86</v>
+        <v>519.91999999999996</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>211110285</v>
+        <v>211110264</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1879,80 +1879,80 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>10540</v>
+        <v>8698</v>
       </c>
       <c r="F32" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="1">
-        <v>45882.633125</v>
+        <v>45837.66951388889</v>
       </c>
       <c r="H32" s="1">
-        <v>45852.63585648148</v>
+        <v>45807.669710648144</v>
       </c>
       <c r="I32" s="2">
-        <v>-20.633125000000291</v>
+        <v>26.330486111110076</v>
       </c>
       <c r="J32" s="3">
-        <v>98.89</v>
+        <v>87.67</v>
       </c>
       <c r="K32" s="3">
-        <v>98.89</v>
+        <v>87.67</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>211110364</v>
+        <v>211110285</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33">
-        <v>472</v>
+        <v>10280</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45842</v>
+        <v>45876.500960648147</v>
       </c>
       <c r="H33" s="1">
-        <v>45812</v>
+        <v>45846.501273148147</v>
       </c>
       <c r="I33" s="2">
-        <v>20</v>
+        <v>-12.500960648147156</v>
       </c>
       <c r="J33" s="3">
-        <v>-3.2</v>
+        <v>285.86</v>
       </c>
       <c r="K33" s="3">
-        <v>-3.2</v>
+        <v>285.86</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>211110364</v>
+        <v>211110285</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1961,39 +1961,39 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>8835</v>
+        <v>10540</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45842.41815972222</v>
+        <v>45882.633125</v>
       </c>
       <c r="H34" s="1">
-        <v>45812.419270833328</v>
+        <v>45852.63585648148</v>
       </c>
       <c r="I34" s="2">
-        <v>19.581840277780429</v>
+        <v>-18.633125000000291</v>
       </c>
       <c r="J34" s="3">
-        <v>545.74</v>
+        <v>98.89</v>
       </c>
       <c r="K34" s="3">
-        <v>545.74</v>
+        <v>98.89</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>211110364</v>
+        <v>211110285</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -2002,31 +2002,31 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>9022</v>
+        <v>11084</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="1">
-        <v>45847.487037037034</v>
+        <v>45893.645856481482</v>
       </c>
       <c r="H35" s="1">
-        <v>45817.492650462962</v>
+        <v>45863.645856481482</v>
       </c>
       <c r="I35" s="2">
-        <v>14.512962962966412</v>
+        <v>-29.645856481482042</v>
       </c>
       <c r="J35" s="3">
-        <v>580.85</v>
+        <v>226.82</v>
       </c>
       <c r="K35" s="3">
-        <v>580.85</v>
+        <v>226.82</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2037,31 +2037,31 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
       </c>
       <c r="E36">
-        <v>9083</v>
+        <v>472</v>
       </c>
       <c r="F36" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="1">
-        <v>45849.518437499995</v>
+        <v>45842</v>
       </c>
       <c r="H36" s="1">
-        <v>45819.532013888886</v>
+        <v>45812</v>
       </c>
       <c r="I36" s="2">
-        <v>12.481562500004657</v>
+        <v>22</v>
       </c>
       <c r="J36" s="3">
-        <v>1187.4100000000001</v>
+        <v>-3.2</v>
       </c>
       <c r="K36" s="3">
-        <v>1187.4100000000001</v>
+        <v>-3.2</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2084,25 +2084,25 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>9243</v>
+        <v>9083</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="1">
-        <v>45851.557847222219</v>
+        <v>45849.518437499995</v>
       </c>
       <c r="H37" s="1">
-        <v>45821.558275462958</v>
+        <v>45819.532013888886</v>
       </c>
       <c r="I37" s="2">
-        <v>10.442152777781303</v>
+        <v>14.481562500004657</v>
       </c>
       <c r="J37" s="3">
-        <v>207.52</v>
+        <v>1187.4100000000001</v>
       </c>
       <c r="K37" s="3">
-        <v>207.52</v>
+        <v>1187.4100000000001</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2125,25 +2125,25 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>9302</v>
+        <v>9243</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
       </c>
       <c r="G38" s="1">
-        <v>45854.463402777779</v>
+        <v>45851.557847222219</v>
       </c>
       <c r="H38" s="1">
-        <v>45824.464004629626</v>
+        <v>45821.558275462958</v>
       </c>
       <c r="I38" s="2">
-        <v>7.5365972222207347</v>
+        <v>12.442152777781303</v>
       </c>
       <c r="J38" s="3">
-        <v>304.15000000000003</v>
+        <v>207.52</v>
       </c>
       <c r="K38" s="3">
-        <v>304.15000000000003</v>
+        <v>207.52</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
@@ -2166,31 +2166,31 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>9426</v>
+        <v>9302</v>
       </c>
       <c r="F39" t="s">
         <v>20</v>
       </c>
       <c r="G39" s="1">
-        <v>45856.440613425926</v>
+        <v>45854.463402777779</v>
       </c>
       <c r="H39" s="1">
-        <v>45826.441643518519</v>
+        <v>45824.464004629626</v>
       </c>
       <c r="I39" s="2">
-        <v>5.5593865740738693</v>
+        <v>9.5365972222207347</v>
       </c>
       <c r="J39" s="3">
-        <v>65.47</v>
+        <v>304.15000000000003</v>
       </c>
       <c r="K39" s="3">
-        <v>65.47</v>
+        <v>304.15000000000003</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2207,31 +2207,31 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>9475</v>
+        <v>9426</v>
       </c>
       <c r="F40" t="s">
         <v>20</v>
       </c>
       <c r="G40" s="1">
-        <v>45858.441377314812</v>
+        <v>45856.440613425926</v>
       </c>
       <c r="H40" s="1">
-        <v>45828.442824074074</v>
+        <v>45826.441643518519</v>
       </c>
       <c r="I40" s="2">
-        <v>3.5586226851883112</v>
+        <v>7.5593865740738693</v>
       </c>
       <c r="J40" s="3">
-        <v>153.80000000000001</v>
+        <v>65.47</v>
       </c>
       <c r="K40" s="3">
-        <v>153.80000000000001</v>
+        <v>65.47</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2248,25 +2248,25 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>9660</v>
+        <v>9475</v>
       </c>
       <c r="F41" t="s">
         <v>20</v>
       </c>
       <c r="G41" s="1">
-        <v>45863.40216435185</v>
+        <v>45858.441377314812</v>
       </c>
       <c r="H41" s="1">
-        <v>45833.402662037035</v>
+        <v>45828.442824074074</v>
       </c>
       <c r="I41" s="2">
-        <v>-1.4021643518499332</v>
+        <v>5.5586226851883112</v>
       </c>
       <c r="J41" s="3">
-        <v>32.85</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="K41" s="3">
-        <v>32.85</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
@@ -2289,25 +2289,25 @@
         <v>15</v>
       </c>
       <c r="E42">
-        <v>9699</v>
+        <v>9660</v>
       </c>
       <c r="F42" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="1">
-        <v>45863.495011574072</v>
+        <v>45863.40216435185</v>
       </c>
       <c r="H42" s="1">
-        <v>45833.496192129627</v>
+        <v>45833.402662037035</v>
       </c>
       <c r="I42" s="2">
-        <v>-1.495011574072123</v>
+        <v>0.59783564815006685</v>
       </c>
       <c r="J42" s="3">
-        <v>994.62</v>
+        <v>32.85</v>
       </c>
       <c r="K42" s="3">
-        <v>994.62</v>
+        <v>32.85</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
@@ -2330,25 +2330,25 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>9865</v>
+        <v>9699</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="1">
-        <v>45865.470057870371</v>
+        <v>45863.495011574072</v>
       </c>
       <c r="H43" s="1">
-        <v>45835.474293981482</v>
+        <v>45833.496192129627</v>
       </c>
       <c r="I43" s="2">
-        <v>-3.4700578703705105</v>
+        <v>0.50498842592787696</v>
       </c>
       <c r="J43" s="3">
-        <v>528.76</v>
+        <v>994.62</v>
       </c>
       <c r="K43" s="3">
-        <v>528.76</v>
+        <v>994.62</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
@@ -2365,31 +2365,31 @@
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
       </c>
       <c r="E44">
-        <v>596</v>
+        <v>9865</v>
       </c>
       <c r="F44" t="s">
         <v>20</v>
       </c>
       <c r="G44" s="1">
-        <v>45868</v>
+        <v>45865.470057870371</v>
       </c>
       <c r="H44" s="1">
-        <v>45838</v>
+        <v>45835.474293981482</v>
       </c>
       <c r="I44" s="2">
-        <v>-6</v>
+        <v>-1.4700578703705105</v>
       </c>
       <c r="J44" s="3">
-        <v>-15.85</v>
+        <v>528.76</v>
       </c>
       <c r="K44" s="3">
-        <v>-15.85</v>
+        <v>528.76</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -2406,31 +2406,31 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D45">
+        <v>2025</v>
       </c>
       <c r="E45">
-        <v>9900</v>
+        <v>596</v>
       </c>
       <c r="F45" t="s">
         <v>20</v>
       </c>
       <c r="G45" s="1">
-        <v>45868.412268518514</v>
+        <v>45868</v>
       </c>
       <c r="H45" s="1">
-        <v>45838.412754629629</v>
+        <v>45838</v>
       </c>
       <c r="I45" s="2">
-        <v>-6.4122685185138835</v>
+        <v>-4</v>
       </c>
       <c r="J45" s="3">
-        <v>119.13</v>
+        <v>-15.85</v>
       </c>
       <c r="K45" s="3">
-        <v>119.13</v>
+        <v>-15.85</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
@@ -2453,25 +2453,25 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>9968</v>
+        <v>9900</v>
       </c>
       <c r="F46" t="s">
         <v>20</v>
       </c>
       <c r="G46" s="1">
-        <v>45870.436192129629</v>
+        <v>45868.412268518514</v>
       </c>
       <c r="H46" s="1">
-        <v>45840.436192129629</v>
+        <v>45838.412754629629</v>
       </c>
       <c r="I46" s="2">
-        <v>-8.4361921296294895</v>
+        <v>-4.4122685185138835</v>
       </c>
       <c r="J46" s="3">
-        <v>283.05</v>
+        <v>119.13</v>
       </c>
       <c r="K46" s="3">
-        <v>283.05</v>
+        <v>119.13</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
@@ -2494,25 +2494,25 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>10019</v>
+        <v>9968</v>
       </c>
       <c r="F47" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="1">
-        <v>45870.684710648144</v>
+        <v>45870.436192129629</v>
       </c>
       <c r="H47" s="1">
-        <v>45840.685428240737</v>
+        <v>45840.436192129629</v>
       </c>
       <c r="I47" s="2">
-        <v>-8.684710648143664</v>
+        <v>-6.4361921296294895</v>
       </c>
       <c r="J47" s="3">
-        <v>228.83</v>
+        <v>283.05</v>
       </c>
       <c r="K47" s="3">
-        <v>228.83</v>
+        <v>283.05</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
@@ -2535,25 +2535,25 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>10147</v>
+        <v>10019</v>
       </c>
       <c r="F48" t="s">
         <v>20</v>
       </c>
       <c r="G48" s="1">
-        <v>45872.453900462962</v>
+        <v>45870.684710648144</v>
       </c>
       <c r="H48" s="1">
-        <v>45842.453900462962</v>
+        <v>45840.685428240737</v>
       </c>
       <c r="I48" s="2">
-        <v>-10.453900462962338</v>
+        <v>-6.684710648143664</v>
       </c>
       <c r="J48" s="3">
-        <v>545.98</v>
+        <v>228.83</v>
       </c>
       <c r="K48" s="3">
-        <v>545.98</v>
+        <v>228.83</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
@@ -2576,25 +2576,25 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>10156</v>
+        <v>10147</v>
       </c>
       <c r="F49" t="s">
         <v>20</v>
       </c>
       <c r="G49" s="1">
-        <v>45872.493888888886</v>
+        <v>45872.453900462962</v>
       </c>
       <c r="H49" s="1">
-        <v>45842.493888888886</v>
+        <v>45842.453900462962</v>
       </c>
       <c r="I49" s="2">
-        <v>-10.493888888886431</v>
+        <v>-8.4539004629623378</v>
       </c>
       <c r="J49" s="3">
-        <v>2.63</v>
+        <v>545.98</v>
       </c>
       <c r="K49" s="3">
-        <v>2.63</v>
+        <v>545.98</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
@@ -2617,25 +2617,25 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>10203</v>
+        <v>10156</v>
       </c>
       <c r="F50" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="1">
-        <v>45875.468877314815</v>
+        <v>45872.493888888886</v>
       </c>
       <c r="H50" s="1">
-        <v>45845.468888888885</v>
+        <v>45842.493888888886</v>
       </c>
       <c r="I50" s="2">
-        <v>-13.468877314815472</v>
+        <v>-8.4938888888864312</v>
       </c>
       <c r="J50" s="3">
-        <v>338.76</v>
+        <v>2.63</v>
       </c>
       <c r="K50" s="3">
-        <v>338.76</v>
+        <v>2.63</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -2658,25 +2658,25 @@
         <v>15</v>
       </c>
       <c r="E51">
-        <v>10342</v>
+        <v>10203</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="1">
-        <v>45877.430671296293</v>
+        <v>45875.468877314815</v>
       </c>
       <c r="H51" s="1">
-        <v>45847.430671296293</v>
+        <v>45845.468888888885</v>
       </c>
       <c r="I51" s="2">
-        <v>-15.43067129629344</v>
+        <v>-11.468877314815472</v>
       </c>
       <c r="J51" s="3">
-        <v>460.23</v>
+        <v>338.76</v>
       </c>
       <c r="K51" s="3">
-        <v>460.23</v>
+        <v>338.76</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -2699,25 +2699,25 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>10469</v>
+        <v>10342</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
       </c>
       <c r="G52" s="1">
-        <v>45879.403611111113</v>
+        <v>45877.430671296293</v>
       </c>
       <c r="H52" s="1">
-        <v>45849.403611111113</v>
+        <v>45847.430671296293</v>
       </c>
       <c r="I52" s="2">
-        <v>-17.403611111112696</v>
+        <v>-13.43067129629344</v>
       </c>
       <c r="J52" s="3">
-        <v>544.83000000000004</v>
+        <v>460.23</v>
       </c>
       <c r="K52" s="3">
-        <v>544.83000000000004</v>
+        <v>460.23</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -2740,25 +2740,25 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>10515</v>
+        <v>10469</v>
       </c>
       <c r="F53" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="1">
-        <v>45882.474629629629</v>
+        <v>45879.403611111113</v>
       </c>
       <c r="H53" s="1">
-        <v>45852.474629629629</v>
+        <v>45849.403611111113</v>
       </c>
       <c r="I53" s="2">
-        <v>-20.474629629628907</v>
+        <v>-15.403611111112696</v>
       </c>
       <c r="J53" s="3">
-        <v>603.02</v>
+        <v>544.83000000000004</v>
       </c>
       <c r="K53" s="3">
-        <v>603.02</v>
+        <v>544.83000000000004</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -2781,25 +2781,25 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>10646</v>
+        <v>10515</v>
       </c>
       <c r="F54" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="1">
-        <v>45884.469351851847</v>
+        <v>45882.474629629629</v>
       </c>
       <c r="H54" s="1">
-        <v>45854.469351851847</v>
+        <v>45852.474629629629</v>
       </c>
       <c r="I54" s="2">
-        <v>-22.469351851847023</v>
+        <v>-18.474629629628907</v>
       </c>
       <c r="J54" s="3">
-        <v>447.87</v>
+        <v>603.02</v>
       </c>
       <c r="K54" s="3">
-        <v>447.87</v>
+        <v>603.02</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
@@ -2822,25 +2822,25 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>10768</v>
+        <v>10646</v>
       </c>
       <c r="F55" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="1">
-        <v>45886.485416666663</v>
+        <v>45884.469351851847</v>
       </c>
       <c r="H55" s="1">
-        <v>45856.48542824074</v>
+        <v>45854.469351851847</v>
       </c>
       <c r="I55" s="2">
-        <v>-24.485416666662786</v>
+        <v>-20.469351851847023</v>
       </c>
       <c r="J55" s="3">
-        <v>783.17000000000007</v>
+        <v>447.87</v>
       </c>
       <c r="K55" s="3">
-        <v>783.17000000000007</v>
+        <v>447.87</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
@@ -2863,25 +2863,25 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>10821</v>
+        <v>10768</v>
       </c>
       <c r="F56" t="s">
         <v>20</v>
       </c>
       <c r="G56" s="1">
-        <v>45889.487719907404</v>
+        <v>45886.485416666663</v>
       </c>
       <c r="H56" s="1">
-        <v>45859.487719907404</v>
+        <v>45856.48542824074</v>
       </c>
       <c r="I56" s="2">
-        <v>-27.487719907403516</v>
+        <v>-22.485416666662786</v>
       </c>
       <c r="J56" s="3">
-        <v>527.75</v>
+        <v>783.17000000000007</v>
       </c>
       <c r="K56" s="3">
-        <v>527.75</v>
+        <v>783.17000000000007</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -2904,25 +2904,25 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>10932</v>
+        <v>10821</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="1">
-        <v>45891.550300925926</v>
+        <v>45889.487719907404</v>
       </c>
       <c r="H57" s="1">
-        <v>45861.550312499996</v>
+        <v>45859.487719907404</v>
       </c>
       <c r="I57" s="2">
-        <v>-29.550300925926422</v>
+        <v>-25.487719907403516</v>
       </c>
       <c r="J57" s="3">
-        <v>548.45000000000005</v>
+        <v>527.75</v>
       </c>
       <c r="K57" s="3">
-        <v>548.45000000000005</v>
+        <v>527.75</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2933,51 +2933,51 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>211110472</v>
+        <v>211110364</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <v>10932</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
       </c>
       <c r="G58" s="1">
-        <v>45760</v>
+        <v>45891.550300925926</v>
       </c>
       <c r="H58" s="1">
-        <v>45730</v>
+        <v>45861.550312499996</v>
       </c>
       <c r="I58" s="2">
-        <v>102</v>
+        <v>-27.550300925926422</v>
       </c>
       <c r="J58" s="3">
-        <v>-541.79999999999995</v>
+        <v>548.45000000000005</v>
       </c>
       <c r="K58" s="3">
-        <v>-10.33</v>
+        <v>548.45000000000005</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
       </c>
       <c r="M58" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>211110472</v>
+        <v>211110364</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -2986,31 +2986,31 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>7615</v>
+        <v>11071</v>
       </c>
       <c r="F59" t="s">
         <v>20</v>
       </c>
       <c r="G59" s="1">
-        <v>45820.376446759255</v>
+        <v>45893.524328703701</v>
       </c>
       <c r="H59" s="1">
-        <v>45790.376736111109</v>
+        <v>45863.524328703701</v>
       </c>
       <c r="I59" s="2">
-        <v>41.623553240744513</v>
+        <v>-29.52432870370103</v>
       </c>
       <c r="J59" s="3">
-        <v>171.03</v>
+        <v>558.34</v>
       </c>
       <c r="K59" s="3">
-        <v>171.03</v>
+        <v>558.34</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
       </c>
       <c r="M59" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3021,37 +3021,37 @@
         <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60">
-        <v>7919</v>
+        <v>30</v>
+      </c>
+      <c r="E60" t="s">
+        <v>31</v>
       </c>
       <c r="F60" t="s">
         <v>20</v>
       </c>
       <c r="G60" s="1">
-        <v>45823.521203703705</v>
+        <v>45760</v>
       </c>
       <c r="H60" s="1">
-        <v>45793.521898148145</v>
+        <v>45730</v>
       </c>
       <c r="I60" s="2">
-        <v>38.478796296294604</v>
+        <v>104</v>
       </c>
       <c r="J60" s="3">
-        <v>114.67</v>
+        <v>-541.79999999999995</v>
       </c>
       <c r="K60" s="3">
-        <v>114.67</v>
+        <v>-10.33</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
       </c>
       <c r="M60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3068,25 +3068,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>7974</v>
+        <v>7615</v>
       </c>
       <c r="F61" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="1">
-        <v>45826.564027777778</v>
+        <v>45820.376446759255</v>
       </c>
       <c r="H61" s="1">
-        <v>45796.564733796295</v>
+        <v>45790.376736111109</v>
       </c>
       <c r="I61" s="2">
-        <v>35.435972222221608</v>
+        <v>43.623553240744513</v>
       </c>
       <c r="J61" s="3">
-        <v>144.9</v>
+        <v>171.03</v>
       </c>
       <c r="K61" s="3">
-        <v>144.9</v>
+        <v>171.03</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3109,31 +3109,31 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>8341</v>
+        <v>7919</v>
       </c>
       <c r="F62" t="s">
         <v>20</v>
       </c>
       <c r="G62" s="1">
-        <v>45833.405740740738</v>
+        <v>45823.521203703705</v>
       </c>
       <c r="H62" s="1">
-        <v>45803.406655092593</v>
+        <v>45793.521898148145</v>
       </c>
       <c r="I62" s="2">
-        <v>28.594259259261889</v>
+        <v>40.478796296294604</v>
       </c>
       <c r="J62" s="3">
-        <v>152.03</v>
+        <v>114.67</v>
       </c>
       <c r="K62" s="3">
-        <v>152.03</v>
+        <v>114.67</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
       </c>
       <c r="M62" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3150,31 +3150,31 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>8711</v>
+        <v>7974</v>
       </c>
       <c r="F63" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="1">
-        <v>45840.400567129625</v>
+        <v>45826.564027777778</v>
       </c>
       <c r="H63" s="1">
-        <v>45810.40079861111</v>
+        <v>45796.564733796295</v>
       </c>
       <c r="I63" s="2">
-        <v>21.599432870374585</v>
+        <v>37.435972222221608</v>
       </c>
       <c r="J63" s="3">
-        <v>264.84000000000003</v>
+        <v>144.9</v>
       </c>
       <c r="K63" s="3">
-        <v>264.84000000000003</v>
+        <v>144.9</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
       </c>
       <c r="M63" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3191,31 +3191,31 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>8904</v>
+        <v>8341</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
       </c>
       <c r="G64" s="1">
-        <v>45843.470856481479</v>
+        <v>45833.405740740738</v>
       </c>
       <c r="H64" s="1">
-        <v>45813.471493055556</v>
+        <v>45803.406655092593</v>
       </c>
       <c r="I64" s="2">
-        <v>18.529143518520868</v>
+        <v>30.594259259261889</v>
       </c>
       <c r="J64" s="3">
-        <v>50.93</v>
+        <v>152.03</v>
       </c>
       <c r="K64" s="3">
-        <v>50.93</v>
+        <v>152.03</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
       </c>
       <c r="M64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3226,31 +3226,31 @@
         <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="E65">
+        <v>8711</v>
       </c>
       <c r="F65" t="s">
         <v>20</v>
       </c>
       <c r="G65" s="1">
-        <v>45847</v>
+        <v>45840.400567129625</v>
       </c>
       <c r="H65" s="1">
-        <v>45817</v>
+        <v>45810.40079861111</v>
       </c>
       <c r="I65" s="2">
-        <v>15</v>
+        <v>23.599432870374585</v>
       </c>
       <c r="J65" s="3">
-        <v>-224.79</v>
+        <v>264.84000000000003</v>
       </c>
       <c r="K65" s="3">
-        <v>-9</v>
+        <v>264.84000000000003</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -3273,25 +3273,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>9002</v>
+        <v>8904</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="1">
-        <v>45847.441782407404</v>
+        <v>45843.470856481479</v>
       </c>
       <c r="H66" s="1">
-        <v>45817.442870370367</v>
+        <v>45813.471493055556</v>
       </c>
       <c r="I66" s="2">
-        <v>14.558217592595611</v>
+        <v>20.529143518520868</v>
       </c>
       <c r="J66" s="3">
-        <v>221.07</v>
+        <v>50.93</v>
       </c>
       <c r="K66" s="3">
-        <v>221.07</v>
+        <v>50.93</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -3308,31 +3308,31 @@
         <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67">
-        <v>9109</v>
+        <v>30</v>
+      </c>
+      <c r="E67" t="s">
+        <v>31</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
       </c>
       <c r="G67" s="1">
-        <v>45849.62940972222</v>
+        <v>45847</v>
       </c>
       <c r="H67" s="1">
-        <v>45819.630104166667</v>
+        <v>45817</v>
       </c>
       <c r="I67" s="2">
-        <v>12.370590277780138</v>
+        <v>17</v>
       </c>
       <c r="J67" s="3">
-        <v>33.47</v>
+        <v>-224.79</v>
       </c>
       <c r="K67" s="3">
-        <v>33.47</v>
+        <v>-9</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -3355,25 +3355,25 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>9291</v>
+        <v>9002</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
       </c>
       <c r="G68" s="1">
-        <v>45854.443333333329</v>
+        <v>45847.441782407404</v>
       </c>
       <c r="H68" s="1">
-        <v>45824.44427083333</v>
+        <v>45817.442870370367</v>
       </c>
       <c r="I68" s="2">
-        <v>7.5566666666709352</v>
+        <v>16.558217592595611</v>
       </c>
       <c r="J68" s="3">
-        <v>156.46</v>
+        <v>221.07</v>
       </c>
       <c r="K68" s="3">
-        <v>156.46</v>
+        <v>221.07</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -3396,31 +3396,31 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>9627</v>
+        <v>9109</v>
       </c>
       <c r="F69" t="s">
         <v>20</v>
       </c>
       <c r="G69" s="1">
-        <v>45861.535300925927</v>
+        <v>45849.62940972222</v>
       </c>
       <c r="H69" s="1">
-        <v>45831.535729166666</v>
+        <v>45819.630104166667</v>
       </c>
       <c r="I69" s="2">
-        <v>0.46469907407299615</v>
+        <v>14.370590277780138</v>
       </c>
       <c r="J69" s="3">
-        <v>244.68</v>
+        <v>33.47</v>
       </c>
       <c r="K69" s="3">
-        <v>244.68</v>
+        <v>33.47</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
       </c>
       <c r="M69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3437,31 +3437,31 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>10211</v>
+        <v>9291</v>
       </c>
       <c r="F70" t="s">
         <v>20</v>
       </c>
       <c r="G70" s="1">
-        <v>45875.481921296298</v>
+        <v>45854.443333333329</v>
       </c>
       <c r="H70" s="1">
-        <v>45845.481932870367</v>
+        <v>45824.44427083333</v>
       </c>
       <c r="I70" s="2">
-        <v>-13.481921296297514</v>
+        <v>9.5566666666709352</v>
       </c>
       <c r="J70" s="3">
-        <v>276.02</v>
+        <v>156.46</v>
       </c>
       <c r="K70" s="3">
-        <v>276.02</v>
+        <v>156.46</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
       </c>
       <c r="M70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3478,31 +3478,31 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>10509</v>
+        <v>9627</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
       </c>
       <c r="G71" s="1">
-        <v>45882.471388888887</v>
+        <v>45861.535300925927</v>
       </c>
       <c r="H71" s="1">
-        <v>45852.471388888887</v>
+        <v>45831.535729166666</v>
       </c>
       <c r="I71" s="2">
-        <v>-20.471388888887304</v>
+        <v>2.4646990740729962</v>
       </c>
       <c r="J71" s="3">
-        <v>316.33</v>
+        <v>244.68</v>
       </c>
       <c r="K71" s="3">
-        <v>316.33</v>
+        <v>244.68</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3519,25 +3519,25 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>10787</v>
+        <v>10211</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
       </c>
       <c r="G72" s="1">
-        <v>45886.62290509259</v>
+        <v>45875.481921296298</v>
       </c>
       <c r="H72" s="1">
-        <v>45856.623715277776</v>
+        <v>45845.481932870367</v>
       </c>
       <c r="I72" s="2">
-        <v>-24.622905092590372</v>
+        <v>-11.481921296297514</v>
       </c>
       <c r="J72" s="3">
-        <v>55.27</v>
+        <v>276.02</v>
       </c>
       <c r="K72" s="3">
-        <v>55.27</v>
+        <v>276.02</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
@@ -3560,25 +3560,25 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>10813</v>
+        <v>10509</v>
       </c>
       <c r="F73" t="s">
         <v>20</v>
       </c>
       <c r="G73" s="1">
-        <v>45889.484826388885</v>
+        <v>45882.471388888887</v>
       </c>
       <c r="H73" s="1">
-        <v>45859.484826388885</v>
+        <v>45852.471388888887</v>
       </c>
       <c r="I73" s="2">
-        <v>-27.484826388885267</v>
+        <v>-18.471388888887304</v>
       </c>
       <c r="J73" s="3">
-        <v>200.74</v>
+        <v>316.33</v>
       </c>
       <c r="K73" s="3">
-        <v>200.74</v>
+        <v>316.33</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
@@ -3589,10 +3589,10 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>211110601</v>
+        <v>211110472</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3601,39 +3601,39 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>6561</v>
+        <v>10787</v>
       </c>
       <c r="F74" t="s">
         <v>20</v>
       </c>
       <c r="G74" s="1">
-        <v>45825.60800925926</v>
+        <v>45886.62290509259</v>
       </c>
       <c r="H74" s="1">
-        <v>45765.612696759257</v>
+        <v>45856.623715277776</v>
       </c>
       <c r="I74" s="2">
-        <v>36.391990740739857</v>
+        <v>-22.622905092590372</v>
       </c>
       <c r="J74" s="3">
-        <v>895.24</v>
+        <v>55.27</v>
       </c>
       <c r="K74" s="3">
-        <v>895.24</v>
+        <v>55.27</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
       </c>
       <c r="M74" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>211110601</v>
+        <v>211110472</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3642,39 +3642,39 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>7436</v>
+        <v>10813</v>
       </c>
       <c r="F75" t="s">
         <v>20</v>
       </c>
       <c r="G75" s="1">
-        <v>45845.556817129625</v>
+        <v>45889.484826388885</v>
       </c>
       <c r="H75" s="1">
-        <v>45785.560891203699</v>
+        <v>45859.484826388885</v>
       </c>
       <c r="I75" s="2">
-        <v>16.443182870374585</v>
+        <v>-25.484826388885267</v>
       </c>
       <c r="J75" s="3">
-        <v>897.49</v>
+        <v>200.74</v>
       </c>
       <c r="K75" s="3">
-        <v>897.49</v>
+        <v>200.74</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
       </c>
       <c r="M75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>211110601</v>
+        <v>211110472</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3683,31 +3683,31 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>8220</v>
+        <v>11083</v>
       </c>
       <c r="F76" t="s">
         <v>20</v>
       </c>
       <c r="G76" s="1">
-        <v>45859.486087962963</v>
+        <v>45893.645833333328</v>
       </c>
       <c r="H76" s="1">
-        <v>45799.496874999997</v>
+        <v>45863.645833333328</v>
       </c>
       <c r="I76" s="2">
-        <v>2.5139120370367891</v>
+        <v>-29.645833333328483</v>
       </c>
       <c r="J76" s="3">
-        <v>1334.16</v>
+        <v>54.58</v>
       </c>
       <c r="K76" s="3">
-        <v>1334.16</v>
+        <v>54.58</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
       </c>
       <c r="M76" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3720,35 +3720,35 @@
       <c r="C77" t="s">
         <v>14</v>
       </c>
-      <c r="D77">
-        <v>2025</v>
+      <c r="D77" t="s">
+        <v>15</v>
       </c>
       <c r="E77">
-        <v>62</v>
+        <v>7436</v>
       </c>
       <c r="F77" t="s">
         <v>20</v>
       </c>
       <c r="G77" s="1">
-        <v>45874.611296296294</v>
+        <v>45845.556817129625</v>
       </c>
       <c r="H77" s="1">
-        <v>45814.611319444441</v>
+        <v>45785.560891203699</v>
       </c>
       <c r="I77" s="2">
-        <v>-12.611296296294313</v>
+        <v>18.443182870374585</v>
       </c>
       <c r="J77" s="3">
-        <v>1149.52</v>
+        <v>897.49</v>
       </c>
       <c r="K77" s="3">
-        <v>1149.52</v>
+        <v>897.49</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
       </c>
       <c r="M77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3761,35 +3761,35 @@
       <c r="C78" t="s">
         <v>14</v>
       </c>
-      <c r="D78">
-        <v>2025</v>
+      <c r="D78" t="s">
+        <v>15</v>
       </c>
       <c r="E78">
-        <v>68</v>
+        <v>8220</v>
       </c>
       <c r="F78" t="s">
         <v>20</v>
       </c>
       <c r="G78" s="1">
-        <v>45874.685046296298</v>
+        <v>45859.486087962963</v>
       </c>
       <c r="H78" s="1">
-        <v>45814.685057870367</v>
+        <v>45799.496874999997</v>
       </c>
       <c r="I78" s="2">
-        <v>-12.685046296297514</v>
+        <v>4.5139120370367891</v>
       </c>
       <c r="J78" s="3">
-        <v>124.59</v>
+        <v>1334.16</v>
       </c>
       <c r="K78" s="3">
-        <v>124.59</v>
+        <v>1334.16</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
       </c>
       <c r="M78" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3802,29 +3802,29 @@
       <c r="C79" t="s">
         <v>14</v>
       </c>
-      <c r="D79" t="s">
-        <v>15</v>
+      <c r="D79">
+        <v>2025</v>
       </c>
       <c r="E79">
-        <v>9275</v>
+        <v>62</v>
       </c>
       <c r="F79" t="s">
         <v>20</v>
       </c>
       <c r="G79" s="1">
-        <v>45884.33143518518</v>
+        <v>45874.611296296294</v>
       </c>
       <c r="H79" s="1">
-        <v>45824.332418981481</v>
+        <v>45814.611319444441</v>
       </c>
       <c r="I79" s="2">
-        <v>-22.331435185180453</v>
+        <v>-10.611296296294313</v>
       </c>
       <c r="J79" s="3">
-        <v>1044.22</v>
+        <v>1149.52</v>
       </c>
       <c r="K79" s="3">
-        <v>1044.22</v>
+        <v>1149.52</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3843,29 +3843,29 @@
       <c r="C80" t="s">
         <v>14</v>
       </c>
-      <c r="D80" t="s">
-        <v>15</v>
+      <c r="D80">
+        <v>2025</v>
       </c>
       <c r="E80">
-        <v>10190</v>
+        <v>68</v>
       </c>
       <c r="F80" t="s">
         <v>20</v>
       </c>
       <c r="G80" s="1">
-        <v>45902.667199074072</v>
+        <v>45874.685046296298</v>
       </c>
       <c r="H80" s="1">
-        <v>45842.669027777774</v>
+        <v>45814.685057870367</v>
       </c>
       <c r="I80" s="2">
-        <v>-40.667199074072414</v>
+        <v>-10.685046296297514</v>
       </c>
       <c r="J80" s="3">
-        <v>732.56000000000006</v>
+        <v>124.59</v>
       </c>
       <c r="K80" s="3">
-        <v>732.56000000000006</v>
+        <v>124.59</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -3876,51 +3876,51 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>211110972</v>
+        <v>211110601</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
       </c>
       <c r="E81">
-        <v>147</v>
+        <v>9275</v>
       </c>
       <c r="F81" t="s">
         <v>20</v>
       </c>
       <c r="G81" s="1">
-        <v>45719</v>
+        <v>45884.33143518518</v>
       </c>
       <c r="H81" s="1">
-        <v>45719</v>
+        <v>45824.332418981481</v>
       </c>
       <c r="I81" s="2">
-        <v>143</v>
+        <v>-20.331435185180453</v>
       </c>
       <c r="J81" s="3">
-        <v>-70.86</v>
+        <v>1044.22</v>
       </c>
       <c r="K81" s="3">
-        <v>-70.86</v>
+        <v>1044.22</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>211110972</v>
+        <v>211110601</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3929,39 +3929,39 @@
         <v>15</v>
       </c>
       <c r="E82">
-        <v>7925</v>
+        <v>10190</v>
       </c>
       <c r="F82" t="s">
         <v>20</v>
       </c>
       <c r="G82" s="1">
-        <v>45793.585856481477</v>
+        <v>45902.667199074072</v>
       </c>
       <c r="H82" s="1">
-        <v>45793.585856481477</v>
+        <v>45842.669027777774</v>
       </c>
       <c r="I82" s="2">
-        <v>68.414143518522906</v>
+        <v>-38.667199074072414</v>
       </c>
       <c r="J82" s="3">
-        <v>305.11</v>
+        <v>732.56000000000006</v>
       </c>
       <c r="K82" s="3">
-        <v>305.11</v>
+        <v>732.56000000000006</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
       </c>
       <c r="M82" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>211111193</v>
+        <v>211110601</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3970,25 +3970,25 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>10278</v>
+        <v>11072</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
       </c>
       <c r="G83" s="1">
-        <v>45876.453530092593</v>
+        <v>45923.525937499995</v>
       </c>
       <c r="H83" s="1">
-        <v>45846.45412037037</v>
+        <v>45863.525949074072</v>
       </c>
       <c r="I83" s="2">
-        <v>-14.4535300925927</v>
+        <v>-59.525937499995052</v>
       </c>
       <c r="J83" s="3">
-        <v>185.83</v>
+        <v>1189.3500000000001</v>
       </c>
       <c r="K83" s="3">
-        <v>185.83</v>
+        <v>1189.3500000000001</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -3999,51 +3999,51 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>211111193</v>
+        <v>211110972</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D84">
+        <v>2025</v>
       </c>
       <c r="E84">
-        <v>10417</v>
+        <v>147</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
       </c>
       <c r="G84" s="1">
-        <v>45878.429606481477</v>
+        <v>45719</v>
       </c>
       <c r="H84" s="1">
-        <v>45848.429606481477</v>
+        <v>45719</v>
       </c>
       <c r="I84" s="2">
-        <v>-16.429606481477094</v>
+        <v>145</v>
       </c>
       <c r="J84" s="3">
-        <v>157.53</v>
+        <v>-70.86</v>
       </c>
       <c r="K84" s="3">
-        <v>157.53</v>
+        <v>-70.86</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
       </c>
       <c r="M84" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>211111193</v>
+        <v>211110972</v>
       </c>
       <c r="B85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -4052,39 +4052,39 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>10587</v>
+        <v>7925</v>
       </c>
       <c r="F85" t="s">
         <v>20</v>
       </c>
       <c r="G85" s="1">
-        <v>45883.65898148148</v>
+        <v>45793.585856481477</v>
       </c>
       <c r="H85" s="1">
-        <v>45853.659224537034</v>
+        <v>45793.585856481477</v>
       </c>
       <c r="I85" s="2">
-        <v>-21.658981481479714</v>
+        <v>70.414143518522906</v>
       </c>
       <c r="J85" s="3">
-        <v>256.97000000000003</v>
+        <v>305.11</v>
       </c>
       <c r="K85" s="3">
-        <v>256.97000000000003</v>
+        <v>305.11</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211111387</v>
+        <v>211111193</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4093,80 +4093,80 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>8713</v>
+        <v>10278</v>
       </c>
       <c r="F86" t="s">
         <v>20</v>
       </c>
       <c r="G86" s="1">
-        <v>45840.407696759255</v>
+        <v>45876.453530092593</v>
       </c>
       <c r="H86" s="1">
-        <v>45810.408043981479</v>
+        <v>45846.45412037037</v>
       </c>
       <c r="I86" s="2">
-        <v>21.592303240744513</v>
+        <v>-12.4535300925927</v>
       </c>
       <c r="J86" s="3">
-        <v>318.07</v>
+        <v>185.83</v>
       </c>
       <c r="K86" s="3">
-        <v>318.07</v>
+        <v>185.83</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
       </c>
       <c r="M86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211111387</v>
+        <v>211111193</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
       </c>
-      <c r="D87">
-        <v>2025</v>
+      <c r="D87" t="s">
+        <v>15</v>
       </c>
       <c r="E87">
-        <v>65</v>
+        <v>10417</v>
       </c>
       <c r="F87" t="s">
         <v>20</v>
       </c>
       <c r="G87" s="1">
-        <v>45844.617650462962</v>
+        <v>45878.429606481477</v>
       </c>
       <c r="H87" s="1">
-        <v>45814.617673611108</v>
+        <v>45848.429606481477</v>
       </c>
       <c r="I87" s="2">
-        <v>17.382349537037953</v>
+        <v>-14.429606481477094</v>
       </c>
       <c r="J87" s="3">
-        <v>277.62</v>
+        <v>157.53</v>
       </c>
       <c r="K87" s="3">
-        <v>277.62</v>
+        <v>157.53</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
       </c>
       <c r="M87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211111387</v>
+        <v>211111193</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4175,31 +4175,31 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>9101</v>
+        <v>10587</v>
       </c>
       <c r="F88" t="s">
         <v>20</v>
       </c>
       <c r="G88" s="1">
-        <v>45849.54788194444</v>
+        <v>45883.65898148148</v>
       </c>
       <c r="H88" s="1">
-        <v>45819.548425925925</v>
+        <v>45853.659224537034</v>
       </c>
       <c r="I88" s="2">
-        <v>12.452118055560277</v>
+        <v>-19.658981481479714</v>
       </c>
       <c r="J88" s="3">
-        <v>254.08</v>
+        <v>256.97000000000003</v>
       </c>
       <c r="K88" s="3">
-        <v>254.08</v>
+        <v>256.97000000000003</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
       </c>
       <c r="M88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4216,25 +4216,25 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>9316</v>
+        <v>8713</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
       </c>
       <c r="G89" s="1">
-        <v>45854.490671296291</v>
+        <v>45840.407696759255</v>
       </c>
       <c r="H89" s="1">
-        <v>45824.491307870368</v>
+        <v>45810.408043981479</v>
       </c>
       <c r="I89" s="2">
-        <v>7.5093287037088885</v>
+        <v>23.592303240744513</v>
       </c>
       <c r="J89" s="3">
-        <v>410.73</v>
+        <v>318.07</v>
       </c>
       <c r="K89" s="3">
-        <v>410.73</v>
+        <v>318.07</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
@@ -4253,29 +4253,29 @@
       <c r="C90" t="s">
         <v>14</v>
       </c>
-      <c r="D90" t="s">
-        <v>15</v>
+      <c r="D90">
+        <v>2025</v>
       </c>
       <c r="E90">
-        <v>9379</v>
+        <v>65</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
       </c>
       <c r="G90" s="1">
-        <v>45855.589236111111</v>
+        <v>45844.617650462962</v>
       </c>
       <c r="H90" s="1">
-        <v>45825.589965277773</v>
+        <v>45814.617673611108</v>
       </c>
       <c r="I90" s="2">
-        <v>6.4107638888890506</v>
+        <v>19.382349537037953</v>
       </c>
       <c r="J90" s="3">
-        <v>181.94</v>
+        <v>277.62</v>
       </c>
       <c r="K90" s="3">
-        <v>181.94</v>
+        <v>277.62</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
@@ -4298,31 +4298,31 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>9632</v>
+        <v>9101</v>
       </c>
       <c r="F91" t="s">
         <v>20</v>
       </c>
       <c r="G91" s="1">
-        <v>45861.596273148149</v>
+        <v>45849.54788194444</v>
       </c>
       <c r="H91" s="1">
-        <v>45831.596701388888</v>
+        <v>45819.548425925925</v>
       </c>
       <c r="I91" s="2">
-        <v>0.40372685185138835</v>
+        <v>14.452118055560277</v>
       </c>
       <c r="J91" s="3">
-        <v>531.46</v>
+        <v>254.08</v>
       </c>
       <c r="K91" s="3">
-        <v>531.46</v>
+        <v>254.08</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4339,31 +4339,31 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>9934</v>
+        <v>9316</v>
       </c>
       <c r="F92" t="s">
         <v>20</v>
       </c>
       <c r="G92" s="1">
-        <v>45869.387013888889</v>
+        <v>45854.490671296291</v>
       </c>
       <c r="H92" s="1">
-        <v>45839.387361111112</v>
+        <v>45824.491307870368</v>
       </c>
       <c r="I92" s="2">
-        <v>-7.3870138888887595</v>
+        <v>9.5093287037088885</v>
       </c>
       <c r="J92" s="3">
-        <v>410.43</v>
+        <v>410.73</v>
       </c>
       <c r="K92" s="3">
-        <v>410.43</v>
+        <v>410.73</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
       </c>
       <c r="M92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4380,31 +4380,31 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>9950</v>
+        <v>9379</v>
       </c>
       <c r="F93" t="s">
         <v>20</v>
       </c>
       <c r="G93" s="1">
-        <v>45870.400196759256</v>
+        <v>45855.589236111111</v>
       </c>
       <c r="H93" s="1">
-        <v>45840.403055555551</v>
+        <v>45825.589965277773</v>
       </c>
       <c r="I93" s="2">
-        <v>-8.4001967592557776</v>
+        <v>8.4107638888890506</v>
       </c>
       <c r="J93" s="3">
-        <v>199.05</v>
+        <v>181.94</v>
       </c>
       <c r="K93" s="3">
-        <v>199.05</v>
+        <v>181.94</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
       </c>
       <c r="M93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4421,31 +4421,31 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>10220</v>
+        <v>9632</v>
       </c>
       <c r="F94" t="s">
         <v>20</v>
       </c>
       <c r="G94" s="1">
-        <v>45875.488275462958</v>
+        <v>45861.596273148149</v>
       </c>
       <c r="H94" s="1">
-        <v>45845.488275462958</v>
+        <v>45831.596701388888</v>
       </c>
       <c r="I94" s="2">
-        <v>-13.488275462957972</v>
+        <v>2.4037268518513883</v>
       </c>
       <c r="J94" s="3">
-        <v>129.57</v>
+        <v>531.46</v>
       </c>
       <c r="K94" s="3">
-        <v>129.57</v>
+        <v>531.46</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
       </c>
       <c r="M94" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4462,25 +4462,25 @@
         <v>15</v>
       </c>
       <c r="E95">
-        <v>10288</v>
+        <v>9934</v>
       </c>
       <c r="F95" t="s">
         <v>20</v>
       </c>
       <c r="G95" s="1">
-        <v>45876.543657407405</v>
+        <v>45869.387013888889</v>
       </c>
       <c r="H95" s="1">
-        <v>45846.543877314813</v>
+        <v>45839.387361111112</v>
       </c>
       <c r="I95" s="2">
-        <v>-14.54365740740468</v>
+        <v>-5.3870138888887595</v>
       </c>
       <c r="J95" s="3">
-        <v>270.58</v>
+        <v>410.43</v>
       </c>
       <c r="K95" s="3">
-        <v>270.58</v>
+        <v>410.43</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
@@ -4503,25 +4503,25 @@
         <v>15</v>
       </c>
       <c r="E96">
-        <v>10520</v>
+        <v>9950</v>
       </c>
       <c r="F96" t="s">
         <v>20</v>
       </c>
       <c r="G96" s="1">
-        <v>45882.479305555556</v>
+        <v>45870.400196759256</v>
       </c>
       <c r="H96" s="1">
-        <v>45852.479317129626</v>
+        <v>45840.403055555551</v>
       </c>
       <c r="I96" s="2">
-        <v>-20.479305555556493</v>
+        <v>-6.4001967592557776</v>
       </c>
       <c r="J96" s="3">
-        <v>309.35000000000002</v>
+        <v>199.05</v>
       </c>
       <c r="K96" s="3">
-        <v>309.35000000000002</v>
+        <v>199.05</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
@@ -4544,25 +4544,25 @@
         <v>15</v>
       </c>
       <c r="E97">
-        <v>10553</v>
+        <v>10220</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
       </c>
       <c r="G97" s="1">
-        <v>45883.416145833333</v>
+        <v>45875.488275462958</v>
       </c>
       <c r="H97" s="1">
-        <v>45853.416481481479</v>
+        <v>45845.488275462958</v>
       </c>
       <c r="I97" s="2">
-        <v>-21.416145833332848</v>
+        <v>-11.488275462957972</v>
       </c>
       <c r="J97" s="3">
-        <v>131.41</v>
+        <v>129.57</v>
       </c>
       <c r="K97" s="3">
-        <v>131.41</v>
+        <v>129.57</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
@@ -4585,25 +4585,25 @@
         <v>15</v>
       </c>
       <c r="E98">
-        <v>10809</v>
+        <v>10288</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
       </c>
       <c r="G98" s="1">
-        <v>45889.482916666668</v>
+        <v>45876.543657407405</v>
       </c>
       <c r="H98" s="1">
-        <v>45859.482916666668</v>
+        <v>45846.543877314813</v>
       </c>
       <c r="I98" s="2">
-        <v>-27.482916666667734</v>
+        <v>-12.54365740740468</v>
       </c>
       <c r="J98" s="3">
-        <v>395.15000000000003</v>
+        <v>270.58</v>
       </c>
       <c r="K98" s="3">
-        <v>395.15000000000003</v>
+        <v>270.58</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
@@ -4614,37 +4614,37 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211111478</v>
+        <v>211111387</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D99">
+        <v>2025</v>
       </c>
       <c r="E99">
-        <v>9628</v>
+        <v>642</v>
       </c>
       <c r="F99" t="s">
         <v>20</v>
       </c>
       <c r="G99" s="1">
-        <v>45861.537557870368</v>
+        <v>45879</v>
       </c>
       <c r="H99" s="1">
-        <v>45831.538182870368</v>
+        <v>45849</v>
       </c>
       <c r="I99" s="2">
-        <v>0.46244212963210884</v>
+        <v>-15</v>
       </c>
       <c r="J99" s="3">
-        <v>289.91000000000003</v>
+        <v>-410.43</v>
       </c>
       <c r="K99" s="3">
-        <v>289.91000000000003</v>
+        <v>-410.43</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
@@ -4655,10 +4655,10 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211111478</v>
+        <v>211111387</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -4667,25 +4667,25 @@
         <v>15</v>
       </c>
       <c r="E100">
-        <v>10231</v>
+        <v>10520</v>
       </c>
       <c r="F100" t="s">
         <v>20</v>
       </c>
       <c r="G100" s="1">
-        <v>45875.60738425926</v>
+        <v>45882.479305555556</v>
       </c>
       <c r="H100" s="1">
-        <v>45845.608969907407</v>
+        <v>45852.479317129626</v>
       </c>
       <c r="I100" s="2">
-        <v>-13.607384259259561</v>
+        <v>-18.479305555556493</v>
       </c>
       <c r="J100" s="3">
-        <v>92.34</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="K100" s="3">
-        <v>92.34</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
@@ -4696,10 +4696,10 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211111478</v>
+        <v>211111387</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -4708,25 +4708,25 @@
         <v>15</v>
       </c>
       <c r="E101">
-        <v>10964</v>
+        <v>10553</v>
       </c>
       <c r="F101" t="s">
         <v>20</v>
       </c>
       <c r="G101" s="1">
-        <v>45891.654791666668</v>
+        <v>45883.416145833333</v>
       </c>
       <c r="H101" s="1">
-        <v>45861.655266203699</v>
+        <v>45853.416481481479</v>
       </c>
       <c r="I101" s="2">
-        <v>-29.654791666667734</v>
+        <v>-19.416145833332848</v>
       </c>
       <c r="J101" s="3">
-        <v>78.75</v>
+        <v>131.41</v>
       </c>
       <c r="K101" s="3">
-        <v>78.75</v>
+        <v>131.41</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
@@ -4737,10 +4737,10 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211111506</v>
+        <v>211111387</v>
       </c>
       <c r="B102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -4749,25 +4749,25 @@
         <v>15</v>
       </c>
       <c r="E102">
-        <v>10500</v>
+        <v>10809</v>
       </c>
       <c r="F102" t="s">
         <v>20</v>
       </c>
       <c r="G102" s="1">
-        <v>45879.611701388887</v>
+        <v>45889.482916666668</v>
       </c>
       <c r="H102" s="1">
-        <v>45849.612314814811</v>
+        <v>45859.482916666668</v>
       </c>
       <c r="I102" s="2">
-        <v>-17.611701388887013</v>
+        <v>-25.482916666667734</v>
       </c>
       <c r="J102" s="3">
-        <v>4.9000000000000004</v>
+        <v>395.15000000000003</v>
       </c>
       <c r="K102" s="3">
-        <v>4.9000000000000004</v>
+        <v>395.15000000000003</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
@@ -4778,10 +4778,10 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211111506</v>
+        <v>211111478</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4790,39 +4790,39 @@
         <v>15</v>
       </c>
       <c r="E103">
-        <v>10829</v>
+        <v>9628</v>
       </c>
       <c r="F103" t="s">
         <v>20</v>
       </c>
       <c r="G103" s="1">
-        <v>45889.50644675926</v>
+        <v>45861.537557870368</v>
       </c>
       <c r="H103" s="1">
-        <v>45859.510138888887</v>
+        <v>45831.538182870368</v>
       </c>
       <c r="I103" s="2">
-        <v>-27.506446759260143</v>
+        <v>2.4624421296321088</v>
       </c>
       <c r="J103" s="3">
-        <v>386.99</v>
+        <v>289.91000000000003</v>
       </c>
       <c r="K103" s="3">
-        <v>386.99</v>
+        <v>289.91000000000003</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
       </c>
       <c r="M103" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>211111506</v>
+        <v>211111478</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -4831,25 +4831,25 @@
         <v>15</v>
       </c>
       <c r="E104">
-        <v>10836</v>
+        <v>10231</v>
       </c>
       <c r="F104" t="s">
         <v>20</v>
       </c>
       <c r="G104" s="1">
-        <v>45890.314386574071</v>
+        <v>45875.60738425926</v>
       </c>
       <c r="H104" s="1">
-        <v>45860.315567129626</v>
+        <v>45845.608969907407</v>
       </c>
       <c r="I104" s="2">
-        <v>-28.31438657407125</v>
+        <v>-11.607384259259561</v>
       </c>
       <c r="J104" s="3">
-        <v>18.240000000000002</v>
+        <v>92.34</v>
       </c>
       <c r="K104" s="3">
-        <v>18.240000000000002</v>
+        <v>92.34</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
@@ -4860,10 +4860,10 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>211111506</v>
+        <v>211111478</v>
       </c>
       <c r="B105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -4872,25 +4872,25 @@
         <v>15</v>
       </c>
       <c r="E105">
-        <v>10886</v>
+        <v>10964</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
       </c>
       <c r="G105" s="1">
-        <v>45890.572280092594</v>
+        <v>45891.654791666668</v>
       </c>
       <c r="H105" s="1">
-        <v>45860.573055555556</v>
+        <v>45861.655266203699</v>
       </c>
       <c r="I105" s="2">
-        <v>-28.572280092594156</v>
+        <v>-27.654791666667734</v>
       </c>
       <c r="J105" s="3">
-        <v>407.79</v>
+        <v>78.75</v>
       </c>
       <c r="K105" s="3">
-        <v>407.79</v>
+        <v>78.75</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
@@ -4901,51 +4901,51 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>211111625</v>
+        <v>211111506</v>
       </c>
       <c r="B106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>30</v>
-      </c>
-      <c r="E106" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="E106">
+        <v>10500</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
       </c>
       <c r="G106" s="1">
-        <v>45769</v>
+        <v>45879.611701388887</v>
       </c>
       <c r="H106" s="1">
-        <v>45739</v>
+        <v>45849.612314814811</v>
       </c>
       <c r="I106" s="2">
-        <v>93</v>
+        <v>-15.611701388887013</v>
       </c>
       <c r="J106" s="3">
-        <v>-602.46</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K106" s="3">
-        <v>-0.28000000000000003</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>211111625</v>
+        <v>211111506</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4954,66 +4954,66 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>9507</v>
+        <v>10829</v>
       </c>
       <c r="F107" t="s">
         <v>20</v>
       </c>
       <c r="G107" s="1">
-        <v>45858.514930555553</v>
+        <v>45889.50644675926</v>
       </c>
       <c r="H107" s="1">
-        <v>45828.515520833331</v>
+        <v>45859.510138888887</v>
       </c>
       <c r="I107" s="2">
-        <v>3.4850694444467081</v>
+        <v>-25.506446759260143</v>
       </c>
       <c r="J107" s="3">
-        <v>317.75</v>
+        <v>386.99</v>
       </c>
       <c r="K107" s="3">
-        <v>317.75</v>
+        <v>386.99</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
       </c>
       <c r="M107" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211111625</v>
+        <v>211111506</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
-      </c>
-      <c r="D108">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
       </c>
       <c r="E108">
-        <v>602</v>
+        <v>10836</v>
       </c>
       <c r="F108" t="s">
         <v>20</v>
       </c>
       <c r="G108" s="1">
-        <v>45869</v>
+        <v>45890.314386574071</v>
       </c>
       <c r="H108" s="1">
-        <v>45839</v>
+        <v>45860.315567129626</v>
       </c>
       <c r="I108" s="2">
-        <v>-7</v>
+        <v>-26.31438657407125</v>
       </c>
       <c r="J108" s="3">
-        <v>-38.380000000000003</v>
+        <v>18.240000000000002</v>
       </c>
       <c r="K108" s="3">
-        <v>-38.380000000000003</v>
+        <v>18.240000000000002</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
@@ -5024,10 +5024,10 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211111625</v>
+        <v>211111506</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -5036,25 +5036,25 @@
         <v>15</v>
       </c>
       <c r="E109">
-        <v>9936</v>
+        <v>10886</v>
       </c>
       <c r="F109" t="s">
         <v>20</v>
       </c>
       <c r="G109" s="1">
-        <v>45869.406018518515</v>
+        <v>45890.572280092594</v>
       </c>
       <c r="H109" s="1">
-        <v>45839.407280092593</v>
+        <v>45860.573055555556</v>
       </c>
       <c r="I109" s="2">
-        <v>-7.4060185185153387</v>
+        <v>-26.572280092594156</v>
       </c>
       <c r="J109" s="3">
-        <v>328.58</v>
+        <v>407.79</v>
       </c>
       <c r="K109" s="3">
-        <v>328.58</v>
+        <v>407.79</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
@@ -5065,10 +5065,10 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211111625</v>
+        <v>211111506</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -5077,25 +5077,25 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <v>10109</v>
+        <v>11010</v>
       </c>
       <c r="F110" t="s">
         <v>20</v>
       </c>
       <c r="G110" s="1">
-        <v>45872.371365740742</v>
+        <v>45892.603333333333</v>
       </c>
       <c r="H110" s="1">
-        <v>45842.371365740742</v>
+        <v>45862.603599537033</v>
       </c>
       <c r="I110" s="2">
-        <v>-10.371365740742476</v>
+        <v>-28.603333333332557</v>
       </c>
       <c r="J110" s="3">
-        <v>527.84</v>
+        <v>28.84</v>
       </c>
       <c r="K110" s="3">
-        <v>527.84</v>
+        <v>28.84</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
@@ -5106,10 +5106,10 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211111625</v>
+        <v>211111506</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5118,25 +5118,25 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>10240</v>
+        <v>11057</v>
       </c>
       <c r="F111" t="s">
         <v>20</v>
       </c>
       <c r="G111" s="1">
-        <v>45876.326597222222</v>
+        <v>45893.511979166666</v>
       </c>
       <c r="H111" s="1">
-        <v>45846.327291666668</v>
+        <v>45863.511990740742</v>
       </c>
       <c r="I111" s="2">
-        <v>-14.326597222221608</v>
+        <v>-29.511979166665697</v>
       </c>
       <c r="J111" s="3">
-        <v>301.90000000000003</v>
+        <v>211.89000000000001</v>
       </c>
       <c r="K111" s="3">
-        <v>301.90000000000003</v>
+        <v>211.89000000000001</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
@@ -5147,51 +5147,51 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>211111809</v>
+        <v>211111625</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112">
-        <v>6155</v>
+        <v>30</v>
+      </c>
+      <c r="E112" t="s">
+        <v>31</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
       </c>
       <c r="G112" s="1">
-        <v>45788.499618055554</v>
+        <v>45769</v>
       </c>
       <c r="H112" s="1">
-        <v>45758.501504629625</v>
+        <v>45739</v>
       </c>
       <c r="I112" s="2">
-        <v>73.500381944446417</v>
+        <v>95</v>
       </c>
       <c r="J112" s="3">
-        <v>44.24</v>
+        <v>-602.46</v>
       </c>
       <c r="K112" s="3">
-        <v>44.24</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
       </c>
       <c r="M112" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>211111809</v>
+        <v>211111625</v>
       </c>
       <c r="B113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -5200,80 +5200,80 @@
         <v>15</v>
       </c>
       <c r="E113">
-        <v>6183</v>
+        <v>9507</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
       </c>
       <c r="G113" s="1">
-        <v>45788.679930555554</v>
+        <v>45858.514930555553</v>
       </c>
       <c r="H113" s="1">
-        <v>45758.681388888886</v>
+        <v>45828.515520833331</v>
       </c>
       <c r="I113" s="2">
-        <v>73.320069444445835</v>
+        <v>5.4850694444467081</v>
       </c>
       <c r="J113" s="3">
-        <v>32.020000000000003</v>
+        <v>317.75</v>
       </c>
       <c r="K113" s="3">
-        <v>32.020000000000003</v>
+        <v>317.75</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
       </c>
       <c r="M113" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>211111888</v>
+        <v>211111625</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D114">
+        <v>2025</v>
       </c>
       <c r="E114">
-        <v>9257</v>
+        <v>602</v>
       </c>
       <c r="F114" t="s">
         <v>20</v>
       </c>
       <c r="G114" s="1">
-        <v>45851.572199074071</v>
+        <v>45869</v>
       </c>
       <c r="H114" s="1">
-        <v>45821.57262731481</v>
+        <v>45839</v>
       </c>
       <c r="I114" s="2">
-        <v>10.42780092592875</v>
+        <v>-5</v>
       </c>
       <c r="J114" s="3">
-        <v>1043.29</v>
+        <v>-38.380000000000003</v>
       </c>
       <c r="K114" s="3">
-        <v>1043.29</v>
+        <v>-38.380000000000003</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
       </c>
       <c r="M114" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>211111888</v>
+        <v>211111625</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -5282,39 +5282,39 @@
         <v>15</v>
       </c>
       <c r="E115">
-        <v>9276</v>
+        <v>9936</v>
       </c>
       <c r="F115" t="s">
         <v>20</v>
       </c>
       <c r="G115" s="1">
-        <v>45854.332685185182</v>
+        <v>45869.406018518515</v>
       </c>
       <c r="H115" s="1">
-        <v>45824.339502314811</v>
+        <v>45839.407280092593</v>
       </c>
       <c r="I115" s="2">
-        <v>7.6673148148183827</v>
+        <v>-5.4060185185153387</v>
       </c>
       <c r="J115" s="3">
-        <v>294.79000000000002</v>
+        <v>328.58</v>
       </c>
       <c r="K115" s="3">
-        <v>294.79000000000002</v>
+        <v>328.58</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
       </c>
       <c r="M115" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>211111888</v>
+        <v>211111625</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -5323,25 +5323,25 @@
         <v>15</v>
       </c>
       <c r="E116">
-        <v>9429</v>
+        <v>10109</v>
       </c>
       <c r="F116" t="s">
         <v>20</v>
       </c>
       <c r="G116" s="1">
-        <v>45856.451006944444</v>
+        <v>45872.371365740742</v>
       </c>
       <c r="H116" s="1">
-        <v>45826.451331018514</v>
+        <v>45842.371365740742</v>
       </c>
       <c r="I116" s="2">
-        <v>5.5489930555559113</v>
+        <v>-8.3713657407424762</v>
       </c>
       <c r="J116" s="3">
-        <v>363.51</v>
+        <v>527.84</v>
       </c>
       <c r="K116" s="3">
-        <v>363.51</v>
+        <v>527.84</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
@@ -5352,10 +5352,10 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>211111888</v>
+        <v>211111625</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
@@ -5364,39 +5364,39 @@
         <v>15</v>
       </c>
       <c r="E117">
-        <v>9550</v>
+        <v>10240</v>
       </c>
       <c r="F117" t="s">
         <v>20</v>
       </c>
       <c r="G117" s="1">
-        <v>45858.588043981479</v>
+        <v>45876.326597222222</v>
       </c>
       <c r="H117" s="1">
-        <v>45828.58893518518</v>
+        <v>45846.327291666668</v>
       </c>
       <c r="I117" s="2">
-        <v>3.4119560185208684</v>
+        <v>-12.326597222221608</v>
       </c>
       <c r="J117" s="3">
-        <v>97.93</v>
+        <v>301.90000000000003</v>
       </c>
       <c r="K117" s="3">
-        <v>97.93</v>
+        <v>301.90000000000003</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
       </c>
       <c r="M117" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>211111888</v>
+        <v>211111809</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -5405,39 +5405,39 @@
         <v>15</v>
       </c>
       <c r="E118">
-        <v>9554</v>
+        <v>6155</v>
       </c>
       <c r="F118" t="s">
         <v>20</v>
       </c>
       <c r="G118" s="1">
-        <v>45858.603680555556</v>
+        <v>45788.499618055554</v>
       </c>
       <c r="H118" s="1">
-        <v>45828.605798611112</v>
+        <v>45758.501504629625</v>
       </c>
       <c r="I118" s="2">
-        <v>3.3963194444440887</v>
+        <v>75.500381944446417</v>
       </c>
       <c r="J118" s="3">
-        <v>873.41</v>
+        <v>44.24</v>
       </c>
       <c r="K118" s="3">
-        <v>873.41</v>
+        <v>44.24</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
       </c>
       <c r="M118" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>211111888</v>
+        <v>211111809</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
@@ -5446,31 +5446,31 @@
         <v>15</v>
       </c>
       <c r="E119">
-        <v>9608</v>
+        <v>6183</v>
       </c>
       <c r="F119" t="s">
         <v>20</v>
       </c>
       <c r="G119" s="1">
-        <v>45861.483668981477</v>
+        <v>45788.679930555554</v>
       </c>
       <c r="H119" s="1">
-        <v>45831.48400462963</v>
+        <v>45758.681388888886</v>
       </c>
       <c r="I119" s="2">
-        <v>0.51633101852348773</v>
+        <v>75.320069444445835</v>
       </c>
       <c r="J119" s="3">
-        <v>24.36</v>
+        <v>32.020000000000003</v>
       </c>
       <c r="K119" s="3">
-        <v>24.36</v>
+        <v>32.020000000000003</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5487,31 +5487,31 @@
         <v>15</v>
       </c>
       <c r="E120">
-        <v>9715</v>
+        <v>9257</v>
       </c>
       <c r="F120" t="s">
         <v>20</v>
       </c>
       <c r="G120" s="1">
-        <v>45863.515474537038</v>
+        <v>45851.572199074071</v>
       </c>
       <c r="H120" s="1">
-        <v>45833.517407407402</v>
+        <v>45821.57262731481</v>
       </c>
       <c r="I120" s="2">
-        <v>-1.5154745370382443</v>
+        <v>12.42780092592875</v>
       </c>
       <c r="J120" s="3">
-        <v>951.75</v>
+        <v>1043.29</v>
       </c>
       <c r="K120" s="3">
-        <v>951.75</v>
+        <v>1043.29</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
       </c>
       <c r="M120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5528,31 +5528,31 @@
         <v>15</v>
       </c>
       <c r="E121">
-        <v>9933</v>
+        <v>9276</v>
       </c>
       <c r="F121" t="s">
         <v>20</v>
       </c>
       <c r="G121" s="1">
-        <v>45869.385451388887</v>
+        <v>45854.332685185182</v>
       </c>
       <c r="H121" s="1">
-        <v>45839.386840277773</v>
+        <v>45824.339502314811</v>
       </c>
       <c r="I121" s="2">
-        <v>-7.3854513888873043</v>
+        <v>9.6673148148183827</v>
       </c>
       <c r="J121" s="3">
-        <v>78.92</v>
+        <v>294.79000000000002</v>
       </c>
       <c r="K121" s="3">
-        <v>78.92</v>
+        <v>294.79000000000002</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
       </c>
       <c r="M121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5569,31 +5569,31 @@
         <v>15</v>
       </c>
       <c r="E122">
-        <v>10054</v>
+        <v>9429</v>
       </c>
       <c r="F122" t="s">
         <v>20</v>
       </c>
       <c r="G122" s="1">
-        <v>45871.521666666667</v>
+        <v>45856.451006944444</v>
       </c>
       <c r="H122" s="1">
-        <v>45841.521666666667</v>
+        <v>45826.451331018514</v>
       </c>
       <c r="I122" s="2">
-        <v>-9.5216666666674428</v>
+        <v>7.5489930555559113</v>
       </c>
       <c r="J122" s="3">
-        <v>81.25</v>
+        <v>363.51</v>
       </c>
       <c r="K122" s="3">
-        <v>81.25</v>
+        <v>363.51</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
       </c>
       <c r="M122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5610,25 +5610,25 @@
         <v>15</v>
       </c>
       <c r="E123">
-        <v>10144</v>
+        <v>9550</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
       </c>
       <c r="G123" s="1">
-        <v>45872.453831018516</v>
+        <v>45858.588043981479</v>
       </c>
       <c r="H123" s="1">
-        <v>45842.453831018516</v>
+        <v>45828.58893518518</v>
       </c>
       <c r="I123" s="2">
-        <v>-10.453831018516212</v>
+        <v>5.4119560185208684</v>
       </c>
       <c r="J123" s="3">
-        <v>833.06000000000006</v>
+        <v>97.93</v>
       </c>
       <c r="K123" s="3">
-        <v>833.06000000000006</v>
+        <v>97.93</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
@@ -5651,25 +5651,25 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>10277</v>
+        <v>9554</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
       </c>
       <c r="G124" s="1">
-        <v>45876.441319444442</v>
+        <v>45858.603680555556</v>
       </c>
       <c r="H124" s="1">
-        <v>45846.441319444442</v>
+        <v>45828.605798611112</v>
       </c>
       <c r="I124" s="2">
-        <v>-14.441319444442343</v>
+        <v>5.3963194444440887</v>
       </c>
       <c r="J124" s="3">
-        <v>1056.32</v>
+        <v>873.41</v>
       </c>
       <c r="K124" s="3">
-        <v>1056.32</v>
+        <v>873.41</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
@@ -5692,31 +5692,31 @@
         <v>15</v>
       </c>
       <c r="E125">
-        <v>10352</v>
+        <v>9608</v>
       </c>
       <c r="F125" t="s">
         <v>20</v>
       </c>
       <c r="G125" s="1">
-        <v>45877.450138888889</v>
+        <v>45861.483668981477</v>
       </c>
       <c r="H125" s="1">
-        <v>45847.450150462959</v>
+        <v>45831.48400462963</v>
       </c>
       <c r="I125" s="2">
-        <v>-15.450138888889342</v>
+        <v>2.5163310185234877</v>
       </c>
       <c r="J125" s="3">
-        <v>210.29</v>
+        <v>24.36</v>
       </c>
       <c r="K125" s="3">
-        <v>210.29</v>
+        <v>24.36</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
       </c>
       <c r="M125" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5733,25 +5733,25 @@
         <v>15</v>
       </c>
       <c r="E126">
-        <v>10419</v>
+        <v>9715</v>
       </c>
       <c r="F126" t="s">
         <v>20</v>
       </c>
       <c r="G126" s="1">
-        <v>45878.429652777777</v>
+        <v>45863.515474537038</v>
       </c>
       <c r="H126" s="1">
-        <v>45848.429652777777</v>
+        <v>45833.517407407402</v>
       </c>
       <c r="I126" s="2">
-        <v>-16.429652777776937</v>
+        <v>0.48452546296175569</v>
       </c>
       <c r="J126" s="3">
-        <v>540.54999999999995</v>
+        <v>951.75</v>
       </c>
       <c r="K126" s="3">
-        <v>540.54999999999995</v>
+        <v>951.75</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
@@ -5774,25 +5774,25 @@
         <v>15</v>
       </c>
       <c r="E127">
-        <v>10477</v>
+        <v>9933</v>
       </c>
       <c r="F127" t="s">
         <v>20</v>
       </c>
       <c r="G127" s="1">
-        <v>45879.432314814811</v>
+        <v>45869.385451388887</v>
       </c>
       <c r="H127" s="1">
-        <v>45849.432314814811</v>
+        <v>45839.386840277773</v>
       </c>
       <c r="I127" s="2">
-        <v>-17.432314814810525</v>
+        <v>-5.3854513888873043</v>
       </c>
       <c r="J127" s="3">
-        <v>165.06</v>
+        <v>78.92</v>
       </c>
       <c r="K127" s="3">
-        <v>165.06</v>
+        <v>78.92</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
@@ -5815,25 +5815,25 @@
         <v>15</v>
       </c>
       <c r="E128">
-        <v>10508</v>
+        <v>10054</v>
       </c>
       <c r="F128" t="s">
         <v>20</v>
       </c>
       <c r="G128" s="1">
-        <v>45882.471365740741</v>
+        <v>45871.521666666667</v>
       </c>
       <c r="H128" s="1">
-        <v>45852.471365740741</v>
+        <v>45841.521666666667</v>
       </c>
       <c r="I128" s="2">
-        <v>-20.471365740741021</v>
+        <v>-7.5216666666674428</v>
       </c>
       <c r="J128" s="3">
-        <v>110.59</v>
+        <v>81.25</v>
       </c>
       <c r="K128" s="3">
-        <v>110.59</v>
+        <v>81.25</v>
       </c>
       <c r="L128" t="s">
         <v>17</v>
@@ -5856,25 +5856,25 @@
         <v>15</v>
       </c>
       <c r="E129">
-        <v>10519</v>
+        <v>10144</v>
       </c>
       <c r="F129" t="s">
         <v>20</v>
       </c>
       <c r="G129" s="1">
-        <v>45882.479282407403</v>
+        <v>45872.453831018516</v>
       </c>
       <c r="H129" s="1">
-        <v>45852.479282407403</v>
+        <v>45842.453831018516</v>
       </c>
       <c r="I129" s="2">
-        <v>-20.479282407402934</v>
+        <v>-8.4538310185162118</v>
       </c>
       <c r="J129" s="3">
-        <v>439.56</v>
+        <v>833.06000000000006</v>
       </c>
       <c r="K129" s="3">
-        <v>439.56</v>
+        <v>833.06000000000006</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
@@ -5897,25 +5897,25 @@
         <v>15</v>
       </c>
       <c r="E130">
-        <v>10626</v>
+        <v>10277</v>
       </c>
       <c r="F130" t="s">
         <v>20</v>
       </c>
       <c r="G130" s="1">
-        <v>45884.449004629627</v>
+        <v>45876.441319444442</v>
       </c>
       <c r="H130" s="1">
-        <v>45854.449004629627</v>
+        <v>45846.441319444442</v>
       </c>
       <c r="I130" s="2">
-        <v>-22.44900462962687</v>
+        <v>-12.441319444442343</v>
       </c>
       <c r="J130" s="3">
-        <v>49.69</v>
+        <v>1056.32</v>
       </c>
       <c r="K130" s="3">
-        <v>49.69</v>
+        <v>1056.32</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
@@ -5938,25 +5938,25 @@
         <v>15</v>
       </c>
       <c r="E131">
-        <v>10811</v>
+        <v>10352</v>
       </c>
       <c r="F131" t="s">
         <v>20</v>
       </c>
       <c r="G131" s="1">
-        <v>45889.48296296296</v>
+        <v>45877.450138888889</v>
       </c>
       <c r="H131" s="1">
-        <v>45859.48296296296</v>
+        <v>45847.450150462959</v>
       </c>
       <c r="I131" s="2">
-        <v>-27.482962962960301</v>
+        <v>-13.450138888889342</v>
       </c>
       <c r="J131" s="3">
-        <v>481.88</v>
+        <v>210.29</v>
       </c>
       <c r="K131" s="3">
-        <v>481.88</v>
+        <v>210.29</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
@@ -5967,37 +5967,37 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211111892</v>
+        <v>211111888</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D132">
+        <v>2025</v>
       </c>
       <c r="E132">
-        <v>10894</v>
+        <v>636</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
       </c>
       <c r="G132" s="1">
-        <v>45891.424745370372</v>
+        <v>45878</v>
       </c>
       <c r="H132" s="1">
-        <v>45861.424930555557</v>
+        <v>45848</v>
       </c>
       <c r="I132" s="2">
-        <v>-29.424745370371966</v>
+        <v>-14</v>
       </c>
       <c r="J132" s="3">
-        <v>85.61</v>
+        <v>-507.94</v>
       </c>
       <c r="K132" s="3">
-        <v>85.61</v>
+        <v>-507.94</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
@@ -6008,10 +6008,10 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>211111943</v>
+        <v>211111888</v>
       </c>
       <c r="B133" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
@@ -6020,25 +6020,25 @@
         <v>15</v>
       </c>
       <c r="E133">
-        <v>9697</v>
+        <v>10419</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
       </c>
       <c r="G133" s="1">
-        <v>45863.494432870371</v>
+        <v>45878.429652777777</v>
       </c>
       <c r="H133" s="1">
-        <v>45833.494629629626</v>
+        <v>45848.429652777777</v>
       </c>
       <c r="I133" s="2">
-        <v>-1.4944328703713836</v>
+        <v>-14.429652777776937</v>
       </c>
       <c r="J133" s="3">
-        <v>180.6</v>
+        <v>540.54999999999995</v>
       </c>
       <c r="K133" s="3">
-        <v>180.6</v>
+        <v>540.54999999999995</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
@@ -6049,10 +6049,10 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>211111943</v>
+        <v>211111888</v>
       </c>
       <c r="B134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6061,25 +6061,25 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>10067</v>
+        <v>10477</v>
       </c>
       <c r="F134" t="s">
         <v>20</v>
       </c>
       <c r="G134" s="1">
-        <v>45871.525949074072</v>
+        <v>45879.432314814811</v>
       </c>
       <c r="H134" s="1">
-        <v>45841.525949074072</v>
+        <v>45849.432314814811</v>
       </c>
       <c r="I134" s="2">
-        <v>-9.525949074071832</v>
+        <v>-15.432314814810525</v>
       </c>
       <c r="J134" s="3">
-        <v>116.85000000000001</v>
+        <v>165.06</v>
       </c>
       <c r="K134" s="3">
-        <v>116.85000000000001</v>
+        <v>165.06</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
@@ -6090,10 +6090,10 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>211111943</v>
+        <v>211111888</v>
       </c>
       <c r="B135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6102,25 +6102,25 @@
         <v>15</v>
       </c>
       <c r="E135">
-        <v>10899</v>
+        <v>10508</v>
       </c>
       <c r="F135" t="s">
         <v>20</v>
       </c>
       <c r="G135" s="1">
-        <v>45891.494560185187</v>
+        <v>45882.471365740741</v>
       </c>
       <c r="H135" s="1">
-        <v>45861.494791666664</v>
+        <v>45852.471365740741</v>
       </c>
       <c r="I135" s="2">
-        <v>-29.494560185186856</v>
+        <v>-18.471365740741021</v>
       </c>
       <c r="J135" s="3">
-        <v>141.63</v>
+        <v>110.59</v>
       </c>
       <c r="K135" s="3">
-        <v>141.63</v>
+        <v>110.59</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
@@ -6131,10 +6131,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112004</v>
+        <v>211111888</v>
       </c>
       <c r="B136" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -6143,25 +6143,25 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>9445</v>
+        <v>10519</v>
       </c>
       <c r="F136" t="s">
         <v>20</v>
       </c>
       <c r="G136" s="1">
-        <v>45856.586018518516</v>
+        <v>45882.479282407403</v>
       </c>
       <c r="H136" s="1">
-        <v>45826.587974537033</v>
+        <v>45852.479282407403</v>
       </c>
       <c r="I136" s="2">
-        <v>5.4139814814843703</v>
+        <v>-18.479282407402934</v>
       </c>
       <c r="J136" s="3">
-        <v>264.78000000000003</v>
+        <v>439.56</v>
       </c>
       <c r="K136" s="3">
-        <v>264.78000000000003</v>
+        <v>439.56</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
@@ -6172,10 +6172,10 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211112004</v>
+        <v>211111888</v>
       </c>
       <c r="B137" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -6184,25 +6184,25 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <v>10431</v>
+        <v>10626</v>
       </c>
       <c r="F137" t="s">
         <v>20</v>
       </c>
       <c r="G137" s="1">
-        <v>45878.592581018514</v>
+        <v>45884.449004629627</v>
       </c>
       <c r="H137" s="1">
-        <v>45848.592581018514</v>
+        <v>45854.449004629627</v>
       </c>
       <c r="I137" s="2">
-        <v>-16.592581018514466</v>
+        <v>-20.44900462962687</v>
       </c>
       <c r="J137" s="3">
-        <v>414.76</v>
+        <v>49.69</v>
       </c>
       <c r="K137" s="3">
-        <v>414.76</v>
+        <v>49.69</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
@@ -6213,10 +6213,10 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112004</v>
+        <v>211111888</v>
       </c>
       <c r="B138" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
@@ -6225,25 +6225,25 @@
         <v>15</v>
       </c>
       <c r="E138">
-        <v>10728</v>
+        <v>10811</v>
       </c>
       <c r="F138" t="s">
         <v>20</v>
       </c>
       <c r="G138" s="1">
-        <v>45886.283738425926</v>
+        <v>45889.48296296296</v>
       </c>
       <c r="H138" s="1">
-        <v>45856.284224537034</v>
+        <v>45859.48296296296</v>
       </c>
       <c r="I138" s="2">
-        <v>-24.283738425925549</v>
+        <v>-25.482962962960301</v>
       </c>
       <c r="J138" s="3">
-        <v>278.35000000000002</v>
+        <v>481.88</v>
       </c>
       <c r="K138" s="3">
-        <v>278.35000000000002</v>
+        <v>481.88</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
@@ -6254,10 +6254,10 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>211112022</v>
+        <v>211111888</v>
       </c>
       <c r="B139" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
@@ -6266,39 +6266,39 @@
         <v>15</v>
       </c>
       <c r="E139">
-        <v>9992</v>
+        <v>10999</v>
       </c>
       <c r="F139" t="s">
         <v>20</v>
       </c>
       <c r="G139" s="1">
-        <v>45840.446226851847</v>
+        <v>45892.498240740737</v>
       </c>
       <c r="H139" s="1">
-        <v>45840.446226851847</v>
+        <v>45862.498240740737</v>
       </c>
       <c r="I139" s="2">
-        <v>21.553773148152686</v>
+        <v>-28.498240740736946</v>
       </c>
       <c r="J139" s="3">
-        <v>326.48</v>
+        <v>134.38</v>
       </c>
       <c r="K139" s="3">
-        <v>326.48</v>
+        <v>134.38</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
       </c>
       <c r="M139" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>211112022</v>
+        <v>211111943</v>
       </c>
       <c r="B140" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
@@ -6307,39 +6307,39 @@
         <v>15</v>
       </c>
       <c r="E140">
-        <v>10718</v>
+        <v>9697</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
       </c>
       <c r="G140" s="1">
-        <v>45855.563877314809</v>
+        <v>45863.494432870371</v>
       </c>
       <c r="H140" s="1">
-        <v>45855.563877314809</v>
+        <v>45833.494629629626</v>
       </c>
       <c r="I140" s="2">
-        <v>6.4361226851906395</v>
+        <v>0.50556712962861639</v>
       </c>
       <c r="J140" s="3">
-        <v>194.09</v>
+        <v>180.6</v>
       </c>
       <c r="K140" s="3">
-        <v>194.09</v>
+        <v>180.6</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>211112034</v>
+        <v>211111943</v>
       </c>
       <c r="B141" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
@@ -6348,39 +6348,39 @@
         <v>15</v>
       </c>
       <c r="E141">
-        <v>8885</v>
+        <v>10067</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
       </c>
       <c r="G141" s="1">
-        <v>45842.627256944441</v>
+        <v>45871.525949074072</v>
       </c>
       <c r="H141" s="1">
-        <v>45812.627395833333</v>
+        <v>45841.525949074072</v>
       </c>
       <c r="I141" s="2">
-        <v>19.372743055559113</v>
+        <v>-7.525949074071832</v>
       </c>
       <c r="J141" s="3">
-        <v>107.42</v>
+        <v>116.85000000000001</v>
       </c>
       <c r="K141" s="3">
-        <v>107.42</v>
+        <v>116.85000000000001</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
       </c>
       <c r="M141" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>211112034</v>
+        <v>211111943</v>
       </c>
       <c r="B142" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
@@ -6389,39 +6389,39 @@
         <v>15</v>
       </c>
       <c r="E142">
-        <v>8909</v>
+        <v>10899</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
       </c>
       <c r="G142" s="1">
-        <v>45843.496192129627</v>
+        <v>45891.494560185187</v>
       </c>
       <c r="H142" s="1">
-        <v>45813.496469907404</v>
+        <v>45861.494791666664</v>
       </c>
       <c r="I142" s="2">
-        <v>18.503807870372839</v>
+        <v>-27.494560185186856</v>
       </c>
       <c r="J142" s="3">
-        <v>35.68</v>
+        <v>141.63</v>
       </c>
       <c r="K142" s="3">
-        <v>35.68</v>
+        <v>141.63</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
       </c>
       <c r="M142" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>211112034</v>
+        <v>211112004</v>
       </c>
       <c r="B143" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
@@ -6430,25 +6430,25 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>9161</v>
+        <v>9445</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
       </c>
       <c r="G143" s="1">
-        <v>45850.505868055552</v>
+        <v>45856.586018518516</v>
       </c>
       <c r="H143" s="1">
-        <v>45820.507094907407</v>
+        <v>45826.587974537033</v>
       </c>
       <c r="I143" s="2">
-        <v>11.494131944447872</v>
+        <v>7.4139814814843703</v>
       </c>
       <c r="J143" s="3">
-        <v>225.66</v>
+        <v>264.78000000000003</v>
       </c>
       <c r="K143" s="3">
-        <v>225.66</v>
+        <v>264.78000000000003</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
@@ -6459,10 +6459,10 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>211112034</v>
+        <v>211112004</v>
       </c>
       <c r="B144" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -6471,25 +6471,25 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>9696</v>
+        <v>10431</v>
       </c>
       <c r="F144" t="s">
         <v>20</v>
       </c>
       <c r="G144" s="1">
-        <v>45863.492407407408</v>
+        <v>45878.592581018514</v>
       </c>
       <c r="H144" s="1">
-        <v>45833.494166666664</v>
+        <v>45848.592581018514</v>
       </c>
       <c r="I144" s="2">
-        <v>-1.4924074074078817</v>
+        <v>-14.592581018514466</v>
       </c>
       <c r="J144" s="3">
-        <v>239.78</v>
+        <v>414.76</v>
       </c>
       <c r="K144" s="3">
-        <v>239.78</v>
+        <v>414.76</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
@@ -6500,10 +6500,10 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>211112034</v>
+        <v>211112004</v>
       </c>
       <c r="B145" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
@@ -6512,25 +6512,25 @@
         <v>15</v>
       </c>
       <c r="E145">
-        <v>9998</v>
+        <v>10728</v>
       </c>
       <c r="F145" t="s">
         <v>20</v>
       </c>
       <c r="G145" s="1">
-        <v>45870.501469907409</v>
+        <v>45886.283738425926</v>
       </c>
       <c r="H145" s="1">
-        <v>45840.502164351848</v>
+        <v>45856.284224537034</v>
       </c>
       <c r="I145" s="2">
-        <v>-8.5014699074090458</v>
+        <v>-22.283738425925549</v>
       </c>
       <c r="J145" s="3">
-        <v>161.81</v>
+        <v>278.35000000000002</v>
       </c>
       <c r="K145" s="3">
-        <v>161.81</v>
+        <v>278.35000000000002</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -6541,10 +6541,10 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112034</v>
+        <v>211112022</v>
       </c>
       <c r="B146" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -6553,39 +6553,39 @@
         <v>15</v>
       </c>
       <c r="E146">
-        <v>10048</v>
+        <v>9992</v>
       </c>
       <c r="F146" t="s">
         <v>20</v>
       </c>
       <c r="G146" s="1">
-        <v>45871.520023148143</v>
+        <v>45840.446226851847</v>
       </c>
       <c r="H146" s="1">
-        <v>45841.520324074074</v>
+        <v>45840.446226851847</v>
       </c>
       <c r="I146" s="2">
-        <v>-9.5200231481430819</v>
+        <v>23.553773148152686</v>
       </c>
       <c r="J146" s="3">
-        <v>71.540000000000006</v>
+        <v>326.48</v>
       </c>
       <c r="K146" s="3">
-        <v>71.540000000000006</v>
+        <v>326.48</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
       </c>
       <c r="M146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>211112034</v>
+        <v>211112022</v>
       </c>
       <c r="B147" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C147" t="s">
         <v>14</v>
@@ -6594,31 +6594,31 @@
         <v>15</v>
       </c>
       <c r="E147">
-        <v>10279</v>
+        <v>10718</v>
       </c>
       <c r="F147" t="s">
         <v>20</v>
       </c>
       <c r="G147" s="1">
-        <v>45876.48737268518</v>
+        <v>45855.563877314809</v>
       </c>
       <c r="H147" s="1">
-        <v>45846.488263888888</v>
+        <v>45855.563877314809</v>
       </c>
       <c r="I147" s="2">
-        <v>-14.487372685180162</v>
+        <v>8.4361226851906395</v>
       </c>
       <c r="J147" s="3">
-        <v>243.53</v>
+        <v>194.09</v>
       </c>
       <c r="K147" s="3">
-        <v>243.53</v>
+        <v>194.09</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
       </c>
       <c r="M147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6626,7 +6626,7 @@
         <v>211112034</v>
       </c>
       <c r="B148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -6635,31 +6635,31 @@
         <v>15</v>
       </c>
       <c r="E148">
-        <v>10588</v>
+        <v>8885</v>
       </c>
       <c r="F148" t="s">
         <v>20</v>
       </c>
       <c r="G148" s="1">
-        <v>45883.665393518517</v>
+        <v>45842.627256944441</v>
       </c>
       <c r="H148" s="1">
-        <v>45853.665520833332</v>
+        <v>45812.627395833333</v>
       </c>
       <c r="I148" s="2">
-        <v>-21.665393518516794</v>
+        <v>21.372743055559113</v>
       </c>
       <c r="J148" s="3">
-        <v>250.28</v>
+        <v>107.42</v>
       </c>
       <c r="K148" s="3">
-        <v>250.28</v>
+        <v>107.42</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
       </c>
       <c r="M148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6667,7 +6667,7 @@
         <v>211112034</v>
       </c>
       <c r="B149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
@@ -6676,39 +6676,39 @@
         <v>15</v>
       </c>
       <c r="E149">
-        <v>10900</v>
+        <v>8909</v>
       </c>
       <c r="F149" t="s">
         <v>20</v>
       </c>
       <c r="G149" s="1">
-        <v>45891.499594907407</v>
+        <v>45843.496192129627</v>
       </c>
       <c r="H149" s="1">
-        <v>45861.500196759254</v>
+        <v>45813.496469907404</v>
       </c>
       <c r="I149" s="2">
-        <v>-29.4995949074073</v>
+        <v>20.503807870372839</v>
       </c>
       <c r="J149" s="3">
-        <v>227.62</v>
+        <v>35.68</v>
       </c>
       <c r="K149" s="3">
-        <v>227.62</v>
+        <v>35.68</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
       </c>
       <c r="M149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>211112184</v>
+        <v>211112034</v>
       </c>
       <c r="B150" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C150" t="s">
         <v>14</v>
@@ -6717,25 +6717,25 @@
         <v>15</v>
       </c>
       <c r="E150">
-        <v>9658</v>
+        <v>9161</v>
       </c>
       <c r="F150" t="s">
         <v>20</v>
       </c>
       <c r="G150" s="1">
-        <v>45833.396666666667</v>
+        <v>45850.505868055552</v>
       </c>
       <c r="H150" s="1">
-        <v>45833.396666666667</v>
+        <v>45820.507094907407</v>
       </c>
       <c r="I150" s="2">
-        <v>28.603333333332557</v>
+        <v>13.494131944447872</v>
       </c>
       <c r="J150" s="3">
-        <v>102.66</v>
+        <v>225.66</v>
       </c>
       <c r="K150" s="3">
-        <v>102.66</v>
+        <v>225.66</v>
       </c>
       <c r="L150" t="s">
         <v>17</v>
@@ -6746,51 +6746,51 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>211112312</v>
+        <v>211112034</v>
       </c>
       <c r="B151" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D151" t="s">
-        <v>30</v>
-      </c>
-      <c r="E151" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="E151">
+        <v>9696</v>
       </c>
       <c r="F151" t="s">
         <v>20</v>
       </c>
       <c r="G151" s="1">
-        <v>45860</v>
+        <v>45863.492407407408</v>
       </c>
       <c r="H151" s="1">
-        <v>45845</v>
+        <v>45833.494166666664</v>
       </c>
       <c r="I151" s="2">
-        <v>2</v>
+        <v>0.50759259259211831</v>
       </c>
       <c r="J151" s="3">
-        <v>-34.43</v>
+        <v>239.78</v>
       </c>
       <c r="K151" s="3">
-        <v>-34.43</v>
+        <v>239.78</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
       </c>
       <c r="M151" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>211112312</v>
+        <v>211112034</v>
       </c>
       <c r="B152" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -6799,80 +6799,80 @@
         <v>15</v>
       </c>
       <c r="E152">
-        <v>10236</v>
+        <v>9998</v>
       </c>
       <c r="F152" t="s">
         <v>20</v>
       </c>
       <c r="G152" s="1">
-        <v>45860.69835648148</v>
+        <v>45870.501469907409</v>
       </c>
       <c r="H152" s="1">
-        <v>45845.699398148143</v>
+        <v>45840.502164351848</v>
       </c>
       <c r="I152" s="2">
-        <v>1.3016435185199953</v>
+        <v>-6.5014699074090458</v>
       </c>
       <c r="J152" s="3">
-        <v>314.05</v>
+        <v>161.81</v>
       </c>
       <c r="K152" s="3">
-        <v>314.05</v>
+        <v>161.81</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
       </c>
       <c r="M152" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>211112415</v>
+        <v>211112034</v>
       </c>
       <c r="B153" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C153" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
         <v>15</v>
       </c>
       <c r="E153">
-        <v>434</v>
+        <v>10048</v>
       </c>
       <c r="F153" t="s">
         <v>20</v>
       </c>
       <c r="G153" s="1">
-        <v>45819</v>
+        <v>45871.520023148143</v>
       </c>
       <c r="H153" s="1">
-        <v>45789</v>
+        <v>45841.520324074074</v>
       </c>
       <c r="I153" s="2">
-        <v>43</v>
+        <v>-7.5200231481430819</v>
       </c>
       <c r="J153" s="3">
-        <v>-2.35</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="K153" s="3">
-        <v>-2.35</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="L153" t="s">
         <v>17</v>
       </c>
       <c r="M153" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>211112415</v>
+        <v>211112034</v>
       </c>
       <c r="B154" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -6881,39 +6881,39 @@
         <v>15</v>
       </c>
       <c r="E154">
-        <v>9079</v>
+        <v>10279</v>
       </c>
       <c r="F154" t="s">
         <v>20</v>
       </c>
       <c r="G154" s="1">
-        <v>45849.51462962963</v>
+        <v>45876.48737268518</v>
       </c>
       <c r="H154" s="1">
-        <v>45819.514999999999</v>
+        <v>45846.488263888888</v>
       </c>
       <c r="I154" s="2">
-        <v>12.485370370370219</v>
+        <v>-12.487372685180162</v>
       </c>
       <c r="J154" s="3">
-        <v>158.38</v>
+        <v>243.53</v>
       </c>
       <c r="K154" s="3">
-        <v>158.38</v>
+        <v>243.53</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
       </c>
       <c r="M154" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>211112415</v>
+        <v>211112034</v>
       </c>
       <c r="B155" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C155" t="s">
         <v>14</v>
@@ -6922,39 +6922,39 @@
         <v>15</v>
       </c>
       <c r="E155">
-        <v>9242</v>
+        <v>10588</v>
       </c>
       <c r="F155" t="s">
         <v>20</v>
       </c>
       <c r="G155" s="1">
-        <v>45851.55736111111</v>
+        <v>45883.665393518517</v>
       </c>
       <c r="H155" s="1">
-        <v>45821.557696759257</v>
+        <v>45853.665520833332</v>
       </c>
       <c r="I155" s="2">
-        <v>10.442638888889633</v>
+        <v>-19.665393518516794</v>
       </c>
       <c r="J155" s="3">
-        <v>71.900000000000006</v>
+        <v>250.28</v>
       </c>
       <c r="K155" s="3">
-        <v>71.900000000000006</v>
+        <v>250.28</v>
       </c>
       <c r="L155" t="s">
         <v>17</v>
       </c>
       <c r="M155" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>211112415</v>
+        <v>211112034</v>
       </c>
       <c r="B156" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
@@ -6963,25 +6963,25 @@
         <v>15</v>
       </c>
       <c r="E156">
-        <v>9425</v>
+        <v>10900</v>
       </c>
       <c r="F156" t="s">
         <v>20</v>
       </c>
       <c r="G156" s="1">
-        <v>45856.438993055555</v>
+        <v>45891.499594907407</v>
       </c>
       <c r="H156" s="1">
-        <v>45826.440405092588</v>
+        <v>45861.500196759254</v>
       </c>
       <c r="I156" s="2">
-        <v>5.5610069444446708</v>
+        <v>-27.4995949074073</v>
       </c>
       <c r="J156" s="3">
-        <v>44.21</v>
+        <v>227.62</v>
       </c>
       <c r="K156" s="3">
-        <v>44.21</v>
+        <v>227.62</v>
       </c>
       <c r="L156" t="s">
         <v>17</v>
@@ -6992,10 +6992,10 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>211112415</v>
+        <v>211112182</v>
       </c>
       <c r="B157" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C157" t="s">
         <v>14</v>
@@ -7004,39 +7004,39 @@
         <v>15</v>
       </c>
       <c r="E157">
-        <v>9542</v>
+        <v>11004</v>
       </c>
       <c r="F157" t="s">
         <v>20</v>
       </c>
       <c r="G157" s="1">
-        <v>45858.577106481476</v>
+        <v>45892.498379629629</v>
       </c>
       <c r="H157" s="1">
-        <v>45828.577303240738</v>
+        <v>45862.498379629629</v>
       </c>
       <c r="I157" s="2">
-        <v>3.4228935185237788</v>
+        <v>-28.498379629629198</v>
       </c>
       <c r="J157" s="3">
-        <v>85.41</v>
+        <v>213.81</v>
       </c>
       <c r="K157" s="3">
-        <v>85.41</v>
+        <v>213.81</v>
       </c>
       <c r="L157" t="s">
         <v>17</v>
       </c>
       <c r="M157" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>211112415</v>
+        <v>211112184</v>
       </c>
       <c r="B158" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C158" t="s">
         <v>14</v>
@@ -7045,25 +7045,25 @@
         <v>15</v>
       </c>
       <c r="E158">
-        <v>9659</v>
+        <v>9658</v>
       </c>
       <c r="F158" t="s">
         <v>20</v>
       </c>
       <c r="G158" s="1">
-        <v>45863.401469907403</v>
+        <v>45833.396666666667</v>
       </c>
       <c r="H158" s="1">
-        <v>45833.401736111111</v>
+        <v>45833.396666666667</v>
       </c>
       <c r="I158" s="2">
-        <v>-1.4014699074032251</v>
+        <v>30.603333333332557</v>
       </c>
       <c r="J158" s="3">
-        <v>68.63</v>
+        <v>102.66</v>
       </c>
       <c r="K158" s="3">
-        <v>68.63</v>
+        <v>102.66</v>
       </c>
       <c r="L158" t="s">
         <v>17</v>
@@ -7074,51 +7074,51 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>211112415</v>
+        <v>211112312</v>
       </c>
       <c r="B159" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D159" t="s">
-        <v>15</v>
-      </c>
-      <c r="E159">
-        <v>9671</v>
+        <v>30</v>
+      </c>
+      <c r="E159" t="s">
+        <v>31</v>
       </c>
       <c r="F159" t="s">
         <v>20</v>
       </c>
       <c r="G159" s="1">
-        <v>45863.436921296292</v>
+        <v>45860</v>
       </c>
       <c r="H159" s="1">
-        <v>45833.437662037039</v>
+        <v>45845</v>
       </c>
       <c r="I159" s="2">
-        <v>-1.4369212962919846</v>
+        <v>4</v>
       </c>
       <c r="J159" s="3">
-        <v>27.77</v>
+        <v>-34.43</v>
       </c>
       <c r="K159" s="3">
-        <v>27.77</v>
+        <v>-34.43</v>
       </c>
       <c r="L159" t="s">
         <v>17</v>
       </c>
       <c r="M159" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>211112415</v>
+        <v>211112312</v>
       </c>
       <c r="B160" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C160" t="s">
         <v>14</v>
@@ -7127,31 +7127,31 @@
         <v>15</v>
       </c>
       <c r="E160">
-        <v>9857</v>
+        <v>10236</v>
       </c>
       <c r="F160" t="s">
         <v>20</v>
       </c>
       <c r="G160" s="1">
-        <v>45865.462974537033</v>
+        <v>45860.69835648148</v>
       </c>
       <c r="H160" s="1">
-        <v>45835.463900462964</v>
+        <v>45845.699398148143</v>
       </c>
       <c r="I160" s="2">
-        <v>-3.4629745370330056</v>
+        <v>3.3016435185199953</v>
       </c>
       <c r="J160" s="3">
-        <v>52.45</v>
+        <v>314.05</v>
       </c>
       <c r="K160" s="3">
-        <v>52.45</v>
+        <v>314.05</v>
       </c>
       <c r="L160" t="s">
         <v>17</v>
       </c>
       <c r="M160" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -7159,40 +7159,40 @@
         <v>211112415</v>
       </c>
       <c r="B161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D161" t="s">
         <v>15</v>
       </c>
       <c r="E161">
-        <v>10341</v>
+        <v>434</v>
       </c>
       <c r="F161" t="s">
         <v>20</v>
       </c>
       <c r="G161" s="1">
-        <v>45877.430648148147</v>
+        <v>45819</v>
       </c>
       <c r="H161" s="1">
-        <v>45847.430648148147</v>
+        <v>45789</v>
       </c>
       <c r="I161" s="2">
-        <v>-15.430648148147156</v>
+        <v>45</v>
       </c>
       <c r="J161" s="3">
-        <v>74.72</v>
+        <v>-2.35</v>
       </c>
       <c r="K161" s="3">
-        <v>74.72</v>
+        <v>-2.35</v>
       </c>
       <c r="L161" t="s">
         <v>17</v>
       </c>
       <c r="M161" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -7200,7 +7200,7 @@
         <v>211112415</v>
       </c>
       <c r="B162" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C162" t="s">
         <v>14</v>
@@ -7209,121 +7209,121 @@
         <v>15</v>
       </c>
       <c r="E162">
-        <v>10822</v>
+        <v>9079</v>
       </c>
       <c r="F162" t="s">
         <v>20</v>
       </c>
       <c r="G162" s="1">
-        <v>45889.487743055557</v>
+        <v>45849.51462962963</v>
       </c>
       <c r="H162" s="1">
-        <v>45859.487743055557</v>
+        <v>45819.514999999999</v>
       </c>
       <c r="I162" s="2">
-        <v>-27.487743055557075</v>
+        <v>14.485370370370219</v>
       </c>
       <c r="J162" s="3">
-        <v>95.87</v>
+        <v>158.38</v>
       </c>
       <c r="K162" s="3">
-        <v>95.87</v>
+        <v>158.38</v>
       </c>
       <c r="L162" t="s">
         <v>17</v>
       </c>
       <c r="M162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>211120936</v>
+        <v>211112415</v>
       </c>
       <c r="B163" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C163" t="s">
         <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E163">
-        <v>6884</v>
+        <v>9242</v>
       </c>
       <c r="F163" t="s">
         <v>20</v>
       </c>
       <c r="G163" s="1">
-        <v>45603.629884259259</v>
+        <v>45851.55736111111</v>
       </c>
       <c r="H163" s="1">
-        <v>45573.643425925926</v>
+        <v>45821.557696759257</v>
       </c>
       <c r="I163" s="2">
-        <v>258.37011574074131</v>
+        <v>12.442638888889633</v>
       </c>
       <c r="J163" s="3">
-        <v>3471.6</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="K163" s="3">
-        <v>3471.6</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="L163" t="s">
         <v>17</v>
       </c>
       <c r="M163" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>211120936</v>
+        <v>211112415</v>
       </c>
       <c r="B164" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C164" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E164">
-        <v>84</v>
+        <v>9425</v>
       </c>
       <c r="F164" t="s">
         <v>20</v>
       </c>
       <c r="G164" s="1">
-        <v>45630</v>
+        <v>45856.438993055555</v>
       </c>
       <c r="H164" s="1">
-        <v>45600</v>
+        <v>45826.440405092588</v>
       </c>
       <c r="I164" s="2">
-        <v>232</v>
+        <v>7.5610069444446708</v>
       </c>
       <c r="J164" s="3">
-        <v>-63.36</v>
+        <v>44.21</v>
       </c>
       <c r="K164" s="3">
-        <v>-63.36</v>
+        <v>44.21</v>
       </c>
       <c r="L164" t="s">
         <v>17</v>
       </c>
       <c r="M164" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>211120936</v>
+        <v>211112415</v>
       </c>
       <c r="B165" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C165" t="s">
         <v>14</v>
@@ -7332,80 +7332,80 @@
         <v>15</v>
       </c>
       <c r="E165">
-        <v>1301</v>
+        <v>9542</v>
       </c>
       <c r="F165" t="s">
         <v>20</v>
       </c>
       <c r="G165" s="1">
-        <v>45708.588148148148</v>
+        <v>45858.577106481476</v>
       </c>
       <c r="H165" s="1">
-        <v>45678.609421296293</v>
+        <v>45828.577303240738</v>
       </c>
       <c r="I165" s="2">
-        <v>153.41185185185168</v>
+        <v>5.4228935185237788</v>
       </c>
       <c r="J165" s="3">
-        <v>2820.4</v>
+        <v>85.41</v>
       </c>
       <c r="K165" s="3">
-        <v>2820.4</v>
+        <v>85.41</v>
       </c>
       <c r="L165" t="s">
         <v>17</v>
       </c>
       <c r="M165" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>211120936</v>
+        <v>211112415</v>
       </c>
       <c r="B166" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C166" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D166" t="s">
         <v>15</v>
       </c>
       <c r="E166">
-        <v>240</v>
+        <v>9659</v>
       </c>
       <c r="F166" t="s">
         <v>20</v>
       </c>
       <c r="G166" s="1">
-        <v>45749</v>
+        <v>45863.401469907403</v>
       </c>
       <c r="H166" s="1">
-        <v>45719</v>
+        <v>45833.401736111111</v>
       </c>
       <c r="I166" s="2">
-        <v>113</v>
+        <v>0.59853009259677492</v>
       </c>
       <c r="J166" s="3">
-        <v>-554.25</v>
+        <v>68.63</v>
       </c>
       <c r="K166" s="3">
-        <v>-554.25</v>
+        <v>68.63</v>
       </c>
       <c r="L166" t="s">
         <v>17</v>
       </c>
       <c r="M166" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>211121258</v>
+        <v>211112415</v>
       </c>
       <c r="B167" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C167" t="s">
         <v>14</v>
@@ -7414,39 +7414,39 @@
         <v>15</v>
       </c>
       <c r="E167">
-        <v>5803</v>
+        <v>9671</v>
       </c>
       <c r="F167" t="s">
         <v>20</v>
       </c>
       <c r="G167" s="1">
-        <v>45754.431064814809</v>
+        <v>45863.436921296292</v>
       </c>
       <c r="H167" s="1">
-        <v>45754.431064814809</v>
+        <v>45833.437662037039</v>
       </c>
       <c r="I167" s="2">
-        <v>107.56893518519064</v>
+        <v>0.56307870370801538</v>
       </c>
       <c r="J167" s="3">
-        <v>923.07</v>
+        <v>27.77</v>
       </c>
       <c r="K167" s="3">
-        <v>923.07</v>
+        <v>27.77</v>
       </c>
       <c r="L167" t="s">
         <v>17</v>
       </c>
       <c r="M167" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>211121278</v>
+        <v>211112415</v>
       </c>
       <c r="B168" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C168" t="s">
         <v>14</v>
@@ -7455,39 +7455,39 @@
         <v>15</v>
       </c>
       <c r="E168">
-        <v>8941</v>
+        <v>9857</v>
       </c>
       <c r="F168" t="s">
         <v>20</v>
       </c>
       <c r="G168" s="1">
-        <v>45843.598912037036</v>
+        <v>45865.462974537033</v>
       </c>
       <c r="H168" s="1">
-        <v>45813.599953703699</v>
+        <v>45835.463900462964</v>
       </c>
       <c r="I168" s="2">
-        <v>18.401087962964084</v>
+        <v>-1.4629745370330056</v>
       </c>
       <c r="J168" s="3">
-        <v>102.60000000000001</v>
+        <v>52.45</v>
       </c>
       <c r="K168" s="3">
-        <v>102.60000000000001</v>
+        <v>52.45</v>
       </c>
       <c r="L168" t="s">
         <v>17</v>
       </c>
       <c r="M168" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>211121278</v>
+        <v>211112415</v>
       </c>
       <c r="B169" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C169" t="s">
         <v>14</v>
@@ -7496,39 +7496,39 @@
         <v>15</v>
       </c>
       <c r="E169">
-        <v>9105</v>
+        <v>10341</v>
       </c>
       <c r="F169" t="s">
         <v>20</v>
       </c>
       <c r="G169" s="1">
-        <v>45849.596249999995</v>
+        <v>45877.430648148147</v>
       </c>
       <c r="H169" s="1">
-        <v>45819.597141203703</v>
+        <v>45847.430648148147</v>
       </c>
       <c r="I169" s="2">
-        <v>12.403750000004948</v>
+        <v>-13.430648148147156</v>
       </c>
       <c r="J169" s="3">
-        <v>124.2</v>
+        <v>74.72</v>
       </c>
       <c r="K169" s="3">
-        <v>124.2</v>
+        <v>74.72</v>
       </c>
       <c r="L169" t="s">
         <v>17</v>
       </c>
       <c r="M169" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>211121278</v>
+        <v>211112415</v>
       </c>
       <c r="B170" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C170" t="s">
         <v>14</v>
@@ -7537,39 +7537,39 @@
         <v>15</v>
       </c>
       <c r="E170">
-        <v>9259</v>
+        <v>10822</v>
       </c>
       <c r="F170" t="s">
         <v>20</v>
       </c>
       <c r="G170" s="1">
-        <v>45851.59134259259</v>
+        <v>45889.487743055557</v>
       </c>
       <c r="H170" s="1">
-        <v>45821.592164351852</v>
+        <v>45859.487743055557</v>
       </c>
       <c r="I170" s="2">
-        <v>10.408657407409919</v>
+        <v>-25.487743055557075</v>
       </c>
       <c r="J170" s="3">
-        <v>97.2</v>
+        <v>95.87</v>
       </c>
       <c r="K170" s="3">
-        <v>97.2</v>
+        <v>95.87</v>
       </c>
       <c r="L170" t="s">
         <v>17</v>
       </c>
       <c r="M170" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>211121278</v>
+        <v>211112415</v>
       </c>
       <c r="B171" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C171" t="s">
         <v>14</v>
@@ -7578,153 +7578,522 @@
         <v>15</v>
       </c>
       <c r="E171">
-        <v>9555</v>
+        <v>11070</v>
       </c>
       <c r="F171" t="s">
         <v>20</v>
       </c>
       <c r="G171" s="1">
-        <v>45858.607731481483</v>
+        <v>45893.523460648146</v>
       </c>
       <c r="H171" s="1">
-        <v>45828.608090277776</v>
+        <v>45863.523460648146</v>
       </c>
       <c r="I171" s="2">
-        <v>3.3922685185170849</v>
+        <v>-29.523460648146283</v>
       </c>
       <c r="J171" s="3">
-        <v>75.600000000000009</v>
+        <v>106.52</v>
       </c>
       <c r="K171" s="3">
-        <v>75.600000000000009</v>
+        <v>106.52</v>
       </c>
       <c r="L171" t="s">
         <v>17</v>
       </c>
       <c r="M171" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>211121278</v>
+        <v>211120936</v>
       </c>
       <c r="B172" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C172" t="s">
         <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E172">
-        <v>9722</v>
+        <v>6884</v>
       </c>
       <c r="F172" t="s">
         <v>20</v>
       </c>
       <c r="G172" s="1">
-        <v>45863.601412037038</v>
+        <v>45603.629884259259</v>
       </c>
       <c r="H172" s="1">
-        <v>45833.602407407408</v>
+        <v>45573.643425925926</v>
       </c>
       <c r="I172" s="2">
-        <v>-1.6014120370382443</v>
+        <v>260.37011574074131</v>
       </c>
       <c r="J172" s="3">
-        <v>102.60000000000001</v>
+        <v>3471.6</v>
       </c>
       <c r="K172" s="3">
-        <v>102.60000000000001</v>
+        <v>3471.6</v>
       </c>
       <c r="L172" t="s">
         <v>17</v>
       </c>
       <c r="M172" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>211121278</v>
+        <v>211120936</v>
       </c>
       <c r="B173" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C173" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D173" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E173">
-        <v>10076</v>
+        <v>84</v>
       </c>
       <c r="F173" t="s">
         <v>20</v>
       </c>
       <c r="G173" s="1">
-        <v>45871.611539351848</v>
+        <v>45630</v>
       </c>
       <c r="H173" s="1">
-        <v>45841.612893518519</v>
+        <v>45600</v>
       </c>
       <c r="I173" s="2">
-        <v>-9.611539351848478</v>
+        <v>234</v>
       </c>
       <c r="J173" s="3">
-        <v>91.8</v>
+        <v>-63.36</v>
       </c>
       <c r="K173" s="3">
-        <v>91.8</v>
+        <v>-63.36</v>
       </c>
       <c r="L173" t="s">
         <v>17</v>
       </c>
       <c r="M173" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
+        <v>211120936</v>
+      </c>
+      <c r="B174" t="s">
+        <v>51</v>
+      </c>
+      <c r="C174" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174">
+        <v>1301</v>
+      </c>
+      <c r="F174" t="s">
+        <v>20</v>
+      </c>
+      <c r="G174" s="1">
+        <v>45708.588148148148</v>
+      </c>
+      <c r="H174" s="1">
+        <v>45678.609421296293</v>
+      </c>
+      <c r="I174" s="2">
+        <v>155.41185185185168</v>
+      </c>
+      <c r="J174" s="3">
+        <v>2820.4</v>
+      </c>
+      <c r="K174" s="3">
+        <v>2820.4</v>
+      </c>
+      <c r="L174" t="s">
+        <v>17</v>
+      </c>
+      <c r="M174" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>211120936</v>
+      </c>
+      <c r="B175" t="s">
+        <v>51</v>
+      </c>
+      <c r="C175" t="s">
+        <v>22</v>
+      </c>
+      <c r="D175" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175">
+        <v>240</v>
+      </c>
+      <c r="F175" t="s">
+        <v>20</v>
+      </c>
+      <c r="G175" s="1">
+        <v>45749</v>
+      </c>
+      <c r="H175" s="1">
+        <v>45719</v>
+      </c>
+      <c r="I175" s="2">
+        <v>115</v>
+      </c>
+      <c r="J175" s="3">
+        <v>-554.25</v>
+      </c>
+      <c r="K175" s="3">
+        <v>-554.25</v>
+      </c>
+      <c r="L175" t="s">
+        <v>17</v>
+      </c>
+      <c r="M175" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>211121258</v>
+      </c>
+      <c r="B176" t="s">
+        <v>54</v>
+      </c>
+      <c r="C176" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176">
+        <v>5803</v>
+      </c>
+      <c r="F176" t="s">
+        <v>20</v>
+      </c>
+      <c r="G176" s="1">
+        <v>45754.431064814809</v>
+      </c>
+      <c r="H176" s="1">
+        <v>45754.431064814809</v>
+      </c>
+      <c r="I176" s="2">
+        <v>109.56893518519064</v>
+      </c>
+      <c r="J176" s="3">
+        <v>923.07</v>
+      </c>
+      <c r="K176" s="3">
+        <v>923.07</v>
+      </c>
+      <c r="L176" t="s">
+        <v>17</v>
+      </c>
+      <c r="M176" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177">
         <v>211121278</v>
       </c>
-      <c r="B174" t="s">
-        <v>56</v>
-      </c>
-      <c r="C174" t="s">
-        <v>14</v>
-      </c>
-      <c r="D174" t="s">
-        <v>15</v>
-      </c>
-      <c r="E174">
+      <c r="B177" t="s">
+        <v>55</v>
+      </c>
+      <c r="C177" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177">
+        <v>8941</v>
+      </c>
+      <c r="F177" t="s">
+        <v>20</v>
+      </c>
+      <c r="G177" s="1">
+        <v>45843.598912037036</v>
+      </c>
+      <c r="H177" s="1">
+        <v>45813.599953703699</v>
+      </c>
+      <c r="I177" s="2">
+        <v>20.401087962964084</v>
+      </c>
+      <c r="J177" s="3">
+        <v>102.60000000000001</v>
+      </c>
+      <c r="K177" s="3">
+        <v>102.60000000000001</v>
+      </c>
+      <c r="L177" t="s">
+        <v>17</v>
+      </c>
+      <c r="M177" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>211121278</v>
+      </c>
+      <c r="B178" t="s">
+        <v>55</v>
+      </c>
+      <c r="C178" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178">
+        <v>9105</v>
+      </c>
+      <c r="F178" t="s">
+        <v>20</v>
+      </c>
+      <c r="G178" s="1">
+        <v>45849.596249999995</v>
+      </c>
+      <c r="H178" s="1">
+        <v>45819.597141203703</v>
+      </c>
+      <c r="I178" s="2">
+        <v>14.403750000004948</v>
+      </c>
+      <c r="J178" s="3">
+        <v>124.2</v>
+      </c>
+      <c r="K178" s="3">
+        <v>124.2</v>
+      </c>
+      <c r="L178" t="s">
+        <v>17</v>
+      </c>
+      <c r="M178" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>211121278</v>
+      </c>
+      <c r="B179" t="s">
+        <v>55</v>
+      </c>
+      <c r="C179" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" t="s">
+        <v>15</v>
+      </c>
+      <c r="E179">
+        <v>9259</v>
+      </c>
+      <c r="F179" t="s">
+        <v>20</v>
+      </c>
+      <c r="G179" s="1">
+        <v>45851.59134259259</v>
+      </c>
+      <c r="H179" s="1">
+        <v>45821.592164351852</v>
+      </c>
+      <c r="I179" s="2">
+        <v>12.408657407409919</v>
+      </c>
+      <c r="J179" s="3">
+        <v>97.2</v>
+      </c>
+      <c r="K179" s="3">
+        <v>97.2</v>
+      </c>
+      <c r="L179" t="s">
+        <v>17</v>
+      </c>
+      <c r="M179" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>211121278</v>
+      </c>
+      <c r="B180" t="s">
+        <v>55</v>
+      </c>
+      <c r="C180" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180">
+        <v>9555</v>
+      </c>
+      <c r="F180" t="s">
+        <v>20</v>
+      </c>
+      <c r="G180" s="1">
+        <v>45858.607731481483</v>
+      </c>
+      <c r="H180" s="1">
+        <v>45828.608090277776</v>
+      </c>
+      <c r="I180" s="2">
+        <v>5.3922685185170849</v>
+      </c>
+      <c r="J180" s="3">
+        <v>75.600000000000009</v>
+      </c>
+      <c r="K180" s="3">
+        <v>75.600000000000009</v>
+      </c>
+      <c r="L180" t="s">
+        <v>17</v>
+      </c>
+      <c r="M180" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>211121278</v>
+      </c>
+      <c r="B181" t="s">
+        <v>55</v>
+      </c>
+      <c r="C181" t="s">
+        <v>14</v>
+      </c>
+      <c r="D181" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181">
+        <v>9722</v>
+      </c>
+      <c r="F181" t="s">
+        <v>20</v>
+      </c>
+      <c r="G181" s="1">
+        <v>45863.601412037038</v>
+      </c>
+      <c r="H181" s="1">
+        <v>45833.602407407408</v>
+      </c>
+      <c r="I181" s="2">
+        <v>0.39858796296175569</v>
+      </c>
+      <c r="J181" s="3">
+        <v>102.60000000000001</v>
+      </c>
+      <c r="K181" s="3">
+        <v>102.60000000000001</v>
+      </c>
+      <c r="L181" t="s">
+        <v>17</v>
+      </c>
+      <c r="M181" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>211121278</v>
+      </c>
+      <c r="B182" t="s">
+        <v>55</v>
+      </c>
+      <c r="C182" t="s">
+        <v>14</v>
+      </c>
+      <c r="D182" t="s">
+        <v>15</v>
+      </c>
+      <c r="E182">
+        <v>10076</v>
+      </c>
+      <c r="F182" t="s">
+        <v>20</v>
+      </c>
+      <c r="G182" s="1">
+        <v>45871.611539351848</v>
+      </c>
+      <c r="H182" s="1">
+        <v>45841.612893518519</v>
+      </c>
+      <c r="I182" s="2">
+        <v>-7.611539351848478</v>
+      </c>
+      <c r="J182" s="3">
+        <v>91.8</v>
+      </c>
+      <c r="K182" s="3">
+        <v>91.8</v>
+      </c>
+      <c r="L182" t="s">
+        <v>17</v>
+      </c>
+      <c r="M182" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>211121278</v>
+      </c>
+      <c r="B183" t="s">
+        <v>55</v>
+      </c>
+      <c r="C183" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183">
         <v>10229</v>
       </c>
-      <c r="F174" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" s="1">
+      <c r="F183" t="s">
+        <v>20</v>
+      </c>
+      <c r="G183" s="1">
         <v>45875.600995370369</v>
       </c>
-      <c r="H174" s="1">
+      <c r="H183" s="1">
         <v>45845.602673611109</v>
       </c>
-      <c r="I174" s="2">
-        <v>-13.600995370368764</v>
-      </c>
-      <c r="J174" s="3">
+      <c r="I183" s="2">
+        <v>-11.600995370368764</v>
+      </c>
+      <c r="J183" s="3">
         <v>86.4</v>
       </c>
-      <c r="K174" s="3">
+      <c r="K183" s="3">
         <v>86.4</v>
       </c>
-      <c r="L174" t="s">
-        <v>17</v>
-      </c>
-      <c r="M174" t="s">
+      <c r="L183" t="s">
+        <v>17</v>
+      </c>
+      <c r="M183" t="s">
         <v>19</v>
       </c>
     </row>

--- a/PCosta.xlsx
+++ b/PCosta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ce9537a3d4953a2/Desktop/COMERCIAIS/Comerciais_Sttremlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5921178-DB96-47D7-ADE7-455E4F5A8BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B5921178-DB96-47D7-ADE7-455E4F5A8BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4E7D397-F716-4C8B-92DC-944CE8FF9B00}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F8F3D65-BB50-4D14-936D-C9FEA2B7CDDC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6F8F3D65-BB50-4D14-936D-C9FEA2B7CDDC}"/>
   </bookViews>
   <sheets>
     <sheet name="PCosta" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="56">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Dominantexemplo Unipessoal, Lda</t>
   </si>
   <si>
-    <t>Gelfer Unipessoal, Lda</t>
-  </si>
-  <si>
     <t>Interviana-Supermercados,Lda</t>
   </si>
   <si>
@@ -180,12 +177,6 @@
   </si>
   <si>
     <t>Famaves - Comércio De Carnes, Lda</t>
-  </si>
-  <si>
-    <t>Pastelaria E Pão Quente Miminho,Lda</t>
-  </si>
-  <si>
-    <t>Carnes Do Toural - Indústria E</t>
   </si>
   <si>
     <t>Talho Mestre, LDA</t>
@@ -207,6 +198,12 @@
   </si>
   <si>
     <t>Sara Macedo Unip., Lda</t>
+  </si>
+  <si>
+    <t>Albino Novais Unipessoal, Lda</t>
+  </si>
+  <si>
+    <t>Fresbeira - Indústria de Carnes, Lda</t>
   </si>
 </sst>
 </file>
@@ -581,20 +578,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4044F161-0F67-4AC3-9595-1EB749614D68}">
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A2" sqref="A2:M174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="11" width="9.140625" style="3"/>
+    <col min="7" max="8" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="2"/>
+    <col min="10" max="11" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,7 +632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>211110090</v>
       </c>
@@ -661,7 +658,7 @@
         <v>45821.504756944443</v>
       </c>
       <c r="I2" s="2">
-        <v>12.495844907411083</v>
+        <v>18</v>
       </c>
       <c r="J2" s="3">
         <v>112.18</v>
@@ -676,7 +673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>211110090</v>
       </c>
@@ -702,7 +699,7 @@
         <v>45835.425567129627</v>
       </c>
       <c r="I3" s="2">
-        <v>-1.4249074074032251</v>
+        <v>4</v>
       </c>
       <c r="J3" s="3">
         <v>58.04</v>
@@ -714,10 +711,10 @@
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>211110090</v>
       </c>
@@ -743,7 +740,7 @@
         <v>45842.494027777779</v>
       </c>
       <c r="I4" s="2">
-        <v>-8.4940277777786832</v>
+        <v>-3</v>
       </c>
       <c r="J4" s="3">
         <v>121.12</v>
@@ -758,7 +755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>211110090</v>
       </c>
@@ -784,7 +781,7 @@
         <v>45849.432291666664</v>
       </c>
       <c r="I5" s="2">
-        <v>-15.432291666664241</v>
+        <v>-10</v>
       </c>
       <c r="J5" s="3">
         <v>105.91</v>
@@ -799,7 +796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>211110090</v>
       </c>
@@ -825,7 +822,7 @@
         <v>45856.494421296295</v>
       </c>
       <c r="I6" s="2">
-        <v>-22.494421296294604</v>
+        <v>-17</v>
       </c>
       <c r="J6" s="3">
         <v>112.93</v>
@@ -840,7 +837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>211110090</v>
       </c>
@@ -866,7 +863,7 @@
         <v>45863.509282407409</v>
       </c>
       <c r="I7" s="2">
-        <v>-29.509270833332266</v>
+        <v>-24</v>
       </c>
       <c r="J7" s="3">
         <v>84.06</v>
@@ -881,7 +878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>211110212</v>
       </c>
@@ -907,7 +904,7 @@
         <v>45810.358773148146</v>
       </c>
       <c r="I8" s="2">
-        <v>23.641921296301007</v>
+        <v>29</v>
       </c>
       <c r="J8" s="3">
         <v>1367.46</v>
@@ -922,7 +919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>211110212</v>
       </c>
@@ -948,7 +945,7 @@
         <v>45813</v>
       </c>
       <c r="I9" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J9" s="3">
         <v>-7.6400000000000006</v>
@@ -963,7 +960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>211110212</v>
       </c>
@@ -989,7 +986,7 @@
         <v>45813.550266203703</v>
       </c>
       <c r="I10" s="2">
-        <v>20.463796296295186</v>
+        <v>26</v>
       </c>
       <c r="J10" s="3">
         <v>557.66999999999996</v>
@@ -1004,7 +1001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>211110212</v>
       </c>
@@ -1030,7 +1027,7 @@
         <v>45819</v>
       </c>
       <c r="I11" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J11" s="3">
         <v>-747.85</v>
@@ -1045,7 +1042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>211110212</v>
       </c>
@@ -1071,7 +1068,7 @@
         <v>45819.54788194444</v>
       </c>
       <c r="I12" s="2">
-        <v>14.453518518523197</v>
+        <v>20</v>
       </c>
       <c r="J12" s="3">
         <v>878.45</v>
@@ -1086,7 +1083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>211110212</v>
       </c>
@@ -1112,7 +1109,7 @@
         <v>45821.563634259255</v>
       </c>
       <c r="I13" s="2">
-        <v>12.43660879629897</v>
+        <v>18</v>
       </c>
       <c r="J13" s="3">
         <v>57.01</v>
@@ -1127,7 +1124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>211110212</v>
       </c>
@@ -1153,7 +1150,7 @@
         <v>45824.453576388885</v>
       </c>
       <c r="I14" s="2">
-        <v>9.5468171296306537</v>
+        <v>15</v>
       </c>
       <c r="J14" s="3">
         <v>81.16</v>
@@ -1168,7 +1165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>211110212</v>
       </c>
@@ -1194,7 +1191,7 @@
         <v>45826.451354166667</v>
       </c>
       <c r="I15" s="2">
-        <v>7.5489236111097853</v>
+        <v>13</v>
       </c>
       <c r="J15" s="3">
         <v>1336.5</v>
@@ -1209,7 +1206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>211110212</v>
       </c>
@@ -1235,7 +1232,7 @@
         <v>45828.528136574074</v>
       </c>
       <c r="I16" s="2">
-        <v>5.4761805555608589</v>
+        <v>11</v>
       </c>
       <c r="J16" s="3">
         <v>204.67000000000002</v>
@@ -1247,10 +1244,10 @@
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>211110212</v>
       </c>
@@ -1276,7 +1273,7 @@
         <v>45833.515277777777</v>
       </c>
       <c r="I17" s="2">
-        <v>0.48524305555474712</v>
+        <v>6</v>
       </c>
       <c r="J17" s="3">
         <v>168.22</v>
@@ -1288,10 +1285,10 @@
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>211110212</v>
       </c>
@@ -1317,7 +1314,7 @@
         <v>45834.465057870366</v>
       </c>
       <c r="I18" s="2">
-        <v>-0.46395833333372138</v>
+        <v>5</v>
       </c>
       <c r="J18" s="3">
         <v>148.22999999999999</v>
@@ -1329,10 +1326,10 @@
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>211110212</v>
       </c>
@@ -1358,7 +1355,7 @@
         <v>45835.477847222217</v>
       </c>
       <c r="I19" s="2">
-        <v>-1.4775810185165028</v>
+        <v>4</v>
       </c>
       <c r="J19" s="3">
         <v>199.83</v>
@@ -1370,10 +1367,10 @@
         <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>211110212</v>
       </c>
@@ -1399,7 +1396,7 @@
         <v>45839.378171296295</v>
       </c>
       <c r="I20" s="2">
-        <v>-5.3756134259238024</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>45.85</v>
@@ -1414,7 +1411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>211110212</v>
       </c>
@@ -1440,7 +1437,7 @@
         <v>45841</v>
       </c>
       <c r="I21" s="2">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="J21" s="3">
         <v>-36.31</v>
@@ -1455,7 +1452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>211110212</v>
       </c>
@@ -1481,7 +1478,7 @@
         <v>45841.497974537036</v>
       </c>
       <c r="I22" s="2">
-        <v>-7.4979745370364981</v>
+        <v>-2</v>
       </c>
       <c r="J22" s="3">
         <v>140.92000000000002</v>
@@ -1496,7 +1493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>211110212</v>
       </c>
@@ -1522,7 +1519,7 @@
         <v>45842.603391203702</v>
       </c>
       <c r="I23" s="2">
-        <v>-8.6033912037019036</v>
+        <v>-3</v>
       </c>
       <c r="J23" s="3">
         <v>64.11</v>
@@ -1537,7 +1534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>211110212</v>
       </c>
@@ -1563,7 +1560,7 @@
         <v>45847.498993055553</v>
       </c>
       <c r="I24" s="2">
-        <v>-13.498981481476221</v>
+        <v>-8</v>
       </c>
       <c r="J24" s="3">
         <v>174.55</v>
@@ -1578,7 +1575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>211110212</v>
       </c>
@@ -1604,7 +1601,7 @@
         <v>45849.477754629625</v>
       </c>
       <c r="I25" s="2">
-        <v>-15.477118055554456</v>
+        <v>-10</v>
       </c>
       <c r="J25" s="3">
         <v>208.79</v>
@@ -1619,7 +1616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>211110212</v>
       </c>
@@ -1645,7 +1642,7 @@
         <v>45853.417523148149</v>
       </c>
       <c r="I26" s="2">
-        <v>-19.417129629626288</v>
+        <v>-14</v>
       </c>
       <c r="J26" s="3">
         <v>231.02</v>
@@ -1660,7 +1657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>211110212</v>
       </c>
@@ -1686,7 +1683,7 @@
         <v>45855.561655092592</v>
       </c>
       <c r="I27" s="2">
-        <v>-21.561157407406427</v>
+        <v>-16</v>
       </c>
       <c r="J27" s="3">
         <v>236.83</v>
@@ -1701,7 +1698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>211110212</v>
       </c>
@@ -1727,7 +1724,7 @@
         <v>45860.594571759255</v>
       </c>
       <c r="I28" s="2">
-        <v>-26.594178240738984</v>
+        <v>-21</v>
       </c>
       <c r="J28" s="3">
         <v>66.320000000000007</v>
@@ -1742,7 +1739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>211110212</v>
       </c>
@@ -1750,31 +1747,31 @@
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>2025</v>
       </c>
       <c r="E29">
-        <v>10960</v>
+        <v>672</v>
       </c>
       <c r="F29" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="1">
-        <v>45891.569016203699</v>
+        <v>45891</v>
       </c>
       <c r="H29" s="1">
-        <v>45861.569016203699</v>
+        <v>45861</v>
       </c>
       <c r="I29" s="2">
-        <v>-27.569016203698993</v>
+        <v>-22</v>
       </c>
       <c r="J29" s="3">
-        <v>217.13</v>
+        <v>-80.42</v>
       </c>
       <c r="K29" s="3">
-        <v>217.13</v>
+        <v>-80.42</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
@@ -1783,7 +1780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>211110212</v>
       </c>
@@ -1797,75 +1794,75 @@
         <v>15</v>
       </c>
       <c r="E30">
+        <v>10960</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="1">
+        <v>45891.569016203699</v>
+      </c>
+      <c r="H30" s="1">
+        <v>45861.569016203699</v>
+      </c>
+      <c r="I30" s="2">
+        <v>-22</v>
+      </c>
+      <c r="J30" s="3">
+        <v>217.13</v>
+      </c>
+      <c r="K30" s="3">
+        <v>217.13</v>
+      </c>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>211110212</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
         <v>11077</v>
       </c>
-      <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="1">
         <v>45893.634097222217</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H31" s="1">
         <v>45863.634097222217</v>
       </c>
-      <c r="I30" s="2">
-        <v>-29.634097222216951</v>
-      </c>
-      <c r="J30" s="3">
+      <c r="I31" s="2">
+        <v>-24</v>
+      </c>
+      <c r="J31" s="3">
         <v>22.37</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K31" s="3">
         <v>22.37</v>
       </c>
-      <c r="L30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>211110264</v>
-      </c>
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31">
-        <v>6743</v>
-      </c>
-      <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="1">
-        <v>45800.598414351851</v>
-      </c>
-      <c r="H31" s="1">
-        <v>45770.600486111107</v>
-      </c>
-      <c r="I31" s="2">
-        <v>63.401585648149194</v>
-      </c>
-      <c r="J31" s="3">
-        <v>519.91999999999996</v>
-      </c>
-      <c r="K31" s="3">
-        <v>519.91999999999996</v>
-      </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>211110264</v>
       </c>
@@ -1879,75 +1876,75 @@
         <v>15</v>
       </c>
       <c r="E32">
+        <v>6743</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="1">
+        <v>45800.598414351851</v>
+      </c>
+      <c r="H32" s="1">
+        <v>45770.600486111107</v>
+      </c>
+      <c r="I32" s="2">
+        <v>69</v>
+      </c>
+      <c r="J32" s="3">
+        <v>519.91999999999996</v>
+      </c>
+      <c r="K32" s="3">
+        <v>519.91999999999996</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>211110264</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33">
         <v>8698</v>
       </c>
-      <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="1">
         <v>45837.66951388889</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H33" s="1">
         <v>45807.669710648144</v>
       </c>
-      <c r="I32" s="2">
-        <v>26.330486111110076</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="I33" s="2">
+        <v>32</v>
+      </c>
+      <c r="J33" s="3">
         <v>87.67</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K33" s="3">
         <v>87.67</v>
       </c>
-      <c r="L32" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>211110285</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33">
-        <v>10280</v>
-      </c>
-      <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="1">
-        <v>45876.500960648147</v>
-      </c>
-      <c r="H33" s="1">
-        <v>45846.501273148147</v>
-      </c>
-      <c r="I33" s="2">
-        <v>-12.500960648147156</v>
-      </c>
-      <c r="J33" s="3">
-        <v>285.86</v>
-      </c>
-      <c r="K33" s="3">
-        <v>285.86</v>
-      </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>211110285</v>
       </c>
@@ -1961,25 +1958,25 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>10540</v>
+        <v>11084</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G34" s="1">
-        <v>45882.633125</v>
+        <v>45893.645856481482</v>
       </c>
       <c r="H34" s="1">
-        <v>45852.63585648148</v>
+        <v>45863.645856481482</v>
       </c>
       <c r="I34" s="2">
-        <v>-18.633125000000291</v>
+        <v>-24</v>
       </c>
       <c r="J34" s="3">
-        <v>98.89</v>
+        <v>226.82</v>
       </c>
       <c r="K34" s="3">
-        <v>98.89</v>
+        <v>226.82</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
@@ -1988,7 +1985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>211110285</v>
       </c>
@@ -2002,25 +1999,25 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>11084</v>
+        <v>11255</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="1">
-        <v>45893.645856481482</v>
+        <v>45898.676168981481</v>
       </c>
       <c r="H35" s="1">
-        <v>45863.645856481482</v>
+        <v>45868.677152777775</v>
       </c>
       <c r="I35" s="2">
-        <v>-29.645856481482042</v>
+        <v>-29</v>
       </c>
       <c r="J35" s="3">
-        <v>226.82</v>
+        <v>139.54</v>
       </c>
       <c r="K35" s="3">
-        <v>226.82</v>
+        <v>139.54</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -2029,7 +2026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>211110364</v>
       </c>
@@ -2055,7 +2052,7 @@
         <v>45812</v>
       </c>
       <c r="I36" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J36" s="3">
         <v>-3.2</v>
@@ -2070,7 +2067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>211110364</v>
       </c>
@@ -2084,25 +2081,25 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>9083</v>
+        <v>9302</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="1">
-        <v>45849.518437499995</v>
+        <v>45854.463402777779</v>
       </c>
       <c r="H37" s="1">
-        <v>45819.532013888886</v>
+        <v>45824.464004629626</v>
       </c>
       <c r="I37" s="2">
-        <v>14.481562500004657</v>
+        <v>15</v>
       </c>
       <c r="J37" s="3">
-        <v>1187.4100000000001</v>
+        <v>304.15000000000003</v>
       </c>
       <c r="K37" s="3">
-        <v>1187.4100000000001</v>
+        <v>304.15000000000003</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2111,7 +2108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>211110364</v>
       </c>
@@ -2125,25 +2122,25 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>9243</v>
+        <v>9426</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
       </c>
       <c r="G38" s="1">
-        <v>45851.557847222219</v>
+        <v>45856.440613425926</v>
       </c>
       <c r="H38" s="1">
-        <v>45821.558275462958</v>
+        <v>45826.441643518519</v>
       </c>
       <c r="I38" s="2">
-        <v>12.442152777781303</v>
+        <v>13</v>
       </c>
       <c r="J38" s="3">
-        <v>207.52</v>
+        <v>65.47</v>
       </c>
       <c r="K38" s="3">
-        <v>207.52</v>
+        <v>65.47</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
@@ -2152,7 +2149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>211110364</v>
       </c>
@@ -2166,25 +2163,25 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>9302</v>
+        <v>9475</v>
       </c>
       <c r="F39" t="s">
         <v>20</v>
       </c>
       <c r="G39" s="1">
-        <v>45854.463402777779</v>
+        <v>45858.441377314812</v>
       </c>
       <c r="H39" s="1">
-        <v>45824.464004629626</v>
+        <v>45828.442824074074</v>
       </c>
       <c r="I39" s="2">
-        <v>9.5365972222207347</v>
+        <v>11</v>
       </c>
       <c r="J39" s="3">
-        <v>304.15000000000003</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="K39" s="3">
-        <v>304.15000000000003</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
@@ -2193,7 +2190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>211110364</v>
       </c>
@@ -2207,25 +2204,25 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>9426</v>
+        <v>9660</v>
       </c>
       <c r="F40" t="s">
         <v>20</v>
       </c>
       <c r="G40" s="1">
-        <v>45856.440613425926</v>
+        <v>45863.40216435185</v>
       </c>
       <c r="H40" s="1">
-        <v>45826.441643518519</v>
+        <v>45833.402662037035</v>
       </c>
       <c r="I40" s="2">
-        <v>7.5593865740738693</v>
+        <v>6</v>
       </c>
       <c r="J40" s="3">
-        <v>65.47</v>
+        <v>32.85</v>
       </c>
       <c r="K40" s="3">
-        <v>65.47</v>
+        <v>32.85</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
@@ -2234,7 +2231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>211110364</v>
       </c>
@@ -2248,34 +2245,34 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>9475</v>
+        <v>9699</v>
       </c>
       <c r="F41" t="s">
         <v>20</v>
       </c>
       <c r="G41" s="1">
-        <v>45858.441377314812</v>
+        <v>45863.495011574072</v>
       </c>
       <c r="H41" s="1">
-        <v>45828.442824074074</v>
+        <v>45833.496192129627</v>
       </c>
       <c r="I41" s="2">
-        <v>5.5586226851883112</v>
+        <v>6</v>
       </c>
       <c r="J41" s="3">
-        <v>153.80000000000001</v>
+        <v>994.62</v>
       </c>
       <c r="K41" s="3">
-        <v>153.80000000000001</v>
+        <v>994.62</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>211110364</v>
       </c>
@@ -2289,34 +2286,34 @@
         <v>15</v>
       </c>
       <c r="E42">
-        <v>9660</v>
+        <v>9865</v>
       </c>
       <c r="F42" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="1">
-        <v>45863.40216435185</v>
+        <v>45865.470057870371</v>
       </c>
       <c r="H42" s="1">
-        <v>45833.402662037035</v>
+        <v>45835.474293981482</v>
       </c>
       <c r="I42" s="2">
-        <v>0.59783564815006685</v>
+        <v>4</v>
       </c>
       <c r="J42" s="3">
-        <v>32.85</v>
+        <v>528.76</v>
       </c>
       <c r="K42" s="3">
-        <v>32.85</v>
+        <v>528.76</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>211110364</v>
       </c>
@@ -2324,40 +2321,40 @@
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D43">
+        <v>2025</v>
       </c>
       <c r="E43">
-        <v>9699</v>
+        <v>596</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="1">
-        <v>45863.495011574072</v>
+        <v>45868</v>
       </c>
       <c r="H43" s="1">
-        <v>45833.496192129627</v>
+        <v>45838</v>
       </c>
       <c r="I43" s="2">
-        <v>0.50498842592787696</v>
+        <v>1</v>
       </c>
       <c r="J43" s="3">
-        <v>994.62</v>
+        <v>-15.85</v>
       </c>
       <c r="K43" s="3">
-        <v>994.62</v>
+        <v>-15.85</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>211110364</v>
       </c>
@@ -2371,34 +2368,34 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>9865</v>
+        <v>9900</v>
       </c>
       <c r="F44" t="s">
         <v>20</v>
       </c>
       <c r="G44" s="1">
-        <v>45865.470057870371</v>
+        <v>45868.412268518514</v>
       </c>
       <c r="H44" s="1">
-        <v>45835.474293981482</v>
+        <v>45838.412754629629</v>
       </c>
       <c r="I44" s="2">
-        <v>-1.4700578703705105</v>
+        <v>1</v>
       </c>
       <c r="J44" s="3">
-        <v>528.76</v>
+        <v>119.13</v>
       </c>
       <c r="K44" s="3">
-        <v>528.76</v>
+        <v>119.13</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>211110364</v>
       </c>
@@ -2406,31 +2403,31 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
       </c>
       <c r="E45">
-        <v>596</v>
+        <v>9968</v>
       </c>
       <c r="F45" t="s">
         <v>20</v>
       </c>
       <c r="G45" s="1">
-        <v>45868</v>
+        <v>45870.436192129629</v>
       </c>
       <c r="H45" s="1">
-        <v>45838</v>
+        <v>45840.436192129629</v>
       </c>
       <c r="I45" s="2">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="J45" s="3">
-        <v>-15.85</v>
+        <v>283.05</v>
       </c>
       <c r="K45" s="3">
-        <v>-15.85</v>
+        <v>283.05</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
@@ -2439,7 +2436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>211110364</v>
       </c>
@@ -2453,25 +2450,25 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>9900</v>
+        <v>10019</v>
       </c>
       <c r="F46" t="s">
         <v>20</v>
       </c>
       <c r="G46" s="1">
-        <v>45868.412268518514</v>
+        <v>45870.684710648144</v>
       </c>
       <c r="H46" s="1">
-        <v>45838.412754629629</v>
+        <v>45840.685428240737</v>
       </c>
       <c r="I46" s="2">
-        <v>-4.4122685185138835</v>
+        <v>-1</v>
       </c>
       <c r="J46" s="3">
-        <v>119.13</v>
+        <v>228.83</v>
       </c>
       <c r="K46" s="3">
-        <v>119.13</v>
+        <v>228.83</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
@@ -2480,7 +2477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>211110364</v>
       </c>
@@ -2494,25 +2491,25 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>9968</v>
+        <v>10147</v>
       </c>
       <c r="F47" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="1">
-        <v>45870.436192129629</v>
+        <v>45872.453900462962</v>
       </c>
       <c r="H47" s="1">
-        <v>45840.436192129629</v>
+        <v>45842.453900462962</v>
       </c>
       <c r="I47" s="2">
-        <v>-6.4361921296294895</v>
+        <v>-3</v>
       </c>
       <c r="J47" s="3">
-        <v>283.05</v>
+        <v>545.98</v>
       </c>
       <c r="K47" s="3">
-        <v>283.05</v>
+        <v>545.98</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
@@ -2521,7 +2518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>211110364</v>
       </c>
@@ -2535,25 +2532,25 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>10019</v>
+        <v>10156</v>
       </c>
       <c r="F48" t="s">
         <v>20</v>
       </c>
       <c r="G48" s="1">
-        <v>45870.684710648144</v>
+        <v>45872.493888888886</v>
       </c>
       <c r="H48" s="1">
-        <v>45840.685428240737</v>
+        <v>45842.493888888886</v>
       </c>
       <c r="I48" s="2">
-        <v>-6.684710648143664</v>
+        <v>-3</v>
       </c>
       <c r="J48" s="3">
-        <v>228.83</v>
+        <v>2.63</v>
       </c>
       <c r="K48" s="3">
-        <v>228.83</v>
+        <v>2.63</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
@@ -2562,7 +2559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>211110364</v>
       </c>
@@ -2576,25 +2573,25 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>10147</v>
+        <v>10203</v>
       </c>
       <c r="F49" t="s">
         <v>20</v>
       </c>
       <c r="G49" s="1">
-        <v>45872.453900462962</v>
+        <v>45875.468877314815</v>
       </c>
       <c r="H49" s="1">
-        <v>45842.453900462962</v>
+        <v>45845.468888888885</v>
       </c>
       <c r="I49" s="2">
-        <v>-8.4539004629623378</v>
+        <v>-6</v>
       </c>
       <c r="J49" s="3">
-        <v>545.98</v>
+        <v>338.76</v>
       </c>
       <c r="K49" s="3">
-        <v>545.98</v>
+        <v>338.76</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
@@ -2603,7 +2600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>211110364</v>
       </c>
@@ -2617,25 +2614,25 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>10156</v>
+        <v>10342</v>
       </c>
       <c r="F50" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="1">
-        <v>45872.493888888886</v>
+        <v>45877.430671296293</v>
       </c>
       <c r="H50" s="1">
-        <v>45842.493888888886</v>
+        <v>45847.430671296293</v>
       </c>
       <c r="I50" s="2">
-        <v>-8.4938888888864312</v>
+        <v>-8</v>
       </c>
       <c r="J50" s="3">
-        <v>2.63</v>
+        <v>460.23</v>
       </c>
       <c r="K50" s="3">
-        <v>2.63</v>
+        <v>460.23</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -2644,7 +2641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>211110364</v>
       </c>
@@ -2658,25 +2655,25 @@
         <v>15</v>
       </c>
       <c r="E51">
-        <v>10203</v>
+        <v>10469</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="1">
-        <v>45875.468877314815</v>
+        <v>45879.403611111113</v>
       </c>
       <c r="H51" s="1">
-        <v>45845.468888888885</v>
+        <v>45849.403611111113</v>
       </c>
       <c r="I51" s="2">
-        <v>-11.468877314815472</v>
+        <v>-10</v>
       </c>
       <c r="J51" s="3">
-        <v>338.76</v>
+        <v>544.83000000000004</v>
       </c>
       <c r="K51" s="3">
-        <v>338.76</v>
+        <v>544.83000000000004</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -2685,7 +2682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>211110364</v>
       </c>
@@ -2699,25 +2696,25 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>10342</v>
+        <v>10515</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
       </c>
       <c r="G52" s="1">
-        <v>45877.430671296293</v>
+        <v>45882.474629629629</v>
       </c>
       <c r="H52" s="1">
-        <v>45847.430671296293</v>
+        <v>45852.474629629629</v>
       </c>
       <c r="I52" s="2">
-        <v>-13.43067129629344</v>
+        <v>-13</v>
       </c>
       <c r="J52" s="3">
-        <v>460.23</v>
+        <v>603.02</v>
       </c>
       <c r="K52" s="3">
-        <v>460.23</v>
+        <v>603.02</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -2726,7 +2723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>211110364</v>
       </c>
@@ -2740,25 +2737,25 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>10469</v>
+        <v>10646</v>
       </c>
       <c r="F53" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="1">
-        <v>45879.403611111113</v>
+        <v>45884.469351851847</v>
       </c>
       <c r="H53" s="1">
-        <v>45849.403611111113</v>
+        <v>45854.469351851847</v>
       </c>
       <c r="I53" s="2">
-        <v>-15.403611111112696</v>
+        <v>-15</v>
       </c>
       <c r="J53" s="3">
-        <v>544.83000000000004</v>
+        <v>447.87</v>
       </c>
       <c r="K53" s="3">
-        <v>544.83000000000004</v>
+        <v>447.87</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -2767,7 +2764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>211110364</v>
       </c>
@@ -2781,25 +2778,25 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>10515</v>
+        <v>10768</v>
       </c>
       <c r="F54" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="1">
-        <v>45882.474629629629</v>
+        <v>45886.485416666663</v>
       </c>
       <c r="H54" s="1">
-        <v>45852.474629629629</v>
+        <v>45856.48542824074</v>
       </c>
       <c r="I54" s="2">
-        <v>-18.474629629628907</v>
+        <v>-17</v>
       </c>
       <c r="J54" s="3">
-        <v>603.02</v>
+        <v>783.17000000000007</v>
       </c>
       <c r="K54" s="3">
-        <v>603.02</v>
+        <v>783.17000000000007</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
@@ -2808,7 +2805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>211110364</v>
       </c>
@@ -2822,25 +2819,25 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>10646</v>
+        <v>10821</v>
       </c>
       <c r="F55" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="1">
-        <v>45884.469351851847</v>
+        <v>45889.487719907404</v>
       </c>
       <c r="H55" s="1">
-        <v>45854.469351851847</v>
+        <v>45859.487719907404</v>
       </c>
       <c r="I55" s="2">
-        <v>-20.469351851847023</v>
+        <v>-20</v>
       </c>
       <c r="J55" s="3">
-        <v>447.87</v>
+        <v>527.75</v>
       </c>
       <c r="K55" s="3">
-        <v>447.87</v>
+        <v>527.75</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
@@ -2849,7 +2846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>211110364</v>
       </c>
@@ -2857,31 +2854,31 @@
         <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D56">
+        <v>2025</v>
       </c>
       <c r="E56">
-        <v>10768</v>
+        <v>667</v>
       </c>
       <c r="F56" t="s">
         <v>20</v>
       </c>
       <c r="G56" s="1">
-        <v>45886.485416666663</v>
+        <v>45891</v>
       </c>
       <c r="H56" s="1">
-        <v>45856.48542824074</v>
+        <v>45861</v>
       </c>
       <c r="I56" s="2">
-        <v>-22.485416666662786</v>
+        <v>-22</v>
       </c>
       <c r="J56" s="3">
-        <v>783.17000000000007</v>
+        <v>-2.87</v>
       </c>
       <c r="K56" s="3">
-        <v>783.17000000000007</v>
+        <v>-2.87</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -2890,7 +2887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>211110364</v>
       </c>
@@ -2898,31 +2895,31 @@
         <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D57">
+        <v>2025</v>
       </c>
       <c r="E57">
-        <v>10821</v>
+        <v>670</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="1">
-        <v>45889.487719907404</v>
+        <v>45891</v>
       </c>
       <c r="H57" s="1">
-        <v>45859.487719907404</v>
+        <v>45861</v>
       </c>
       <c r="I57" s="2">
-        <v>-25.487719907403516</v>
+        <v>-22</v>
       </c>
       <c r="J57" s="3">
-        <v>527.75</v>
+        <v>-10.09</v>
       </c>
       <c r="K57" s="3">
-        <v>527.75</v>
+        <v>-10.09</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2931,7 +2928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>211110364</v>
       </c>
@@ -2957,7 +2954,7 @@
         <v>45861.550312499996</v>
       </c>
       <c r="I58" s="2">
-        <v>-27.550300925926422</v>
+        <v>-22</v>
       </c>
       <c r="J58" s="3">
         <v>548.45000000000005</v>
@@ -2972,7 +2969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>211110364</v>
       </c>
@@ -2998,7 +2995,7 @@
         <v>45863.524328703701</v>
       </c>
       <c r="I59" s="2">
-        <v>-29.52432870370103</v>
+        <v>-24</v>
       </c>
       <c r="J59" s="3">
         <v>558.34</v>
@@ -3013,53 +3010,53 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>211110472</v>
+        <v>211110364</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="E60">
+        <v>11114</v>
       </c>
       <c r="F60" t="s">
         <v>20</v>
       </c>
       <c r="G60" s="1">
-        <v>45760</v>
+        <v>45896.534999999996</v>
       </c>
       <c r="H60" s="1">
-        <v>45730</v>
+        <v>45866.534999999996</v>
       </c>
       <c r="I60" s="2">
-        <v>104</v>
+        <v>-27</v>
       </c>
       <c r="J60" s="3">
-        <v>-541.79999999999995</v>
+        <v>212.67000000000002</v>
       </c>
       <c r="K60" s="3">
-        <v>-10.33</v>
+        <v>212.67000000000002</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
       </c>
       <c r="M60" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>211110472</v>
+        <v>211110364</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3068,34 +3065,34 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>7615</v>
+        <v>11240</v>
       </c>
       <c r="F61" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="1">
-        <v>45820.376446759255</v>
+        <v>45898.501168981478</v>
       </c>
       <c r="H61" s="1">
-        <v>45790.376736111109</v>
+        <v>45868.501168981478</v>
       </c>
       <c r="I61" s="2">
-        <v>43.623553240744513</v>
+        <v>-29</v>
       </c>
       <c r="J61" s="3">
-        <v>171.03</v>
+        <v>578.64</v>
       </c>
       <c r="K61" s="3">
-        <v>171.03</v>
+        <v>578.64</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
       </c>
       <c r="M61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>211110472</v>
       </c>
@@ -3103,40 +3100,40 @@
         <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62">
-        <v>7919</v>
+        <v>30</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
       </c>
       <c r="F62" t="s">
         <v>20</v>
       </c>
       <c r="G62" s="1">
-        <v>45823.521203703705</v>
+        <v>45760</v>
       </c>
       <c r="H62" s="1">
-        <v>45793.521898148145</v>
+        <v>45730</v>
       </c>
       <c r="I62" s="2">
-        <v>40.478796296294604</v>
+        <v>109</v>
       </c>
       <c r="J62" s="3">
-        <v>114.67</v>
+        <v>-541.79999999999995</v>
       </c>
       <c r="K62" s="3">
-        <v>114.67</v>
+        <v>-10.33</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
       </c>
       <c r="M62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>211110472</v>
       </c>
@@ -3150,25 +3147,25 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>7974</v>
+        <v>7615</v>
       </c>
       <c r="F63" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="1">
-        <v>45826.564027777778</v>
+        <v>45820.376446759255</v>
       </c>
       <c r="H63" s="1">
-        <v>45796.564733796295</v>
+        <v>45790.376736111109</v>
       </c>
       <c r="I63" s="2">
-        <v>37.435972222221608</v>
+        <v>49</v>
       </c>
       <c r="J63" s="3">
-        <v>144.9</v>
+        <v>171.03</v>
       </c>
       <c r="K63" s="3">
-        <v>144.9</v>
+        <v>171.03</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3177,7 +3174,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>211110472</v>
       </c>
@@ -3191,34 +3188,34 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>8341</v>
+        <v>7919</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
       </c>
       <c r="G64" s="1">
-        <v>45833.405740740738</v>
+        <v>45823.521203703705</v>
       </c>
       <c r="H64" s="1">
-        <v>45803.406655092593</v>
+        <v>45793.521898148145</v>
       </c>
       <c r="I64" s="2">
-        <v>30.594259259261889</v>
+        <v>46</v>
       </c>
       <c r="J64" s="3">
-        <v>152.03</v>
+        <v>114.67</v>
       </c>
       <c r="K64" s="3">
-        <v>152.03</v>
+        <v>114.67</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
       </c>
       <c r="M64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>211110472</v>
       </c>
@@ -3232,34 +3229,34 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>8711</v>
+        <v>7974</v>
       </c>
       <c r="F65" t="s">
         <v>20</v>
       </c>
       <c r="G65" s="1">
-        <v>45840.400567129625</v>
+        <v>45826.564027777778</v>
       </c>
       <c r="H65" s="1">
-        <v>45810.40079861111</v>
+        <v>45796.564733796295</v>
       </c>
       <c r="I65" s="2">
-        <v>23.599432870374585</v>
+        <v>43</v>
       </c>
       <c r="J65" s="3">
-        <v>264.84000000000003</v>
+        <v>144.9</v>
       </c>
       <c r="K65" s="3">
-        <v>264.84000000000003</v>
+        <v>144.9</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
       </c>
       <c r="M65" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>211110472</v>
       </c>
@@ -3273,34 +3270,34 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>8904</v>
+        <v>8341</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="1">
-        <v>45843.470856481479</v>
+        <v>45833.405740740738</v>
       </c>
       <c r="H66" s="1">
-        <v>45813.471493055556</v>
+        <v>45803.406655092593</v>
       </c>
       <c r="I66" s="2">
-        <v>20.529143518520868</v>
+        <v>36</v>
       </c>
       <c r="J66" s="3">
-        <v>50.93</v>
+        <v>152.03</v>
       </c>
       <c r="K66" s="3">
-        <v>50.93</v>
+        <v>152.03</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
       </c>
       <c r="M66" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>211110472</v>
       </c>
@@ -3308,31 +3305,31 @@
         <v>28</v>
       </c>
       <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67">
+        <v>8711</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="1">
+        <v>45840.400567129625</v>
+      </c>
+      <c r="H67" s="1">
+        <v>45810.40079861111</v>
+      </c>
+      <c r="I67" s="2">
         <v>29</v>
       </c>
-      <c r="D67" t="s">
-        <v>30</v>
-      </c>
-      <c r="E67" t="s">
-        <v>31</v>
-      </c>
-      <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" s="1">
-        <v>45847</v>
-      </c>
-      <c r="H67" s="1">
-        <v>45817</v>
-      </c>
-      <c r="I67" s="2">
-        <v>17</v>
-      </c>
       <c r="J67" s="3">
-        <v>-224.79</v>
+        <v>264.84000000000003</v>
       </c>
       <c r="K67" s="3">
-        <v>-9</v>
+        <v>264.84000000000003</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -3341,7 +3338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>211110472</v>
       </c>
@@ -3355,25 +3352,25 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>9002</v>
+        <v>8904</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
       </c>
       <c r="G68" s="1">
-        <v>45847.441782407404</v>
+        <v>45843.470856481479</v>
       </c>
       <c r="H68" s="1">
-        <v>45817.442870370367</v>
+        <v>45813.471493055556</v>
       </c>
       <c r="I68" s="2">
-        <v>16.558217592595611</v>
+        <v>26</v>
       </c>
       <c r="J68" s="3">
-        <v>221.07</v>
+        <v>50.93</v>
       </c>
       <c r="K68" s="3">
-        <v>221.07</v>
+        <v>50.93</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -3382,7 +3379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>211110472</v>
       </c>
@@ -3390,31 +3387,31 @@
         <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69">
-        <v>9109</v>
+        <v>30</v>
+      </c>
+      <c r="E69" t="s">
+        <v>31</v>
       </c>
       <c r="F69" t="s">
         <v>20</v>
       </c>
       <c r="G69" s="1">
-        <v>45849.62940972222</v>
+        <v>45847</v>
       </c>
       <c r="H69" s="1">
-        <v>45819.630104166667</v>
+        <v>45817</v>
       </c>
       <c r="I69" s="2">
-        <v>14.370590277780138</v>
+        <v>22</v>
       </c>
       <c r="J69" s="3">
-        <v>33.47</v>
+        <v>-224.79</v>
       </c>
       <c r="K69" s="3">
-        <v>33.47</v>
+        <v>-9</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3423,7 +3420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>211110472</v>
       </c>
@@ -3437,25 +3434,25 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>9291</v>
+        <v>9002</v>
       </c>
       <c r="F70" t="s">
         <v>20</v>
       </c>
       <c r="G70" s="1">
-        <v>45854.443333333329</v>
+        <v>45847.441782407404</v>
       </c>
       <c r="H70" s="1">
-        <v>45824.44427083333</v>
+        <v>45817.442870370367</v>
       </c>
       <c r="I70" s="2">
-        <v>9.5566666666709352</v>
+        <v>22</v>
       </c>
       <c r="J70" s="3">
-        <v>156.46</v>
+        <v>221.07</v>
       </c>
       <c r="K70" s="3">
-        <v>156.46</v>
+        <v>221.07</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3464,7 +3461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>211110472</v>
       </c>
@@ -3478,34 +3475,34 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>9627</v>
+        <v>9109</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
       </c>
       <c r="G71" s="1">
-        <v>45861.535300925927</v>
+        <v>45849.62940972222</v>
       </c>
       <c r="H71" s="1">
-        <v>45831.535729166666</v>
+        <v>45819.630104166667</v>
       </c>
       <c r="I71" s="2">
-        <v>2.4646990740729962</v>
+        <v>20</v>
       </c>
       <c r="J71" s="3">
-        <v>244.68</v>
+        <v>33.47</v>
       </c>
       <c r="K71" s="3">
-        <v>244.68</v>
+        <v>33.47</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>211110472</v>
       </c>
@@ -3519,34 +3516,34 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>10211</v>
+        <v>9291</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
       </c>
       <c r="G72" s="1">
-        <v>45875.481921296298</v>
+        <v>45854.443333333329</v>
       </c>
       <c r="H72" s="1">
-        <v>45845.481932870367</v>
+        <v>45824.44427083333</v>
       </c>
       <c r="I72" s="2">
-        <v>-11.481921296297514</v>
+        <v>15</v>
       </c>
       <c r="J72" s="3">
-        <v>276.02</v>
+        <v>156.46</v>
       </c>
       <c r="K72" s="3">
-        <v>276.02</v>
+        <v>156.46</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
       </c>
       <c r="M72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>211110472</v>
       </c>
@@ -3560,34 +3557,34 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>10509</v>
+        <v>9627</v>
       </c>
       <c r="F73" t="s">
         <v>20</v>
       </c>
       <c r="G73" s="1">
-        <v>45882.471388888887</v>
+        <v>45861.535300925927</v>
       </c>
       <c r="H73" s="1">
-        <v>45852.471388888887</v>
+        <v>45831.535729166666</v>
       </c>
       <c r="I73" s="2">
-        <v>-18.471388888887304</v>
+        <v>8</v>
       </c>
       <c r="J73" s="3">
-        <v>316.33</v>
+        <v>244.68</v>
       </c>
       <c r="K73" s="3">
-        <v>316.33</v>
+        <v>244.68</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
       </c>
       <c r="M73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>211110472</v>
       </c>
@@ -3601,25 +3598,25 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>10787</v>
+        <v>10211</v>
       </c>
       <c r="F74" t="s">
         <v>20</v>
       </c>
       <c r="G74" s="1">
-        <v>45886.62290509259</v>
+        <v>45875.481921296298</v>
       </c>
       <c r="H74" s="1">
-        <v>45856.623715277776</v>
+        <v>45845.481932870367</v>
       </c>
       <c r="I74" s="2">
-        <v>-22.622905092590372</v>
+        <v>-6</v>
       </c>
       <c r="J74" s="3">
-        <v>55.27</v>
+        <v>276.02</v>
       </c>
       <c r="K74" s="3">
-        <v>55.27</v>
+        <v>276.02</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
@@ -3628,7 +3625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>211110472</v>
       </c>
@@ -3642,25 +3639,25 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>10813</v>
+        <v>10509</v>
       </c>
       <c r="F75" t="s">
         <v>20</v>
       </c>
       <c r="G75" s="1">
-        <v>45889.484826388885</v>
+        <v>45882.471388888887</v>
       </c>
       <c r="H75" s="1">
-        <v>45859.484826388885</v>
+        <v>45852.471388888887</v>
       </c>
       <c r="I75" s="2">
-        <v>-25.484826388885267</v>
+        <v>-13</v>
       </c>
       <c r="J75" s="3">
-        <v>200.74</v>
+        <v>316.33</v>
       </c>
       <c r="K75" s="3">
-        <v>200.74</v>
+        <v>316.33</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
@@ -3669,7 +3666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>211110472</v>
       </c>
@@ -3683,148 +3680,148 @@
         <v>15</v>
       </c>
       <c r="E76">
+        <v>10787</v>
+      </c>
+      <c r="F76" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="1">
+        <v>45886.62290509259</v>
+      </c>
+      <c r="H76" s="1">
+        <v>45856.623715277776</v>
+      </c>
+      <c r="I76" s="2">
+        <v>-17</v>
+      </c>
+      <c r="J76" s="3">
+        <v>55.27</v>
+      </c>
+      <c r="K76" s="3">
+        <v>55.27</v>
+      </c>
+      <c r="L76" t="s">
+        <v>17</v>
+      </c>
+      <c r="M76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>211110472</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77">
+        <v>10813</v>
+      </c>
+      <c r="F77" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="1">
+        <v>45889.484826388885</v>
+      </c>
+      <c r="H77" s="1">
+        <v>45859.484826388885</v>
+      </c>
+      <c r="I77" s="2">
+        <v>-20</v>
+      </c>
+      <c r="J77" s="3">
+        <v>200.74</v>
+      </c>
+      <c r="K77" s="3">
+        <v>200.74</v>
+      </c>
+      <c r="L77" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>211110472</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78">
         <v>11083</v>
       </c>
-      <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" s="1">
+      <c r="F78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="1">
         <v>45893.645833333328</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H78" s="1">
         <v>45863.645833333328</v>
       </c>
-      <c r="I76" s="2">
-        <v>-29.645833333328483</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="I78" s="2">
+        <v>-24</v>
+      </c>
+      <c r="J78" s="3">
         <v>54.58</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K78" s="3">
         <v>54.58</v>
       </c>
-      <c r="L76" t="s">
-        <v>17</v>
-      </c>
-      <c r="M76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>211110601</v>
-      </c>
-      <c r="B77" t="s">
-        <v>34</v>
-      </c>
-      <c r="C77" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77">
-        <v>7436</v>
-      </c>
-      <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" s="1">
-        <v>45845.556817129625</v>
-      </c>
-      <c r="H77" s="1">
-        <v>45785.560891203699</v>
-      </c>
-      <c r="I77" s="2">
-        <v>18.443182870374585</v>
-      </c>
-      <c r="J77" s="3">
-        <v>897.49</v>
-      </c>
-      <c r="K77" s="3">
-        <v>897.49</v>
-      </c>
-      <c r="L77" t="s">
-        <v>17</v>
-      </c>
-      <c r="M77" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>211110601</v>
-      </c>
-      <c r="B78" t="s">
-        <v>34</v>
-      </c>
-      <c r="C78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78">
-        <v>8220</v>
-      </c>
-      <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" s="1">
-        <v>45859.486087962963</v>
-      </c>
-      <c r="H78" s="1">
-        <v>45799.496874999997</v>
-      </c>
-      <c r="I78" s="2">
-        <v>4.5139120370367891</v>
-      </c>
-      <c r="J78" s="3">
-        <v>1334.16</v>
-      </c>
-      <c r="K78" s="3">
-        <v>1334.16</v>
-      </c>
       <c r="L78" t="s">
         <v>17</v>
       </c>
       <c r="M78" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>211110601</v>
+        <v>211110472</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
       </c>
-      <c r="D79">
-        <v>2025</v>
+      <c r="D79" t="s">
+        <v>15</v>
       </c>
       <c r="E79">
-        <v>62</v>
+        <v>11097</v>
       </c>
       <c r="F79" t="s">
         <v>20</v>
       </c>
       <c r="G79" s="1">
-        <v>45874.611296296294</v>
+        <v>45896.476898148147</v>
       </c>
       <c r="H79" s="1">
-        <v>45814.611319444441</v>
+        <v>45866.476909722223</v>
       </c>
       <c r="I79" s="2">
-        <v>-10.611296296294313</v>
+        <v>-27</v>
       </c>
       <c r="J79" s="3">
-        <v>1149.52</v>
+        <v>251.39000000000001</v>
       </c>
       <c r="K79" s="3">
-        <v>1149.52</v>
+        <v>251.39000000000001</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3833,7 +3830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>211110601</v>
       </c>
@@ -3843,38 +3840,38 @@
       <c r="C80" t="s">
         <v>14</v>
       </c>
-      <c r="D80">
-        <v>2025</v>
+      <c r="D80" t="s">
+        <v>15</v>
       </c>
       <c r="E80">
-        <v>68</v>
+        <v>7436</v>
       </c>
       <c r="F80" t="s">
         <v>20</v>
       </c>
       <c r="G80" s="1">
-        <v>45874.685046296298</v>
+        <v>45845.556817129625</v>
       </c>
       <c r="H80" s="1">
-        <v>45814.685057870367</v>
+        <v>45785.560891203699</v>
       </c>
       <c r="I80" s="2">
-        <v>-10.685046296297514</v>
+        <v>24</v>
       </c>
       <c r="J80" s="3">
-        <v>124.59</v>
+        <v>897.49</v>
       </c>
       <c r="K80" s="3">
-        <v>124.59</v>
+        <v>897.49</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
       </c>
       <c r="M80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>211110601</v>
       </c>
@@ -3888,34 +3885,34 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>9275</v>
+        <v>8220</v>
       </c>
       <c r="F81" t="s">
         <v>20</v>
       </c>
       <c r="G81" s="1">
-        <v>45884.33143518518</v>
+        <v>45859.486087962963</v>
       </c>
       <c r="H81" s="1">
-        <v>45824.332418981481</v>
+        <v>45799.496874999997</v>
       </c>
       <c r="I81" s="2">
-        <v>-20.331435185180453</v>
+        <v>10</v>
       </c>
       <c r="J81" s="3">
-        <v>1044.22</v>
+        <v>1334.16</v>
       </c>
       <c r="K81" s="3">
-        <v>1044.22</v>
+        <v>1334.16</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>211110601</v>
       </c>
@@ -3925,29 +3922,29 @@
       <c r="C82" t="s">
         <v>14</v>
       </c>
-      <c r="D82" t="s">
-        <v>15</v>
+      <c r="D82">
+        <v>2025</v>
       </c>
       <c r="E82">
-        <v>10190</v>
+        <v>62</v>
       </c>
       <c r="F82" t="s">
         <v>20</v>
       </c>
       <c r="G82" s="1">
-        <v>45902.667199074072</v>
+        <v>45874.611296296294</v>
       </c>
       <c r="H82" s="1">
-        <v>45842.669027777774</v>
+        <v>45814.611319444441</v>
       </c>
       <c r="I82" s="2">
-        <v>-38.667199074072414</v>
+        <v>-5</v>
       </c>
       <c r="J82" s="3">
-        <v>732.56000000000006</v>
+        <v>1149.52</v>
       </c>
       <c r="K82" s="3">
-        <v>732.56000000000006</v>
+        <v>1149.52</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -3956,7 +3953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>211110601</v>
       </c>
@@ -3966,366 +3963,366 @@
       <c r="C83" t="s">
         <v>14</v>
       </c>
-      <c r="D83" t="s">
-        <v>15</v>
+      <c r="D83">
+        <v>2025</v>
       </c>
       <c r="E83">
+        <v>68</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="1">
+        <v>45874.685046296298</v>
+      </c>
+      <c r="H83" s="1">
+        <v>45814.685057870367</v>
+      </c>
+      <c r="I83" s="2">
+        <v>-5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>124.59</v>
+      </c>
+      <c r="K83" s="3">
+        <v>124.59</v>
+      </c>
+      <c r="L83" t="s">
+        <v>17</v>
+      </c>
+      <c r="M83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>211110601</v>
+      </c>
+      <c r="B84" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84">
+        <v>9275</v>
+      </c>
+      <c r="F84" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="1">
+        <v>45884.33143518518</v>
+      </c>
+      <c r="H84" s="1">
+        <v>45824.332418981481</v>
+      </c>
+      <c r="I84" s="2">
+        <v>-15</v>
+      </c>
+      <c r="J84" s="3">
+        <v>1044.22</v>
+      </c>
+      <c r="K84" s="3">
+        <v>1044.22</v>
+      </c>
+      <c r="L84" t="s">
+        <v>17</v>
+      </c>
+      <c r="M84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>211110601</v>
+      </c>
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85">
+        <v>10190</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="1">
+        <v>45902.667199074072</v>
+      </c>
+      <c r="H85" s="1">
+        <v>45842.669027777774</v>
+      </c>
+      <c r="I85" s="2">
+        <v>-33</v>
+      </c>
+      <c r="J85" s="3">
+        <v>732.56000000000006</v>
+      </c>
+      <c r="K85" s="3">
+        <v>732.56000000000006</v>
+      </c>
+      <c r="L85" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>211110601</v>
+      </c>
+      <c r="B86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86">
         <v>11072</v>
       </c>
-      <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" s="1">
+      <c r="F86" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="1">
         <v>45923.525937499995</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H86" s="1">
         <v>45863.525949074072</v>
       </c>
-      <c r="I83" s="2">
-        <v>-59.525937499995052</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="I86" s="2">
+        <v>-54</v>
+      </c>
+      <c r="J86" s="3">
         <v>1189.3500000000001</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K86" s="3">
         <v>1189.3500000000001</v>
       </c>
-      <c r="L83" t="s">
-        <v>17</v>
-      </c>
-      <c r="M83" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="L86" t="s">
+        <v>17</v>
+      </c>
+      <c r="M86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>211110972</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B87" t="s">
         <v>35</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C87" t="s">
         <v>22</v>
       </c>
-      <c r="D84">
+      <c r="D87">
         <v>2025</v>
       </c>
-      <c r="E84">
+      <c r="E87">
         <v>147</v>
       </c>
-      <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" s="1">
+      <c r="F87" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="1">
         <v>45719</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H87" s="1">
         <v>45719</v>
       </c>
-      <c r="I84" s="2">
-        <v>145</v>
-      </c>
-      <c r="J84" s="3">
+      <c r="I87" s="2">
+        <v>150</v>
+      </c>
+      <c r="J87" s="3">
         <v>-70.86</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K87" s="3">
         <v>-70.86</v>
       </c>
-      <c r="L84" t="s">
-        <v>17</v>
-      </c>
-      <c r="M84" t="s">
+      <c r="L87" t="s">
+        <v>17</v>
+      </c>
+      <c r="M87" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>211110972</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B88" t="s">
         <v>35</v>
       </c>
-      <c r="C85" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85">
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88">
         <v>7925</v>
       </c>
-      <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="1">
+      <c r="F88" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="1">
         <v>45793.585856481477</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H88" s="1">
         <v>45793.585856481477</v>
       </c>
-      <c r="I85" s="2">
-        <v>70.414143518522906</v>
-      </c>
-      <c r="J85" s="3">
+      <c r="I88" s="2">
+        <v>76</v>
+      </c>
+      <c r="J88" s="3">
         <v>305.11</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K88" s="3">
         <v>305.11</v>
       </c>
-      <c r="L85" t="s">
-        <v>17</v>
-      </c>
-      <c r="M85" t="s">
+      <c r="L88" t="s">
+        <v>17</v>
+      </c>
+      <c r="M88" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>211111193</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B89" t="s">
         <v>37</v>
       </c>
-      <c r="C86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86">
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89">
         <v>10278</v>
       </c>
-      <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" s="1">
+      <c r="F89" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="1">
         <v>45876.453530092593</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H89" s="1">
         <v>45846.45412037037</v>
       </c>
-      <c r="I86" s="2">
-        <v>-12.4535300925927</v>
-      </c>
-      <c r="J86" s="3">
+      <c r="I89" s="2">
+        <v>-7</v>
+      </c>
+      <c r="J89" s="3">
         <v>185.83</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K89" s="3">
         <v>185.83</v>
       </c>
-      <c r="L86" t="s">
-        <v>17</v>
-      </c>
-      <c r="M86" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="L89" t="s">
+        <v>17</v>
+      </c>
+      <c r="M89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>211111193</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B90" t="s">
         <v>37</v>
       </c>
-      <c r="C87" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87">
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90">
         <v>10417</v>
       </c>
-      <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" s="1">
+      <c r="F90" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="1">
         <v>45878.429606481477</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H90" s="1">
         <v>45848.429606481477</v>
       </c>
-      <c r="I87" s="2">
-        <v>-14.429606481477094</v>
-      </c>
-      <c r="J87" s="3">
+      <c r="I90" s="2">
+        <v>-9</v>
+      </c>
+      <c r="J90" s="3">
         <v>157.53</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K90" s="3">
         <v>157.53</v>
       </c>
-      <c r="L87" t="s">
-        <v>17</v>
-      </c>
-      <c r="M87" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="L90" t="s">
+        <v>17</v>
+      </c>
+      <c r="M90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>211111193</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B91" t="s">
         <v>37</v>
       </c>
-      <c r="C88" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88">
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91">
         <v>10587</v>
       </c>
-      <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" s="1">
+      <c r="F91" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="1">
         <v>45883.65898148148</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H91" s="1">
         <v>45853.659224537034</v>
       </c>
-      <c r="I88" s="2">
-        <v>-19.658981481479714</v>
-      </c>
-      <c r="J88" s="3">
+      <c r="I91" s="2">
+        <v>-14</v>
+      </c>
+      <c r="J91" s="3">
         <v>256.97000000000003</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K91" s="3">
         <v>256.97000000000003</v>
       </c>
-      <c r="L88" t="s">
-        <v>17</v>
-      </c>
-      <c r="M88" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>211111387</v>
-      </c>
-      <c r="B89" t="s">
-        <v>38</v>
-      </c>
-      <c r="C89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89">
-        <v>8713</v>
-      </c>
-      <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" s="1">
-        <v>45840.407696759255</v>
-      </c>
-      <c r="H89" s="1">
-        <v>45810.408043981479</v>
-      </c>
-      <c r="I89" s="2">
-        <v>23.592303240744513</v>
-      </c>
-      <c r="J89" s="3">
-        <v>318.07</v>
-      </c>
-      <c r="K89" s="3">
-        <v>318.07</v>
-      </c>
-      <c r="L89" t="s">
-        <v>17</v>
-      </c>
-      <c r="M89" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>211111387</v>
-      </c>
-      <c r="B90" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90">
-        <v>2025</v>
-      </c>
-      <c r="E90">
-        <v>65</v>
-      </c>
-      <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" s="1">
-        <v>45844.617650462962</v>
-      </c>
-      <c r="H90" s="1">
-        <v>45814.617673611108</v>
-      </c>
-      <c r="I90" s="2">
-        <v>19.382349537037953</v>
-      </c>
-      <c r="J90" s="3">
-        <v>277.62</v>
-      </c>
-      <c r="K90" s="3">
-        <v>277.62</v>
-      </c>
-      <c r="L90" t="s">
-        <v>17</v>
-      </c>
-      <c r="M90" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>211111387</v>
-      </c>
-      <c r="B91" t="s">
-        <v>38</v>
-      </c>
-      <c r="C91" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91">
-        <v>9101</v>
-      </c>
-      <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" s="1">
-        <v>45849.54788194444</v>
-      </c>
-      <c r="H91" s="1">
-        <v>45819.548425925925</v>
-      </c>
-      <c r="I91" s="2">
-        <v>14.452118055560277</v>
-      </c>
-      <c r="J91" s="3">
-        <v>254.08</v>
-      </c>
-      <c r="K91" s="3">
-        <v>254.08</v>
-      </c>
       <c r="L91" t="s">
         <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>211111387</v>
       </c>
@@ -4339,34 +4336,34 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>9316</v>
+        <v>9950</v>
       </c>
       <c r="F92" t="s">
         <v>20</v>
       </c>
       <c r="G92" s="1">
-        <v>45854.490671296291</v>
+        <v>45870.400196759256</v>
       </c>
       <c r="H92" s="1">
-        <v>45824.491307870368</v>
+        <v>45840.403055555551</v>
       </c>
       <c r="I92" s="2">
-        <v>9.5093287037088885</v>
+        <v>-1</v>
       </c>
       <c r="J92" s="3">
-        <v>410.73</v>
+        <v>199.05</v>
       </c>
       <c r="K92" s="3">
-        <v>410.73</v>
+        <v>199.05</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
       </c>
       <c r="M92" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>211111387</v>
       </c>
@@ -4380,34 +4377,34 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>9379</v>
+        <v>10220</v>
       </c>
       <c r="F93" t="s">
         <v>20</v>
       </c>
       <c r="G93" s="1">
-        <v>45855.589236111111</v>
+        <v>45875.488275462958</v>
       </c>
       <c r="H93" s="1">
-        <v>45825.589965277773</v>
+        <v>45845.488275462958</v>
       </c>
       <c r="I93" s="2">
-        <v>8.4107638888890506</v>
+        <v>-6</v>
       </c>
       <c r="J93" s="3">
-        <v>181.94</v>
+        <v>129.57</v>
       </c>
       <c r="K93" s="3">
-        <v>181.94</v>
+        <v>129.57</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
       </c>
       <c r="M93" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>211111387</v>
       </c>
@@ -4421,34 +4418,34 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>9632</v>
+        <v>10288</v>
       </c>
       <c r="F94" t="s">
         <v>20</v>
       </c>
       <c r="G94" s="1">
-        <v>45861.596273148149</v>
+        <v>45876.543657407405</v>
       </c>
       <c r="H94" s="1">
-        <v>45831.596701388888</v>
+        <v>45846.543877314813</v>
       </c>
       <c r="I94" s="2">
-        <v>2.4037268518513883</v>
+        <v>-7</v>
       </c>
       <c r="J94" s="3">
-        <v>531.46</v>
+        <v>270.58</v>
       </c>
       <c r="K94" s="3">
-        <v>531.46</v>
+        <v>270.58</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
       </c>
       <c r="M94" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>211111387</v>
       </c>
@@ -4462,25 +4459,25 @@
         <v>15</v>
       </c>
       <c r="E95">
-        <v>9934</v>
+        <v>10520</v>
       </c>
       <c r="F95" t="s">
         <v>20</v>
       </c>
       <c r="G95" s="1">
-        <v>45869.387013888889</v>
+        <v>45882.479305555556</v>
       </c>
       <c r="H95" s="1">
-        <v>45839.387361111112</v>
+        <v>45852.479317129626</v>
       </c>
       <c r="I95" s="2">
-        <v>-5.3870138888887595</v>
+        <v>-13</v>
       </c>
       <c r="J95" s="3">
-        <v>410.43</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="K95" s="3">
-        <v>410.43</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
@@ -4489,7 +4486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>211111387</v>
       </c>
@@ -4503,25 +4500,25 @@
         <v>15</v>
       </c>
       <c r="E96">
-        <v>9950</v>
+        <v>10553</v>
       </c>
       <c r="F96" t="s">
         <v>20</v>
       </c>
       <c r="G96" s="1">
-        <v>45870.400196759256</v>
+        <v>45883.416145833333</v>
       </c>
       <c r="H96" s="1">
-        <v>45840.403055555551</v>
+        <v>45853.416481481479</v>
       </c>
       <c r="I96" s="2">
-        <v>-6.4001967592557776</v>
+        <v>-14</v>
       </c>
       <c r="J96" s="3">
-        <v>199.05</v>
+        <v>131.41</v>
       </c>
       <c r="K96" s="3">
-        <v>199.05</v>
+        <v>131.41</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
@@ -4530,7 +4527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>211111387</v>
       </c>
@@ -4544,25 +4541,25 @@
         <v>15</v>
       </c>
       <c r="E97">
-        <v>10220</v>
+        <v>10809</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
       </c>
       <c r="G97" s="1">
-        <v>45875.488275462958</v>
+        <v>45889.482916666668</v>
       </c>
       <c r="H97" s="1">
-        <v>45845.488275462958</v>
+        <v>45859.482916666668</v>
       </c>
       <c r="I97" s="2">
-        <v>-11.488275462957972</v>
+        <v>-20</v>
       </c>
       <c r="J97" s="3">
-        <v>129.57</v>
+        <v>395.15000000000003</v>
       </c>
       <c r="K97" s="3">
-        <v>129.57</v>
+        <v>395.15000000000003</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
@@ -4571,7 +4568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>211111387</v>
       </c>
@@ -4579,31 +4576,31 @@
         <v>38</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D98">
+        <v>2025</v>
       </c>
       <c r="E98">
-        <v>10288</v>
+        <v>684</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
       </c>
       <c r="G98" s="1">
-        <v>45876.543657407405</v>
+        <v>45892</v>
       </c>
       <c r="H98" s="1">
-        <v>45846.543877314813</v>
+        <v>45862</v>
       </c>
       <c r="I98" s="2">
-        <v>-12.54365740740468</v>
+        <v>-23</v>
       </c>
       <c r="J98" s="3">
-        <v>270.58</v>
+        <v>-13.73</v>
       </c>
       <c r="K98" s="3">
-        <v>270.58</v>
+        <v>-13.73</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
@@ -4612,7 +4609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>211111387</v>
       </c>
@@ -4620,31 +4617,31 @@
         <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
       </c>
       <c r="E99">
-        <v>642</v>
+        <v>11094</v>
       </c>
       <c r="F99" t="s">
         <v>20</v>
       </c>
       <c r="G99" s="1">
-        <v>45879</v>
+        <v>45896.473761574074</v>
       </c>
       <c r="H99" s="1">
-        <v>45849</v>
+        <v>45866.473761574074</v>
       </c>
       <c r="I99" s="2">
-        <v>-15</v>
+        <v>-27</v>
       </c>
       <c r="J99" s="3">
-        <v>-410.43</v>
+        <v>299.01</v>
       </c>
       <c r="K99" s="3">
-        <v>-410.43</v>
+        <v>299.01</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
@@ -4653,7 +4650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>211111387</v>
       </c>
@@ -4667,25 +4664,25 @@
         <v>15</v>
       </c>
       <c r="E100">
-        <v>10520</v>
+        <v>11136</v>
       </c>
       <c r="F100" t="s">
         <v>20</v>
       </c>
       <c r="G100" s="1">
-        <v>45882.479305555556</v>
+        <v>45896.75268518518</v>
       </c>
       <c r="H100" s="1">
-        <v>45852.479317129626</v>
+        <v>45866.754085648143</v>
       </c>
       <c r="I100" s="2">
-        <v>-18.479305555556493</v>
+        <v>-27</v>
       </c>
       <c r="J100" s="3">
-        <v>309.35000000000002</v>
+        <v>395.47</v>
       </c>
       <c r="K100" s="3">
-        <v>309.35000000000002</v>
+        <v>395.47</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
@@ -4694,7 +4691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>211111387</v>
       </c>
@@ -4708,25 +4705,25 @@
         <v>15</v>
       </c>
       <c r="E101">
-        <v>10553</v>
+        <v>11263</v>
       </c>
       <c r="F101" t="s">
         <v>20</v>
       </c>
       <c r="G101" s="1">
-        <v>45883.416145833333</v>
+        <v>45899.415798611109</v>
       </c>
       <c r="H101" s="1">
-        <v>45853.416481481479</v>
+        <v>45869.416585648149</v>
       </c>
       <c r="I101" s="2">
-        <v>-19.416145833332848</v>
+        <v>-30</v>
       </c>
       <c r="J101" s="3">
-        <v>131.41</v>
+        <v>111.83</v>
       </c>
       <c r="K101" s="3">
-        <v>131.41</v>
+        <v>111.83</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
@@ -4735,12 +4732,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>211111387</v>
+        <v>211111478</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -4749,34 +4746,34 @@
         <v>15</v>
       </c>
       <c r="E102">
-        <v>10809</v>
+        <v>9628</v>
       </c>
       <c r="F102" t="s">
         <v>20</v>
       </c>
       <c r="G102" s="1">
-        <v>45889.482916666668</v>
+        <v>45861.537557870368</v>
       </c>
       <c r="H102" s="1">
-        <v>45859.482916666668</v>
+        <v>45831.538182870368</v>
       </c>
       <c r="I102" s="2">
-        <v>-25.482916666667734</v>
+        <v>8</v>
       </c>
       <c r="J102" s="3">
-        <v>395.15000000000003</v>
+        <v>289.91000000000003</v>
       </c>
       <c r="K102" s="3">
-        <v>395.15000000000003</v>
+        <v>289.91000000000003</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
       </c>
       <c r="M102" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>211111478</v>
       </c>
@@ -4790,34 +4787,34 @@
         <v>15</v>
       </c>
       <c r="E103">
-        <v>9628</v>
+        <v>10231</v>
       </c>
       <c r="F103" t="s">
         <v>20</v>
       </c>
       <c r="G103" s="1">
-        <v>45861.537557870368</v>
+        <v>45875.60738425926</v>
       </c>
       <c r="H103" s="1">
-        <v>45831.538182870368</v>
+        <v>45845.608969907407</v>
       </c>
       <c r="I103" s="2">
-        <v>2.4624421296321088</v>
+        <v>-6</v>
       </c>
       <c r="J103" s="3">
-        <v>289.91000000000003</v>
+        <v>92.34</v>
       </c>
       <c r="K103" s="3">
-        <v>289.91000000000003</v>
+        <v>92.34</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
       </c>
       <c r="M103" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>211111478</v>
       </c>
@@ -4831,25 +4828,25 @@
         <v>15</v>
       </c>
       <c r="E104">
-        <v>10231</v>
+        <v>10964</v>
       </c>
       <c r="F104" t="s">
         <v>20</v>
       </c>
       <c r="G104" s="1">
-        <v>45875.60738425926</v>
+        <v>45891.654791666668</v>
       </c>
       <c r="H104" s="1">
-        <v>45845.608969907407</v>
+        <v>45861.655266203699</v>
       </c>
       <c r="I104" s="2">
-        <v>-11.607384259259561</v>
+        <v>-22</v>
       </c>
       <c r="J104" s="3">
-        <v>92.34</v>
+        <v>78.75</v>
       </c>
       <c r="K104" s="3">
-        <v>92.34</v>
+        <v>78.75</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
@@ -4858,7 +4855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>211111478</v>
       </c>
@@ -4872,25 +4869,25 @@
         <v>15</v>
       </c>
       <c r="E105">
-        <v>10964</v>
+        <v>11256</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
       </c>
       <c r="G105" s="1">
-        <v>45891.654791666668</v>
+        <v>45899.266192129631</v>
       </c>
       <c r="H105" s="1">
-        <v>45861.655266203699</v>
+        <v>45869.26662037037</v>
       </c>
       <c r="I105" s="2">
-        <v>-27.654791666667734</v>
+        <v>-30</v>
       </c>
       <c r="J105" s="3">
-        <v>78.75</v>
+        <v>24.94</v>
       </c>
       <c r="K105" s="3">
-        <v>78.75</v>
+        <v>24.94</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
@@ -4899,7 +4896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>211111506</v>
       </c>
@@ -4925,7 +4922,7 @@
         <v>45849.612314814811</v>
       </c>
       <c r="I106" s="2">
-        <v>-15.611701388887013</v>
+        <v>-10</v>
       </c>
       <c r="J106" s="3">
         <v>4.9000000000000004</v>
@@ -4940,7 +4937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>211111506</v>
       </c>
@@ -4954,25 +4951,25 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>10829</v>
+        <v>11137</v>
       </c>
       <c r="F107" t="s">
         <v>20</v>
       </c>
       <c r="G107" s="1">
-        <v>45889.50644675926</v>
+        <v>45897.257187499999</v>
       </c>
       <c r="H107" s="1">
-        <v>45859.510138888887</v>
+        <v>45867.257534722223</v>
       </c>
       <c r="I107" s="2">
-        <v>-25.506446759260143</v>
+        <v>-28</v>
       </c>
       <c r="J107" s="3">
-        <v>386.99</v>
+        <v>91.350000000000009</v>
       </c>
       <c r="K107" s="3">
-        <v>386.99</v>
+        <v>91.350000000000009</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
@@ -4981,7 +4978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>211111506</v>
       </c>
@@ -4995,25 +4992,25 @@
         <v>15</v>
       </c>
       <c r="E108">
-        <v>10836</v>
+        <v>11185</v>
       </c>
       <c r="F108" t="s">
         <v>20</v>
       </c>
       <c r="G108" s="1">
-        <v>45890.314386574071</v>
+        <v>45897.574872685182</v>
       </c>
       <c r="H108" s="1">
-        <v>45860.315567129626</v>
+        <v>45867.575555555552</v>
       </c>
       <c r="I108" s="2">
-        <v>-26.31438657407125</v>
+        <v>-28</v>
       </c>
       <c r="J108" s="3">
-        <v>18.240000000000002</v>
+        <v>150.5</v>
       </c>
       <c r="K108" s="3">
-        <v>18.240000000000002</v>
+        <v>150.5</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
@@ -5022,80 +5019,80 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>211111506</v>
+        <v>211111625</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
-      </c>
-      <c r="E109">
-        <v>10886</v>
+        <v>30</v>
+      </c>
+      <c r="E109" t="s">
+        <v>31</v>
       </c>
       <c r="F109" t="s">
         <v>20</v>
       </c>
       <c r="G109" s="1">
-        <v>45890.572280092594</v>
+        <v>45769</v>
       </c>
       <c r="H109" s="1">
-        <v>45860.573055555556</v>
+        <v>45739</v>
       </c>
       <c r="I109" s="2">
-        <v>-26.572280092594156</v>
+        <v>100</v>
       </c>
       <c r="J109" s="3">
-        <v>407.79</v>
+        <v>-602.46</v>
       </c>
       <c r="K109" s="3">
-        <v>407.79</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>211111506</v>
+        <v>211111625</v>
       </c>
       <c r="B110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D110">
+        <v>2025</v>
       </c>
       <c r="E110">
-        <v>11010</v>
+        <v>602</v>
       </c>
       <c r="F110" t="s">
         <v>20</v>
       </c>
       <c r="G110" s="1">
-        <v>45892.603333333333</v>
+        <v>45869</v>
       </c>
       <c r="H110" s="1">
-        <v>45862.603599537033</v>
+        <v>45839</v>
       </c>
       <c r="I110" s="2">
-        <v>-28.603333333332557</v>
+        <v>0</v>
       </c>
       <c r="J110" s="3">
-        <v>28.84</v>
+        <v>-38.380000000000003</v>
       </c>
       <c r="K110" s="3">
-        <v>28.84</v>
+        <v>-38.380000000000003</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
@@ -5104,12 +5101,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>211111506</v>
+        <v>211111625</v>
       </c>
       <c r="B111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5118,25 +5115,25 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>11057</v>
+        <v>9936</v>
       </c>
       <c r="F111" t="s">
         <v>20</v>
       </c>
       <c r="G111" s="1">
-        <v>45893.511979166666</v>
+        <v>45869.406018518515</v>
       </c>
       <c r="H111" s="1">
-        <v>45863.511990740742</v>
+        <v>45839.407280092593</v>
       </c>
       <c r="I111" s="2">
-        <v>-29.511979166665697</v>
+        <v>0</v>
       </c>
       <c r="J111" s="3">
-        <v>211.89000000000001</v>
+        <v>328.58</v>
       </c>
       <c r="K111" s="3">
-        <v>211.89000000000001</v>
+        <v>328.58</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
@@ -5145,7 +5142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>211111625</v>
       </c>
@@ -5153,40 +5150,40 @@
         <v>41</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>30</v>
-      </c>
-      <c r="E112" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="E112">
+        <v>10240</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
       </c>
       <c r="G112" s="1">
-        <v>45769</v>
+        <v>45876.326597222222</v>
       </c>
       <c r="H112" s="1">
-        <v>45739</v>
+        <v>45846.327291666668</v>
       </c>
       <c r="I112" s="2">
-        <v>95</v>
+        <v>-7</v>
       </c>
       <c r="J112" s="3">
-        <v>-602.46</v>
+        <v>301.90000000000003</v>
       </c>
       <c r="K112" s="3">
-        <v>-0.28000000000000003</v>
+        <v>301.90000000000003</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
       </c>
       <c r="M112" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>211111625</v>
       </c>
@@ -5200,25 +5197,25 @@
         <v>15</v>
       </c>
       <c r="E113">
-        <v>9507</v>
+        <v>11145</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
       </c>
       <c r="G113" s="1">
-        <v>45858.514930555553</v>
+        <v>45897.404432870368</v>
       </c>
       <c r="H113" s="1">
-        <v>45828.515520833331</v>
+        <v>45867.405844907407</v>
       </c>
       <c r="I113" s="2">
-        <v>5.4850694444467081</v>
+        <v>-28</v>
       </c>
       <c r="J113" s="3">
-        <v>317.75</v>
+        <v>89.11</v>
       </c>
       <c r="K113" s="3">
-        <v>317.75</v>
+        <v>89.11</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
@@ -5227,7 +5224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>211111625</v>
       </c>
@@ -5235,31 +5232,31 @@
         <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>22</v>
-      </c>
-      <c r="D114">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
       </c>
       <c r="E114">
-        <v>602</v>
+        <v>11175</v>
       </c>
       <c r="F114" t="s">
         <v>20</v>
       </c>
       <c r="G114" s="1">
-        <v>45869</v>
+        <v>45897.554768518516</v>
       </c>
       <c r="H114" s="1">
-        <v>45839</v>
+        <v>45867.554780092592</v>
       </c>
       <c r="I114" s="2">
-        <v>-5</v>
+        <v>-28</v>
       </c>
       <c r="J114" s="3">
-        <v>-38.380000000000003</v>
+        <v>742.58</v>
       </c>
       <c r="K114" s="3">
-        <v>-38.380000000000003</v>
+        <v>742.58</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
@@ -5268,12 +5265,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>211111625</v>
+        <v>211111809</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -5282,39 +5279,39 @@
         <v>15</v>
       </c>
       <c r="E115">
-        <v>9936</v>
+        <v>6155</v>
       </c>
       <c r="F115" t="s">
         <v>20</v>
       </c>
       <c r="G115" s="1">
-        <v>45869.406018518515</v>
+        <v>45788.499618055554</v>
       </c>
       <c r="H115" s="1">
-        <v>45839.407280092593</v>
+        <v>45758.501504629625</v>
       </c>
       <c r="I115" s="2">
-        <v>-5.4060185185153387</v>
+        <v>81</v>
       </c>
       <c r="J115" s="3">
-        <v>328.58</v>
+        <v>44.24</v>
       </c>
       <c r="K115" s="3">
-        <v>328.58</v>
+        <v>44.24</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
       </c>
       <c r="M115" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>211111625</v>
+        <v>211111809</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -5323,39 +5320,39 @@
         <v>15</v>
       </c>
       <c r="E116">
-        <v>10109</v>
+        <v>6183</v>
       </c>
       <c r="F116" t="s">
         <v>20</v>
       </c>
       <c r="G116" s="1">
-        <v>45872.371365740742</v>
+        <v>45788.679930555554</v>
       </c>
       <c r="H116" s="1">
-        <v>45842.371365740742</v>
+        <v>45758.681388888886</v>
       </c>
       <c r="I116" s="2">
-        <v>-8.3713657407424762</v>
+        <v>81</v>
       </c>
       <c r="J116" s="3">
-        <v>527.84</v>
+        <v>32.020000000000003</v>
       </c>
       <c r="K116" s="3">
-        <v>527.84</v>
+        <v>32.020000000000003</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
       </c>
       <c r="M116" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
@@ -5364,39 +5361,39 @@
         <v>15</v>
       </c>
       <c r="E117">
-        <v>10240</v>
+        <v>9429</v>
       </c>
       <c r="F117" t="s">
         <v>20</v>
       </c>
       <c r="G117" s="1">
-        <v>45876.326597222222</v>
+        <v>45856.451006944444</v>
       </c>
       <c r="H117" s="1">
-        <v>45846.327291666668</v>
+        <v>45826.451331018514</v>
       </c>
       <c r="I117" s="2">
-        <v>-12.326597222221608</v>
+        <v>13</v>
       </c>
       <c r="J117" s="3">
-        <v>301.90000000000003</v>
+        <v>363.51</v>
       </c>
       <c r="K117" s="3">
-        <v>301.90000000000003</v>
+        <v>363.51</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
       </c>
       <c r="M117" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>211111809</v>
+        <v>211111888</v>
       </c>
       <c r="B118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -5405,39 +5402,39 @@
         <v>15</v>
       </c>
       <c r="E118">
-        <v>6155</v>
+        <v>9550</v>
       </c>
       <c r="F118" t="s">
         <v>20</v>
       </c>
       <c r="G118" s="1">
-        <v>45788.499618055554</v>
+        <v>45858.588043981479</v>
       </c>
       <c r="H118" s="1">
-        <v>45758.501504629625</v>
+        <v>45828.58893518518</v>
       </c>
       <c r="I118" s="2">
-        <v>75.500381944446417</v>
+        <v>11</v>
       </c>
       <c r="J118" s="3">
-        <v>44.24</v>
+        <v>97.93</v>
       </c>
       <c r="K118" s="3">
-        <v>44.24</v>
+        <v>97.93</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
       </c>
       <c r="M118" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>211111809</v>
+        <v>211111888</v>
       </c>
       <c r="B119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
@@ -5446,34 +5443,34 @@
         <v>15</v>
       </c>
       <c r="E119">
-        <v>6183</v>
+        <v>9554</v>
       </c>
       <c r="F119" t="s">
         <v>20</v>
       </c>
       <c r="G119" s="1">
-        <v>45788.679930555554</v>
+        <v>45858.603680555556</v>
       </c>
       <c r="H119" s="1">
-        <v>45758.681388888886</v>
+        <v>45828.605798611112</v>
       </c>
       <c r="I119" s="2">
-        <v>75.320069444445835</v>
+        <v>11</v>
       </c>
       <c r="J119" s="3">
-        <v>32.020000000000003</v>
+        <v>873.41</v>
       </c>
       <c r="K119" s="3">
-        <v>32.020000000000003</v>
+        <v>873.41</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>211111888</v>
       </c>
@@ -5487,25 +5484,25 @@
         <v>15</v>
       </c>
       <c r="E120">
-        <v>9257</v>
+        <v>9608</v>
       </c>
       <c r="F120" t="s">
         <v>20</v>
       </c>
       <c r="G120" s="1">
-        <v>45851.572199074071</v>
+        <v>45861.483668981477</v>
       </c>
       <c r="H120" s="1">
-        <v>45821.57262731481</v>
+        <v>45831.48400462963</v>
       </c>
       <c r="I120" s="2">
-        <v>12.42780092592875</v>
+        <v>8</v>
       </c>
       <c r="J120" s="3">
-        <v>1043.29</v>
+        <v>24.36</v>
       </c>
       <c r="K120" s="3">
-        <v>1043.29</v>
+        <v>24.36</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
@@ -5514,7 +5511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>211111888</v>
       </c>
@@ -5528,25 +5525,25 @@
         <v>15</v>
       </c>
       <c r="E121">
-        <v>9276</v>
+        <v>9715</v>
       </c>
       <c r="F121" t="s">
         <v>20</v>
       </c>
       <c r="G121" s="1">
-        <v>45854.332685185182</v>
+        <v>45863.515474537038</v>
       </c>
       <c r="H121" s="1">
-        <v>45824.339502314811</v>
+        <v>45833.517407407402</v>
       </c>
       <c r="I121" s="2">
-        <v>9.6673148148183827</v>
+        <v>6</v>
       </c>
       <c r="J121" s="3">
-        <v>294.79000000000002</v>
+        <v>951.75</v>
       </c>
       <c r="K121" s="3">
-        <v>294.79000000000002</v>
+        <v>951.75</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
@@ -5555,7 +5552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>211111888</v>
       </c>
@@ -5569,34 +5566,34 @@
         <v>15</v>
       </c>
       <c r="E122">
-        <v>9429</v>
+        <v>9933</v>
       </c>
       <c r="F122" t="s">
         <v>20</v>
       </c>
       <c r="G122" s="1">
-        <v>45856.451006944444</v>
+        <v>45869.385451388887</v>
       </c>
       <c r="H122" s="1">
-        <v>45826.451331018514</v>
+        <v>45839.386840277773</v>
       </c>
       <c r="I122" s="2">
-        <v>7.5489930555559113</v>
+        <v>0</v>
       </c>
       <c r="J122" s="3">
-        <v>363.51</v>
+        <v>78.92</v>
       </c>
       <c r="K122" s="3">
-        <v>363.51</v>
+        <v>78.92</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
       </c>
       <c r="M122" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>211111888</v>
       </c>
@@ -5610,25 +5607,25 @@
         <v>15</v>
       </c>
       <c r="E123">
-        <v>9550</v>
+        <v>10054</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
       </c>
       <c r="G123" s="1">
-        <v>45858.588043981479</v>
+        <v>45871.521666666667</v>
       </c>
       <c r="H123" s="1">
-        <v>45828.58893518518</v>
+        <v>45841.521666666667</v>
       </c>
       <c r="I123" s="2">
-        <v>5.4119560185208684</v>
+        <v>-2</v>
       </c>
       <c r="J123" s="3">
-        <v>97.93</v>
+        <v>81.25</v>
       </c>
       <c r="K123" s="3">
-        <v>97.93</v>
+        <v>81.25</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
@@ -5637,7 +5634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>211111888</v>
       </c>
@@ -5651,25 +5648,25 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>9554</v>
+        <v>10144</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
       </c>
       <c r="G124" s="1">
-        <v>45858.603680555556</v>
+        <v>45872.453831018516</v>
       </c>
       <c r="H124" s="1">
-        <v>45828.605798611112</v>
+        <v>45842.453831018516</v>
       </c>
       <c r="I124" s="2">
-        <v>5.3963194444440887</v>
+        <v>-3</v>
       </c>
       <c r="J124" s="3">
-        <v>873.41</v>
+        <v>833.06000000000006</v>
       </c>
       <c r="K124" s="3">
-        <v>873.41</v>
+        <v>833.06000000000006</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
@@ -5678,7 +5675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>211111888</v>
       </c>
@@ -5692,34 +5689,34 @@
         <v>15</v>
       </c>
       <c r="E125">
-        <v>9608</v>
+        <v>10277</v>
       </c>
       <c r="F125" t="s">
         <v>20</v>
       </c>
       <c r="G125" s="1">
-        <v>45861.483668981477</v>
+        <v>45876.441319444442</v>
       </c>
       <c r="H125" s="1">
-        <v>45831.48400462963</v>
+        <v>45846.441319444442</v>
       </c>
       <c r="I125" s="2">
-        <v>2.5163310185234877</v>
+        <v>-7</v>
       </c>
       <c r="J125" s="3">
-        <v>24.36</v>
+        <v>1056.32</v>
       </c>
       <c r="K125" s="3">
-        <v>24.36</v>
+        <v>1056.32</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
       </c>
       <c r="M125" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>211111888</v>
       </c>
@@ -5733,25 +5730,25 @@
         <v>15</v>
       </c>
       <c r="E126">
-        <v>9715</v>
+        <v>10352</v>
       </c>
       <c r="F126" t="s">
         <v>20</v>
       </c>
       <c r="G126" s="1">
-        <v>45863.515474537038</v>
+        <v>45877.450138888889</v>
       </c>
       <c r="H126" s="1">
-        <v>45833.517407407402</v>
+        <v>45847.450150462959</v>
       </c>
       <c r="I126" s="2">
-        <v>0.48452546296175569</v>
+        <v>-8</v>
       </c>
       <c r="J126" s="3">
-        <v>951.75</v>
+        <v>210.29</v>
       </c>
       <c r="K126" s="3">
-        <v>951.75</v>
+        <v>210.29</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
@@ -5760,7 +5757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>211111888</v>
       </c>
@@ -5768,31 +5765,31 @@
         <v>43</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D127">
+        <v>2025</v>
       </c>
       <c r="E127">
-        <v>9933</v>
+        <v>636</v>
       </c>
       <c r="F127" t="s">
         <v>20</v>
       </c>
       <c r="G127" s="1">
-        <v>45869.385451388887</v>
+        <v>45878</v>
       </c>
       <c r="H127" s="1">
-        <v>45839.386840277773</v>
+        <v>45848</v>
       </c>
       <c r="I127" s="2">
-        <v>-5.3854513888873043</v>
+        <v>-9</v>
       </c>
       <c r="J127" s="3">
-        <v>78.92</v>
+        <v>-507.94</v>
       </c>
       <c r="K127" s="3">
-        <v>78.92</v>
+        <v>-507.94</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
@@ -5801,7 +5798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>211111888</v>
       </c>
@@ -5815,25 +5812,25 @@
         <v>15</v>
       </c>
       <c r="E128">
-        <v>10054</v>
+        <v>10419</v>
       </c>
       <c r="F128" t="s">
         <v>20</v>
       </c>
       <c r="G128" s="1">
-        <v>45871.521666666667</v>
+        <v>45878.429652777777</v>
       </c>
       <c r="H128" s="1">
-        <v>45841.521666666667</v>
+        <v>45848.429652777777</v>
       </c>
       <c r="I128" s="2">
-        <v>-7.5216666666674428</v>
+        <v>-9</v>
       </c>
       <c r="J128" s="3">
-        <v>81.25</v>
+        <v>540.54999999999995</v>
       </c>
       <c r="K128" s="3">
-        <v>81.25</v>
+        <v>540.54999999999995</v>
       </c>
       <c r="L128" t="s">
         <v>17</v>
@@ -5842,7 +5839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>211111888</v>
       </c>
@@ -5856,25 +5853,25 @@
         <v>15</v>
       </c>
       <c r="E129">
-        <v>10144</v>
+        <v>10477</v>
       </c>
       <c r="F129" t="s">
         <v>20</v>
       </c>
       <c r="G129" s="1">
-        <v>45872.453831018516</v>
+        <v>45879.432314814811</v>
       </c>
       <c r="H129" s="1">
-        <v>45842.453831018516</v>
+        <v>45849.432314814811</v>
       </c>
       <c r="I129" s="2">
-        <v>-8.4538310185162118</v>
+        <v>-10</v>
       </c>
       <c r="J129" s="3">
-        <v>833.06000000000006</v>
+        <v>165.06</v>
       </c>
       <c r="K129" s="3">
-        <v>833.06000000000006</v>
+        <v>165.06</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
@@ -5883,7 +5880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>211111888</v>
       </c>
@@ -5897,25 +5894,25 @@
         <v>15</v>
       </c>
       <c r="E130">
-        <v>10277</v>
+        <v>10508</v>
       </c>
       <c r="F130" t="s">
         <v>20</v>
       </c>
       <c r="G130" s="1">
-        <v>45876.441319444442</v>
+        <v>45882.471365740741</v>
       </c>
       <c r="H130" s="1">
-        <v>45846.441319444442</v>
+        <v>45852.471365740741</v>
       </c>
       <c r="I130" s="2">
-        <v>-12.441319444442343</v>
+        <v>-13</v>
       </c>
       <c r="J130" s="3">
-        <v>1056.32</v>
+        <v>110.59</v>
       </c>
       <c r="K130" s="3">
-        <v>1056.32</v>
+        <v>110.59</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
@@ -5924,7 +5921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>211111888</v>
       </c>
@@ -5938,25 +5935,25 @@
         <v>15</v>
       </c>
       <c r="E131">
-        <v>10352</v>
+        <v>10519</v>
       </c>
       <c r="F131" t="s">
         <v>20</v>
       </c>
       <c r="G131" s="1">
-        <v>45877.450138888889</v>
+        <v>45882.479282407403</v>
       </c>
       <c r="H131" s="1">
-        <v>45847.450150462959</v>
+        <v>45852.479282407403</v>
       </c>
       <c r="I131" s="2">
-        <v>-13.450138888889342</v>
+        <v>-13</v>
       </c>
       <c r="J131" s="3">
-        <v>210.29</v>
+        <v>439.56</v>
       </c>
       <c r="K131" s="3">
-        <v>210.29</v>
+        <v>439.56</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
@@ -5965,7 +5962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>211111888</v>
       </c>
@@ -5973,31 +5970,31 @@
         <v>43</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
-      </c>
-      <c r="D132">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D132" t="s">
+        <v>15</v>
       </c>
       <c r="E132">
-        <v>636</v>
+        <v>10626</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
       </c>
       <c r="G132" s="1">
-        <v>45878</v>
+        <v>45884.449004629627</v>
       </c>
       <c r="H132" s="1">
-        <v>45848</v>
+        <v>45854.449004629627</v>
       </c>
       <c r="I132" s="2">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="J132" s="3">
-        <v>-507.94</v>
+        <v>49.69</v>
       </c>
       <c r="K132" s="3">
-        <v>-507.94</v>
+        <v>49.69</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
@@ -6006,7 +6003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>211111888</v>
       </c>
@@ -6020,25 +6017,25 @@
         <v>15</v>
       </c>
       <c r="E133">
-        <v>10419</v>
+        <v>10811</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
       </c>
       <c r="G133" s="1">
-        <v>45878.429652777777</v>
+        <v>45889.48296296296</v>
       </c>
       <c r="H133" s="1">
-        <v>45848.429652777777</v>
+        <v>45859.48296296296</v>
       </c>
       <c r="I133" s="2">
-        <v>-14.429652777776937</v>
+        <v>-20</v>
       </c>
       <c r="J133" s="3">
-        <v>540.54999999999995</v>
+        <v>481.88</v>
       </c>
       <c r="K133" s="3">
-        <v>540.54999999999995</v>
+        <v>481.88</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
@@ -6047,7 +6044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>211111888</v>
       </c>
@@ -6055,31 +6052,31 @@
         <v>43</v>
       </c>
       <c r="C134" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D134">
+        <v>2025</v>
       </c>
       <c r="E134">
-        <v>10477</v>
+        <v>666</v>
       </c>
       <c r="F134" t="s">
         <v>20</v>
       </c>
       <c r="G134" s="1">
-        <v>45879.432314814811</v>
+        <v>45891</v>
       </c>
       <c r="H134" s="1">
-        <v>45849.432314814811</v>
+        <v>45861</v>
       </c>
       <c r="I134" s="2">
-        <v>-15.432314814810525</v>
+        <v>-22</v>
       </c>
       <c r="J134" s="3">
-        <v>165.06</v>
+        <v>-359.47</v>
       </c>
       <c r="K134" s="3">
-        <v>165.06</v>
+        <v>-359.47</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
@@ -6088,7 +6085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>211111888</v>
       </c>
@@ -6096,31 +6093,31 @@
         <v>43</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D135">
+        <v>2025</v>
       </c>
       <c r="E135">
-        <v>10508</v>
+        <v>679</v>
       </c>
       <c r="F135" t="s">
         <v>20</v>
       </c>
       <c r="G135" s="1">
-        <v>45882.471365740741</v>
+        <v>45892</v>
       </c>
       <c r="H135" s="1">
-        <v>45852.471365740741</v>
+        <v>45862</v>
       </c>
       <c r="I135" s="2">
-        <v>-18.471365740741021</v>
+        <v>-23</v>
       </c>
       <c r="J135" s="3">
-        <v>110.59</v>
+        <v>-11.61</v>
       </c>
       <c r="K135" s="3">
-        <v>110.59</v>
+        <v>-11.61</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
@@ -6129,7 +6126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>211111888</v>
       </c>
@@ -6143,25 +6140,25 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>10519</v>
+        <v>10999</v>
       </c>
       <c r="F136" t="s">
         <v>20</v>
       </c>
       <c r="G136" s="1">
-        <v>45882.479282407403</v>
+        <v>45892.498240740737</v>
       </c>
       <c r="H136" s="1">
-        <v>45852.479282407403</v>
+        <v>45862.498240740737</v>
       </c>
       <c r="I136" s="2">
-        <v>-18.479282407402934</v>
+        <v>-23</v>
       </c>
       <c r="J136" s="3">
-        <v>439.56</v>
+        <v>134.38</v>
       </c>
       <c r="K136" s="3">
-        <v>439.56</v>
+        <v>134.38</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
@@ -6170,7 +6167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>211111888</v>
       </c>
@@ -6184,25 +6181,25 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <v>10626</v>
+        <v>11123</v>
       </c>
       <c r="F137" t="s">
         <v>20</v>
       </c>
       <c r="G137" s="1">
-        <v>45884.449004629627</v>
+        <v>45896.546006944445</v>
       </c>
       <c r="H137" s="1">
-        <v>45854.449004629627</v>
+        <v>45866.547673611109</v>
       </c>
       <c r="I137" s="2">
-        <v>-20.44900462962687</v>
+        <v>-27</v>
       </c>
       <c r="J137" s="3">
-        <v>49.69</v>
+        <v>727.73</v>
       </c>
       <c r="K137" s="3">
-        <v>49.69</v>
+        <v>727.73</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
@@ -6211,7 +6208,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>211111888</v>
       </c>
@@ -6225,25 +6222,25 @@
         <v>15</v>
       </c>
       <c r="E138">
-        <v>10811</v>
+        <v>11288</v>
       </c>
       <c r="F138" t="s">
         <v>20</v>
       </c>
       <c r="G138" s="1">
-        <v>45889.48296296296</v>
+        <v>45899.506018518514</v>
       </c>
       <c r="H138" s="1">
-        <v>45859.48296296296</v>
+        <v>45869.506030092591</v>
       </c>
       <c r="I138" s="2">
-        <v>-25.482962962960301</v>
+        <v>-30</v>
       </c>
       <c r="J138" s="3">
-        <v>481.88</v>
+        <v>228.8</v>
       </c>
       <c r="K138" s="3">
-        <v>481.88</v>
+        <v>228.8</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
@@ -6252,12 +6249,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>211111888</v>
+        <v>211111892</v>
       </c>
       <c r="B139" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
@@ -6266,25 +6263,25 @@
         <v>15</v>
       </c>
       <c r="E139">
-        <v>10999</v>
+        <v>11093</v>
       </c>
       <c r="F139" t="s">
         <v>20</v>
       </c>
       <c r="G139" s="1">
-        <v>45892.498240740737</v>
+        <v>45896.468298611107</v>
       </c>
       <c r="H139" s="1">
-        <v>45862.498240740737</v>
+        <v>45866.47038194444</v>
       </c>
       <c r="I139" s="2">
-        <v>-28.498240740736946</v>
+        <v>-27</v>
       </c>
       <c r="J139" s="3">
-        <v>134.38</v>
+        <v>37.74</v>
       </c>
       <c r="K139" s="3">
-        <v>134.38</v>
+        <v>37.74</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
@@ -6293,9 +6290,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>211111943</v>
+        <v>211112004</v>
       </c>
       <c r="B140" t="s">
         <v>44</v>
@@ -6307,36 +6304,36 @@
         <v>15</v>
       </c>
       <c r="E140">
-        <v>9697</v>
+        <v>9445</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
       </c>
       <c r="G140" s="1">
-        <v>45863.494432870371</v>
+        <v>45856.586018518516</v>
       </c>
       <c r="H140" s="1">
-        <v>45833.494629629626</v>
+        <v>45826.587974537033</v>
       </c>
       <c r="I140" s="2">
-        <v>0.50556712962861639</v>
+        <v>13</v>
       </c>
       <c r="J140" s="3">
-        <v>180.6</v>
+        <v>264.78000000000003</v>
       </c>
       <c r="K140" s="3">
-        <v>180.6</v>
+        <v>264.78000000000003</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>211111943</v>
+        <v>211112004</v>
       </c>
       <c r="B141" t="s">
         <v>44</v>
@@ -6348,25 +6345,25 @@
         <v>15</v>
       </c>
       <c r="E141">
-        <v>10067</v>
+        <v>10431</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
       </c>
       <c r="G141" s="1">
-        <v>45871.525949074072</v>
+        <v>45878.592581018514</v>
       </c>
       <c r="H141" s="1">
-        <v>45841.525949074072</v>
+        <v>45848.592581018514</v>
       </c>
       <c r="I141" s="2">
-        <v>-7.525949074071832</v>
+        <v>-9</v>
       </c>
       <c r="J141" s="3">
-        <v>116.85000000000001</v>
+        <v>414.76</v>
       </c>
       <c r="K141" s="3">
-        <v>116.85000000000001</v>
+        <v>414.76</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
@@ -6375,9 +6372,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>211111943</v>
+        <v>211112004</v>
       </c>
       <c r="B142" t="s">
         <v>44</v>
@@ -6389,25 +6386,25 @@
         <v>15</v>
       </c>
       <c r="E142">
-        <v>10899</v>
+        <v>10728</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
       </c>
       <c r="G142" s="1">
-        <v>45891.494560185187</v>
+        <v>45886.283738425926</v>
       </c>
       <c r="H142" s="1">
-        <v>45861.494791666664</v>
+        <v>45856.284224537034</v>
       </c>
       <c r="I142" s="2">
-        <v>-27.494560185186856</v>
+        <v>-17</v>
       </c>
       <c r="J142" s="3">
-        <v>141.63</v>
+        <v>278.35000000000002</v>
       </c>
       <c r="K142" s="3">
-        <v>141.63</v>
+        <v>278.35000000000002</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
@@ -6416,9 +6413,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>211112004</v>
+        <v>211112022</v>
       </c>
       <c r="B143" t="s">
         <v>45</v>
@@ -6430,25 +6427,25 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>9445</v>
+        <v>9992</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
       </c>
       <c r="G143" s="1">
-        <v>45856.586018518516</v>
+        <v>45840.446226851847</v>
       </c>
       <c r="H143" s="1">
-        <v>45826.587974537033</v>
+        <v>45840.446226851847</v>
       </c>
       <c r="I143" s="2">
-        <v>7.4139814814843703</v>
+        <v>29</v>
       </c>
       <c r="J143" s="3">
-        <v>264.78000000000003</v>
+        <v>326.48</v>
       </c>
       <c r="K143" s="3">
-        <v>264.78000000000003</v>
+        <v>326.48</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
@@ -6457,9 +6454,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>211112004</v>
+        <v>211112022</v>
       </c>
       <c r="B144" t="s">
         <v>45</v>
@@ -6471,39 +6468,39 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>10431</v>
+        <v>10718</v>
       </c>
       <c r="F144" t="s">
         <v>20</v>
       </c>
       <c r="G144" s="1">
-        <v>45878.592581018514</v>
+        <v>45855.563877314809</v>
       </c>
       <c r="H144" s="1">
-        <v>45848.592581018514</v>
+        <v>45855.563877314809</v>
       </c>
       <c r="I144" s="2">
-        <v>-14.592581018514466</v>
+        <v>14</v>
       </c>
       <c r="J144" s="3">
-        <v>414.76</v>
+        <v>194.09</v>
       </c>
       <c r="K144" s="3">
-        <v>414.76</v>
+        <v>194.09</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
       </c>
       <c r="M144" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>211112004</v>
+        <v>211112034</v>
       </c>
       <c r="B145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
@@ -6512,25 +6509,25 @@
         <v>15</v>
       </c>
       <c r="E145">
-        <v>10728</v>
+        <v>9998</v>
       </c>
       <c r="F145" t="s">
         <v>20</v>
       </c>
       <c r="G145" s="1">
-        <v>45886.283738425926</v>
+        <v>45870.501469907409</v>
       </c>
       <c r="H145" s="1">
-        <v>45856.284224537034</v>
+        <v>45840.502164351848</v>
       </c>
       <c r="I145" s="2">
-        <v>-22.283738425925549</v>
+        <v>-1</v>
       </c>
       <c r="J145" s="3">
-        <v>278.35000000000002</v>
+        <v>161.81</v>
       </c>
       <c r="K145" s="3">
-        <v>278.35000000000002</v>
+        <v>161.81</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -6539,9 +6536,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>211112022</v>
+        <v>211112034</v>
       </c>
       <c r="B146" t="s">
         <v>46</v>
@@ -6553,36 +6550,36 @@
         <v>15</v>
       </c>
       <c r="E146">
-        <v>9992</v>
+        <v>10048</v>
       </c>
       <c r="F146" t="s">
         <v>20</v>
       </c>
       <c r="G146" s="1">
-        <v>45840.446226851847</v>
+        <v>45871.520023148143</v>
       </c>
       <c r="H146" s="1">
-        <v>45840.446226851847</v>
+        <v>45841.520324074074</v>
       </c>
       <c r="I146" s="2">
-        <v>23.553773148152686</v>
+        <v>-2</v>
       </c>
       <c r="J146" s="3">
-        <v>326.48</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="K146" s="3">
-        <v>326.48</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
       </c>
       <c r="M146" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>211112022</v>
+        <v>211112034</v>
       </c>
       <c r="B147" t="s">
         <v>46</v>
@@ -6594,39 +6591,39 @@
         <v>15</v>
       </c>
       <c r="E147">
-        <v>10718</v>
+        <v>10279</v>
       </c>
       <c r="F147" t="s">
         <v>20</v>
       </c>
       <c r="G147" s="1">
-        <v>45855.563877314809</v>
+        <v>45876.48737268518</v>
       </c>
       <c r="H147" s="1">
-        <v>45855.563877314809</v>
+        <v>45846.488263888888</v>
       </c>
       <c r="I147" s="2">
-        <v>8.4361226851906395</v>
+        <v>-7</v>
       </c>
       <c r="J147" s="3">
-        <v>194.09</v>
+        <v>243.53</v>
       </c>
       <c r="K147" s="3">
-        <v>194.09</v>
+        <v>243.53</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
       </c>
       <c r="M147" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>211112034</v>
       </c>
       <c r="B148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -6635,39 +6632,39 @@
         <v>15</v>
       </c>
       <c r="E148">
-        <v>8885</v>
+        <v>10588</v>
       </c>
       <c r="F148" t="s">
         <v>20</v>
       </c>
       <c r="G148" s="1">
-        <v>45842.627256944441</v>
+        <v>45883.665393518517</v>
       </c>
       <c r="H148" s="1">
-        <v>45812.627395833333</v>
+        <v>45853.665520833332</v>
       </c>
       <c r="I148" s="2">
-        <v>21.372743055559113</v>
+        <v>-14</v>
       </c>
       <c r="J148" s="3">
-        <v>107.42</v>
+        <v>250.28</v>
       </c>
       <c r="K148" s="3">
-        <v>107.42</v>
+        <v>250.28</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
       </c>
       <c r="M148" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>211112034</v>
       </c>
       <c r="B149" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
@@ -6676,39 +6673,39 @@
         <v>15</v>
       </c>
       <c r="E149">
-        <v>8909</v>
+        <v>10900</v>
       </c>
       <c r="F149" t="s">
         <v>20</v>
       </c>
       <c r="G149" s="1">
-        <v>45843.496192129627</v>
+        <v>45891.499594907407</v>
       </c>
       <c r="H149" s="1">
-        <v>45813.496469907404</v>
+        <v>45861.500196759254</v>
       </c>
       <c r="I149" s="2">
-        <v>20.503807870372839</v>
+        <v>-22</v>
       </c>
       <c r="J149" s="3">
-        <v>35.68</v>
+        <v>227.62</v>
       </c>
       <c r="K149" s="3">
-        <v>35.68</v>
+        <v>227.62</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
       </c>
       <c r="M149" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>211112034</v>
       </c>
       <c r="B150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C150" t="s">
         <v>14</v>
@@ -6717,39 +6714,39 @@
         <v>15</v>
       </c>
       <c r="E150">
-        <v>9161</v>
+        <v>11243</v>
       </c>
       <c r="F150" t="s">
         <v>20</v>
       </c>
       <c r="G150" s="1">
-        <v>45850.505868055552</v>
+        <v>45898.51180555555</v>
       </c>
       <c r="H150" s="1">
-        <v>45820.507094907407</v>
+        <v>45868.512175925927</v>
       </c>
       <c r="I150" s="2">
-        <v>13.494131944447872</v>
+        <v>-29</v>
       </c>
       <c r="J150" s="3">
-        <v>225.66</v>
+        <v>140.12</v>
       </c>
       <c r="K150" s="3">
-        <v>225.66</v>
+        <v>140.12</v>
       </c>
       <c r="L150" t="s">
         <v>17</v>
       </c>
       <c r="M150" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>211112034</v>
+        <v>211112182</v>
       </c>
       <c r="B151" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C151" t="s">
         <v>14</v>
@@ -6758,25 +6755,25 @@
         <v>15</v>
       </c>
       <c r="E151">
-        <v>9696</v>
+        <v>11004</v>
       </c>
       <c r="F151" t="s">
         <v>20</v>
       </c>
       <c r="G151" s="1">
-        <v>45863.492407407408</v>
+        <v>45892.498379629629</v>
       </c>
       <c r="H151" s="1">
-        <v>45833.494166666664</v>
+        <v>45862.498379629629</v>
       </c>
       <c r="I151" s="2">
-        <v>0.50759259259211831</v>
+        <v>-23</v>
       </c>
       <c r="J151" s="3">
-        <v>239.78</v>
+        <v>213.81</v>
       </c>
       <c r="K151" s="3">
-        <v>239.78</v>
+        <v>213.81</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
@@ -6785,50 +6782,50 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>211112034</v>
+        <v>211112415</v>
       </c>
       <c r="B152" t="s">
         <v>47</v>
       </c>
       <c r="C152" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D152" t="s">
         <v>15</v>
       </c>
       <c r="E152">
-        <v>9998</v>
+        <v>434</v>
       </c>
       <c r="F152" t="s">
         <v>20</v>
       </c>
       <c r="G152" s="1">
-        <v>45870.501469907409</v>
+        <v>45819</v>
       </c>
       <c r="H152" s="1">
-        <v>45840.502164351848</v>
+        <v>45789</v>
       </c>
       <c r="I152" s="2">
-        <v>-6.5014699074090458</v>
+        <v>50</v>
       </c>
       <c r="J152" s="3">
-        <v>161.81</v>
+        <v>-2.35</v>
       </c>
       <c r="K152" s="3">
-        <v>161.81</v>
+        <v>-2.35</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
       </c>
       <c r="M152" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>211112034</v>
+        <v>211112415</v>
       </c>
       <c r="B153" t="s">
         <v>47</v>
@@ -6840,36 +6837,36 @@
         <v>15</v>
       </c>
       <c r="E153">
-        <v>10048</v>
+        <v>9542</v>
       </c>
       <c r="F153" t="s">
         <v>20</v>
       </c>
       <c r="G153" s="1">
-        <v>45871.520023148143</v>
+        <v>45858.577106481476</v>
       </c>
       <c r="H153" s="1">
-        <v>45841.520324074074</v>
+        <v>45828.577303240738</v>
       </c>
       <c r="I153" s="2">
-        <v>-7.5200231481430819</v>
+        <v>11</v>
       </c>
       <c r="J153" s="3">
-        <v>71.540000000000006</v>
+        <v>85.41</v>
       </c>
       <c r="K153" s="3">
-        <v>71.540000000000006</v>
+        <v>85.41</v>
       </c>
       <c r="L153" t="s">
         <v>17</v>
       </c>
       <c r="M153" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>211112034</v>
+        <v>211112415</v>
       </c>
       <c r="B154" t="s">
         <v>47</v>
@@ -6881,36 +6878,36 @@
         <v>15</v>
       </c>
       <c r="E154">
-        <v>10279</v>
+        <v>9659</v>
       </c>
       <c r="F154" t="s">
         <v>20</v>
       </c>
       <c r="G154" s="1">
-        <v>45876.48737268518</v>
+        <v>45863.401469907403</v>
       </c>
       <c r="H154" s="1">
-        <v>45846.488263888888</v>
+        <v>45833.401736111111</v>
       </c>
       <c r="I154" s="2">
-        <v>-12.487372685180162</v>
+        <v>6</v>
       </c>
       <c r="J154" s="3">
-        <v>243.53</v>
+        <v>68.63</v>
       </c>
       <c r="K154" s="3">
-        <v>243.53</v>
+        <v>68.63</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
       </c>
       <c r="M154" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>211112034</v>
+        <v>211112415</v>
       </c>
       <c r="B155" t="s">
         <v>47</v>
@@ -6922,36 +6919,36 @@
         <v>15</v>
       </c>
       <c r="E155">
-        <v>10588</v>
+        <v>9671</v>
       </c>
       <c r="F155" t="s">
         <v>20</v>
       </c>
       <c r="G155" s="1">
-        <v>45883.665393518517</v>
+        <v>45863.436921296292</v>
       </c>
       <c r="H155" s="1">
-        <v>45853.665520833332</v>
+        <v>45833.437662037039</v>
       </c>
       <c r="I155" s="2">
-        <v>-19.665393518516794</v>
+        <v>6</v>
       </c>
       <c r="J155" s="3">
-        <v>250.28</v>
+        <v>27.77</v>
       </c>
       <c r="K155" s="3">
-        <v>250.28</v>
+        <v>27.77</v>
       </c>
       <c r="L155" t="s">
         <v>17</v>
       </c>
       <c r="M155" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>211112034</v>
+        <v>211112415</v>
       </c>
       <c r="B156" t="s">
         <v>47</v>
@@ -6963,39 +6960,39 @@
         <v>15</v>
       </c>
       <c r="E156">
-        <v>10900</v>
+        <v>9857</v>
       </c>
       <c r="F156" t="s">
         <v>20</v>
       </c>
       <c r="G156" s="1">
-        <v>45891.499594907407</v>
+        <v>45865.462974537033</v>
       </c>
       <c r="H156" s="1">
-        <v>45861.500196759254</v>
+        <v>45835.463900462964</v>
       </c>
       <c r="I156" s="2">
-        <v>-27.4995949074073</v>
+        <v>4</v>
       </c>
       <c r="J156" s="3">
-        <v>227.62</v>
+        <v>52.45</v>
       </c>
       <c r="K156" s="3">
-        <v>227.62</v>
+        <v>52.45</v>
       </c>
       <c r="L156" t="s">
         <v>17</v>
       </c>
       <c r="M156" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>211112182</v>
+        <v>211112415</v>
       </c>
       <c r="B157" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C157" t="s">
         <v>14</v>
@@ -7004,25 +7001,25 @@
         <v>15</v>
       </c>
       <c r="E157">
-        <v>11004</v>
+        <v>10341</v>
       </c>
       <c r="F157" t="s">
         <v>20</v>
       </c>
       <c r="G157" s="1">
-        <v>45892.498379629629</v>
+        <v>45877.430648148147</v>
       </c>
       <c r="H157" s="1">
-        <v>45862.498379629629</v>
+        <v>45847.430648148147</v>
       </c>
       <c r="I157" s="2">
-        <v>-28.498379629629198</v>
+        <v>-8</v>
       </c>
       <c r="J157" s="3">
-        <v>213.81</v>
+        <v>74.72</v>
       </c>
       <c r="K157" s="3">
-        <v>213.81</v>
+        <v>74.72</v>
       </c>
       <c r="L157" t="s">
         <v>17</v>
@@ -7031,504 +7028,504 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>211112184</v>
+        <v>211112415</v>
       </c>
       <c r="B158" t="s">
+        <v>47</v>
+      </c>
+      <c r="C158" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158">
+        <v>10822</v>
+      </c>
+      <c r="F158" t="s">
+        <v>20</v>
+      </c>
+      <c r="G158" s="1">
+        <v>45889.487743055557</v>
+      </c>
+      <c r="H158" s="1">
+        <v>45859.487743055557</v>
+      </c>
+      <c r="I158" s="2">
+        <v>-20</v>
+      </c>
+      <c r="J158" s="3">
+        <v>95.87</v>
+      </c>
+      <c r="K158" s="3">
+        <v>95.87</v>
+      </c>
+      <c r="L158" t="s">
+        <v>17</v>
+      </c>
+      <c r="M158" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>211112415</v>
+      </c>
+      <c r="B159" t="s">
+        <v>47</v>
+      </c>
+      <c r="C159" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159">
+        <v>11070</v>
+      </c>
+      <c r="F159" t="s">
+        <v>20</v>
+      </c>
+      <c r="G159" s="1">
+        <v>45893.523460648146</v>
+      </c>
+      <c r="H159" s="1">
+        <v>45863.523460648146</v>
+      </c>
+      <c r="I159" s="2">
+        <v>-24</v>
+      </c>
+      <c r="J159" s="3">
+        <v>106.52</v>
+      </c>
+      <c r="K159" s="3">
+        <v>106.52</v>
+      </c>
+      <c r="L159" t="s">
+        <v>17</v>
+      </c>
+      <c r="M159" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>211112415</v>
+      </c>
+      <c r="B160" t="s">
+        <v>47</v>
+      </c>
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160">
+        <v>11102</v>
+      </c>
+      <c r="F160" t="s">
+        <v>20</v>
+      </c>
+      <c r="G160" s="1">
+        <v>45896.526087962964</v>
+      </c>
+      <c r="H160" s="1">
+        <v>45866.526087962964</v>
+      </c>
+      <c r="I160" s="2">
+        <v>-27</v>
+      </c>
+      <c r="J160" s="3">
+        <v>48.92</v>
+      </c>
+      <c r="K160" s="3">
+        <v>48.92</v>
+      </c>
+      <c r="L160" t="s">
+        <v>17</v>
+      </c>
+      <c r="M160" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>211112544</v>
+      </c>
+      <c r="B161" t="s">
+        <v>55</v>
+      </c>
+      <c r="C161" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161">
+        <v>11192</v>
+      </c>
+      <c r="F161" t="s">
+        <v>20</v>
+      </c>
+      <c r="G161" s="1">
+        <v>45868.475057870368</v>
+      </c>
+      <c r="H161" s="1">
+        <v>45868.475057870368</v>
+      </c>
+      <c r="I161" s="2">
+        <v>1</v>
+      </c>
+      <c r="J161" s="3">
+        <v>1971.6000000000001</v>
+      </c>
+      <c r="K161" s="3">
+        <v>1971.6000000000001</v>
+      </c>
+      <c r="L161" t="s">
+        <v>17</v>
+      </c>
+      <c r="M161" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>211120936</v>
+      </c>
+      <c r="B162" t="s">
         <v>48</v>
       </c>
-      <c r="C158" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158">
-        <v>9658</v>
-      </c>
-      <c r="F158" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" s="1">
-        <v>45833.396666666667</v>
-      </c>
-      <c r="H158" s="1">
-        <v>45833.396666666667</v>
-      </c>
-      <c r="I158" s="2">
-        <v>30.603333333332557</v>
-      </c>
-      <c r="J158" s="3">
-        <v>102.66</v>
-      </c>
-      <c r="K158" s="3">
-        <v>102.66</v>
-      </c>
-      <c r="L158" t="s">
-        <v>17</v>
-      </c>
-      <c r="M158" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>211112312</v>
-      </c>
-      <c r="B159" t="s">
+      <c r="C162" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" t="s">
         <v>49</v>
       </c>
-      <c r="C159" t="s">
-        <v>29</v>
-      </c>
-      <c r="D159" t="s">
-        <v>30</v>
-      </c>
-      <c r="E159" t="s">
-        <v>31</v>
-      </c>
-      <c r="F159" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" s="1">
-        <v>45860</v>
-      </c>
-      <c r="H159" s="1">
-        <v>45845</v>
-      </c>
-      <c r="I159" s="2">
-        <v>4</v>
-      </c>
-      <c r="J159" s="3">
-        <v>-34.43</v>
-      </c>
-      <c r="K159" s="3">
-        <v>-34.43</v>
-      </c>
-      <c r="L159" t="s">
-        <v>17</v>
-      </c>
-      <c r="M159" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>211112312</v>
-      </c>
-      <c r="B160" t="s">
-        <v>49</v>
-      </c>
-      <c r="C160" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" t="s">
-        <v>15</v>
-      </c>
-      <c r="E160">
-        <v>10236</v>
-      </c>
-      <c r="F160" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" s="1">
-        <v>45860.69835648148</v>
-      </c>
-      <c r="H160" s="1">
-        <v>45845.699398148143</v>
-      </c>
-      <c r="I160" s="2">
-        <v>3.3016435185199953</v>
-      </c>
-      <c r="J160" s="3">
-        <v>314.05</v>
-      </c>
-      <c r="K160" s="3">
-        <v>314.05</v>
-      </c>
-      <c r="L160" t="s">
-        <v>17</v>
-      </c>
-      <c r="M160" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>211112415</v>
-      </c>
-      <c r="B161" t="s">
+      <c r="E162">
+        <v>6884</v>
+      </c>
+      <c r="F162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G162" s="1">
+        <v>45603.629884259259</v>
+      </c>
+      <c r="H162" s="1">
+        <v>45573.643425925926</v>
+      </c>
+      <c r="I162" s="2">
+        <v>266</v>
+      </c>
+      <c r="J162" s="3">
+        <v>3471.6</v>
+      </c>
+      <c r="K162" s="3">
+        <v>3471.6</v>
+      </c>
+      <c r="L162" t="s">
+        <v>17</v>
+      </c>
+      <c r="M162" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>211120936</v>
+      </c>
+      <c r="B163" t="s">
+        <v>48</v>
+      </c>
+      <c r="C163" t="s">
+        <v>22</v>
+      </c>
+      <c r="D163" t="s">
         <v>50</v>
       </c>
-      <c r="C161" t="s">
+      <c r="E163">
+        <v>84</v>
+      </c>
+      <c r="F163" t="s">
+        <v>20</v>
+      </c>
+      <c r="G163" s="1">
+        <v>45630</v>
+      </c>
+      <c r="H163" s="1">
+        <v>45600</v>
+      </c>
+      <c r="I163" s="2">
+        <v>239</v>
+      </c>
+      <c r="J163" s="3">
+        <v>-63.36</v>
+      </c>
+      <c r="K163" s="3">
+        <v>-63.36</v>
+      </c>
+      <c r="L163" t="s">
+        <v>17</v>
+      </c>
+      <c r="M163" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>211120936</v>
+      </c>
+      <c r="B164" t="s">
+        <v>48</v>
+      </c>
+      <c r="C164" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164">
+        <v>1301</v>
+      </c>
+      <c r="F164" t="s">
+        <v>20</v>
+      </c>
+      <c r="G164" s="1">
+        <v>45708.588148148148</v>
+      </c>
+      <c r="H164" s="1">
+        <v>45678.609421296293</v>
+      </c>
+      <c r="I164" s="2">
+        <v>161</v>
+      </c>
+      <c r="J164" s="3">
+        <v>2820.4</v>
+      </c>
+      <c r="K164" s="3">
+        <v>2820.4</v>
+      </c>
+      <c r="L164" t="s">
+        <v>17</v>
+      </c>
+      <c r="M164" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>211120936</v>
+      </c>
+      <c r="B165" t="s">
+        <v>48</v>
+      </c>
+      <c r="C165" t="s">
         <v>22</v>
       </c>
-      <c r="D161" t="s">
-        <v>15</v>
-      </c>
-      <c r="E161">
-        <v>434</v>
-      </c>
-      <c r="F161" t="s">
-        <v>20</v>
-      </c>
-      <c r="G161" s="1">
-        <v>45819</v>
-      </c>
-      <c r="H161" s="1">
-        <v>45789</v>
-      </c>
-      <c r="I161" s="2">
-        <v>45</v>
-      </c>
-      <c r="J161" s="3">
-        <v>-2.35</v>
-      </c>
-      <c r="K161" s="3">
-        <v>-2.35</v>
-      </c>
-      <c r="L161" t="s">
-        <v>17</v>
-      </c>
-      <c r="M161" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>211112415</v>
-      </c>
-      <c r="B162" t="s">
-        <v>50</v>
-      </c>
-      <c r="C162" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162">
-        <v>9079</v>
-      </c>
-      <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" s="1">
-        <v>45849.51462962963</v>
-      </c>
-      <c r="H162" s="1">
-        <v>45819.514999999999</v>
-      </c>
-      <c r="I162" s="2">
-        <v>14.485370370370219</v>
-      </c>
-      <c r="J162" s="3">
-        <v>158.38</v>
-      </c>
-      <c r="K162" s="3">
-        <v>158.38</v>
-      </c>
-      <c r="L162" t="s">
-        <v>17</v>
-      </c>
-      <c r="M162" t="s">
+      <c r="D165" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165">
+        <v>240</v>
+      </c>
+      <c r="F165" t="s">
+        <v>20</v>
+      </c>
+      <c r="G165" s="1">
+        <v>45749</v>
+      </c>
+      <c r="H165" s="1">
+        <v>45719</v>
+      </c>
+      <c r="I165" s="2">
+        <v>120</v>
+      </c>
+      <c r="J165" s="3">
+        <v>-554.25</v>
+      </c>
+      <c r="K165" s="3">
+        <v>-554.25</v>
+      </c>
+      <c r="L165" t="s">
+        <v>17</v>
+      </c>
+      <c r="M165" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>211121258</v>
+      </c>
+      <c r="B166" t="s">
+        <v>51</v>
+      </c>
+      <c r="C166" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166">
+        <v>5803</v>
+      </c>
+      <c r="F166" t="s">
+        <v>20</v>
+      </c>
+      <c r="G166" s="1">
+        <v>45754.431064814809</v>
+      </c>
+      <c r="H166" s="1">
+        <v>45754.431064814809</v>
+      </c>
+      <c r="I166" s="2">
+        <v>115</v>
+      </c>
+      <c r="J166" s="3">
+        <v>923.07</v>
+      </c>
+      <c r="K166" s="3">
+        <v>923.07</v>
+      </c>
+      <c r="L166" t="s">
+        <v>17</v>
+      </c>
+      <c r="M166" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>211121278</v>
+      </c>
+      <c r="B167" t="s">
+        <v>52</v>
+      </c>
+      <c r="C167" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167">
+        <v>8941</v>
+      </c>
+      <c r="F167" t="s">
+        <v>20</v>
+      </c>
+      <c r="G167" s="1">
+        <v>45843.598912037036</v>
+      </c>
+      <c r="H167" s="1">
+        <v>45813.599953703699</v>
+      </c>
+      <c r="I167" s="2">
+        <v>26</v>
+      </c>
+      <c r="J167" s="3">
+        <v>102.60000000000001</v>
+      </c>
+      <c r="K167" s="3">
+        <v>102.60000000000001</v>
+      </c>
+      <c r="L167" t="s">
+        <v>17</v>
+      </c>
+      <c r="M167" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>211112415</v>
-      </c>
-      <c r="B163" t="s">
-        <v>50</v>
-      </c>
-      <c r="C163" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163">
-        <v>9242</v>
-      </c>
-      <c r="F163" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163" s="1">
-        <v>45851.55736111111</v>
-      </c>
-      <c r="H163" s="1">
-        <v>45821.557696759257</v>
-      </c>
-      <c r="I163" s="2">
-        <v>12.442638888889633</v>
-      </c>
-      <c r="J163" s="3">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="K163" s="3">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="L163" t="s">
-        <v>17</v>
-      </c>
-      <c r="M163" t="s">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>211121278</v>
+      </c>
+      <c r="B168" t="s">
+        <v>52</v>
+      </c>
+      <c r="C168" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168">
+        <v>9105</v>
+      </c>
+      <c r="F168" t="s">
+        <v>20</v>
+      </c>
+      <c r="G168" s="1">
+        <v>45849.596249999995</v>
+      </c>
+      <c r="H168" s="1">
+        <v>45819.597141203703</v>
+      </c>
+      <c r="I168" s="2">
+        <v>20</v>
+      </c>
+      <c r="J168" s="3">
+        <v>124.2</v>
+      </c>
+      <c r="K168" s="3">
+        <v>124.2</v>
+      </c>
+      <c r="L168" t="s">
+        <v>17</v>
+      </c>
+      <c r="M168" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>211112415</v>
-      </c>
-      <c r="B164" t="s">
-        <v>50</v>
-      </c>
-      <c r="C164" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" t="s">
-        <v>15</v>
-      </c>
-      <c r="E164">
-        <v>9425</v>
-      </c>
-      <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" s="1">
-        <v>45856.438993055555</v>
-      </c>
-      <c r="H164" s="1">
-        <v>45826.440405092588</v>
-      </c>
-      <c r="I164" s="2">
-        <v>7.5610069444446708</v>
-      </c>
-      <c r="J164" s="3">
-        <v>44.21</v>
-      </c>
-      <c r="K164" s="3">
-        <v>44.21</v>
-      </c>
-      <c r="L164" t="s">
-        <v>17</v>
-      </c>
-      <c r="M164" t="s">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>211121278</v>
+      </c>
+      <c r="B169" t="s">
+        <v>52</v>
+      </c>
+      <c r="C169" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169">
+        <v>9259</v>
+      </c>
+      <c r="F169" t="s">
+        <v>20</v>
+      </c>
+      <c r="G169" s="1">
+        <v>45851.59134259259</v>
+      </c>
+      <c r="H169" s="1">
+        <v>45821.592164351852</v>
+      </c>
+      <c r="I169" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>211112415</v>
-      </c>
-      <c r="B165" t="s">
-        <v>50</v>
-      </c>
-      <c r="C165" t="s">
-        <v>14</v>
-      </c>
-      <c r="D165" t="s">
-        <v>15</v>
-      </c>
-      <c r="E165">
-        <v>9542</v>
-      </c>
-      <c r="F165" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" s="1">
-        <v>45858.577106481476</v>
-      </c>
-      <c r="H165" s="1">
-        <v>45828.577303240738</v>
-      </c>
-      <c r="I165" s="2">
-        <v>5.4228935185237788</v>
-      </c>
-      <c r="J165" s="3">
-        <v>85.41</v>
-      </c>
-      <c r="K165" s="3">
-        <v>85.41</v>
-      </c>
-      <c r="L165" t="s">
-        <v>17</v>
-      </c>
-      <c r="M165" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>211112415</v>
-      </c>
-      <c r="B166" t="s">
-        <v>50</v>
-      </c>
-      <c r="C166" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" t="s">
-        <v>15</v>
-      </c>
-      <c r="E166">
-        <v>9659</v>
-      </c>
-      <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" s="1">
-        <v>45863.401469907403</v>
-      </c>
-      <c r="H166" s="1">
-        <v>45833.401736111111</v>
-      </c>
-      <c r="I166" s="2">
-        <v>0.59853009259677492</v>
-      </c>
-      <c r="J166" s="3">
-        <v>68.63</v>
-      </c>
-      <c r="K166" s="3">
-        <v>68.63</v>
-      </c>
-      <c r="L166" t="s">
-        <v>17</v>
-      </c>
-      <c r="M166" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>211112415</v>
-      </c>
-      <c r="B167" t="s">
-        <v>50</v>
-      </c>
-      <c r="C167" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E167">
-        <v>9671</v>
-      </c>
-      <c r="F167" t="s">
-        <v>20</v>
-      </c>
-      <c r="G167" s="1">
-        <v>45863.436921296292</v>
-      </c>
-      <c r="H167" s="1">
-        <v>45833.437662037039</v>
-      </c>
-      <c r="I167" s="2">
-        <v>0.56307870370801538</v>
-      </c>
-      <c r="J167" s="3">
-        <v>27.77</v>
-      </c>
-      <c r="K167" s="3">
-        <v>27.77</v>
-      </c>
-      <c r="L167" t="s">
-        <v>17</v>
-      </c>
-      <c r="M167" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>211112415</v>
-      </c>
-      <c r="B168" t="s">
-        <v>50</v>
-      </c>
-      <c r="C168" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" t="s">
-        <v>15</v>
-      </c>
-      <c r="E168">
-        <v>9857</v>
-      </c>
-      <c r="F168" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" s="1">
-        <v>45865.462974537033</v>
-      </c>
-      <c r="H168" s="1">
-        <v>45835.463900462964</v>
-      </c>
-      <c r="I168" s="2">
-        <v>-1.4629745370330056</v>
-      </c>
-      <c r="J168" s="3">
-        <v>52.45</v>
-      </c>
-      <c r="K168" s="3">
-        <v>52.45</v>
-      </c>
-      <c r="L168" t="s">
-        <v>17</v>
-      </c>
-      <c r="M168" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>211112415</v>
-      </c>
-      <c r="B169" t="s">
-        <v>50</v>
-      </c>
-      <c r="C169" t="s">
-        <v>14</v>
-      </c>
-      <c r="D169" t="s">
-        <v>15</v>
-      </c>
-      <c r="E169">
-        <v>10341</v>
-      </c>
-      <c r="F169" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" s="1">
-        <v>45877.430648148147</v>
-      </c>
-      <c r="H169" s="1">
-        <v>45847.430648148147</v>
-      </c>
-      <c r="I169" s="2">
-        <v>-13.430648148147156</v>
-      </c>
       <c r="J169" s="3">
-        <v>74.72</v>
+        <v>97.2</v>
       </c>
       <c r="K169" s="3">
-        <v>74.72</v>
+        <v>97.2</v>
       </c>
       <c r="L169" t="s">
         <v>17</v>
       </c>
       <c r="M169" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>211112415</v>
+        <v>211121278</v>
       </c>
       <c r="B170" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C170" t="s">
         <v>14</v>
@@ -7537,39 +7534,39 @@
         <v>15</v>
       </c>
       <c r="E170">
-        <v>10822</v>
+        <v>9555</v>
       </c>
       <c r="F170" t="s">
         <v>20</v>
       </c>
       <c r="G170" s="1">
-        <v>45889.487743055557</v>
+        <v>45858.607731481483</v>
       </c>
       <c r="H170" s="1">
-        <v>45859.487743055557</v>
+        <v>45828.608090277776</v>
       </c>
       <c r="I170" s="2">
-        <v>-25.487743055557075</v>
+        <v>11</v>
       </c>
       <c r="J170" s="3">
-        <v>95.87</v>
+        <v>75.600000000000009</v>
       </c>
       <c r="K170" s="3">
-        <v>95.87</v>
+        <v>75.600000000000009</v>
       </c>
       <c r="L170" t="s">
         <v>17</v>
       </c>
       <c r="M170" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>211112415</v>
+        <v>211121278</v>
       </c>
       <c r="B171" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C171" t="s">
         <v>14</v>
@@ -7578,121 +7575,121 @@
         <v>15</v>
       </c>
       <c r="E171">
-        <v>11070</v>
+        <v>9722</v>
       </c>
       <c r="F171" t="s">
         <v>20</v>
       </c>
       <c r="G171" s="1">
-        <v>45893.523460648146</v>
+        <v>45863.601412037038</v>
       </c>
       <c r="H171" s="1">
-        <v>45863.523460648146</v>
+        <v>45833.602407407408</v>
       </c>
       <c r="I171" s="2">
-        <v>-29.523460648146283</v>
+        <v>6</v>
       </c>
       <c r="J171" s="3">
-        <v>106.52</v>
+        <v>102.60000000000001</v>
       </c>
       <c r="K171" s="3">
-        <v>106.52</v>
+        <v>102.60000000000001</v>
       </c>
       <c r="L171" t="s">
         <v>17</v>
       </c>
       <c r="M171" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>211120936</v>
+        <v>211121278</v>
       </c>
       <c r="B172" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C172" t="s">
         <v>14</v>
       </c>
       <c r="D172" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172">
+        <v>10076</v>
+      </c>
+      <c r="F172" t="s">
+        <v>20</v>
+      </c>
+      <c r="G172" s="1">
+        <v>45871.611539351848</v>
+      </c>
+      <c r="H172" s="1">
+        <v>45841.612893518519</v>
+      </c>
+      <c r="I172" s="2">
+        <v>-2</v>
+      </c>
+      <c r="J172" s="3">
+        <v>91.8</v>
+      </c>
+      <c r="K172" s="3">
+        <v>91.8</v>
+      </c>
+      <c r="L172" t="s">
+        <v>17</v>
+      </c>
+      <c r="M172" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>211121278</v>
+      </c>
+      <c r="B173" t="s">
         <v>52</v>
       </c>
-      <c r="E172">
-        <v>6884</v>
-      </c>
-      <c r="F172" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" s="1">
-        <v>45603.629884259259</v>
-      </c>
-      <c r="H172" s="1">
-        <v>45573.643425925926</v>
-      </c>
-      <c r="I172" s="2">
-        <v>260.37011574074131</v>
-      </c>
-      <c r="J172" s="3">
-        <v>3471.6</v>
-      </c>
-      <c r="K172" s="3">
-        <v>3471.6</v>
-      </c>
-      <c r="L172" t="s">
-        <v>17</v>
-      </c>
-      <c r="M172" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>211120936</v>
-      </c>
-      <c r="B173" t="s">
-        <v>51</v>
-      </c>
       <c r="C173" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D173" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E173">
-        <v>84</v>
+        <v>10229</v>
       </c>
       <c r="F173" t="s">
         <v>20</v>
       </c>
       <c r="G173" s="1">
-        <v>45630</v>
+        <v>45875.600995370369</v>
       </c>
       <c r="H173" s="1">
-        <v>45600</v>
+        <v>45845.602673611109</v>
       </c>
       <c r="I173" s="2">
-        <v>234</v>
+        <v>-6</v>
       </c>
       <c r="J173" s="3">
-        <v>-63.36</v>
+        <v>86.4</v>
       </c>
       <c r="K173" s="3">
-        <v>-63.36</v>
+        <v>86.4</v>
       </c>
       <c r="L173" t="s">
         <v>17</v>
       </c>
       <c r="M173" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>211120936</v>
+        <v>211121278</v>
       </c>
       <c r="B174" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C174" t="s">
         <v>14</v>
@@ -7701,399 +7698,30 @@
         <v>15</v>
       </c>
       <c r="E174">
-        <v>1301</v>
+        <v>11294</v>
       </c>
       <c r="F174" t="s">
         <v>20</v>
       </c>
       <c r="G174" s="1">
-        <v>45708.588148148148</v>
+        <v>45899.61278935185</v>
       </c>
       <c r="H174" s="1">
-        <v>45678.609421296293</v>
+        <v>45869.613032407404</v>
       </c>
       <c r="I174" s="2">
-        <v>155.41185185185168</v>
+        <v>-30</v>
       </c>
       <c r="J174" s="3">
-        <v>2820.4</v>
+        <v>21.6</v>
       </c>
       <c r="K174" s="3">
-        <v>2820.4</v>
+        <v>21.6</v>
       </c>
       <c r="L174" t="s">
         <v>17</v>
       </c>
       <c r="M174" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>211120936</v>
-      </c>
-      <c r="B175" t="s">
-        <v>51</v>
-      </c>
-      <c r="C175" t="s">
-        <v>22</v>
-      </c>
-      <c r="D175" t="s">
-        <v>15</v>
-      </c>
-      <c r="E175">
-        <v>240</v>
-      </c>
-      <c r="F175" t="s">
-        <v>20</v>
-      </c>
-      <c r="G175" s="1">
-        <v>45749</v>
-      </c>
-      <c r="H175" s="1">
-        <v>45719</v>
-      </c>
-      <c r="I175" s="2">
-        <v>115</v>
-      </c>
-      <c r="J175" s="3">
-        <v>-554.25</v>
-      </c>
-      <c r="K175" s="3">
-        <v>-554.25</v>
-      </c>
-      <c r="L175" t="s">
-        <v>17</v>
-      </c>
-      <c r="M175" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>211121258</v>
-      </c>
-      <c r="B176" t="s">
-        <v>54</v>
-      </c>
-      <c r="C176" t="s">
-        <v>14</v>
-      </c>
-      <c r="D176" t="s">
-        <v>15</v>
-      </c>
-      <c r="E176">
-        <v>5803</v>
-      </c>
-      <c r="F176" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" s="1">
-        <v>45754.431064814809</v>
-      </c>
-      <c r="H176" s="1">
-        <v>45754.431064814809</v>
-      </c>
-      <c r="I176" s="2">
-        <v>109.56893518519064</v>
-      </c>
-      <c r="J176" s="3">
-        <v>923.07</v>
-      </c>
-      <c r="K176" s="3">
-        <v>923.07</v>
-      </c>
-      <c r="L176" t="s">
-        <v>17</v>
-      </c>
-      <c r="M176" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>211121278</v>
-      </c>
-      <c r="B177" t="s">
-        <v>55</v>
-      </c>
-      <c r="C177" t="s">
-        <v>14</v>
-      </c>
-      <c r="D177" t="s">
-        <v>15</v>
-      </c>
-      <c r="E177">
-        <v>8941</v>
-      </c>
-      <c r="F177" t="s">
-        <v>20</v>
-      </c>
-      <c r="G177" s="1">
-        <v>45843.598912037036</v>
-      </c>
-      <c r="H177" s="1">
-        <v>45813.599953703699</v>
-      </c>
-      <c r="I177" s="2">
-        <v>20.401087962964084</v>
-      </c>
-      <c r="J177" s="3">
-        <v>102.60000000000001</v>
-      </c>
-      <c r="K177" s="3">
-        <v>102.60000000000001</v>
-      </c>
-      <c r="L177" t="s">
-        <v>17</v>
-      </c>
-      <c r="M177" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>211121278</v>
-      </c>
-      <c r="B178" t="s">
-        <v>55</v>
-      </c>
-      <c r="C178" t="s">
-        <v>14</v>
-      </c>
-      <c r="D178" t="s">
-        <v>15</v>
-      </c>
-      <c r="E178">
-        <v>9105</v>
-      </c>
-      <c r="F178" t="s">
-        <v>20</v>
-      </c>
-      <c r="G178" s="1">
-        <v>45849.596249999995</v>
-      </c>
-      <c r="H178" s="1">
-        <v>45819.597141203703</v>
-      </c>
-      <c r="I178" s="2">
-        <v>14.403750000004948</v>
-      </c>
-      <c r="J178" s="3">
-        <v>124.2</v>
-      </c>
-      <c r="K178" s="3">
-        <v>124.2</v>
-      </c>
-      <c r="L178" t="s">
-        <v>17</v>
-      </c>
-      <c r="M178" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>211121278</v>
-      </c>
-      <c r="B179" t="s">
-        <v>55</v>
-      </c>
-      <c r="C179" t="s">
-        <v>14</v>
-      </c>
-      <c r="D179" t="s">
-        <v>15</v>
-      </c>
-      <c r="E179">
-        <v>9259</v>
-      </c>
-      <c r="F179" t="s">
-        <v>20</v>
-      </c>
-      <c r="G179" s="1">
-        <v>45851.59134259259</v>
-      </c>
-      <c r="H179" s="1">
-        <v>45821.592164351852</v>
-      </c>
-      <c r="I179" s="2">
-        <v>12.408657407409919</v>
-      </c>
-      <c r="J179" s="3">
-        <v>97.2</v>
-      </c>
-      <c r="K179" s="3">
-        <v>97.2</v>
-      </c>
-      <c r="L179" t="s">
-        <v>17</v>
-      </c>
-      <c r="M179" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>211121278</v>
-      </c>
-      <c r="B180" t="s">
-        <v>55</v>
-      </c>
-      <c r="C180" t="s">
-        <v>14</v>
-      </c>
-      <c r="D180" t="s">
-        <v>15</v>
-      </c>
-      <c r="E180">
-        <v>9555</v>
-      </c>
-      <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" s="1">
-        <v>45858.607731481483</v>
-      </c>
-      <c r="H180" s="1">
-        <v>45828.608090277776</v>
-      </c>
-      <c r="I180" s="2">
-        <v>5.3922685185170849</v>
-      </c>
-      <c r="J180" s="3">
-        <v>75.600000000000009</v>
-      </c>
-      <c r="K180" s="3">
-        <v>75.600000000000009</v>
-      </c>
-      <c r="L180" t="s">
-        <v>17</v>
-      </c>
-      <c r="M180" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>211121278</v>
-      </c>
-      <c r="B181" t="s">
-        <v>55</v>
-      </c>
-      <c r="C181" t="s">
-        <v>14</v>
-      </c>
-      <c r="D181" t="s">
-        <v>15</v>
-      </c>
-      <c r="E181">
-        <v>9722</v>
-      </c>
-      <c r="F181" t="s">
-        <v>20</v>
-      </c>
-      <c r="G181" s="1">
-        <v>45863.601412037038</v>
-      </c>
-      <c r="H181" s="1">
-        <v>45833.602407407408</v>
-      </c>
-      <c r="I181" s="2">
-        <v>0.39858796296175569</v>
-      </c>
-      <c r="J181" s="3">
-        <v>102.60000000000001</v>
-      </c>
-      <c r="K181" s="3">
-        <v>102.60000000000001</v>
-      </c>
-      <c r="L181" t="s">
-        <v>17</v>
-      </c>
-      <c r="M181" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>211121278</v>
-      </c>
-      <c r="B182" t="s">
-        <v>55</v>
-      </c>
-      <c r="C182" t="s">
-        <v>14</v>
-      </c>
-      <c r="D182" t="s">
-        <v>15</v>
-      </c>
-      <c r="E182">
-        <v>10076</v>
-      </c>
-      <c r="F182" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" s="1">
-        <v>45871.611539351848</v>
-      </c>
-      <c r="H182" s="1">
-        <v>45841.612893518519</v>
-      </c>
-      <c r="I182" s="2">
-        <v>-7.611539351848478</v>
-      </c>
-      <c r="J182" s="3">
-        <v>91.8</v>
-      </c>
-      <c r="K182" s="3">
-        <v>91.8</v>
-      </c>
-      <c r="L182" t="s">
-        <v>17</v>
-      </c>
-      <c r="M182" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>211121278</v>
-      </c>
-      <c r="B183" t="s">
-        <v>55</v>
-      </c>
-      <c r="C183" t="s">
-        <v>14</v>
-      </c>
-      <c r="D183" t="s">
-        <v>15</v>
-      </c>
-      <c r="E183">
-        <v>10229</v>
-      </c>
-      <c r="F183" t="s">
-        <v>20</v>
-      </c>
-      <c r="G183" s="1">
-        <v>45875.600995370369</v>
-      </c>
-      <c r="H183" s="1">
-        <v>45845.602673611109</v>
-      </c>
-      <c r="I183" s="2">
-        <v>-11.600995370368764</v>
-      </c>
-      <c r="J183" s="3">
-        <v>86.4</v>
-      </c>
-      <c r="K183" s="3">
-        <v>86.4</v>
-      </c>
-      <c r="L183" t="s">
-        <v>17</v>
-      </c>
-      <c r="M183" t="s">
         <v>19</v>
       </c>
     </row>

--- a/PCosta.xlsx
+++ b/PCosta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD25120-F752-4427-B00B-5E4E90BCABD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CB91EB-C222-4CD2-8734-566E22FC1127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F8F3D65-BB50-4D14-936D-C9FEA2B7CDDC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="52">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Talho Mestre, LDA</t>
   </si>
   <si>
-    <t>Aurora Manuela Carneiro Costa</t>
-  </si>
-  <si>
     <t>Pps, Sa</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>Fresbeira - Indústria de Carnes, Lda</t>
+  </si>
+  <si>
+    <t>Bruno Miguel Torres Soares</t>
   </si>
 </sst>
 </file>
@@ -566,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4044F161-0F67-4AC3-9595-1EB749614D68}">
-  <dimension ref="A1:M177"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M177"/>
+      <selection activeCell="A2" sqref="A2:M162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,31 +634,31 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>9220</v>
+        <v>10774</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1">
-        <v>45851.504155092589</v>
+        <v>45886.494421296295</v>
       </c>
       <c r="H2" s="1">
-        <v>45821.504756944443</v>
+        <v>45856.494421296295</v>
       </c>
       <c r="I2" s="2">
-        <v>19.495844907411083</v>
+        <v>-9</v>
       </c>
       <c r="J2" s="3">
-        <v>112.18</v>
+        <v>112.93</v>
       </c>
       <c r="K2" s="3">
-        <v>224.36</v>
+        <v>112.93</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -675,25 +675,25 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>9828</v>
+        <v>11051</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1">
-        <v>45865.424907407403</v>
+        <v>45893.509270833332</v>
       </c>
       <c r="H3" s="1">
-        <v>45835.425567129627</v>
+        <v>45863.509282407409</v>
       </c>
       <c r="I3" s="2">
-        <v>5.5750925925967749</v>
+        <v>-16</v>
       </c>
       <c r="J3" s="3">
-        <v>58.04</v>
+        <v>84.06</v>
       </c>
       <c r="K3" s="3">
-        <v>116.08</v>
+        <v>84.06</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -716,25 +716,25 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>10162</v>
+        <v>11337</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1">
-        <v>45872.494027777779</v>
+        <v>45900.505578703705</v>
       </c>
       <c r="H4" s="1">
-        <v>45842.494027777779</v>
+        <v>45870.505578703705</v>
       </c>
       <c r="I4" s="2">
-        <v>-1.4940277777786832</v>
+        <v>-23</v>
       </c>
       <c r="J4" s="3">
-        <v>121.12</v>
+        <v>89.52</v>
       </c>
       <c r="K4" s="3">
-        <v>121.12</v>
+        <v>89.52</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>211110090</v>
+        <v>211110212</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -757,80 +757,80 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>10476</v>
+        <v>9932</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1">
-        <v>45879.432291666664</v>
+        <v>45869.375613425924</v>
       </c>
       <c r="H5" s="1">
-        <v>45849.432291666664</v>
+        <v>45839.378171296295</v>
       </c>
       <c r="I5" s="2">
-        <v>-8.4322916666642413</v>
+        <v>8</v>
       </c>
       <c r="J5" s="3">
-        <v>105.91</v>
+        <v>45.85</v>
       </c>
       <c r="K5" s="3">
-        <v>105.91</v>
+        <v>45.85</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>211110090</v>
+        <v>211110212</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>2025</v>
       </c>
       <c r="E6">
-        <v>10774</v>
+        <v>612</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="1">
-        <v>45886.494421296295</v>
+        <v>45871</v>
       </c>
       <c r="H6" s="1">
-        <v>45856.494421296295</v>
+        <v>45841</v>
       </c>
       <c r="I6" s="2">
-        <v>-15.494421296294604</v>
+        <v>6</v>
       </c>
       <c r="J6" s="3">
-        <v>112.93</v>
+        <v>-36.31</v>
       </c>
       <c r="K6" s="3">
-        <v>112.93</v>
+        <v>-36.31</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>211110090</v>
+        <v>211110212</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -839,39 +839,39 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>11051</v>
+        <v>10045</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="1">
-        <v>45893.509270833332</v>
+        <v>45871.497974537036</v>
       </c>
       <c r="H7" s="1">
-        <v>45863.509282407409</v>
+        <v>45841.497974537036</v>
       </c>
       <c r="I7" s="2">
-        <v>-22.509270833332266</v>
+        <v>6</v>
       </c>
       <c r="J7" s="3">
-        <v>84.06</v>
+        <v>140.92000000000002</v>
       </c>
       <c r="K7" s="3">
-        <v>84.06</v>
+        <v>140.92000000000002</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>211110090</v>
+        <v>211110212</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -880,31 +880,31 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>11337</v>
+        <v>10181</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1">
-        <v>45900.505578703705</v>
+        <v>45872.603391203702</v>
       </c>
       <c r="H8" s="1">
-        <v>45870.505578703705</v>
+        <v>45842.603391203702</v>
       </c>
       <c r="I8" s="2">
-        <v>-29.505578703705396</v>
+        <v>5</v>
       </c>
       <c r="J8" s="3">
-        <v>89.52</v>
+        <v>64.11</v>
       </c>
       <c r="K8" s="3">
-        <v>89.52</v>
+        <v>64.11</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -921,25 +921,25 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>8703</v>
+        <v>10358</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>45840.358078703699</v>
+        <v>45877.498981481476</v>
       </c>
       <c r="H9" s="1">
-        <v>45810.358773148146</v>
+        <v>45847.498993055553</v>
       </c>
       <c r="I9" s="2">
-        <v>30.641921296301007</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>1367.46</v>
+        <v>174.55</v>
       </c>
       <c r="K9" s="3">
-        <v>1367.46</v>
+        <v>174.55</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -956,37 +956,37 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10">
-        <v>480</v>
+        <v>10491</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="1">
-        <v>45843</v>
+        <v>45879.477118055554</v>
       </c>
       <c r="H10" s="1">
-        <v>45813</v>
+        <v>45849.477754629625</v>
       </c>
       <c r="I10" s="2">
-        <v>28</v>
+        <v>-2</v>
       </c>
       <c r="J10" s="3">
-        <v>-7.6400000000000006</v>
+        <v>208.79</v>
       </c>
       <c r="K10" s="3">
-        <v>-7.6400000000000006</v>
+        <v>208.79</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1003,31 +1003,31 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>8925</v>
+        <v>10555</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="1">
-        <v>45843.536203703705</v>
+        <v>45883.417129629626</v>
       </c>
       <c r="H11" s="1">
-        <v>45813.550266203703</v>
+        <v>45853.417523148149</v>
       </c>
       <c r="I11" s="2">
-        <v>27.463796296295186</v>
+        <v>-6</v>
       </c>
       <c r="J11" s="3">
-        <v>557.66999999999996</v>
+        <v>231.02</v>
       </c>
       <c r="K11" s="3">
-        <v>557.66999999999996</v>
+        <v>231.02</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1038,37 +1038,37 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>545</v>
+        <v>10716</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="1">
-        <v>45849</v>
+        <v>45885.561157407406</v>
       </c>
       <c r="H12" s="1">
-        <v>45819</v>
+        <v>45855.561655092592</v>
       </c>
       <c r="I12" s="2">
-        <v>22</v>
+        <v>-8</v>
       </c>
       <c r="J12" s="3">
-        <v>-747.85</v>
+        <v>236.83</v>
       </c>
       <c r="K12" s="3">
-        <v>-747.85</v>
+        <v>236.83</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1085,31 +1085,31 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>9100</v>
+        <v>10887</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="1">
-        <v>45849.546481481477</v>
+        <v>45890.594178240739</v>
       </c>
       <c r="H13" s="1">
-        <v>45819.54788194444</v>
+        <v>45860.594571759255</v>
       </c>
       <c r="I13" s="2">
-        <v>21.453518518523197</v>
+        <v>-13</v>
       </c>
       <c r="J13" s="3">
-        <v>878.45</v>
+        <v>66.320000000000007</v>
       </c>
       <c r="K13" s="3">
-        <v>878.45</v>
+        <v>66.320000000000007</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1120,37 +1120,37 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>2025</v>
       </c>
       <c r="E14">
-        <v>9249</v>
+        <v>672</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="1">
-        <v>45851.563391203701</v>
+        <v>45891</v>
       </c>
       <c r="H14" s="1">
-        <v>45821.563634259255</v>
+        <v>45861</v>
       </c>
       <c r="I14" s="2">
-        <v>19.43660879629897</v>
+        <v>-14</v>
       </c>
       <c r="J14" s="3">
-        <v>57.01</v>
+        <v>-80.42</v>
       </c>
       <c r="K14" s="3">
-        <v>57.01</v>
+        <v>-80.42</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1167,31 +1167,31 @@
         <v>15</v>
       </c>
       <c r="E15">
-        <v>9297</v>
+        <v>10960</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="1">
-        <v>45854.453182870369</v>
+        <v>45891.569016203699</v>
       </c>
       <c r="H15" s="1">
-        <v>45824.453576388885</v>
+        <v>45861.569016203699</v>
       </c>
       <c r="I15" s="2">
-        <v>16.546817129630654</v>
+        <v>-14</v>
       </c>
       <c r="J15" s="3">
-        <v>81.16</v>
+        <v>217.13</v>
       </c>
       <c r="K15" s="3">
-        <v>81.16</v>
+        <v>217.13</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1208,31 +1208,31 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>9430</v>
+        <v>11077</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="1">
-        <v>45856.45107638889</v>
+        <v>45893.634097222217</v>
       </c>
       <c r="H16" s="1">
-        <v>45826.451354166667</v>
+        <v>45863.634097222217</v>
       </c>
       <c r="I16" s="2">
-        <v>14.548923611109785</v>
+        <v>-16</v>
       </c>
       <c r="J16" s="3">
-        <v>1336.5</v>
+        <v>22.37</v>
       </c>
       <c r="K16" s="3">
-        <v>1336.5</v>
+        <v>22.37</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1249,31 +1249,31 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>9513</v>
+        <v>11363</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="1">
-        <v>45858.523819444439</v>
+        <v>45900.582465277774</v>
       </c>
       <c r="H17" s="1">
-        <v>45828.528136574074</v>
+        <v>45870.582754629628</v>
       </c>
       <c r="I17" s="2">
-        <v>12.476180555560859</v>
+        <v>-23</v>
       </c>
       <c r="J17" s="3">
-        <v>204.67000000000002</v>
+        <v>217.11</v>
       </c>
       <c r="K17" s="3">
-        <v>204.67000000000002</v>
+        <v>217.11</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1290,31 +1290,31 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>9714</v>
+        <v>11427</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="1">
-        <v>45863.514756944445</v>
+        <v>45904.485185185185</v>
       </c>
       <c r="H18" s="1">
-        <v>45833.515277777777</v>
+        <v>45874.485185185185</v>
       </c>
       <c r="I18" s="2">
-        <v>7.4852430555547471</v>
+        <v>-27</v>
       </c>
       <c r="J18" s="3">
-        <v>168.22</v>
+        <v>22.77</v>
       </c>
       <c r="K18" s="3">
-        <v>168.22</v>
+        <v>22.77</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1331,31 +1331,31 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>9784</v>
+        <v>11546</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="1">
-        <v>45864.463958333334</v>
+        <v>45905.635393518518</v>
       </c>
       <c r="H19" s="1">
-        <v>45834.465057870366</v>
+        <v>45875.636099537034</v>
       </c>
       <c r="I19" s="2">
-        <v>6.5360416666662786</v>
+        <v>-28</v>
       </c>
       <c r="J19" s="3">
-        <v>148.22999999999999</v>
+        <v>102.96000000000001</v>
       </c>
       <c r="K19" s="3">
-        <v>148.22999999999999</v>
+        <v>102.96000000000001</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1372,25 +1372,25 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>9869</v>
+        <v>11596</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="1">
-        <v>45865.477581018517</v>
+        <v>45906.626793981479</v>
       </c>
       <c r="H20" s="1">
-        <v>45835.477847222217</v>
+        <v>45876.629236111112</v>
       </c>
       <c r="I20" s="2">
-        <v>5.5224189814834972</v>
+        <v>-29</v>
       </c>
       <c r="J20" s="3">
-        <v>199.83</v>
+        <v>304.66000000000003</v>
       </c>
       <c r="K20" s="3">
-        <v>199.83</v>
+        <v>304.66000000000003</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>211110212</v>
+        <v>211110264</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1413,80 +1413,80 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>9932</v>
+        <v>6743</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="1">
-        <v>45869.375613425924</v>
+        <v>45800.598414351851</v>
       </c>
       <c r="H21" s="1">
-        <v>45839.378171296295</v>
+        <v>45770.600486111107</v>
       </c>
       <c r="I21" s="2">
-        <v>1.6243865740761976</v>
+        <v>77</v>
       </c>
       <c r="J21" s="3">
-        <v>45.85</v>
+        <v>519.91999999999996</v>
       </c>
       <c r="K21" s="3">
-        <v>45.85</v>
+        <v>519.91999999999996</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>211110212</v>
+        <v>211110264</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>612</v>
+        <v>8698</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="1">
-        <v>45871</v>
+        <v>45837.66951388889</v>
       </c>
       <c r="H22" s="1">
-        <v>45841</v>
+        <v>45807.669710648144</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J22" s="3">
-        <v>-36.31</v>
+        <v>87.67</v>
       </c>
       <c r="K22" s="3">
-        <v>-36.31</v>
+        <v>87.67</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>211110212</v>
+        <v>211110285</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1495,25 +1495,25 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>10045</v>
+        <v>11084</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45871.497974537036</v>
+        <v>45893.645856481482</v>
       </c>
       <c r="H23" s="1">
-        <v>45841.497974537036</v>
+        <v>45863.645856481482</v>
       </c>
       <c r="I23" s="2">
-        <v>-0.49797453703649808</v>
+        <v>-16</v>
       </c>
       <c r="J23" s="3">
-        <v>140.92000000000002</v>
+        <v>226.82</v>
       </c>
       <c r="K23" s="3">
-        <v>140.92000000000002</v>
+        <v>226.82</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>211110212</v>
+        <v>211110285</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1536,25 +1536,25 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>10181</v>
+        <v>11255</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45872.603391203702</v>
+        <v>45898.676168981481</v>
       </c>
       <c r="H24" s="1">
-        <v>45842.603391203702</v>
+        <v>45868.677152777775</v>
       </c>
       <c r="I24" s="2">
-        <v>-1.6033912037019036</v>
+        <v>-21</v>
       </c>
       <c r="J24" s="3">
-        <v>64.11</v>
+        <v>139.54</v>
       </c>
       <c r="K24" s="3">
-        <v>64.11</v>
+        <v>139.54</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
@@ -1565,51 +1565,51 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>211110212</v>
+        <v>211110364</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25">
-        <v>10358</v>
+        <v>472</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="1">
-        <v>45877.498981481476</v>
+        <v>45842</v>
       </c>
       <c r="H25" s="1">
-        <v>45847.498993055553</v>
+        <v>45812</v>
       </c>
       <c r="I25" s="2">
-        <v>-6.4989814814762212</v>
+        <v>35</v>
       </c>
       <c r="J25" s="3">
-        <v>174.55</v>
+        <v>-3.2</v>
       </c>
       <c r="K25" s="3">
-        <v>174.55</v>
+        <v>-3.2</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>211110212</v>
+        <v>211110364</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1618,39 +1618,39 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>10491</v>
+        <v>9660</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="1">
-        <v>45879.477118055554</v>
+        <v>45863.40216435185</v>
       </c>
       <c r="H26" s="1">
-        <v>45849.477754629625</v>
+        <v>45833.402662037035</v>
       </c>
       <c r="I26" s="2">
-        <v>-8.4771180555544561</v>
+        <v>14</v>
       </c>
       <c r="J26" s="3">
-        <v>208.79</v>
+        <v>32.85</v>
       </c>
       <c r="K26" s="3">
-        <v>208.79</v>
+        <v>32.85</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>211110212</v>
+        <v>211110364</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1659,39 +1659,39 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>10555</v>
+        <v>9699</v>
       </c>
       <c r="F27" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="1">
-        <v>45883.417129629626</v>
+        <v>45863.495011574072</v>
       </c>
       <c r="H27" s="1">
-        <v>45853.417523148149</v>
+        <v>45833.496192129627</v>
       </c>
       <c r="I27" s="2">
-        <v>-12.417129629626288</v>
+        <v>14</v>
       </c>
       <c r="J27" s="3">
-        <v>231.02</v>
+        <v>994.62</v>
       </c>
       <c r="K27" s="3">
-        <v>231.02</v>
+        <v>994.62</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>211110212</v>
+        <v>211110364</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1700,121 +1700,121 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>10716</v>
+        <v>9865</v>
       </c>
       <c r="F28" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="1">
-        <v>45885.561157407406</v>
+        <v>45865.470057870371</v>
       </c>
       <c r="H28" s="1">
-        <v>45855.561655092592</v>
+        <v>45835.474293981482</v>
       </c>
       <c r="I28" s="2">
-        <v>-14.561157407406427</v>
+        <v>12</v>
       </c>
       <c r="J28" s="3">
-        <v>236.83</v>
+        <v>528.76</v>
       </c>
       <c r="K28" s="3">
-        <v>236.83</v>
+        <v>528.76</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>211110212</v>
+        <v>211110364</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>2025</v>
       </c>
       <c r="E29">
-        <v>10887</v>
+        <v>596</v>
       </c>
       <c r="F29" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="1">
-        <v>45890.594178240739</v>
+        <v>45868</v>
       </c>
       <c r="H29" s="1">
-        <v>45860.594571759255</v>
+        <v>45838</v>
       </c>
       <c r="I29" s="2">
-        <v>-19.594178240738984</v>
+        <v>9</v>
       </c>
       <c r="J29" s="3">
-        <v>66.320000000000007</v>
+        <v>-15.85</v>
       </c>
       <c r="K29" s="3">
-        <v>66.320000000000007</v>
+        <v>-15.85</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>211110212</v>
+        <v>211110364</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
       </c>
       <c r="E30">
-        <v>672</v>
+        <v>9900</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="1">
-        <v>45891</v>
+        <v>45868.412268518514</v>
       </c>
       <c r="H30" s="1">
-        <v>45861</v>
+        <v>45838.412754629629</v>
       </c>
       <c r="I30" s="2">
-        <v>-20</v>
+        <v>9</v>
       </c>
       <c r="J30" s="3">
-        <v>-80.42</v>
+        <v>119.13</v>
       </c>
       <c r="K30" s="3">
-        <v>-80.42</v>
+        <v>119.13</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>211110212</v>
+        <v>211110364</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1823,39 +1823,39 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>10960</v>
+        <v>9968</v>
       </c>
       <c r="F31" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="1">
-        <v>45891.569016203699</v>
+        <v>45870.436192129629</v>
       </c>
       <c r="H31" s="1">
-        <v>45861.569016203699</v>
+        <v>45840.436192129629</v>
       </c>
       <c r="I31" s="2">
-        <v>-20.569016203698993</v>
+        <v>7</v>
       </c>
       <c r="J31" s="3">
-        <v>217.13</v>
+        <v>283.05</v>
       </c>
       <c r="K31" s="3">
-        <v>217.13</v>
+        <v>283.05</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>211110212</v>
+        <v>211110364</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1864,39 +1864,39 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>11077</v>
+        <v>10019</v>
       </c>
       <c r="F32" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="1">
-        <v>45893.634097222217</v>
+        <v>45870.684710648144</v>
       </c>
       <c r="H32" s="1">
-        <v>45863.634097222217</v>
+        <v>45840.685428240737</v>
       </c>
       <c r="I32" s="2">
-        <v>-22.634097222216951</v>
+        <v>7</v>
       </c>
       <c r="J32" s="3">
-        <v>22.37</v>
+        <v>228.83</v>
       </c>
       <c r="K32" s="3">
-        <v>22.37</v>
+        <v>228.83</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>211110212</v>
+        <v>211110364</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1905,39 +1905,39 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>11363</v>
+        <v>10147</v>
       </c>
       <c r="F33" t="s">
         <v>20</v>
       </c>
       <c r="G33" s="1">
-        <v>45900.582465277774</v>
+        <v>45872.453900462962</v>
       </c>
       <c r="H33" s="1">
-        <v>45870.582754629628</v>
+        <v>45842.453900462962</v>
       </c>
       <c r="I33" s="2">
-        <v>-29.582465277773736</v>
+        <v>5</v>
       </c>
       <c r="J33" s="3">
-        <v>217.11</v>
+        <v>545.98</v>
       </c>
       <c r="K33" s="3">
-        <v>217.11</v>
+        <v>545.98</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>211110264</v>
+        <v>211110364</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1946,39 +1946,39 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>6743</v>
+        <v>10156</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
       </c>
       <c r="G34" s="1">
-        <v>45800.598414351851</v>
+        <v>45872.493888888886</v>
       </c>
       <c r="H34" s="1">
-        <v>45770.600486111107</v>
+        <v>45842.493888888886</v>
       </c>
       <c r="I34" s="2">
-        <v>70.401585648149194</v>
+        <v>5</v>
       </c>
       <c r="J34" s="3">
-        <v>519.91999999999996</v>
+        <v>2.63</v>
       </c>
       <c r="K34" s="3">
-        <v>519.91999999999996</v>
+        <v>2.63</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>211110264</v>
+        <v>211110364</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -1987,39 +1987,39 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>8698</v>
+        <v>10203</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="1">
-        <v>45837.66951388889</v>
+        <v>45875.468877314815</v>
       </c>
       <c r="H35" s="1">
-        <v>45807.669710648144</v>
+        <v>45845.468888888885</v>
       </c>
       <c r="I35" s="2">
-        <v>33.330486111110076</v>
+        <v>2</v>
       </c>
       <c r="J35" s="3">
-        <v>87.67</v>
+        <v>338.76</v>
       </c>
       <c r="K35" s="3">
-        <v>87.67</v>
+        <v>338.76</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>211110285</v>
+        <v>211110364</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -2028,25 +2028,25 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>11084</v>
+        <v>10342</v>
       </c>
       <c r="F36" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="1">
-        <v>45893.645856481482</v>
+        <v>45877.430671296293</v>
       </c>
       <c r="H36" s="1">
-        <v>45863.645856481482</v>
+        <v>45847.430671296293</v>
       </c>
       <c r="I36" s="2">
-        <v>-22.645856481482042</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3">
-        <v>226.82</v>
+        <v>460.23</v>
       </c>
       <c r="K36" s="3">
-        <v>226.82</v>
+        <v>460.23</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2057,10 +2057,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>211110285</v>
+        <v>211110364</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2069,25 +2069,25 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>11255</v>
+        <v>10469</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="1">
-        <v>45898.676168981481</v>
+        <v>45879.403611111113</v>
       </c>
       <c r="H37" s="1">
-        <v>45868.677152777775</v>
+        <v>45849.403611111113</v>
       </c>
       <c r="I37" s="2">
-        <v>-27.676168981481169</v>
+        <v>-2</v>
       </c>
       <c r="J37" s="3">
-        <v>139.54</v>
+        <v>544.83000000000004</v>
       </c>
       <c r="K37" s="3">
-        <v>139.54</v>
+        <v>544.83000000000004</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2104,37 +2104,37 @@
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38">
-        <v>472</v>
+        <v>10515</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
       </c>
       <c r="G38" s="1">
-        <v>45842</v>
+        <v>45882.474629629629</v>
       </c>
       <c r="H38" s="1">
-        <v>45812</v>
+        <v>45852.474629629629</v>
       </c>
       <c r="I38" s="2">
-        <v>29</v>
+        <v>-5</v>
       </c>
       <c r="J38" s="3">
-        <v>-3.2</v>
+        <v>603.02</v>
       </c>
       <c r="K38" s="3">
-        <v>-3.2</v>
+        <v>603.02</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2151,31 +2151,31 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>9302</v>
+        <v>10646</v>
       </c>
       <c r="F39" t="s">
         <v>20</v>
       </c>
       <c r="G39" s="1">
-        <v>45854.463402777779</v>
+        <v>45884.469351851847</v>
       </c>
       <c r="H39" s="1">
-        <v>45824.464004629626</v>
+        <v>45854.469351851847</v>
       </c>
       <c r="I39" s="2">
-        <v>16.536597222220735</v>
+        <v>-7</v>
       </c>
       <c r="J39" s="3">
-        <v>304.15000000000003</v>
+        <v>447.87</v>
       </c>
       <c r="K39" s="3">
-        <v>304.15000000000003</v>
+        <v>447.87</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2192,31 +2192,31 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>9426</v>
+        <v>10768</v>
       </c>
       <c r="F40" t="s">
         <v>20</v>
       </c>
       <c r="G40" s="1">
-        <v>45856.440613425926</v>
+        <v>45886.485416666663</v>
       </c>
       <c r="H40" s="1">
-        <v>45826.441643518519</v>
+        <v>45856.48542824074</v>
       </c>
       <c r="I40" s="2">
-        <v>14.559386574073869</v>
+        <v>-9</v>
       </c>
       <c r="J40" s="3">
-        <v>65.47</v>
+        <v>783.17000000000007</v>
       </c>
       <c r="K40" s="3">
-        <v>65.47</v>
+        <v>783.17000000000007</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2233,31 +2233,31 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>9475</v>
+        <v>10821</v>
       </c>
       <c r="F41" t="s">
         <v>20</v>
       </c>
       <c r="G41" s="1">
-        <v>45858.441377314812</v>
+        <v>45889.487719907404</v>
       </c>
       <c r="H41" s="1">
-        <v>45828.442824074074</v>
+        <v>45859.487719907404</v>
       </c>
       <c r="I41" s="2">
-        <v>12.558622685188311</v>
+        <v>-12</v>
       </c>
       <c r="J41" s="3">
-        <v>153.80000000000001</v>
+        <v>527.75</v>
       </c>
       <c r="K41" s="3">
-        <v>153.80000000000001</v>
+        <v>527.75</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2268,37 +2268,37 @@
         <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>2025</v>
       </c>
       <c r="E42">
-        <v>9660</v>
+        <v>667</v>
       </c>
       <c r="F42" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="1">
-        <v>45863.40216435185</v>
+        <v>45891</v>
       </c>
       <c r="H42" s="1">
-        <v>45833.402662037035</v>
+        <v>45861</v>
       </c>
       <c r="I42" s="2">
-        <v>7.5978356481500668</v>
+        <v>-14</v>
       </c>
       <c r="J42" s="3">
-        <v>32.85</v>
+        <v>-2.87</v>
       </c>
       <c r="K42" s="3">
-        <v>32.85</v>
+        <v>-2.87</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2309,37 +2309,37 @@
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D43">
+        <v>2025</v>
       </c>
       <c r="E43">
-        <v>9699</v>
+        <v>670</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="1">
-        <v>45863.495011574072</v>
+        <v>45891</v>
       </c>
       <c r="H43" s="1">
-        <v>45833.496192129627</v>
+        <v>45861</v>
       </c>
       <c r="I43" s="2">
-        <v>7.504988425927877</v>
+        <v>-14</v>
       </c>
       <c r="J43" s="3">
-        <v>994.62</v>
+        <v>-10.09</v>
       </c>
       <c r="K43" s="3">
-        <v>994.62</v>
+        <v>-10.09</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2356,25 +2356,25 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>9865</v>
+        <v>10932</v>
       </c>
       <c r="F44" t="s">
         <v>20</v>
       </c>
       <c r="G44" s="1">
-        <v>45865.470057870371</v>
+        <v>45891.550300925926</v>
       </c>
       <c r="H44" s="1">
-        <v>45835.474293981482</v>
+        <v>45861.550312499996</v>
       </c>
       <c r="I44" s="2">
-        <v>5.5299421296294895</v>
+        <v>-14</v>
       </c>
       <c r="J44" s="3">
-        <v>528.76</v>
+        <v>548.45000000000005</v>
       </c>
       <c r="K44" s="3">
-        <v>528.76</v>
+        <v>548.45000000000005</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -2391,37 +2391,37 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
       </c>
       <c r="E45">
-        <v>596</v>
+        <v>11071</v>
       </c>
       <c r="F45" t="s">
         <v>20</v>
       </c>
       <c r="G45" s="1">
-        <v>45868</v>
+        <v>45893.524328703701</v>
       </c>
       <c r="H45" s="1">
-        <v>45838</v>
+        <v>45863.524328703701</v>
       </c>
       <c r="I45" s="2">
-        <v>3</v>
+        <v>-16</v>
       </c>
       <c r="J45" s="3">
-        <v>-15.85</v>
+        <v>558.34</v>
       </c>
       <c r="K45" s="3">
-        <v>-15.85</v>
+        <v>558.34</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2438,31 +2438,31 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>9900</v>
+        <v>11114</v>
       </c>
       <c r="F46" t="s">
         <v>20</v>
       </c>
       <c r="G46" s="1">
-        <v>45868.412268518514</v>
+        <v>45896.534999999996</v>
       </c>
       <c r="H46" s="1">
-        <v>45838.412754629629</v>
+        <v>45866.534999999996</v>
       </c>
       <c r="I46" s="2">
-        <v>2.5877314814861165</v>
+        <v>-19</v>
       </c>
       <c r="J46" s="3">
-        <v>119.13</v>
+        <v>212.67000000000002</v>
       </c>
       <c r="K46" s="3">
-        <v>119.13</v>
+        <v>212.67000000000002</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2479,25 +2479,25 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>9968</v>
+        <v>11240</v>
       </c>
       <c r="F47" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="1">
-        <v>45870.436192129629</v>
+        <v>45898.501168981478</v>
       </c>
       <c r="H47" s="1">
-        <v>45840.436192129629</v>
+        <v>45868.501168981478</v>
       </c>
       <c r="I47" s="2">
-        <v>0.5638078703705105</v>
+        <v>-21</v>
       </c>
       <c r="J47" s="3">
-        <v>283.05</v>
+        <v>578.64</v>
       </c>
       <c r="K47" s="3">
-        <v>283.05</v>
+        <v>578.64</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
@@ -2520,25 +2520,25 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>10019</v>
+        <v>11358</v>
       </c>
       <c r="F48" t="s">
         <v>20</v>
       </c>
       <c r="G48" s="1">
-        <v>45870.684710648144</v>
+        <v>45900.567037037035</v>
       </c>
       <c r="H48" s="1">
-        <v>45840.685428240737</v>
+        <v>45870.567037037035</v>
       </c>
       <c r="I48" s="2">
-        <v>0.315289351856336</v>
+        <v>-23</v>
       </c>
       <c r="J48" s="3">
-        <v>228.83</v>
+        <v>476.82</v>
       </c>
       <c r="K48" s="3">
-        <v>228.83</v>
+        <v>476.82</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
@@ -2561,25 +2561,25 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>10147</v>
+        <v>11399</v>
       </c>
       <c r="F49" t="s">
         <v>20</v>
       </c>
       <c r="G49" s="1">
-        <v>45872.453900462962</v>
+        <v>45903.547291666662</v>
       </c>
       <c r="H49" s="1">
-        <v>45842.453900462962</v>
+        <v>45873.547291666662</v>
       </c>
       <c r="I49" s="2">
-        <v>-1.4539004629623378</v>
+        <v>-26</v>
       </c>
       <c r="J49" s="3">
-        <v>545.98</v>
+        <v>356.84000000000003</v>
       </c>
       <c r="K49" s="3">
-        <v>545.98</v>
+        <v>356.84000000000003</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
@@ -2602,25 +2602,25 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>10156</v>
+        <v>11541</v>
       </c>
       <c r="F50" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="1">
-        <v>45872.493888888886</v>
+        <v>45905.539664351847</v>
       </c>
       <c r="H50" s="1">
-        <v>45842.493888888886</v>
+        <v>45875.539675925924</v>
       </c>
       <c r="I50" s="2">
-        <v>-1.4938888888864312</v>
+        <v>-28</v>
       </c>
       <c r="J50" s="3">
-        <v>2.63</v>
+        <v>489.72</v>
       </c>
       <c r="K50" s="3">
-        <v>2.63</v>
+        <v>489.72</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -2631,51 +2631,51 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51">
-        <v>10203</v>
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="1">
-        <v>45875.468877314815</v>
+        <v>45760</v>
       </c>
       <c r="H51" s="1">
-        <v>45845.468888888885</v>
+        <v>45730</v>
       </c>
       <c r="I51" s="2">
-        <v>-4.4688773148154723</v>
+        <v>117</v>
       </c>
       <c r="J51" s="3">
-        <v>338.76</v>
+        <v>-541.79999999999995</v>
       </c>
       <c r="K51" s="3">
-        <v>338.76</v>
+        <v>-10.33</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
       </c>
       <c r="M51" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2684,39 +2684,39 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>10342</v>
+        <v>8711</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
       </c>
       <c r="G52" s="1">
-        <v>45877.430671296293</v>
+        <v>45840.400567129625</v>
       </c>
       <c r="H52" s="1">
-        <v>45847.430671296293</v>
+        <v>45810.40079861111</v>
       </c>
       <c r="I52" s="2">
-        <v>-6.4306712962934398</v>
+        <v>37</v>
       </c>
       <c r="J52" s="3">
-        <v>460.23</v>
+        <v>264.84000000000003</v>
       </c>
       <c r="K52" s="3">
-        <v>460.23</v>
+        <v>264.84000000000003</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -2725,80 +2725,80 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>10469</v>
+        <v>8904</v>
       </c>
       <c r="F53" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="1">
-        <v>45879.403611111113</v>
+        <v>45843.470856481479</v>
       </c>
       <c r="H53" s="1">
-        <v>45849.403611111113</v>
+        <v>45813.471493055556</v>
       </c>
       <c r="I53" s="2">
-        <v>-8.4036111111126957</v>
+        <v>34</v>
       </c>
       <c r="J53" s="3">
-        <v>544.83000000000004</v>
+        <v>50.93</v>
       </c>
       <c r="K53" s="3">
-        <v>544.83000000000004</v>
+        <v>50.93</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54">
-        <v>10515</v>
+        <v>30</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
       </c>
       <c r="F54" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="1">
-        <v>45882.474629629629</v>
+        <v>45847</v>
       </c>
       <c r="H54" s="1">
-        <v>45852.474629629629</v>
+        <v>45817</v>
       </c>
       <c r="I54" s="2">
-        <v>-11.474629629628907</v>
+        <v>30</v>
       </c>
       <c r="J54" s="3">
-        <v>603.02</v>
+        <v>-224.79</v>
       </c>
       <c r="K54" s="3">
-        <v>603.02</v>
+        <v>-9</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
       </c>
       <c r="M54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -2807,39 +2807,39 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>10646</v>
+        <v>9002</v>
       </c>
       <c r="F55" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="1">
-        <v>45884.469351851847</v>
+        <v>45847.441782407404</v>
       </c>
       <c r="H55" s="1">
-        <v>45854.469351851847</v>
+        <v>45817.442870370367</v>
       </c>
       <c r="I55" s="2">
-        <v>-13.469351851847023</v>
+        <v>30</v>
       </c>
       <c r="J55" s="3">
-        <v>447.87</v>
+        <v>221.07</v>
       </c>
       <c r="K55" s="3">
-        <v>447.87</v>
+        <v>221.07</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
       </c>
       <c r="M55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2848,39 +2848,39 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>10768</v>
+        <v>9109</v>
       </c>
       <c r="F56" t="s">
         <v>20</v>
       </c>
       <c r="G56" s="1">
-        <v>45886.485416666663</v>
+        <v>45849.62940972222</v>
       </c>
       <c r="H56" s="1">
-        <v>45856.48542824074</v>
+        <v>45819.630104166667</v>
       </c>
       <c r="I56" s="2">
-        <v>-15.485416666662786</v>
+        <v>28</v>
       </c>
       <c r="J56" s="3">
-        <v>783.17000000000007</v>
+        <v>33.47</v>
       </c>
       <c r="K56" s="3">
-        <v>783.17000000000007</v>
+        <v>33.47</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2889,121 +2889,121 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>10821</v>
+        <v>9291</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="1">
-        <v>45889.487719907404</v>
+        <v>45854.443333333329</v>
       </c>
       <c r="H57" s="1">
-        <v>45859.487719907404</v>
+        <v>45824.44427083333</v>
       </c>
       <c r="I57" s="2">
-        <v>-18.487719907403516</v>
+        <v>23</v>
       </c>
       <c r="J57" s="3">
-        <v>527.75</v>
+        <v>156.46</v>
       </c>
       <c r="K57" s="3">
-        <v>527.75</v>
+        <v>156.46</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
       </c>
       <c r="M57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>667</v>
+        <v>9627</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
       </c>
       <c r="G58" s="1">
-        <v>45891</v>
+        <v>45861.535300925927</v>
       </c>
       <c r="H58" s="1">
-        <v>45861</v>
+        <v>45831.535729166666</v>
       </c>
       <c r="I58" s="2">
-        <v>-20</v>
+        <v>16</v>
       </c>
       <c r="J58" s="3">
-        <v>-2.87</v>
+        <v>244.68</v>
       </c>
       <c r="K58" s="3">
-        <v>-2.87</v>
+        <v>244.68</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
       </c>
       <c r="M58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
       </c>
       <c r="E59">
-        <v>670</v>
+        <v>10211</v>
       </c>
       <c r="F59" t="s">
         <v>20</v>
       </c>
       <c r="G59" s="1">
-        <v>45891</v>
+        <v>45875.481921296298</v>
       </c>
       <c r="H59" s="1">
-        <v>45861</v>
+        <v>45845.481932870367</v>
       </c>
       <c r="I59" s="2">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="J59" s="3">
-        <v>-10.09</v>
+        <v>276.02</v>
       </c>
       <c r="K59" s="3">
-        <v>-10.09</v>
+        <v>276.02</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
       </c>
       <c r="M59" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3012,25 +3012,25 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>10932</v>
+        <v>10509</v>
       </c>
       <c r="F60" t="s">
         <v>20</v>
       </c>
       <c r="G60" s="1">
-        <v>45891.550300925926</v>
+        <v>45882.471388888887</v>
       </c>
       <c r="H60" s="1">
-        <v>45861.550312499996</v>
+        <v>45852.471388888887</v>
       </c>
       <c r="I60" s="2">
-        <v>-20.550300925926422</v>
+        <v>-5</v>
       </c>
       <c r="J60" s="3">
-        <v>548.45000000000005</v>
+        <v>316.33</v>
       </c>
       <c r="K60" s="3">
-        <v>548.45000000000005</v>
+        <v>316.33</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3041,10 +3041,10 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3053,25 +3053,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>11071</v>
+        <v>10787</v>
       </c>
       <c r="F61" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="1">
-        <v>45893.524328703701</v>
+        <v>45886.62290509259</v>
       </c>
       <c r="H61" s="1">
-        <v>45863.524328703701</v>
+        <v>45856.623715277776</v>
       </c>
       <c r="I61" s="2">
-        <v>-22.52432870370103</v>
+        <v>-9</v>
       </c>
       <c r="J61" s="3">
-        <v>558.34</v>
+        <v>55.27</v>
       </c>
       <c r="K61" s="3">
-        <v>558.34</v>
+        <v>55.27</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3082,10 +3082,10 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3094,25 +3094,25 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>11114</v>
+        <v>10813</v>
       </c>
       <c r="F62" t="s">
         <v>20</v>
       </c>
       <c r="G62" s="1">
-        <v>45896.534999999996</v>
+        <v>45889.484826388885</v>
       </c>
       <c r="H62" s="1">
-        <v>45866.534999999996</v>
+        <v>45859.484826388885</v>
       </c>
       <c r="I62" s="2">
-        <v>-25.534999999996217</v>
+        <v>-12</v>
       </c>
       <c r="J62" s="3">
-        <v>212.67000000000002</v>
+        <v>200.74</v>
       </c>
       <c r="K62" s="3">
-        <v>212.67000000000002</v>
+        <v>200.74</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3123,10 +3123,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3135,25 +3135,25 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>11240</v>
+        <v>11083</v>
       </c>
       <c r="F63" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="1">
-        <v>45898.501168981478</v>
+        <v>45893.645833333328</v>
       </c>
       <c r="H63" s="1">
-        <v>45868.501168981478</v>
+        <v>45863.645833333328</v>
       </c>
       <c r="I63" s="2">
-        <v>-27.501168981478259</v>
+        <v>-16</v>
       </c>
       <c r="J63" s="3">
-        <v>578.64</v>
+        <v>54.58</v>
       </c>
       <c r="K63" s="3">
-        <v>578.64</v>
+        <v>54.58</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3164,10 +3164,10 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3176,25 +3176,25 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>11358</v>
+        <v>11097</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
       </c>
       <c r="G64" s="1">
-        <v>45900.567037037035</v>
+        <v>45896.476898148147</v>
       </c>
       <c r="H64" s="1">
-        <v>45870.567037037035</v>
+        <v>45866.476909722223</v>
       </c>
       <c r="I64" s="2">
-        <v>-29.567037037035334</v>
+        <v>-19</v>
       </c>
       <c r="J64" s="3">
-        <v>476.82</v>
+        <v>251.39000000000001</v>
       </c>
       <c r="K64" s="3">
-        <v>476.82</v>
+        <v>251.39000000000001</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -3211,45 +3211,45 @@
         <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="E65">
+        <v>11409</v>
       </c>
       <c r="F65" t="s">
         <v>20</v>
       </c>
       <c r="G65" s="1">
-        <v>45760</v>
+        <v>45903.568784722222</v>
       </c>
       <c r="H65" s="1">
-        <v>45730</v>
+        <v>45873.568784722222</v>
       </c>
       <c r="I65" s="2">
-        <v>111</v>
+        <v>-26</v>
       </c>
       <c r="J65" s="3">
-        <v>-541.79999999999995</v>
+        <v>55.120000000000005</v>
       </c>
       <c r="K65" s="3">
-        <v>-10.33</v>
+        <v>55.120000000000005</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
       </c>
       <c r="M65" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3258,25 +3258,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>7615</v>
+        <v>7436</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="1">
-        <v>45820.376446759255</v>
+        <v>45845.556817129625</v>
       </c>
       <c r="H66" s="1">
-        <v>45790.376736111109</v>
+        <v>45785.560891203699</v>
       </c>
       <c r="I66" s="2">
-        <v>50.623553240744513</v>
+        <v>32</v>
       </c>
       <c r="J66" s="3">
-        <v>171.03</v>
+        <v>897.49</v>
       </c>
       <c r="K66" s="3">
-        <v>171.03</v>
+        <v>897.49</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -3287,10 +3287,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -3299,121 +3299,121 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>7919</v>
+        <v>8220</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
       </c>
       <c r="G67" s="1">
-        <v>45823.521203703705</v>
+        <v>45859.486087962963</v>
       </c>
       <c r="H67" s="1">
-        <v>45793.521898148145</v>
+        <v>45799.496874999997</v>
       </c>
       <c r="I67" s="2">
-        <v>47.478796296294604</v>
+        <v>18</v>
       </c>
       <c r="J67" s="3">
-        <v>114.67</v>
+        <v>1334.16</v>
       </c>
       <c r="K67" s="3">
-        <v>114.67</v>
+        <v>1334.16</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
       </c>
       <c r="M67" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
-      <c r="D68" t="s">
-        <v>15</v>
+      <c r="D68">
+        <v>2025</v>
       </c>
       <c r="E68">
-        <v>7974</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
       </c>
       <c r="G68" s="1">
-        <v>45826.564027777778</v>
+        <v>45874.611296296294</v>
       </c>
       <c r="H68" s="1">
-        <v>45796.564733796295</v>
+        <v>45814.611319444441</v>
       </c>
       <c r="I68" s="2">
-        <v>44.435972222221608</v>
+        <v>3</v>
       </c>
       <c r="J68" s="3">
-        <v>144.9</v>
+        <v>1149.52</v>
       </c>
       <c r="K68" s="3">
-        <v>144.9</v>
+        <v>1149.52</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
       </c>
       <c r="M68" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
-      <c r="D69" t="s">
-        <v>15</v>
+      <c r="D69">
+        <v>2025</v>
       </c>
       <c r="E69">
-        <v>8341</v>
+        <v>68</v>
       </c>
       <c r="F69" t="s">
         <v>20</v>
       </c>
       <c r="G69" s="1">
-        <v>45833.405740740738</v>
+        <v>45874.685046296298</v>
       </c>
       <c r="H69" s="1">
-        <v>45803.406655092593</v>
+        <v>45814.685057870367</v>
       </c>
       <c r="I69" s="2">
-        <v>37.594259259261889</v>
+        <v>3</v>
       </c>
       <c r="J69" s="3">
-        <v>152.03</v>
+        <v>124.59</v>
       </c>
       <c r="K69" s="3">
-        <v>152.03</v>
+        <v>124.59</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
       </c>
       <c r="M69" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3422,25 +3422,25 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>8711</v>
+        <v>9275</v>
       </c>
       <c r="F70" t="s">
         <v>20</v>
       </c>
       <c r="G70" s="1">
-        <v>45840.400567129625</v>
+        <v>45884.33143518518</v>
       </c>
       <c r="H70" s="1">
-        <v>45810.40079861111</v>
+        <v>45824.332418981481</v>
       </c>
       <c r="I70" s="2">
-        <v>30.599432870374585</v>
+        <v>-7</v>
       </c>
       <c r="J70" s="3">
-        <v>264.84000000000003</v>
+        <v>1044.22</v>
       </c>
       <c r="K70" s="3">
-        <v>264.84000000000003</v>
+        <v>1044.22</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3451,10 +3451,10 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -3463,121 +3463,121 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>8904</v>
+        <v>10190</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
       </c>
       <c r="G71" s="1">
-        <v>45843.470856481479</v>
+        <v>45902.667199074072</v>
       </c>
       <c r="H71" s="1">
-        <v>45813.471493055556</v>
+        <v>45842.669027777774</v>
       </c>
       <c r="I71" s="2">
-        <v>27.529143518520868</v>
+        <v>-25</v>
       </c>
       <c r="J71" s="3">
-        <v>50.93</v>
+        <v>732.56000000000006</v>
       </c>
       <c r="K71" s="3">
-        <v>50.93</v>
+        <v>732.56000000000006</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>30</v>
-      </c>
-      <c r="E72" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>11072</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
       </c>
       <c r="G72" s="1">
-        <v>45847</v>
+        <v>45923.525937499995</v>
       </c>
       <c r="H72" s="1">
-        <v>45817</v>
+        <v>45863.525949074072</v>
       </c>
       <c r="I72" s="2">
-        <v>24</v>
+        <v>-46</v>
       </c>
       <c r="J72" s="3">
-        <v>-224.79</v>
+        <v>1189.3500000000001</v>
       </c>
       <c r="K72" s="3">
-        <v>-9</v>
+        <v>1189.3500000000001</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
       </c>
       <c r="M72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>211110472</v>
+        <v>211110972</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D73">
+        <v>2025</v>
       </c>
       <c r="E73">
-        <v>9002</v>
+        <v>147</v>
       </c>
       <c r="F73" t="s">
         <v>20</v>
       </c>
       <c r="G73" s="1">
-        <v>45847.441782407404</v>
+        <v>45719</v>
       </c>
       <c r="H73" s="1">
-        <v>45817.442870370367</v>
+        <v>45719</v>
       </c>
       <c r="I73" s="2">
-        <v>23.558217592595611</v>
+        <v>158</v>
       </c>
       <c r="J73" s="3">
-        <v>221.07</v>
+        <v>-70.86</v>
       </c>
       <c r="K73" s="3">
-        <v>221.07</v>
+        <v>-70.86</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
       </c>
       <c r="M73" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>211110472</v>
+        <v>211110972</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3586,39 +3586,39 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>9109</v>
+        <v>7925</v>
       </c>
       <c r="F74" t="s">
         <v>20</v>
       </c>
       <c r="G74" s="1">
-        <v>45849.62940972222</v>
+        <v>45793.585856481477</v>
       </c>
       <c r="H74" s="1">
-        <v>45819.630104166667</v>
+        <v>45793.585856481477</v>
       </c>
       <c r="I74" s="2">
-        <v>21.370590277780138</v>
+        <v>84</v>
       </c>
       <c r="J74" s="3">
-        <v>33.47</v>
+        <v>305.11</v>
       </c>
       <c r="K74" s="3">
-        <v>33.47</v>
+        <v>305.11</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
       </c>
       <c r="M74" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>211110472</v>
+        <v>211111193</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3627,39 +3627,39 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>9291</v>
+        <v>10278</v>
       </c>
       <c r="F75" t="s">
         <v>20</v>
       </c>
       <c r="G75" s="1">
-        <v>45854.443333333329</v>
+        <v>45876.453530092593</v>
       </c>
       <c r="H75" s="1">
-        <v>45824.44427083333</v>
+        <v>45846.45412037037</v>
       </c>
       <c r="I75" s="2">
-        <v>16.556666666670935</v>
+        <v>1</v>
       </c>
       <c r="J75" s="3">
-        <v>156.46</v>
+        <v>185.83</v>
       </c>
       <c r="K75" s="3">
-        <v>156.46</v>
+        <v>185.83</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
       </c>
       <c r="M75" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>211110472</v>
+        <v>211111193</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3668,39 +3668,39 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>9627</v>
+        <v>10417</v>
       </c>
       <c r="F76" t="s">
         <v>20</v>
       </c>
       <c r="G76" s="1">
-        <v>45861.535300925927</v>
+        <v>45878.429606481477</v>
       </c>
       <c r="H76" s="1">
-        <v>45831.535729166666</v>
+        <v>45848.429606481477</v>
       </c>
       <c r="I76" s="2">
-        <v>9.4646990740729962</v>
+        <v>-1</v>
       </c>
       <c r="J76" s="3">
-        <v>244.68</v>
+        <v>157.53</v>
       </c>
       <c r="K76" s="3">
-        <v>244.68</v>
+        <v>157.53</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
       </c>
       <c r="M76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>211110472</v>
+        <v>211111193</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3709,25 +3709,25 @@
         <v>15</v>
       </c>
       <c r="E77">
-        <v>10211</v>
+        <v>10587</v>
       </c>
       <c r="F77" t="s">
         <v>20</v>
       </c>
       <c r="G77" s="1">
-        <v>45875.481921296298</v>
+        <v>45883.65898148148</v>
       </c>
       <c r="H77" s="1">
-        <v>45845.481932870367</v>
+        <v>45853.659224537034</v>
       </c>
       <c r="I77" s="2">
-        <v>-4.4819212962975143</v>
+        <v>-6</v>
       </c>
       <c r="J77" s="3">
-        <v>276.02</v>
+        <v>256.97000000000003</v>
       </c>
       <c r="K77" s="3">
-        <v>276.02</v>
+        <v>256.97000000000003</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3738,10 +3738,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>211110472</v>
+        <v>211111193</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3750,25 +3750,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>10509</v>
+        <v>11464</v>
       </c>
       <c r="F78" t="s">
         <v>20</v>
       </c>
       <c r="G78" s="1">
-        <v>45882.471388888887</v>
+        <v>45904.599629629629</v>
       </c>
       <c r="H78" s="1">
-        <v>45852.471388888887</v>
+        <v>45874.600023148145</v>
       </c>
       <c r="I78" s="2">
-        <v>-11.471388888887304</v>
+        <v>-27</v>
       </c>
       <c r="J78" s="3">
-        <v>316.33</v>
+        <v>150.27000000000001</v>
       </c>
       <c r="K78" s="3">
-        <v>316.33</v>
+        <v>150.27000000000001</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>211110472</v>
+        <v>211111387</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3791,39 +3791,39 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>10787</v>
+        <v>9950</v>
       </c>
       <c r="F79" t="s">
         <v>20</v>
       </c>
       <c r="G79" s="1">
-        <v>45886.62290509259</v>
+        <v>45870.400196759256</v>
       </c>
       <c r="H79" s="1">
-        <v>45856.623715277776</v>
+        <v>45840.403055555551</v>
       </c>
       <c r="I79" s="2">
-        <v>-15.622905092590372</v>
+        <v>7</v>
       </c>
       <c r="J79" s="3">
-        <v>55.27</v>
+        <v>199.05</v>
       </c>
       <c r="K79" s="3">
-        <v>55.27</v>
+        <v>199.05</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
       </c>
       <c r="M79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>211110472</v>
+        <v>211111387</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3832,39 +3832,39 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>10813</v>
+        <v>10220</v>
       </c>
       <c r="F80" t="s">
         <v>20</v>
       </c>
       <c r="G80" s="1">
-        <v>45889.484826388885</v>
+        <v>45875.488275462958</v>
       </c>
       <c r="H80" s="1">
-        <v>45859.484826388885</v>
+        <v>45845.488275462958</v>
       </c>
       <c r="I80" s="2">
-        <v>-18.484826388885267</v>
+        <v>2</v>
       </c>
       <c r="J80" s="3">
-        <v>200.74</v>
+        <v>129.57</v>
       </c>
       <c r="K80" s="3">
-        <v>200.74</v>
+        <v>129.57</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
       </c>
       <c r="M80" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>211110472</v>
+        <v>211111387</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3873,39 +3873,39 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>11083</v>
+        <v>10288</v>
       </c>
       <c r="F81" t="s">
         <v>20</v>
       </c>
       <c r="G81" s="1">
-        <v>45893.645833333328</v>
+        <v>45876.543657407405</v>
       </c>
       <c r="H81" s="1">
-        <v>45863.645833333328</v>
+        <v>45846.543877314813</v>
       </c>
       <c r="I81" s="2">
-        <v>-22.645833333328483</v>
+        <v>1</v>
       </c>
       <c r="J81" s="3">
-        <v>54.58</v>
+        <v>270.58</v>
       </c>
       <c r="K81" s="3">
-        <v>54.58</v>
+        <v>270.58</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>211110472</v>
+        <v>211111387</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3914,25 +3914,25 @@
         <v>15</v>
       </c>
       <c r="E82">
-        <v>11097</v>
+        <v>10520</v>
       </c>
       <c r="F82" t="s">
         <v>20</v>
       </c>
       <c r="G82" s="1">
-        <v>45896.476898148147</v>
+        <v>45882.479305555556</v>
       </c>
       <c r="H82" s="1">
-        <v>45866.476909722223</v>
+        <v>45852.479317129626</v>
       </c>
       <c r="I82" s="2">
-        <v>-25.476898148146574</v>
+        <v>-5</v>
       </c>
       <c r="J82" s="3">
-        <v>251.39000000000001</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="K82" s="3">
-        <v>251.39000000000001</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -3943,10 +3943,10 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>211110601</v>
+        <v>211111387</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3955,39 +3955,39 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>7436</v>
+        <v>10553</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
       </c>
       <c r="G83" s="1">
-        <v>45845.556817129625</v>
+        <v>45883.416145833333</v>
       </c>
       <c r="H83" s="1">
-        <v>45785.560891203699</v>
+        <v>45853.416481481479</v>
       </c>
       <c r="I83" s="2">
-        <v>25.443182870374585</v>
+        <v>-6</v>
       </c>
       <c r="J83" s="3">
-        <v>897.49</v>
+        <v>131.41</v>
       </c>
       <c r="K83" s="3">
-        <v>897.49</v>
+        <v>131.41</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
       </c>
       <c r="M83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>211110601</v>
+        <v>211111387</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -3996,66 +3996,66 @@
         <v>15</v>
       </c>
       <c r="E84">
-        <v>8220</v>
+        <v>10809</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
       </c>
       <c r="G84" s="1">
-        <v>45859.486087962963</v>
+        <v>45889.482916666668</v>
       </c>
       <c r="H84" s="1">
-        <v>45799.496874999997</v>
+        <v>45859.482916666668</v>
       </c>
       <c r="I84" s="2">
-        <v>11.513912037036789</v>
+        <v>-12</v>
       </c>
       <c r="J84" s="3">
-        <v>1334.16</v>
+        <v>395.15000000000003</v>
       </c>
       <c r="K84" s="3">
-        <v>1334.16</v>
+        <v>395.15000000000003</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
       </c>
       <c r="M84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>211110601</v>
+        <v>211111387</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D85">
         <v>2025</v>
       </c>
       <c r="E85">
-        <v>62</v>
+        <v>684</v>
       </c>
       <c r="F85" t="s">
         <v>20</v>
       </c>
       <c r="G85" s="1">
-        <v>45874.611296296294</v>
+        <v>45892</v>
       </c>
       <c r="H85" s="1">
-        <v>45814.611319444441</v>
+        <v>45862</v>
       </c>
       <c r="I85" s="2">
-        <v>-3.6112962962943129</v>
+        <v>-15</v>
       </c>
       <c r="J85" s="3">
-        <v>1149.52</v>
+        <v>-13.73</v>
       </c>
       <c r="K85" s="3">
-        <v>1149.52</v>
+        <v>-13.73</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -4066,37 +4066,37 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211110601</v>
+        <v>211111387</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
-      <c r="D86">
-        <v>2025</v>
+      <c r="D86" t="s">
+        <v>15</v>
       </c>
       <c r="E86">
-        <v>68</v>
+        <v>11094</v>
       </c>
       <c r="F86" t="s">
         <v>20</v>
       </c>
       <c r="G86" s="1">
-        <v>45874.685046296298</v>
+        <v>45896.473761574074</v>
       </c>
       <c r="H86" s="1">
-        <v>45814.685057870367</v>
+        <v>45866.473761574074</v>
       </c>
       <c r="I86" s="2">
-        <v>-3.6850462962975143</v>
+        <v>-19</v>
       </c>
       <c r="J86" s="3">
-        <v>124.59</v>
+        <v>299.01</v>
       </c>
       <c r="K86" s="3">
-        <v>124.59</v>
+        <v>299.01</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4107,10 +4107,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211110601</v>
+        <v>211111387</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4119,25 +4119,25 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>9275</v>
+        <v>11136</v>
       </c>
       <c r="F87" t="s">
         <v>20</v>
       </c>
       <c r="G87" s="1">
-        <v>45884.33143518518</v>
+        <v>45896.75268518518</v>
       </c>
       <c r="H87" s="1">
-        <v>45824.332418981481</v>
+        <v>45866.754085648143</v>
       </c>
       <c r="I87" s="2">
-        <v>-13.331435185180453</v>
+        <v>-19</v>
       </c>
       <c r="J87" s="3">
-        <v>1044.22</v>
+        <v>395.47</v>
       </c>
       <c r="K87" s="3">
-        <v>1044.22</v>
+        <v>395.47</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211110601</v>
+        <v>211111387</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4160,25 +4160,25 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>10190</v>
+        <v>11263</v>
       </c>
       <c r="F88" t="s">
         <v>20</v>
       </c>
       <c r="G88" s="1">
-        <v>45902.667199074072</v>
+        <v>45899.415798611109</v>
       </c>
       <c r="H88" s="1">
-        <v>45842.669027777774</v>
+        <v>45869.416585648149</v>
       </c>
       <c r="I88" s="2">
-        <v>-31.667199074072414</v>
+        <v>-22</v>
       </c>
       <c r="J88" s="3">
-        <v>732.56000000000006</v>
+        <v>111.83</v>
       </c>
       <c r="K88" s="3">
-        <v>732.56000000000006</v>
+        <v>111.83</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -4189,10 +4189,10 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211110601</v>
+        <v>211111387</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -4201,25 +4201,25 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>11072</v>
+        <v>11378</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
       </c>
       <c r="G89" s="1">
-        <v>45923.525937499995</v>
+        <v>45903.47488425926</v>
       </c>
       <c r="H89" s="1">
-        <v>45863.525949074072</v>
+        <v>45873.47488425926</v>
       </c>
       <c r="I89" s="2">
-        <v>-52.525937499995052</v>
+        <v>-26</v>
       </c>
       <c r="J89" s="3">
-        <v>1189.3500000000001</v>
+        <v>601.37</v>
       </c>
       <c r="K89" s="3">
-        <v>1189.3500000000001</v>
+        <v>601.37</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
@@ -4230,51 +4230,51 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211110972</v>
+        <v>211111478</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
-      </c>
-      <c r="D90">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
       </c>
       <c r="E90">
-        <v>147</v>
+        <v>10964</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
       </c>
       <c r="G90" s="1">
-        <v>45719</v>
+        <v>45891.654791666668</v>
       </c>
       <c r="H90" s="1">
-        <v>45719</v>
+        <v>45861.655266203699</v>
       </c>
       <c r="I90" s="2">
-        <v>152</v>
+        <v>-14</v>
       </c>
       <c r="J90" s="3">
-        <v>-70.86</v>
+        <v>78.75</v>
       </c>
       <c r="K90" s="3">
-        <v>-70.86</v>
+        <v>78.75</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
       </c>
       <c r="M90" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211110972</v>
+        <v>211111478</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4283,39 +4283,39 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>7925</v>
+        <v>11256</v>
       </c>
       <c r="F91" t="s">
         <v>20</v>
       </c>
       <c r="G91" s="1">
-        <v>45793.585856481477</v>
+        <v>45899.266192129631</v>
       </c>
       <c r="H91" s="1">
-        <v>45793.585856481477</v>
+        <v>45869.26662037037</v>
       </c>
       <c r="I91" s="2">
-        <v>77.414143518522906</v>
+        <v>-22</v>
       </c>
       <c r="J91" s="3">
-        <v>305.11</v>
+        <v>24.94</v>
       </c>
       <c r="K91" s="3">
-        <v>305.11</v>
+        <v>24.94</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211111193</v>
+        <v>211111478</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -4324,25 +4324,25 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>10278</v>
+        <v>11465</v>
       </c>
       <c r="F92" t="s">
         <v>20</v>
       </c>
       <c r="G92" s="1">
-        <v>45876.453530092593</v>
+        <v>45904.638726851852</v>
       </c>
       <c r="H92" s="1">
-        <v>45846.45412037037</v>
+        <v>45874.640844907408</v>
       </c>
       <c r="I92" s="2">
-        <v>-5.4535300925927004</v>
+        <v>-27</v>
       </c>
       <c r="J92" s="3">
-        <v>185.83</v>
+        <v>72.960000000000008</v>
       </c>
       <c r="K92" s="3">
-        <v>185.83</v>
+        <v>72.960000000000008</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
@@ -4353,10 +4353,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211111193</v>
+        <v>211111506</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -4365,25 +4365,25 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>10417</v>
+        <v>10500</v>
       </c>
       <c r="F93" t="s">
         <v>20</v>
       </c>
       <c r="G93" s="1">
-        <v>45878.429606481477</v>
+        <v>45879.611701388887</v>
       </c>
       <c r="H93" s="1">
-        <v>45848.429606481477</v>
+        <v>45849.612314814811</v>
       </c>
       <c r="I93" s="2">
-        <v>-7.4296064814770943</v>
+        <v>-2</v>
       </c>
       <c r="J93" s="3">
-        <v>157.53</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K93" s="3">
-        <v>157.53</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -4394,10 +4394,10 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211111193</v>
+        <v>211111506</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4406,25 +4406,25 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>10587</v>
+        <v>11373</v>
       </c>
       <c r="F94" t="s">
         <v>20</v>
       </c>
       <c r="G94" s="1">
-        <v>45883.65898148148</v>
+        <v>45903.329849537033</v>
       </c>
       <c r="H94" s="1">
-        <v>45853.659224537034</v>
+        <v>45873.330763888887</v>
       </c>
       <c r="I94" s="2">
-        <v>-12.658981481479714</v>
+        <v>-26</v>
       </c>
       <c r="J94" s="3">
-        <v>256.97000000000003</v>
+        <v>137.55000000000001</v>
       </c>
       <c r="K94" s="3">
-        <v>256.97000000000003</v>
+        <v>137.55000000000001</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
@@ -4435,10 +4435,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211111387</v>
+        <v>211111506</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -4447,25 +4447,25 @@
         <v>15</v>
       </c>
       <c r="E95">
-        <v>9950</v>
+        <v>11415</v>
       </c>
       <c r="F95" t="s">
         <v>20</v>
       </c>
       <c r="G95" s="1">
-        <v>45870.400196759256</v>
+        <v>45903.629849537036</v>
       </c>
       <c r="H95" s="1">
-        <v>45840.403055555551</v>
+        <v>45873.630127314813</v>
       </c>
       <c r="I95" s="2">
-        <v>0.59980324074422242</v>
+        <v>-26</v>
       </c>
       <c r="J95" s="3">
-        <v>199.05</v>
+        <v>183.23</v>
       </c>
       <c r="K95" s="3">
-        <v>199.05</v>
+        <v>183.23</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
@@ -4476,10 +4476,10 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211111387</v>
+        <v>211111506</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -4488,25 +4488,25 @@
         <v>15</v>
       </c>
       <c r="E96">
-        <v>10220</v>
+        <v>11583</v>
       </c>
       <c r="F96" t="s">
         <v>20</v>
       </c>
       <c r="G96" s="1">
-        <v>45875.488275462958</v>
+        <v>45906.501307870371</v>
       </c>
       <c r="H96" s="1">
-        <v>45845.488275462958</v>
+        <v>45876.50168981481</v>
       </c>
       <c r="I96" s="2">
-        <v>-4.4882754629579722</v>
+        <v>-29</v>
       </c>
       <c r="J96" s="3">
-        <v>129.57</v>
+        <v>67.38</v>
       </c>
       <c r="K96" s="3">
-        <v>129.57</v>
+        <v>67.38</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
@@ -4517,92 +4517,92 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211111387</v>
+        <v>211111625</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97">
-        <v>10288</v>
+        <v>30</v>
+      </c>
+      <c r="E97" t="s">
+        <v>31</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
       </c>
       <c r="G97" s="1">
-        <v>45876.543657407405</v>
+        <v>45769</v>
       </c>
       <c r="H97" s="1">
-        <v>45846.543877314813</v>
+        <v>45739</v>
       </c>
       <c r="I97" s="2">
-        <v>-5.5436574074046803</v>
+        <v>108</v>
       </c>
       <c r="J97" s="3">
-        <v>270.58</v>
+        <v>-602.46</v>
       </c>
       <c r="K97" s="3">
-        <v>270.58</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>211111387</v>
+        <v>211111625</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D98">
+        <v>2025</v>
       </c>
       <c r="E98">
-        <v>10520</v>
+        <v>602</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
       </c>
       <c r="G98" s="1">
-        <v>45882.479305555556</v>
+        <v>45869</v>
       </c>
       <c r="H98" s="1">
-        <v>45852.479317129626</v>
+        <v>45839</v>
       </c>
       <c r="I98" s="2">
-        <v>-11.479305555556493</v>
+        <v>8</v>
       </c>
       <c r="J98" s="3">
-        <v>309.35000000000002</v>
+        <v>-38.380000000000003</v>
       </c>
       <c r="K98" s="3">
-        <v>309.35000000000002</v>
+        <v>-38.380000000000003</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211111387</v>
+        <v>211111625</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4611,39 +4611,39 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>10553</v>
+        <v>9936</v>
       </c>
       <c r="F99" t="s">
         <v>20</v>
       </c>
       <c r="G99" s="1">
-        <v>45883.416145833333</v>
+        <v>45869.406018518515</v>
       </c>
       <c r="H99" s="1">
-        <v>45853.416481481479</v>
+        <v>45839.407280092593</v>
       </c>
       <c r="I99" s="2">
-        <v>-12.416145833332848</v>
+        <v>8</v>
       </c>
       <c r="J99" s="3">
-        <v>131.41</v>
+        <v>328.58</v>
       </c>
       <c r="K99" s="3">
-        <v>131.41</v>
+        <v>328.58</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211111387</v>
+        <v>211111625</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -4652,66 +4652,66 @@
         <v>15</v>
       </c>
       <c r="E100">
-        <v>10809</v>
+        <v>10240</v>
       </c>
       <c r="F100" t="s">
         <v>20</v>
       </c>
       <c r="G100" s="1">
-        <v>45889.482916666668</v>
+        <v>45876.326597222222</v>
       </c>
       <c r="H100" s="1">
-        <v>45859.482916666668</v>
+        <v>45846.327291666668</v>
       </c>
       <c r="I100" s="2">
-        <v>-18.482916666667734</v>
+        <v>1</v>
       </c>
       <c r="J100" s="3">
-        <v>395.15000000000003</v>
+        <v>301.90000000000003</v>
       </c>
       <c r="K100" s="3">
-        <v>395.15000000000003</v>
+        <v>301.90000000000003</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211111387</v>
+        <v>211111625</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>15</v>
       </c>
       <c r="E101">
-        <v>684</v>
+        <v>11145</v>
       </c>
       <c r="F101" t="s">
         <v>20</v>
       </c>
       <c r="G101" s="1">
-        <v>45892</v>
+        <v>45897.404432870368</v>
       </c>
       <c r="H101" s="1">
-        <v>45862</v>
+        <v>45867.405844907407</v>
       </c>
       <c r="I101" s="2">
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="J101" s="3">
-        <v>-13.73</v>
+        <v>89.11</v>
       </c>
       <c r="K101" s="3">
-        <v>-13.73</v>
+        <v>89.11</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
@@ -4722,10 +4722,10 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211111387</v>
+        <v>211111625</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -4734,25 +4734,25 @@
         <v>15</v>
       </c>
       <c r="E102">
-        <v>11094</v>
+        <v>11175</v>
       </c>
       <c r="F102" t="s">
         <v>20</v>
       </c>
       <c r="G102" s="1">
-        <v>45896.473761574074</v>
+        <v>45897.554768518516</v>
       </c>
       <c r="H102" s="1">
-        <v>45866.473761574074</v>
+        <v>45867.554780092592</v>
       </c>
       <c r="I102" s="2">
-        <v>-25.47376157407416</v>
+        <v>-20</v>
       </c>
       <c r="J102" s="3">
-        <v>299.01</v>
+        <v>742.58</v>
       </c>
       <c r="K102" s="3">
-        <v>299.01</v>
+        <v>742.58</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
@@ -4763,10 +4763,10 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211111387</v>
+        <v>211111625</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4775,25 +4775,25 @@
         <v>15</v>
       </c>
       <c r="E103">
-        <v>11136</v>
+        <v>11311</v>
       </c>
       <c r="F103" t="s">
         <v>20</v>
       </c>
       <c r="G103" s="1">
-        <v>45896.75268518518</v>
+        <v>45900.455590277779</v>
       </c>
       <c r="H103" s="1">
-        <v>45866.754085648143</v>
+        <v>45870.455590277779</v>
       </c>
       <c r="I103" s="2">
-        <v>-25.752685185179871</v>
+        <v>-23</v>
       </c>
       <c r="J103" s="3">
-        <v>395.47</v>
+        <v>528.91999999999996</v>
       </c>
       <c r="K103" s="3">
-        <v>395.47</v>
+        <v>528.91999999999996</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
@@ -4804,10 +4804,10 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>211111387</v>
+        <v>211111625</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -4816,25 +4816,25 @@
         <v>15</v>
       </c>
       <c r="E104">
-        <v>11263</v>
+        <v>11455</v>
       </c>
       <c r="F104" t="s">
         <v>20</v>
       </c>
       <c r="G104" s="1">
-        <v>45899.415798611109</v>
+        <v>45904.54042824074</v>
       </c>
       <c r="H104" s="1">
-        <v>45869.416585648149</v>
+        <v>45874.54042824074</v>
       </c>
       <c r="I104" s="2">
-        <v>-28.415798611109494</v>
+        <v>-27</v>
       </c>
       <c r="J104" s="3">
-        <v>111.83</v>
+        <v>1218.51</v>
       </c>
       <c r="K104" s="3">
-        <v>111.83</v>
+        <v>1218.51</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
@@ -4845,10 +4845,10 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>211111478</v>
+        <v>211111888</v>
       </c>
       <c r="B105" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -4857,25 +4857,25 @@
         <v>15</v>
       </c>
       <c r="E105">
-        <v>9628</v>
+        <v>9429</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
       </c>
       <c r="G105" s="1">
-        <v>45861.537557870368</v>
+        <v>45856.451006944444</v>
       </c>
       <c r="H105" s="1">
-        <v>45831.538182870368</v>
+        <v>45826.451331018514</v>
       </c>
       <c r="I105" s="2">
-        <v>9.4624421296321088</v>
+        <v>21</v>
       </c>
       <c r="J105" s="3">
-        <v>289.91000000000003</v>
+        <v>363.51</v>
       </c>
       <c r="K105" s="3">
-        <v>289.91000000000003</v>
+        <v>363.51</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
@@ -4886,10 +4886,10 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>211111478</v>
+        <v>211111888</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -4898,39 +4898,39 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <v>10231</v>
+        <v>9550</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
       </c>
       <c r="G106" s="1">
-        <v>45875.60738425926</v>
+        <v>45858.588043981479</v>
       </c>
       <c r="H106" s="1">
-        <v>45845.608969907407</v>
+        <v>45828.58893518518</v>
       </c>
       <c r="I106" s="2">
-        <v>-4.6073842592595611</v>
+        <v>19</v>
       </c>
       <c r="J106" s="3">
-        <v>92.34</v>
+        <v>97.93</v>
       </c>
       <c r="K106" s="3">
-        <v>92.34</v>
+        <v>97.93</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>211111478</v>
+        <v>211111888</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4939,39 +4939,39 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>10964</v>
+        <v>9554</v>
       </c>
       <c r="F107" t="s">
         <v>20</v>
       </c>
       <c r="G107" s="1">
-        <v>45891.654791666668</v>
+        <v>45858.603680555556</v>
       </c>
       <c r="H107" s="1">
-        <v>45861.655266203699</v>
+        <v>45828.605798611112</v>
       </c>
       <c r="I107" s="2">
-        <v>-20.654791666667734</v>
+        <v>19</v>
       </c>
       <c r="J107" s="3">
-        <v>78.75</v>
+        <v>873.41</v>
       </c>
       <c r="K107" s="3">
-        <v>78.75</v>
+        <v>873.41</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
       </c>
       <c r="M107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211111478</v>
+        <v>211111888</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -4980,39 +4980,39 @@
         <v>15</v>
       </c>
       <c r="E108">
-        <v>11256</v>
+        <v>9608</v>
       </c>
       <c r="F108" t="s">
         <v>20</v>
       </c>
       <c r="G108" s="1">
-        <v>45899.266192129631</v>
+        <v>45861.483668981477</v>
       </c>
       <c r="H108" s="1">
-        <v>45869.26662037037</v>
+        <v>45831.48400462963</v>
       </c>
       <c r="I108" s="2">
-        <v>-28.266192129631236</v>
+        <v>16</v>
       </c>
       <c r="J108" s="3">
-        <v>24.94</v>
+        <v>24.36</v>
       </c>
       <c r="K108" s="3">
-        <v>24.94</v>
+        <v>24.36</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211111506</v>
+        <v>211111888</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -5021,39 +5021,39 @@
         <v>15</v>
       </c>
       <c r="E109">
-        <v>10500</v>
+        <v>9715</v>
       </c>
       <c r="F109" t="s">
         <v>20</v>
       </c>
       <c r="G109" s="1">
-        <v>45879.611701388887</v>
+        <v>45863.515474537038</v>
       </c>
       <c r="H109" s="1">
-        <v>45849.612314814811</v>
+        <v>45833.517407407402</v>
       </c>
       <c r="I109" s="2">
-        <v>-8.6117013888870133</v>
+        <v>14</v>
       </c>
       <c r="J109" s="3">
-        <v>4.9000000000000004</v>
+        <v>951.75</v>
       </c>
       <c r="K109" s="3">
-        <v>4.9000000000000004</v>
+        <v>951.75</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211111506</v>
+        <v>211111888</v>
       </c>
       <c r="B110" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -5062,39 +5062,39 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <v>11137</v>
+        <v>9933</v>
       </c>
       <c r="F110" t="s">
         <v>20</v>
       </c>
       <c r="G110" s="1">
-        <v>45897.257187499999</v>
+        <v>45869.385451388887</v>
       </c>
       <c r="H110" s="1">
-        <v>45867.257534722223</v>
+        <v>45839.386840277773</v>
       </c>
       <c r="I110" s="2">
-        <v>-26.257187499999418</v>
+        <v>8</v>
       </c>
       <c r="J110" s="3">
-        <v>91.350000000000009</v>
+        <v>78.92</v>
       </c>
       <c r="K110" s="3">
-        <v>91.350000000000009</v>
+        <v>78.92</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211111506</v>
+        <v>211111888</v>
       </c>
       <c r="B111" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5103,39 +5103,39 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>11185</v>
+        <v>10054</v>
       </c>
       <c r="F111" t="s">
         <v>20</v>
       </c>
       <c r="G111" s="1">
-        <v>45897.574872685182</v>
+        <v>45871.521666666667</v>
       </c>
       <c r="H111" s="1">
-        <v>45867.575555555552</v>
+        <v>45841.521666666667</v>
       </c>
       <c r="I111" s="2">
-        <v>-26.574872685181617</v>
+        <v>6</v>
       </c>
       <c r="J111" s="3">
-        <v>150.5</v>
+        <v>81.25</v>
       </c>
       <c r="K111" s="3">
-        <v>150.5</v>
+        <v>81.25</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
       </c>
       <c r="M111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>211111506</v>
+        <v>211111888</v>
       </c>
       <c r="B112" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
@@ -5144,162 +5144,162 @@
         <v>15</v>
       </c>
       <c r="E112">
-        <v>11296</v>
+        <v>10144</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
       </c>
       <c r="G112" s="1">
-        <v>45900.293009259258</v>
+        <v>45872.453831018516</v>
       </c>
       <c r="H112" s="1">
-        <v>45870.293321759258</v>
+        <v>45842.453831018516</v>
       </c>
       <c r="I112" s="2">
-        <v>-29.293009259257815</v>
+        <v>5</v>
       </c>
       <c r="J112" s="3">
-        <v>61.27</v>
+        <v>833.06000000000006</v>
       </c>
       <c r="K112" s="3">
-        <v>61.27</v>
+        <v>833.06000000000006</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
       </c>
       <c r="M112" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
-      </c>
-      <c r="E113" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="E113">
+        <v>10277</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
       </c>
       <c r="G113" s="1">
-        <v>45769</v>
+        <v>45876.441319444442</v>
       </c>
       <c r="H113" s="1">
-        <v>45739</v>
+        <v>45846.441319444442</v>
       </c>
       <c r="I113" s="2">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="J113" s="3">
-        <v>-602.46</v>
+        <v>1056.32</v>
       </c>
       <c r="K113" s="3">
-        <v>-0.28000000000000003</v>
+        <v>1056.32</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
       </c>
       <c r="M113" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C114" t="s">
-        <v>22</v>
-      </c>
-      <c r="D114">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
       </c>
       <c r="E114">
-        <v>602</v>
+        <v>10352</v>
       </c>
       <c r="F114" t="s">
         <v>20</v>
       </c>
       <c r="G114" s="1">
-        <v>45869</v>
+        <v>45877.450138888889</v>
       </c>
       <c r="H114" s="1">
-        <v>45839</v>
+        <v>45847.450150462959</v>
       </c>
       <c r="I114" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" s="3">
-        <v>-38.380000000000003</v>
+        <v>210.29</v>
       </c>
       <c r="K114" s="3">
-        <v>-38.380000000000003</v>
+        <v>210.29</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
       </c>
       <c r="M114" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D115">
+        <v>2025</v>
       </c>
       <c r="E115">
-        <v>9936</v>
+        <v>636</v>
       </c>
       <c r="F115" t="s">
         <v>20</v>
       </c>
       <c r="G115" s="1">
-        <v>45869.406018518515</v>
+        <v>45878</v>
       </c>
       <c r="H115" s="1">
-        <v>45839.407280092593</v>
+        <v>45848</v>
       </c>
       <c r="I115" s="2">
-        <v>1.5939814814846613</v>
+        <v>-1</v>
       </c>
       <c r="J115" s="3">
-        <v>328.58</v>
+        <v>-507.94</v>
       </c>
       <c r="K115" s="3">
-        <v>328.58</v>
+        <v>-507.94</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
       </c>
       <c r="M115" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -5308,25 +5308,25 @@
         <v>15</v>
       </c>
       <c r="E116">
-        <v>10240</v>
+        <v>10419</v>
       </c>
       <c r="F116" t="s">
         <v>20</v>
       </c>
       <c r="G116" s="1">
-        <v>45876.326597222222</v>
+        <v>45878.429652777777</v>
       </c>
       <c r="H116" s="1">
-        <v>45846.327291666668</v>
+        <v>45848.429652777777</v>
       </c>
       <c r="I116" s="2">
-        <v>-5.3265972222216078</v>
+        <v>-1</v>
       </c>
       <c r="J116" s="3">
-        <v>301.90000000000003</v>
+        <v>540.54999999999995</v>
       </c>
       <c r="K116" s="3">
-        <v>301.90000000000003</v>
+        <v>540.54999999999995</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
@@ -5337,10 +5337,10 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
@@ -5349,25 +5349,25 @@
         <v>15</v>
       </c>
       <c r="E117">
-        <v>11145</v>
+        <v>10477</v>
       </c>
       <c r="F117" t="s">
         <v>20</v>
       </c>
       <c r="G117" s="1">
-        <v>45897.404432870368</v>
+        <v>45879.432314814811</v>
       </c>
       <c r="H117" s="1">
-        <v>45867.405844907407</v>
+        <v>45849.432314814811</v>
       </c>
       <c r="I117" s="2">
-        <v>-26.4044328703676</v>
+        <v>-2</v>
       </c>
       <c r="J117" s="3">
-        <v>89.11</v>
+        <v>165.06</v>
       </c>
       <c r="K117" s="3">
-        <v>89.11</v>
+        <v>165.06</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
@@ -5378,10 +5378,10 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -5390,25 +5390,25 @@
         <v>15</v>
       </c>
       <c r="E118">
-        <v>11175</v>
+        <v>10508</v>
       </c>
       <c r="F118" t="s">
         <v>20</v>
       </c>
       <c r="G118" s="1">
-        <v>45897.554768518516</v>
+        <v>45882.471365740741</v>
       </c>
       <c r="H118" s="1">
-        <v>45867.554780092592</v>
+        <v>45852.471365740741</v>
       </c>
       <c r="I118" s="2">
-        <v>-26.55476851851563</v>
+        <v>-5</v>
       </c>
       <c r="J118" s="3">
-        <v>742.58</v>
+        <v>110.59</v>
       </c>
       <c r="K118" s="3">
-        <v>742.58</v>
+        <v>110.59</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
@@ -5419,10 +5419,10 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
@@ -5431,25 +5431,25 @@
         <v>15</v>
       </c>
       <c r="E119">
-        <v>11311</v>
+        <v>10519</v>
       </c>
       <c r="F119" t="s">
         <v>20</v>
       </c>
       <c r="G119" s="1">
-        <v>45900.455590277779</v>
+        <v>45882.479282407403</v>
       </c>
       <c r="H119" s="1">
-        <v>45870.455590277779</v>
+        <v>45852.479282407403</v>
       </c>
       <c r="I119" s="2">
-        <v>-29.455590277779265</v>
+        <v>-5</v>
       </c>
       <c r="J119" s="3">
-        <v>528.91999999999996</v>
+        <v>439.56</v>
       </c>
       <c r="K119" s="3">
-        <v>528.91999999999996</v>
+        <v>439.56</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
@@ -5472,31 +5472,31 @@
         <v>15</v>
       </c>
       <c r="E120">
-        <v>9429</v>
+        <v>10626</v>
       </c>
       <c r="F120" t="s">
         <v>20</v>
       </c>
       <c r="G120" s="1">
-        <v>45856.451006944444</v>
+        <v>45884.449004629627</v>
       </c>
       <c r="H120" s="1">
-        <v>45826.451331018514</v>
+        <v>45854.449004629627</v>
       </c>
       <c r="I120" s="2">
-        <v>14.548993055555911</v>
+        <v>-7</v>
       </c>
       <c r="J120" s="3">
-        <v>363.51</v>
+        <v>49.69</v>
       </c>
       <c r="K120" s="3">
-        <v>363.51</v>
+        <v>49.69</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
       </c>
       <c r="M120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5513,31 +5513,31 @@
         <v>15</v>
       </c>
       <c r="E121">
-        <v>9550</v>
+        <v>10811</v>
       </c>
       <c r="F121" t="s">
         <v>20</v>
       </c>
       <c r="G121" s="1">
-        <v>45858.588043981479</v>
+        <v>45889.48296296296</v>
       </c>
       <c r="H121" s="1">
-        <v>45828.58893518518</v>
+        <v>45859.48296296296</v>
       </c>
       <c r="I121" s="2">
-        <v>12.411956018520868</v>
+        <v>-12</v>
       </c>
       <c r="J121" s="3">
-        <v>97.93</v>
+        <v>481.88</v>
       </c>
       <c r="K121" s="3">
-        <v>97.93</v>
+        <v>481.88</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
       </c>
       <c r="M121" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5548,37 +5548,37 @@
         <v>42</v>
       </c>
       <c r="C122" t="s">
-        <v>14</v>
-      </c>
-      <c r="D122" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D122">
+        <v>2025</v>
       </c>
       <c r="E122">
-        <v>9554</v>
+        <v>666</v>
       </c>
       <c r="F122" t="s">
         <v>20</v>
       </c>
       <c r="G122" s="1">
-        <v>45858.603680555556</v>
+        <v>45891</v>
       </c>
       <c r="H122" s="1">
-        <v>45828.605798611112</v>
+        <v>45861</v>
       </c>
       <c r="I122" s="2">
-        <v>12.396319444444089</v>
+        <v>-14</v>
       </c>
       <c r="J122" s="3">
-        <v>873.41</v>
+        <v>-359.47</v>
       </c>
       <c r="K122" s="3">
-        <v>873.41</v>
+        <v>-359.47</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
       </c>
       <c r="M122" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5589,37 +5589,37 @@
         <v>42</v>
       </c>
       <c r="C123" t="s">
-        <v>14</v>
-      </c>
-      <c r="D123" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D123">
+        <v>2025</v>
       </c>
       <c r="E123">
-        <v>9608</v>
+        <v>679</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
       </c>
       <c r="G123" s="1">
-        <v>45861.483668981477</v>
+        <v>45892</v>
       </c>
       <c r="H123" s="1">
-        <v>45831.48400462963</v>
+        <v>45862</v>
       </c>
       <c r="I123" s="2">
-        <v>9.5163310185234877</v>
+        <v>-15</v>
       </c>
       <c r="J123" s="3">
-        <v>24.36</v>
+        <v>-11.61</v>
       </c>
       <c r="K123" s="3">
-        <v>24.36</v>
+        <v>-11.61</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
       </c>
       <c r="M123" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5636,31 +5636,31 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>9715</v>
+        <v>10999</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
       </c>
       <c r="G124" s="1">
-        <v>45863.515474537038</v>
+        <v>45892.498240740737</v>
       </c>
       <c r="H124" s="1">
-        <v>45833.517407407402</v>
+        <v>45862.498240740737</v>
       </c>
       <c r="I124" s="2">
-        <v>7.4845254629617557</v>
+        <v>-15</v>
       </c>
       <c r="J124" s="3">
-        <v>951.75</v>
+        <v>134.38</v>
       </c>
       <c r="K124" s="3">
-        <v>951.75</v>
+        <v>134.38</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
       </c>
       <c r="M124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5677,31 +5677,31 @@
         <v>15</v>
       </c>
       <c r="E125">
-        <v>9933</v>
+        <v>11123</v>
       </c>
       <c r="F125" t="s">
         <v>20</v>
       </c>
       <c r="G125" s="1">
-        <v>45869.385451388887</v>
+        <v>45896.546006944445</v>
       </c>
       <c r="H125" s="1">
-        <v>45839.386840277773</v>
+        <v>45866.547673611109</v>
       </c>
       <c r="I125" s="2">
-        <v>1.6145486111126957</v>
+        <v>-19</v>
       </c>
       <c r="J125" s="3">
-        <v>78.92</v>
+        <v>727.73</v>
       </c>
       <c r="K125" s="3">
-        <v>78.92</v>
+        <v>727.73</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
       </c>
       <c r="M125" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5718,25 +5718,25 @@
         <v>15</v>
       </c>
       <c r="E126">
-        <v>10054</v>
+        <v>11288</v>
       </c>
       <c r="F126" t="s">
         <v>20</v>
       </c>
       <c r="G126" s="1">
-        <v>45871.521666666667</v>
+        <v>45899.506018518514</v>
       </c>
       <c r="H126" s="1">
-        <v>45841.521666666667</v>
+        <v>45869.506030092591</v>
       </c>
       <c r="I126" s="2">
-        <v>-0.52166666666744277</v>
+        <v>-22</v>
       </c>
       <c r="J126" s="3">
-        <v>81.25</v>
+        <v>228.8</v>
       </c>
       <c r="K126" s="3">
-        <v>81.25</v>
+        <v>228.8</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
@@ -5759,25 +5759,25 @@
         <v>15</v>
       </c>
       <c r="E127">
-        <v>10144</v>
+        <v>11344</v>
       </c>
       <c r="F127" t="s">
         <v>20</v>
       </c>
       <c r="G127" s="1">
-        <v>45872.453831018516</v>
+        <v>45900.516886574071</v>
       </c>
       <c r="H127" s="1">
-        <v>45842.453831018516</v>
+        <v>45870.516898148147</v>
       </c>
       <c r="I127" s="2">
-        <v>-1.4538310185162118</v>
+        <v>-23</v>
       </c>
       <c r="J127" s="3">
-        <v>833.06000000000006</v>
+        <v>741.32</v>
       </c>
       <c r="K127" s="3">
-        <v>833.06000000000006</v>
+        <v>741.32</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
@@ -5800,25 +5800,25 @@
         <v>15</v>
       </c>
       <c r="E128">
-        <v>10277</v>
+        <v>11446</v>
       </c>
       <c r="F128" t="s">
         <v>20</v>
       </c>
       <c r="G128" s="1">
-        <v>45876.441319444442</v>
+        <v>45904.531446759254</v>
       </c>
       <c r="H128" s="1">
-        <v>45846.441319444442</v>
+        <v>45874.531446759254</v>
       </c>
       <c r="I128" s="2">
-        <v>-5.4413194444423425</v>
+        <v>-27</v>
       </c>
       <c r="J128" s="3">
-        <v>1056.32</v>
+        <v>49.82</v>
       </c>
       <c r="K128" s="3">
-        <v>1056.32</v>
+        <v>49.82</v>
       </c>
       <c r="L128" t="s">
         <v>17</v>
@@ -5841,25 +5841,25 @@
         <v>15</v>
       </c>
       <c r="E129">
-        <v>10352</v>
+        <v>11547</v>
       </c>
       <c r="F129" t="s">
         <v>20</v>
       </c>
       <c r="G129" s="1">
-        <v>45877.450138888889</v>
+        <v>45905.643067129626</v>
       </c>
       <c r="H129" s="1">
-        <v>45847.450150462959</v>
+        <v>45875.643437499995</v>
       </c>
       <c r="I129" s="2">
-        <v>-6.4501388888893416</v>
+        <v>-28</v>
       </c>
       <c r="J129" s="3">
-        <v>210.29</v>
+        <v>699.11</v>
       </c>
       <c r="K129" s="3">
-        <v>210.29</v>
+        <v>699.11</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
@@ -5876,31 +5876,31 @@
         <v>42</v>
       </c>
       <c r="C130" t="s">
-        <v>22</v>
-      </c>
-      <c r="D130">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D130" t="s">
+        <v>15</v>
       </c>
       <c r="E130">
-        <v>636</v>
+        <v>11552</v>
       </c>
       <c r="F130" t="s">
         <v>20</v>
       </c>
       <c r="G130" s="1">
-        <v>45878</v>
+        <v>45906.357638888891</v>
       </c>
       <c r="H130" s="1">
-        <v>45848</v>
+        <v>45876.35765046296</v>
       </c>
       <c r="I130" s="2">
-        <v>-7</v>
+        <v>-29</v>
       </c>
       <c r="J130" s="3">
-        <v>-507.94</v>
+        <v>179.12</v>
       </c>
       <c r="K130" s="3">
-        <v>-507.94</v>
+        <v>179.12</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
@@ -5911,10 +5911,10 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>211111888</v>
+        <v>211111892</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -5923,25 +5923,25 @@
         <v>15</v>
       </c>
       <c r="E131">
-        <v>10419</v>
+        <v>11364</v>
       </c>
       <c r="F131" t="s">
         <v>20</v>
       </c>
       <c r="G131" s="1">
-        <v>45878.429652777777</v>
+        <v>45900.600254629629</v>
       </c>
       <c r="H131" s="1">
-        <v>45848.429652777777</v>
+        <v>45870.600983796292</v>
       </c>
       <c r="I131" s="2">
-        <v>-7.429652777776937</v>
+        <v>-23</v>
       </c>
       <c r="J131" s="3">
-        <v>540.54999999999995</v>
+        <v>114.72</v>
       </c>
       <c r="K131" s="3">
-        <v>540.54999999999995</v>
+        <v>114.72</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
@@ -5952,10 +5952,10 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211111888</v>
+        <v>211111892</v>
       </c>
       <c r="B132" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -5964,25 +5964,25 @@
         <v>15</v>
       </c>
       <c r="E132">
-        <v>10477</v>
+        <v>11504</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
       </c>
       <c r="G132" s="1">
-        <v>45879.432314814811</v>
+        <v>45905.431342592594</v>
       </c>
       <c r="H132" s="1">
-        <v>45849.432314814811</v>
+        <v>45875.432152777779</v>
       </c>
       <c r="I132" s="2">
-        <v>-8.4323148148105247</v>
+        <v>-28</v>
       </c>
       <c r="J132" s="3">
-        <v>165.06</v>
+        <v>243.1</v>
       </c>
       <c r="K132" s="3">
-        <v>165.06</v>
+        <v>243.1</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
@@ -5993,10 +5993,10 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
@@ -6005,25 +6005,25 @@
         <v>15</v>
       </c>
       <c r="E133">
-        <v>10508</v>
+        <v>10431</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
       </c>
       <c r="G133" s="1">
-        <v>45882.471365740741</v>
+        <v>45878.592581018514</v>
       </c>
       <c r="H133" s="1">
-        <v>45852.471365740741</v>
+        <v>45848.592581018514</v>
       </c>
       <c r="I133" s="2">
-        <v>-11.471365740741021</v>
+        <v>-1</v>
       </c>
       <c r="J133" s="3">
-        <v>110.59</v>
+        <v>414.76</v>
       </c>
       <c r="K133" s="3">
-        <v>110.59</v>
+        <v>414.76</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
@@ -6034,10 +6034,10 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6046,25 +6046,25 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>10519</v>
+        <v>10728</v>
       </c>
       <c r="F134" t="s">
         <v>20</v>
       </c>
       <c r="G134" s="1">
-        <v>45882.479282407403</v>
+        <v>45886.283738425926</v>
       </c>
       <c r="H134" s="1">
-        <v>45852.479282407403</v>
+        <v>45856.284224537034</v>
       </c>
       <c r="I134" s="2">
-        <v>-11.479282407402934</v>
+        <v>-9</v>
       </c>
       <c r="J134" s="3">
-        <v>439.56</v>
+        <v>278.35000000000002</v>
       </c>
       <c r="K134" s="3">
-        <v>439.56</v>
+        <v>278.35000000000002</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
@@ -6075,10 +6075,10 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6087,25 +6087,25 @@
         <v>15</v>
       </c>
       <c r="E135">
-        <v>10626</v>
+        <v>11297</v>
       </c>
       <c r="F135" t="s">
         <v>20</v>
       </c>
       <c r="G135" s="1">
-        <v>45884.449004629627</v>
+        <v>45900.295555555553</v>
       </c>
       <c r="H135" s="1">
-        <v>45854.449004629627</v>
+        <v>45870.300393518519</v>
       </c>
       <c r="I135" s="2">
-        <v>-13.44900462962687</v>
+        <v>-23</v>
       </c>
       <c r="J135" s="3">
-        <v>49.69</v>
+        <v>482.92</v>
       </c>
       <c r="K135" s="3">
-        <v>49.69</v>
+        <v>482.92</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
@@ -6116,10 +6116,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211111888</v>
+        <v>211112022</v>
       </c>
       <c r="B136" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -6128,121 +6128,121 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>10811</v>
+        <v>9992</v>
       </c>
       <c r="F136" t="s">
         <v>20</v>
       </c>
       <c r="G136" s="1">
-        <v>45889.48296296296</v>
+        <v>45840.446226851847</v>
       </c>
       <c r="H136" s="1">
-        <v>45859.48296296296</v>
+        <v>45840.446226851847</v>
       </c>
       <c r="I136" s="2">
-        <v>-18.482962962960301</v>
+        <v>37</v>
       </c>
       <c r="J136" s="3">
-        <v>481.88</v>
+        <v>326.48</v>
       </c>
       <c r="K136" s="3">
-        <v>481.88</v>
+        <v>326.48</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
       </c>
       <c r="M136" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211111888</v>
+        <v>211112022</v>
       </c>
       <c r="B137" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137">
+        <v>10718</v>
+      </c>
+      <c r="F137" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" s="1">
+        <v>45855.563877314809</v>
+      </c>
+      <c r="H137" s="1">
+        <v>45855.563877314809</v>
+      </c>
+      <c r="I137" s="2">
         <v>22</v>
       </c>
-      <c r="D137">
-        <v>2025</v>
-      </c>
-      <c r="E137">
-        <v>666</v>
-      </c>
-      <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" s="1">
-        <v>45891</v>
-      </c>
-      <c r="H137" s="1">
-        <v>45861</v>
-      </c>
-      <c r="I137" s="2">
-        <v>-20</v>
-      </c>
       <c r="J137" s="3">
-        <v>-359.47</v>
+        <v>194.09</v>
       </c>
       <c r="K137" s="3">
-        <v>-359.47</v>
+        <v>194.09</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
       </c>
       <c r="M137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211111888</v>
+        <v>211112034</v>
       </c>
       <c r="B138" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
-      </c>
-      <c r="D138">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D138" t="s">
+        <v>15</v>
       </c>
       <c r="E138">
-        <v>679</v>
+        <v>9998</v>
       </c>
       <c r="F138" t="s">
         <v>20</v>
       </c>
       <c r="G138" s="1">
-        <v>45892</v>
+        <v>45870.501469907409</v>
       </c>
       <c r="H138" s="1">
-        <v>45862</v>
+        <v>45840.502164351848</v>
       </c>
       <c r="I138" s="2">
-        <v>-21</v>
+        <v>7</v>
       </c>
       <c r="J138" s="3">
-        <v>-11.61</v>
+        <v>161.81</v>
       </c>
       <c r="K138" s="3">
-        <v>-11.61</v>
+        <v>161.81</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
       </c>
       <c r="M138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>211111888</v>
+        <v>211112034</v>
       </c>
       <c r="B139" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
@@ -6251,39 +6251,39 @@
         <v>15</v>
       </c>
       <c r="E139">
-        <v>10999</v>
+        <v>10048</v>
       </c>
       <c r="F139" t="s">
         <v>20</v>
       </c>
       <c r="G139" s="1">
-        <v>45892.498240740737</v>
+        <v>45871.520023148143</v>
       </c>
       <c r="H139" s="1">
-        <v>45862.498240740737</v>
+        <v>45841.520324074074</v>
       </c>
       <c r="I139" s="2">
-        <v>-21.498240740736946</v>
+        <v>6</v>
       </c>
       <c r="J139" s="3">
-        <v>134.38</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="K139" s="3">
-        <v>134.38</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
       </c>
       <c r="M139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>211111888</v>
+        <v>211112034</v>
       </c>
       <c r="B140" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
@@ -6292,39 +6292,39 @@
         <v>15</v>
       </c>
       <c r="E140">
-        <v>11123</v>
+        <v>10279</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
       </c>
       <c r="G140" s="1">
-        <v>45896.546006944445</v>
+        <v>45876.48737268518</v>
       </c>
       <c r="H140" s="1">
-        <v>45866.547673611109</v>
+        <v>45846.488263888888</v>
       </c>
       <c r="I140" s="2">
-        <v>-25.546006944445253</v>
+        <v>1</v>
       </c>
       <c r="J140" s="3">
-        <v>727.73</v>
+        <v>243.53</v>
       </c>
       <c r="K140" s="3">
-        <v>727.73</v>
+        <v>243.53</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>211111888</v>
+        <v>211112034</v>
       </c>
       <c r="B141" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
@@ -6333,25 +6333,25 @@
         <v>15</v>
       </c>
       <c r="E141">
-        <v>11288</v>
+        <v>10588</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
       </c>
       <c r="G141" s="1">
-        <v>45899.506018518514</v>
+        <v>45883.665393518517</v>
       </c>
       <c r="H141" s="1">
-        <v>45869.506030092591</v>
+        <v>45853.665520833332</v>
       </c>
       <c r="I141" s="2">
-        <v>-28.506018518513883</v>
+        <v>-6</v>
       </c>
       <c r="J141" s="3">
-        <v>228.8</v>
+        <v>250.28</v>
       </c>
       <c r="K141" s="3">
-        <v>228.8</v>
+        <v>250.28</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
@@ -6362,10 +6362,10 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>211111888</v>
+        <v>211112034</v>
       </c>
       <c r="B142" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
@@ -6374,25 +6374,25 @@
         <v>15</v>
       </c>
       <c r="E142">
-        <v>11344</v>
+        <v>10900</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
       </c>
       <c r="G142" s="1">
-        <v>45900.516886574071</v>
+        <v>45891.499594907407</v>
       </c>
       <c r="H142" s="1">
-        <v>45870.516898148147</v>
+        <v>45861.500196759254</v>
       </c>
       <c r="I142" s="2">
-        <v>-29.516886574070668</v>
+        <v>-14</v>
       </c>
       <c r="J142" s="3">
-        <v>741.32</v>
+        <v>227.62</v>
       </c>
       <c r="K142" s="3">
-        <v>741.32</v>
+        <v>227.62</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
@@ -6403,10 +6403,10 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>211111892</v>
+        <v>211112034</v>
       </c>
       <c r="B143" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
@@ -6415,25 +6415,25 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>11093</v>
+        <v>11243</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
       </c>
       <c r="G143" s="1">
-        <v>45896.468298611107</v>
+        <v>45898.51180555555</v>
       </c>
       <c r="H143" s="1">
-        <v>45866.47038194444</v>
+        <v>45868.512175925927</v>
       </c>
       <c r="I143" s="2">
-        <v>-25.468298611107457</v>
+        <v>-21</v>
       </c>
       <c r="J143" s="3">
-        <v>37.74</v>
+        <v>140.12</v>
       </c>
       <c r="K143" s="3">
-        <v>37.74</v>
+        <v>140.12</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
@@ -6444,10 +6444,10 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>211111892</v>
+        <v>211112034</v>
       </c>
       <c r="B144" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -6456,25 +6456,25 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>11364</v>
+        <v>11535</v>
       </c>
       <c r="F144" t="s">
         <v>20</v>
       </c>
       <c r="G144" s="1">
-        <v>45900.600254629629</v>
+        <v>45905.529490740737</v>
       </c>
       <c r="H144" s="1">
-        <v>45870.600983796292</v>
+        <v>45875.530717592592</v>
       </c>
       <c r="I144" s="2">
-        <v>-29.60025462962949</v>
+        <v>-28</v>
       </c>
       <c r="J144" s="3">
-        <v>114.72</v>
+        <v>285.49</v>
       </c>
       <c r="K144" s="3">
-        <v>114.72</v>
+        <v>285.49</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
@@ -6485,10 +6485,10 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>211112004</v>
+        <v>211112075</v>
       </c>
       <c r="B145" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
@@ -6497,39 +6497,39 @@
         <v>15</v>
       </c>
       <c r="E145">
-        <v>9445</v>
+        <v>11598</v>
       </c>
       <c r="F145" t="s">
         <v>20</v>
       </c>
       <c r="G145" s="1">
-        <v>45856.586018518516</v>
+        <v>45891.634305555555</v>
       </c>
       <c r="H145" s="1">
-        <v>45826.587974537033</v>
+        <v>45876.634699074071</v>
       </c>
       <c r="I145" s="2">
-        <v>14.41398148148437</v>
+        <v>-14</v>
       </c>
       <c r="J145" s="3">
-        <v>264.78000000000003</v>
+        <v>139.93</v>
       </c>
       <c r="K145" s="3">
-        <v>264.78000000000003</v>
+        <v>139.93</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
       </c>
       <c r="M145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112004</v>
+        <v>211112182</v>
       </c>
       <c r="B146" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -6538,25 +6538,25 @@
         <v>15</v>
       </c>
       <c r="E146">
-        <v>10431</v>
+        <v>11004</v>
       </c>
       <c r="F146" t="s">
         <v>20</v>
       </c>
       <c r="G146" s="1">
-        <v>45878.592581018514</v>
+        <v>45892.498379629629</v>
       </c>
       <c r="H146" s="1">
-        <v>45848.592581018514</v>
+        <v>45862.498379629629</v>
       </c>
       <c r="I146" s="2">
-        <v>-7.5925810185144655</v>
+        <v>-15</v>
       </c>
       <c r="J146" s="3">
-        <v>414.76</v>
+        <v>213.81</v>
       </c>
       <c r="K146" s="3">
-        <v>414.76</v>
+        <v>213.81</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
@@ -6567,51 +6567,51 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>211112004</v>
+        <v>211112415</v>
       </c>
       <c r="B147" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D147" t="s">
         <v>15</v>
       </c>
       <c r="E147">
-        <v>10728</v>
+        <v>434</v>
       </c>
       <c r="F147" t="s">
         <v>20</v>
       </c>
       <c r="G147" s="1">
-        <v>45886.283738425926</v>
+        <v>45819</v>
       </c>
       <c r="H147" s="1">
-        <v>45856.284224537034</v>
+        <v>45789</v>
       </c>
       <c r="I147" s="2">
-        <v>-15.283738425925549</v>
+        <v>58</v>
       </c>
       <c r="J147" s="3">
-        <v>278.35000000000002</v>
+        <v>-2.35</v>
       </c>
       <c r="K147" s="3">
-        <v>278.35000000000002</v>
+        <v>-2.35</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
       </c>
       <c r="M147" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>211112004</v>
+        <v>211112415</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -6620,39 +6620,39 @@
         <v>15</v>
       </c>
       <c r="E148">
-        <v>11297</v>
+        <v>9857</v>
       </c>
       <c r="F148" t="s">
         <v>20</v>
       </c>
       <c r="G148" s="1">
-        <v>45900.295555555553</v>
+        <v>45865.462974537033</v>
       </c>
       <c r="H148" s="1">
-        <v>45870.300393518519</v>
+        <v>45835.463900462964</v>
       </c>
       <c r="I148" s="2">
-        <v>-29.29555555555271</v>
+        <v>12</v>
       </c>
       <c r="J148" s="3">
-        <v>482.92</v>
+        <v>52.45</v>
       </c>
       <c r="K148" s="3">
-        <v>482.92</v>
+        <v>52.45</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
       </c>
       <c r="M148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>211112022</v>
+        <v>211112415</v>
       </c>
       <c r="B149" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
@@ -6661,25 +6661,25 @@
         <v>15</v>
       </c>
       <c r="E149">
-        <v>9992</v>
+        <v>10341</v>
       </c>
       <c r="F149" t="s">
         <v>20</v>
       </c>
       <c r="G149" s="1">
-        <v>45840.446226851847</v>
+        <v>45877.430648148147</v>
       </c>
       <c r="H149" s="1">
-        <v>45840.446226851847</v>
+        <v>45847.430648148147</v>
       </c>
       <c r="I149" s="2">
-        <v>30.553773148152686</v>
+        <v>0</v>
       </c>
       <c r="J149" s="3">
-        <v>326.48</v>
+        <v>74.72</v>
       </c>
       <c r="K149" s="3">
-        <v>326.48</v>
+        <v>74.72</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
@@ -6690,10 +6690,10 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>211112022</v>
+        <v>211112415</v>
       </c>
       <c r="B150" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C150" t="s">
         <v>14</v>
@@ -6702,39 +6702,39 @@
         <v>15</v>
       </c>
       <c r="E150">
-        <v>10718</v>
+        <v>10822</v>
       </c>
       <c r="F150" t="s">
         <v>20</v>
       </c>
       <c r="G150" s="1">
-        <v>45855.563877314809</v>
+        <v>45889.487743055557</v>
       </c>
       <c r="H150" s="1">
-        <v>45855.563877314809</v>
+        <v>45859.487743055557</v>
       </c>
       <c r="I150" s="2">
-        <v>15.436122685190639</v>
+        <v>-12</v>
       </c>
       <c r="J150" s="3">
-        <v>194.09</v>
+        <v>95.87</v>
       </c>
       <c r="K150" s="3">
-        <v>194.09</v>
+        <v>95.87</v>
       </c>
       <c r="L150" t="s">
         <v>17</v>
       </c>
       <c r="M150" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>211112034</v>
+        <v>211112415</v>
       </c>
       <c r="B151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C151" t="s">
         <v>14</v>
@@ -6743,25 +6743,25 @@
         <v>15</v>
       </c>
       <c r="E151">
-        <v>9998</v>
+        <v>11070</v>
       </c>
       <c r="F151" t="s">
         <v>20</v>
       </c>
       <c r="G151" s="1">
-        <v>45870.501469907409</v>
+        <v>45893.523460648146</v>
       </c>
       <c r="H151" s="1">
-        <v>45840.502164351848</v>
+        <v>45863.523460648146</v>
       </c>
       <c r="I151" s="2">
-        <v>0.49853009259095415</v>
+        <v>-16</v>
       </c>
       <c r="J151" s="3">
-        <v>161.81</v>
+        <v>106.52</v>
       </c>
       <c r="K151" s="3">
-        <v>161.81</v>
+        <v>106.52</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
@@ -6772,10 +6772,10 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>211112034</v>
+        <v>211112415</v>
       </c>
       <c r="B152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -6784,25 +6784,25 @@
         <v>15</v>
       </c>
       <c r="E152">
-        <v>10048</v>
+        <v>11102</v>
       </c>
       <c r="F152" t="s">
         <v>20</v>
       </c>
       <c r="G152" s="1">
-        <v>45871.520023148143</v>
+        <v>45896.526087962964</v>
       </c>
       <c r="H152" s="1">
-        <v>45841.520324074074</v>
+        <v>45866.526087962964</v>
       </c>
       <c r="I152" s="2">
-        <v>-0.52002314814308193</v>
+        <v>-19</v>
       </c>
       <c r="J152" s="3">
-        <v>71.540000000000006</v>
+        <v>48.92</v>
       </c>
       <c r="K152" s="3">
-        <v>71.540000000000006</v>
+        <v>48.92</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
@@ -6813,10 +6813,10 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>211112034</v>
+        <v>211112415</v>
       </c>
       <c r="B153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
@@ -6825,25 +6825,25 @@
         <v>15</v>
       </c>
       <c r="E153">
-        <v>10279</v>
+        <v>11360</v>
       </c>
       <c r="F153" t="s">
         <v>20</v>
       </c>
       <c r="G153" s="1">
-        <v>45876.48737268518</v>
+        <v>45900.567083333328</v>
       </c>
       <c r="H153" s="1">
-        <v>45846.488263888888</v>
+        <v>45870.567083333328</v>
       </c>
       <c r="I153" s="2">
-        <v>-5.4873726851801621</v>
+        <v>-23</v>
       </c>
       <c r="J153" s="3">
-        <v>243.53</v>
+        <v>50.69</v>
       </c>
       <c r="K153" s="3">
-        <v>243.53</v>
+        <v>50.69</v>
       </c>
       <c r="L153" t="s">
         <v>17</v>
@@ -6854,10 +6854,10 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>211112034</v>
+        <v>211112415</v>
       </c>
       <c r="B154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -6866,25 +6866,25 @@
         <v>15</v>
       </c>
       <c r="E154">
-        <v>10588</v>
+        <v>11543</v>
       </c>
       <c r="F154" t="s">
         <v>20</v>
       </c>
       <c r="G154" s="1">
-        <v>45883.665393518517</v>
+        <v>45905.539733796293</v>
       </c>
       <c r="H154" s="1">
-        <v>45853.665520833332</v>
+        <v>45875.539733796293</v>
       </c>
       <c r="I154" s="2">
-        <v>-12.665393518516794</v>
+        <v>-28</v>
       </c>
       <c r="J154" s="3">
-        <v>250.28</v>
+        <v>61.22</v>
       </c>
       <c r="K154" s="3">
-        <v>250.28</v>
+        <v>61.22</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
@@ -6895,10 +6895,10 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>211112034</v>
+        <v>211112544</v>
       </c>
       <c r="B155" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C155" t="s">
         <v>14</v>
@@ -6907,39 +6907,39 @@
         <v>15</v>
       </c>
       <c r="E155">
-        <v>10900</v>
+        <v>11192</v>
       </c>
       <c r="F155" t="s">
         <v>20</v>
       </c>
       <c r="G155" s="1">
-        <v>45891.499594907407</v>
+        <v>45868.475057870368</v>
       </c>
       <c r="H155" s="1">
-        <v>45861.500196759254</v>
+        <v>45868.475057870368</v>
       </c>
       <c r="I155" s="2">
-        <v>-20.4995949074073</v>
+        <v>9</v>
       </c>
       <c r="J155" s="3">
-        <v>227.62</v>
+        <v>1971.6000000000001</v>
       </c>
       <c r="K155" s="3">
-        <v>227.62</v>
+        <v>1971.6000000000001</v>
       </c>
       <c r="L155" t="s">
         <v>17</v>
       </c>
       <c r="M155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>211112034</v>
+        <v>211112544</v>
       </c>
       <c r="B156" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
@@ -6948,39 +6948,39 @@
         <v>15</v>
       </c>
       <c r="E156">
-        <v>11243</v>
+        <v>11426</v>
       </c>
       <c r="F156" t="s">
         <v>20</v>
       </c>
       <c r="G156" s="1">
-        <v>45898.51180555555</v>
+        <v>45874.460439814815</v>
       </c>
       <c r="H156" s="1">
-        <v>45868.512175925927</v>
+        <v>45874.460439814815</v>
       </c>
       <c r="I156" s="2">
-        <v>-27.511805555550382</v>
+        <v>3</v>
       </c>
       <c r="J156" s="3">
-        <v>140.12</v>
+        <v>890.4</v>
       </c>
       <c r="K156" s="3">
-        <v>140.12</v>
+        <v>890.4</v>
       </c>
       <c r="L156" t="s">
         <v>17</v>
       </c>
       <c r="M156" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>211112182</v>
+        <v>211121278</v>
       </c>
       <c r="B157" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C157" t="s">
         <v>14</v>
@@ -6989,80 +6989,80 @@
         <v>15</v>
       </c>
       <c r="E157">
-        <v>11004</v>
+        <v>9259</v>
       </c>
       <c r="F157" t="s">
         <v>20</v>
       </c>
       <c r="G157" s="1">
-        <v>45892.498379629629</v>
+        <v>45851.59134259259</v>
       </c>
       <c r="H157" s="1">
-        <v>45862.498379629629</v>
+        <v>45821.592164351852</v>
       </c>
       <c r="I157" s="2">
-        <v>-21.498379629629198</v>
+        <v>26</v>
       </c>
       <c r="J157" s="3">
-        <v>213.81</v>
+        <v>97.2</v>
       </c>
       <c r="K157" s="3">
-        <v>213.81</v>
+        <v>97.2</v>
       </c>
       <c r="L157" t="s">
         <v>17</v>
       </c>
       <c r="M157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>211112415</v>
+        <v>211121278</v>
       </c>
       <c r="B158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C158" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D158" t="s">
         <v>15</v>
       </c>
       <c r="E158">
-        <v>434</v>
+        <v>9555</v>
       </c>
       <c r="F158" t="s">
         <v>20</v>
       </c>
       <c r="G158" s="1">
-        <v>45819</v>
+        <v>45858.607731481483</v>
       </c>
       <c r="H158" s="1">
-        <v>45789</v>
+        <v>45828.608090277776</v>
       </c>
       <c r="I158" s="2">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J158" s="3">
-        <v>-2.35</v>
+        <v>75.600000000000009</v>
       </c>
       <c r="K158" s="3">
-        <v>-2.35</v>
+        <v>75.600000000000009</v>
       </c>
       <c r="L158" t="s">
         <v>17</v>
       </c>
       <c r="M158" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>211112415</v>
+        <v>211121278</v>
       </c>
       <c r="B159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C159" t="s">
         <v>14</v>
@@ -7071,25 +7071,25 @@
         <v>15</v>
       </c>
       <c r="E159">
-        <v>9542</v>
+        <v>9722</v>
       </c>
       <c r="F159" t="s">
         <v>20</v>
       </c>
       <c r="G159" s="1">
-        <v>45858.577106481476</v>
+        <v>45863.601412037038</v>
       </c>
       <c r="H159" s="1">
-        <v>45828.577303240738</v>
+        <v>45833.602407407408</v>
       </c>
       <c r="I159" s="2">
-        <v>12.422893518523779</v>
+        <v>14</v>
       </c>
       <c r="J159" s="3">
-        <v>85.41</v>
+        <v>102.60000000000001</v>
       </c>
       <c r="K159" s="3">
-        <v>85.41</v>
+        <v>102.60000000000001</v>
       </c>
       <c r="L159" t="s">
         <v>17</v>
@@ -7100,10 +7100,10 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>211112415</v>
+        <v>211121278</v>
       </c>
       <c r="B160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C160" t="s">
         <v>14</v>
@@ -7112,25 +7112,25 @@
         <v>15</v>
       </c>
       <c r="E160">
-        <v>9659</v>
+        <v>10076</v>
       </c>
       <c r="F160" t="s">
         <v>20</v>
       </c>
       <c r="G160" s="1">
-        <v>45863.401469907403</v>
+        <v>45871.611539351848</v>
       </c>
       <c r="H160" s="1">
-        <v>45833.401736111111</v>
+        <v>45841.612893518519</v>
       </c>
       <c r="I160" s="2">
-        <v>7.5985300925967749</v>
+        <v>6</v>
       </c>
       <c r="J160" s="3">
-        <v>68.63</v>
+        <v>91.8</v>
       </c>
       <c r="K160" s="3">
-        <v>68.63</v>
+        <v>91.8</v>
       </c>
       <c r="L160" t="s">
         <v>17</v>
@@ -7141,10 +7141,10 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>211112415</v>
+        <v>211121278</v>
       </c>
       <c r="B161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C161" t="s">
         <v>14</v>
@@ -7153,39 +7153,39 @@
         <v>15</v>
       </c>
       <c r="E161">
-        <v>9671</v>
+        <v>10229</v>
       </c>
       <c r="F161" t="s">
         <v>20</v>
       </c>
       <c r="G161" s="1">
-        <v>45863.436921296292</v>
+        <v>45875.600995370369</v>
       </c>
       <c r="H161" s="1">
-        <v>45833.437662037039</v>
+        <v>45845.602673611109</v>
       </c>
       <c r="I161" s="2">
-        <v>7.5630787037080154</v>
+        <v>2</v>
       </c>
       <c r="J161" s="3">
-        <v>27.77</v>
+        <v>86.4</v>
       </c>
       <c r="K161" s="3">
-        <v>27.77</v>
+        <v>86.4</v>
       </c>
       <c r="L161" t="s">
         <v>17</v>
       </c>
       <c r="M161" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>211112415</v>
+        <v>211121278</v>
       </c>
       <c r="B162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C162" t="s">
         <v>14</v>
@@ -7194,645 +7194,30 @@
         <v>15</v>
       </c>
       <c r="E162">
-        <v>9857</v>
+        <v>11294</v>
       </c>
       <c r="F162" t="s">
         <v>20</v>
       </c>
       <c r="G162" s="1">
-        <v>45865.462974537033</v>
+        <v>45899.61278935185</v>
       </c>
       <c r="H162" s="1">
-        <v>45835.463900462964</v>
+        <v>45869.613032407404</v>
       </c>
       <c r="I162" s="2">
-        <v>5.5370254629669944</v>
+        <v>-22</v>
       </c>
       <c r="J162" s="3">
-        <v>52.45</v>
+        <v>21.6</v>
       </c>
       <c r="K162" s="3">
-        <v>52.45</v>
+        <v>21.6</v>
       </c>
       <c r="L162" t="s">
         <v>17</v>
       </c>
       <c r="M162" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>211112415</v>
-      </c>
-      <c r="B163" t="s">
-        <v>46</v>
-      </c>
-      <c r="C163" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163">
-        <v>10341</v>
-      </c>
-      <c r="F163" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163" s="1">
-        <v>45877.430648148147</v>
-      </c>
-      <c r="H163" s="1">
-        <v>45847.430648148147</v>
-      </c>
-      <c r="I163" s="2">
-        <v>-6.4306481481471565</v>
-      </c>
-      <c r="J163" s="3">
-        <v>74.72</v>
-      </c>
-      <c r="K163" s="3">
-        <v>74.72</v>
-      </c>
-      <c r="L163" t="s">
-        <v>17</v>
-      </c>
-      <c r="M163" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>211112415</v>
-      </c>
-      <c r="B164" t="s">
-        <v>46</v>
-      </c>
-      <c r="C164" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" t="s">
-        <v>15</v>
-      </c>
-      <c r="E164">
-        <v>10822</v>
-      </c>
-      <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" s="1">
-        <v>45889.487743055557</v>
-      </c>
-      <c r="H164" s="1">
-        <v>45859.487743055557</v>
-      </c>
-      <c r="I164" s="2">
-        <v>-18.487743055557075</v>
-      </c>
-      <c r="J164" s="3">
-        <v>95.87</v>
-      </c>
-      <c r="K164" s="3">
-        <v>95.87</v>
-      </c>
-      <c r="L164" t="s">
-        <v>17</v>
-      </c>
-      <c r="M164" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>211112415</v>
-      </c>
-      <c r="B165" t="s">
-        <v>46</v>
-      </c>
-      <c r="C165" t="s">
-        <v>14</v>
-      </c>
-      <c r="D165" t="s">
-        <v>15</v>
-      </c>
-      <c r="E165">
-        <v>11070</v>
-      </c>
-      <c r="F165" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" s="1">
-        <v>45893.523460648146</v>
-      </c>
-      <c r="H165" s="1">
-        <v>45863.523460648146</v>
-      </c>
-      <c r="I165" s="2">
-        <v>-22.523460648146283</v>
-      </c>
-      <c r="J165" s="3">
-        <v>106.52</v>
-      </c>
-      <c r="K165" s="3">
-        <v>106.52</v>
-      </c>
-      <c r="L165" t="s">
-        <v>17</v>
-      </c>
-      <c r="M165" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>211112415</v>
-      </c>
-      <c r="B166" t="s">
-        <v>46</v>
-      </c>
-      <c r="C166" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" t="s">
-        <v>15</v>
-      </c>
-      <c r="E166">
-        <v>11102</v>
-      </c>
-      <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" s="1">
-        <v>45896.526087962964</v>
-      </c>
-      <c r="H166" s="1">
-        <v>45866.526087962964</v>
-      </c>
-      <c r="I166" s="2">
-        <v>-25.526087962964084</v>
-      </c>
-      <c r="J166" s="3">
-        <v>48.92</v>
-      </c>
-      <c r="K166" s="3">
-        <v>48.92</v>
-      </c>
-      <c r="L166" t="s">
-        <v>17</v>
-      </c>
-      <c r="M166" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>211112415</v>
-      </c>
-      <c r="B167" t="s">
-        <v>46</v>
-      </c>
-      <c r="C167" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E167">
-        <v>11360</v>
-      </c>
-      <c r="F167" t="s">
-        <v>20</v>
-      </c>
-      <c r="G167" s="1">
-        <v>45900.567083333328</v>
-      </c>
-      <c r="H167" s="1">
-        <v>45870.567083333328</v>
-      </c>
-      <c r="I167" s="2">
-        <v>-29.567083333327901</v>
-      </c>
-      <c r="J167" s="3">
-        <v>50.69</v>
-      </c>
-      <c r="K167" s="3">
-        <v>50.69</v>
-      </c>
-      <c r="L167" t="s">
-        <v>17</v>
-      </c>
-      <c r="M167" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>211112544</v>
-      </c>
-      <c r="B168" t="s">
-        <v>51</v>
-      </c>
-      <c r="C168" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" t="s">
-        <v>15</v>
-      </c>
-      <c r="E168">
-        <v>11192</v>
-      </c>
-      <c r="F168" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" s="1">
-        <v>45868.475057870368</v>
-      </c>
-      <c r="H168" s="1">
-        <v>45868.475057870368</v>
-      </c>
-      <c r="I168" s="2">
-        <v>2.5249421296321088</v>
-      </c>
-      <c r="J168" s="3">
-        <v>1971.6000000000001</v>
-      </c>
-      <c r="K168" s="3">
-        <v>1971.6000000000001</v>
-      </c>
-      <c r="L168" t="s">
-        <v>17</v>
-      </c>
-      <c r="M168" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>211121258</v>
-      </c>
-      <c r="B169" t="s">
-        <v>47</v>
-      </c>
-      <c r="C169" t="s">
-        <v>14</v>
-      </c>
-      <c r="D169" t="s">
-        <v>15</v>
-      </c>
-      <c r="E169">
-        <v>5803</v>
-      </c>
-      <c r="F169" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" s="1">
-        <v>45754.431064814809</v>
-      </c>
-      <c r="H169" s="1">
-        <v>45754.431064814809</v>
-      </c>
-      <c r="I169" s="2">
-        <v>116.56893518519064</v>
-      </c>
-      <c r="J169" s="3">
-        <v>923.07</v>
-      </c>
-      <c r="K169" s="3">
-        <v>923.07</v>
-      </c>
-      <c r="L169" t="s">
-        <v>17</v>
-      </c>
-      <c r="M169" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>211121278</v>
-      </c>
-      <c r="B170" t="s">
-        <v>48</v>
-      </c>
-      <c r="C170" t="s">
-        <v>14</v>
-      </c>
-      <c r="D170" t="s">
-        <v>15</v>
-      </c>
-      <c r="E170">
-        <v>8941</v>
-      </c>
-      <c r="F170" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" s="1">
-        <v>45843.598912037036</v>
-      </c>
-      <c r="H170" s="1">
-        <v>45813.599953703699</v>
-      </c>
-      <c r="I170" s="2">
-        <v>27.401087962964084</v>
-      </c>
-      <c r="J170" s="3">
-        <v>102.60000000000001</v>
-      </c>
-      <c r="K170" s="3">
-        <v>102.60000000000001</v>
-      </c>
-      <c r="L170" t="s">
-        <v>17</v>
-      </c>
-      <c r="M170" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>211121278</v>
-      </c>
-      <c r="B171" t="s">
-        <v>48</v>
-      </c>
-      <c r="C171" t="s">
-        <v>14</v>
-      </c>
-      <c r="D171" t="s">
-        <v>15</v>
-      </c>
-      <c r="E171">
-        <v>9105</v>
-      </c>
-      <c r="F171" t="s">
-        <v>20</v>
-      </c>
-      <c r="G171" s="1">
-        <v>45849.596249999995</v>
-      </c>
-      <c r="H171" s="1">
-        <v>45819.597141203703</v>
-      </c>
-      <c r="I171" s="2">
-        <v>21.403750000004948</v>
-      </c>
-      <c r="J171" s="3">
-        <v>124.2</v>
-      </c>
-      <c r="K171" s="3">
-        <v>124.2</v>
-      </c>
-      <c r="L171" t="s">
-        <v>17</v>
-      </c>
-      <c r="M171" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>211121278</v>
-      </c>
-      <c r="B172" t="s">
-        <v>48</v>
-      </c>
-      <c r="C172" t="s">
-        <v>14</v>
-      </c>
-      <c r="D172" t="s">
-        <v>15</v>
-      </c>
-      <c r="E172">
-        <v>9259</v>
-      </c>
-      <c r="F172" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" s="1">
-        <v>45851.59134259259</v>
-      </c>
-      <c r="H172" s="1">
-        <v>45821.592164351852</v>
-      </c>
-      <c r="I172" s="2">
-        <v>19.408657407409919</v>
-      </c>
-      <c r="J172" s="3">
-        <v>97.2</v>
-      </c>
-      <c r="K172" s="3">
-        <v>97.2</v>
-      </c>
-      <c r="L172" t="s">
-        <v>17</v>
-      </c>
-      <c r="M172" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>211121278</v>
-      </c>
-      <c r="B173" t="s">
-        <v>48</v>
-      </c>
-      <c r="C173" t="s">
-        <v>14</v>
-      </c>
-      <c r="D173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E173">
-        <v>9555</v>
-      </c>
-      <c r="F173" t="s">
-        <v>20</v>
-      </c>
-      <c r="G173" s="1">
-        <v>45858.607731481483</v>
-      </c>
-      <c r="H173" s="1">
-        <v>45828.608090277776</v>
-      </c>
-      <c r="I173" s="2">
-        <v>12.392268518517085</v>
-      </c>
-      <c r="J173" s="3">
-        <v>75.600000000000009</v>
-      </c>
-      <c r="K173" s="3">
-        <v>75.600000000000009</v>
-      </c>
-      <c r="L173" t="s">
-        <v>17</v>
-      </c>
-      <c r="M173" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>211121278</v>
-      </c>
-      <c r="B174" t="s">
-        <v>48</v>
-      </c>
-      <c r="C174" t="s">
-        <v>14</v>
-      </c>
-      <c r="D174" t="s">
-        <v>15</v>
-      </c>
-      <c r="E174">
-        <v>9722</v>
-      </c>
-      <c r="F174" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" s="1">
-        <v>45863.601412037038</v>
-      </c>
-      <c r="H174" s="1">
-        <v>45833.602407407408</v>
-      </c>
-      <c r="I174" s="2">
-        <v>7.3985879629617557</v>
-      </c>
-      <c r="J174" s="3">
-        <v>102.60000000000001</v>
-      </c>
-      <c r="K174" s="3">
-        <v>102.60000000000001</v>
-      </c>
-      <c r="L174" t="s">
-        <v>17</v>
-      </c>
-      <c r="M174" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>211121278</v>
-      </c>
-      <c r="B175" t="s">
-        <v>48</v>
-      </c>
-      <c r="C175" t="s">
-        <v>14</v>
-      </c>
-      <c r="D175" t="s">
-        <v>15</v>
-      </c>
-      <c r="E175">
-        <v>10076</v>
-      </c>
-      <c r="F175" t="s">
-        <v>20</v>
-      </c>
-      <c r="G175" s="1">
-        <v>45871.611539351848</v>
-      </c>
-      <c r="H175" s="1">
-        <v>45841.612893518519</v>
-      </c>
-      <c r="I175" s="2">
-        <v>-0.61153935184847796</v>
-      </c>
-      <c r="J175" s="3">
-        <v>91.8</v>
-      </c>
-      <c r="K175" s="3">
-        <v>91.8</v>
-      </c>
-      <c r="L175" t="s">
-        <v>17</v>
-      </c>
-      <c r="M175" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>211121278</v>
-      </c>
-      <c r="B176" t="s">
-        <v>48</v>
-      </c>
-      <c r="C176" t="s">
-        <v>14</v>
-      </c>
-      <c r="D176" t="s">
-        <v>15</v>
-      </c>
-      <c r="E176">
-        <v>10229</v>
-      </c>
-      <c r="F176" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" s="1">
-        <v>45875.600995370369</v>
-      </c>
-      <c r="H176" s="1">
-        <v>45845.602673611109</v>
-      </c>
-      <c r="I176" s="2">
-        <v>-4.6009953703687643</v>
-      </c>
-      <c r="J176" s="3">
-        <v>86.4</v>
-      </c>
-      <c r="K176" s="3">
-        <v>86.4</v>
-      </c>
-      <c r="L176" t="s">
-        <v>17</v>
-      </c>
-      <c r="M176" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>211121278</v>
-      </c>
-      <c r="B177" t="s">
-        <v>48</v>
-      </c>
-      <c r="C177" t="s">
-        <v>14</v>
-      </c>
-      <c r="D177" t="s">
-        <v>15</v>
-      </c>
-      <c r="E177">
-        <v>11294</v>
-      </c>
-      <c r="F177" t="s">
-        <v>20</v>
-      </c>
-      <c r="G177" s="1">
-        <v>45899.61278935185</v>
-      </c>
-      <c r="H177" s="1">
-        <v>45869.613032407404</v>
-      </c>
-      <c r="I177" s="2">
-        <v>-28.612789351849642</v>
-      </c>
-      <c r="J177" s="3">
-        <v>21.6</v>
-      </c>
-      <c r="K177" s="3">
-        <v>21.6</v>
-      </c>
-      <c r="L177" t="s">
-        <v>17</v>
-      </c>
-      <c r="M177" t="s">
         <v>19</v>
       </c>
     </row>

--- a/PCosta.xlsx
+++ b/PCosta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CB91EB-C222-4CD2-8734-566E22FC1127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0528160B-AA43-4A75-AA73-E7792D64D815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F8F3D65-BB50-4D14-936D-C9FEA2B7CDDC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="50">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -116,9 +116,6 @@
     <t>61A90</t>
   </si>
   <si>
-    <t>Jacinto Ferreira Carvalho</t>
-  </si>
-  <si>
     <t>Super Talho Redentor, Lda.</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
   </si>
   <si>
     <t>Fresbeira - Indústria de Carnes, Lda</t>
-  </si>
-  <si>
-    <t>Bruno Miguel Torres Soares</t>
   </si>
 </sst>
 </file>
@@ -566,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4044F161-0F67-4AC3-9595-1EB749614D68}">
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M162"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +631,7 @@
         <v>10774</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1">
         <v>45886.494421296295</v>
@@ -646,7 +640,7 @@
         <v>45856.494421296295</v>
       </c>
       <c r="I2" s="2">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="J2" s="3">
         <v>112.93</v>
@@ -678,7 +672,7 @@
         <v>11051</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1">
         <v>45893.509270833332</v>
@@ -687,7 +681,7 @@
         <v>45863.509282407409</v>
       </c>
       <c r="I3" s="2">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="J3" s="3">
         <v>84.06</v>
@@ -719,7 +713,7 @@
         <v>11337</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1">
         <v>45900.505578703705</v>
@@ -728,7 +722,7 @@
         <v>45870.505578703705</v>
       </c>
       <c r="I4" s="2">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="J4" s="3">
         <v>89.52</v>
@@ -745,10 +739,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>211110212</v>
+        <v>211110090</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -757,31 +751,31 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>9932</v>
+        <v>11662</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1">
-        <v>45869.375613425924</v>
+        <v>45907.602418981478</v>
       </c>
       <c r="H5" s="1">
-        <v>45839.378171296295</v>
+        <v>45877.602418981478</v>
       </c>
       <c r="I5" s="2">
-        <v>8</v>
+        <v>-29</v>
       </c>
       <c r="J5" s="3">
-        <v>45.85</v>
+        <v>99.76</v>
       </c>
       <c r="K5" s="3">
-        <v>45.85</v>
+        <v>99.76</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -792,31 +786,31 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>612</v>
+        <v>9932</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="1">
-        <v>45871</v>
+        <v>45869.375613425924</v>
       </c>
       <c r="H6" s="1">
-        <v>45841</v>
+        <v>45839.378171296295</v>
       </c>
       <c r="I6" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J6" s="3">
-        <v>-36.31</v>
+        <v>45.85</v>
       </c>
       <c r="K6" s="3">
-        <v>-36.31</v>
+        <v>45.85</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -833,31 +827,31 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>2025</v>
       </c>
       <c r="E7">
-        <v>10045</v>
+        <v>612</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="1">
-        <v>45871.497974537036</v>
+        <v>45871</v>
       </c>
       <c r="H7" s="1">
-        <v>45841.497974537036</v>
+        <v>45841</v>
       </c>
       <c r="I7" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="3">
-        <v>140.92000000000002</v>
+        <v>-36.31</v>
       </c>
       <c r="K7" s="3">
-        <v>140.92000000000002</v>
+        <v>-36.31</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -880,31 +874,31 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>10181</v>
+        <v>10045</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1">
-        <v>45872.603391203702</v>
+        <v>45871.497974537036</v>
       </c>
       <c r="H8" s="1">
-        <v>45842.603391203702</v>
+        <v>45841.497974537036</v>
       </c>
       <c r="I8" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="3">
-        <v>64.11</v>
+        <v>140.92000000000002</v>
       </c>
       <c r="K8" s="3">
-        <v>64.11</v>
+        <v>140.92000000000002</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -921,31 +915,31 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>10358</v>
+        <v>10181</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>45877.498981481476</v>
+        <v>45872.603391203702</v>
       </c>
       <c r="H9" s="1">
-        <v>45847.498993055553</v>
+        <v>45842.603391203702</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" s="3">
-        <v>174.55</v>
+        <v>64.11</v>
       </c>
       <c r="K9" s="3">
-        <v>174.55</v>
+        <v>64.11</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -962,31 +956,31 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>10491</v>
+        <v>10358</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="1">
-        <v>45879.477118055554</v>
+        <v>45877.498981481476</v>
       </c>
       <c r="H10" s="1">
-        <v>45849.477754629625</v>
+        <v>45847.498993055553</v>
       </c>
       <c r="I10" s="2">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3">
-        <v>208.79</v>
+        <v>174.55</v>
       </c>
       <c r="K10" s="3">
-        <v>208.79</v>
+        <v>174.55</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1003,25 +997,25 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>10555</v>
+        <v>10491</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="1">
-        <v>45883.417129629626</v>
+        <v>45879.477118055554</v>
       </c>
       <c r="H11" s="1">
-        <v>45853.417523148149</v>
+        <v>45849.477754629625</v>
       </c>
       <c r="I11" s="2">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="J11" s="3">
-        <v>231.02</v>
+        <v>208.79</v>
       </c>
       <c r="K11" s="3">
-        <v>231.02</v>
+        <v>208.79</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -1044,25 +1038,25 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>10716</v>
+        <v>10555</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="1">
-        <v>45885.561157407406</v>
+        <v>45883.417129629626</v>
       </c>
       <c r="H12" s="1">
-        <v>45855.561655092592</v>
+        <v>45853.417523148149</v>
       </c>
       <c r="I12" s="2">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="J12" s="3">
-        <v>236.83</v>
+        <v>231.02</v>
       </c>
       <c r="K12" s="3">
-        <v>236.83</v>
+        <v>231.02</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1085,25 +1079,25 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>10887</v>
+        <v>10716</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="1">
-        <v>45890.594178240739</v>
+        <v>45885.561157407406</v>
       </c>
       <c r="H13" s="1">
-        <v>45860.594571759255</v>
+        <v>45855.561655092592</v>
       </c>
       <c r="I13" s="2">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="J13" s="3">
-        <v>66.320000000000007</v>
+        <v>236.83</v>
       </c>
       <c r="K13" s="3">
-        <v>66.320000000000007</v>
+        <v>236.83</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1120,31 +1114,31 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>672</v>
+        <v>10887</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="1">
-        <v>45891</v>
+        <v>45890.594178240739</v>
       </c>
       <c r="H14" s="1">
-        <v>45861</v>
+        <v>45860.594571759255</v>
       </c>
       <c r="I14" s="2">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="J14" s="3">
-        <v>-80.42</v>
+        <v>66.320000000000007</v>
       </c>
       <c r="K14" s="3">
-        <v>-80.42</v>
+        <v>66.320000000000007</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1161,31 +1155,31 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>2025</v>
       </c>
       <c r="E15">
-        <v>10960</v>
+        <v>672</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="1">
-        <v>45891.569016203699</v>
+        <v>45891</v>
       </c>
       <c r="H15" s="1">
-        <v>45861.569016203699</v>
+        <v>45861</v>
       </c>
       <c r="I15" s="2">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="J15" s="3">
-        <v>217.13</v>
+        <v>-80.42</v>
       </c>
       <c r="K15" s="3">
-        <v>217.13</v>
+        <v>-80.42</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1208,25 +1202,25 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>11077</v>
+        <v>10960</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="1">
-        <v>45893.634097222217</v>
+        <v>45891.569016203699</v>
       </c>
       <c r="H16" s="1">
-        <v>45863.634097222217</v>
+        <v>45861.569016203699</v>
       </c>
       <c r="I16" s="2">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="J16" s="3">
-        <v>22.37</v>
+        <v>217.13</v>
       </c>
       <c r="K16" s="3">
-        <v>22.37</v>
+        <v>217.13</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1249,25 +1243,25 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>11363</v>
+        <v>11077</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="1">
-        <v>45900.582465277774</v>
+        <v>45893.634097222217</v>
       </c>
       <c r="H17" s="1">
-        <v>45870.582754629628</v>
+        <v>45863.634097222217</v>
       </c>
       <c r="I17" s="2">
-        <v>-23</v>
+        <v>-15</v>
       </c>
       <c r="J17" s="3">
-        <v>217.11</v>
+        <v>22.37</v>
       </c>
       <c r="K17" s="3">
-        <v>217.11</v>
+        <v>22.37</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1290,25 +1284,25 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>11427</v>
+        <v>11363</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="1">
-        <v>45904.485185185185</v>
+        <v>45900.582465277774</v>
       </c>
       <c r="H18" s="1">
-        <v>45874.485185185185</v>
+        <v>45870.582754629628</v>
       </c>
       <c r="I18" s="2">
-        <v>-27</v>
+        <v>-22</v>
       </c>
       <c r="J18" s="3">
-        <v>22.77</v>
+        <v>217.11</v>
       </c>
       <c r="K18" s="3">
-        <v>22.77</v>
+        <v>217.11</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -1331,25 +1325,25 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>11546</v>
+        <v>11427</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="1">
-        <v>45905.635393518518</v>
+        <v>45904.485185185185</v>
       </c>
       <c r="H19" s="1">
-        <v>45875.636099537034</v>
+        <v>45874.485185185185</v>
       </c>
       <c r="I19" s="2">
-        <v>-28</v>
+        <v>-26</v>
       </c>
       <c r="J19" s="3">
-        <v>102.96000000000001</v>
+        <v>22.77</v>
       </c>
       <c r="K19" s="3">
-        <v>102.96000000000001</v>
+        <v>22.77</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -1372,25 +1366,25 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>11596</v>
+        <v>11546</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="1">
-        <v>45906.626793981479</v>
+        <v>45905.635393518518</v>
       </c>
       <c r="H20" s="1">
-        <v>45876.629236111112</v>
+        <v>45875.636099537034</v>
       </c>
       <c r="I20" s="2">
-        <v>-29</v>
+        <v>-27</v>
       </c>
       <c r="J20" s="3">
-        <v>304.66000000000003</v>
+        <v>102.96000000000001</v>
       </c>
       <c r="K20" s="3">
-        <v>304.66000000000003</v>
+        <v>102.96000000000001</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -1401,10 +1395,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>211110264</v>
+        <v>211110212</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1413,31 +1407,31 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>6743</v>
+        <v>11596</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="1">
-        <v>45800.598414351851</v>
+        <v>45906.626793981479</v>
       </c>
       <c r="H21" s="1">
-        <v>45770.600486111107</v>
+        <v>45876.629236111112</v>
       </c>
       <c r="I21" s="2">
-        <v>77</v>
+        <v>-28</v>
       </c>
       <c r="J21" s="3">
-        <v>519.91999999999996</v>
+        <v>304.66000000000003</v>
       </c>
       <c r="K21" s="3">
-        <v>519.91999999999996</v>
+        <v>304.66000000000003</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1454,39 +1448,39 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>8698</v>
+        <v>6743</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="1">
-        <v>45837.66951388889</v>
+        <v>45800.598414351851</v>
       </c>
       <c r="H22" s="1">
-        <v>45807.669710648144</v>
+        <v>45770.600486111107</v>
       </c>
       <c r="I22" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="J22" s="3">
-        <v>87.67</v>
+        <v>519.91999999999996</v>
       </c>
       <c r="K22" s="3">
-        <v>87.67</v>
+        <v>519.91999999999996</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>211110285</v>
+        <v>211110264</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1495,72 +1489,72 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>11084</v>
+        <v>8698</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G23" s="1">
-        <v>45893.645856481482</v>
+        <v>45837.66951388889</v>
       </c>
       <c r="H23" s="1">
-        <v>45863.645856481482</v>
+        <v>45807.669710648144</v>
       </c>
       <c r="I23" s="2">
-        <v>-16</v>
+        <v>41</v>
       </c>
       <c r="J23" s="3">
-        <v>226.82</v>
+        <v>87.67</v>
       </c>
       <c r="K23" s="3">
-        <v>226.82</v>
+        <v>87.67</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>211110285</v>
+        <v>211110364</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24">
-        <v>11255</v>
+        <v>472</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G24" s="1">
-        <v>45898.676168981481</v>
+        <v>45842</v>
       </c>
       <c r="H24" s="1">
-        <v>45868.677152777775</v>
+        <v>45812</v>
       </c>
       <c r="I24" s="2">
-        <v>-21</v>
+        <v>36</v>
       </c>
       <c r="J24" s="3">
-        <v>139.54</v>
+        <v>-3.2</v>
       </c>
       <c r="K24" s="3">
-        <v>139.54</v>
+        <v>-3.2</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1568,40 +1562,40 @@
         <v>211110364</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25">
-        <v>472</v>
+        <v>9660</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="1">
-        <v>45842</v>
+        <v>45863.40216435185</v>
       </c>
       <c r="H25" s="1">
-        <v>45812</v>
+        <v>45833.402662037035</v>
       </c>
       <c r="I25" s="2">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="J25" s="3">
-        <v>-3.2</v>
+        <v>32.85</v>
       </c>
       <c r="K25" s="3">
-        <v>-3.2</v>
+        <v>32.85</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1609,7 +1603,7 @@
         <v>211110364</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1618,25 +1612,25 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>9660</v>
+        <v>9865</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="1">
-        <v>45863.40216435185</v>
+        <v>45865.470057870371</v>
       </c>
       <c r="H26" s="1">
-        <v>45833.402662037035</v>
+        <v>45835.474293981482</v>
       </c>
       <c r="I26" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" s="3">
-        <v>32.85</v>
+        <v>528.76</v>
       </c>
       <c r="K26" s="3">
-        <v>32.85</v>
+        <v>528.76</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -1650,34 +1644,34 @@
         <v>211110364</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>2025</v>
       </c>
       <c r="E27">
-        <v>9699</v>
+        <v>596</v>
       </c>
       <c r="F27" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="1">
-        <v>45863.495011574072</v>
+        <v>45868</v>
       </c>
       <c r="H27" s="1">
-        <v>45833.496192129627</v>
+        <v>45838</v>
       </c>
       <c r="I27" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J27" s="3">
-        <v>994.62</v>
+        <v>-15.85</v>
       </c>
       <c r="K27" s="3">
-        <v>994.62</v>
+        <v>-15.85</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -1691,7 +1685,7 @@
         <v>211110364</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1700,25 +1694,25 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>9865</v>
+        <v>9900</v>
       </c>
       <c r="F28" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="1">
-        <v>45865.470057870371</v>
+        <v>45868.412268518514</v>
       </c>
       <c r="H28" s="1">
-        <v>45835.474293981482</v>
+        <v>45838.412754629629</v>
       </c>
       <c r="I28" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J28" s="3">
-        <v>528.76</v>
+        <v>119.13</v>
       </c>
       <c r="K28" s="3">
-        <v>528.76</v>
+        <v>119.13</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
@@ -1732,34 +1726,34 @@
         <v>211110364</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>596</v>
+        <v>9968</v>
       </c>
       <c r="F29" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="1">
-        <v>45868</v>
+        <v>45870.436192129629</v>
       </c>
       <c r="H29" s="1">
-        <v>45838</v>
+        <v>45840.436192129629</v>
       </c>
       <c r="I29" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>-15.85</v>
+        <v>283.05</v>
       </c>
       <c r="K29" s="3">
-        <v>-15.85</v>
+        <v>283.05</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
@@ -1773,7 +1767,7 @@
         <v>211110364</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1782,25 +1776,25 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>9900</v>
+        <v>10019</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="1">
-        <v>45868.412268518514</v>
+        <v>45870.684710648144</v>
       </c>
       <c r="H30" s="1">
-        <v>45838.412754629629</v>
+        <v>45840.685428240737</v>
       </c>
       <c r="I30" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J30" s="3">
-        <v>119.13</v>
+        <v>228.83</v>
       </c>
       <c r="K30" s="3">
-        <v>119.13</v>
+        <v>228.83</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
@@ -1814,7 +1808,7 @@
         <v>211110364</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1823,25 +1817,25 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>9968</v>
+        <v>10147</v>
       </c>
       <c r="F31" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="1">
-        <v>45870.436192129629</v>
+        <v>45872.453900462962</v>
       </c>
       <c r="H31" s="1">
-        <v>45840.436192129629</v>
+        <v>45842.453900462962</v>
       </c>
       <c r="I31" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J31" s="3">
-        <v>283.05</v>
+        <v>545.98</v>
       </c>
       <c r="K31" s="3">
-        <v>283.05</v>
+        <v>545.98</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
@@ -1855,7 +1849,7 @@
         <v>211110364</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1864,25 +1858,25 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>10019</v>
+        <v>10156</v>
       </c>
       <c r="F32" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="1">
-        <v>45870.684710648144</v>
+        <v>45872.493888888886</v>
       </c>
       <c r="H32" s="1">
-        <v>45840.685428240737</v>
+        <v>45842.493888888886</v>
       </c>
       <c r="I32" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J32" s="3">
-        <v>228.83</v>
+        <v>2.63</v>
       </c>
       <c r="K32" s="3">
-        <v>228.83</v>
+        <v>2.63</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
@@ -1896,7 +1890,7 @@
         <v>211110364</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1905,25 +1899,25 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>10147</v>
+        <v>10203</v>
       </c>
       <c r="F33" t="s">
         <v>20</v>
       </c>
       <c r="G33" s="1">
-        <v>45872.453900462962</v>
+        <v>45875.468877314815</v>
       </c>
       <c r="H33" s="1">
-        <v>45842.453900462962</v>
+        <v>45845.468888888885</v>
       </c>
       <c r="I33" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J33" s="3">
-        <v>545.98</v>
+        <v>338.76</v>
       </c>
       <c r="K33" s="3">
-        <v>545.98</v>
+        <v>338.76</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
@@ -1937,7 +1931,7 @@
         <v>211110364</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1946,25 +1940,25 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>10156</v>
+        <v>10342</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
       </c>
       <c r="G34" s="1">
-        <v>45872.493888888886</v>
+        <v>45877.430671296293</v>
       </c>
       <c r="H34" s="1">
-        <v>45842.493888888886</v>
+        <v>45847.430671296293</v>
       </c>
       <c r="I34" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J34" s="3">
-        <v>2.63</v>
+        <v>460.23</v>
       </c>
       <c r="K34" s="3">
-        <v>2.63</v>
+        <v>460.23</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
@@ -1978,7 +1972,7 @@
         <v>211110364</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -1987,31 +1981,31 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>10203</v>
+        <v>10469</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="1">
-        <v>45875.468877314815</v>
+        <v>45879.403611111113</v>
       </c>
       <c r="H35" s="1">
-        <v>45845.468888888885</v>
+        <v>45849.403611111113</v>
       </c>
       <c r="I35" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J35" s="3">
-        <v>338.76</v>
+        <v>544.83000000000004</v>
       </c>
       <c r="K35" s="3">
-        <v>338.76</v>
+        <v>544.83000000000004</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2019,7 +2013,7 @@
         <v>211110364</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -2028,25 +2022,25 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>10342</v>
+        <v>10515</v>
       </c>
       <c r="F36" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="1">
-        <v>45877.430671296293</v>
+        <v>45882.474629629629</v>
       </c>
       <c r="H36" s="1">
-        <v>45847.430671296293</v>
+        <v>45852.474629629629</v>
       </c>
       <c r="I36" s="2">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="J36" s="3">
-        <v>460.23</v>
+        <v>603.02</v>
       </c>
       <c r="K36" s="3">
-        <v>460.23</v>
+        <v>603.02</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2060,7 +2054,7 @@
         <v>211110364</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2069,25 +2063,25 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>10469</v>
+        <v>10646</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="1">
-        <v>45879.403611111113</v>
+        <v>45884.469351851847</v>
       </c>
       <c r="H37" s="1">
-        <v>45849.403611111113</v>
+        <v>45854.469351851847</v>
       </c>
       <c r="I37" s="2">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="J37" s="3">
-        <v>544.83000000000004</v>
+        <v>447.87</v>
       </c>
       <c r="K37" s="3">
-        <v>544.83000000000004</v>
+        <v>447.87</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2101,7 +2095,7 @@
         <v>211110364</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2110,25 +2104,25 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>10515</v>
+        <v>10768</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
       </c>
       <c r="G38" s="1">
-        <v>45882.474629629629</v>
+        <v>45886.485416666663</v>
       </c>
       <c r="H38" s="1">
-        <v>45852.474629629629</v>
+        <v>45856.48542824074</v>
       </c>
       <c r="I38" s="2">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="J38" s="3">
-        <v>603.02</v>
+        <v>783.17000000000007</v>
       </c>
       <c r="K38" s="3">
-        <v>603.02</v>
+        <v>783.17000000000007</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
@@ -2142,7 +2136,7 @@
         <v>211110364</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2151,25 +2145,25 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>10646</v>
+        <v>10821</v>
       </c>
       <c r="F39" t="s">
         <v>20</v>
       </c>
       <c r="G39" s="1">
-        <v>45884.469351851847</v>
+        <v>45889.487719907404</v>
       </c>
       <c r="H39" s="1">
-        <v>45854.469351851847</v>
+        <v>45859.487719907404</v>
       </c>
       <c r="I39" s="2">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="J39" s="3">
-        <v>447.87</v>
+        <v>527.75</v>
       </c>
       <c r="K39" s="3">
-        <v>447.87</v>
+        <v>527.75</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
@@ -2183,34 +2177,34 @@
         <v>211110364</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>2025</v>
       </c>
       <c r="E40">
-        <v>10768</v>
+        <v>667</v>
       </c>
       <c r="F40" t="s">
         <v>20</v>
       </c>
       <c r="G40" s="1">
-        <v>45886.485416666663</v>
+        <v>45891</v>
       </c>
       <c r="H40" s="1">
-        <v>45856.48542824074</v>
+        <v>45861</v>
       </c>
       <c r="I40" s="2">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="J40" s="3">
-        <v>783.17000000000007</v>
+        <v>-2.87</v>
       </c>
       <c r="K40" s="3">
-        <v>783.17000000000007</v>
+        <v>-2.87</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
@@ -2224,34 +2218,34 @@
         <v>211110364</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>2025</v>
       </c>
       <c r="E41">
-        <v>10821</v>
+        <v>670</v>
       </c>
       <c r="F41" t="s">
         <v>20</v>
       </c>
       <c r="G41" s="1">
-        <v>45889.487719907404</v>
+        <v>45891</v>
       </c>
       <c r="H41" s="1">
-        <v>45859.487719907404</v>
+        <v>45861</v>
       </c>
       <c r="I41" s="2">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="J41" s="3">
-        <v>527.75</v>
+        <v>-10.09</v>
       </c>
       <c r="K41" s="3">
-        <v>527.75</v>
+        <v>-10.09</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
@@ -2265,34 +2259,34 @@
         <v>211110364</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
       </c>
       <c r="E42">
-        <v>667</v>
+        <v>10932</v>
       </c>
       <c r="F42" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="1">
-        <v>45891</v>
+        <v>45891.550300925926</v>
       </c>
       <c r="H42" s="1">
-        <v>45861</v>
+        <v>45861.550312499996</v>
       </c>
       <c r="I42" s="2">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="J42" s="3">
-        <v>-2.87</v>
+        <v>548.45000000000005</v>
       </c>
       <c r="K42" s="3">
-        <v>-2.87</v>
+        <v>548.45000000000005</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
@@ -2306,34 +2300,34 @@
         <v>211110364</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>670</v>
+        <v>11071</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="1">
-        <v>45891</v>
+        <v>45893.524328703701</v>
       </c>
       <c r="H43" s="1">
-        <v>45861</v>
+        <v>45863.524328703701</v>
       </c>
       <c r="I43" s="2">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="J43" s="3">
-        <v>-10.09</v>
+        <v>558.34</v>
       </c>
       <c r="K43" s="3">
-        <v>-10.09</v>
+        <v>558.34</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
@@ -2347,7 +2341,7 @@
         <v>211110364</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2356,25 +2350,25 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>10932</v>
+        <v>11114</v>
       </c>
       <c r="F44" t="s">
         <v>20</v>
       </c>
       <c r="G44" s="1">
-        <v>45891.550300925926</v>
+        <v>45896.534999999996</v>
       </c>
       <c r="H44" s="1">
-        <v>45861.550312499996</v>
+        <v>45866.534999999996</v>
       </c>
       <c r="I44" s="2">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="J44" s="3">
-        <v>548.45000000000005</v>
+        <v>212.67000000000002</v>
       </c>
       <c r="K44" s="3">
-        <v>548.45000000000005</v>
+        <v>212.67000000000002</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -2388,7 +2382,7 @@
         <v>211110364</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2397,25 +2391,25 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>11071</v>
+        <v>11240</v>
       </c>
       <c r="F45" t="s">
         <v>20</v>
       </c>
       <c r="G45" s="1">
-        <v>45893.524328703701</v>
+        <v>45898.501168981478</v>
       </c>
       <c r="H45" s="1">
-        <v>45863.524328703701</v>
+        <v>45868.501168981478</v>
       </c>
       <c r="I45" s="2">
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="J45" s="3">
-        <v>558.34</v>
+        <v>578.64</v>
       </c>
       <c r="K45" s="3">
-        <v>558.34</v>
+        <v>578.64</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
@@ -2429,7 +2423,7 @@
         <v>211110364</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -2438,25 +2432,25 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>11114</v>
+        <v>11358</v>
       </c>
       <c r="F46" t="s">
         <v>20</v>
       </c>
       <c r="G46" s="1">
-        <v>45896.534999999996</v>
+        <v>45900.567037037035</v>
       </c>
       <c r="H46" s="1">
-        <v>45866.534999999996</v>
+        <v>45870.567037037035</v>
       </c>
       <c r="I46" s="2">
-        <v>-19</v>
+        <v>-22</v>
       </c>
       <c r="J46" s="3">
-        <v>212.67000000000002</v>
+        <v>476.82</v>
       </c>
       <c r="K46" s="3">
-        <v>212.67000000000002</v>
+        <v>476.82</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
@@ -2470,7 +2464,7 @@
         <v>211110364</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -2479,25 +2473,25 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>11240</v>
+        <v>11399</v>
       </c>
       <c r="F47" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="1">
-        <v>45898.501168981478</v>
+        <v>45903.547291666662</v>
       </c>
       <c r="H47" s="1">
-        <v>45868.501168981478</v>
+        <v>45873.547291666662</v>
       </c>
       <c r="I47" s="2">
-        <v>-21</v>
+        <v>-25</v>
       </c>
       <c r="J47" s="3">
-        <v>578.64</v>
+        <v>356.84000000000003</v>
       </c>
       <c r="K47" s="3">
-        <v>578.64</v>
+        <v>356.84000000000003</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
@@ -2511,7 +2505,7 @@
         <v>211110364</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -2520,25 +2514,25 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>11358</v>
+        <v>11541</v>
       </c>
       <c r="F48" t="s">
         <v>20</v>
       </c>
       <c r="G48" s="1">
-        <v>45900.567037037035</v>
+        <v>45905.539664351847</v>
       </c>
       <c r="H48" s="1">
-        <v>45870.567037037035</v>
+        <v>45875.539675925924</v>
       </c>
       <c r="I48" s="2">
-        <v>-23</v>
+        <v>-27</v>
       </c>
       <c r="J48" s="3">
-        <v>476.82</v>
+        <v>489.72</v>
       </c>
       <c r="K48" s="3">
-        <v>476.82</v>
+        <v>489.72</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
@@ -2552,7 +2546,7 @@
         <v>211110364</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -2561,25 +2555,25 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>11399</v>
+        <v>11636</v>
       </c>
       <c r="F49" t="s">
         <v>20</v>
       </c>
       <c r="G49" s="1">
-        <v>45903.547291666662</v>
+        <v>45907.577685185184</v>
       </c>
       <c r="H49" s="1">
-        <v>45873.547291666662</v>
+        <v>45877.577685185184</v>
       </c>
       <c r="I49" s="2">
-        <v>-26</v>
+        <v>-29</v>
       </c>
       <c r="J49" s="3">
-        <v>356.84000000000003</v>
+        <v>265.88</v>
       </c>
       <c r="K49" s="3">
-        <v>356.84000000000003</v>
+        <v>265.88</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
@@ -2590,43 +2584,43 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B50" t="s">
         <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50">
-        <v>11541</v>
+        <v>29</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
       </c>
       <c r="F50" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="1">
-        <v>45905.539664351847</v>
+        <v>45760</v>
       </c>
       <c r="H50" s="1">
-        <v>45875.539675925924</v>
+        <v>45730</v>
       </c>
       <c r="I50" s="2">
-        <v>-28</v>
+        <v>118</v>
       </c>
       <c r="J50" s="3">
-        <v>489.72</v>
+        <v>-541.79999999999995</v>
       </c>
       <c r="K50" s="3">
-        <v>489.72</v>
+        <v>-10.33</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2634,34 +2628,34 @@
         <v>211110472</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <v>8711</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="1">
-        <v>45760</v>
+        <v>45840.400567129625</v>
       </c>
       <c r="H51" s="1">
-        <v>45730</v>
+        <v>45810.40079861111</v>
       </c>
       <c r="I51" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="J51" s="3">
-        <v>-541.79999999999995</v>
+        <v>264.84000000000003</v>
       </c>
       <c r="K51" s="3">
-        <v>-10.33</v>
+        <v>264.84000000000003</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -2675,7 +2669,7 @@
         <v>211110472</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2684,31 +2678,31 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>8711</v>
+        <v>8904</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
       </c>
       <c r="G52" s="1">
-        <v>45840.400567129625</v>
+        <v>45843.470856481479</v>
       </c>
       <c r="H52" s="1">
-        <v>45810.40079861111</v>
+        <v>45813.471493055556</v>
       </c>
       <c r="I52" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J52" s="3">
-        <v>264.84000000000003</v>
+        <v>50.93</v>
       </c>
       <c r="K52" s="3">
-        <v>264.84000000000003</v>
+        <v>50.93</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2716,40 +2710,40 @@
         <v>211110472</v>
       </c>
       <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
         <v>28</v>
       </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
       <c r="D53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53">
-        <v>8904</v>
+        <v>29</v>
+      </c>
+      <c r="E53" t="s">
+        <v>30</v>
       </c>
       <c r="F53" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="1">
-        <v>45843.470856481479</v>
+        <v>45847</v>
       </c>
       <c r="H53" s="1">
-        <v>45813.471493055556</v>
+        <v>45817</v>
       </c>
       <c r="I53" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J53" s="3">
-        <v>50.93</v>
+        <v>-224.79</v>
       </c>
       <c r="K53" s="3">
-        <v>50.93</v>
+        <v>-9</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2757,40 +2751,40 @@
         <v>211110472</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>9002</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="1">
+        <v>45847.441782407404</v>
+      </c>
+      <c r="H54" s="1">
+        <v>45817.442870370367</v>
+      </c>
+      <c r="I54" s="2">
         <v>31</v>
       </c>
-      <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="1">
-        <v>45847</v>
-      </c>
-      <c r="H54" s="1">
-        <v>45817</v>
-      </c>
-      <c r="I54" s="2">
-        <v>30</v>
-      </c>
       <c r="J54" s="3">
-        <v>-224.79</v>
+        <v>221.07</v>
       </c>
       <c r="K54" s="3">
-        <v>-9</v>
+        <v>221.07</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
       </c>
       <c r="M54" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2798,7 +2792,7 @@
         <v>211110472</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -2807,25 +2801,25 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>9002</v>
+        <v>9109</v>
       </c>
       <c r="F55" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="1">
-        <v>45847.441782407404</v>
+        <v>45849.62940972222</v>
       </c>
       <c r="H55" s="1">
-        <v>45817.442870370367</v>
+        <v>45819.630104166667</v>
       </c>
       <c r="I55" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J55" s="3">
-        <v>221.07</v>
+        <v>33.47</v>
       </c>
       <c r="K55" s="3">
-        <v>221.07</v>
+        <v>33.47</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
@@ -2839,7 +2833,7 @@
         <v>211110472</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2848,25 +2842,25 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>9109</v>
+        <v>9291</v>
       </c>
       <c r="F56" t="s">
         <v>20</v>
       </c>
       <c r="G56" s="1">
-        <v>45849.62940972222</v>
+        <v>45854.443333333329</v>
       </c>
       <c r="H56" s="1">
-        <v>45819.630104166667</v>
+        <v>45824.44427083333</v>
       </c>
       <c r="I56" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J56" s="3">
-        <v>33.47</v>
+        <v>156.46</v>
       </c>
       <c r="K56" s="3">
-        <v>33.47</v>
+        <v>156.46</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -2880,7 +2874,7 @@
         <v>211110472</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2889,25 +2883,25 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>9291</v>
+        <v>9627</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="1">
-        <v>45854.443333333329</v>
+        <v>45861.535300925927</v>
       </c>
       <c r="H57" s="1">
-        <v>45824.44427083333</v>
+        <v>45831.535729166666</v>
       </c>
       <c r="I57" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J57" s="3">
-        <v>156.46</v>
+        <v>244.68</v>
       </c>
       <c r="K57" s="3">
-        <v>156.46</v>
+        <v>244.68</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2921,7 +2915,7 @@
         <v>211110472</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2930,31 +2924,31 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>9627</v>
+        <v>10211</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
       </c>
       <c r="G58" s="1">
-        <v>45861.535300925927</v>
+        <v>45875.481921296298</v>
       </c>
       <c r="H58" s="1">
-        <v>45831.535729166666</v>
+        <v>45845.481932870367</v>
       </c>
       <c r="I58" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J58" s="3">
-        <v>244.68</v>
+        <v>276.02</v>
       </c>
       <c r="K58" s="3">
-        <v>244.68</v>
+        <v>276.02</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
       </c>
       <c r="M58" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -2962,7 +2956,7 @@
         <v>211110472</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -2971,31 +2965,31 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>10211</v>
+        <v>10509</v>
       </c>
       <c r="F59" t="s">
         <v>20</v>
       </c>
       <c r="G59" s="1">
-        <v>45875.481921296298</v>
+        <v>45882.471388888887</v>
       </c>
       <c r="H59" s="1">
-        <v>45845.481932870367</v>
+        <v>45852.471388888887</v>
       </c>
       <c r="I59" s="2">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="J59" s="3">
-        <v>276.02</v>
+        <v>316.33</v>
       </c>
       <c r="K59" s="3">
-        <v>276.02</v>
+        <v>316.33</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
       </c>
       <c r="M59" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3003,7 +2997,7 @@
         <v>211110472</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3012,25 +3006,25 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>10509</v>
+        <v>10787</v>
       </c>
       <c r="F60" t="s">
         <v>20</v>
       </c>
       <c r="G60" s="1">
-        <v>45882.471388888887</v>
+        <v>45886.62290509259</v>
       </c>
       <c r="H60" s="1">
-        <v>45852.471388888887</v>
+        <v>45856.623715277776</v>
       </c>
       <c r="I60" s="2">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="J60" s="3">
-        <v>316.33</v>
+        <v>55.27</v>
       </c>
       <c r="K60" s="3">
-        <v>316.33</v>
+        <v>55.27</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3044,7 +3038,7 @@
         <v>211110472</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3053,25 +3047,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>10787</v>
+        <v>10813</v>
       </c>
       <c r="F61" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="1">
-        <v>45886.62290509259</v>
+        <v>45889.484826388885</v>
       </c>
       <c r="H61" s="1">
-        <v>45856.623715277776</v>
+        <v>45859.484826388885</v>
       </c>
       <c r="I61" s="2">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="J61" s="3">
-        <v>55.27</v>
+        <v>200.74</v>
       </c>
       <c r="K61" s="3">
-        <v>55.27</v>
+        <v>200.74</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3085,7 +3079,7 @@
         <v>211110472</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3094,25 +3088,25 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>10813</v>
+        <v>11083</v>
       </c>
       <c r="F62" t="s">
         <v>20</v>
       </c>
       <c r="G62" s="1">
-        <v>45889.484826388885</v>
+        <v>45893.645833333328</v>
       </c>
       <c r="H62" s="1">
-        <v>45859.484826388885</v>
+        <v>45863.645833333328</v>
       </c>
       <c r="I62" s="2">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="J62" s="3">
-        <v>200.74</v>
+        <v>54.58</v>
       </c>
       <c r="K62" s="3">
-        <v>200.74</v>
+        <v>54.58</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3126,7 +3120,7 @@
         <v>211110472</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3135,25 +3129,25 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>11083</v>
+        <v>11097</v>
       </c>
       <c r="F63" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="1">
-        <v>45893.645833333328</v>
+        <v>45896.476898148147</v>
       </c>
       <c r="H63" s="1">
-        <v>45863.645833333328</v>
+        <v>45866.476909722223</v>
       </c>
       <c r="I63" s="2">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="J63" s="3">
-        <v>54.58</v>
+        <v>251.39000000000001</v>
       </c>
       <c r="K63" s="3">
-        <v>54.58</v>
+        <v>251.39000000000001</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3167,7 +3161,7 @@
         <v>211110472</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3176,25 +3170,25 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>11097</v>
+        <v>11409</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
       </c>
       <c r="G64" s="1">
-        <v>45896.476898148147</v>
+        <v>45903.568784722222</v>
       </c>
       <c r="H64" s="1">
-        <v>45866.476909722223</v>
+        <v>45873.568784722222</v>
       </c>
       <c r="I64" s="2">
-        <v>-19</v>
+        <v>-25</v>
       </c>
       <c r="J64" s="3">
-        <v>251.39000000000001</v>
+        <v>55.120000000000005</v>
       </c>
       <c r="K64" s="3">
-        <v>251.39000000000001</v>
+        <v>55.120000000000005</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -3205,10 +3199,10 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -3217,31 +3211,31 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>11409</v>
+        <v>7436</v>
       </c>
       <c r="F65" t="s">
         <v>20</v>
       </c>
       <c r="G65" s="1">
-        <v>45903.568784722222</v>
+        <v>45845.556817129625</v>
       </c>
       <c r="H65" s="1">
-        <v>45873.568784722222</v>
+        <v>45785.560891203699</v>
       </c>
       <c r="I65" s="2">
-        <v>-26</v>
+        <v>33</v>
       </c>
       <c r="J65" s="3">
-        <v>55.120000000000005</v>
+        <v>897.49</v>
       </c>
       <c r="K65" s="3">
-        <v>55.120000000000005</v>
+        <v>897.49</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
       </c>
       <c r="M65" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3249,7 +3243,7 @@
         <v>211110601</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3258,31 +3252,31 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>7436</v>
+        <v>8220</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="1">
-        <v>45845.556817129625</v>
+        <v>45859.486087962963</v>
       </c>
       <c r="H66" s="1">
-        <v>45785.560891203699</v>
+        <v>45799.496874999997</v>
       </c>
       <c r="I66" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J66" s="3">
-        <v>897.49</v>
+        <v>1334.16</v>
       </c>
       <c r="K66" s="3">
-        <v>897.49</v>
+        <v>1334.16</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
       </c>
       <c r="M66" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3290,40 +3284,40 @@
         <v>211110601</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
-      <c r="D67" t="s">
-        <v>15</v>
+      <c r="D67">
+        <v>2025</v>
       </c>
       <c r="E67">
-        <v>8220</v>
+        <v>62</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
       </c>
       <c r="G67" s="1">
-        <v>45859.486087962963</v>
+        <v>45874.611296296294</v>
       </c>
       <c r="H67" s="1">
-        <v>45799.496874999997</v>
+        <v>45814.611319444441</v>
       </c>
       <c r="I67" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J67" s="3">
-        <v>1334.16</v>
+        <v>1149.52</v>
       </c>
       <c r="K67" s="3">
-        <v>1334.16</v>
+        <v>1149.52</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
       </c>
       <c r="M67" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3331,7 +3325,7 @@
         <v>211110601</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -3340,25 +3334,25 @@
         <v>2025</v>
       </c>
       <c r="E68">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
       </c>
       <c r="G68" s="1">
-        <v>45874.611296296294</v>
+        <v>45874.685046296298</v>
       </c>
       <c r="H68" s="1">
-        <v>45814.611319444441</v>
+        <v>45814.685057870367</v>
       </c>
       <c r="I68" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J68" s="3">
-        <v>1149.52</v>
+        <v>124.59</v>
       </c>
       <c r="K68" s="3">
-        <v>1149.52</v>
+        <v>124.59</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -3372,40 +3366,40 @@
         <v>211110601</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
-      <c r="D69">
-        <v>2025</v>
+      <c r="D69" t="s">
+        <v>15</v>
       </c>
       <c r="E69">
-        <v>68</v>
+        <v>9275</v>
       </c>
       <c r="F69" t="s">
         <v>20</v>
       </c>
       <c r="G69" s="1">
-        <v>45874.685046296298</v>
+        <v>45884.33143518518</v>
       </c>
       <c r="H69" s="1">
-        <v>45814.685057870367</v>
+        <v>45824.332418981481</v>
       </c>
       <c r="I69" s="2">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="J69" s="3">
-        <v>124.59</v>
+        <v>1044.22</v>
       </c>
       <c r="K69" s="3">
-        <v>124.59</v>
+        <v>1044.22</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
       </c>
       <c r="M69" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3413,7 +3407,7 @@
         <v>211110601</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3422,25 +3416,25 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>9275</v>
+        <v>10190</v>
       </c>
       <c r="F70" t="s">
         <v>20</v>
       </c>
       <c r="G70" s="1">
-        <v>45884.33143518518</v>
+        <v>45902.667199074072</v>
       </c>
       <c r="H70" s="1">
-        <v>45824.332418981481</v>
+        <v>45842.669027777774</v>
       </c>
       <c r="I70" s="2">
-        <v>-7</v>
+        <v>-24</v>
       </c>
       <c r="J70" s="3">
-        <v>1044.22</v>
+        <v>732.56000000000006</v>
       </c>
       <c r="K70" s="3">
-        <v>1044.22</v>
+        <v>732.56000000000006</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3454,7 +3448,7 @@
         <v>211110601</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -3463,25 +3457,25 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>10190</v>
+        <v>11072</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
       </c>
       <c r="G71" s="1">
-        <v>45902.667199074072</v>
+        <v>45923.525937499995</v>
       </c>
       <c r="H71" s="1">
-        <v>45842.669027777774</v>
+        <v>45863.525949074072</v>
       </c>
       <c r="I71" s="2">
-        <v>-25</v>
+        <v>-45</v>
       </c>
       <c r="J71" s="3">
-        <v>732.56000000000006</v>
+        <v>1189.3500000000001</v>
       </c>
       <c r="K71" s="3">
-        <v>732.56000000000006</v>
+        <v>1189.3500000000001</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -3492,43 +3486,43 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>211110601</v>
+        <v>211110972</v>
       </c>
       <c r="B72" t="s">
         <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D72">
+        <v>2025</v>
       </c>
       <c r="E72">
-        <v>11072</v>
+        <v>147</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
       </c>
       <c r="G72" s="1">
-        <v>45923.525937499995</v>
+        <v>45719</v>
       </c>
       <c r="H72" s="1">
-        <v>45863.525949074072</v>
+        <v>45719</v>
       </c>
       <c r="I72" s="2">
-        <v>-46</v>
+        <v>159</v>
       </c>
       <c r="J72" s="3">
-        <v>1189.3500000000001</v>
+        <v>-70.86</v>
       </c>
       <c r="K72" s="3">
-        <v>1189.3500000000001</v>
+        <v>-70.86</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
       </c>
       <c r="M72" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3536,48 +3530,48 @@
         <v>211110972</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
       </c>
       <c r="E73">
-        <v>147</v>
+        <v>7925</v>
       </c>
       <c r="F73" t="s">
         <v>20</v>
       </c>
       <c r="G73" s="1">
-        <v>45719</v>
+        <v>45793.585856481477</v>
       </c>
       <c r="H73" s="1">
-        <v>45719</v>
+        <v>45793.585856481477</v>
       </c>
       <c r="I73" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="J73" s="3">
-        <v>-70.86</v>
+        <v>305.11</v>
       </c>
       <c r="K73" s="3">
-        <v>-70.86</v>
+        <v>305.11</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
       </c>
       <c r="M73" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>211110972</v>
+        <v>211111193</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3586,31 +3580,31 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>7925</v>
+        <v>10278</v>
       </c>
       <c r="F74" t="s">
         <v>20</v>
       </c>
       <c r="G74" s="1">
-        <v>45793.585856481477</v>
+        <v>45876.453530092593</v>
       </c>
       <c r="H74" s="1">
-        <v>45793.585856481477</v>
+        <v>45846.45412037037</v>
       </c>
       <c r="I74" s="2">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="J74" s="3">
-        <v>305.11</v>
+        <v>185.83</v>
       </c>
       <c r="K74" s="3">
-        <v>305.11</v>
+        <v>185.83</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
       </c>
       <c r="M74" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3618,7 +3612,7 @@
         <v>211111193</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3627,31 +3621,31 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>10278</v>
+        <v>10417</v>
       </c>
       <c r="F75" t="s">
         <v>20</v>
       </c>
       <c r="G75" s="1">
-        <v>45876.453530092593</v>
+        <v>45878.429606481477</v>
       </c>
       <c r="H75" s="1">
-        <v>45846.45412037037</v>
+        <v>45848.429606481477</v>
       </c>
       <c r="I75" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="3">
-        <v>185.83</v>
+        <v>157.53</v>
       </c>
       <c r="K75" s="3">
-        <v>185.83</v>
+        <v>157.53</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
       </c>
       <c r="M75" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3659,7 +3653,7 @@
         <v>211111193</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3668,25 +3662,25 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>10417</v>
+        <v>10587</v>
       </c>
       <c r="F76" t="s">
         <v>20</v>
       </c>
       <c r="G76" s="1">
-        <v>45878.429606481477</v>
+        <v>45883.65898148148</v>
       </c>
       <c r="H76" s="1">
-        <v>45848.429606481477</v>
+        <v>45853.659224537034</v>
       </c>
       <c r="I76" s="2">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="J76" s="3">
-        <v>157.53</v>
+        <v>256.97000000000003</v>
       </c>
       <c r="K76" s="3">
-        <v>157.53</v>
+        <v>256.97000000000003</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3700,7 +3694,7 @@
         <v>211111193</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3709,25 +3703,25 @@
         <v>15</v>
       </c>
       <c r="E77">
-        <v>10587</v>
+        <v>11464</v>
       </c>
       <c r="F77" t="s">
         <v>20</v>
       </c>
       <c r="G77" s="1">
-        <v>45883.65898148148</v>
+        <v>45904.599629629629</v>
       </c>
       <c r="H77" s="1">
-        <v>45853.659224537034</v>
+        <v>45874.600023148145</v>
       </c>
       <c r="I77" s="2">
-        <v>-6</v>
+        <v>-26</v>
       </c>
       <c r="J77" s="3">
-        <v>256.97000000000003</v>
+        <v>150.27000000000001</v>
       </c>
       <c r="K77" s="3">
-        <v>256.97000000000003</v>
+        <v>150.27000000000001</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3738,7 +3732,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>211111193</v>
+        <v>211111387</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
@@ -3750,31 +3744,31 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>11464</v>
+        <v>9950</v>
       </c>
       <c r="F78" t="s">
         <v>20</v>
       </c>
       <c r="G78" s="1">
-        <v>45904.599629629629</v>
+        <v>45870.400196759256</v>
       </c>
       <c r="H78" s="1">
-        <v>45874.600023148145</v>
+        <v>45840.403055555551</v>
       </c>
       <c r="I78" s="2">
-        <v>-27</v>
+        <v>8</v>
       </c>
       <c r="J78" s="3">
-        <v>150.27000000000001</v>
+        <v>199.05</v>
       </c>
       <c r="K78" s="3">
-        <v>150.27000000000001</v>
+        <v>199.05</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
       </c>
       <c r="M78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3782,7 +3776,7 @@
         <v>211111387</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3791,31 +3785,31 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>9950</v>
+        <v>10220</v>
       </c>
       <c r="F79" t="s">
         <v>20</v>
       </c>
       <c r="G79" s="1">
-        <v>45870.400196759256</v>
+        <v>45875.488275462958</v>
       </c>
       <c r="H79" s="1">
-        <v>45840.403055555551</v>
+        <v>45845.488275462958</v>
       </c>
       <c r="I79" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J79" s="3">
-        <v>199.05</v>
+        <v>129.57</v>
       </c>
       <c r="K79" s="3">
-        <v>199.05</v>
+        <v>129.57</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
       </c>
       <c r="M79" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3823,7 +3817,7 @@
         <v>211111387</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3832,25 +3826,25 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>10220</v>
+        <v>10288</v>
       </c>
       <c r="F80" t="s">
         <v>20</v>
       </c>
       <c r="G80" s="1">
-        <v>45875.488275462958</v>
+        <v>45876.543657407405</v>
       </c>
       <c r="H80" s="1">
-        <v>45845.488275462958</v>
+        <v>45846.543877314813</v>
       </c>
       <c r="I80" s="2">
         <v>2</v>
       </c>
       <c r="J80" s="3">
-        <v>129.57</v>
+        <v>270.58</v>
       </c>
       <c r="K80" s="3">
-        <v>129.57</v>
+        <v>270.58</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -3864,7 +3858,7 @@
         <v>211111387</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3873,31 +3867,31 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>10288</v>
+        <v>10520</v>
       </c>
       <c r="F81" t="s">
         <v>20</v>
       </c>
       <c r="G81" s="1">
-        <v>45876.543657407405</v>
+        <v>45882.479305555556</v>
       </c>
       <c r="H81" s="1">
-        <v>45846.543877314813</v>
+        <v>45852.479317129626</v>
       </c>
       <c r="I81" s="2">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="J81" s="3">
-        <v>270.58</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="K81" s="3">
-        <v>270.58</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3905,7 +3899,7 @@
         <v>211111387</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3914,25 +3908,25 @@
         <v>15</v>
       </c>
       <c r="E82">
-        <v>10520</v>
+        <v>10553</v>
       </c>
       <c r="F82" t="s">
         <v>20</v>
       </c>
       <c r="G82" s="1">
-        <v>45882.479305555556</v>
+        <v>45883.416145833333</v>
       </c>
       <c r="H82" s="1">
-        <v>45852.479317129626</v>
+        <v>45853.416481481479</v>
       </c>
       <c r="I82" s="2">
         <v>-5</v>
       </c>
       <c r="J82" s="3">
-        <v>309.35000000000002</v>
+        <v>131.41</v>
       </c>
       <c r="K82" s="3">
-        <v>309.35000000000002</v>
+        <v>131.41</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -3946,7 +3940,7 @@
         <v>211111387</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3955,25 +3949,25 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>10553</v>
+        <v>10809</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
       </c>
       <c r="G83" s="1">
-        <v>45883.416145833333</v>
+        <v>45889.482916666668</v>
       </c>
       <c r="H83" s="1">
-        <v>45853.416481481479</v>
+        <v>45859.482916666668</v>
       </c>
       <c r="I83" s="2">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="J83" s="3">
-        <v>131.41</v>
+        <v>395.15000000000003</v>
       </c>
       <c r="K83" s="3">
-        <v>131.41</v>
+        <v>395.15000000000003</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -3987,34 +3981,34 @@
         <v>211111387</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D84">
+        <v>2025</v>
       </c>
       <c r="E84">
-        <v>10809</v>
+        <v>684</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
       </c>
       <c r="G84" s="1">
-        <v>45889.482916666668</v>
+        <v>45892</v>
       </c>
       <c r="H84" s="1">
-        <v>45859.482916666668</v>
+        <v>45862</v>
       </c>
       <c r="I84" s="2">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="J84" s="3">
-        <v>395.15000000000003</v>
+        <v>-13.73</v>
       </c>
       <c r="K84" s="3">
-        <v>395.15000000000003</v>
+        <v>-13.73</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -4028,34 +4022,34 @@
         <v>211111387</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
       </c>
       <c r="E85">
-        <v>684</v>
+        <v>11094</v>
       </c>
       <c r="F85" t="s">
         <v>20</v>
       </c>
       <c r="G85" s="1">
-        <v>45892</v>
+        <v>45896.473761574074</v>
       </c>
       <c r="H85" s="1">
-        <v>45862</v>
+        <v>45866.473761574074</v>
       </c>
       <c r="I85" s="2">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="J85" s="3">
-        <v>-13.73</v>
+        <v>299.01</v>
       </c>
       <c r="K85" s="3">
-        <v>-13.73</v>
+        <v>299.01</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -4069,7 +4063,7 @@
         <v>211111387</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4078,25 +4072,25 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>11094</v>
+        <v>11136</v>
       </c>
       <c r="F86" t="s">
         <v>20</v>
       </c>
       <c r="G86" s="1">
-        <v>45896.473761574074</v>
+        <v>45896.75268518518</v>
       </c>
       <c r="H86" s="1">
-        <v>45866.473761574074</v>
+        <v>45866.754085648143</v>
       </c>
       <c r="I86" s="2">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="J86" s="3">
-        <v>299.01</v>
+        <v>395.47</v>
       </c>
       <c r="K86" s="3">
-        <v>299.01</v>
+        <v>395.47</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4110,7 +4104,7 @@
         <v>211111387</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4119,25 +4113,25 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>11136</v>
+        <v>11263</v>
       </c>
       <c r="F87" t="s">
         <v>20</v>
       </c>
       <c r="G87" s="1">
-        <v>45896.75268518518</v>
+        <v>45899.415798611109</v>
       </c>
       <c r="H87" s="1">
-        <v>45866.754085648143</v>
+        <v>45869.416585648149</v>
       </c>
       <c r="I87" s="2">
-        <v>-19</v>
+        <v>-21</v>
       </c>
       <c r="J87" s="3">
-        <v>395.47</v>
+        <v>111.83</v>
       </c>
       <c r="K87" s="3">
-        <v>395.47</v>
+        <v>111.83</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
@@ -4151,7 +4145,7 @@
         <v>211111387</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4160,25 +4154,25 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>11263</v>
+        <v>11378</v>
       </c>
       <c r="F88" t="s">
         <v>20</v>
       </c>
       <c r="G88" s="1">
-        <v>45899.415798611109</v>
+        <v>45903.47488425926</v>
       </c>
       <c r="H88" s="1">
-        <v>45869.416585648149</v>
+        <v>45873.47488425926</v>
       </c>
       <c r="I88" s="2">
-        <v>-22</v>
+        <v>-25</v>
       </c>
       <c r="J88" s="3">
-        <v>111.83</v>
+        <v>601.37</v>
       </c>
       <c r="K88" s="3">
-        <v>111.83</v>
+        <v>601.37</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -4189,7 +4183,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211111387</v>
+        <v>211111478</v>
       </c>
       <c r="B89" t="s">
         <v>38</v>
@@ -4201,25 +4195,25 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>11378</v>
+        <v>10964</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
       </c>
       <c r="G89" s="1">
-        <v>45903.47488425926</v>
+        <v>45891.654791666668</v>
       </c>
       <c r="H89" s="1">
-        <v>45873.47488425926</v>
+        <v>45861.655266203699</v>
       </c>
       <c r="I89" s="2">
-        <v>-26</v>
+        <v>-13</v>
       </c>
       <c r="J89" s="3">
-        <v>601.37</v>
+        <v>78.75</v>
       </c>
       <c r="K89" s="3">
-        <v>601.37</v>
+        <v>78.75</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
@@ -4233,7 +4227,7 @@
         <v>211111478</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -4242,25 +4236,25 @@
         <v>15</v>
       </c>
       <c r="E90">
-        <v>10964</v>
+        <v>11256</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
       </c>
       <c r="G90" s="1">
-        <v>45891.654791666668</v>
+        <v>45899.266192129631</v>
       </c>
       <c r="H90" s="1">
-        <v>45861.655266203699</v>
+        <v>45869.26662037037</v>
       </c>
       <c r="I90" s="2">
-        <v>-14</v>
+        <v>-21</v>
       </c>
       <c r="J90" s="3">
-        <v>78.75</v>
+        <v>24.94</v>
       </c>
       <c r="K90" s="3">
-        <v>78.75</v>
+        <v>24.94</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
@@ -4274,7 +4268,7 @@
         <v>211111478</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4283,25 +4277,25 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>11256</v>
+        <v>11465</v>
       </c>
       <c r="F91" t="s">
         <v>20</v>
       </c>
       <c r="G91" s="1">
-        <v>45899.266192129631</v>
+        <v>45904.638726851852</v>
       </c>
       <c r="H91" s="1">
-        <v>45869.26662037037</v>
+        <v>45874.640844907408</v>
       </c>
       <c r="I91" s="2">
-        <v>-22</v>
+        <v>-26</v>
       </c>
       <c r="J91" s="3">
-        <v>24.94</v>
+        <v>72.960000000000008</v>
       </c>
       <c r="K91" s="3">
-        <v>24.94</v>
+        <v>72.960000000000008</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -4312,7 +4306,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211111478</v>
+        <v>211111506</v>
       </c>
       <c r="B92" t="s">
         <v>39</v>
@@ -4324,25 +4318,25 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>11465</v>
+        <v>10500</v>
       </c>
       <c r="F92" t="s">
         <v>20</v>
       </c>
       <c r="G92" s="1">
-        <v>45904.638726851852</v>
+        <v>45879.611701388887</v>
       </c>
       <c r="H92" s="1">
-        <v>45874.640844907408</v>
+        <v>45849.612314814811</v>
       </c>
       <c r="I92" s="2">
-        <v>-27</v>
+        <v>-1</v>
       </c>
       <c r="J92" s="3">
-        <v>72.960000000000008</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K92" s="3">
-        <v>72.960000000000008</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
@@ -4356,7 +4350,7 @@
         <v>211111506</v>
       </c>
       <c r="B93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -4365,25 +4359,25 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>10500</v>
+        <v>11373</v>
       </c>
       <c r="F93" t="s">
         <v>20</v>
       </c>
       <c r="G93" s="1">
-        <v>45879.611701388887</v>
+        <v>45903.329849537033</v>
       </c>
       <c r="H93" s="1">
-        <v>45849.612314814811</v>
+        <v>45873.330763888887</v>
       </c>
       <c r="I93" s="2">
-        <v>-2</v>
+        <v>-25</v>
       </c>
       <c r="J93" s="3">
-        <v>4.9000000000000004</v>
+        <v>137.55000000000001</v>
       </c>
       <c r="K93" s="3">
-        <v>4.9000000000000004</v>
+        <v>137.55000000000001</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -4397,7 +4391,7 @@
         <v>211111506</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4406,25 +4400,25 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>11373</v>
+        <v>11415</v>
       </c>
       <c r="F94" t="s">
         <v>20</v>
       </c>
       <c r="G94" s="1">
-        <v>45903.329849537033</v>
+        <v>45903.629849537036</v>
       </c>
       <c r="H94" s="1">
-        <v>45873.330763888887</v>
+        <v>45873.630127314813</v>
       </c>
       <c r="I94" s="2">
-        <v>-26</v>
+        <v>-25</v>
       </c>
       <c r="J94" s="3">
-        <v>137.55000000000001</v>
+        <v>183.23</v>
       </c>
       <c r="K94" s="3">
-        <v>137.55000000000001</v>
+        <v>183.23</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
@@ -4438,7 +4432,7 @@
         <v>211111506</v>
       </c>
       <c r="B95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -4447,25 +4441,25 @@
         <v>15</v>
       </c>
       <c r="E95">
-        <v>11415</v>
+        <v>11583</v>
       </c>
       <c r="F95" t="s">
         <v>20</v>
       </c>
       <c r="G95" s="1">
-        <v>45903.629849537036</v>
+        <v>45906.501307870371</v>
       </c>
       <c r="H95" s="1">
-        <v>45873.630127314813</v>
+        <v>45876.50168981481</v>
       </c>
       <c r="I95" s="2">
-        <v>-26</v>
+        <v>-28</v>
       </c>
       <c r="J95" s="3">
-        <v>183.23</v>
+        <v>67.38</v>
       </c>
       <c r="K95" s="3">
-        <v>183.23</v>
+        <v>67.38</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
@@ -4476,43 +4470,43 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211111506</v>
+        <v>211111625</v>
       </c>
       <c r="B96" t="s">
         <v>40</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96">
-        <v>11583</v>
+        <v>29</v>
+      </c>
+      <c r="E96" t="s">
+        <v>30</v>
       </c>
       <c r="F96" t="s">
         <v>20</v>
       </c>
       <c r="G96" s="1">
-        <v>45906.501307870371</v>
+        <v>45769</v>
       </c>
       <c r="H96" s="1">
-        <v>45876.50168981481</v>
+        <v>45739</v>
       </c>
       <c r="I96" s="2">
-        <v>-29</v>
+        <v>109</v>
       </c>
       <c r="J96" s="3">
-        <v>67.38</v>
+        <v>-602.46</v>
       </c>
       <c r="K96" s="3">
-        <v>67.38</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4520,40 +4514,40 @@
         <v>211111625</v>
       </c>
       <c r="B97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
-      </c>
-      <c r="D97" t="s">
-        <v>30</v>
-      </c>
-      <c r="E97" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="D97">
+        <v>2025</v>
+      </c>
+      <c r="E97">
+        <v>602</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
       </c>
       <c r="G97" s="1">
-        <v>45769</v>
+        <v>45869</v>
       </c>
       <c r="H97" s="1">
-        <v>45739</v>
+        <v>45839</v>
       </c>
       <c r="I97" s="2">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="J97" s="3">
-        <v>-602.46</v>
+        <v>-38.380000000000003</v>
       </c>
       <c r="K97" s="3">
-        <v>-0.28000000000000003</v>
+        <v>-38.380000000000003</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4561,34 +4555,34 @@
         <v>211111625</v>
       </c>
       <c r="B98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
-      </c>
-      <c r="D98">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
       </c>
       <c r="E98">
-        <v>602</v>
+        <v>9936</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
       </c>
       <c r="G98" s="1">
-        <v>45869</v>
+        <v>45869.406018518515</v>
       </c>
       <c r="H98" s="1">
-        <v>45839</v>
+        <v>45839.407280092593</v>
       </c>
       <c r="I98" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J98" s="3">
-        <v>-38.380000000000003</v>
+        <v>328.58</v>
       </c>
       <c r="K98" s="3">
-        <v>-38.380000000000003</v>
+        <v>328.58</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
@@ -4602,7 +4596,7 @@
         <v>211111625</v>
       </c>
       <c r="B99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4611,31 +4605,31 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>9936</v>
+        <v>10240</v>
       </c>
       <c r="F99" t="s">
         <v>20</v>
       </c>
       <c r="G99" s="1">
-        <v>45869.406018518515</v>
+        <v>45876.326597222222</v>
       </c>
       <c r="H99" s="1">
-        <v>45839.407280092593</v>
+        <v>45846.327291666668</v>
       </c>
       <c r="I99" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J99" s="3">
-        <v>328.58</v>
+        <v>301.90000000000003</v>
       </c>
       <c r="K99" s="3">
-        <v>328.58</v>
+        <v>301.90000000000003</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4643,7 +4637,7 @@
         <v>211111625</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -4652,31 +4646,31 @@
         <v>15</v>
       </c>
       <c r="E100">
-        <v>10240</v>
+        <v>11145</v>
       </c>
       <c r="F100" t="s">
         <v>20</v>
       </c>
       <c r="G100" s="1">
-        <v>45876.326597222222</v>
+        <v>45897.404432870368</v>
       </c>
       <c r="H100" s="1">
-        <v>45846.327291666668</v>
+        <v>45867.405844907407</v>
       </c>
       <c r="I100" s="2">
-        <v>1</v>
+        <v>-19</v>
       </c>
       <c r="J100" s="3">
-        <v>301.90000000000003</v>
+        <v>89.11</v>
       </c>
       <c r="K100" s="3">
-        <v>301.90000000000003</v>
+        <v>89.11</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4684,7 +4678,7 @@
         <v>211111625</v>
       </c>
       <c r="B101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -4693,25 +4687,25 @@
         <v>15</v>
       </c>
       <c r="E101">
-        <v>11145</v>
+        <v>11175</v>
       </c>
       <c r="F101" t="s">
         <v>20</v>
       </c>
       <c r="G101" s="1">
-        <v>45897.404432870368</v>
+        <v>45897.554768518516</v>
       </c>
       <c r="H101" s="1">
-        <v>45867.405844907407</v>
+        <v>45867.554780092592</v>
       </c>
       <c r="I101" s="2">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="J101" s="3">
-        <v>89.11</v>
+        <v>742.58</v>
       </c>
       <c r="K101" s="3">
-        <v>89.11</v>
+        <v>742.58</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
@@ -4725,7 +4719,7 @@
         <v>211111625</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -4734,25 +4728,25 @@
         <v>15</v>
       </c>
       <c r="E102">
-        <v>11175</v>
+        <v>11311</v>
       </c>
       <c r="F102" t="s">
         <v>20</v>
       </c>
       <c r="G102" s="1">
-        <v>45897.554768518516</v>
+        <v>45900.455590277779</v>
       </c>
       <c r="H102" s="1">
-        <v>45867.554780092592</v>
+        <v>45870.455590277779</v>
       </c>
       <c r="I102" s="2">
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="J102" s="3">
-        <v>742.58</v>
+        <v>528.91999999999996</v>
       </c>
       <c r="K102" s="3">
-        <v>742.58</v>
+        <v>528.91999999999996</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
@@ -4766,7 +4760,7 @@
         <v>211111625</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4775,25 +4769,25 @@
         <v>15</v>
       </c>
       <c r="E103">
-        <v>11311</v>
+        <v>11455</v>
       </c>
       <c r="F103" t="s">
         <v>20</v>
       </c>
       <c r="G103" s="1">
-        <v>45900.455590277779</v>
+        <v>45904.54042824074</v>
       </c>
       <c r="H103" s="1">
-        <v>45870.455590277779</v>
+        <v>45874.54042824074</v>
       </c>
       <c r="I103" s="2">
-        <v>-23</v>
+        <v>-26</v>
       </c>
       <c r="J103" s="3">
-        <v>528.91999999999996</v>
+        <v>1218.51</v>
       </c>
       <c r="K103" s="3">
-        <v>528.91999999999996</v>
+        <v>1218.51</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
@@ -4804,7 +4798,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B104" t="s">
         <v>41</v>
@@ -4816,31 +4810,31 @@
         <v>15</v>
       </c>
       <c r="E104">
-        <v>11455</v>
+        <v>9429</v>
       </c>
       <c r="F104" t="s">
         <v>20</v>
       </c>
       <c r="G104" s="1">
-        <v>45904.54042824074</v>
+        <v>45856.451006944444</v>
       </c>
       <c r="H104" s="1">
-        <v>45874.54042824074</v>
+        <v>45826.451331018514</v>
       </c>
       <c r="I104" s="2">
-        <v>-27</v>
+        <v>22</v>
       </c>
       <c r="J104" s="3">
-        <v>1218.51</v>
+        <v>363.51</v>
       </c>
       <c r="K104" s="3">
-        <v>1218.51</v>
+        <v>363.51</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4848,7 +4842,7 @@
         <v>211111888</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -4857,25 +4851,25 @@
         <v>15</v>
       </c>
       <c r="E105">
-        <v>9429</v>
+        <v>9550</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
       </c>
       <c r="G105" s="1">
-        <v>45856.451006944444</v>
+        <v>45858.588043981479</v>
       </c>
       <c r="H105" s="1">
-        <v>45826.451331018514</v>
+        <v>45828.58893518518</v>
       </c>
       <c r="I105" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J105" s="3">
-        <v>363.51</v>
+        <v>97.93</v>
       </c>
       <c r="K105" s="3">
-        <v>363.51</v>
+        <v>97.93</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
@@ -4889,7 +4883,7 @@
         <v>211111888</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -4898,25 +4892,25 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <v>9550</v>
+        <v>9554</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
       </c>
       <c r="G106" s="1">
-        <v>45858.588043981479</v>
+        <v>45858.603680555556</v>
       </c>
       <c r="H106" s="1">
-        <v>45828.58893518518</v>
+        <v>45828.605798611112</v>
       </c>
       <c r="I106" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J106" s="3">
-        <v>97.93</v>
+        <v>873.41</v>
       </c>
       <c r="K106" s="3">
-        <v>97.93</v>
+        <v>873.41</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
@@ -4930,7 +4924,7 @@
         <v>211111888</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4939,25 +4933,25 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>9554</v>
+        <v>9608</v>
       </c>
       <c r="F107" t="s">
         <v>20</v>
       </c>
       <c r="G107" s="1">
-        <v>45858.603680555556</v>
+        <v>45861.483668981477</v>
       </c>
       <c r="H107" s="1">
-        <v>45828.605798611112</v>
+        <v>45831.48400462963</v>
       </c>
       <c r="I107" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J107" s="3">
-        <v>873.41</v>
+        <v>24.36</v>
       </c>
       <c r="K107" s="3">
-        <v>873.41</v>
+        <v>24.36</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
@@ -4971,7 +4965,7 @@
         <v>211111888</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -4980,25 +4974,25 @@
         <v>15</v>
       </c>
       <c r="E108">
-        <v>9608</v>
+        <v>9715</v>
       </c>
       <c r="F108" t="s">
         <v>20</v>
       </c>
       <c r="G108" s="1">
-        <v>45861.483668981477</v>
+        <v>45863.515474537038</v>
       </c>
       <c r="H108" s="1">
-        <v>45831.48400462963</v>
+        <v>45833.517407407402</v>
       </c>
       <c r="I108" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J108" s="3">
-        <v>24.36</v>
+        <v>951.75</v>
       </c>
       <c r="K108" s="3">
-        <v>24.36</v>
+        <v>951.75</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
@@ -5012,7 +5006,7 @@
         <v>211111888</v>
       </c>
       <c r="B109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -5021,25 +5015,25 @@
         <v>15</v>
       </c>
       <c r="E109">
-        <v>9715</v>
+        <v>9933</v>
       </c>
       <c r="F109" t="s">
         <v>20</v>
       </c>
       <c r="G109" s="1">
-        <v>45863.515474537038</v>
+        <v>45869.385451388887</v>
       </c>
       <c r="H109" s="1">
-        <v>45833.517407407402</v>
+        <v>45839.386840277773</v>
       </c>
       <c r="I109" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J109" s="3">
-        <v>951.75</v>
+        <v>78.92</v>
       </c>
       <c r="K109" s="3">
-        <v>951.75</v>
+        <v>78.92</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
@@ -5053,7 +5047,7 @@
         <v>211111888</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -5062,25 +5056,25 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <v>9933</v>
+        <v>10054</v>
       </c>
       <c r="F110" t="s">
         <v>20</v>
       </c>
       <c r="G110" s="1">
-        <v>45869.385451388887</v>
+        <v>45871.521666666667</v>
       </c>
       <c r="H110" s="1">
-        <v>45839.386840277773</v>
+        <v>45841.521666666667</v>
       </c>
       <c r="I110" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J110" s="3">
-        <v>78.92</v>
+        <v>81.25</v>
       </c>
       <c r="K110" s="3">
-        <v>78.92</v>
+        <v>81.25</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
@@ -5094,7 +5088,7 @@
         <v>211111888</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5103,25 +5097,25 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>10054</v>
+        <v>10144</v>
       </c>
       <c r="F111" t="s">
         <v>20</v>
       </c>
       <c r="G111" s="1">
-        <v>45871.521666666667</v>
+        <v>45872.453831018516</v>
       </c>
       <c r="H111" s="1">
-        <v>45841.521666666667</v>
+        <v>45842.453831018516</v>
       </c>
       <c r="I111" s="2">
         <v>6</v>
       </c>
       <c r="J111" s="3">
-        <v>81.25</v>
+        <v>833.06000000000006</v>
       </c>
       <c r="K111" s="3">
-        <v>81.25</v>
+        <v>833.06000000000006</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
@@ -5135,7 +5129,7 @@
         <v>211111888</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
@@ -5144,25 +5138,25 @@
         <v>15</v>
       </c>
       <c r="E112">
-        <v>10144</v>
+        <v>10277</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
       </c>
       <c r="G112" s="1">
-        <v>45872.453831018516</v>
+        <v>45876.441319444442</v>
       </c>
       <c r="H112" s="1">
-        <v>45842.453831018516</v>
+        <v>45846.441319444442</v>
       </c>
       <c r="I112" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J112" s="3">
-        <v>833.06000000000006</v>
+        <v>1056.32</v>
       </c>
       <c r="K112" s="3">
-        <v>833.06000000000006</v>
+        <v>1056.32</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
@@ -5176,7 +5170,7 @@
         <v>211111888</v>
       </c>
       <c r="B113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -5185,25 +5179,25 @@
         <v>15</v>
       </c>
       <c r="E113">
-        <v>10277</v>
+        <v>10352</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
       </c>
       <c r="G113" s="1">
-        <v>45876.441319444442</v>
+        <v>45877.450138888889</v>
       </c>
       <c r="H113" s="1">
-        <v>45846.441319444442</v>
+        <v>45847.450150462959</v>
       </c>
       <c r="I113" s="2">
         <v>1</v>
       </c>
       <c r="J113" s="3">
-        <v>1056.32</v>
+        <v>210.29</v>
       </c>
       <c r="K113" s="3">
-        <v>1056.32</v>
+        <v>210.29</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
@@ -5217,34 +5211,34 @@
         <v>211111888</v>
       </c>
       <c r="B114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D114">
+        <v>2025</v>
       </c>
       <c r="E114">
-        <v>10352</v>
+        <v>636</v>
       </c>
       <c r="F114" t="s">
         <v>20</v>
       </c>
       <c r="G114" s="1">
-        <v>45877.450138888889</v>
+        <v>45878</v>
       </c>
       <c r="H114" s="1">
-        <v>45847.450150462959</v>
+        <v>45848</v>
       </c>
       <c r="I114" s="2">
         <v>0</v>
       </c>
       <c r="J114" s="3">
-        <v>210.29</v>
+        <v>-507.94</v>
       </c>
       <c r="K114" s="3">
-        <v>210.29</v>
+        <v>-507.94</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
@@ -5258,34 +5252,34 @@
         <v>211111888</v>
       </c>
       <c r="B115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
-      </c>
-      <c r="D115">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
+        <v>15</v>
       </c>
       <c r="E115">
-        <v>636</v>
+        <v>10419</v>
       </c>
       <c r="F115" t="s">
         <v>20</v>
       </c>
       <c r="G115" s="1">
-        <v>45878</v>
+        <v>45878.429652777777</v>
       </c>
       <c r="H115" s="1">
-        <v>45848</v>
+        <v>45848.429652777777</v>
       </c>
       <c r="I115" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J115" s="3">
-        <v>-507.94</v>
+        <v>540.54999999999995</v>
       </c>
       <c r="K115" s="3">
-        <v>-507.94</v>
+        <v>540.54999999999995</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
@@ -5299,7 +5293,7 @@
         <v>211111888</v>
       </c>
       <c r="B116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -5308,25 +5302,25 @@
         <v>15</v>
       </c>
       <c r="E116">
-        <v>10419</v>
+        <v>10477</v>
       </c>
       <c r="F116" t="s">
         <v>20</v>
       </c>
       <c r="G116" s="1">
-        <v>45878.429652777777</v>
+        <v>45879.432314814811</v>
       </c>
       <c r="H116" s="1">
-        <v>45848.429652777777</v>
+        <v>45849.432314814811</v>
       </c>
       <c r="I116" s="2">
         <v>-1</v>
       </c>
       <c r="J116" s="3">
-        <v>540.54999999999995</v>
+        <v>165.06</v>
       </c>
       <c r="K116" s="3">
-        <v>540.54999999999995</v>
+        <v>165.06</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
@@ -5340,7 +5334,7 @@
         <v>211111888</v>
       </c>
       <c r="B117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
@@ -5349,25 +5343,25 @@
         <v>15</v>
       </c>
       <c r="E117">
-        <v>10477</v>
+        <v>10508</v>
       </c>
       <c r="F117" t="s">
         <v>20</v>
       </c>
       <c r="G117" s="1">
-        <v>45879.432314814811</v>
+        <v>45882.471365740741</v>
       </c>
       <c r="H117" s="1">
-        <v>45849.432314814811</v>
+        <v>45852.471365740741</v>
       </c>
       <c r="I117" s="2">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="J117" s="3">
-        <v>165.06</v>
+        <v>110.59</v>
       </c>
       <c r="K117" s="3">
-        <v>165.06</v>
+        <v>110.59</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
@@ -5381,7 +5375,7 @@
         <v>211111888</v>
       </c>
       <c r="B118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -5390,25 +5384,25 @@
         <v>15</v>
       </c>
       <c r="E118">
-        <v>10508</v>
+        <v>10519</v>
       </c>
       <c r="F118" t="s">
         <v>20</v>
       </c>
       <c r="G118" s="1">
-        <v>45882.471365740741</v>
+        <v>45882.479282407403</v>
       </c>
       <c r="H118" s="1">
-        <v>45852.471365740741</v>
+        <v>45852.479282407403</v>
       </c>
       <c r="I118" s="2">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="J118" s="3">
-        <v>110.59</v>
+        <v>439.56</v>
       </c>
       <c r="K118" s="3">
-        <v>110.59</v>
+        <v>439.56</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
@@ -5422,7 +5416,7 @@
         <v>211111888</v>
       </c>
       <c r="B119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
@@ -5431,25 +5425,25 @@
         <v>15</v>
       </c>
       <c r="E119">
-        <v>10519</v>
+        <v>10626</v>
       </c>
       <c r="F119" t="s">
         <v>20</v>
       </c>
       <c r="G119" s="1">
-        <v>45882.479282407403</v>
+        <v>45884.449004629627</v>
       </c>
       <c r="H119" s="1">
-        <v>45852.479282407403</v>
+        <v>45854.449004629627</v>
       </c>
       <c r="I119" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="J119" s="3">
-        <v>439.56</v>
+        <v>49.69</v>
       </c>
       <c r="K119" s="3">
-        <v>439.56</v>
+        <v>49.69</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
@@ -5463,7 +5457,7 @@
         <v>211111888</v>
       </c>
       <c r="B120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
@@ -5472,25 +5466,25 @@
         <v>15</v>
       </c>
       <c r="E120">
-        <v>10626</v>
+        <v>10811</v>
       </c>
       <c r="F120" t="s">
         <v>20</v>
       </c>
       <c r="G120" s="1">
-        <v>45884.449004629627</v>
+        <v>45889.48296296296</v>
       </c>
       <c r="H120" s="1">
-        <v>45854.449004629627</v>
+        <v>45859.48296296296</v>
       </c>
       <c r="I120" s="2">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="J120" s="3">
-        <v>49.69</v>
+        <v>481.88</v>
       </c>
       <c r="K120" s="3">
-        <v>49.69</v>
+        <v>481.88</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
@@ -5504,34 +5498,34 @@
         <v>211111888</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D121">
+        <v>2025</v>
       </c>
       <c r="E121">
-        <v>10811</v>
+        <v>666</v>
       </c>
       <c r="F121" t="s">
         <v>20</v>
       </c>
       <c r="G121" s="1">
-        <v>45889.48296296296</v>
+        <v>45891</v>
       </c>
       <c r="H121" s="1">
-        <v>45859.48296296296</v>
+        <v>45861</v>
       </c>
       <c r="I121" s="2">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="J121" s="3">
-        <v>481.88</v>
+        <v>-359.47</v>
       </c>
       <c r="K121" s="3">
-        <v>481.88</v>
+        <v>-359.47</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
@@ -5545,7 +5539,7 @@
         <v>211111888</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C122" t="s">
         <v>22</v>
@@ -5554,25 +5548,25 @@
         <v>2025</v>
       </c>
       <c r="E122">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="F122" t="s">
         <v>20</v>
       </c>
       <c r="G122" s="1">
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="H122" s="1">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="I122" s="2">
         <v>-14</v>
       </c>
       <c r="J122" s="3">
-        <v>-359.47</v>
+        <v>-11.61</v>
       </c>
       <c r="K122" s="3">
-        <v>-359.47</v>
+        <v>-11.61</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
@@ -5586,34 +5580,34 @@
         <v>211111888</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C123" t="s">
-        <v>22</v>
-      </c>
-      <c r="D123">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>15</v>
       </c>
       <c r="E123">
-        <v>679</v>
+        <v>10999</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
       </c>
       <c r="G123" s="1">
-        <v>45892</v>
+        <v>45892.498240740737</v>
       </c>
       <c r="H123" s="1">
-        <v>45862</v>
+        <v>45862.498240740737</v>
       </c>
       <c r="I123" s="2">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="J123" s="3">
-        <v>-11.61</v>
+        <v>134.38</v>
       </c>
       <c r="K123" s="3">
-        <v>-11.61</v>
+        <v>134.38</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
@@ -5627,7 +5621,7 @@
         <v>211111888</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
@@ -5636,25 +5630,25 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>10999</v>
+        <v>11123</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
       </c>
       <c r="G124" s="1">
-        <v>45892.498240740737</v>
+        <v>45896.546006944445</v>
       </c>
       <c r="H124" s="1">
-        <v>45862.498240740737</v>
+        <v>45866.547673611109</v>
       </c>
       <c r="I124" s="2">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="J124" s="3">
-        <v>134.38</v>
+        <v>727.73</v>
       </c>
       <c r="K124" s="3">
-        <v>134.38</v>
+        <v>727.73</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
@@ -5668,7 +5662,7 @@
         <v>211111888</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
@@ -5677,25 +5671,25 @@
         <v>15</v>
       </c>
       <c r="E125">
-        <v>11123</v>
+        <v>11288</v>
       </c>
       <c r="F125" t="s">
         <v>20</v>
       </c>
       <c r="G125" s="1">
-        <v>45896.546006944445</v>
+        <v>45899.506018518514</v>
       </c>
       <c r="H125" s="1">
-        <v>45866.547673611109</v>
+        <v>45869.506030092591</v>
       </c>
       <c r="I125" s="2">
-        <v>-19</v>
+        <v>-21</v>
       </c>
       <c r="J125" s="3">
-        <v>727.73</v>
+        <v>228.8</v>
       </c>
       <c r="K125" s="3">
-        <v>727.73</v>
+        <v>228.8</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
@@ -5709,34 +5703,34 @@
         <v>211111888</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D126">
+        <v>2025</v>
       </c>
       <c r="E126">
-        <v>11288</v>
+        <v>713</v>
       </c>
       <c r="F126" t="s">
         <v>20</v>
       </c>
       <c r="G126" s="1">
-        <v>45899.506018518514</v>
+        <v>45900</v>
       </c>
       <c r="H126" s="1">
-        <v>45869.506030092591</v>
+        <v>45870</v>
       </c>
       <c r="I126" s="2">
         <v>-22</v>
       </c>
       <c r="J126" s="3">
-        <v>228.8</v>
+        <v>-15.39</v>
       </c>
       <c r="K126" s="3">
-        <v>228.8</v>
+        <v>-15.39</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
@@ -5750,7 +5744,7 @@
         <v>211111888</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
@@ -5771,7 +5765,7 @@
         <v>45870.516898148147</v>
       </c>
       <c r="I127" s="2">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="J127" s="3">
         <v>741.32</v>
@@ -5791,7 +5785,7 @@
         <v>211111888</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C128" t="s">
         <v>14</v>
@@ -5812,7 +5806,7 @@
         <v>45874.531446759254</v>
       </c>
       <c r="I128" s="2">
-        <v>-27</v>
+        <v>-26</v>
       </c>
       <c r="J128" s="3">
         <v>49.82</v>
@@ -5832,7 +5826,7 @@
         <v>211111888</v>
       </c>
       <c r="B129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -5853,7 +5847,7 @@
         <v>45875.643437499995</v>
       </c>
       <c r="I129" s="2">
-        <v>-28</v>
+        <v>-27</v>
       </c>
       <c r="J129" s="3">
         <v>699.11</v>
@@ -5873,7 +5867,7 @@
         <v>211111888</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -5894,7 +5888,7 @@
         <v>45876.35765046296</v>
       </c>
       <c r="I130" s="2">
-        <v>-29</v>
+        <v>-28</v>
       </c>
       <c r="J130" s="3">
         <v>179.12</v>
@@ -5911,10 +5905,10 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>211111892</v>
+        <v>211111888</v>
       </c>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -5923,25 +5917,25 @@
         <v>15</v>
       </c>
       <c r="E131">
-        <v>11364</v>
+        <v>11660</v>
       </c>
       <c r="F131" t="s">
         <v>20</v>
       </c>
       <c r="G131" s="1">
-        <v>45900.600254629629</v>
+        <v>45907.602372685185</v>
       </c>
       <c r="H131" s="1">
-        <v>45870.600983796292</v>
+        <v>45877.602372685185</v>
       </c>
       <c r="I131" s="2">
-        <v>-23</v>
+        <v>-29</v>
       </c>
       <c r="J131" s="3">
-        <v>114.72</v>
+        <v>81.33</v>
       </c>
       <c r="K131" s="3">
-        <v>114.72</v>
+        <v>81.33</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
@@ -5955,7 +5949,7 @@
         <v>211111892</v>
       </c>
       <c r="B132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -5964,25 +5958,25 @@
         <v>15</v>
       </c>
       <c r="E132">
-        <v>11504</v>
+        <v>11364</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
       </c>
       <c r="G132" s="1">
-        <v>45905.431342592594</v>
+        <v>45900.600254629629</v>
       </c>
       <c r="H132" s="1">
-        <v>45875.432152777779</v>
+        <v>45870.600983796292</v>
       </c>
       <c r="I132" s="2">
-        <v>-28</v>
+        <v>-22</v>
       </c>
       <c r="J132" s="3">
-        <v>243.1</v>
+        <v>114.72</v>
       </c>
       <c r="K132" s="3">
-        <v>243.1</v>
+        <v>114.72</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
@@ -5993,10 +5987,10 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>211112004</v>
+        <v>211111892</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
@@ -6005,25 +5999,25 @@
         <v>15</v>
       </c>
       <c r="E133">
-        <v>10431</v>
+        <v>11504</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
       </c>
       <c r="G133" s="1">
-        <v>45878.592581018514</v>
+        <v>45905.431342592594</v>
       </c>
       <c r="H133" s="1">
-        <v>45848.592581018514</v>
+        <v>45875.432152777779</v>
       </c>
       <c r="I133" s="2">
-        <v>-1</v>
+        <v>-27</v>
       </c>
       <c r="J133" s="3">
-        <v>414.76</v>
+        <v>243.1</v>
       </c>
       <c r="K133" s="3">
-        <v>414.76</v>
+        <v>243.1</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
@@ -6034,10 +6028,10 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>211112004</v>
+        <v>211111892</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6046,25 +6040,25 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>10728</v>
+        <v>11607</v>
       </c>
       <c r="F134" t="s">
         <v>20</v>
       </c>
       <c r="G134" s="1">
-        <v>45886.283738425926</v>
+        <v>45907.400347222218</v>
       </c>
       <c r="H134" s="1">
-        <v>45856.284224537034</v>
+        <v>45877.404328703698</v>
       </c>
       <c r="I134" s="2">
-        <v>-9</v>
+        <v>-29</v>
       </c>
       <c r="J134" s="3">
-        <v>278.35000000000002</v>
+        <v>122.96000000000001</v>
       </c>
       <c r="K134" s="3">
-        <v>278.35000000000002</v>
+        <v>122.96000000000001</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
@@ -6078,7 +6072,7 @@
         <v>211112004</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6087,25 +6081,25 @@
         <v>15</v>
       </c>
       <c r="E135">
-        <v>11297</v>
+        <v>10431</v>
       </c>
       <c r="F135" t="s">
         <v>20</v>
       </c>
       <c r="G135" s="1">
-        <v>45900.295555555553</v>
+        <v>45878.592581018514</v>
       </c>
       <c r="H135" s="1">
-        <v>45870.300393518519</v>
+        <v>45848.592581018514</v>
       </c>
       <c r="I135" s="2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="J135" s="3">
-        <v>482.92</v>
+        <v>414.76</v>
       </c>
       <c r="K135" s="3">
-        <v>482.92</v>
+        <v>414.76</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
@@ -6116,10 +6110,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112022</v>
+        <v>211112004</v>
       </c>
       <c r="B136" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -6128,39 +6122,39 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>9992</v>
+        <v>10728</v>
       </c>
       <c r="F136" t="s">
         <v>20</v>
       </c>
       <c r="G136" s="1">
-        <v>45840.446226851847</v>
+        <v>45886.283738425926</v>
       </c>
       <c r="H136" s="1">
-        <v>45840.446226851847</v>
+        <v>45856.284224537034</v>
       </c>
       <c r="I136" s="2">
-        <v>37</v>
+        <v>-8</v>
       </c>
       <c r="J136" s="3">
-        <v>326.48</v>
+        <v>278.35000000000002</v>
       </c>
       <c r="K136" s="3">
-        <v>326.48</v>
+        <v>278.35000000000002</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
       </c>
       <c r="M136" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211112022</v>
+        <v>211112004</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -6169,39 +6163,39 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <v>10718</v>
+        <v>11297</v>
       </c>
       <c r="F137" t="s">
         <v>20</v>
       </c>
       <c r="G137" s="1">
-        <v>45855.563877314809</v>
+        <v>45900.295555555553</v>
       </c>
       <c r="H137" s="1">
-        <v>45855.563877314809</v>
+        <v>45870.300393518519</v>
       </c>
       <c r="I137" s="2">
-        <v>22</v>
+        <v>-22</v>
       </c>
       <c r="J137" s="3">
-        <v>194.09</v>
+        <v>482.92</v>
       </c>
       <c r="K137" s="3">
-        <v>194.09</v>
+        <v>482.92</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
       </c>
       <c r="M137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112034</v>
+        <v>211112004</v>
       </c>
       <c r="B138" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
@@ -6210,39 +6204,39 @@
         <v>15</v>
       </c>
       <c r="E138">
-        <v>9998</v>
+        <v>11608</v>
       </c>
       <c r="F138" t="s">
         <v>20</v>
       </c>
       <c r="G138" s="1">
-        <v>45870.501469907409</v>
+        <v>45907.470601851848</v>
       </c>
       <c r="H138" s="1">
-        <v>45840.502164351848</v>
+        <v>45877.476655092592</v>
       </c>
       <c r="I138" s="2">
-        <v>7</v>
+        <v>-29</v>
       </c>
       <c r="J138" s="3">
-        <v>161.81</v>
+        <v>412.48</v>
       </c>
       <c r="K138" s="3">
-        <v>161.81</v>
+        <v>412.48</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
       </c>
       <c r="M138" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>211112034</v>
+        <v>211112022</v>
       </c>
       <c r="B139" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
@@ -6251,39 +6245,39 @@
         <v>15</v>
       </c>
       <c r="E139">
-        <v>10048</v>
+        <v>9992</v>
       </c>
       <c r="F139" t="s">
         <v>20</v>
       </c>
       <c r="G139" s="1">
-        <v>45871.520023148143</v>
+        <v>45840.446226851847</v>
       </c>
       <c r="H139" s="1">
-        <v>45841.520324074074</v>
+        <v>45840.446226851847</v>
       </c>
       <c r="I139" s="2">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="J139" s="3">
-        <v>71.540000000000006</v>
+        <v>326.48</v>
       </c>
       <c r="K139" s="3">
-        <v>71.540000000000006</v>
+        <v>326.48</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
       </c>
       <c r="M139" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>211112034</v>
+        <v>211112022</v>
       </c>
       <c r="B140" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
@@ -6292,31 +6286,31 @@
         <v>15</v>
       </c>
       <c r="E140">
-        <v>10279</v>
+        <v>10718</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
       </c>
       <c r="G140" s="1">
-        <v>45876.48737268518</v>
+        <v>45855.563877314809</v>
       </c>
       <c r="H140" s="1">
-        <v>45846.488263888888</v>
+        <v>45855.563877314809</v>
       </c>
       <c r="I140" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J140" s="3">
-        <v>243.53</v>
+        <v>194.09</v>
       </c>
       <c r="K140" s="3">
-        <v>243.53</v>
+        <v>194.09</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6324,7 +6318,7 @@
         <v>211112034</v>
       </c>
       <c r="B141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
@@ -6333,31 +6327,31 @@
         <v>15</v>
       </c>
       <c r="E141">
-        <v>10588</v>
+        <v>9998</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
       </c>
       <c r="G141" s="1">
-        <v>45883.665393518517</v>
+        <v>45870.501469907409</v>
       </c>
       <c r="H141" s="1">
-        <v>45853.665520833332</v>
+        <v>45840.502164351848</v>
       </c>
       <c r="I141" s="2">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="J141" s="3">
-        <v>250.28</v>
+        <v>161.81</v>
       </c>
       <c r="K141" s="3">
-        <v>250.28</v>
+        <v>161.81</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
       </c>
       <c r="M141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6365,7 +6359,7 @@
         <v>211112034</v>
       </c>
       <c r="B142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
@@ -6374,31 +6368,31 @@
         <v>15</v>
       </c>
       <c r="E142">
-        <v>10900</v>
+        <v>10048</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
       </c>
       <c r="G142" s="1">
-        <v>45891.499594907407</v>
+        <v>45871.520023148143</v>
       </c>
       <c r="H142" s="1">
-        <v>45861.500196759254</v>
+        <v>45841.520324074074</v>
       </c>
       <c r="I142" s="2">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="J142" s="3">
-        <v>227.62</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="K142" s="3">
-        <v>227.62</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
       </c>
       <c r="M142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6406,7 +6400,7 @@
         <v>211112034</v>
       </c>
       <c r="B143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
@@ -6415,31 +6409,31 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>11243</v>
+        <v>10279</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
       </c>
       <c r="G143" s="1">
-        <v>45898.51180555555</v>
+        <v>45876.48737268518</v>
       </c>
       <c r="H143" s="1">
-        <v>45868.512175925927</v>
+        <v>45846.488263888888</v>
       </c>
       <c r="I143" s="2">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="J143" s="3">
-        <v>140.12</v>
+        <v>243.53</v>
       </c>
       <c r="K143" s="3">
-        <v>140.12</v>
+        <v>243.53</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
       </c>
       <c r="M143" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6447,7 +6441,7 @@
         <v>211112034</v>
       </c>
       <c r="B144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -6456,25 +6450,25 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>11535</v>
+        <v>10588</v>
       </c>
       <c r="F144" t="s">
         <v>20</v>
       </c>
       <c r="G144" s="1">
-        <v>45905.529490740737</v>
+        <v>45883.665393518517</v>
       </c>
       <c r="H144" s="1">
-        <v>45875.530717592592</v>
+        <v>45853.665520833332</v>
       </c>
       <c r="I144" s="2">
-        <v>-28</v>
+        <v>-5</v>
       </c>
       <c r="J144" s="3">
-        <v>285.49</v>
+        <v>250.28</v>
       </c>
       <c r="K144" s="3">
-        <v>285.49</v>
+        <v>250.28</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
@@ -6485,10 +6479,10 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>211112075</v>
+        <v>211112034</v>
       </c>
       <c r="B145" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
@@ -6497,25 +6491,25 @@
         <v>15</v>
       </c>
       <c r="E145">
-        <v>11598</v>
+        <v>10900</v>
       </c>
       <c r="F145" t="s">
         <v>20</v>
       </c>
       <c r="G145" s="1">
-        <v>45891.634305555555</v>
+        <v>45891.499594907407</v>
       </c>
       <c r="H145" s="1">
-        <v>45876.634699074071</v>
+        <v>45861.500196759254</v>
       </c>
       <c r="I145" s="2">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="J145" s="3">
-        <v>139.93</v>
+        <v>227.62</v>
       </c>
       <c r="K145" s="3">
-        <v>139.93</v>
+        <v>227.62</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -6526,10 +6520,10 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112182</v>
+        <v>211112034</v>
       </c>
       <c r="B146" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -6538,25 +6532,25 @@
         <v>15</v>
       </c>
       <c r="E146">
-        <v>11004</v>
+        <v>11243</v>
       </c>
       <c r="F146" t="s">
         <v>20</v>
       </c>
       <c r="G146" s="1">
-        <v>45892.498379629629</v>
+        <v>45898.51180555555</v>
       </c>
       <c r="H146" s="1">
-        <v>45862.498379629629</v>
+        <v>45868.512175925927</v>
       </c>
       <c r="I146" s="2">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="J146" s="3">
-        <v>213.81</v>
+        <v>140.12</v>
       </c>
       <c r="K146" s="3">
-        <v>213.81</v>
+        <v>140.12</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
@@ -6567,51 +6561,51 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>211112415</v>
+        <v>211112034</v>
       </c>
       <c r="B147" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
         <v>15</v>
       </c>
       <c r="E147">
-        <v>434</v>
+        <v>11535</v>
       </c>
       <c r="F147" t="s">
         <v>20</v>
       </c>
       <c r="G147" s="1">
-        <v>45819</v>
+        <v>45905.529490740737</v>
       </c>
       <c r="H147" s="1">
-        <v>45789</v>
+        <v>45875.530717592592</v>
       </c>
       <c r="I147" s="2">
-        <v>58</v>
+        <v>-27</v>
       </c>
       <c r="J147" s="3">
-        <v>-2.35</v>
+        <v>285.49</v>
       </c>
       <c r="K147" s="3">
-        <v>-2.35</v>
+        <v>285.49</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
       </c>
       <c r="M147" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>211112415</v>
+        <v>211112182</v>
       </c>
       <c r="B148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -6620,31 +6614,31 @@
         <v>15</v>
       </c>
       <c r="E148">
-        <v>9857</v>
+        <v>11673</v>
       </c>
       <c r="F148" t="s">
         <v>20</v>
       </c>
       <c r="G148" s="1">
-        <v>45865.462974537033</v>
+        <v>45907.622719907406</v>
       </c>
       <c r="H148" s="1">
-        <v>45835.463900462964</v>
+        <v>45877.623020833329</v>
       </c>
       <c r="I148" s="2">
-        <v>12</v>
+        <v>-29</v>
       </c>
       <c r="J148" s="3">
-        <v>52.45</v>
+        <v>188.45000000000002</v>
       </c>
       <c r="K148" s="3">
-        <v>52.45</v>
+        <v>188.45000000000002</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
       </c>
       <c r="M148" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6652,40 +6646,40 @@
         <v>211112415</v>
       </c>
       <c r="B149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
       </c>
       <c r="E149">
-        <v>10341</v>
+        <v>434</v>
       </c>
       <c r="F149" t="s">
         <v>20</v>
       </c>
       <c r="G149" s="1">
-        <v>45877.430648148147</v>
+        <v>45819</v>
       </c>
       <c r="H149" s="1">
-        <v>45847.430648148147</v>
+        <v>45789</v>
       </c>
       <c r="I149" s="2">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="J149" s="3">
-        <v>74.72</v>
+        <v>-2.35</v>
       </c>
       <c r="K149" s="3">
-        <v>74.72</v>
+        <v>-2.35</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
       </c>
       <c r="M149" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6693,7 +6687,7 @@
         <v>211112415</v>
       </c>
       <c r="B150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C150" t="s">
         <v>14</v>
@@ -6702,31 +6696,31 @@
         <v>15</v>
       </c>
       <c r="E150">
-        <v>10822</v>
+        <v>9857</v>
       </c>
       <c r="F150" t="s">
         <v>20</v>
       </c>
       <c r="G150" s="1">
-        <v>45889.487743055557</v>
+        <v>45865.462974537033</v>
       </c>
       <c r="H150" s="1">
-        <v>45859.487743055557</v>
+        <v>45835.463900462964</v>
       </c>
       <c r="I150" s="2">
-        <v>-12</v>
+        <v>13</v>
       </c>
       <c r="J150" s="3">
-        <v>95.87</v>
+        <v>52.45</v>
       </c>
       <c r="K150" s="3">
-        <v>95.87</v>
+        <v>52.45</v>
       </c>
       <c r="L150" t="s">
         <v>17</v>
       </c>
       <c r="M150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6734,7 +6728,7 @@
         <v>211112415</v>
       </c>
       <c r="B151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C151" t="s">
         <v>14</v>
@@ -6743,31 +6737,31 @@
         <v>15</v>
       </c>
       <c r="E151">
-        <v>11070</v>
+        <v>10341</v>
       </c>
       <c r="F151" t="s">
         <v>20</v>
       </c>
       <c r="G151" s="1">
-        <v>45893.523460648146</v>
+        <v>45877.430648148147</v>
       </c>
       <c r="H151" s="1">
-        <v>45863.523460648146</v>
+        <v>45847.430648148147</v>
       </c>
       <c r="I151" s="2">
-        <v>-16</v>
+        <v>1</v>
       </c>
       <c r="J151" s="3">
-        <v>106.52</v>
+        <v>74.72</v>
       </c>
       <c r="K151" s="3">
-        <v>106.52</v>
+        <v>74.72</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
       </c>
       <c r="M151" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6775,7 +6769,7 @@
         <v>211112415</v>
       </c>
       <c r="B152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -6784,25 +6778,25 @@
         <v>15</v>
       </c>
       <c r="E152">
-        <v>11102</v>
+        <v>10822</v>
       </c>
       <c r="F152" t="s">
         <v>20</v>
       </c>
       <c r="G152" s="1">
-        <v>45896.526087962964</v>
+        <v>45889.487743055557</v>
       </c>
       <c r="H152" s="1">
-        <v>45866.526087962964</v>
+        <v>45859.487743055557</v>
       </c>
       <c r="I152" s="2">
-        <v>-19</v>
+        <v>-11</v>
       </c>
       <c r="J152" s="3">
-        <v>48.92</v>
+        <v>95.87</v>
       </c>
       <c r="K152" s="3">
-        <v>48.92</v>
+        <v>95.87</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
@@ -6816,7 +6810,7 @@
         <v>211112415</v>
       </c>
       <c r="B153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
@@ -6825,25 +6819,25 @@
         <v>15</v>
       </c>
       <c r="E153">
-        <v>11360</v>
+        <v>11070</v>
       </c>
       <c r="F153" t="s">
         <v>20</v>
       </c>
       <c r="G153" s="1">
-        <v>45900.567083333328</v>
+        <v>45893.523460648146</v>
       </c>
       <c r="H153" s="1">
-        <v>45870.567083333328</v>
+        <v>45863.523460648146</v>
       </c>
       <c r="I153" s="2">
-        <v>-23</v>
+        <v>-15</v>
       </c>
       <c r="J153" s="3">
-        <v>50.69</v>
+        <v>106.52</v>
       </c>
       <c r="K153" s="3">
-        <v>50.69</v>
+        <v>106.52</v>
       </c>
       <c r="L153" t="s">
         <v>17</v>
@@ -6857,7 +6851,7 @@
         <v>211112415</v>
       </c>
       <c r="B154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -6866,25 +6860,25 @@
         <v>15</v>
       </c>
       <c r="E154">
-        <v>11543</v>
+        <v>11102</v>
       </c>
       <c r="F154" t="s">
         <v>20</v>
       </c>
       <c r="G154" s="1">
-        <v>45905.539733796293</v>
+        <v>45896.526087962964</v>
       </c>
       <c r="H154" s="1">
-        <v>45875.539733796293</v>
+        <v>45866.526087962964</v>
       </c>
       <c r="I154" s="2">
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="J154" s="3">
-        <v>61.22</v>
+        <v>48.92</v>
       </c>
       <c r="K154" s="3">
-        <v>61.22</v>
+        <v>48.92</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
@@ -6895,10 +6889,10 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>211112544</v>
+        <v>211112415</v>
       </c>
       <c r="B155" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C155" t="s">
         <v>14</v>
@@ -6907,39 +6901,39 @@
         <v>15</v>
       </c>
       <c r="E155">
-        <v>11192</v>
+        <v>11360</v>
       </c>
       <c r="F155" t="s">
         <v>20</v>
       </c>
       <c r="G155" s="1">
-        <v>45868.475057870368</v>
+        <v>45900.567083333328</v>
       </c>
       <c r="H155" s="1">
-        <v>45868.475057870368</v>
+        <v>45870.567083333328</v>
       </c>
       <c r="I155" s="2">
-        <v>9</v>
+        <v>-22</v>
       </c>
       <c r="J155" s="3">
-        <v>1971.6000000000001</v>
+        <v>50.69</v>
       </c>
       <c r="K155" s="3">
-        <v>1971.6000000000001</v>
+        <v>50.69</v>
       </c>
       <c r="L155" t="s">
         <v>17</v>
       </c>
       <c r="M155" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>211112544</v>
+        <v>211112415</v>
       </c>
       <c r="B156" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
@@ -6948,39 +6942,39 @@
         <v>15</v>
       </c>
       <c r="E156">
-        <v>11426</v>
+        <v>11543</v>
       </c>
       <c r="F156" t="s">
         <v>20</v>
       </c>
       <c r="G156" s="1">
-        <v>45874.460439814815</v>
+        <v>45905.539733796293</v>
       </c>
       <c r="H156" s="1">
-        <v>45874.460439814815</v>
+        <v>45875.539733796293</v>
       </c>
       <c r="I156" s="2">
-        <v>3</v>
+        <v>-27</v>
       </c>
       <c r="J156" s="3">
-        <v>890.4</v>
+        <v>61.22</v>
       </c>
       <c r="K156" s="3">
-        <v>890.4</v>
+        <v>61.22</v>
       </c>
       <c r="L156" t="s">
         <v>17</v>
       </c>
       <c r="M156" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>211121278</v>
+        <v>211112544</v>
       </c>
       <c r="B157" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C157" t="s">
         <v>14</v>
@@ -6989,25 +6983,25 @@
         <v>15</v>
       </c>
       <c r="E157">
-        <v>9259</v>
+        <v>11192</v>
       </c>
       <c r="F157" t="s">
         <v>20</v>
       </c>
       <c r="G157" s="1">
-        <v>45851.59134259259</v>
+        <v>45868.475057870368</v>
       </c>
       <c r="H157" s="1">
-        <v>45821.592164351852</v>
+        <v>45868.475057870368</v>
       </c>
       <c r="I157" s="2">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J157" s="3">
-        <v>97.2</v>
+        <v>1971.6000000000001</v>
       </c>
       <c r="K157" s="3">
-        <v>97.2</v>
+        <v>1971.6000000000001</v>
       </c>
       <c r="L157" t="s">
         <v>17</v>
@@ -7018,10 +7012,10 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>211121278</v>
+        <v>211112544</v>
       </c>
       <c r="B158" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C158" t="s">
         <v>14</v>
@@ -7030,31 +7024,31 @@
         <v>15</v>
       </c>
       <c r="E158">
-        <v>9555</v>
+        <v>11426</v>
       </c>
       <c r="F158" t="s">
         <v>20</v>
       </c>
       <c r="G158" s="1">
-        <v>45858.607731481483</v>
+        <v>45874.460439814815</v>
       </c>
       <c r="H158" s="1">
-        <v>45828.608090277776</v>
+        <v>45874.460439814815</v>
       </c>
       <c r="I158" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J158" s="3">
-        <v>75.600000000000009</v>
+        <v>890.4</v>
       </c>
       <c r="K158" s="3">
-        <v>75.600000000000009</v>
+        <v>890.4</v>
       </c>
       <c r="L158" t="s">
         <v>17</v>
       </c>
       <c r="M158" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7062,7 +7056,7 @@
         <v>211121278</v>
       </c>
       <c r="B159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C159" t="s">
         <v>14</v>
@@ -7071,25 +7065,25 @@
         <v>15</v>
       </c>
       <c r="E159">
-        <v>9722</v>
+        <v>9259</v>
       </c>
       <c r="F159" t="s">
         <v>20</v>
       </c>
       <c r="G159" s="1">
-        <v>45863.601412037038</v>
+        <v>45851.59134259259</v>
       </c>
       <c r="H159" s="1">
-        <v>45833.602407407408</v>
+        <v>45821.592164351852</v>
       </c>
       <c r="I159" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J159" s="3">
-        <v>102.60000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="K159" s="3">
-        <v>102.60000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="L159" t="s">
         <v>17</v>
@@ -7103,7 +7097,7 @@
         <v>211121278</v>
       </c>
       <c r="B160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C160" t="s">
         <v>14</v>
@@ -7112,25 +7106,25 @@
         <v>15</v>
       </c>
       <c r="E160">
-        <v>10076</v>
+        <v>9555</v>
       </c>
       <c r="F160" t="s">
         <v>20</v>
       </c>
       <c r="G160" s="1">
-        <v>45871.611539351848</v>
+        <v>45858.607731481483</v>
       </c>
       <c r="H160" s="1">
-        <v>45841.612893518519</v>
+        <v>45828.608090277776</v>
       </c>
       <c r="I160" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J160" s="3">
-        <v>91.8</v>
+        <v>75.600000000000009</v>
       </c>
       <c r="K160" s="3">
-        <v>91.8</v>
+        <v>75.600000000000009</v>
       </c>
       <c r="L160" t="s">
         <v>17</v>
@@ -7144,7 +7138,7 @@
         <v>211121278</v>
       </c>
       <c r="B161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C161" t="s">
         <v>14</v>
@@ -7153,31 +7147,31 @@
         <v>15</v>
       </c>
       <c r="E161">
-        <v>10229</v>
+        <v>9722</v>
       </c>
       <c r="F161" t="s">
         <v>20</v>
       </c>
       <c r="G161" s="1">
-        <v>45875.600995370369</v>
+        <v>45863.601412037038</v>
       </c>
       <c r="H161" s="1">
-        <v>45845.602673611109</v>
+        <v>45833.602407407408</v>
       </c>
       <c r="I161" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J161" s="3">
-        <v>86.4</v>
+        <v>102.60000000000001</v>
       </c>
       <c r="K161" s="3">
-        <v>86.4</v>
+        <v>102.60000000000001</v>
       </c>
       <c r="L161" t="s">
         <v>17</v>
       </c>
       <c r="M161" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -7185,7 +7179,7 @@
         <v>211121278</v>
       </c>
       <c r="B162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C162" t="s">
         <v>14</v>
@@ -7194,30 +7188,112 @@
         <v>15</v>
       </c>
       <c r="E162">
+        <v>10076</v>
+      </c>
+      <c r="F162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G162" s="1">
+        <v>45871.611539351848</v>
+      </c>
+      <c r="H162" s="1">
+        <v>45841.612893518519</v>
+      </c>
+      <c r="I162" s="2">
+        <v>7</v>
+      </c>
+      <c r="J162" s="3">
+        <v>91.8</v>
+      </c>
+      <c r="K162" s="3">
+        <v>91.8</v>
+      </c>
+      <c r="L162" t="s">
+        <v>17</v>
+      </c>
+      <c r="M162" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>211121278</v>
+      </c>
+      <c r="B163" t="s">
+        <v>46</v>
+      </c>
+      <c r="C163" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163">
+        <v>10229</v>
+      </c>
+      <c r="F163" t="s">
+        <v>20</v>
+      </c>
+      <c r="G163" s="1">
+        <v>45875.600995370369</v>
+      </c>
+      <c r="H163" s="1">
+        <v>45845.602673611109</v>
+      </c>
+      <c r="I163" s="2">
+        <v>3</v>
+      </c>
+      <c r="J163" s="3">
+        <v>86.4</v>
+      </c>
+      <c r="K163" s="3">
+        <v>86.4</v>
+      </c>
+      <c r="L163" t="s">
+        <v>17</v>
+      </c>
+      <c r="M163" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>211121278</v>
+      </c>
+      <c r="B164" t="s">
+        <v>46</v>
+      </c>
+      <c r="C164" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164">
         <v>11294</v>
       </c>
-      <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" s="1">
+      <c r="F164" t="s">
+        <v>20</v>
+      </c>
+      <c r="G164" s="1">
         <v>45899.61278935185</v>
       </c>
-      <c r="H162" s="1">
+      <c r="H164" s="1">
         <v>45869.613032407404</v>
       </c>
-      <c r="I162" s="2">
-        <v>-22</v>
-      </c>
-      <c r="J162" s="3">
+      <c r="I164" s="2">
+        <v>-21</v>
+      </c>
+      <c r="J164" s="3">
         <v>21.6</v>
       </c>
-      <c r="K162" s="3">
+      <c r="K164" s="3">
         <v>21.6</v>
       </c>
-      <c r="L162" t="s">
-        <v>17</v>
-      </c>
-      <c r="M162" t="s">
+      <c r="L164" t="s">
+        <v>17</v>
+      </c>
+      <c r="M164" t="s">
         <v>19</v>
       </c>
     </row>

--- a/PCosta.xlsx
+++ b/PCosta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0528160B-AA43-4A75-AA73-E7792D64D815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF3211D-C9CE-4187-9D3A-7D98A0936BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F8F3D65-BB50-4D14-936D-C9FEA2B7CDDC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="49">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>2025A</t>
-  </si>
-  <si>
-    <t>RPR</t>
   </si>
   <si>
     <t>Paulo Costa</t>
@@ -182,10 +179,10 @@
     <t>Sara Macedo Unip., Lda</t>
   </si>
   <si>
-    <t>Albino Novais Unipessoal, Lda</t>
+    <t>Fresbeira - Indústria de Carnes, Lda</t>
   </si>
   <si>
-    <t>Fresbeira - Indústria de Carnes, Lda</t>
+    <t>Gelfer Unipessoal, Lda</t>
   </si>
 </sst>
 </file>
@@ -560,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4044F161-0F67-4AC3-9595-1EB749614D68}">
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +628,7 @@
         <v>10774</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1">
         <v>45886.494421296295</v>
@@ -640,7 +637,7 @@
         <v>45856.494421296295</v>
       </c>
       <c r="I2" s="2">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="J2" s="3">
         <v>112.93</v>
@@ -649,10 +646,10 @@
         <v>112.93</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -672,7 +669,7 @@
         <v>11051</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1">
         <v>45893.509270833332</v>
@@ -681,7 +678,7 @@
         <v>45863.509282407409</v>
       </c>
       <c r="I3" s="2">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="J3" s="3">
         <v>84.06</v>
@@ -690,10 +687,10 @@
         <v>84.06</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -713,7 +710,7 @@
         <v>11337</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1">
         <v>45900.505578703705</v>
@@ -722,7 +719,7 @@
         <v>45870.505578703705</v>
       </c>
       <c r="I4" s="2">
-        <v>-22</v>
+        <v>-15</v>
       </c>
       <c r="J4" s="3">
         <v>89.52</v>
@@ -731,10 +728,10 @@
         <v>89.52</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -751,31 +748,31 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>11662</v>
+        <v>11906</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1">
-        <v>45907.602418981478</v>
+        <v>45913.559317129628</v>
       </c>
       <c r="H5" s="1">
-        <v>45877.602418981478</v>
+        <v>45883.559317129628</v>
       </c>
       <c r="I5" s="2">
-        <v>-29</v>
+        <v>-28</v>
       </c>
       <c r="J5" s="3">
-        <v>99.76</v>
+        <v>107.10000000000001</v>
       </c>
       <c r="K5" s="3">
-        <v>99.76</v>
+        <v>107.10000000000001</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -783,7 +780,7 @@
         <v>211110212</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -795,7 +792,7 @@
         <v>9932</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1">
         <v>45869.375613425924</v>
@@ -804,7 +801,7 @@
         <v>45839.378171296295</v>
       </c>
       <c r="I6" s="2">
-        <v>9</v>
+        <v>15.624386574076198</v>
       </c>
       <c r="J6" s="3">
         <v>45.85</v>
@@ -813,10 +810,10 @@
         <v>45.85</v>
       </c>
       <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" t="s">
         <v>17</v>
-      </c>
-      <c r="M6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -824,10 +821,10 @@
         <v>211110212</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
       </c>
       <c r="D7">
         <v>2025</v>
@@ -836,7 +833,7 @@
         <v>612</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1">
         <v>45871</v>
@@ -845,7 +842,7 @@
         <v>45841</v>
       </c>
       <c r="I7" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J7" s="3">
         <v>-36.31</v>
@@ -854,10 +851,10 @@
         <v>-36.31</v>
       </c>
       <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
         <v>17</v>
-      </c>
-      <c r="M7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -865,7 +862,7 @@
         <v>211110212</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -877,7 +874,7 @@
         <v>10045</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1">
         <v>45871.497974537036</v>
@@ -886,7 +883,7 @@
         <v>45841.497974537036</v>
       </c>
       <c r="I8" s="2">
-        <v>7</v>
+        <v>13.502025462963502</v>
       </c>
       <c r="J8" s="3">
         <v>140.92000000000002</v>
@@ -895,10 +892,10 @@
         <v>140.92000000000002</v>
       </c>
       <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" t="s">
         <v>17</v>
-      </c>
-      <c r="M8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -906,7 +903,7 @@
         <v>211110212</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -918,7 +915,7 @@
         <v>10181</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1">
         <v>45872.603391203702</v>
@@ -927,7 +924,7 @@
         <v>45842.603391203702</v>
       </c>
       <c r="I9" s="2">
-        <v>6</v>
+        <v>12.396608796298096</v>
       </c>
       <c r="J9" s="3">
         <v>64.11</v>
@@ -936,10 +933,10 @@
         <v>64.11</v>
       </c>
       <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
         <v>17</v>
-      </c>
-      <c r="M9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -947,7 +944,7 @@
         <v>211110212</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -959,7 +956,7 @@
         <v>10358</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1">
         <v>45877.498981481476</v>
@@ -968,7 +965,7 @@
         <v>45847.498993055553</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>7.5010185185237788</v>
       </c>
       <c r="J10" s="3">
         <v>174.55</v>
@@ -977,10 +974,10 @@
         <v>174.55</v>
       </c>
       <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
         <v>17</v>
-      </c>
-      <c r="M10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -988,7 +985,7 @@
         <v>211110212</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1000,7 +997,7 @@
         <v>10491</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1">
         <v>45879.477118055554</v>
@@ -1009,7 +1006,7 @@
         <v>45849.477754629625</v>
       </c>
       <c r="I11" s="2">
-        <v>-1</v>
+        <v>5.5228819444455439</v>
       </c>
       <c r="J11" s="3">
         <v>208.79</v>
@@ -1018,10 +1015,10 @@
         <v>208.79</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1029,7 +1026,7 @@
         <v>211110212</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1041,7 +1038,7 @@
         <v>10555</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1">
         <v>45883.417129629626</v>
@@ -1050,7 +1047,7 @@
         <v>45853.417523148149</v>
       </c>
       <c r="I12" s="2">
-        <v>-5</v>
+        <v>1.5828703703737119</v>
       </c>
       <c r="J12" s="3">
         <v>231.02</v>
@@ -1059,10 +1056,10 @@
         <v>231.02</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1070,7 +1067,7 @@
         <v>211110212</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1082,7 +1079,7 @@
         <v>10716</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="1">
         <v>45885.561157407406</v>
@@ -1091,7 +1088,7 @@
         <v>45855.561655092592</v>
       </c>
       <c r="I13" s="2">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
         <v>236.83</v>
@@ -1100,10 +1097,10 @@
         <v>236.83</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1111,7 +1108,7 @@
         <v>211110212</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1123,7 +1120,7 @@
         <v>10887</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="1">
         <v>45890.594178240739</v>
@@ -1132,7 +1129,7 @@
         <v>45860.594571759255</v>
       </c>
       <c r="I14" s="2">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="J14" s="3">
         <v>66.320000000000007</v>
@@ -1141,10 +1138,10 @@
         <v>66.320000000000007</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1152,10 +1149,10 @@
         <v>211110212</v>
       </c>
       <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
       </c>
       <c r="D15">
         <v>2025</v>
@@ -1164,7 +1161,7 @@
         <v>672</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="1">
         <v>45891</v>
@@ -1173,7 +1170,7 @@
         <v>45861</v>
       </c>
       <c r="I15" s="2">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="J15" s="3">
         <v>-80.42</v>
@@ -1182,10 +1179,10 @@
         <v>-80.42</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1193,7 +1190,7 @@
         <v>211110212</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1205,7 +1202,7 @@
         <v>10960</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" s="1">
         <v>45891.569016203699</v>
@@ -1214,7 +1211,7 @@
         <v>45861.569016203699</v>
       </c>
       <c r="I16" s="2">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="J16" s="3">
         <v>217.13</v>
@@ -1223,10 +1220,10 @@
         <v>217.13</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1234,7 +1231,7 @@
         <v>211110212</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1246,7 +1243,7 @@
         <v>11077</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1">
         <v>45893.634097222217</v>
@@ -1255,7 +1252,7 @@
         <v>45863.634097222217</v>
       </c>
       <c r="I17" s="2">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="J17" s="3">
         <v>22.37</v>
@@ -1264,10 +1261,10 @@
         <v>22.37</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1275,7 +1272,7 @@
         <v>211110212</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1287,7 +1284,7 @@
         <v>11363</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1">
         <v>45900.582465277774</v>
@@ -1296,7 +1293,7 @@
         <v>45870.582754629628</v>
       </c>
       <c r="I18" s="2">
-        <v>-22</v>
+        <v>-15</v>
       </c>
       <c r="J18" s="3">
         <v>217.11</v>
@@ -1305,10 +1302,10 @@
         <v>217.11</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1316,7 +1313,7 @@
         <v>211110212</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -1328,7 +1325,7 @@
         <v>11427</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" s="1">
         <v>45904.485185185185</v>
@@ -1337,7 +1334,7 @@
         <v>45874.485185185185</v>
       </c>
       <c r="I19" s="2">
-        <v>-26</v>
+        <v>-19</v>
       </c>
       <c r="J19" s="3">
         <v>22.77</v>
@@ -1346,10 +1343,10 @@
         <v>22.77</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1357,7 +1354,7 @@
         <v>211110212</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1369,7 +1366,7 @@
         <v>11546</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" s="1">
         <v>45905.635393518518</v>
@@ -1378,7 +1375,7 @@
         <v>45875.636099537034</v>
       </c>
       <c r="I20" s="2">
-        <v>-27</v>
+        <v>-20</v>
       </c>
       <c r="J20" s="3">
         <v>102.96000000000001</v>
@@ -1387,10 +1384,10 @@
         <v>102.96000000000001</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1398,7 +1395,7 @@
         <v>211110212</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1410,7 +1407,7 @@
         <v>11596</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" s="1">
         <v>45906.626793981479</v>
@@ -1419,7 +1416,7 @@
         <v>45876.629236111112</v>
       </c>
       <c r="I21" s="2">
-        <v>-28</v>
+        <v>-21</v>
       </c>
       <c r="J21" s="3">
         <v>304.66000000000003</v>
@@ -1428,18 +1425,18 @@
         <v>304.66000000000003</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>211110264</v>
+        <v>211110212</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1448,31 +1445,31 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>6743</v>
+        <v>11919</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" s="1">
-        <v>45800.598414351851</v>
+        <v>45913.617384259254</v>
       </c>
       <c r="H22" s="1">
-        <v>45770.600486111107</v>
+        <v>45883.618368055555</v>
       </c>
       <c r="I22" s="2">
-        <v>78</v>
+        <v>-28</v>
       </c>
       <c r="J22" s="3">
-        <v>519.91999999999996</v>
+        <v>326.77</v>
       </c>
       <c r="K22" s="3">
-        <v>519.91999999999996</v>
+        <v>326.77</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1480,81 +1477,81 @@
         <v>211110264</v>
       </c>
       <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>6743</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="1">
+        <v>45800.598414351851</v>
+      </c>
+      <c r="H23" s="1">
+        <v>45770.600486111107</v>
+      </c>
+      <c r="I23" s="2">
+        <v>84.401585648149194</v>
+      </c>
+      <c r="J23" s="3">
+        <v>519.91999999999996</v>
+      </c>
+      <c r="K23" s="3">
+        <v>519.91999999999996</v>
+      </c>
+      <c r="L23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" t="s">
         <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <v>8698</v>
-      </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="1">
-        <v>45837.66951388889</v>
-      </c>
-      <c r="H23" s="1">
-        <v>45807.669710648144</v>
-      </c>
-      <c r="I23" s="2">
-        <v>41</v>
-      </c>
-      <c r="J23" s="3">
-        <v>87.67</v>
-      </c>
-      <c r="K23" s="3">
-        <v>87.67</v>
-      </c>
-      <c r="L23" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>211110364</v>
+        <v>211110264</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24">
-        <v>472</v>
+        <v>8698</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" s="1">
-        <v>45842</v>
+        <v>45837.66951388889</v>
       </c>
       <c r="H24" s="1">
-        <v>45812</v>
+        <v>45807.669710648144</v>
       </c>
       <c r="I24" s="2">
-        <v>36</v>
+        <v>47.330486111110076</v>
       </c>
       <c r="J24" s="3">
-        <v>-3.2</v>
+        <v>87.67</v>
       </c>
       <c r="K24" s="3">
-        <v>-3.2</v>
+        <v>87.67</v>
       </c>
       <c r="L24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1562,7 +1559,7 @@
         <v>211110364</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1571,31 +1568,31 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>9660</v>
+        <v>9968</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" s="1">
-        <v>45863.40216435185</v>
+        <v>45870.436192129629</v>
       </c>
       <c r="H25" s="1">
-        <v>45833.402662037035</v>
+        <v>45840.436192129629</v>
       </c>
       <c r="I25" s="2">
-        <v>15</v>
+        <v>14.56380787037051</v>
       </c>
       <c r="J25" s="3">
-        <v>32.85</v>
+        <v>283.05</v>
       </c>
       <c r="K25" s="3">
-        <v>32.85</v>
+        <v>283.05</v>
       </c>
       <c r="L25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" t="s">
         <v>17</v>
-      </c>
-      <c r="M25" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1603,7 +1600,7 @@
         <v>211110364</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1612,31 +1609,31 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>9865</v>
+        <v>10019</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" s="1">
-        <v>45865.470057870371</v>
+        <v>45870.684710648144</v>
       </c>
       <c r="H26" s="1">
-        <v>45835.474293981482</v>
+        <v>45840.685428240737</v>
       </c>
       <c r="I26" s="2">
-        <v>13</v>
+        <v>14.315289351856336</v>
       </c>
       <c r="J26" s="3">
-        <v>528.76</v>
+        <v>228.83</v>
       </c>
       <c r="K26" s="3">
-        <v>528.76</v>
+        <v>228.83</v>
       </c>
       <c r="L26" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" t="s">
         <v>17</v>
-      </c>
-      <c r="M26" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1644,40 +1641,40 @@
         <v>211110364</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>596</v>
+        <v>10147</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" s="1">
-        <v>45868</v>
+        <v>45872.453900462962</v>
       </c>
       <c r="H27" s="1">
-        <v>45838</v>
+        <v>45842.453900462962</v>
       </c>
       <c r="I27" s="2">
-        <v>10</v>
+        <v>12.546099537037662</v>
       </c>
       <c r="J27" s="3">
-        <v>-15.85</v>
+        <v>545.98</v>
       </c>
       <c r="K27" s="3">
-        <v>-15.85</v>
+        <v>545.98</v>
       </c>
       <c r="L27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" t="s">
         <v>17</v>
-      </c>
-      <c r="M27" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1685,7 +1682,7 @@
         <v>211110364</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1694,31 +1691,31 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>9900</v>
+        <v>10156</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" s="1">
-        <v>45868.412268518514</v>
+        <v>45872.493888888886</v>
       </c>
       <c r="H28" s="1">
-        <v>45838.412754629629</v>
+        <v>45842.493888888886</v>
       </c>
       <c r="I28" s="2">
-        <v>10</v>
+        <v>12.506111111113569</v>
       </c>
       <c r="J28" s="3">
-        <v>119.13</v>
+        <v>2.63</v>
       </c>
       <c r="K28" s="3">
-        <v>119.13</v>
+        <v>2.63</v>
       </c>
       <c r="L28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" t="s">
         <v>17</v>
-      </c>
-      <c r="M28" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1726,7 +1723,7 @@
         <v>211110364</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1735,31 +1732,31 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>9968</v>
+        <v>10203</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" s="1">
-        <v>45870.436192129629</v>
+        <v>45875.468877314815</v>
       </c>
       <c r="H29" s="1">
-        <v>45840.436192129629</v>
+        <v>45845.468888888885</v>
       </c>
       <c r="I29" s="2">
-        <v>8</v>
+        <v>9.5311226851845277</v>
       </c>
       <c r="J29" s="3">
-        <v>283.05</v>
+        <v>338.76</v>
       </c>
       <c r="K29" s="3">
-        <v>283.05</v>
+        <v>338.76</v>
       </c>
       <c r="L29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" t="s">
         <v>17</v>
-      </c>
-      <c r="M29" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1767,7 +1764,7 @@
         <v>211110364</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1776,31 +1773,31 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>10019</v>
+        <v>10342</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" s="1">
-        <v>45870.684710648144</v>
+        <v>45877.430671296293</v>
       </c>
       <c r="H30" s="1">
-        <v>45840.685428240737</v>
+        <v>45847.430671296293</v>
       </c>
       <c r="I30" s="2">
-        <v>8</v>
+        <v>7.5693287037065602</v>
       </c>
       <c r="J30" s="3">
-        <v>228.83</v>
+        <v>460.23</v>
       </c>
       <c r="K30" s="3">
-        <v>228.83</v>
+        <v>460.23</v>
       </c>
       <c r="L30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" t="s">
         <v>17</v>
-      </c>
-      <c r="M30" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1808,7 +1805,7 @@
         <v>211110364</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1817,28 +1814,28 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>10147</v>
+        <v>10469</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" s="1">
-        <v>45872.453900462962</v>
+        <v>45879.403611111113</v>
       </c>
       <c r="H31" s="1">
-        <v>45842.453900462962</v>
+        <v>45849.403611111113</v>
       </c>
       <c r="I31" s="2">
-        <v>6</v>
+        <v>5.5963888888873043</v>
       </c>
       <c r="J31" s="3">
-        <v>545.98</v>
+        <v>544.83000000000004</v>
       </c>
       <c r="K31" s="3">
-        <v>545.98</v>
+        <v>544.83000000000004</v>
       </c>
       <c r="L31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M31" t="s">
         <v>18</v>
@@ -1849,7 +1846,7 @@
         <v>211110364</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1858,31 +1855,31 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>10156</v>
+        <v>10515</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" s="1">
-        <v>45872.493888888886</v>
+        <v>45882.474629629629</v>
       </c>
       <c r="H32" s="1">
-        <v>45842.493888888886</v>
+        <v>45852.474629629629</v>
       </c>
       <c r="I32" s="2">
-        <v>6</v>
+        <v>2.5253703703710926</v>
       </c>
       <c r="J32" s="3">
-        <v>2.63</v>
+        <v>603.02</v>
       </c>
       <c r="K32" s="3">
-        <v>2.63</v>
+        <v>603.02</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1890,7 +1887,7 @@
         <v>211110364</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1899,31 +1896,31 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>10203</v>
+        <v>10646</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G33" s="1">
-        <v>45875.468877314815</v>
+        <v>45884.469351851847</v>
       </c>
       <c r="H33" s="1">
-        <v>45845.468888888885</v>
+        <v>45854.469351851847</v>
       </c>
       <c r="I33" s="2">
-        <v>3</v>
+        <v>0.53064814815297723</v>
       </c>
       <c r="J33" s="3">
-        <v>338.76</v>
+        <v>447.87</v>
       </c>
       <c r="K33" s="3">
-        <v>338.76</v>
+        <v>447.87</v>
       </c>
       <c r="L33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M33" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1931,7 +1928,7 @@
         <v>211110364</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1940,31 +1937,31 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>10342</v>
+        <v>10768</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G34" s="1">
-        <v>45877.430671296293</v>
+        <v>45886.485416666663</v>
       </c>
       <c r="H34" s="1">
-        <v>45847.430671296293</v>
+        <v>45856.48542824074</v>
       </c>
       <c r="I34" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J34" s="3">
-        <v>460.23</v>
+        <v>783.17000000000007</v>
       </c>
       <c r="K34" s="3">
-        <v>460.23</v>
+        <v>783.17000000000007</v>
       </c>
       <c r="L34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M34" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1972,7 +1969,7 @@
         <v>211110364</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -1981,31 +1978,31 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>10469</v>
+        <v>10821</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35" s="1">
-        <v>45879.403611111113</v>
+        <v>45889.487719907404</v>
       </c>
       <c r="H35" s="1">
-        <v>45849.403611111113</v>
+        <v>45859.487719907404</v>
       </c>
       <c r="I35" s="2">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="J35" s="3">
-        <v>544.83000000000004</v>
+        <v>527.75</v>
       </c>
       <c r="K35" s="3">
-        <v>544.83000000000004</v>
+        <v>527.75</v>
       </c>
       <c r="L35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2013,40 +2010,40 @@
         <v>211110364</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>2025</v>
       </c>
       <c r="E36">
-        <v>10515</v>
+        <v>667</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G36" s="1">
-        <v>45882.474629629629</v>
+        <v>45891</v>
       </c>
       <c r="H36" s="1">
-        <v>45852.474629629629</v>
+        <v>45861</v>
       </c>
       <c r="I36" s="2">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="J36" s="3">
-        <v>603.02</v>
+        <v>-2.87</v>
       </c>
       <c r="K36" s="3">
-        <v>603.02</v>
+        <v>-2.87</v>
       </c>
       <c r="L36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2054,40 +2051,40 @@
         <v>211110364</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>2025</v>
       </c>
       <c r="E37">
-        <v>10646</v>
+        <v>670</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37" s="1">
-        <v>45884.469351851847</v>
+        <v>45891</v>
       </c>
       <c r="H37" s="1">
-        <v>45854.469351851847</v>
+        <v>45861</v>
       </c>
       <c r="I37" s="2">
         <v>-6</v>
       </c>
       <c r="J37" s="3">
-        <v>447.87</v>
+        <v>-10.09</v>
       </c>
       <c r="K37" s="3">
-        <v>447.87</v>
+        <v>-10.09</v>
       </c>
       <c r="L37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2095,7 +2092,7 @@
         <v>211110364</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2104,31 +2101,31 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>10768</v>
+        <v>10932</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" s="1">
-        <v>45886.485416666663</v>
+        <v>45891.550300925926</v>
       </c>
       <c r="H38" s="1">
-        <v>45856.48542824074</v>
+        <v>45861.550312499996</v>
       </c>
       <c r="I38" s="2">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="J38" s="3">
-        <v>783.17000000000007</v>
+        <v>548.45000000000005</v>
       </c>
       <c r="K38" s="3">
-        <v>783.17000000000007</v>
+        <v>548.45000000000005</v>
       </c>
       <c r="L38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2136,7 +2133,7 @@
         <v>211110364</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2145,31 +2142,31 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>10821</v>
+        <v>11071</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G39" s="1">
-        <v>45889.487719907404</v>
+        <v>45893.524328703701</v>
       </c>
       <c r="H39" s="1">
-        <v>45859.487719907404</v>
+        <v>45863.524328703701</v>
       </c>
       <c r="I39" s="2">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="J39" s="3">
-        <v>527.75</v>
+        <v>558.34</v>
       </c>
       <c r="K39" s="3">
-        <v>527.75</v>
+        <v>558.34</v>
       </c>
       <c r="L39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2177,40 +2174,40 @@
         <v>211110364</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>667</v>
+        <v>11114</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G40" s="1">
-        <v>45891</v>
+        <v>45896.534999999996</v>
       </c>
       <c r="H40" s="1">
-        <v>45861</v>
+        <v>45866.534999999996</v>
       </c>
       <c r="I40" s="2">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="J40" s="3">
-        <v>-2.87</v>
+        <v>212.67000000000002</v>
       </c>
       <c r="K40" s="3">
-        <v>-2.87</v>
+        <v>212.67000000000002</v>
       </c>
       <c r="L40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2218,40 +2215,40 @@
         <v>211110364</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>670</v>
+        <v>11240</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G41" s="1">
-        <v>45891</v>
+        <v>45898.501168981478</v>
       </c>
       <c r="H41" s="1">
-        <v>45861</v>
+        <v>45868.501168981478</v>
       </c>
       <c r="I41" s="2">
         <v>-13</v>
       </c>
       <c r="J41" s="3">
-        <v>-10.09</v>
+        <v>578.64</v>
       </c>
       <c r="K41" s="3">
-        <v>-10.09</v>
+        <v>578.64</v>
       </c>
       <c r="L41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2259,7 +2256,7 @@
         <v>211110364</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2268,31 +2265,31 @@
         <v>15</v>
       </c>
       <c r="E42">
-        <v>10932</v>
+        <v>11358</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G42" s="1">
-        <v>45891.550300925926</v>
+        <v>45900.567037037035</v>
       </c>
       <c r="H42" s="1">
-        <v>45861.550312499996</v>
+        <v>45870.567037037035</v>
       </c>
       <c r="I42" s="2">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="J42" s="3">
-        <v>548.45000000000005</v>
+        <v>476.82</v>
       </c>
       <c r="K42" s="3">
-        <v>548.45000000000005</v>
+        <v>476.82</v>
       </c>
       <c r="L42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2300,7 +2297,7 @@
         <v>211110364</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -2309,31 +2306,31 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>11071</v>
+        <v>11399</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G43" s="1">
-        <v>45893.524328703701</v>
+        <v>45903.547291666662</v>
       </c>
       <c r="H43" s="1">
-        <v>45863.524328703701</v>
+        <v>45873.547291666662</v>
       </c>
       <c r="I43" s="2">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="J43" s="3">
-        <v>558.34</v>
+        <v>356.84000000000003</v>
       </c>
       <c r="K43" s="3">
-        <v>558.34</v>
+        <v>356.84000000000003</v>
       </c>
       <c r="L43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2341,7 +2338,7 @@
         <v>211110364</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2350,31 +2347,31 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>11114</v>
+        <v>11541</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G44" s="1">
-        <v>45896.534999999996</v>
+        <v>45905.539664351847</v>
       </c>
       <c r="H44" s="1">
-        <v>45866.534999999996</v>
+        <v>45875.539675925924</v>
       </c>
       <c r="I44" s="2">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="J44" s="3">
-        <v>212.67000000000002</v>
+        <v>489.72</v>
       </c>
       <c r="K44" s="3">
-        <v>212.67000000000002</v>
+        <v>489.72</v>
       </c>
       <c r="L44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2382,7 +2379,7 @@
         <v>211110364</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2391,31 +2388,31 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>11240</v>
+        <v>11636</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G45" s="1">
-        <v>45898.501168981478</v>
+        <v>45907.577685185184</v>
       </c>
       <c r="H45" s="1">
-        <v>45868.501168981478</v>
+        <v>45877.577685185184</v>
       </c>
       <c r="I45" s="2">
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="J45" s="3">
-        <v>578.64</v>
+        <v>265.88</v>
       </c>
       <c r="K45" s="3">
-        <v>578.64</v>
+        <v>265.88</v>
       </c>
       <c r="L45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2423,7 +2420,7 @@
         <v>211110364</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -2432,31 +2429,31 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>11358</v>
+        <v>11707</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G46" s="1">
-        <v>45900.567037037035</v>
+        <v>45910.500196759254</v>
       </c>
       <c r="H46" s="1">
-        <v>45870.567037037035</v>
+        <v>45880.500196759254</v>
       </c>
       <c r="I46" s="2">
-        <v>-22</v>
+        <v>-25</v>
       </c>
       <c r="J46" s="3">
-        <v>476.82</v>
+        <v>556.11</v>
       </c>
       <c r="K46" s="3">
-        <v>476.82</v>
+        <v>556.11</v>
       </c>
       <c r="L46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2464,7 +2461,7 @@
         <v>211110364</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -2473,113 +2470,113 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>11399</v>
+        <v>11842</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G47" s="1">
-        <v>45903.547291666662</v>
+        <v>45912.519386574073</v>
       </c>
       <c r="H47" s="1">
-        <v>45873.547291666662</v>
+        <v>45882.51939814815</v>
       </c>
       <c r="I47" s="2">
-        <v>-25</v>
+        <v>-27</v>
       </c>
       <c r="J47" s="3">
-        <v>356.84000000000003</v>
+        <v>806.80000000000007</v>
       </c>
       <c r="K47" s="3">
-        <v>356.84000000000003</v>
+        <v>806.80000000000007</v>
       </c>
       <c r="L47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48">
-        <v>11541</v>
+        <v>28</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G48" s="1">
-        <v>45905.539664351847</v>
+        <v>45760</v>
       </c>
       <c r="H48" s="1">
-        <v>45875.539675925924</v>
+        <v>45730</v>
       </c>
       <c r="I48" s="2">
-        <v>-27</v>
+        <v>125</v>
       </c>
       <c r="J48" s="3">
-        <v>489.72</v>
+        <v>-541.79999999999995</v>
       </c>
       <c r="K48" s="3">
-        <v>489.72</v>
+        <v>-10.33</v>
       </c>
       <c r="L48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M48" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49">
-        <v>11636</v>
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G49" s="1">
-        <v>45907.577685185184</v>
+        <v>45847</v>
       </c>
       <c r="H49" s="1">
-        <v>45877.577685185184</v>
+        <v>45817</v>
       </c>
       <c r="I49" s="2">
-        <v>-29</v>
+        <v>38</v>
       </c>
       <c r="J49" s="3">
-        <v>265.88</v>
+        <v>-224.79</v>
       </c>
       <c r="K49" s="3">
-        <v>265.88</v>
+        <v>-9</v>
       </c>
       <c r="L49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M49" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2587,40 +2584,40 @@
         <v>211110472</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>9291</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50" s="1">
-        <v>45760</v>
+        <v>45854.443333333329</v>
       </c>
       <c r="H50" s="1">
-        <v>45730</v>
+        <v>45824.44427083333</v>
       </c>
       <c r="I50" s="2">
-        <v>118</v>
+        <v>30.556666666670935</v>
       </c>
       <c r="J50" s="3">
-        <v>-541.79999999999995</v>
+        <v>156.46</v>
       </c>
       <c r="K50" s="3">
-        <v>-10.33</v>
+        <v>156.46</v>
       </c>
       <c r="L50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M50" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2628,7 +2625,7 @@
         <v>211110472</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -2637,31 +2634,31 @@
         <v>15</v>
       </c>
       <c r="E51">
-        <v>8711</v>
+        <v>9627</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G51" s="1">
-        <v>45840.400567129625</v>
+        <v>45861.535300925927</v>
       </c>
       <c r="H51" s="1">
-        <v>45810.40079861111</v>
+        <v>45831.535729166666</v>
       </c>
       <c r="I51" s="2">
-        <v>38</v>
+        <v>23.464699074072996</v>
       </c>
       <c r="J51" s="3">
-        <v>264.84000000000003</v>
+        <v>244.68</v>
       </c>
       <c r="K51" s="3">
-        <v>264.84000000000003</v>
+        <v>244.68</v>
       </c>
       <c r="L51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" t="s">
         <v>17</v>
-      </c>
-      <c r="M51" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2669,7 +2666,7 @@
         <v>211110472</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2678,31 +2675,31 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>8904</v>
+        <v>10211</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G52" s="1">
-        <v>45843.470856481479</v>
+        <v>45875.481921296298</v>
       </c>
       <c r="H52" s="1">
-        <v>45813.471493055556</v>
+        <v>45845.481932870367</v>
       </c>
       <c r="I52" s="2">
-        <v>35</v>
+        <v>9.5180787037024857</v>
       </c>
       <c r="J52" s="3">
-        <v>50.93</v>
+        <v>276.02</v>
       </c>
       <c r="K52" s="3">
-        <v>50.93</v>
+        <v>276.02</v>
       </c>
       <c r="L52" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" t="s">
         <v>17</v>
-      </c>
-      <c r="M52" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2710,40 +2707,40 @@
         <v>211110472</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="E53">
+        <v>10509</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G53" s="1">
-        <v>45847</v>
+        <v>45882.471388888887</v>
       </c>
       <c r="H53" s="1">
-        <v>45817</v>
+        <v>45852.471388888887</v>
       </c>
       <c r="I53" s="2">
-        <v>31</v>
+        <v>2.5286111111126957</v>
       </c>
       <c r="J53" s="3">
-        <v>-224.79</v>
+        <v>316.33</v>
       </c>
       <c r="K53" s="3">
-        <v>-9</v>
+        <v>316.33</v>
       </c>
       <c r="L53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M53" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2751,7 +2748,7 @@
         <v>211110472</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -2760,31 +2757,31 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>9002</v>
+        <v>10787</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G54" s="1">
-        <v>45847.441782407404</v>
+        <v>45886.62290509259</v>
       </c>
       <c r="H54" s="1">
-        <v>45817.442870370367</v>
+        <v>45856.623715277776</v>
       </c>
       <c r="I54" s="2">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="J54" s="3">
-        <v>221.07</v>
+        <v>55.27</v>
       </c>
       <c r="K54" s="3">
-        <v>221.07</v>
+        <v>55.27</v>
       </c>
       <c r="L54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M54" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2792,7 +2789,7 @@
         <v>211110472</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -2801,28 +2798,28 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>9109</v>
+        <v>10813</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G55" s="1">
-        <v>45849.62940972222</v>
+        <v>45889.484826388885</v>
       </c>
       <c r="H55" s="1">
-        <v>45819.630104166667</v>
+        <v>45859.484826388885</v>
       </c>
       <c r="I55" s="2">
-        <v>29</v>
+        <v>-4</v>
       </c>
       <c r="J55" s="3">
-        <v>33.47</v>
+        <v>200.74</v>
       </c>
       <c r="K55" s="3">
-        <v>33.47</v>
+        <v>200.74</v>
       </c>
       <c r="L55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M55" t="s">
         <v>18</v>
@@ -2833,7 +2830,7 @@
         <v>211110472</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2842,28 +2839,28 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>9291</v>
+        <v>11083</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G56" s="1">
-        <v>45854.443333333329</v>
+        <v>45893.645833333328</v>
       </c>
       <c r="H56" s="1">
-        <v>45824.44427083333</v>
+        <v>45863.645833333328</v>
       </c>
       <c r="I56" s="2">
-        <v>24</v>
+        <v>-8</v>
       </c>
       <c r="J56" s="3">
-        <v>156.46</v>
+        <v>54.58</v>
       </c>
       <c r="K56" s="3">
-        <v>156.46</v>
+        <v>54.58</v>
       </c>
       <c r="L56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M56" t="s">
         <v>18</v>
@@ -2874,7 +2871,7 @@
         <v>211110472</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2883,28 +2880,28 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>9627</v>
+        <v>11097</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G57" s="1">
-        <v>45861.535300925927</v>
+        <v>45896.476898148147</v>
       </c>
       <c r="H57" s="1">
-        <v>45831.535729166666</v>
+        <v>45866.476909722223</v>
       </c>
       <c r="I57" s="2">
-        <v>17</v>
+        <v>-11</v>
       </c>
       <c r="J57" s="3">
-        <v>244.68</v>
+        <v>251.39000000000001</v>
       </c>
       <c r="K57" s="3">
-        <v>244.68</v>
+        <v>251.39000000000001</v>
       </c>
       <c r="L57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M57" t="s">
         <v>18</v>
@@ -2915,7 +2912,7 @@
         <v>211110472</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2924,31 +2921,31 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>10211</v>
+        <v>11409</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G58" s="1">
-        <v>45875.481921296298</v>
+        <v>45903.568784722222</v>
       </c>
       <c r="H58" s="1">
-        <v>45845.481932870367</v>
+        <v>45873.568784722222</v>
       </c>
       <c r="I58" s="2">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="J58" s="3">
-        <v>276.02</v>
+        <v>55.120000000000005</v>
       </c>
       <c r="K58" s="3">
-        <v>276.02</v>
+        <v>55.120000000000005</v>
       </c>
       <c r="L58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M58" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -2956,7 +2953,7 @@
         <v>211110472</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -2965,121 +2962,121 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>10509</v>
+        <v>11759</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G59" s="1">
-        <v>45882.471388888887</v>
+        <v>45911.499259259261</v>
       </c>
       <c r="H59" s="1">
-        <v>45852.471388888887</v>
+        <v>45881.499259259261</v>
       </c>
       <c r="I59" s="2">
-        <v>-4</v>
+        <v>-26</v>
       </c>
       <c r="J59" s="3">
-        <v>316.33</v>
+        <v>110.74000000000001</v>
       </c>
       <c r="K59" s="3">
-        <v>316.33</v>
+        <v>110.74000000000001</v>
       </c>
       <c r="L59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
-      <c r="D60" t="s">
-        <v>15</v>
+      <c r="D60">
+        <v>2025</v>
       </c>
       <c r="E60">
-        <v>10787</v>
+        <v>62</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G60" s="1">
-        <v>45886.62290509259</v>
+        <v>45874.611296296294</v>
       </c>
       <c r="H60" s="1">
-        <v>45856.623715277776</v>
+        <v>45814.611319444441</v>
       </c>
       <c r="I60" s="2">
-        <v>-8</v>
+        <v>10.388703703705687</v>
       </c>
       <c r="J60" s="3">
-        <v>55.27</v>
+        <v>1149.52</v>
       </c>
       <c r="K60" s="3">
-        <v>55.27</v>
+        <v>1149.52</v>
       </c>
       <c r="L60" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" t="s">
         <v>17</v>
-      </c>
-      <c r="M60" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
-      <c r="D61" t="s">
-        <v>15</v>
+      <c r="D61">
+        <v>2025</v>
       </c>
       <c r="E61">
-        <v>10813</v>
+        <v>68</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G61" s="1">
-        <v>45889.484826388885</v>
+        <v>45874.685046296298</v>
       </c>
       <c r="H61" s="1">
-        <v>45859.484826388885</v>
+        <v>45814.685057870367</v>
       </c>
       <c r="I61" s="2">
-        <v>-11</v>
+        <v>10.314953703702486</v>
       </c>
       <c r="J61" s="3">
-        <v>200.74</v>
+        <v>124.59</v>
       </c>
       <c r="K61" s="3">
-        <v>200.74</v>
+        <v>124.59</v>
       </c>
       <c r="L61" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" t="s">
         <v>17</v>
-      </c>
-      <c r="M61" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3088,39 +3085,39 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>11083</v>
+        <v>9275</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G62" s="1">
-        <v>45893.645833333328</v>
+        <v>45884.33143518518</v>
       </c>
       <c r="H62" s="1">
-        <v>45863.645833333328</v>
+        <v>45824.332418981481</v>
       </c>
       <c r="I62" s="2">
-        <v>-15</v>
+        <v>0.66856481481954688</v>
       </c>
       <c r="J62" s="3">
-        <v>54.58</v>
+        <v>1044.22</v>
       </c>
       <c r="K62" s="3">
-        <v>54.58</v>
+        <v>1044.22</v>
       </c>
       <c r="L62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3129,39 +3126,39 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>11097</v>
+        <v>10190</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G63" s="1">
-        <v>45896.476898148147</v>
+        <v>45902.667199074072</v>
       </c>
       <c r="H63" s="1">
-        <v>45866.476909722223</v>
+        <v>45842.669027777774</v>
       </c>
       <c r="I63" s="2">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="J63" s="3">
-        <v>251.39000000000001</v>
+        <v>732.56000000000006</v>
       </c>
       <c r="K63" s="3">
-        <v>251.39000000000001</v>
+        <v>732.56000000000006</v>
       </c>
       <c r="L63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3170,31 +3167,31 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>11409</v>
+        <v>11072</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G64" s="1">
-        <v>45903.568784722222</v>
+        <v>45923.525937499995</v>
       </c>
       <c r="H64" s="1">
-        <v>45873.568784722222</v>
+        <v>45863.525949074072</v>
       </c>
       <c r="I64" s="2">
-        <v>-25</v>
+        <v>-38</v>
       </c>
       <c r="J64" s="3">
-        <v>55.120000000000005</v>
+        <v>1189.3500000000001</v>
       </c>
       <c r="K64" s="3">
-        <v>55.120000000000005</v>
+        <v>1189.3500000000001</v>
       </c>
       <c r="L64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3202,7 +3199,7 @@
         <v>211110601</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -3211,77 +3208,77 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>7436</v>
+        <v>11862</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G65" s="1">
-        <v>45845.556817129625</v>
+        <v>45942.658090277779</v>
       </c>
       <c r="H65" s="1">
-        <v>45785.560891203699</v>
+        <v>45882.665937500002</v>
       </c>
       <c r="I65" s="2">
-        <v>33</v>
+        <v>-57</v>
       </c>
       <c r="J65" s="3">
-        <v>897.49</v>
+        <v>804.67000000000007</v>
       </c>
       <c r="K65" s="3">
-        <v>897.49</v>
+        <v>804.67000000000007</v>
       </c>
       <c r="L65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M65" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>211110601</v>
+        <v>211110972</v>
       </c>
       <c r="B66" t="s">
         <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>2025</v>
       </c>
       <c r="E66">
-        <v>8220</v>
+        <v>147</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G66" s="1">
-        <v>45859.486087962963</v>
+        <v>45719</v>
       </c>
       <c r="H66" s="1">
-        <v>45799.496874999997</v>
+        <v>45719</v>
       </c>
       <c r="I66" s="2">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="J66" s="3">
-        <v>1334.16</v>
+        <v>-70.86</v>
       </c>
       <c r="K66" s="3">
-        <v>1334.16</v>
+        <v>-70.86</v>
       </c>
       <c r="L66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M66" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>211110601</v>
+        <v>211110972</v>
       </c>
       <c r="B67" t="s">
         <v>33</v>
@@ -3289,84 +3286,84 @@
       <c r="C67" t="s">
         <v>14</v>
       </c>
-      <c r="D67">
-        <v>2025</v>
+      <c r="D67" t="s">
+        <v>15</v>
       </c>
       <c r="E67">
-        <v>62</v>
+        <v>7925</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G67" s="1">
-        <v>45874.611296296294</v>
+        <v>45793.585856481477</v>
       </c>
       <c r="H67" s="1">
-        <v>45814.611319444441</v>
+        <v>45793.585856481477</v>
       </c>
       <c r="I67" s="2">
-        <v>4</v>
+        <v>91.414143518522906</v>
       </c>
       <c r="J67" s="3">
-        <v>1149.52</v>
+        <v>305.11</v>
       </c>
       <c r="K67" s="3">
-        <v>1149.52</v>
+        <v>305.11</v>
       </c>
       <c r="L67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M67" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>211110601</v>
+        <v>211111193</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
-      <c r="D68">
-        <v>2025</v>
+      <c r="D68" t="s">
+        <v>15</v>
       </c>
       <c r="E68">
-        <v>68</v>
+        <v>10278</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G68" s="1">
-        <v>45874.685046296298</v>
+        <v>45876.453530092593</v>
       </c>
       <c r="H68" s="1">
-        <v>45814.685057870367</v>
+        <v>45846.45412037037</v>
       </c>
       <c r="I68" s="2">
-        <v>4</v>
+        <v>8.5464699074072996</v>
       </c>
       <c r="J68" s="3">
-        <v>124.59</v>
+        <v>185.83</v>
       </c>
       <c r="K68" s="3">
-        <v>124.59</v>
+        <v>185.83</v>
       </c>
       <c r="L68" t="s">
+        <v>16</v>
+      </c>
+      <c r="M68" t="s">
         <v>17</v>
-      </c>
-      <c r="M68" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>211110601</v>
+        <v>211111193</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -3375,39 +3372,39 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>9275</v>
+        <v>10417</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G69" s="1">
-        <v>45884.33143518518</v>
+        <v>45878.429606481477</v>
       </c>
       <c r="H69" s="1">
-        <v>45824.332418981481</v>
+        <v>45848.429606481477</v>
       </c>
       <c r="I69" s="2">
-        <v>-6</v>
+        <v>6.5703935185229057</v>
       </c>
       <c r="J69" s="3">
-        <v>1044.22</v>
+        <v>157.53</v>
       </c>
       <c r="K69" s="3">
-        <v>1044.22</v>
+        <v>157.53</v>
       </c>
       <c r="L69" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" t="s">
         <v>17</v>
-      </c>
-      <c r="M69" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>211110601</v>
+        <v>211111193</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3416,39 +3413,39 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>10190</v>
+        <v>10587</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G70" s="1">
-        <v>45902.667199074072</v>
+        <v>45883.65898148148</v>
       </c>
       <c r="H70" s="1">
-        <v>45842.669027777774</v>
+        <v>45853.659224537034</v>
       </c>
       <c r="I70" s="2">
-        <v>-24</v>
+        <v>1.3410185185202863</v>
       </c>
       <c r="J70" s="3">
-        <v>732.56000000000006</v>
+        <v>256.97000000000003</v>
       </c>
       <c r="K70" s="3">
-        <v>732.56000000000006</v>
+        <v>256.97000000000003</v>
       </c>
       <c r="L70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M70" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>211110601</v>
+        <v>211111193</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -3457,80 +3454,80 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>11072</v>
+        <v>11464</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G71" s="1">
-        <v>45923.525937499995</v>
+        <v>45904.599629629629</v>
       </c>
       <c r="H71" s="1">
-        <v>45863.525949074072</v>
+        <v>45874.600023148145</v>
       </c>
       <c r="I71" s="2">
-        <v>-45</v>
+        <v>-19</v>
       </c>
       <c r="J71" s="3">
-        <v>1189.3500000000001</v>
+        <v>150.27000000000001</v>
       </c>
       <c r="K71" s="3">
-        <v>1189.3500000000001</v>
+        <v>150.27000000000001</v>
       </c>
       <c r="L71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>211110972</v>
+        <v>211111387</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
       </c>
       <c r="E72">
-        <v>147</v>
+        <v>9950</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G72" s="1">
-        <v>45719</v>
+        <v>45870.400196759256</v>
       </c>
       <c r="H72" s="1">
-        <v>45719</v>
+        <v>45840.403055555551</v>
       </c>
       <c r="I72" s="2">
-        <v>159</v>
+        <v>14.599803240744222</v>
       </c>
       <c r="J72" s="3">
-        <v>-70.86</v>
+        <v>199.05</v>
       </c>
       <c r="K72" s="3">
-        <v>-70.86</v>
+        <v>199.05</v>
       </c>
       <c r="L72" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" t="s">
         <v>17</v>
-      </c>
-      <c r="M72" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>211110972</v>
+        <v>211111387</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -3539,36 +3536,36 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>7925</v>
+        <v>10220</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G73" s="1">
-        <v>45793.585856481477</v>
+        <v>45875.488275462958</v>
       </c>
       <c r="H73" s="1">
-        <v>45793.585856481477</v>
+        <v>45845.488275462958</v>
       </c>
       <c r="I73" s="2">
-        <v>85</v>
+        <v>9.5117245370420278</v>
       </c>
       <c r="J73" s="3">
-        <v>305.11</v>
+        <v>129.57</v>
       </c>
       <c r="K73" s="3">
-        <v>305.11</v>
+        <v>129.57</v>
       </c>
       <c r="L73" t="s">
+        <v>16</v>
+      </c>
+      <c r="M73" t="s">
         <v>17</v>
-      </c>
-      <c r="M73" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>211111193</v>
+        <v>211111387</v>
       </c>
       <c r="B74" t="s">
         <v>36</v>
@@ -3580,36 +3577,36 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>10278</v>
+        <v>10288</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G74" s="1">
-        <v>45876.453530092593</v>
+        <v>45876.543657407405</v>
       </c>
       <c r="H74" s="1">
-        <v>45846.45412037037</v>
+        <v>45846.543877314813</v>
       </c>
       <c r="I74" s="2">
-        <v>2</v>
+        <v>8.4563425925953197</v>
       </c>
       <c r="J74" s="3">
-        <v>185.83</v>
+        <v>270.58</v>
       </c>
       <c r="K74" s="3">
-        <v>185.83</v>
+        <v>270.58</v>
       </c>
       <c r="L74" t="s">
+        <v>16</v>
+      </c>
+      <c r="M74" t="s">
         <v>17</v>
-      </c>
-      <c r="M74" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>211111193</v>
+        <v>211111387</v>
       </c>
       <c r="B75" t="s">
         <v>36</v>
@@ -3621,36 +3618,36 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>10417</v>
+        <v>10520</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G75" s="1">
-        <v>45878.429606481477</v>
+        <v>45882.479305555556</v>
       </c>
       <c r="H75" s="1">
-        <v>45848.429606481477</v>
+        <v>45852.479317129626</v>
       </c>
       <c r="I75" s="2">
-        <v>0</v>
+        <v>2.5206944444435067</v>
       </c>
       <c r="J75" s="3">
-        <v>157.53</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="K75" s="3">
-        <v>157.53</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="L75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M75" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>211111193</v>
+        <v>211111387</v>
       </c>
       <c r="B76" t="s">
         <v>36</v>
@@ -3662,36 +3659,36 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>10587</v>
+        <v>10553</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G76" s="1">
-        <v>45883.65898148148</v>
+        <v>45883.416145833333</v>
       </c>
       <c r="H76" s="1">
-        <v>45853.659224537034</v>
+        <v>45853.416481481479</v>
       </c>
       <c r="I76" s="2">
-        <v>-5</v>
+        <v>1.5838541666671517</v>
       </c>
       <c r="J76" s="3">
-        <v>256.97000000000003</v>
+        <v>131.41</v>
       </c>
       <c r="K76" s="3">
-        <v>256.97000000000003</v>
+        <v>131.41</v>
       </c>
       <c r="L76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M76" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>211111193</v>
+        <v>211111387</v>
       </c>
       <c r="B77" t="s">
         <v>36</v>
@@ -3703,31 +3700,31 @@
         <v>15</v>
       </c>
       <c r="E77">
-        <v>11464</v>
+        <v>10809</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G77" s="1">
-        <v>45904.599629629629</v>
+        <v>45889.482916666668</v>
       </c>
       <c r="H77" s="1">
-        <v>45874.600023148145</v>
+        <v>45859.482916666668</v>
       </c>
       <c r="I77" s="2">
-        <v>-26</v>
+        <v>-4</v>
       </c>
       <c r="J77" s="3">
-        <v>150.27000000000001</v>
+        <v>395.15000000000003</v>
       </c>
       <c r="K77" s="3">
-        <v>150.27000000000001</v>
+        <v>395.15000000000003</v>
       </c>
       <c r="L77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3735,37 +3732,37 @@
         <v>211111387</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D78">
+        <v>2025</v>
       </c>
       <c r="E78">
-        <v>9950</v>
+        <v>684</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G78" s="1">
-        <v>45870.400196759256</v>
+        <v>45892</v>
       </c>
       <c r="H78" s="1">
-        <v>45840.403055555551</v>
+        <v>45862</v>
       </c>
       <c r="I78" s="2">
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="J78" s="3">
-        <v>199.05</v>
+        <v>-13.73</v>
       </c>
       <c r="K78" s="3">
-        <v>199.05</v>
+        <v>-13.73</v>
       </c>
       <c r="L78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M78" t="s">
         <v>18</v>
@@ -3776,7 +3773,7 @@
         <v>211111387</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3785,31 +3782,31 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>10220</v>
+        <v>11094</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G79" s="1">
-        <v>45875.488275462958</v>
+        <v>45896.473761574074</v>
       </c>
       <c r="H79" s="1">
-        <v>45845.488275462958</v>
+        <v>45866.473761574074</v>
       </c>
       <c r="I79" s="2">
-        <v>3</v>
+        <v>-11</v>
       </c>
       <c r="J79" s="3">
-        <v>129.57</v>
+        <v>299.01</v>
       </c>
       <c r="K79" s="3">
-        <v>129.57</v>
+        <v>299.01</v>
       </c>
       <c r="L79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M79" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3817,7 +3814,7 @@
         <v>211111387</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3826,31 +3823,31 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>10288</v>
+        <v>11136</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G80" s="1">
-        <v>45876.543657407405</v>
+        <v>45896.75268518518</v>
       </c>
       <c r="H80" s="1">
-        <v>45846.543877314813</v>
+        <v>45866.754085648143</v>
       </c>
       <c r="I80" s="2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="J80" s="3">
-        <v>270.58</v>
+        <v>395.47</v>
       </c>
       <c r="K80" s="3">
-        <v>270.58</v>
+        <v>395.47</v>
       </c>
       <c r="L80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M80" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3858,7 +3855,7 @@
         <v>211111387</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3867,31 +3864,31 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>10520</v>
+        <v>11263</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G81" s="1">
-        <v>45882.479305555556</v>
+        <v>45899.415798611109</v>
       </c>
       <c r="H81" s="1">
-        <v>45852.479317129626</v>
+        <v>45869.416585648149</v>
       </c>
       <c r="I81" s="2">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="J81" s="3">
-        <v>309.35000000000002</v>
+        <v>111.83</v>
       </c>
       <c r="K81" s="3">
-        <v>309.35000000000002</v>
+        <v>111.83</v>
       </c>
       <c r="L81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3899,7 +3896,7 @@
         <v>211111387</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3908,31 +3905,31 @@
         <v>15</v>
       </c>
       <c r="E82">
-        <v>10553</v>
+        <v>11378</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G82" s="1">
-        <v>45883.416145833333</v>
+        <v>45903.47488425926</v>
       </c>
       <c r="H82" s="1">
-        <v>45853.416481481479</v>
+        <v>45873.47488425926</v>
       </c>
       <c r="I82" s="2">
-        <v>-5</v>
+        <v>-18</v>
       </c>
       <c r="J82" s="3">
-        <v>131.41</v>
+        <v>601.37</v>
       </c>
       <c r="K82" s="3">
-        <v>131.41</v>
+        <v>601.37</v>
       </c>
       <c r="L82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3940,7 +3937,7 @@
         <v>211111387</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3949,31 +3946,31 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>10809</v>
+        <v>11720</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G83" s="1">
-        <v>45889.482916666668</v>
+        <v>45910.544293981482</v>
       </c>
       <c r="H83" s="1">
-        <v>45859.482916666668</v>
+        <v>45880.544293981482</v>
       </c>
       <c r="I83" s="2">
-        <v>-11</v>
+        <v>-25</v>
       </c>
       <c r="J83" s="3">
-        <v>395.15000000000003</v>
+        <v>350.65000000000003</v>
       </c>
       <c r="K83" s="3">
-        <v>395.15000000000003</v>
+        <v>350.65000000000003</v>
       </c>
       <c r="L83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -3981,45 +3978,45 @@
         <v>211111387</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
       </c>
       <c r="E84">
-        <v>684</v>
+        <v>11921</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G84" s="1">
-        <v>45892</v>
+        <v>45913.619004629625</v>
       </c>
       <c r="H84" s="1">
-        <v>45862</v>
+        <v>45883.619282407402</v>
       </c>
       <c r="I84" s="2">
-        <v>-14</v>
+        <v>-28</v>
       </c>
       <c r="J84" s="3">
-        <v>-13.73</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="K84" s="3">
-        <v>-13.73</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="L84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>211111387</v>
+        <v>211111478</v>
       </c>
       <c r="B85" t="s">
         <v>37</v>
@@ -4031,36 +4028,36 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>11094</v>
+        <v>10964</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G85" s="1">
-        <v>45896.473761574074</v>
+        <v>45891.654791666668</v>
       </c>
       <c r="H85" s="1">
-        <v>45866.473761574074</v>
+        <v>45861.655266203699</v>
       </c>
       <c r="I85" s="2">
-        <v>-18</v>
+        <v>-6</v>
       </c>
       <c r="J85" s="3">
-        <v>299.01</v>
+        <v>78.75</v>
       </c>
       <c r="K85" s="3">
-        <v>299.01</v>
+        <v>78.75</v>
       </c>
       <c r="L85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211111387</v>
+        <v>211111478</v>
       </c>
       <c r="B86" t="s">
         <v>37</v>
@@ -4072,36 +4069,36 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>11136</v>
+        <v>11256</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G86" s="1">
-        <v>45896.75268518518</v>
+        <v>45899.266192129631</v>
       </c>
       <c r="H86" s="1">
-        <v>45866.754085648143</v>
+        <v>45869.26662037037</v>
       </c>
       <c r="I86" s="2">
-        <v>-18</v>
+        <v>-14</v>
       </c>
       <c r="J86" s="3">
-        <v>395.47</v>
+        <v>24.94</v>
       </c>
       <c r="K86" s="3">
-        <v>395.47</v>
+        <v>24.94</v>
       </c>
       <c r="L86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211111387</v>
+        <v>211111478</v>
       </c>
       <c r="B87" t="s">
         <v>37</v>
@@ -4113,39 +4110,39 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>11263</v>
+        <v>11465</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G87" s="1">
-        <v>45899.415798611109</v>
+        <v>45904.638726851852</v>
       </c>
       <c r="H87" s="1">
-        <v>45869.416585648149</v>
+        <v>45874.640844907408</v>
       </c>
       <c r="I87" s="2">
-        <v>-21</v>
+        <v>-19</v>
       </c>
       <c r="J87" s="3">
-        <v>111.83</v>
+        <v>72.960000000000008</v>
       </c>
       <c r="K87" s="3">
-        <v>111.83</v>
+        <v>72.960000000000008</v>
       </c>
       <c r="L87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211111387</v>
+        <v>211111506</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4154,36 +4151,36 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>11378</v>
+        <v>11583</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G88" s="1">
-        <v>45903.47488425926</v>
+        <v>45906.501307870371</v>
       </c>
       <c r="H88" s="1">
-        <v>45873.47488425926</v>
+        <v>45876.50168981481</v>
       </c>
       <c r="I88" s="2">
-        <v>-25</v>
+        <v>-21</v>
       </c>
       <c r="J88" s="3">
-        <v>601.37</v>
+        <v>67.38</v>
       </c>
       <c r="K88" s="3">
-        <v>601.37</v>
+        <v>67.38</v>
       </c>
       <c r="L88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211111478</v>
+        <v>211111506</v>
       </c>
       <c r="B89" t="s">
         <v>38</v>
@@ -4195,36 +4192,36 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>10964</v>
+        <v>11677</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G89" s="1">
-        <v>45891.654791666668</v>
+        <v>45910.310439814813</v>
       </c>
       <c r="H89" s="1">
-        <v>45861.655266203699</v>
+        <v>45880.311342592591</v>
       </c>
       <c r="I89" s="2">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="J89" s="3">
-        <v>78.75</v>
+        <v>264.34000000000003</v>
       </c>
       <c r="K89" s="3">
-        <v>78.75</v>
+        <v>264.34000000000003</v>
       </c>
       <c r="L89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211111478</v>
+        <v>211111506</v>
       </c>
       <c r="B90" t="s">
         <v>38</v>
@@ -4236,77 +4233,77 @@
         <v>15</v>
       </c>
       <c r="E90">
-        <v>11256</v>
+        <v>11724</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G90" s="1">
-        <v>45899.266192129631</v>
+        <v>45910.679965277777</v>
       </c>
       <c r="H90" s="1">
-        <v>45869.26662037037</v>
+        <v>45880.682187499995</v>
       </c>
       <c r="I90" s="2">
-        <v>-21</v>
+        <v>-25</v>
       </c>
       <c r="J90" s="3">
-        <v>24.94</v>
+        <v>345.66</v>
       </c>
       <c r="K90" s="3">
-        <v>24.94</v>
+        <v>345.66</v>
       </c>
       <c r="L90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211111478</v>
+        <v>211111625</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D91">
+        <v>2025</v>
       </c>
       <c r="E91">
-        <v>11465</v>
+        <v>602</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G91" s="1">
-        <v>45904.638726851852</v>
+        <v>45869</v>
       </c>
       <c r="H91" s="1">
-        <v>45874.640844907408</v>
+        <v>45839</v>
       </c>
       <c r="I91" s="2">
-        <v>-26</v>
+        <v>16</v>
       </c>
       <c r="J91" s="3">
-        <v>72.960000000000008</v>
+        <v>-38.380000000000003</v>
       </c>
       <c r="K91" s="3">
-        <v>72.960000000000008</v>
+        <v>-38.380000000000003</v>
       </c>
       <c r="L91" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" t="s">
         <v>17</v>
-      </c>
-      <c r="M91" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211111506</v>
+        <v>211111625</v>
       </c>
       <c r="B92" t="s">
         <v>39</v>
@@ -4318,36 +4315,36 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>10500</v>
+        <v>9936</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G92" s="1">
-        <v>45879.611701388887</v>
+        <v>45869.406018518515</v>
       </c>
       <c r="H92" s="1">
-        <v>45849.612314814811</v>
+        <v>45839.407280092593</v>
       </c>
       <c r="I92" s="2">
-        <v>-1</v>
+        <v>15.593981481484661</v>
       </c>
       <c r="J92" s="3">
-        <v>4.9000000000000004</v>
+        <v>328.58</v>
       </c>
       <c r="K92" s="3">
-        <v>4.9000000000000004</v>
+        <v>328.58</v>
       </c>
       <c r="L92" t="s">
+        <v>16</v>
+      </c>
+      <c r="M92" t="s">
         <v>17</v>
-      </c>
-      <c r="M92" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211111506</v>
+        <v>211111625</v>
       </c>
       <c r="B93" t="s">
         <v>39</v>
@@ -4359,36 +4356,36 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>11373</v>
+        <v>10240</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G93" s="1">
-        <v>45903.329849537033</v>
+        <v>45876.326597222222</v>
       </c>
       <c r="H93" s="1">
-        <v>45873.330763888887</v>
+        <v>45846.327291666668</v>
       </c>
       <c r="I93" s="2">
-        <v>-25</v>
+        <v>8.6734027777783922</v>
       </c>
       <c r="J93" s="3">
-        <v>137.55000000000001</v>
+        <v>301.90000000000003</v>
       </c>
       <c r="K93" s="3">
-        <v>137.55000000000001</v>
+        <v>301.90000000000003</v>
       </c>
       <c r="L93" t="s">
+        <v>16</v>
+      </c>
+      <c r="M93" t="s">
         <v>17</v>
-      </c>
-      <c r="M93" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211111506</v>
+        <v>211111625</v>
       </c>
       <c r="B94" t="s">
         <v>39</v>
@@ -4400,36 +4397,36 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>11415</v>
+        <v>11145</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G94" s="1">
-        <v>45903.629849537036</v>
+        <v>45897.404432870368</v>
       </c>
       <c r="H94" s="1">
-        <v>45873.630127314813</v>
+        <v>45867.405844907407</v>
       </c>
       <c r="I94" s="2">
-        <v>-25</v>
+        <v>-12</v>
       </c>
       <c r="J94" s="3">
-        <v>183.23</v>
+        <v>89.11</v>
       </c>
       <c r="K94" s="3">
-        <v>183.23</v>
+        <v>89.11</v>
       </c>
       <c r="L94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211111506</v>
+        <v>211111625</v>
       </c>
       <c r="B95" t="s">
         <v>39</v>
@@ -4441,31 +4438,31 @@
         <v>15</v>
       </c>
       <c r="E95">
-        <v>11583</v>
+        <v>11175</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G95" s="1">
-        <v>45906.501307870371</v>
+        <v>45897.554768518516</v>
       </c>
       <c r="H95" s="1">
-        <v>45876.50168981481</v>
+        <v>45867.554780092592</v>
       </c>
       <c r="I95" s="2">
-        <v>-28</v>
+        <v>-12</v>
       </c>
       <c r="J95" s="3">
-        <v>67.38</v>
+        <v>742.58</v>
       </c>
       <c r="K95" s="3">
-        <v>67.38</v>
+        <v>742.58</v>
       </c>
       <c r="L95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4473,40 +4470,40 @@
         <v>211111625</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
-      </c>
-      <c r="E96" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="E96">
+        <v>11311</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G96" s="1">
-        <v>45769</v>
+        <v>45900.455590277779</v>
       </c>
       <c r="H96" s="1">
-        <v>45739</v>
+        <v>45870.455590277779</v>
       </c>
       <c r="I96" s="2">
-        <v>109</v>
+        <v>-15</v>
       </c>
       <c r="J96" s="3">
-        <v>-602.46</v>
+        <v>528.91999999999996</v>
       </c>
       <c r="K96" s="3">
-        <v>-0.28000000000000003</v>
+        <v>528.91999999999996</v>
       </c>
       <c r="L96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M96" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4514,37 +4511,37 @@
         <v>211111625</v>
       </c>
       <c r="B97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>602</v>
+        <v>11455</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G97" s="1">
-        <v>45869</v>
+        <v>45904.54042824074</v>
       </c>
       <c r="H97" s="1">
-        <v>45839</v>
+        <v>45874.54042824074</v>
       </c>
       <c r="I97" s="2">
-        <v>9</v>
+        <v>-19</v>
       </c>
       <c r="J97" s="3">
-        <v>-38.380000000000003</v>
+        <v>1218.51</v>
       </c>
       <c r="K97" s="3">
-        <v>-38.380000000000003</v>
+        <v>1218.51</v>
       </c>
       <c r="L97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M97" t="s">
         <v>18</v>
@@ -4555,7 +4552,7 @@
         <v>211111625</v>
       </c>
       <c r="B98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -4564,28 +4561,28 @@
         <v>15</v>
       </c>
       <c r="E98">
-        <v>9936</v>
+        <v>11739</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G98" s="1">
-        <v>45869.406018518515</v>
+        <v>45911.439444444441</v>
       </c>
       <c r="H98" s="1">
-        <v>45839.407280092593</v>
+        <v>45881.439444444441</v>
       </c>
       <c r="I98" s="2">
-        <v>9</v>
+        <v>-26</v>
       </c>
       <c r="J98" s="3">
-        <v>328.58</v>
+        <v>116.93</v>
       </c>
       <c r="K98" s="3">
-        <v>328.58</v>
+        <v>116.93</v>
       </c>
       <c r="L98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M98" t="s">
         <v>18</v>
@@ -4593,7 +4590,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B99" t="s">
         <v>40</v>
@@ -4605,36 +4602,36 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>10240</v>
+        <v>9715</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G99" s="1">
-        <v>45876.326597222222</v>
+        <v>45863.515474537038</v>
       </c>
       <c r="H99" s="1">
-        <v>45846.327291666668</v>
+        <v>45833.517407407402</v>
       </c>
       <c r="I99" s="2">
-        <v>2</v>
+        <v>21.484525462961756</v>
       </c>
       <c r="J99" s="3">
-        <v>301.90000000000003</v>
+        <v>951.75</v>
       </c>
       <c r="K99" s="3">
-        <v>301.90000000000003</v>
+        <v>951.75</v>
       </c>
       <c r="L99" t="s">
+        <v>16</v>
+      </c>
+      <c r="M99" t="s">
         <v>17</v>
-      </c>
-      <c r="M99" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B100" t="s">
         <v>40</v>
@@ -4646,36 +4643,36 @@
         <v>15</v>
       </c>
       <c r="E100">
-        <v>11145</v>
+        <v>9933</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G100" s="1">
-        <v>45897.404432870368</v>
+        <v>45869.385451388887</v>
       </c>
       <c r="H100" s="1">
-        <v>45867.405844907407</v>
+        <v>45839.386840277773</v>
       </c>
       <c r="I100" s="2">
-        <v>-19</v>
+        <v>15.614548611112696</v>
       </c>
       <c r="J100" s="3">
-        <v>89.11</v>
+        <v>78.92</v>
       </c>
       <c r="K100" s="3">
-        <v>89.11</v>
+        <v>78.92</v>
       </c>
       <c r="L100" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" t="s">
         <v>17</v>
-      </c>
-      <c r="M100" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B101" t="s">
         <v>40</v>
@@ -4687,36 +4684,36 @@
         <v>15</v>
       </c>
       <c r="E101">
-        <v>11175</v>
+        <v>10054</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G101" s="1">
-        <v>45897.554768518516</v>
+        <v>45871.521666666667</v>
       </c>
       <c r="H101" s="1">
-        <v>45867.554780092592</v>
+        <v>45841.521666666667</v>
       </c>
       <c r="I101" s="2">
-        <v>-19</v>
+        <v>13.478333333332557</v>
       </c>
       <c r="J101" s="3">
-        <v>742.58</v>
+        <v>81.25</v>
       </c>
       <c r="K101" s="3">
-        <v>742.58</v>
+        <v>81.25</v>
       </c>
       <c r="L101" t="s">
+        <v>16</v>
+      </c>
+      <c r="M101" t="s">
         <v>17</v>
-      </c>
-      <c r="M101" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B102" t="s">
         <v>40</v>
@@ -4728,36 +4725,36 @@
         <v>15</v>
       </c>
       <c r="E102">
-        <v>11311</v>
+        <v>10144</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G102" s="1">
-        <v>45900.455590277779</v>
+        <v>45872.453831018516</v>
       </c>
       <c r="H102" s="1">
-        <v>45870.455590277779</v>
+        <v>45842.453831018516</v>
       </c>
       <c r="I102" s="2">
-        <v>-22</v>
+        <v>12.546168981483788</v>
       </c>
       <c r="J102" s="3">
-        <v>528.91999999999996</v>
+        <v>833.06000000000006</v>
       </c>
       <c r="K102" s="3">
-        <v>528.91999999999996</v>
+        <v>833.06000000000006</v>
       </c>
       <c r="L102" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" t="s">
         <v>17</v>
-      </c>
-      <c r="M102" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B103" t="s">
         <v>40</v>
@@ -4769,31 +4766,31 @@
         <v>15</v>
       </c>
       <c r="E103">
-        <v>11455</v>
+        <v>10277</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G103" s="1">
-        <v>45904.54042824074</v>
+        <v>45876.441319444442</v>
       </c>
       <c r="H103" s="1">
-        <v>45874.54042824074</v>
+        <v>45846.441319444442</v>
       </c>
       <c r="I103" s="2">
-        <v>-26</v>
+        <v>8.5586805555576575</v>
       </c>
       <c r="J103" s="3">
-        <v>1218.51</v>
+        <v>1056.32</v>
       </c>
       <c r="K103" s="3">
-        <v>1218.51</v>
+        <v>1056.32</v>
       </c>
       <c r="L103" t="s">
+        <v>16</v>
+      </c>
+      <c r="M103" t="s">
         <v>17</v>
-      </c>
-      <c r="M103" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4801,7 +4798,7 @@
         <v>211111888</v>
       </c>
       <c r="B104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -4810,31 +4807,31 @@
         <v>15</v>
       </c>
       <c r="E104">
-        <v>9429</v>
+        <v>10352</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G104" s="1">
-        <v>45856.451006944444</v>
+        <v>45877.450138888889</v>
       </c>
       <c r="H104" s="1">
-        <v>45826.451331018514</v>
+        <v>45847.450150462959</v>
       </c>
       <c r="I104" s="2">
-        <v>22</v>
+        <v>7.5498611111106584</v>
       </c>
       <c r="J104" s="3">
-        <v>363.51</v>
+        <v>210.29</v>
       </c>
       <c r="K104" s="3">
-        <v>363.51</v>
+        <v>210.29</v>
       </c>
       <c r="L104" t="s">
+        <v>16</v>
+      </c>
+      <c r="M104" t="s">
         <v>17</v>
-      </c>
-      <c r="M104" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4842,40 +4839,40 @@
         <v>211111888</v>
       </c>
       <c r="B105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D105">
+        <v>2025</v>
       </c>
       <c r="E105">
-        <v>9550</v>
+        <v>636</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G105" s="1">
-        <v>45858.588043981479</v>
+        <v>45878</v>
       </c>
       <c r="H105" s="1">
-        <v>45828.58893518518</v>
+        <v>45848</v>
       </c>
       <c r="I105" s="2">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J105" s="3">
-        <v>97.93</v>
+        <v>-507.94</v>
       </c>
       <c r="K105" s="3">
-        <v>97.93</v>
+        <v>-507.94</v>
       </c>
       <c r="L105" t="s">
+        <v>16</v>
+      </c>
+      <c r="M105" t="s">
         <v>17</v>
-      </c>
-      <c r="M105" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4883,7 +4880,7 @@
         <v>211111888</v>
       </c>
       <c r="B106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -4892,31 +4889,31 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <v>9554</v>
+        <v>10419</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G106" s="1">
-        <v>45858.603680555556</v>
+        <v>45878.429652777777</v>
       </c>
       <c r="H106" s="1">
-        <v>45828.605798611112</v>
+        <v>45848.429652777777</v>
       </c>
       <c r="I106" s="2">
-        <v>20</v>
+        <v>6.570347222223063</v>
       </c>
       <c r="J106" s="3">
-        <v>873.41</v>
+        <v>540.54999999999995</v>
       </c>
       <c r="K106" s="3">
-        <v>873.41</v>
+        <v>540.54999999999995</v>
       </c>
       <c r="L106" t="s">
+        <v>16</v>
+      </c>
+      <c r="M106" t="s">
         <v>17</v>
-      </c>
-      <c r="M106" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4924,7 +4921,7 @@
         <v>211111888</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4933,28 +4930,28 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>9608</v>
+        <v>10477</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G107" s="1">
-        <v>45861.483668981477</v>
+        <v>45879.432314814811</v>
       </c>
       <c r="H107" s="1">
-        <v>45831.48400462963</v>
+        <v>45849.432314814811</v>
       </c>
       <c r="I107" s="2">
-        <v>17</v>
+        <v>5.5676851851894753</v>
       </c>
       <c r="J107" s="3">
-        <v>24.36</v>
+        <v>165.06</v>
       </c>
       <c r="K107" s="3">
-        <v>24.36</v>
+        <v>165.06</v>
       </c>
       <c r="L107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M107" t="s">
         <v>18</v>
@@ -4965,7 +4962,7 @@
         <v>211111888</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -4974,31 +4971,31 @@
         <v>15</v>
       </c>
       <c r="E108">
-        <v>9715</v>
+        <v>10508</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G108" s="1">
-        <v>45863.515474537038</v>
+        <v>45882.471365740741</v>
       </c>
       <c r="H108" s="1">
-        <v>45833.517407407402</v>
+        <v>45852.471365740741</v>
       </c>
       <c r="I108" s="2">
-        <v>15</v>
+        <v>2.528634259258979</v>
       </c>
       <c r="J108" s="3">
-        <v>951.75</v>
+        <v>110.59</v>
       </c>
       <c r="K108" s="3">
-        <v>951.75</v>
+        <v>110.59</v>
       </c>
       <c r="L108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M108" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5006,7 +5003,7 @@
         <v>211111888</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -5015,31 +5012,31 @@
         <v>15</v>
       </c>
       <c r="E109">
-        <v>9933</v>
+        <v>10519</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G109" s="1">
-        <v>45869.385451388887</v>
+        <v>45882.479282407403</v>
       </c>
       <c r="H109" s="1">
-        <v>45839.386840277773</v>
+        <v>45852.479282407403</v>
       </c>
       <c r="I109" s="2">
-        <v>9</v>
+        <v>2.520717592597066</v>
       </c>
       <c r="J109" s="3">
-        <v>78.92</v>
+        <v>439.56</v>
       </c>
       <c r="K109" s="3">
-        <v>78.92</v>
+        <v>439.56</v>
       </c>
       <c r="L109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M109" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5047,7 +5044,7 @@
         <v>211111888</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -5056,28 +5053,28 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <v>10054</v>
+        <v>10626</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G110" s="1">
-        <v>45871.521666666667</v>
+        <v>45884.449004629627</v>
       </c>
       <c r="H110" s="1">
-        <v>45841.521666666667</v>
+        <v>45854.449004629627</v>
       </c>
       <c r="I110" s="2">
-        <v>7</v>
+        <v>0.55099537037312984</v>
       </c>
       <c r="J110" s="3">
-        <v>81.25</v>
+        <v>49.69</v>
       </c>
       <c r="K110" s="3">
-        <v>81.25</v>
+        <v>49.69</v>
       </c>
       <c r="L110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M110" t="s">
         <v>18</v>
@@ -5088,7 +5085,7 @@
         <v>211111888</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5097,28 +5094,28 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>10144</v>
+        <v>10811</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G111" s="1">
-        <v>45872.453831018516</v>
+        <v>45889.48296296296</v>
       </c>
       <c r="H111" s="1">
-        <v>45842.453831018516</v>
+        <v>45859.48296296296</v>
       </c>
       <c r="I111" s="2">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="J111" s="3">
-        <v>833.06000000000006</v>
+        <v>481.88</v>
       </c>
       <c r="K111" s="3">
-        <v>833.06000000000006</v>
+        <v>481.88</v>
       </c>
       <c r="L111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M111" t="s">
         <v>18</v>
@@ -5129,40 +5126,40 @@
         <v>211111888</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D112">
+        <v>2025</v>
       </c>
       <c r="E112">
-        <v>10277</v>
+        <v>666</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G112" s="1">
-        <v>45876.441319444442</v>
+        <v>45891</v>
       </c>
       <c r="H112" s="1">
-        <v>45846.441319444442</v>
+        <v>45861</v>
       </c>
       <c r="I112" s="2">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="J112" s="3">
-        <v>1056.32</v>
+        <v>-359.47</v>
       </c>
       <c r="K112" s="3">
-        <v>1056.32</v>
+        <v>-359.47</v>
       </c>
       <c r="L112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M112" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5170,40 +5167,40 @@
         <v>211111888</v>
       </c>
       <c r="B113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D113">
+        <v>2025</v>
       </c>
       <c r="E113">
-        <v>10352</v>
+        <v>679</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G113" s="1">
-        <v>45877.450138888889</v>
+        <v>45892</v>
       </c>
       <c r="H113" s="1">
-        <v>45847.450150462959</v>
+        <v>45862</v>
       </c>
       <c r="I113" s="2">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="J113" s="3">
-        <v>210.29</v>
+        <v>-11.61</v>
       </c>
       <c r="K113" s="3">
-        <v>210.29</v>
+        <v>-11.61</v>
       </c>
       <c r="L113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M113" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5211,40 +5208,40 @@
         <v>211111888</v>
       </c>
       <c r="B114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C114" t="s">
-        <v>22</v>
-      </c>
-      <c r="D114">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
       </c>
       <c r="E114">
-        <v>636</v>
+        <v>10999</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G114" s="1">
-        <v>45878</v>
+        <v>45892.498240740737</v>
       </c>
       <c r="H114" s="1">
-        <v>45848</v>
+        <v>45862.498240740737</v>
       </c>
       <c r="I114" s="2">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="J114" s="3">
-        <v>-507.94</v>
+        <v>134.38</v>
       </c>
       <c r="K114" s="3">
-        <v>-507.94</v>
+        <v>134.38</v>
       </c>
       <c r="L114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5252,7 +5249,7 @@
         <v>211111888</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -5261,31 +5258,31 @@
         <v>15</v>
       </c>
       <c r="E115">
-        <v>10419</v>
+        <v>11123</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G115" s="1">
-        <v>45878.429652777777</v>
+        <v>45896.546006944445</v>
       </c>
       <c r="H115" s="1">
-        <v>45848.429652777777</v>
+        <v>45866.547673611109</v>
       </c>
       <c r="I115" s="2">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="J115" s="3">
-        <v>540.54999999999995</v>
+        <v>727.73</v>
       </c>
       <c r="K115" s="3">
-        <v>540.54999999999995</v>
+        <v>727.73</v>
       </c>
       <c r="L115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5293,7 +5290,7 @@
         <v>211111888</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -5302,31 +5299,31 @@
         <v>15</v>
       </c>
       <c r="E116">
-        <v>10477</v>
+        <v>11288</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G116" s="1">
-        <v>45879.432314814811</v>
+        <v>45899.506018518514</v>
       </c>
       <c r="H116" s="1">
-        <v>45849.432314814811</v>
+        <v>45869.506030092591</v>
       </c>
       <c r="I116" s="2">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="J116" s="3">
-        <v>165.06</v>
+        <v>228.8</v>
       </c>
       <c r="K116" s="3">
-        <v>165.06</v>
+        <v>228.8</v>
       </c>
       <c r="L116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5334,40 +5331,40 @@
         <v>211111888</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D117">
+        <v>2025</v>
       </c>
       <c r="E117">
-        <v>10508</v>
+        <v>713</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G117" s="1">
-        <v>45882.471365740741</v>
+        <v>45900</v>
       </c>
       <c r="H117" s="1">
-        <v>45852.471365740741</v>
+        <v>45870</v>
       </c>
       <c r="I117" s="2">
-        <v>-4</v>
+        <v>-15</v>
       </c>
       <c r="J117" s="3">
-        <v>110.59</v>
+        <v>-15.39</v>
       </c>
       <c r="K117" s="3">
-        <v>110.59</v>
+        <v>-15.39</v>
       </c>
       <c r="L117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5375,7 +5372,7 @@
         <v>211111888</v>
       </c>
       <c r="B118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -5384,31 +5381,31 @@
         <v>15</v>
       </c>
       <c r="E118">
-        <v>10519</v>
+        <v>11344</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G118" s="1">
-        <v>45882.479282407403</v>
+        <v>45900.516886574071</v>
       </c>
       <c r="H118" s="1">
-        <v>45852.479282407403</v>
+        <v>45870.516898148147</v>
       </c>
       <c r="I118" s="2">
-        <v>-4</v>
+        <v>-15</v>
       </c>
       <c r="J118" s="3">
-        <v>439.56</v>
+        <v>741.32</v>
       </c>
       <c r="K118" s="3">
-        <v>439.56</v>
+        <v>741.32</v>
       </c>
       <c r="L118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5416,7 +5413,7 @@
         <v>211111888</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
@@ -5425,31 +5422,31 @@
         <v>15</v>
       </c>
       <c r="E119">
-        <v>10626</v>
+        <v>11446</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G119" s="1">
-        <v>45884.449004629627</v>
+        <v>45904.531446759254</v>
       </c>
       <c r="H119" s="1">
-        <v>45854.449004629627</v>
+        <v>45874.531446759254</v>
       </c>
       <c r="I119" s="2">
-        <v>-6</v>
+        <v>-19</v>
       </c>
       <c r="J119" s="3">
-        <v>49.69</v>
+        <v>49.82</v>
       </c>
       <c r="K119" s="3">
-        <v>49.69</v>
+        <v>49.82</v>
       </c>
       <c r="L119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5457,7 +5454,7 @@
         <v>211111888</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
@@ -5466,31 +5463,31 @@
         <v>15</v>
       </c>
       <c r="E120">
-        <v>10811</v>
+        <v>11547</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G120" s="1">
-        <v>45889.48296296296</v>
+        <v>45905.643067129626</v>
       </c>
       <c r="H120" s="1">
-        <v>45859.48296296296</v>
+        <v>45875.643437499995</v>
       </c>
       <c r="I120" s="2">
-        <v>-11</v>
+        <v>-20</v>
       </c>
       <c r="J120" s="3">
-        <v>481.88</v>
+        <v>699.11</v>
       </c>
       <c r="K120" s="3">
-        <v>481.88</v>
+        <v>699.11</v>
       </c>
       <c r="L120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5498,40 +5495,40 @@
         <v>211111888</v>
       </c>
       <c r="B121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C121" t="s">
-        <v>22</v>
-      </c>
-      <c r="D121">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D121" t="s">
+        <v>15</v>
       </c>
       <c r="E121">
-        <v>666</v>
+        <v>11552</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G121" s="1">
-        <v>45891</v>
+        <v>45906.357638888891</v>
       </c>
       <c r="H121" s="1">
-        <v>45861</v>
+        <v>45876.35765046296</v>
       </c>
       <c r="I121" s="2">
-        <v>-13</v>
+        <v>-21</v>
       </c>
       <c r="J121" s="3">
-        <v>-359.47</v>
+        <v>179.12</v>
       </c>
       <c r="K121" s="3">
-        <v>-359.47</v>
+        <v>179.12</v>
       </c>
       <c r="L121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5539,40 +5536,40 @@
         <v>211111888</v>
       </c>
       <c r="B122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C122" t="s">
-        <v>22</v>
-      </c>
-      <c r="D122">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>15</v>
       </c>
       <c r="E122">
-        <v>679</v>
+        <v>11660</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G122" s="1">
-        <v>45892</v>
+        <v>45907.602372685185</v>
       </c>
       <c r="H122" s="1">
-        <v>45862</v>
+        <v>45877.602372685185</v>
       </c>
       <c r="I122" s="2">
-        <v>-14</v>
+        <v>-22</v>
       </c>
       <c r="J122" s="3">
-        <v>-11.61</v>
+        <v>81.33</v>
       </c>
       <c r="K122" s="3">
-        <v>-11.61</v>
+        <v>81.33</v>
       </c>
       <c r="L122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5580,7 +5577,7 @@
         <v>211111888</v>
       </c>
       <c r="B123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
@@ -5589,39 +5586,39 @@
         <v>15</v>
       </c>
       <c r="E123">
-        <v>10999</v>
+        <v>11718</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G123" s="1">
-        <v>45892.498240740737</v>
+        <v>45910.541782407403</v>
       </c>
       <c r="H123" s="1">
-        <v>45862.498240740737</v>
+        <v>45880.54179398148</v>
       </c>
       <c r="I123" s="2">
-        <v>-14</v>
+        <v>-25</v>
       </c>
       <c r="J123" s="3">
-        <v>134.38</v>
+        <v>119.29</v>
       </c>
       <c r="K123" s="3">
-        <v>134.38</v>
+        <v>119.29</v>
       </c>
       <c r="L123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>211111888</v>
+        <v>211111943</v>
       </c>
       <c r="B124" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
@@ -5630,36 +5627,36 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>11123</v>
+        <v>11857</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G124" s="1">
-        <v>45896.546006944445</v>
+        <v>45912.582881944443</v>
       </c>
       <c r="H124" s="1">
-        <v>45866.547673611109</v>
+        <v>45882.58289351852</v>
       </c>
       <c r="I124" s="2">
-        <v>-18</v>
+        <v>-27</v>
       </c>
       <c r="J124" s="3">
-        <v>727.73</v>
+        <v>46.86</v>
       </c>
       <c r="K124" s="3">
-        <v>727.73</v>
+        <v>46.86</v>
       </c>
       <c r="L124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B125" t="s">
         <v>41</v>
@@ -5671,77 +5668,77 @@
         <v>15</v>
       </c>
       <c r="E125">
-        <v>11288</v>
+        <v>10431</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G125" s="1">
-        <v>45899.506018518514</v>
+        <v>45878.592581018514</v>
       </c>
       <c r="H125" s="1">
-        <v>45869.506030092591</v>
+        <v>45848.592581018514</v>
       </c>
       <c r="I125" s="2">
-        <v>-21</v>
+        <v>6.4074189814855345</v>
       </c>
       <c r="J125" s="3">
-        <v>228.8</v>
+        <v>414.76</v>
       </c>
       <c r="K125" s="3">
-        <v>228.8</v>
+        <v>414.76</v>
       </c>
       <c r="L125" t="s">
+        <v>16</v>
+      </c>
+      <c r="M125" t="s">
         <v>17</v>
-      </c>
-      <c r="M125" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B126" t="s">
         <v>41</v>
       </c>
       <c r="C126" t="s">
-        <v>22</v>
-      </c>
-      <c r="D126">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D126" t="s">
+        <v>15</v>
       </c>
       <c r="E126">
-        <v>713</v>
+        <v>10728</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G126" s="1">
-        <v>45900</v>
+        <v>45886.283738425926</v>
       </c>
       <c r="H126" s="1">
-        <v>45870</v>
+        <v>45856.284224537034</v>
       </c>
       <c r="I126" s="2">
-        <v>-22</v>
+        <v>-1</v>
       </c>
       <c r="J126" s="3">
-        <v>-15.39</v>
+        <v>278.35000000000002</v>
       </c>
       <c r="K126" s="3">
-        <v>-15.39</v>
+        <v>278.35000000000002</v>
       </c>
       <c r="L126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B127" t="s">
         <v>41</v>
@@ -5753,36 +5750,36 @@
         <v>15</v>
       </c>
       <c r="E127">
-        <v>11344</v>
+        <v>11297</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G127" s="1">
-        <v>45900.516886574071</v>
+        <v>45900.295555555553</v>
       </c>
       <c r="H127" s="1">
-        <v>45870.516898148147</v>
+        <v>45870.300393518519</v>
       </c>
       <c r="I127" s="2">
-        <v>-22</v>
+        <v>-15</v>
       </c>
       <c r="J127" s="3">
-        <v>741.32</v>
+        <v>482.92</v>
       </c>
       <c r="K127" s="3">
-        <v>741.32</v>
+        <v>482.92</v>
       </c>
       <c r="L127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B128" t="s">
         <v>41</v>
@@ -5794,36 +5791,36 @@
         <v>15</v>
       </c>
       <c r="E128">
-        <v>11446</v>
+        <v>11608</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G128" s="1">
-        <v>45904.531446759254</v>
+        <v>45907.470601851848</v>
       </c>
       <c r="H128" s="1">
-        <v>45874.531446759254</v>
+        <v>45877.476655092592</v>
       </c>
       <c r="I128" s="2">
-        <v>-26</v>
+        <v>-22</v>
       </c>
       <c r="J128" s="3">
-        <v>49.82</v>
+        <v>412.48</v>
       </c>
       <c r="K128" s="3">
-        <v>49.82</v>
+        <v>412.48</v>
       </c>
       <c r="L128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B129" t="s">
         <v>41</v>
@@ -5835,39 +5832,39 @@
         <v>15</v>
       </c>
       <c r="E129">
-        <v>11547</v>
+        <v>11915</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G129" s="1">
-        <v>45905.643067129626</v>
+        <v>45913.566678240742</v>
       </c>
       <c r="H129" s="1">
-        <v>45875.643437499995</v>
+        <v>45883.567129629628</v>
       </c>
       <c r="I129" s="2">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="J129" s="3">
-        <v>699.11</v>
+        <v>809.44</v>
       </c>
       <c r="K129" s="3">
-        <v>699.11</v>
+        <v>809.44</v>
       </c>
       <c r="L129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>211111888</v>
+        <v>211112022</v>
       </c>
       <c r="B130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -5876,39 +5873,39 @@
         <v>15</v>
       </c>
       <c r="E130">
-        <v>11552</v>
+        <v>11861</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G130" s="1">
-        <v>45906.357638888891</v>
+        <v>45882.647453703699</v>
       </c>
       <c r="H130" s="1">
-        <v>45876.35765046296</v>
+        <v>45882.647453703699</v>
       </c>
       <c r="I130" s="2">
-        <v>-28</v>
+        <v>2.3525462963007158</v>
       </c>
       <c r="J130" s="3">
-        <v>179.12</v>
+        <v>158.86000000000001</v>
       </c>
       <c r="K130" s="3">
-        <v>179.12</v>
+        <v>158.86000000000001</v>
       </c>
       <c r="L130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M130" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>211111888</v>
+        <v>211112034</v>
       </c>
       <c r="B131" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -5917,39 +5914,39 @@
         <v>15</v>
       </c>
       <c r="E131">
-        <v>11660</v>
+        <v>9998</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G131" s="1">
-        <v>45907.602372685185</v>
+        <v>45870.501469907409</v>
       </c>
       <c r="H131" s="1">
-        <v>45877.602372685185</v>
+        <v>45840.502164351848</v>
       </c>
       <c r="I131" s="2">
-        <v>-29</v>
+        <v>14.498530092590954</v>
       </c>
       <c r="J131" s="3">
-        <v>81.33</v>
+        <v>161.81</v>
       </c>
       <c r="K131" s="3">
-        <v>81.33</v>
+        <v>161.81</v>
       </c>
       <c r="L131" t="s">
+        <v>16</v>
+      </c>
+      <c r="M131" t="s">
         <v>17</v>
-      </c>
-      <c r="M131" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211111892</v>
+        <v>211112034</v>
       </c>
       <c r="B132" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -5958,39 +5955,39 @@
         <v>15</v>
       </c>
       <c r="E132">
-        <v>11364</v>
+        <v>10048</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G132" s="1">
-        <v>45900.600254629629</v>
+        <v>45871.520023148143</v>
       </c>
       <c r="H132" s="1">
-        <v>45870.600983796292</v>
+        <v>45841.520324074074</v>
       </c>
       <c r="I132" s="2">
-        <v>-22</v>
+        <v>13.479976851856918</v>
       </c>
       <c r="J132" s="3">
-        <v>114.72</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="K132" s="3">
-        <v>114.72</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="L132" t="s">
+        <v>16</v>
+      </c>
+      <c r="M132" t="s">
         <v>17</v>
-      </c>
-      <c r="M132" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>211111892</v>
+        <v>211112034</v>
       </c>
       <c r="B133" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
@@ -5999,39 +5996,39 @@
         <v>15</v>
       </c>
       <c r="E133">
-        <v>11504</v>
+        <v>10279</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G133" s="1">
-        <v>45905.431342592594</v>
+        <v>45876.48737268518</v>
       </c>
       <c r="H133" s="1">
-        <v>45875.432152777779</v>
+        <v>45846.488263888888</v>
       </c>
       <c r="I133" s="2">
-        <v>-27</v>
+        <v>8.5126273148198379</v>
       </c>
       <c r="J133" s="3">
-        <v>243.1</v>
+        <v>243.53</v>
       </c>
       <c r="K133" s="3">
-        <v>243.1</v>
+        <v>243.53</v>
       </c>
       <c r="L133" t="s">
+        <v>16</v>
+      </c>
+      <c r="M133" t="s">
         <v>17</v>
-      </c>
-      <c r="M133" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>211111892</v>
+        <v>211112034</v>
       </c>
       <c r="B134" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6040,39 +6037,39 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>11607</v>
+        <v>10588</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G134" s="1">
-        <v>45907.400347222218</v>
+        <v>45883.665393518517</v>
       </c>
       <c r="H134" s="1">
-        <v>45877.404328703698</v>
+        <v>45853.665520833332</v>
       </c>
       <c r="I134" s="2">
-        <v>-29</v>
+        <v>1.3346064814832062</v>
       </c>
       <c r="J134" s="3">
-        <v>122.96000000000001</v>
+        <v>250.28</v>
       </c>
       <c r="K134" s="3">
-        <v>122.96000000000001</v>
+        <v>250.28</v>
       </c>
       <c r="L134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M134" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>211112004</v>
+        <v>211112034</v>
       </c>
       <c r="B135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6081,39 +6078,39 @@
         <v>15</v>
       </c>
       <c r="E135">
-        <v>10431</v>
+        <v>10900</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G135" s="1">
-        <v>45878.592581018514</v>
+        <v>45891.499594907407</v>
       </c>
       <c r="H135" s="1">
-        <v>45848.592581018514</v>
+        <v>45861.500196759254</v>
       </c>
       <c r="I135" s="2">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="J135" s="3">
-        <v>414.76</v>
+        <v>227.62</v>
       </c>
       <c r="K135" s="3">
-        <v>414.76</v>
+        <v>227.62</v>
       </c>
       <c r="L135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112004</v>
+        <v>211112034</v>
       </c>
       <c r="B136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -6122,39 +6119,39 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>10728</v>
+        <v>11243</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G136" s="1">
-        <v>45886.283738425926</v>
+        <v>45898.51180555555</v>
       </c>
       <c r="H136" s="1">
-        <v>45856.284224537034</v>
+        <v>45868.512175925927</v>
       </c>
       <c r="I136" s="2">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="J136" s="3">
-        <v>278.35000000000002</v>
+        <v>140.12</v>
       </c>
       <c r="K136" s="3">
-        <v>278.35000000000002</v>
+        <v>140.12</v>
       </c>
       <c r="L136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M136" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211112004</v>
+        <v>211112034</v>
       </c>
       <c r="B137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -6163,39 +6160,39 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <v>11297</v>
+        <v>11535</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G137" s="1">
-        <v>45900.295555555553</v>
+        <v>45905.529490740737</v>
       </c>
       <c r="H137" s="1">
-        <v>45870.300393518519</v>
+        <v>45875.530717592592</v>
       </c>
       <c r="I137" s="2">
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="J137" s="3">
-        <v>482.92</v>
+        <v>285.49</v>
       </c>
       <c r="K137" s="3">
-        <v>482.92</v>
+        <v>285.49</v>
       </c>
       <c r="L137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112004</v>
+        <v>211112034</v>
       </c>
       <c r="B138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
@@ -6204,36 +6201,36 @@
         <v>15</v>
       </c>
       <c r="E138">
-        <v>11608</v>
+        <v>11770</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G138" s="1">
-        <v>45907.470601851848</v>
+        <v>45911.678842592592</v>
       </c>
       <c r="H138" s="1">
-        <v>45877.476655092592</v>
+        <v>45881.679826388885</v>
       </c>
       <c r="I138" s="2">
-        <v>-29</v>
+        <v>-26</v>
       </c>
       <c r="J138" s="3">
-        <v>412.48</v>
+        <v>127.13000000000001</v>
       </c>
       <c r="K138" s="3">
-        <v>412.48</v>
+        <v>127.13000000000001</v>
       </c>
       <c r="L138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>211112022</v>
+        <v>211112034</v>
       </c>
       <c r="B139" t="s">
         <v>43</v>
@@ -6245,39 +6242,39 @@
         <v>15</v>
       </c>
       <c r="E139">
-        <v>9992</v>
+        <v>11831</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G139" s="1">
-        <v>45840.446226851847</v>
+        <v>45912.51599537037</v>
       </c>
       <c r="H139" s="1">
-        <v>45840.446226851847</v>
+        <v>45882.516168981478</v>
       </c>
       <c r="I139" s="2">
-        <v>38</v>
+        <v>-27</v>
       </c>
       <c r="J139" s="3">
-        <v>326.48</v>
+        <v>43.1</v>
       </c>
       <c r="K139" s="3">
-        <v>326.48</v>
+        <v>43.1</v>
       </c>
       <c r="L139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M139" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>211112022</v>
+        <v>211112182</v>
       </c>
       <c r="B140" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
@@ -6286,28 +6283,28 @@
         <v>15</v>
       </c>
       <c r="E140">
-        <v>10718</v>
+        <v>11673</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G140" s="1">
-        <v>45855.563877314809</v>
+        <v>45907.622719907406</v>
       </c>
       <c r="H140" s="1">
-        <v>45855.563877314809</v>
+        <v>45877.623020833329</v>
       </c>
       <c r="I140" s="2">
-        <v>23</v>
+        <v>-22</v>
       </c>
       <c r="J140" s="3">
-        <v>194.09</v>
+        <v>188.45000000000002</v>
       </c>
       <c r="K140" s="3">
-        <v>194.09</v>
+        <v>188.45000000000002</v>
       </c>
       <c r="L140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M140" t="s">
         <v>18</v>
@@ -6315,48 +6312,48 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>211112034</v>
+        <v>211112415</v>
       </c>
       <c r="B141" t="s">
         <v>44</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D141" t="s">
         <v>15</v>
       </c>
       <c r="E141">
-        <v>9998</v>
+        <v>434</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G141" s="1">
-        <v>45870.501469907409</v>
+        <v>45819</v>
       </c>
       <c r="H141" s="1">
-        <v>45840.502164351848</v>
+        <v>45789</v>
       </c>
       <c r="I141" s="2">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="J141" s="3">
-        <v>161.81</v>
+        <v>-2.35</v>
       </c>
       <c r="K141" s="3">
-        <v>161.81</v>
+        <v>-2.35</v>
       </c>
       <c r="L141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M141" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>211112034</v>
+        <v>211112415</v>
       </c>
       <c r="B142" t="s">
         <v>44</v>
@@ -6368,36 +6365,36 @@
         <v>15</v>
       </c>
       <c r="E142">
-        <v>10048</v>
+        <v>9857</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G142" s="1">
-        <v>45871.520023148143</v>
+        <v>45865.462974537033</v>
       </c>
       <c r="H142" s="1">
-        <v>45841.520324074074</v>
+        <v>45835.463900462964</v>
       </c>
       <c r="I142" s="2">
-        <v>7</v>
+        <v>19.537025462966994</v>
       </c>
       <c r="J142" s="3">
-        <v>71.540000000000006</v>
+        <v>52.45</v>
       </c>
       <c r="K142" s="3">
-        <v>71.540000000000006</v>
+        <v>52.45</v>
       </c>
       <c r="L142" t="s">
+        <v>16</v>
+      </c>
+      <c r="M142" t="s">
         <v>17</v>
-      </c>
-      <c r="M142" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>211112034</v>
+        <v>211112415</v>
       </c>
       <c r="B143" t="s">
         <v>44</v>
@@ -6409,36 +6406,36 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>10279</v>
+        <v>10341</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G143" s="1">
-        <v>45876.48737268518</v>
+        <v>45877.430648148147</v>
       </c>
       <c r="H143" s="1">
-        <v>45846.488263888888</v>
+        <v>45847.430648148147</v>
       </c>
       <c r="I143" s="2">
-        <v>2</v>
+        <v>7.5693518518528435</v>
       </c>
       <c r="J143" s="3">
-        <v>243.53</v>
+        <v>74.72</v>
       </c>
       <c r="K143" s="3">
-        <v>243.53</v>
+        <v>74.72</v>
       </c>
       <c r="L143" t="s">
+        <v>16</v>
+      </c>
+      <c r="M143" t="s">
         <v>17</v>
-      </c>
-      <c r="M143" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>211112034</v>
+        <v>211112415</v>
       </c>
       <c r="B144" t="s">
         <v>44</v>
@@ -6450,36 +6447,36 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>10588</v>
+        <v>10822</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G144" s="1">
-        <v>45883.665393518517</v>
+        <v>45889.487743055557</v>
       </c>
       <c r="H144" s="1">
-        <v>45853.665520833332</v>
+        <v>45859.487743055557</v>
       </c>
       <c r="I144" s="2">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="J144" s="3">
-        <v>250.28</v>
+        <v>95.87</v>
       </c>
       <c r="K144" s="3">
-        <v>250.28</v>
+        <v>95.87</v>
       </c>
       <c r="L144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>211112034</v>
+        <v>211112415</v>
       </c>
       <c r="B145" t="s">
         <v>44</v>
@@ -6491,36 +6488,36 @@
         <v>15</v>
       </c>
       <c r="E145">
-        <v>10900</v>
+        <v>11070</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G145" s="1">
-        <v>45891.499594907407</v>
+        <v>45893.523460648146</v>
       </c>
       <c r="H145" s="1">
-        <v>45861.500196759254</v>
+        <v>45863.523460648146</v>
       </c>
       <c r="I145" s="2">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="J145" s="3">
-        <v>227.62</v>
+        <v>106.52</v>
       </c>
       <c r="K145" s="3">
-        <v>227.62</v>
+        <v>106.52</v>
       </c>
       <c r="L145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112034</v>
+        <v>211112415</v>
       </c>
       <c r="B146" t="s">
         <v>44</v>
@@ -6532,36 +6529,36 @@
         <v>15</v>
       </c>
       <c r="E146">
-        <v>11243</v>
+        <v>11102</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G146" s="1">
-        <v>45898.51180555555</v>
+        <v>45896.526087962964</v>
       </c>
       <c r="H146" s="1">
-        <v>45868.512175925927</v>
+        <v>45866.526087962964</v>
       </c>
       <c r="I146" s="2">
-        <v>-20</v>
+        <v>-11</v>
       </c>
       <c r="J146" s="3">
-        <v>140.12</v>
+        <v>48.92</v>
       </c>
       <c r="K146" s="3">
-        <v>140.12</v>
+        <v>48.92</v>
       </c>
       <c r="L146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>211112034</v>
+        <v>211112415</v>
       </c>
       <c r="B147" t="s">
         <v>44</v>
@@ -6573,39 +6570,39 @@
         <v>15</v>
       </c>
       <c r="E147">
-        <v>11535</v>
+        <v>11360</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G147" s="1">
-        <v>45905.529490740737</v>
+        <v>45900.567083333328</v>
       </c>
       <c r="H147" s="1">
-        <v>45875.530717592592</v>
+        <v>45870.567083333328</v>
       </c>
       <c r="I147" s="2">
-        <v>-27</v>
+        <v>-15</v>
       </c>
       <c r="J147" s="3">
-        <v>285.49</v>
+        <v>50.69</v>
       </c>
       <c r="K147" s="3">
-        <v>285.49</v>
+        <v>50.69</v>
       </c>
       <c r="L147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>211112182</v>
+        <v>211112415</v>
       </c>
       <c r="B148" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -6614,80 +6611,80 @@
         <v>15</v>
       </c>
       <c r="E148">
-        <v>11673</v>
+        <v>11543</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G148" s="1">
-        <v>45907.622719907406</v>
+        <v>45905.539733796293</v>
       </c>
       <c r="H148" s="1">
-        <v>45877.623020833329</v>
+        <v>45875.539733796293</v>
       </c>
       <c r="I148" s="2">
-        <v>-29</v>
+        <v>-20</v>
       </c>
       <c r="J148" s="3">
-        <v>188.45000000000002</v>
+        <v>61.22</v>
       </c>
       <c r="K148" s="3">
-        <v>188.45000000000002</v>
+        <v>61.22</v>
       </c>
       <c r="L148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>211112415</v>
+        <v>211112544</v>
       </c>
       <c r="B149" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C149" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
       </c>
       <c r="E149">
-        <v>434</v>
+        <v>11192</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G149" s="1">
-        <v>45819</v>
+        <v>45868.475057870368</v>
       </c>
       <c r="H149" s="1">
-        <v>45789</v>
+        <v>45868.475057870368</v>
       </c>
       <c r="I149" s="2">
-        <v>59</v>
+        <v>16.524942129632109</v>
       </c>
       <c r="J149" s="3">
-        <v>-2.35</v>
+        <v>1971.6000000000001</v>
       </c>
       <c r="K149" s="3">
-        <v>-2.35</v>
+        <v>1971.6000000000001</v>
       </c>
       <c r="L149" t="s">
+        <v>16</v>
+      </c>
+      <c r="M149" t="s">
         <v>17</v>
-      </c>
-      <c r="M149" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>211112415</v>
+        <v>211112544</v>
       </c>
       <c r="B150" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C150" t="s">
         <v>14</v>
@@ -6696,36 +6693,36 @@
         <v>15</v>
       </c>
       <c r="E150">
-        <v>9857</v>
+        <v>11426</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G150" s="1">
-        <v>45865.462974537033</v>
+        <v>45874.460439814815</v>
       </c>
       <c r="H150" s="1">
-        <v>45835.463900462964</v>
+        <v>45874.460439814815</v>
       </c>
       <c r="I150" s="2">
-        <v>13</v>
+        <v>10.53956018518511</v>
       </c>
       <c r="J150" s="3">
-        <v>52.45</v>
+        <v>890.4</v>
       </c>
       <c r="K150" s="3">
-        <v>52.45</v>
+        <v>890.4</v>
       </c>
       <c r="L150" t="s">
+        <v>16</v>
+      </c>
+      <c r="M150" t="s">
         <v>17</v>
-      </c>
-      <c r="M150" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>211112415</v>
+        <v>211121278</v>
       </c>
       <c r="B151" t="s">
         <v>45</v>
@@ -6737,36 +6734,36 @@
         <v>15</v>
       </c>
       <c r="E151">
-        <v>10341</v>
+        <v>9555</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G151" s="1">
-        <v>45877.430648148147</v>
+        <v>45858.607731481483</v>
       </c>
       <c r="H151" s="1">
-        <v>45847.430648148147</v>
+        <v>45828.608090277776</v>
       </c>
       <c r="I151" s="2">
-        <v>1</v>
+        <v>26.392268518517085</v>
       </c>
       <c r="J151" s="3">
-        <v>74.72</v>
+        <v>75.600000000000009</v>
       </c>
       <c r="K151" s="3">
-        <v>74.72</v>
+        <v>75.600000000000009</v>
       </c>
       <c r="L151" t="s">
+        <v>16</v>
+      </c>
+      <c r="M151" t="s">
         <v>17</v>
-      </c>
-      <c r="M151" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>211112415</v>
+        <v>211121278</v>
       </c>
       <c r="B152" t="s">
         <v>45</v>
@@ -6778,36 +6775,36 @@
         <v>15</v>
       </c>
       <c r="E152">
-        <v>10822</v>
+        <v>9722</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G152" s="1">
-        <v>45889.487743055557</v>
+        <v>45863.601412037038</v>
       </c>
       <c r="H152" s="1">
-        <v>45859.487743055557</v>
+        <v>45833.602407407408</v>
       </c>
       <c r="I152" s="2">
-        <v>-11</v>
+        <v>21.398587962961756</v>
       </c>
       <c r="J152" s="3">
-        <v>95.87</v>
+        <v>102.60000000000001</v>
       </c>
       <c r="K152" s="3">
-        <v>95.87</v>
+        <v>102.60000000000001</v>
       </c>
       <c r="L152" t="s">
+        <v>16</v>
+      </c>
+      <c r="M152" t="s">
         <v>17</v>
-      </c>
-      <c r="M152" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>211112415</v>
+        <v>211121278</v>
       </c>
       <c r="B153" t="s">
         <v>45</v>
@@ -6819,36 +6816,36 @@
         <v>15</v>
       </c>
       <c r="E153">
-        <v>11070</v>
+        <v>10076</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G153" s="1">
-        <v>45893.523460648146</v>
+        <v>45871.611539351848</v>
       </c>
       <c r="H153" s="1">
-        <v>45863.523460648146</v>
+        <v>45841.612893518519</v>
       </c>
       <c r="I153" s="2">
-        <v>-15</v>
+        <v>13.388460648151522</v>
       </c>
       <c r="J153" s="3">
-        <v>106.52</v>
+        <v>91.8</v>
       </c>
       <c r="K153" s="3">
-        <v>106.52</v>
+        <v>91.8</v>
       </c>
       <c r="L153" t="s">
+        <v>16</v>
+      </c>
+      <c r="M153" t="s">
         <v>17</v>
-      </c>
-      <c r="M153" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>211112415</v>
+        <v>211121278</v>
       </c>
       <c r="B154" t="s">
         <v>45</v>
@@ -6860,36 +6857,36 @@
         <v>15</v>
       </c>
       <c r="E154">
-        <v>11102</v>
+        <v>10229</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G154" s="1">
-        <v>45896.526087962964</v>
+        <v>45875.600995370369</v>
       </c>
       <c r="H154" s="1">
-        <v>45866.526087962964</v>
+        <v>45845.602673611109</v>
       </c>
       <c r="I154" s="2">
-        <v>-18</v>
+        <v>9.3990046296312357</v>
       </c>
       <c r="J154" s="3">
-        <v>48.92</v>
+        <v>86.4</v>
       </c>
       <c r="K154" s="3">
-        <v>48.92</v>
+        <v>86.4</v>
       </c>
       <c r="L154" t="s">
+        <v>16</v>
+      </c>
+      <c r="M154" t="s">
         <v>17</v>
-      </c>
-      <c r="M154" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>211112415</v>
+        <v>211121278</v>
       </c>
       <c r="B155" t="s">
         <v>45</v>
@@ -6901,400 +6898,31 @@
         <v>15</v>
       </c>
       <c r="E155">
-        <v>11360</v>
+        <v>11294</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G155" s="1">
-        <v>45900.567083333328</v>
+        <v>45899.61278935185</v>
       </c>
       <c r="H155" s="1">
-        <v>45870.567083333328</v>
+        <v>45869.613032407404</v>
       </c>
       <c r="I155" s="2">
-        <v>-22</v>
+        <v>-14</v>
       </c>
       <c r="J155" s="3">
-        <v>50.69</v>
+        <v>21.6</v>
       </c>
       <c r="K155" s="3">
-        <v>50.69</v>
+        <v>21.6</v>
       </c>
       <c r="L155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M155" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>211112415</v>
-      </c>
-      <c r="B156" t="s">
-        <v>45</v>
-      </c>
-      <c r="C156" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156">
-        <v>11543</v>
-      </c>
-      <c r="F156" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" s="1">
-        <v>45905.539733796293</v>
-      </c>
-      <c r="H156" s="1">
-        <v>45875.539733796293</v>
-      </c>
-      <c r="I156" s="2">
-        <v>-27</v>
-      </c>
-      <c r="J156" s="3">
-        <v>61.22</v>
-      </c>
-      <c r="K156" s="3">
-        <v>61.22</v>
-      </c>
-      <c r="L156" t="s">
-        <v>17</v>
-      </c>
-      <c r="M156" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>211112544</v>
-      </c>
-      <c r="B157" t="s">
-        <v>49</v>
-      </c>
-      <c r="C157" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157">
-        <v>11192</v>
-      </c>
-      <c r="F157" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" s="1">
-        <v>45868.475057870368</v>
-      </c>
-      <c r="H157" s="1">
-        <v>45868.475057870368</v>
-      </c>
-      <c r="I157" s="2">
-        <v>10</v>
-      </c>
-      <c r="J157" s="3">
-        <v>1971.6000000000001</v>
-      </c>
-      <c r="K157" s="3">
-        <v>1971.6000000000001</v>
-      </c>
-      <c r="L157" t="s">
-        <v>17</v>
-      </c>
-      <c r="M157" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>211112544</v>
-      </c>
-      <c r="B158" t="s">
-        <v>49</v>
-      </c>
-      <c r="C158" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158">
-        <v>11426</v>
-      </c>
-      <c r="F158" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" s="1">
-        <v>45874.460439814815</v>
-      </c>
-      <c r="H158" s="1">
-        <v>45874.460439814815</v>
-      </c>
-      <c r="I158" s="2">
-        <v>4</v>
-      </c>
-      <c r="J158" s="3">
-        <v>890.4</v>
-      </c>
-      <c r="K158" s="3">
-        <v>890.4</v>
-      </c>
-      <c r="L158" t="s">
-        <v>17</v>
-      </c>
-      <c r="M158" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>211121278</v>
-      </c>
-      <c r="B159" t="s">
-        <v>46</v>
-      </c>
-      <c r="C159" t="s">
-        <v>14</v>
-      </c>
-      <c r="D159" t="s">
-        <v>15</v>
-      </c>
-      <c r="E159">
-        <v>9259</v>
-      </c>
-      <c r="F159" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" s="1">
-        <v>45851.59134259259</v>
-      </c>
-      <c r="H159" s="1">
-        <v>45821.592164351852</v>
-      </c>
-      <c r="I159" s="2">
-        <v>27</v>
-      </c>
-      <c r="J159" s="3">
-        <v>97.2</v>
-      </c>
-      <c r="K159" s="3">
-        <v>97.2</v>
-      </c>
-      <c r="L159" t="s">
-        <v>17</v>
-      </c>
-      <c r="M159" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>211121278</v>
-      </c>
-      <c r="B160" t="s">
-        <v>46</v>
-      </c>
-      <c r="C160" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" t="s">
-        <v>15</v>
-      </c>
-      <c r="E160">
-        <v>9555</v>
-      </c>
-      <c r="F160" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" s="1">
-        <v>45858.607731481483</v>
-      </c>
-      <c r="H160" s="1">
-        <v>45828.608090277776</v>
-      </c>
-      <c r="I160" s="2">
-        <v>20</v>
-      </c>
-      <c r="J160" s="3">
-        <v>75.600000000000009</v>
-      </c>
-      <c r="K160" s="3">
-        <v>75.600000000000009</v>
-      </c>
-      <c r="L160" t="s">
-        <v>17</v>
-      </c>
-      <c r="M160" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>211121278</v>
-      </c>
-      <c r="B161" t="s">
-        <v>46</v>
-      </c>
-      <c r="C161" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" t="s">
-        <v>15</v>
-      </c>
-      <c r="E161">
-        <v>9722</v>
-      </c>
-      <c r="F161" t="s">
-        <v>20</v>
-      </c>
-      <c r="G161" s="1">
-        <v>45863.601412037038</v>
-      </c>
-      <c r="H161" s="1">
-        <v>45833.602407407408</v>
-      </c>
-      <c r="I161" s="2">
-        <v>15</v>
-      </c>
-      <c r="J161" s="3">
-        <v>102.60000000000001</v>
-      </c>
-      <c r="K161" s="3">
-        <v>102.60000000000001</v>
-      </c>
-      <c r="L161" t="s">
-        <v>17</v>
-      </c>
-      <c r="M161" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>211121278</v>
-      </c>
-      <c r="B162" t="s">
-        <v>46</v>
-      </c>
-      <c r="C162" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162">
-        <v>10076</v>
-      </c>
-      <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" s="1">
-        <v>45871.611539351848</v>
-      </c>
-      <c r="H162" s="1">
-        <v>45841.612893518519</v>
-      </c>
-      <c r="I162" s="2">
-        <v>7</v>
-      </c>
-      <c r="J162" s="3">
-        <v>91.8</v>
-      </c>
-      <c r="K162" s="3">
-        <v>91.8</v>
-      </c>
-      <c r="L162" t="s">
-        <v>17</v>
-      </c>
-      <c r="M162" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>211121278</v>
-      </c>
-      <c r="B163" t="s">
-        <v>46</v>
-      </c>
-      <c r="C163" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163">
-        <v>10229</v>
-      </c>
-      <c r="F163" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163" s="1">
-        <v>45875.600995370369</v>
-      </c>
-      <c r="H163" s="1">
-        <v>45845.602673611109</v>
-      </c>
-      <c r="I163" s="2">
-        <v>3</v>
-      </c>
-      <c r="J163" s="3">
-        <v>86.4</v>
-      </c>
-      <c r="K163" s="3">
-        <v>86.4</v>
-      </c>
-      <c r="L163" t="s">
-        <v>17</v>
-      </c>
-      <c r="M163" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>211121278</v>
-      </c>
-      <c r="B164" t="s">
-        <v>46</v>
-      </c>
-      <c r="C164" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" t="s">
-        <v>15</v>
-      </c>
-      <c r="E164">
-        <v>11294</v>
-      </c>
-      <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" s="1">
-        <v>45899.61278935185</v>
-      </c>
-      <c r="H164" s="1">
-        <v>45869.613032407404</v>
-      </c>
-      <c r="I164" s="2">
-        <v>-21</v>
-      </c>
-      <c r="J164" s="3">
-        <v>21.6</v>
-      </c>
-      <c r="K164" s="3">
-        <v>21.6</v>
-      </c>
-      <c r="L164" t="s">
-        <v>17</v>
-      </c>
-      <c r="M164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PCosta.xlsx
+++ b/PCosta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF3211D-C9CE-4187-9D3A-7D98A0936BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741F6EB6-748B-43A5-BE7E-FCB3BE2855EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F8F3D65-BB50-4D14-936D-C9FEA2B7CDDC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="51">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Armindo Costa &amp; Filhos, Lda.</t>
   </si>
   <si>
-    <t>61A90</t>
-  </si>
-  <si>
     <t>Super Talho Redentor, Lda.</t>
   </si>
   <si>
@@ -183,6 +180,15 @@
   </si>
   <si>
     <t>Gelfer Unipessoal, Lda</t>
+  </si>
+  <si>
+    <t>RPR</t>
+  </si>
+  <si>
+    <t>Jacinto Ferreira Carvalho</t>
+  </si>
+  <si>
+    <t>José Henrique C.Martins Unip.,Lda</t>
   </si>
 </sst>
 </file>
@@ -557,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4044F161-0F67-4AC3-9595-1EB749614D68}">
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M155"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +634,7 @@
         <v>10774</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1">
         <v>45886.494421296295</v>
@@ -637,7 +643,7 @@
         <v>45856.494421296295</v>
       </c>
       <c r="I2" s="2">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J2" s="3">
         <v>112.93</v>
@@ -649,7 +655,7 @@
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -669,7 +675,7 @@
         <v>11051</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1">
         <v>45893.509270833332</v>
@@ -678,7 +684,7 @@
         <v>45863.509282407409</v>
       </c>
       <c r="I3" s="2">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="J3" s="3">
         <v>84.06</v>
@@ -690,7 +696,7 @@
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -719,7 +725,7 @@
         <v>45870.505578703705</v>
       </c>
       <c r="I4" s="2">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="J4" s="3">
         <v>89.52</v>
@@ -760,7 +766,7 @@
         <v>45883.559317129628</v>
       </c>
       <c r="I5" s="2">
-        <v>-28</v>
+        <v>-19</v>
       </c>
       <c r="J5" s="3">
         <v>107.10000000000001</v>
@@ -777,10 +783,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>211110212</v>
+        <v>211110090</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -789,31 +795,31 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>9932</v>
+        <v>12194</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="1">
-        <v>45869.375613425924</v>
+        <v>45921.441608796296</v>
       </c>
       <c r="H6" s="1">
-        <v>45839.378171296295</v>
+        <v>45891.441608796296</v>
       </c>
       <c r="I6" s="2">
-        <v>15.624386574076198</v>
+        <v>-27</v>
       </c>
       <c r="J6" s="3">
-        <v>45.85</v>
+        <v>109.26</v>
       </c>
       <c r="K6" s="3">
-        <v>45.85</v>
+        <v>109.26</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -824,31 +830,31 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>612</v>
+        <v>9932</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="1">
-        <v>45871</v>
+        <v>45869.375613425924</v>
       </c>
       <c r="H7" s="1">
-        <v>45841</v>
+        <v>45839.378171296295</v>
       </c>
       <c r="I7" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J7" s="3">
-        <v>-36.31</v>
+        <v>45.85</v>
       </c>
       <c r="K7" s="3">
-        <v>-36.31</v>
+        <v>45.85</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -865,31 +871,31 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>2025</v>
       </c>
       <c r="E8">
-        <v>10045</v>
+        <v>612</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="1">
-        <v>45871.497974537036</v>
+        <v>45871</v>
       </c>
       <c r="H8" s="1">
-        <v>45841.497974537036</v>
+        <v>45841</v>
       </c>
       <c r="I8" s="2">
-        <v>13.502025462963502</v>
+        <v>23</v>
       </c>
       <c r="J8" s="3">
-        <v>140.92000000000002</v>
+        <v>-36.31</v>
       </c>
       <c r="K8" s="3">
-        <v>140.92000000000002</v>
+        <v>-36.31</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -912,25 +918,25 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>10181</v>
+        <v>10045</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="1">
-        <v>45872.603391203702</v>
+        <v>45871.497974537036</v>
       </c>
       <c r="H9" s="1">
-        <v>45842.603391203702</v>
+        <v>45841.497974537036</v>
       </c>
       <c r="I9" s="2">
-        <v>12.396608796298096</v>
+        <v>23</v>
       </c>
       <c r="J9" s="3">
-        <v>64.11</v>
+        <v>140.92000000000002</v>
       </c>
       <c r="K9" s="3">
-        <v>64.11</v>
+        <v>140.92000000000002</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -953,25 +959,25 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>10358</v>
+        <v>10181</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="1">
-        <v>45877.498981481476</v>
+        <v>45872.603391203702</v>
       </c>
       <c r="H10" s="1">
-        <v>45847.498993055553</v>
+        <v>45842.603391203702</v>
       </c>
       <c r="I10" s="2">
-        <v>7.5010185185237788</v>
+        <v>22</v>
       </c>
       <c r="J10" s="3">
-        <v>174.55</v>
+        <v>64.11</v>
       </c>
       <c r="K10" s="3">
-        <v>174.55</v>
+        <v>64.11</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -994,31 +1000,31 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>10491</v>
+        <v>10358</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="1">
-        <v>45879.477118055554</v>
+        <v>45877.498981481476</v>
       </c>
       <c r="H11" s="1">
-        <v>45849.477754629625</v>
+        <v>45847.498993055553</v>
       </c>
       <c r="I11" s="2">
-        <v>5.5228819444455439</v>
+        <v>17</v>
       </c>
       <c r="J11" s="3">
-        <v>208.79</v>
+        <v>174.55</v>
       </c>
       <c r="K11" s="3">
-        <v>208.79</v>
+        <v>174.55</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1035,31 +1041,31 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>10555</v>
+        <v>10491</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="1">
-        <v>45883.417129629626</v>
+        <v>45879.477118055554</v>
       </c>
       <c r="H12" s="1">
-        <v>45853.417523148149</v>
+        <v>45849.477754629625</v>
       </c>
       <c r="I12" s="2">
-        <v>1.5828703703737119</v>
+        <v>15</v>
       </c>
       <c r="J12" s="3">
-        <v>231.02</v>
+        <v>208.79</v>
       </c>
       <c r="K12" s="3">
-        <v>231.02</v>
+        <v>208.79</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1076,31 +1082,31 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>10716</v>
+        <v>10555</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="1">
-        <v>45885.561157407406</v>
+        <v>45883.417129629626</v>
       </c>
       <c r="H13" s="1">
-        <v>45855.561655092592</v>
+        <v>45853.417523148149</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J13" s="3">
-        <v>236.83</v>
+        <v>231.02</v>
       </c>
       <c r="K13" s="3">
-        <v>236.83</v>
+        <v>231.02</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1117,31 +1123,31 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>10887</v>
+        <v>10716</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="1">
-        <v>45890.594178240739</v>
+        <v>45885.561157407406</v>
       </c>
       <c r="H14" s="1">
-        <v>45860.594571759255</v>
+        <v>45855.561655092592</v>
       </c>
       <c r="I14" s="2">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="J14" s="3">
-        <v>66.320000000000007</v>
+        <v>236.83</v>
       </c>
       <c r="K14" s="3">
-        <v>66.320000000000007</v>
+        <v>236.83</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1152,37 +1158,37 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>672</v>
+        <v>10887</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="1">
-        <v>45891</v>
+        <v>45890.594178240739</v>
       </c>
       <c r="H15" s="1">
-        <v>45861</v>
+        <v>45860.594571759255</v>
       </c>
       <c r="I15" s="2">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>-80.42</v>
+        <v>66.320000000000007</v>
       </c>
       <c r="K15" s="3">
-        <v>-80.42</v>
+        <v>66.320000000000007</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1193,37 +1199,37 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>2025</v>
       </c>
       <c r="E16">
-        <v>10960</v>
+        <v>672</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="1">
-        <v>45891.569016203699</v>
+        <v>45891</v>
       </c>
       <c r="H16" s="1">
-        <v>45861.569016203699</v>
+        <v>45861</v>
       </c>
       <c r="I16" s="2">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
-        <v>217.13</v>
+        <v>-80.42</v>
       </c>
       <c r="K16" s="3">
-        <v>217.13</v>
+        <v>-80.42</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1240,31 +1246,31 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>11077</v>
+        <v>10960</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="1">
-        <v>45893.634097222217</v>
+        <v>45891.569016203699</v>
       </c>
       <c r="H17" s="1">
-        <v>45863.634097222217</v>
+        <v>45861.569016203699</v>
       </c>
       <c r="I17" s="2">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="J17" s="3">
-        <v>22.37</v>
+        <v>217.13</v>
       </c>
       <c r="K17" s="3">
-        <v>22.37</v>
+        <v>217.13</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1281,31 +1287,31 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>11363</v>
+        <v>11077</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="1">
-        <v>45900.582465277774</v>
+        <v>45893.634097222217</v>
       </c>
       <c r="H18" s="1">
-        <v>45870.582754629628</v>
+        <v>45863.634097222217</v>
       </c>
       <c r="I18" s="2">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="J18" s="3">
-        <v>217.11</v>
+        <v>22.37</v>
       </c>
       <c r="K18" s="3">
-        <v>217.11</v>
+        <v>22.37</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1322,25 +1328,25 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>11427</v>
+        <v>11363</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="1">
-        <v>45904.485185185185</v>
+        <v>45900.582465277774</v>
       </c>
       <c r="H19" s="1">
-        <v>45874.485185185185</v>
+        <v>45870.582754629628</v>
       </c>
       <c r="I19" s="2">
-        <v>-19</v>
+        <v>-6</v>
       </c>
       <c r="J19" s="3">
-        <v>22.77</v>
+        <v>217.11</v>
       </c>
       <c r="K19" s="3">
-        <v>22.77</v>
+        <v>217.11</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -1363,25 +1369,25 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>11546</v>
+        <v>11427</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="1">
-        <v>45905.635393518518</v>
+        <v>45904.485185185185</v>
       </c>
       <c r="H20" s="1">
-        <v>45875.636099537034</v>
+        <v>45874.485185185185</v>
       </c>
       <c r="I20" s="2">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="J20" s="3">
-        <v>102.96000000000001</v>
+        <v>22.77</v>
       </c>
       <c r="K20" s="3">
-        <v>102.96000000000001</v>
+        <v>22.77</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1404,25 +1410,25 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>11596</v>
+        <v>11546</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="1">
-        <v>45906.626793981479</v>
+        <v>45905.635393518518</v>
       </c>
       <c r="H21" s="1">
-        <v>45876.629236111112</v>
+        <v>45875.636099537034</v>
       </c>
       <c r="I21" s="2">
-        <v>-21</v>
+        <v>-11</v>
       </c>
       <c r="J21" s="3">
-        <v>304.66000000000003</v>
+        <v>102.96000000000001</v>
       </c>
       <c r="K21" s="3">
-        <v>304.66000000000003</v>
+        <v>102.96000000000001</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -1445,25 +1451,25 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>11919</v>
+        <v>11596</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="1">
-        <v>45913.617384259254</v>
+        <v>45906.626793981479</v>
       </c>
       <c r="H22" s="1">
-        <v>45883.618368055555</v>
+        <v>45876.629236111112</v>
       </c>
       <c r="I22" s="2">
-        <v>-28</v>
+        <v>-12</v>
       </c>
       <c r="J22" s="3">
-        <v>326.77</v>
+        <v>304.66000000000003</v>
       </c>
       <c r="K22" s="3">
-        <v>326.77</v>
+        <v>304.66000000000003</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1474,10 +1480,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>211110264</v>
+        <v>211110212</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1486,39 +1492,39 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>6743</v>
+        <v>11919</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="1">
-        <v>45800.598414351851</v>
+        <v>45913.617384259254</v>
       </c>
       <c r="H23" s="1">
-        <v>45770.600486111107</v>
+        <v>45883.618368055555</v>
       </c>
       <c r="I23" s="2">
-        <v>84.401585648149194</v>
+        <v>-19</v>
       </c>
       <c r="J23" s="3">
-        <v>519.91999999999996</v>
+        <v>326.77</v>
       </c>
       <c r="K23" s="3">
-        <v>519.91999999999996</v>
+        <v>326.77</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
       </c>
       <c r="M23" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>211110264</v>
+        <v>211110212</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1527,39 +1533,39 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>8698</v>
+        <v>11998</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="1">
-        <v>45837.66951388889</v>
+        <v>45918.526053240741</v>
       </c>
       <c r="H24" s="1">
-        <v>45807.669710648144</v>
+        <v>45888.526053240741</v>
       </c>
       <c r="I24" s="2">
-        <v>47.330486111110076</v>
+        <v>-24</v>
       </c>
       <c r="J24" s="3">
-        <v>87.67</v>
+        <v>310.14</v>
       </c>
       <c r="K24" s="3">
-        <v>87.67</v>
+        <v>310.14</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
       </c>
       <c r="M24" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>211110364</v>
+        <v>211110212</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1568,39 +1574,39 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>9968</v>
+        <v>12076</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="1">
-        <v>45870.436192129629</v>
+        <v>45919.572534722218</v>
       </c>
       <c r="H25" s="1">
-        <v>45840.436192129629</v>
+        <v>45889.572546296295</v>
       </c>
       <c r="I25" s="2">
-        <v>14.56380787037051</v>
+        <v>-25</v>
       </c>
       <c r="J25" s="3">
-        <v>283.05</v>
+        <v>111.94</v>
       </c>
       <c r="K25" s="3">
-        <v>283.05</v>
+        <v>111.94</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
       </c>
       <c r="M25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>211110364</v>
+        <v>211110212</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1609,39 +1615,39 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>10019</v>
+        <v>12150</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="1">
-        <v>45870.684710648144</v>
+        <v>45921.411087962959</v>
       </c>
       <c r="H26" s="1">
-        <v>45840.685428240737</v>
+        <v>45891.411099537036</v>
       </c>
       <c r="I26" s="2">
-        <v>14.315289351856336</v>
+        <v>-27</v>
       </c>
       <c r="J26" s="3">
-        <v>228.83</v>
+        <v>103.94</v>
       </c>
       <c r="K26" s="3">
-        <v>228.83</v>
+        <v>103.94</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
       </c>
       <c r="M26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>211110364</v>
+        <v>211110264</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1650,39 +1656,39 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>10147</v>
+        <v>6743</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="1">
-        <v>45872.453900462962</v>
+        <v>45800.598414351851</v>
       </c>
       <c r="H27" s="1">
-        <v>45842.453900462962</v>
+        <v>45770.600486111107</v>
       </c>
       <c r="I27" s="2">
-        <v>12.546099537037662</v>
+        <v>94</v>
       </c>
       <c r="J27" s="3">
-        <v>545.98</v>
+        <v>519.91999999999996</v>
       </c>
       <c r="K27" s="3">
-        <v>545.98</v>
+        <v>519.91999999999996</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
       </c>
       <c r="M27" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>211110364</v>
+        <v>211110264</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1691,39 +1697,39 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>10156</v>
+        <v>8698</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="1">
-        <v>45872.493888888886</v>
+        <v>45837.66951388889</v>
       </c>
       <c r="H28" s="1">
-        <v>45842.493888888886</v>
+        <v>45807.669710648144</v>
       </c>
       <c r="I28" s="2">
-        <v>12.506111111113569</v>
+        <v>57</v>
       </c>
       <c r="J28" s="3">
-        <v>2.63</v>
+        <v>87.67</v>
       </c>
       <c r="K28" s="3">
-        <v>2.63</v>
+        <v>87.67</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
       </c>
       <c r="M28" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>211110364</v>
+        <v>211110285</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1732,31 +1738,31 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>10203</v>
+        <v>12111</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="1">
-        <v>45875.468877314815</v>
+        <v>45920.510196759256</v>
       </c>
       <c r="H29" s="1">
-        <v>45845.468888888885</v>
+        <v>45890.510949074072</v>
       </c>
       <c r="I29" s="2">
-        <v>9.5311226851845277</v>
+        <v>-26</v>
       </c>
       <c r="J29" s="3">
-        <v>338.76</v>
+        <v>252.01000000000002</v>
       </c>
       <c r="K29" s="3">
-        <v>338.76</v>
+        <v>252.01000000000002</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
       </c>
       <c r="M29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1764,7 +1770,7 @@
         <v>211110364</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1773,25 +1779,25 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>10342</v>
+        <v>10469</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="1">
-        <v>45877.430671296293</v>
+        <v>45879.403611111113</v>
       </c>
       <c r="H30" s="1">
-        <v>45847.430671296293</v>
+        <v>45849.403611111113</v>
       </c>
       <c r="I30" s="2">
-        <v>7.5693287037065602</v>
+        <v>15</v>
       </c>
       <c r="J30" s="3">
-        <v>460.23</v>
+        <v>544.83000000000004</v>
       </c>
       <c r="K30" s="3">
-        <v>460.23</v>
+        <v>544.83000000000004</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -1805,7 +1811,7 @@
         <v>211110364</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1814,31 +1820,31 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>10469</v>
+        <v>10515</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="1">
-        <v>45879.403611111113</v>
+        <v>45882.474629629629</v>
       </c>
       <c r="H31" s="1">
-        <v>45849.403611111113</v>
+        <v>45852.474629629629</v>
       </c>
       <c r="I31" s="2">
-        <v>5.5963888888873043</v>
+        <v>12</v>
       </c>
       <c r="J31" s="3">
-        <v>544.83000000000004</v>
+        <v>603.02</v>
       </c>
       <c r="K31" s="3">
-        <v>544.83000000000004</v>
+        <v>603.02</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
       </c>
       <c r="M31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1846,7 +1852,7 @@
         <v>211110364</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1855,31 +1861,31 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>10515</v>
+        <v>10646</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
       </c>
       <c r="G32" s="1">
-        <v>45882.474629629629</v>
+        <v>45884.469351851847</v>
       </c>
       <c r="H32" s="1">
-        <v>45852.474629629629</v>
+        <v>45854.469351851847</v>
       </c>
       <c r="I32" s="2">
-        <v>2.5253703703710926</v>
+        <v>10</v>
       </c>
       <c r="J32" s="3">
-        <v>603.02</v>
+        <v>447.87</v>
       </c>
       <c r="K32" s="3">
-        <v>603.02</v>
+        <v>447.87</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
       </c>
       <c r="M32" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1887,7 +1893,7 @@
         <v>211110364</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1896,31 +1902,31 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>10646</v>
+        <v>10768</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
       </c>
       <c r="G33" s="1">
-        <v>45884.469351851847</v>
+        <v>45886.485416666663</v>
       </c>
       <c r="H33" s="1">
-        <v>45854.469351851847</v>
+        <v>45856.48542824074</v>
       </c>
       <c r="I33" s="2">
-        <v>0.53064814815297723</v>
+        <v>8</v>
       </c>
       <c r="J33" s="3">
-        <v>447.87</v>
+        <v>783.17000000000007</v>
       </c>
       <c r="K33" s="3">
-        <v>447.87</v>
+        <v>783.17000000000007</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
       </c>
       <c r="M33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1928,7 +1934,7 @@
         <v>211110364</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1937,31 +1943,31 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>10768</v>
+        <v>10821</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
       </c>
       <c r="G34" s="1">
-        <v>45886.485416666663</v>
+        <v>45889.487719907404</v>
       </c>
       <c r="H34" s="1">
-        <v>45856.48542824074</v>
+        <v>45859.487719907404</v>
       </c>
       <c r="I34" s="2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J34" s="3">
-        <v>783.17000000000007</v>
+        <v>527.75</v>
       </c>
       <c r="K34" s="3">
-        <v>783.17000000000007</v>
+        <v>527.75</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
       </c>
       <c r="M34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1969,40 +1975,40 @@
         <v>211110364</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>2025</v>
       </c>
       <c r="E35">
-        <v>10821</v>
+        <v>667</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
       </c>
       <c r="G35" s="1">
-        <v>45889.487719907404</v>
+        <v>45891</v>
       </c>
       <c r="H35" s="1">
-        <v>45859.487719907404</v>
+        <v>45861</v>
       </c>
       <c r="I35" s="2">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="J35" s="3">
-        <v>527.75</v>
+        <v>-2.87</v>
       </c>
       <c r="K35" s="3">
-        <v>527.75</v>
+        <v>-2.87</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
       </c>
       <c r="M35" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2010,7 +2016,7 @@
         <v>211110364</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
         <v>21</v>
@@ -2019,7 +2025,7 @@
         <v>2025</v>
       </c>
       <c r="E36">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
@@ -2031,19 +2037,19 @@
         <v>45861</v>
       </c>
       <c r="I36" s="2">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="J36" s="3">
-        <v>-2.87</v>
+        <v>-10.09</v>
       </c>
       <c r="K36" s="3">
-        <v>-2.87</v>
+        <v>-10.09</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
       </c>
       <c r="M36" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2051,40 +2057,40 @@
         <v>211110364</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
       </c>
       <c r="E37">
-        <v>670</v>
+        <v>10932</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" s="1">
-        <v>45891</v>
+        <v>45891.550300925926</v>
       </c>
       <c r="H37" s="1">
-        <v>45861</v>
+        <v>45861.550312499996</v>
       </c>
       <c r="I37" s="2">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="J37" s="3">
-        <v>-10.09</v>
+        <v>548.45000000000005</v>
       </c>
       <c r="K37" s="3">
-        <v>-10.09</v>
+        <v>548.45000000000005</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
       </c>
       <c r="M37" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2092,7 +2098,7 @@
         <v>211110364</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2101,31 +2107,31 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>10932</v>
+        <v>11071</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
       </c>
       <c r="G38" s="1">
-        <v>45891.550300925926</v>
+        <v>45893.524328703701</v>
       </c>
       <c r="H38" s="1">
-        <v>45861.550312499996</v>
+        <v>45863.524328703701</v>
       </c>
       <c r="I38" s="2">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="J38" s="3">
-        <v>548.45000000000005</v>
+        <v>558.34</v>
       </c>
       <c r="K38" s="3">
-        <v>548.45000000000005</v>
+        <v>558.34</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
       </c>
       <c r="M38" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2133,7 +2139,7 @@
         <v>211110364</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2142,25 +2148,25 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>11071</v>
+        <v>11114</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
       </c>
       <c r="G39" s="1">
-        <v>45893.524328703701</v>
+        <v>45896.534999999996</v>
       </c>
       <c r="H39" s="1">
-        <v>45863.524328703701</v>
+        <v>45866.534999999996</v>
       </c>
       <c r="I39" s="2">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="J39" s="3">
-        <v>558.34</v>
+        <v>212.67000000000002</v>
       </c>
       <c r="K39" s="3">
-        <v>558.34</v>
+        <v>212.67000000000002</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -2174,7 +2180,7 @@
         <v>211110364</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2183,25 +2189,25 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>11114</v>
+        <v>11240</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
       </c>
       <c r="G40" s="1">
-        <v>45896.534999999996</v>
+        <v>45898.501168981478</v>
       </c>
       <c r="H40" s="1">
-        <v>45866.534999999996</v>
+        <v>45868.501168981478</v>
       </c>
       <c r="I40" s="2">
-        <v>-11</v>
+        <v>-4</v>
       </c>
       <c r="J40" s="3">
-        <v>212.67000000000002</v>
+        <v>578.64</v>
       </c>
       <c r="K40" s="3">
-        <v>212.67000000000002</v>
+        <v>578.64</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
@@ -2215,7 +2221,7 @@
         <v>211110364</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -2224,25 +2230,25 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>11240</v>
+        <v>11358</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
       </c>
       <c r="G41" s="1">
-        <v>45898.501168981478</v>
+        <v>45900.567037037035</v>
       </c>
       <c r="H41" s="1">
-        <v>45868.501168981478</v>
+        <v>45870.567037037035</v>
       </c>
       <c r="I41" s="2">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="J41" s="3">
-        <v>578.64</v>
+        <v>476.82</v>
       </c>
       <c r="K41" s="3">
-        <v>578.64</v>
+        <v>476.82</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
@@ -2256,7 +2262,7 @@
         <v>211110364</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2265,25 +2271,25 @@
         <v>15</v>
       </c>
       <c r="E42">
-        <v>11358</v>
+        <v>11399</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="G42" s="1">
-        <v>45900.567037037035</v>
+        <v>45903.547291666662</v>
       </c>
       <c r="H42" s="1">
-        <v>45870.567037037035</v>
+        <v>45873.547291666662</v>
       </c>
       <c r="I42" s="2">
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="J42" s="3">
-        <v>476.82</v>
+        <v>356.84000000000003</v>
       </c>
       <c r="K42" s="3">
-        <v>476.82</v>
+        <v>356.84000000000003</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
@@ -2297,7 +2303,7 @@
         <v>211110364</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -2306,25 +2312,25 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>11399</v>
+        <v>11541</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
       </c>
       <c r="G43" s="1">
-        <v>45903.547291666662</v>
+        <v>45905.539664351847</v>
       </c>
       <c r="H43" s="1">
-        <v>45873.547291666662</v>
+        <v>45875.539675925924</v>
       </c>
       <c r="I43" s="2">
-        <v>-18</v>
+        <v>-11</v>
       </c>
       <c r="J43" s="3">
-        <v>356.84000000000003</v>
+        <v>489.72</v>
       </c>
       <c r="K43" s="3">
-        <v>356.84000000000003</v>
+        <v>489.72</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
@@ -2338,7 +2344,7 @@
         <v>211110364</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2347,25 +2353,25 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>11541</v>
+        <v>11636</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
       </c>
       <c r="G44" s="1">
-        <v>45905.539664351847</v>
+        <v>45907.577685185184</v>
       </c>
       <c r="H44" s="1">
-        <v>45875.539675925924</v>
+        <v>45877.577685185184</v>
       </c>
       <c r="I44" s="2">
-        <v>-20</v>
+        <v>-13</v>
       </c>
       <c r="J44" s="3">
-        <v>489.72</v>
+        <v>265.88</v>
       </c>
       <c r="K44" s="3">
-        <v>489.72</v>
+        <v>265.88</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
@@ -2379,7 +2385,7 @@
         <v>211110364</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2388,25 +2394,25 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>11636</v>
+        <v>11707</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="G45" s="1">
-        <v>45907.577685185184</v>
+        <v>45910.500196759254</v>
       </c>
       <c r="H45" s="1">
-        <v>45877.577685185184</v>
+        <v>45880.500196759254</v>
       </c>
       <c r="I45" s="2">
-        <v>-22</v>
+        <v>-16</v>
       </c>
       <c r="J45" s="3">
-        <v>265.88</v>
+        <v>556.11</v>
       </c>
       <c r="K45" s="3">
-        <v>265.88</v>
+        <v>556.11</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
@@ -2420,7 +2426,7 @@
         <v>211110364</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -2429,25 +2435,25 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>11707</v>
+        <v>11842</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
       </c>
       <c r="G46" s="1">
-        <v>45910.500196759254</v>
+        <v>45912.519386574073</v>
       </c>
       <c r="H46" s="1">
-        <v>45880.500196759254</v>
+        <v>45882.51939814815</v>
       </c>
       <c r="I46" s="2">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="J46" s="3">
-        <v>556.11</v>
+        <v>806.80000000000007</v>
       </c>
       <c r="K46" s="3">
-        <v>556.11</v>
+        <v>806.80000000000007</v>
       </c>
       <c r="L46" t="s">
         <v>16</v>
@@ -2461,7 +2467,7 @@
         <v>211110364</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -2470,25 +2476,25 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>11842</v>
+        <v>11973</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
       </c>
       <c r="G47" s="1">
-        <v>45912.519386574073</v>
+        <v>45917.598541666666</v>
       </c>
       <c r="H47" s="1">
-        <v>45882.51939814815</v>
+        <v>45887.599583333329</v>
       </c>
       <c r="I47" s="2">
-        <v>-27</v>
+        <v>-23</v>
       </c>
       <c r="J47" s="3">
-        <v>806.80000000000007</v>
+        <v>625.95000000000005</v>
       </c>
       <c r="K47" s="3">
-        <v>806.80000000000007</v>
+        <v>625.95000000000005</v>
       </c>
       <c r="L47" t="s">
         <v>16</v>
@@ -2499,84 +2505,84 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>211110472</v>
+        <v>211110364</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>12091</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
       </c>
       <c r="G48" s="1">
-        <v>45760</v>
+        <v>45919.599074074074</v>
       </c>
       <c r="H48" s="1">
-        <v>45730</v>
+        <v>45889.599085648144</v>
       </c>
       <c r="I48" s="2">
-        <v>125</v>
+        <v>-25</v>
       </c>
       <c r="J48" s="3">
-        <v>-541.79999999999995</v>
+        <v>578.58000000000004</v>
       </c>
       <c r="K48" s="3">
-        <v>-10.33</v>
+        <v>578.58000000000004</v>
       </c>
       <c r="L48" t="s">
         <v>16</v>
       </c>
       <c r="M48" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>211110472</v>
+        <v>211110364</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>12203</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="1">
-        <v>45847</v>
+        <v>45921.449143518519</v>
       </c>
       <c r="H49" s="1">
-        <v>45817</v>
+        <v>45891.449155092589</v>
       </c>
       <c r="I49" s="2">
-        <v>38</v>
+        <v>-27</v>
       </c>
       <c r="J49" s="3">
-        <v>-224.79</v>
+        <v>474.01</v>
       </c>
       <c r="K49" s="3">
-        <v>-9</v>
+        <v>474.01</v>
       </c>
       <c r="L49" t="s">
         <v>16</v>
       </c>
       <c r="M49" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2584,40 +2590,40 @@
         <v>211110472</v>
       </c>
       <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
         <v>26</v>
       </c>
-      <c r="C50" t="s">
-        <v>14</v>
-      </c>
       <c r="D50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50">
-        <v>9291</v>
+        <v>27</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="1">
-        <v>45854.443333333329</v>
+        <v>45760</v>
       </c>
       <c r="H50" s="1">
-        <v>45824.44427083333</v>
+        <v>45730</v>
       </c>
       <c r="I50" s="2">
-        <v>30.556666666670935</v>
+        <v>134</v>
       </c>
       <c r="J50" s="3">
-        <v>156.46</v>
+        <v>-541.79999999999995</v>
       </c>
       <c r="K50" s="3">
-        <v>156.46</v>
+        <v>-10.33</v>
       </c>
       <c r="L50" t="s">
         <v>16</v>
       </c>
       <c r="M50" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2625,40 +2631,40 @@
         <v>211110472</v>
       </c>
       <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
         <v>26</v>
       </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
       <c r="D51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51">
-        <v>9627</v>
+        <v>27</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
       </c>
       <c r="G51" s="1">
-        <v>45861.535300925927</v>
+        <v>45847</v>
       </c>
       <c r="H51" s="1">
-        <v>45831.535729166666</v>
+        <v>45817</v>
       </c>
       <c r="I51" s="2">
-        <v>23.464699074072996</v>
+        <v>47</v>
       </c>
       <c r="J51" s="3">
-        <v>244.68</v>
+        <v>-224.79</v>
       </c>
       <c r="K51" s="3">
-        <v>244.68</v>
+        <v>-9</v>
       </c>
       <c r="L51" t="s">
         <v>16</v>
       </c>
       <c r="M51" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2666,7 +2672,7 @@
         <v>211110472</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2675,31 +2681,31 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>10211</v>
+        <v>9291</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
       <c r="G52" s="1">
-        <v>45875.481921296298</v>
+        <v>45854.443333333329</v>
       </c>
       <c r="H52" s="1">
-        <v>45845.481932870367</v>
+        <v>45824.44427083333</v>
       </c>
       <c r="I52" s="2">
-        <v>9.5180787037024857</v>
+        <v>40</v>
       </c>
       <c r="J52" s="3">
-        <v>276.02</v>
+        <v>156.46</v>
       </c>
       <c r="K52" s="3">
-        <v>276.02</v>
+        <v>156.46</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
       </c>
       <c r="M52" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2707,7 +2713,7 @@
         <v>211110472</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -2716,31 +2722,31 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>10509</v>
+        <v>9627</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="G53" s="1">
-        <v>45882.471388888887</v>
+        <v>45861.535300925927</v>
       </c>
       <c r="H53" s="1">
-        <v>45852.471388888887</v>
+        <v>45831.535729166666</v>
       </c>
       <c r="I53" s="2">
-        <v>2.5286111111126957</v>
+        <v>33</v>
       </c>
       <c r="J53" s="3">
-        <v>316.33</v>
+        <v>244.68</v>
       </c>
       <c r="K53" s="3">
-        <v>316.33</v>
+        <v>244.68</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
       </c>
       <c r="M53" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2748,7 +2754,7 @@
         <v>211110472</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -2757,31 +2763,31 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>10787</v>
+        <v>10211</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
       </c>
       <c r="G54" s="1">
-        <v>45886.62290509259</v>
+        <v>45875.481921296298</v>
       </c>
       <c r="H54" s="1">
-        <v>45856.623715277776</v>
+        <v>45845.481932870367</v>
       </c>
       <c r="I54" s="2">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="J54" s="3">
-        <v>55.27</v>
+        <v>276.02</v>
       </c>
       <c r="K54" s="3">
-        <v>55.27</v>
+        <v>276.02</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
       </c>
       <c r="M54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2789,7 +2795,7 @@
         <v>211110472</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -2798,31 +2804,31 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>10813</v>
+        <v>10509</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="1">
-        <v>45889.484826388885</v>
+        <v>45882.471388888887</v>
       </c>
       <c r="H55" s="1">
-        <v>45859.484826388885</v>
+        <v>45852.471388888887</v>
       </c>
       <c r="I55" s="2">
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="J55" s="3">
-        <v>200.74</v>
+        <v>316.33</v>
       </c>
       <c r="K55" s="3">
-        <v>200.74</v>
+        <v>316.33</v>
       </c>
       <c r="L55" t="s">
         <v>16</v>
       </c>
       <c r="M55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2830,7 +2836,7 @@
         <v>211110472</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2839,31 +2845,31 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>11083</v>
+        <v>10787</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
       </c>
       <c r="G56" s="1">
-        <v>45893.645833333328</v>
+        <v>45886.62290509259</v>
       </c>
       <c r="H56" s="1">
-        <v>45863.645833333328</v>
+        <v>45856.623715277776</v>
       </c>
       <c r="I56" s="2">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="J56" s="3">
-        <v>54.58</v>
+        <v>55.27</v>
       </c>
       <c r="K56" s="3">
-        <v>54.58</v>
+        <v>55.27</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
       </c>
       <c r="M56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2871,7 +2877,7 @@
         <v>211110472</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2880,31 +2886,31 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>11097</v>
+        <v>10813</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
       </c>
       <c r="G57" s="1">
-        <v>45896.476898148147</v>
+        <v>45889.484826388885</v>
       </c>
       <c r="H57" s="1">
-        <v>45866.476909722223</v>
+        <v>45859.484826388885</v>
       </c>
       <c r="I57" s="2">
-        <v>-11</v>
+        <v>5</v>
       </c>
       <c r="J57" s="3">
-        <v>251.39000000000001</v>
+        <v>200.74</v>
       </c>
       <c r="K57" s="3">
-        <v>251.39000000000001</v>
+        <v>200.74</v>
       </c>
       <c r="L57" t="s">
         <v>16</v>
       </c>
       <c r="M57" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -2912,7 +2918,7 @@
         <v>211110472</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2921,31 +2927,31 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>11409</v>
+        <v>11083</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
       </c>
       <c r="G58" s="1">
-        <v>45903.568784722222</v>
+        <v>45893.645833333328</v>
       </c>
       <c r="H58" s="1">
-        <v>45873.568784722222</v>
+        <v>45863.645833333328</v>
       </c>
       <c r="I58" s="2">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="J58" s="3">
-        <v>55.120000000000005</v>
+        <v>54.58</v>
       </c>
       <c r="K58" s="3">
-        <v>55.120000000000005</v>
+        <v>54.58</v>
       </c>
       <c r="L58" t="s">
         <v>16</v>
       </c>
       <c r="M58" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -2953,7 +2959,7 @@
         <v>211110472</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -2962,25 +2968,25 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>11759</v>
+        <v>11097</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
       </c>
       <c r="G59" s="1">
-        <v>45911.499259259261</v>
+        <v>45896.476898148147</v>
       </c>
       <c r="H59" s="1">
-        <v>45881.499259259261</v>
+        <v>45866.476909722223</v>
       </c>
       <c r="I59" s="2">
-        <v>-26</v>
+        <v>-2</v>
       </c>
       <c r="J59" s="3">
-        <v>110.74000000000001</v>
+        <v>251.39000000000001</v>
       </c>
       <c r="K59" s="3">
-        <v>110.74000000000001</v>
+        <v>251.39000000000001</v>
       </c>
       <c r="L59" t="s">
         <v>16</v>
@@ -2991,92 +2997,92 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>211110601</v>
+        <v>211110472</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
-      <c r="D60">
-        <v>2025</v>
+      <c r="D60" t="s">
+        <v>15</v>
       </c>
       <c r="E60">
-        <v>62</v>
+        <v>11409</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
       </c>
       <c r="G60" s="1">
-        <v>45874.611296296294</v>
+        <v>45903.568784722222</v>
       </c>
       <c r="H60" s="1">
-        <v>45814.611319444441</v>
+        <v>45873.568784722222</v>
       </c>
       <c r="I60" s="2">
-        <v>10.388703703705687</v>
+        <v>-9</v>
       </c>
       <c r="J60" s="3">
-        <v>1149.52</v>
+        <v>55.120000000000005</v>
       </c>
       <c r="K60" s="3">
-        <v>1149.52</v>
+        <v>55.120000000000005</v>
       </c>
       <c r="L60" t="s">
         <v>16</v>
       </c>
       <c r="M60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>211110601</v>
+        <v>211110472</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
-      <c r="D61">
-        <v>2025</v>
+      <c r="D61" t="s">
+        <v>15</v>
       </c>
       <c r="E61">
-        <v>68</v>
+        <v>11759</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
       </c>
       <c r="G61" s="1">
-        <v>45874.685046296298</v>
+        <v>45911.499259259261</v>
       </c>
       <c r="H61" s="1">
-        <v>45814.685057870367</v>
+        <v>45881.499259259261</v>
       </c>
       <c r="I61" s="2">
-        <v>10.314953703702486</v>
+        <v>-17</v>
       </c>
       <c r="J61" s="3">
-        <v>124.59</v>
+        <v>110.74000000000001</v>
       </c>
       <c r="K61" s="3">
-        <v>124.59</v>
+        <v>110.74000000000001</v>
       </c>
       <c r="L61" t="s">
         <v>16</v>
       </c>
       <c r="M61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>211110601</v>
+        <v>211110472</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3085,25 +3091,25 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>9275</v>
+        <v>12123</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
       </c>
       <c r="G62" s="1">
-        <v>45884.33143518518</v>
+        <v>45920.52716435185</v>
       </c>
       <c r="H62" s="1">
-        <v>45824.332418981481</v>
+        <v>45890.52716435185</v>
       </c>
       <c r="I62" s="2">
-        <v>0.66856481481954688</v>
+        <v>-26</v>
       </c>
       <c r="J62" s="3">
-        <v>1044.22</v>
+        <v>53.26</v>
       </c>
       <c r="K62" s="3">
-        <v>1044.22</v>
+        <v>53.26</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
@@ -3117,40 +3123,40 @@
         <v>211110601</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
-      <c r="D63" t="s">
-        <v>15</v>
+      <c r="D63">
+        <v>2025</v>
       </c>
       <c r="E63">
-        <v>10190</v>
+        <v>62</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
       </c>
       <c r="G63" s="1">
-        <v>45902.667199074072</v>
+        <v>45874.611296296294</v>
       </c>
       <c r="H63" s="1">
-        <v>45842.669027777774</v>
+        <v>45814.611319444441</v>
       </c>
       <c r="I63" s="2">
-        <v>-17</v>
+        <v>20</v>
       </c>
       <c r="J63" s="3">
-        <v>732.56000000000006</v>
+        <v>1149.52</v>
       </c>
       <c r="K63" s="3">
-        <v>732.56000000000006</v>
+        <v>1149.52</v>
       </c>
       <c r="L63" t="s">
         <v>16</v>
       </c>
       <c r="M63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3158,40 +3164,40 @@
         <v>211110601</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
-      <c r="D64" t="s">
-        <v>15</v>
+      <c r="D64">
+        <v>2025</v>
       </c>
       <c r="E64">
-        <v>11072</v>
+        <v>68</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
       </c>
       <c r="G64" s="1">
-        <v>45923.525937499995</v>
+        <v>45874.685046296298</v>
       </c>
       <c r="H64" s="1">
-        <v>45863.525949074072</v>
+        <v>45814.685057870367</v>
       </c>
       <c r="I64" s="2">
-        <v>-38</v>
+        <v>20</v>
       </c>
       <c r="J64" s="3">
-        <v>1189.3500000000001</v>
+        <v>124.59</v>
       </c>
       <c r="K64" s="3">
-        <v>1189.3500000000001</v>
+        <v>124.59</v>
       </c>
       <c r="L64" t="s">
         <v>16</v>
       </c>
       <c r="M64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3199,7 +3205,7 @@
         <v>211110601</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -3208,80 +3214,80 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>11862</v>
+        <v>9275</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
       </c>
       <c r="G65" s="1">
-        <v>45942.658090277779</v>
+        <v>45884.33143518518</v>
       </c>
       <c r="H65" s="1">
-        <v>45882.665937500002</v>
+        <v>45824.332418981481</v>
       </c>
       <c r="I65" s="2">
-        <v>-57</v>
+        <v>10</v>
       </c>
       <c r="J65" s="3">
-        <v>804.67000000000007</v>
+        <v>1044.22</v>
       </c>
       <c r="K65" s="3">
-        <v>804.67000000000007</v>
+        <v>1044.22</v>
       </c>
       <c r="L65" t="s">
         <v>16</v>
       </c>
       <c r="M65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>211110972</v>
+        <v>211110601</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
       </c>
       <c r="E66">
-        <v>147</v>
+        <v>10190</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
       </c>
       <c r="G66" s="1">
-        <v>45719</v>
+        <v>45902.667199074072</v>
       </c>
       <c r="H66" s="1">
-        <v>45719</v>
+        <v>45842.669027777774</v>
       </c>
       <c r="I66" s="2">
-        <v>166</v>
+        <v>-8</v>
       </c>
       <c r="J66" s="3">
-        <v>-70.86</v>
+        <v>732.56000000000006</v>
       </c>
       <c r="K66" s="3">
-        <v>-70.86</v>
+        <v>732.56000000000006</v>
       </c>
       <c r="L66" t="s">
         <v>16</v>
       </c>
       <c r="M66" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>211110972</v>
+        <v>211110601</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -3290,39 +3296,39 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>7925</v>
+        <v>11072</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
       </c>
       <c r="G67" s="1">
-        <v>45793.585856481477</v>
+        <v>45923.525937499995</v>
       </c>
       <c r="H67" s="1">
-        <v>45793.585856481477</v>
+        <v>45863.525949074072</v>
       </c>
       <c r="I67" s="2">
-        <v>91.414143518522906</v>
+        <v>-29</v>
       </c>
       <c r="J67" s="3">
-        <v>305.11</v>
+        <v>1189.3500000000001</v>
       </c>
       <c r="K67" s="3">
-        <v>305.11</v>
+        <v>1189.3500000000001</v>
       </c>
       <c r="L67" t="s">
         <v>16</v>
       </c>
       <c r="M67" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>211111193</v>
+        <v>211110601</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -3331,39 +3337,39 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>10278</v>
+        <v>11862</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
       </c>
       <c r="G68" s="1">
-        <v>45876.453530092593</v>
+        <v>45942.658090277779</v>
       </c>
       <c r="H68" s="1">
-        <v>45846.45412037037</v>
+        <v>45882.665937500002</v>
       </c>
       <c r="I68" s="2">
-        <v>8.5464699074072996</v>
+        <v>-48</v>
       </c>
       <c r="J68" s="3">
-        <v>185.83</v>
+        <v>804.67000000000007</v>
       </c>
       <c r="K68" s="3">
-        <v>185.83</v>
+        <v>804.67000000000007</v>
       </c>
       <c r="L68" t="s">
         <v>16</v>
       </c>
       <c r="M68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>211111193</v>
+        <v>211110601</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -3372,39 +3378,39 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>10417</v>
+        <v>12205</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
       </c>
       <c r="G69" s="1">
-        <v>45878.429606481477</v>
+        <v>45951.486747685187</v>
       </c>
       <c r="H69" s="1">
-        <v>45848.429606481477</v>
+        <v>45891.488124999996</v>
       </c>
       <c r="I69" s="2">
-        <v>6.5703935185229057</v>
+        <v>-57</v>
       </c>
       <c r="J69" s="3">
-        <v>157.53</v>
+        <v>775.22</v>
       </c>
       <c r="K69" s="3">
-        <v>157.53</v>
+        <v>775.22</v>
       </c>
       <c r="L69" t="s">
         <v>16</v>
       </c>
       <c r="M69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>211111193</v>
+        <v>211110601</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3413,80 +3419,80 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>10587</v>
+        <v>12207</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
       </c>
       <c r="G70" s="1">
-        <v>45883.65898148148</v>
+        <v>45951.498171296291</v>
       </c>
       <c r="H70" s="1">
-        <v>45853.659224537034</v>
+        <v>45891.498182870368</v>
       </c>
       <c r="I70" s="2">
-        <v>1.3410185185202863</v>
+        <v>-57</v>
       </c>
       <c r="J70" s="3">
-        <v>256.97000000000003</v>
+        <v>62.72</v>
       </c>
       <c r="K70" s="3">
-        <v>256.97000000000003</v>
+        <v>62.72</v>
       </c>
       <c r="L70" t="s">
         <v>16</v>
       </c>
       <c r="M70" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>211111193</v>
+        <v>211110972</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D71">
+        <v>2025</v>
       </c>
       <c r="E71">
-        <v>11464</v>
+        <v>147</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
       </c>
       <c r="G71" s="1">
-        <v>45904.599629629629</v>
+        <v>45719</v>
       </c>
       <c r="H71" s="1">
-        <v>45874.600023148145</v>
+        <v>45719</v>
       </c>
       <c r="I71" s="2">
-        <v>-19</v>
+        <v>175</v>
       </c>
       <c r="J71" s="3">
-        <v>150.27000000000001</v>
+        <v>-70.86</v>
       </c>
       <c r="K71" s="3">
-        <v>150.27000000000001</v>
+        <v>-70.86</v>
       </c>
       <c r="L71" t="s">
         <v>16</v>
       </c>
       <c r="M71" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>211111387</v>
+        <v>211110972</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -3495,39 +3501,39 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>9950</v>
+        <v>7925</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
       </c>
       <c r="G72" s="1">
-        <v>45870.400196759256</v>
+        <v>45793.585856481477</v>
       </c>
       <c r="H72" s="1">
-        <v>45840.403055555551</v>
+        <v>45793.585856481477</v>
       </c>
       <c r="I72" s="2">
-        <v>14.599803240744222</v>
+        <v>101</v>
       </c>
       <c r="J72" s="3">
-        <v>199.05</v>
+        <v>305.11</v>
       </c>
       <c r="K72" s="3">
-        <v>199.05</v>
+        <v>305.11</v>
       </c>
       <c r="L72" t="s">
         <v>16</v>
       </c>
       <c r="M72" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>211111387</v>
+        <v>211111193</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -3536,25 +3542,25 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>10220</v>
+        <v>10278</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
       </c>
       <c r="G73" s="1">
-        <v>45875.488275462958</v>
+        <v>45876.453530092593</v>
       </c>
       <c r="H73" s="1">
-        <v>45845.488275462958</v>
+        <v>45846.45412037037</v>
       </c>
       <c r="I73" s="2">
-        <v>9.5117245370420278</v>
+        <v>18</v>
       </c>
       <c r="J73" s="3">
-        <v>129.57</v>
+        <v>185.83</v>
       </c>
       <c r="K73" s="3">
-        <v>129.57</v>
+        <v>185.83</v>
       </c>
       <c r="L73" t="s">
         <v>16</v>
@@ -3565,10 +3571,10 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>211111387</v>
+        <v>211111193</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3577,25 +3583,25 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>10288</v>
+        <v>10417</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
       </c>
       <c r="G74" s="1">
-        <v>45876.543657407405</v>
+        <v>45878.429606481477</v>
       </c>
       <c r="H74" s="1">
-        <v>45846.543877314813</v>
+        <v>45848.429606481477</v>
       </c>
       <c r="I74" s="2">
-        <v>8.4563425925953197</v>
+        <v>16</v>
       </c>
       <c r="J74" s="3">
-        <v>270.58</v>
+        <v>157.53</v>
       </c>
       <c r="K74" s="3">
-        <v>270.58</v>
+        <v>157.53</v>
       </c>
       <c r="L74" t="s">
         <v>16</v>
@@ -3606,10 +3612,10 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>211111387</v>
+        <v>211111193</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3618,31 +3624,31 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>10520</v>
+        <v>11464</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
       </c>
       <c r="G75" s="1">
-        <v>45882.479305555556</v>
+        <v>45904.599629629629</v>
       </c>
       <c r="H75" s="1">
-        <v>45852.479317129626</v>
+        <v>45874.600023148145</v>
       </c>
       <c r="I75" s="2">
-        <v>2.5206944444435067</v>
+        <v>-10</v>
       </c>
       <c r="J75" s="3">
-        <v>309.35000000000002</v>
+        <v>150.27000000000001</v>
       </c>
       <c r="K75" s="3">
-        <v>309.35000000000002</v>
+        <v>150.27000000000001</v>
       </c>
       <c r="L75" t="s">
         <v>16</v>
       </c>
       <c r="M75" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3650,7 +3656,7 @@
         <v>211111387</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3659,31 +3665,31 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>10553</v>
+        <v>9950</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
       </c>
       <c r="G76" s="1">
-        <v>45883.416145833333</v>
+        <v>45870.400196759256</v>
       </c>
       <c r="H76" s="1">
-        <v>45853.416481481479</v>
+        <v>45840.403055555551</v>
       </c>
       <c r="I76" s="2">
-        <v>1.5838541666671517</v>
+        <v>24</v>
       </c>
       <c r="J76" s="3">
-        <v>131.41</v>
+        <v>199.05</v>
       </c>
       <c r="K76" s="3">
-        <v>131.41</v>
+        <v>199.05</v>
       </c>
       <c r="L76" t="s">
         <v>16</v>
       </c>
       <c r="M76" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3691,7 +3697,7 @@
         <v>211111387</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3700,31 +3706,31 @@
         <v>15</v>
       </c>
       <c r="E77">
-        <v>10809</v>
+        <v>10220</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
       </c>
       <c r="G77" s="1">
-        <v>45889.482916666668</v>
+        <v>45875.488275462958</v>
       </c>
       <c r="H77" s="1">
-        <v>45859.482916666668</v>
+        <v>45845.488275462958</v>
       </c>
       <c r="I77" s="2">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="J77" s="3">
-        <v>395.15000000000003</v>
+        <v>129.57</v>
       </c>
       <c r="K77" s="3">
-        <v>395.15000000000003</v>
+        <v>129.57</v>
       </c>
       <c r="L77" t="s">
         <v>16</v>
       </c>
       <c r="M77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3732,40 +3738,40 @@
         <v>211111387</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
       </c>
       <c r="E78">
-        <v>684</v>
+        <v>10288</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
       </c>
       <c r="G78" s="1">
-        <v>45892</v>
+        <v>45876.543657407405</v>
       </c>
       <c r="H78" s="1">
-        <v>45862</v>
+        <v>45846.543877314813</v>
       </c>
       <c r="I78" s="2">
-        <v>-7</v>
+        <v>18</v>
       </c>
       <c r="J78" s="3">
-        <v>-13.73</v>
+        <v>270.58</v>
       </c>
       <c r="K78" s="3">
-        <v>-13.73</v>
+        <v>270.58</v>
       </c>
       <c r="L78" t="s">
         <v>16</v>
       </c>
       <c r="M78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3773,7 +3779,7 @@
         <v>211111387</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3782,31 +3788,31 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>11094</v>
+        <v>10520</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
       </c>
       <c r="G79" s="1">
-        <v>45896.473761574074</v>
+        <v>45882.479305555556</v>
       </c>
       <c r="H79" s="1">
-        <v>45866.473761574074</v>
+        <v>45852.479317129626</v>
       </c>
       <c r="I79" s="2">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="J79" s="3">
-        <v>299.01</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="K79" s="3">
-        <v>299.01</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="L79" t="s">
         <v>16</v>
       </c>
       <c r="M79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3814,7 +3820,7 @@
         <v>211111387</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3823,31 +3829,31 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>11136</v>
+        <v>10553</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
       </c>
       <c r="G80" s="1">
-        <v>45896.75268518518</v>
+        <v>45883.416145833333</v>
       </c>
       <c r="H80" s="1">
-        <v>45866.754085648143</v>
+        <v>45853.416481481479</v>
       </c>
       <c r="I80" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="J80" s="3">
-        <v>395.47</v>
+        <v>131.41</v>
       </c>
       <c r="K80" s="3">
-        <v>395.47</v>
+        <v>131.41</v>
       </c>
       <c r="L80" t="s">
         <v>16</v>
       </c>
       <c r="M80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3855,7 +3861,7 @@
         <v>211111387</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3864,31 +3870,31 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>11263</v>
+        <v>10809</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
       </c>
       <c r="G81" s="1">
-        <v>45899.415798611109</v>
+        <v>45889.482916666668</v>
       </c>
       <c r="H81" s="1">
-        <v>45869.416585648149</v>
+        <v>45859.482916666668</v>
       </c>
       <c r="I81" s="2">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="J81" s="3">
-        <v>111.83</v>
+        <v>395.15000000000003</v>
       </c>
       <c r="K81" s="3">
-        <v>111.83</v>
+        <v>395.15000000000003</v>
       </c>
       <c r="L81" t="s">
         <v>16</v>
       </c>
       <c r="M81" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3896,40 +3902,40 @@
         <v>211111387</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D82">
+        <v>2025</v>
       </c>
       <c r="E82">
-        <v>11378</v>
+        <v>684</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
       </c>
       <c r="G82" s="1">
-        <v>45903.47488425926</v>
+        <v>45892</v>
       </c>
       <c r="H82" s="1">
-        <v>45873.47488425926</v>
+        <v>45862</v>
       </c>
       <c r="I82" s="2">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="J82" s="3">
-        <v>601.37</v>
+        <v>-13.73</v>
       </c>
       <c r="K82" s="3">
-        <v>601.37</v>
+        <v>-13.73</v>
       </c>
       <c r="L82" t="s">
         <v>16</v>
       </c>
       <c r="M82" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3937,7 +3943,7 @@
         <v>211111387</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3946,25 +3952,25 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>11720</v>
+        <v>11094</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
       </c>
       <c r="G83" s="1">
-        <v>45910.544293981482</v>
+        <v>45896.473761574074</v>
       </c>
       <c r="H83" s="1">
-        <v>45880.544293981482</v>
+        <v>45866.473761574074</v>
       </c>
       <c r="I83" s="2">
-        <v>-25</v>
+        <v>-2</v>
       </c>
       <c r="J83" s="3">
-        <v>350.65000000000003</v>
+        <v>299.01</v>
       </c>
       <c r="K83" s="3">
-        <v>350.65000000000003</v>
+        <v>299.01</v>
       </c>
       <c r="L83" t="s">
         <v>16</v>
@@ -3978,7 +3984,7 @@
         <v>211111387</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -3987,25 +3993,25 @@
         <v>15</v>
       </c>
       <c r="E84">
-        <v>11921</v>
+        <v>11136</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
       </c>
       <c r="G84" s="1">
-        <v>45913.619004629625</v>
+        <v>45896.75268518518</v>
       </c>
       <c r="H84" s="1">
-        <v>45883.619282407402</v>
+        <v>45866.754085648143</v>
       </c>
       <c r="I84" s="2">
-        <v>-28</v>
+        <v>-2</v>
       </c>
       <c r="J84" s="3">
-        <v>139.30000000000001</v>
+        <v>395.47</v>
       </c>
       <c r="K84" s="3">
-        <v>139.30000000000001</v>
+        <v>395.47</v>
       </c>
       <c r="L84" t="s">
         <v>16</v>
@@ -4016,10 +4022,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>211111478</v>
+        <v>211111387</v>
       </c>
       <c r="B85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -4028,25 +4034,25 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>10964</v>
+        <v>11263</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
       </c>
       <c r="G85" s="1">
-        <v>45891.654791666668</v>
+        <v>45899.415798611109</v>
       </c>
       <c r="H85" s="1">
-        <v>45861.655266203699</v>
+        <v>45869.416585648149</v>
       </c>
       <c r="I85" s="2">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="J85" s="3">
-        <v>78.75</v>
+        <v>111.83</v>
       </c>
       <c r="K85" s="3">
-        <v>78.75</v>
+        <v>111.83</v>
       </c>
       <c r="L85" t="s">
         <v>16</v>
@@ -4057,10 +4063,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211111478</v>
+        <v>211111387</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4069,25 +4075,25 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>11256</v>
+        <v>11378</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
       </c>
       <c r="G86" s="1">
-        <v>45899.266192129631</v>
+        <v>45903.47488425926</v>
       </c>
       <c r="H86" s="1">
-        <v>45869.26662037037</v>
+        <v>45873.47488425926</v>
       </c>
       <c r="I86" s="2">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="J86" s="3">
-        <v>24.94</v>
+        <v>601.37</v>
       </c>
       <c r="K86" s="3">
-        <v>24.94</v>
+        <v>601.37</v>
       </c>
       <c r="L86" t="s">
         <v>16</v>
@@ -4098,10 +4104,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211111478</v>
+        <v>211111387</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4110,25 +4116,25 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>11465</v>
+        <v>11720</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
       </c>
       <c r="G87" s="1">
-        <v>45904.638726851852</v>
+        <v>45910.544293981482</v>
       </c>
       <c r="H87" s="1">
-        <v>45874.640844907408</v>
+        <v>45880.544293981482</v>
       </c>
       <c r="I87" s="2">
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="J87" s="3">
-        <v>72.960000000000008</v>
+        <v>350.65000000000003</v>
       </c>
       <c r="K87" s="3">
-        <v>72.960000000000008</v>
+        <v>350.65000000000003</v>
       </c>
       <c r="L87" t="s">
         <v>16</v>
@@ -4139,10 +4145,10 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211111506</v>
+        <v>211111387</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4151,25 +4157,25 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>11583</v>
+        <v>11921</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
       </c>
       <c r="G88" s="1">
-        <v>45906.501307870371</v>
+        <v>45913.619004629625</v>
       </c>
       <c r="H88" s="1">
-        <v>45876.50168981481</v>
+        <v>45883.619282407402</v>
       </c>
       <c r="I88" s="2">
-        <v>-21</v>
+        <v>-19</v>
       </c>
       <c r="J88" s="3">
-        <v>67.38</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="K88" s="3">
-        <v>67.38</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="L88" t="s">
         <v>16</v>
@@ -4180,10 +4186,10 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211111506</v>
+        <v>211111387</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -4192,25 +4198,25 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>11677</v>
+        <v>11958</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
       </c>
       <c r="G89" s="1">
-        <v>45910.310439814813</v>
+        <v>45917.500104166662</v>
       </c>
       <c r="H89" s="1">
-        <v>45880.311342592591</v>
+        <v>45887.501932870371</v>
       </c>
       <c r="I89" s="2">
-        <v>-25</v>
+        <v>-23</v>
       </c>
       <c r="J89" s="3">
-        <v>264.34000000000003</v>
+        <v>421.36</v>
       </c>
       <c r="K89" s="3">
-        <v>264.34000000000003</v>
+        <v>421.36</v>
       </c>
       <c r="L89" t="s">
         <v>16</v>
@@ -4221,10 +4227,10 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211111506</v>
+        <v>211111478</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -4233,80 +4239,80 @@
         <v>15</v>
       </c>
       <c r="E90">
-        <v>11724</v>
+        <v>10964</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
       </c>
       <c r="G90" s="1">
-        <v>45910.679965277777</v>
+        <v>45891.654791666668</v>
       </c>
       <c r="H90" s="1">
-        <v>45880.682187499995</v>
+        <v>45861.655266203699</v>
       </c>
       <c r="I90" s="2">
-        <v>-25</v>
+        <v>3</v>
       </c>
       <c r="J90" s="3">
-        <v>345.66</v>
+        <v>78.75</v>
       </c>
       <c r="K90" s="3">
-        <v>345.66</v>
+        <v>78.75</v>
       </c>
       <c r="L90" t="s">
         <v>16</v>
       </c>
       <c r="M90" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211111625</v>
+        <v>211111478</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
       </c>
       <c r="E91">
-        <v>602</v>
+        <v>11256</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
       </c>
       <c r="G91" s="1">
-        <v>45869</v>
+        <v>45899.266192129631</v>
       </c>
       <c r="H91" s="1">
-        <v>45839</v>
+        <v>45869.26662037037</v>
       </c>
       <c r="I91" s="2">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="J91" s="3">
-        <v>-38.380000000000003</v>
+        <v>24.94</v>
       </c>
       <c r="K91" s="3">
-        <v>-38.380000000000003</v>
+        <v>24.94</v>
       </c>
       <c r="L91" t="s">
         <v>16</v>
       </c>
       <c r="M91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211111625</v>
+        <v>211111478</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -4315,39 +4321,39 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>9936</v>
+        <v>11465</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
       </c>
       <c r="G92" s="1">
-        <v>45869.406018518515</v>
+        <v>45904.638726851852</v>
       </c>
       <c r="H92" s="1">
-        <v>45839.407280092593</v>
+        <v>45874.640844907408</v>
       </c>
       <c r="I92" s="2">
-        <v>15.593981481484661</v>
+        <v>-10</v>
       </c>
       <c r="J92" s="3">
-        <v>328.58</v>
+        <v>72.960000000000008</v>
       </c>
       <c r="K92" s="3">
-        <v>328.58</v>
+        <v>72.960000000000008</v>
       </c>
       <c r="L92" t="s">
         <v>16</v>
       </c>
       <c r="M92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211111625</v>
+        <v>211111506</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -4356,39 +4362,39 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>10240</v>
+        <v>11968</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
       </c>
       <c r="G93" s="1">
-        <v>45876.326597222222</v>
+        <v>45917.587361111109</v>
       </c>
       <c r="H93" s="1">
-        <v>45846.327291666668</v>
+        <v>45887.587789351848</v>
       </c>
       <c r="I93" s="2">
-        <v>8.6734027777783922</v>
+        <v>-23</v>
       </c>
       <c r="J93" s="3">
-        <v>301.90000000000003</v>
+        <v>199.9</v>
       </c>
       <c r="K93" s="3">
-        <v>301.90000000000003</v>
+        <v>199.9</v>
       </c>
       <c r="L93" t="s">
         <v>16</v>
       </c>
       <c r="M93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211111625</v>
+        <v>211111506</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4397,25 +4403,25 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>11145</v>
+        <v>11971</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
       </c>
       <c r="G94" s="1">
-        <v>45897.404432870368</v>
+        <v>45917.595879629625</v>
       </c>
       <c r="H94" s="1">
-        <v>45867.405844907407</v>
+        <v>45887.596631944441</v>
       </c>
       <c r="I94" s="2">
-        <v>-12</v>
+        <v>-23</v>
       </c>
       <c r="J94" s="3">
-        <v>89.11</v>
+        <v>147.93</v>
       </c>
       <c r="K94" s="3">
-        <v>89.11</v>
+        <v>147.93</v>
       </c>
       <c r="L94" t="s">
         <v>16</v>
@@ -4426,10 +4432,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211111625</v>
+        <v>211111506</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -4438,25 +4444,25 @@
         <v>15</v>
       </c>
       <c r="E95">
-        <v>11175</v>
+        <v>11983</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
       </c>
       <c r="G95" s="1">
-        <v>45897.554768518516</v>
+        <v>45918.311018518514</v>
       </c>
       <c r="H95" s="1">
-        <v>45867.554780092592</v>
+        <v>45888.311354166668</v>
       </c>
       <c r="I95" s="2">
-        <v>-12</v>
+        <v>-24</v>
       </c>
       <c r="J95" s="3">
-        <v>742.58</v>
+        <v>53.26</v>
       </c>
       <c r="K95" s="3">
-        <v>742.58</v>
+        <v>53.26</v>
       </c>
       <c r="L95" t="s">
         <v>16</v>
@@ -4467,10 +4473,10 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211111625</v>
+        <v>211111506</v>
       </c>
       <c r="B96" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -4479,25 +4485,25 @@
         <v>15</v>
       </c>
       <c r="E96">
-        <v>11311</v>
+        <v>12023</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
       </c>
       <c r="G96" s="1">
-        <v>45900.455590277779</v>
+        <v>45918.567291666666</v>
       </c>
       <c r="H96" s="1">
-        <v>45870.455590277779</v>
+        <v>45888.567546296297</v>
       </c>
       <c r="I96" s="2">
-        <v>-15</v>
+        <v>-24</v>
       </c>
       <c r="J96" s="3">
-        <v>528.91999999999996</v>
+        <v>390.39</v>
       </c>
       <c r="K96" s="3">
-        <v>528.91999999999996</v>
+        <v>390.39</v>
       </c>
       <c r="L96" t="s">
         <v>16</v>
@@ -4511,40 +4517,40 @@
         <v>211111625</v>
       </c>
       <c r="B97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D97">
+        <v>2025</v>
       </c>
       <c r="E97">
-        <v>11455</v>
+        <v>602</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
       </c>
       <c r="G97" s="1">
-        <v>45904.54042824074</v>
+        <v>45869</v>
       </c>
       <c r="H97" s="1">
-        <v>45874.54042824074</v>
+        <v>45839</v>
       </c>
       <c r="I97" s="2">
-        <v>-19</v>
+        <v>25</v>
       </c>
       <c r="J97" s="3">
-        <v>1218.51</v>
+        <v>-38.380000000000003</v>
       </c>
       <c r="K97" s="3">
-        <v>1218.51</v>
+        <v>-38.380000000000003</v>
       </c>
       <c r="L97" t="s">
         <v>16</v>
       </c>
       <c r="M97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4552,7 +4558,7 @@
         <v>211111625</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -4561,39 +4567,39 @@
         <v>15</v>
       </c>
       <c r="E98">
-        <v>11739</v>
+        <v>9936</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
       </c>
       <c r="G98" s="1">
-        <v>45911.439444444441</v>
+        <v>45869.406018518515</v>
       </c>
       <c r="H98" s="1">
-        <v>45881.439444444441</v>
+        <v>45839.407280092593</v>
       </c>
       <c r="I98" s="2">
-        <v>-26</v>
+        <v>25</v>
       </c>
       <c r="J98" s="3">
-        <v>116.93</v>
+        <v>328.58</v>
       </c>
       <c r="K98" s="3">
-        <v>116.93</v>
+        <v>328.58</v>
       </c>
       <c r="L98" t="s">
         <v>16</v>
       </c>
       <c r="M98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211111888</v>
+        <v>211111625</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4602,39 +4608,39 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>9715</v>
+        <v>11145</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
       </c>
       <c r="G99" s="1">
-        <v>45863.515474537038</v>
+        <v>45897.404432870368</v>
       </c>
       <c r="H99" s="1">
-        <v>45833.517407407402</v>
+        <v>45867.405844907407</v>
       </c>
       <c r="I99" s="2">
-        <v>21.484525462961756</v>
+        <v>-3</v>
       </c>
       <c r="J99" s="3">
-        <v>951.75</v>
+        <v>89.11</v>
       </c>
       <c r="K99" s="3">
-        <v>951.75</v>
+        <v>89.11</v>
       </c>
       <c r="L99" t="s">
         <v>16</v>
       </c>
       <c r="M99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211111888</v>
+        <v>211111625</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -4643,39 +4649,39 @@
         <v>15</v>
       </c>
       <c r="E100">
-        <v>9933</v>
+        <v>11175</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
       </c>
       <c r="G100" s="1">
-        <v>45869.385451388887</v>
+        <v>45897.554768518516</v>
       </c>
       <c r="H100" s="1">
-        <v>45839.386840277773</v>
+        <v>45867.554780092592</v>
       </c>
       <c r="I100" s="2">
-        <v>15.614548611112696</v>
+        <v>-3</v>
       </c>
       <c r="J100" s="3">
-        <v>78.92</v>
+        <v>742.58</v>
       </c>
       <c r="K100" s="3">
-        <v>78.92</v>
+        <v>742.58</v>
       </c>
       <c r="L100" t="s">
         <v>16</v>
       </c>
       <c r="M100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211111888</v>
+        <v>211111625</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -4684,39 +4690,39 @@
         <v>15</v>
       </c>
       <c r="E101">
-        <v>10054</v>
+        <v>11311</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
       </c>
       <c r="G101" s="1">
-        <v>45871.521666666667</v>
+        <v>45900.455590277779</v>
       </c>
       <c r="H101" s="1">
-        <v>45841.521666666667</v>
+        <v>45870.455590277779</v>
       </c>
       <c r="I101" s="2">
-        <v>13.478333333332557</v>
+        <v>-6</v>
       </c>
       <c r="J101" s="3">
-        <v>81.25</v>
+        <v>528.91999999999996</v>
       </c>
       <c r="K101" s="3">
-        <v>81.25</v>
+        <v>528.91999999999996</v>
       </c>
       <c r="L101" t="s">
         <v>16</v>
       </c>
       <c r="M101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211111888</v>
+        <v>211111625</v>
       </c>
       <c r="B102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -4725,39 +4731,39 @@
         <v>15</v>
       </c>
       <c r="E102">
-        <v>10144</v>
+        <v>11455</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
       </c>
       <c r="G102" s="1">
-        <v>45872.453831018516</v>
+        <v>45904.54042824074</v>
       </c>
       <c r="H102" s="1">
-        <v>45842.453831018516</v>
+        <v>45874.54042824074</v>
       </c>
       <c r="I102" s="2">
-        <v>12.546168981483788</v>
+        <v>-10</v>
       </c>
       <c r="J102" s="3">
-        <v>833.06000000000006</v>
+        <v>1218.51</v>
       </c>
       <c r="K102" s="3">
-        <v>833.06000000000006</v>
+        <v>1218.51</v>
       </c>
       <c r="L102" t="s">
         <v>16</v>
       </c>
       <c r="M102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211111888</v>
+        <v>211111625</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4766,39 +4772,39 @@
         <v>15</v>
       </c>
       <c r="E103">
-        <v>10277</v>
+        <v>11739</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
       </c>
       <c r="G103" s="1">
-        <v>45876.441319444442</v>
+        <v>45911.439444444441</v>
       </c>
       <c r="H103" s="1">
-        <v>45846.441319444442</v>
+        <v>45881.439444444441</v>
       </c>
       <c r="I103" s="2">
-        <v>8.5586805555576575</v>
+        <v>-17</v>
       </c>
       <c r="J103" s="3">
-        <v>1056.32</v>
+        <v>116.93</v>
       </c>
       <c r="K103" s="3">
-        <v>1056.32</v>
+        <v>116.93</v>
       </c>
       <c r="L103" t="s">
         <v>16</v>
       </c>
       <c r="M103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>211111888</v>
+        <v>211111625</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -4807,72 +4813,72 @@
         <v>15</v>
       </c>
       <c r="E104">
-        <v>10352</v>
+        <v>12012</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
       </c>
       <c r="G104" s="1">
-        <v>45877.450138888889</v>
+        <v>45918.532141203701</v>
       </c>
       <c r="H104" s="1">
-        <v>45847.450150462959</v>
+        <v>45888.532141203701</v>
       </c>
       <c r="I104" s="2">
-        <v>7.5498611111106584</v>
+        <v>-24</v>
       </c>
       <c r="J104" s="3">
-        <v>210.29</v>
+        <v>1075.79</v>
       </c>
       <c r="K104" s="3">
-        <v>210.29</v>
+        <v>1075.79</v>
       </c>
       <c r="L104" t="s">
         <v>16</v>
       </c>
       <c r="M104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>211111888</v>
+        <v>211111625</v>
       </c>
       <c r="B105" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
-      </c>
-      <c r="D105">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
       </c>
       <c r="E105">
-        <v>636</v>
+        <v>12193</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
       </c>
       <c r="G105" s="1">
-        <v>45878</v>
+        <v>45921.441585648143</v>
       </c>
       <c r="H105" s="1">
-        <v>45848</v>
+        <v>45891.441585648143</v>
       </c>
       <c r="I105" s="2">
-        <v>7</v>
+        <v>-27</v>
       </c>
       <c r="J105" s="3">
-        <v>-507.94</v>
+        <v>655.7</v>
       </c>
       <c r="K105" s="3">
-        <v>-507.94</v>
+        <v>655.7</v>
       </c>
       <c r="L105" t="s">
         <v>16</v>
       </c>
       <c r="M105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4880,7 +4886,7 @@
         <v>211111888</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -4889,25 +4895,25 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <v>10419</v>
+        <v>10144</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
       </c>
       <c r="G106" s="1">
-        <v>45878.429652777777</v>
+        <v>45872.453831018516</v>
       </c>
       <c r="H106" s="1">
-        <v>45848.429652777777</v>
+        <v>45842.453831018516</v>
       </c>
       <c r="I106" s="2">
-        <v>6.570347222223063</v>
+        <v>22</v>
       </c>
       <c r="J106" s="3">
-        <v>540.54999999999995</v>
+        <v>833.06000000000006</v>
       </c>
       <c r="K106" s="3">
-        <v>540.54999999999995</v>
+        <v>833.06000000000006</v>
       </c>
       <c r="L106" t="s">
         <v>16</v>
@@ -4921,7 +4927,7 @@
         <v>211111888</v>
       </c>
       <c r="B107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4930,31 +4936,31 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>10477</v>
+        <v>10277</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
       </c>
       <c r="G107" s="1">
-        <v>45879.432314814811</v>
+        <v>45876.441319444442</v>
       </c>
       <c r="H107" s="1">
-        <v>45849.432314814811</v>
+        <v>45846.441319444442</v>
       </c>
       <c r="I107" s="2">
-        <v>5.5676851851894753</v>
+        <v>18</v>
       </c>
       <c r="J107" s="3">
-        <v>165.06</v>
+        <v>1056.32</v>
       </c>
       <c r="K107" s="3">
-        <v>165.06</v>
+        <v>1056.32</v>
       </c>
       <c r="L107" t="s">
         <v>16</v>
       </c>
       <c r="M107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -4962,7 +4968,7 @@
         <v>211111888</v>
       </c>
       <c r="B108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -4971,31 +4977,31 @@
         <v>15</v>
       </c>
       <c r="E108">
-        <v>10508</v>
+        <v>10352</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
       </c>
       <c r="G108" s="1">
-        <v>45882.471365740741</v>
+        <v>45877.450138888889</v>
       </c>
       <c r="H108" s="1">
-        <v>45852.471365740741</v>
+        <v>45847.450150462959</v>
       </c>
       <c r="I108" s="2">
-        <v>2.528634259258979</v>
+        <v>17</v>
       </c>
       <c r="J108" s="3">
-        <v>110.59</v>
+        <v>210.29</v>
       </c>
       <c r="K108" s="3">
-        <v>110.59</v>
+        <v>210.29</v>
       </c>
       <c r="L108" t="s">
         <v>16</v>
       </c>
       <c r="M108" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5003,40 +5009,40 @@
         <v>211111888</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D109">
+        <v>2025</v>
       </c>
       <c r="E109">
-        <v>10519</v>
+        <v>636</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
       </c>
       <c r="G109" s="1">
-        <v>45882.479282407403</v>
+        <v>45878</v>
       </c>
       <c r="H109" s="1">
-        <v>45852.479282407403</v>
+        <v>45848</v>
       </c>
       <c r="I109" s="2">
-        <v>2.520717592597066</v>
+        <v>16</v>
       </c>
       <c r="J109" s="3">
-        <v>439.56</v>
+        <v>-507.94</v>
       </c>
       <c r="K109" s="3">
-        <v>439.56</v>
+        <v>-507.94</v>
       </c>
       <c r="L109" t="s">
         <v>16</v>
       </c>
       <c r="M109" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5044,7 +5050,7 @@
         <v>211111888</v>
       </c>
       <c r="B110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -5053,31 +5059,31 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <v>10626</v>
+        <v>10419</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
       </c>
       <c r="G110" s="1">
-        <v>45884.449004629627</v>
+        <v>45878.429652777777</v>
       </c>
       <c r="H110" s="1">
-        <v>45854.449004629627</v>
+        <v>45848.429652777777</v>
       </c>
       <c r="I110" s="2">
-        <v>0.55099537037312984</v>
+        <v>16</v>
       </c>
       <c r="J110" s="3">
-        <v>49.69</v>
+        <v>540.54999999999995</v>
       </c>
       <c r="K110" s="3">
-        <v>49.69</v>
+        <v>540.54999999999995</v>
       </c>
       <c r="L110" t="s">
         <v>16</v>
       </c>
       <c r="M110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5085,7 +5091,7 @@
         <v>211111888</v>
       </c>
       <c r="B111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5094,31 +5100,31 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>10811</v>
+        <v>10477</v>
       </c>
       <c r="F111" t="s">
         <v>19</v>
       </c>
       <c r="G111" s="1">
-        <v>45889.48296296296</v>
+        <v>45879.432314814811</v>
       </c>
       <c r="H111" s="1">
-        <v>45859.48296296296</v>
+        <v>45849.432314814811</v>
       </c>
       <c r="I111" s="2">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="J111" s="3">
-        <v>481.88</v>
+        <v>165.06</v>
       </c>
       <c r="K111" s="3">
-        <v>481.88</v>
+        <v>165.06</v>
       </c>
       <c r="L111" t="s">
         <v>16</v>
       </c>
       <c r="M111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5126,40 +5132,40 @@
         <v>211111888</v>
       </c>
       <c r="B112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
       </c>
       <c r="E112">
-        <v>666</v>
+        <v>10508</v>
       </c>
       <c r="F112" t="s">
         <v>19</v>
       </c>
       <c r="G112" s="1">
-        <v>45891</v>
+        <v>45882.471365740741</v>
       </c>
       <c r="H112" s="1">
-        <v>45861</v>
+        <v>45852.471365740741</v>
       </c>
       <c r="I112" s="2">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="J112" s="3">
-        <v>-359.47</v>
+        <v>110.59</v>
       </c>
       <c r="K112" s="3">
-        <v>-359.47</v>
+        <v>110.59</v>
       </c>
       <c r="L112" t="s">
         <v>16</v>
       </c>
       <c r="M112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5167,40 +5173,40 @@
         <v>211111888</v>
       </c>
       <c r="B113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D113" t="s">
+        <v>15</v>
       </c>
       <c r="E113">
-        <v>679</v>
+        <v>10519</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
       </c>
       <c r="G113" s="1">
-        <v>45892</v>
+        <v>45882.479282407403</v>
       </c>
       <c r="H113" s="1">
-        <v>45862</v>
+        <v>45852.479282407403</v>
       </c>
       <c r="I113" s="2">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="J113" s="3">
-        <v>-11.61</v>
+        <v>439.56</v>
       </c>
       <c r="K113" s="3">
-        <v>-11.61</v>
+        <v>439.56</v>
       </c>
       <c r="L113" t="s">
         <v>16</v>
       </c>
       <c r="M113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5208,7 +5214,7 @@
         <v>211111888</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -5217,31 +5223,31 @@
         <v>15</v>
       </c>
       <c r="E114">
-        <v>10999</v>
+        <v>10626</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
       </c>
       <c r="G114" s="1">
-        <v>45892.498240740737</v>
+        <v>45884.449004629627</v>
       </c>
       <c r="H114" s="1">
-        <v>45862.498240740737</v>
+        <v>45854.449004629627</v>
       </c>
       <c r="I114" s="2">
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="J114" s="3">
-        <v>134.38</v>
+        <v>49.69</v>
       </c>
       <c r="K114" s="3">
-        <v>134.38</v>
+        <v>49.69</v>
       </c>
       <c r="L114" t="s">
         <v>16</v>
       </c>
       <c r="M114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5249,7 +5255,7 @@
         <v>211111888</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -5258,31 +5264,31 @@
         <v>15</v>
       </c>
       <c r="E115">
-        <v>11123</v>
+        <v>10811</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
       </c>
       <c r="G115" s="1">
-        <v>45896.546006944445</v>
+        <v>45889.48296296296</v>
       </c>
       <c r="H115" s="1">
-        <v>45866.547673611109</v>
+        <v>45859.48296296296</v>
       </c>
       <c r="I115" s="2">
-        <v>-11</v>
+        <v>5</v>
       </c>
       <c r="J115" s="3">
-        <v>727.73</v>
+        <v>481.88</v>
       </c>
       <c r="K115" s="3">
-        <v>727.73</v>
+        <v>481.88</v>
       </c>
       <c r="L115" t="s">
         <v>16</v>
       </c>
       <c r="M115" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5290,40 +5296,40 @@
         <v>211111888</v>
       </c>
       <c r="B116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D116">
+        <v>2025</v>
       </c>
       <c r="E116">
-        <v>11288</v>
+        <v>666</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
       </c>
       <c r="G116" s="1">
-        <v>45899.506018518514</v>
+        <v>45891</v>
       </c>
       <c r="H116" s="1">
-        <v>45869.506030092591</v>
+        <v>45861</v>
       </c>
       <c r="I116" s="2">
-        <v>-14</v>
+        <v>3</v>
       </c>
       <c r="J116" s="3">
-        <v>228.8</v>
+        <v>-359.47</v>
       </c>
       <c r="K116" s="3">
-        <v>228.8</v>
+        <v>-359.47</v>
       </c>
       <c r="L116" t="s">
         <v>16</v>
       </c>
       <c r="M116" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5331,7 +5337,7 @@
         <v>211111888</v>
       </c>
       <c r="B117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C117" t="s">
         <v>21</v>
@@ -5340,31 +5346,31 @@
         <v>2025</v>
       </c>
       <c r="E117">
-        <v>713</v>
+        <v>679</v>
       </c>
       <c r="F117" t="s">
         <v>19</v>
       </c>
       <c r="G117" s="1">
-        <v>45900</v>
+        <v>45892</v>
       </c>
       <c r="H117" s="1">
-        <v>45870</v>
+        <v>45862</v>
       </c>
       <c r="I117" s="2">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="J117" s="3">
-        <v>-15.39</v>
+        <v>-11.61</v>
       </c>
       <c r="K117" s="3">
-        <v>-15.39</v>
+        <v>-11.61</v>
       </c>
       <c r="L117" t="s">
         <v>16</v>
       </c>
       <c r="M117" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5372,7 +5378,7 @@
         <v>211111888</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -5381,31 +5387,31 @@
         <v>15</v>
       </c>
       <c r="E118">
-        <v>11344</v>
+        <v>10999</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
       </c>
       <c r="G118" s="1">
-        <v>45900.516886574071</v>
+        <v>45892.498240740737</v>
       </c>
       <c r="H118" s="1">
-        <v>45870.516898148147</v>
+        <v>45862.498240740737</v>
       </c>
       <c r="I118" s="2">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="J118" s="3">
-        <v>741.32</v>
+        <v>134.38</v>
       </c>
       <c r="K118" s="3">
-        <v>741.32</v>
+        <v>134.38</v>
       </c>
       <c r="L118" t="s">
         <v>16</v>
       </c>
       <c r="M118" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5413,7 +5419,7 @@
         <v>211111888</v>
       </c>
       <c r="B119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
@@ -5422,25 +5428,25 @@
         <v>15</v>
       </c>
       <c r="E119">
-        <v>11446</v>
+        <v>11123</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
       </c>
       <c r="G119" s="1">
-        <v>45904.531446759254</v>
+        <v>45896.546006944445</v>
       </c>
       <c r="H119" s="1">
-        <v>45874.531446759254</v>
+        <v>45866.547673611109</v>
       </c>
       <c r="I119" s="2">
-        <v>-19</v>
+        <v>-2</v>
       </c>
       <c r="J119" s="3">
-        <v>49.82</v>
+        <v>727.73</v>
       </c>
       <c r="K119" s="3">
-        <v>49.82</v>
+        <v>727.73</v>
       </c>
       <c r="L119" t="s">
         <v>16</v>
@@ -5454,7 +5460,7 @@
         <v>211111888</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
@@ -5463,25 +5469,25 @@
         <v>15</v>
       </c>
       <c r="E120">
-        <v>11547</v>
+        <v>11288</v>
       </c>
       <c r="F120" t="s">
         <v>19</v>
       </c>
       <c r="G120" s="1">
-        <v>45905.643067129626</v>
+        <v>45899.506018518514</v>
       </c>
       <c r="H120" s="1">
-        <v>45875.643437499995</v>
+        <v>45869.506030092591</v>
       </c>
       <c r="I120" s="2">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="J120" s="3">
-        <v>699.11</v>
+        <v>228.8</v>
       </c>
       <c r="K120" s="3">
-        <v>699.11</v>
+        <v>228.8</v>
       </c>
       <c r="L120" t="s">
         <v>16</v>
@@ -5495,34 +5501,34 @@
         <v>211111888</v>
       </c>
       <c r="B121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D121">
+        <v>2025</v>
       </c>
       <c r="E121">
-        <v>11552</v>
+        <v>713</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
       </c>
       <c r="G121" s="1">
-        <v>45906.357638888891</v>
+        <v>45900</v>
       </c>
       <c r="H121" s="1">
-        <v>45876.35765046296</v>
+        <v>45870</v>
       </c>
       <c r="I121" s="2">
-        <v>-21</v>
+        <v>-6</v>
       </c>
       <c r="J121" s="3">
-        <v>179.12</v>
+        <v>-15.39</v>
       </c>
       <c r="K121" s="3">
-        <v>179.12</v>
+        <v>-15.39</v>
       </c>
       <c r="L121" t="s">
         <v>16</v>
@@ -5536,7 +5542,7 @@
         <v>211111888</v>
       </c>
       <c r="B122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
@@ -5545,25 +5551,25 @@
         <v>15</v>
       </c>
       <c r="E122">
-        <v>11660</v>
+        <v>11344</v>
       </c>
       <c r="F122" t="s">
         <v>19</v>
       </c>
       <c r="G122" s="1">
-        <v>45907.602372685185</v>
+        <v>45900.516886574071</v>
       </c>
       <c r="H122" s="1">
-        <v>45877.602372685185</v>
+        <v>45870.516898148147</v>
       </c>
       <c r="I122" s="2">
-        <v>-22</v>
+        <v>-6</v>
       </c>
       <c r="J122" s="3">
-        <v>81.33</v>
+        <v>741.32</v>
       </c>
       <c r="K122" s="3">
-        <v>81.33</v>
+        <v>741.32</v>
       </c>
       <c r="L122" t="s">
         <v>16</v>
@@ -5577,7 +5583,7 @@
         <v>211111888</v>
       </c>
       <c r="B123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
@@ -5586,25 +5592,25 @@
         <v>15</v>
       </c>
       <c r="E123">
-        <v>11718</v>
+        <v>11446</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
       </c>
       <c r="G123" s="1">
-        <v>45910.541782407403</v>
+        <v>45904.531446759254</v>
       </c>
       <c r="H123" s="1">
-        <v>45880.54179398148</v>
+        <v>45874.531446759254</v>
       </c>
       <c r="I123" s="2">
-        <v>-25</v>
+        <v>-10</v>
       </c>
       <c r="J123" s="3">
-        <v>119.29</v>
+        <v>49.82</v>
       </c>
       <c r="K123" s="3">
-        <v>119.29</v>
+        <v>49.82</v>
       </c>
       <c r="L123" t="s">
         <v>16</v>
@@ -5615,10 +5621,10 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>211111943</v>
+        <v>211111888</v>
       </c>
       <c r="B124" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
@@ -5627,25 +5633,25 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>11857</v>
+        <v>11547</v>
       </c>
       <c r="F124" t="s">
         <v>19</v>
       </c>
       <c r="G124" s="1">
-        <v>45912.582881944443</v>
+        <v>45905.643067129626</v>
       </c>
       <c r="H124" s="1">
-        <v>45882.58289351852</v>
+        <v>45875.643437499995</v>
       </c>
       <c r="I124" s="2">
-        <v>-27</v>
+        <v>-11</v>
       </c>
       <c r="J124" s="3">
-        <v>46.86</v>
+        <v>699.11</v>
       </c>
       <c r="K124" s="3">
-        <v>46.86</v>
+        <v>699.11</v>
       </c>
       <c r="L124" t="s">
         <v>16</v>
@@ -5656,10 +5662,10 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>211112004</v>
+        <v>211111888</v>
       </c>
       <c r="B125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
@@ -5668,39 +5674,39 @@
         <v>15</v>
       </c>
       <c r="E125">
-        <v>10431</v>
+        <v>11552</v>
       </c>
       <c r="F125" t="s">
         <v>19</v>
       </c>
       <c r="G125" s="1">
-        <v>45878.592581018514</v>
+        <v>45906.357638888891</v>
       </c>
       <c r="H125" s="1">
-        <v>45848.592581018514</v>
+        <v>45876.35765046296</v>
       </c>
       <c r="I125" s="2">
-        <v>6.4074189814855345</v>
+        <v>-12</v>
       </c>
       <c r="J125" s="3">
-        <v>414.76</v>
+        <v>179.12</v>
       </c>
       <c r="K125" s="3">
-        <v>414.76</v>
+        <v>179.12</v>
       </c>
       <c r="L125" t="s">
         <v>16</v>
       </c>
       <c r="M125" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>211112004</v>
+        <v>211111888</v>
       </c>
       <c r="B126" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
@@ -5709,25 +5715,25 @@
         <v>15</v>
       </c>
       <c r="E126">
-        <v>10728</v>
+        <v>11660</v>
       </c>
       <c r="F126" t="s">
         <v>19</v>
       </c>
       <c r="G126" s="1">
-        <v>45886.283738425926</v>
+        <v>45907.602372685185</v>
       </c>
       <c r="H126" s="1">
-        <v>45856.284224537034</v>
+        <v>45877.602372685185</v>
       </c>
       <c r="I126" s="2">
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="J126" s="3">
-        <v>278.35000000000002</v>
+        <v>81.33</v>
       </c>
       <c r="K126" s="3">
-        <v>278.35000000000002</v>
+        <v>81.33</v>
       </c>
       <c r="L126" t="s">
         <v>16</v>
@@ -5738,10 +5744,10 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>211112004</v>
+        <v>211111888</v>
       </c>
       <c r="B127" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
@@ -5750,25 +5756,25 @@
         <v>15</v>
       </c>
       <c r="E127">
-        <v>11297</v>
+        <v>11718</v>
       </c>
       <c r="F127" t="s">
         <v>19</v>
       </c>
       <c r="G127" s="1">
-        <v>45900.295555555553</v>
+        <v>45910.541782407403</v>
       </c>
       <c r="H127" s="1">
-        <v>45870.300393518519</v>
+        <v>45880.54179398148</v>
       </c>
       <c r="I127" s="2">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="J127" s="3">
-        <v>482.92</v>
+        <v>119.29</v>
       </c>
       <c r="K127" s="3">
-        <v>482.92</v>
+        <v>119.29</v>
       </c>
       <c r="L127" t="s">
         <v>16</v>
@@ -5779,10 +5785,10 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>211112004</v>
+        <v>211111888</v>
       </c>
       <c r="B128" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C128" t="s">
         <v>14</v>
@@ -5791,25 +5797,25 @@
         <v>15</v>
       </c>
       <c r="E128">
-        <v>11608</v>
+        <v>12039</v>
       </c>
       <c r="F128" t="s">
         <v>19</v>
       </c>
       <c r="G128" s="1">
-        <v>45907.470601851848</v>
+        <v>45919.406863425924</v>
       </c>
       <c r="H128" s="1">
-        <v>45877.476655092592</v>
+        <v>45889.407824074071</v>
       </c>
       <c r="I128" s="2">
-        <v>-22</v>
+        <v>-25</v>
       </c>
       <c r="J128" s="3">
-        <v>412.48</v>
+        <v>156.55000000000001</v>
       </c>
       <c r="K128" s="3">
-        <v>412.48</v>
+        <v>156.55000000000001</v>
       </c>
       <c r="L128" t="s">
         <v>16</v>
@@ -5820,10 +5826,10 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>211112004</v>
+        <v>211111888</v>
       </c>
       <c r="B129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -5832,25 +5838,25 @@
         <v>15</v>
       </c>
       <c r="E129">
-        <v>11915</v>
+        <v>12077</v>
       </c>
       <c r="F129" t="s">
         <v>19</v>
       </c>
       <c r="G129" s="1">
-        <v>45913.566678240742</v>
+        <v>45919.572557870371</v>
       </c>
       <c r="H129" s="1">
-        <v>45883.567129629628</v>
+        <v>45889.572569444441</v>
       </c>
       <c r="I129" s="2">
-        <v>-28</v>
+        <v>-25</v>
       </c>
       <c r="J129" s="3">
-        <v>809.44</v>
+        <v>242.01</v>
       </c>
       <c r="K129" s="3">
-        <v>809.44</v>
+        <v>242.01</v>
       </c>
       <c r="L129" t="s">
         <v>16</v>
@@ -5861,10 +5867,10 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>211112022</v>
+        <v>211111888</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -5873,39 +5879,39 @@
         <v>15</v>
       </c>
       <c r="E130">
-        <v>11861</v>
+        <v>12212</v>
       </c>
       <c r="F130" t="s">
         <v>19</v>
       </c>
       <c r="G130" s="1">
-        <v>45882.647453703699</v>
+        <v>45921.610219907408</v>
       </c>
       <c r="H130" s="1">
-        <v>45882.647453703699</v>
+        <v>45891.614027777774</v>
       </c>
       <c r="I130" s="2">
-        <v>2.3525462963007158</v>
+        <v>-27</v>
       </c>
       <c r="J130" s="3">
-        <v>158.86000000000001</v>
+        <v>101</v>
       </c>
       <c r="K130" s="3">
-        <v>158.86000000000001</v>
+        <v>101</v>
       </c>
       <c r="L130" t="s">
         <v>16</v>
       </c>
       <c r="M130" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>211112034</v>
+        <v>211111943</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -5914,39 +5920,39 @@
         <v>15</v>
       </c>
       <c r="E131">
-        <v>9998</v>
+        <v>11857</v>
       </c>
       <c r="F131" t="s">
         <v>19</v>
       </c>
       <c r="G131" s="1">
-        <v>45870.501469907409</v>
+        <v>45912.582881944443</v>
       </c>
       <c r="H131" s="1">
-        <v>45840.502164351848</v>
+        <v>45882.58289351852</v>
       </c>
       <c r="I131" s="2">
-        <v>14.498530092590954</v>
+        <v>-18</v>
       </c>
       <c r="J131" s="3">
-        <v>161.81</v>
+        <v>46.86</v>
       </c>
       <c r="K131" s="3">
-        <v>161.81</v>
+        <v>46.86</v>
       </c>
       <c r="L131" t="s">
         <v>16</v>
       </c>
       <c r="M131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211112034</v>
+        <v>211111943</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -5955,39 +5961,39 @@
         <v>15</v>
       </c>
       <c r="E132">
-        <v>10048</v>
+        <v>12028</v>
       </c>
       <c r="F132" t="s">
         <v>19</v>
       </c>
       <c r="G132" s="1">
-        <v>45871.520023148143</v>
+        <v>45918.675983796296</v>
       </c>
       <c r="H132" s="1">
-        <v>45841.520324074074</v>
+        <v>45888.676168981481</v>
       </c>
       <c r="I132" s="2">
-        <v>13.479976851856918</v>
+        <v>-24</v>
       </c>
       <c r="J132" s="3">
-        <v>71.540000000000006</v>
+        <v>139.79</v>
       </c>
       <c r="K132" s="3">
-        <v>71.540000000000006</v>
+        <v>139.79</v>
       </c>
       <c r="L132" t="s">
         <v>16</v>
       </c>
       <c r="M132" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>211112034</v>
+        <v>211112004</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
@@ -5996,25 +6002,25 @@
         <v>15</v>
       </c>
       <c r="E133">
-        <v>10279</v>
+        <v>10431</v>
       </c>
       <c r="F133" t="s">
         <v>19</v>
       </c>
       <c r="G133" s="1">
-        <v>45876.48737268518</v>
+        <v>45878.592581018514</v>
       </c>
       <c r="H133" s="1">
-        <v>45846.488263888888</v>
+        <v>45848.592581018514</v>
       </c>
       <c r="I133" s="2">
-        <v>8.5126273148198379</v>
+        <v>16</v>
       </c>
       <c r="J133" s="3">
-        <v>243.53</v>
+        <v>414.76</v>
       </c>
       <c r="K133" s="3">
-        <v>243.53</v>
+        <v>414.76</v>
       </c>
       <c r="L133" t="s">
         <v>16</v>
@@ -6025,10 +6031,10 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>211112034</v>
+        <v>211112004</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6037,39 +6043,39 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>10588</v>
+        <v>10728</v>
       </c>
       <c r="F134" t="s">
         <v>19</v>
       </c>
       <c r="G134" s="1">
-        <v>45883.665393518517</v>
+        <v>45886.283738425926</v>
       </c>
       <c r="H134" s="1">
-        <v>45853.665520833332</v>
+        <v>45856.284224537034</v>
       </c>
       <c r="I134" s="2">
-        <v>1.3346064814832062</v>
+        <v>8</v>
       </c>
       <c r="J134" s="3">
-        <v>250.28</v>
+        <v>278.35000000000002</v>
       </c>
       <c r="K134" s="3">
-        <v>250.28</v>
+        <v>278.35000000000002</v>
       </c>
       <c r="L134" t="s">
         <v>16</v>
       </c>
       <c r="M134" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>211112034</v>
+        <v>211112004</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6078,25 +6084,25 @@
         <v>15</v>
       </c>
       <c r="E135">
-        <v>10900</v>
+        <v>11297</v>
       </c>
       <c r="F135" t="s">
         <v>19</v>
       </c>
       <c r="G135" s="1">
-        <v>45891.499594907407</v>
+        <v>45900.295555555553</v>
       </c>
       <c r="H135" s="1">
-        <v>45861.500196759254</v>
+        <v>45870.300393518519</v>
       </c>
       <c r="I135" s="2">
         <v>-6</v>
       </c>
       <c r="J135" s="3">
-        <v>227.62</v>
+        <v>482.92</v>
       </c>
       <c r="K135" s="3">
-        <v>227.62</v>
+        <v>482.92</v>
       </c>
       <c r="L135" t="s">
         <v>16</v>
@@ -6107,10 +6113,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112034</v>
+        <v>211112004</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -6119,25 +6125,25 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>11243</v>
+        <v>11608</v>
       </c>
       <c r="F136" t="s">
         <v>19</v>
       </c>
       <c r="G136" s="1">
-        <v>45898.51180555555</v>
+        <v>45907.470601851848</v>
       </c>
       <c r="H136" s="1">
-        <v>45868.512175925927</v>
+        <v>45877.476655092592</v>
       </c>
       <c r="I136" s="2">
         <v>-13</v>
       </c>
       <c r="J136" s="3">
-        <v>140.12</v>
+        <v>412.48</v>
       </c>
       <c r="K136" s="3">
-        <v>140.12</v>
+        <v>412.48</v>
       </c>
       <c r="L136" t="s">
         <v>16</v>
@@ -6148,10 +6154,10 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211112034</v>
+        <v>211112004</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -6160,25 +6166,25 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <v>11535</v>
+        <v>11915</v>
       </c>
       <c r="F137" t="s">
         <v>19</v>
       </c>
       <c r="G137" s="1">
-        <v>45905.529490740737</v>
+        <v>45913.566678240742</v>
       </c>
       <c r="H137" s="1">
-        <v>45875.530717592592</v>
+        <v>45883.567129629628</v>
       </c>
       <c r="I137" s="2">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="J137" s="3">
-        <v>285.49</v>
+        <v>809.44</v>
       </c>
       <c r="K137" s="3">
-        <v>285.49</v>
+        <v>809.44</v>
       </c>
       <c r="L137" t="s">
         <v>16</v>
@@ -6189,10 +6195,10 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112034</v>
+        <v>211112022</v>
       </c>
       <c r="B138" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
@@ -6201,31 +6207,31 @@
         <v>15</v>
       </c>
       <c r="E138">
-        <v>11770</v>
+        <v>11861</v>
       </c>
       <c r="F138" t="s">
         <v>19</v>
       </c>
       <c r="G138" s="1">
-        <v>45911.678842592592</v>
+        <v>45882.647453703699</v>
       </c>
       <c r="H138" s="1">
-        <v>45881.679826388885</v>
+        <v>45882.647453703699</v>
       </c>
       <c r="I138" s="2">
-        <v>-26</v>
+        <v>12</v>
       </c>
       <c r="J138" s="3">
-        <v>127.13000000000001</v>
+        <v>158.86000000000001</v>
       </c>
       <c r="K138" s="3">
-        <v>127.13000000000001</v>
+        <v>158.86000000000001</v>
       </c>
       <c r="L138" t="s">
         <v>16</v>
       </c>
       <c r="M138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6233,7 +6239,7 @@
         <v>211112034</v>
       </c>
       <c r="B139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
@@ -6242,39 +6248,39 @@
         <v>15</v>
       </c>
       <c r="E139">
-        <v>11831</v>
+        <v>10900</v>
       </c>
       <c r="F139" t="s">
         <v>19</v>
       </c>
       <c r="G139" s="1">
-        <v>45912.51599537037</v>
+        <v>45891.499594907407</v>
       </c>
       <c r="H139" s="1">
-        <v>45882.516168981478</v>
+        <v>45861.500196759254</v>
       </c>
       <c r="I139" s="2">
-        <v>-27</v>
+        <v>3</v>
       </c>
       <c r="J139" s="3">
-        <v>43.1</v>
+        <v>227.62</v>
       </c>
       <c r="K139" s="3">
-        <v>43.1</v>
+        <v>227.62</v>
       </c>
       <c r="L139" t="s">
         <v>16</v>
       </c>
       <c r="M139" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>211112182</v>
+        <v>211112034</v>
       </c>
       <c r="B140" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
@@ -6283,25 +6289,25 @@
         <v>15</v>
       </c>
       <c r="E140">
-        <v>11673</v>
+        <v>11243</v>
       </c>
       <c r="F140" t="s">
         <v>19</v>
       </c>
       <c r="G140" s="1">
-        <v>45907.622719907406</v>
+        <v>45898.51180555555</v>
       </c>
       <c r="H140" s="1">
-        <v>45877.623020833329</v>
+        <v>45868.512175925927</v>
       </c>
       <c r="I140" s="2">
-        <v>-22</v>
+        <v>-4</v>
       </c>
       <c r="J140" s="3">
-        <v>188.45000000000002</v>
+        <v>140.12</v>
       </c>
       <c r="K140" s="3">
-        <v>188.45000000000002</v>
+        <v>140.12</v>
       </c>
       <c r="L140" t="s">
         <v>16</v>
@@ -6312,51 +6318,51 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>211112415</v>
+        <v>211112034</v>
       </c>
       <c r="B141" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C141" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D141" t="s">
         <v>15</v>
       </c>
       <c r="E141">
-        <v>434</v>
+        <v>11535</v>
       </c>
       <c r="F141" t="s">
         <v>19</v>
       </c>
       <c r="G141" s="1">
-        <v>45819</v>
+        <v>45905.529490740737</v>
       </c>
       <c r="H141" s="1">
-        <v>45789</v>
+        <v>45875.530717592592</v>
       </c>
       <c r="I141" s="2">
-        <v>66</v>
+        <v>-11</v>
       </c>
       <c r="J141" s="3">
-        <v>-2.35</v>
+        <v>285.49</v>
       </c>
       <c r="K141" s="3">
-        <v>-2.35</v>
+        <v>285.49</v>
       </c>
       <c r="L141" t="s">
         <v>16</v>
       </c>
       <c r="M141" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>211112415</v>
+        <v>211112034</v>
       </c>
       <c r="B142" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
@@ -6365,39 +6371,39 @@
         <v>15</v>
       </c>
       <c r="E142">
-        <v>9857</v>
+        <v>11770</v>
       </c>
       <c r="F142" t="s">
         <v>19</v>
       </c>
       <c r="G142" s="1">
-        <v>45865.462974537033</v>
+        <v>45911.678842592592</v>
       </c>
       <c r="H142" s="1">
-        <v>45835.463900462964</v>
+        <v>45881.679826388885</v>
       </c>
       <c r="I142" s="2">
-        <v>19.537025462966994</v>
+        <v>-17</v>
       </c>
       <c r="J142" s="3">
-        <v>52.45</v>
+        <v>127.13000000000001</v>
       </c>
       <c r="K142" s="3">
-        <v>52.45</v>
+        <v>127.13000000000001</v>
       </c>
       <c r="L142" t="s">
         <v>16</v>
       </c>
       <c r="M142" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>211112415</v>
+        <v>211112034</v>
       </c>
       <c r="B143" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
@@ -6406,39 +6412,39 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>10341</v>
+        <v>11831</v>
       </c>
       <c r="F143" t="s">
         <v>19</v>
       </c>
       <c r="G143" s="1">
-        <v>45877.430648148147</v>
+        <v>45912.51599537037</v>
       </c>
       <c r="H143" s="1">
-        <v>45847.430648148147</v>
+        <v>45882.516168981478</v>
       </c>
       <c r="I143" s="2">
-        <v>7.5693518518528435</v>
+        <v>-18</v>
       </c>
       <c r="J143" s="3">
-        <v>74.72</v>
+        <v>43.1</v>
       </c>
       <c r="K143" s="3">
-        <v>74.72</v>
+        <v>43.1</v>
       </c>
       <c r="L143" t="s">
         <v>16</v>
       </c>
       <c r="M143" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>211112415</v>
+        <v>211112034</v>
       </c>
       <c r="B144" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -6447,25 +6453,25 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>10822</v>
+        <v>11997</v>
       </c>
       <c r="F144" t="s">
         <v>19</v>
       </c>
       <c r="G144" s="1">
-        <v>45889.487743055557</v>
+        <v>45918.483773148146</v>
       </c>
       <c r="H144" s="1">
-        <v>45859.487743055557</v>
+        <v>45888.485208333332</v>
       </c>
       <c r="I144" s="2">
-        <v>-4</v>
+        <v>-24</v>
       </c>
       <c r="J144" s="3">
-        <v>95.87</v>
+        <v>158.41</v>
       </c>
       <c r="K144" s="3">
-        <v>95.87</v>
+        <v>158.41</v>
       </c>
       <c r="L144" t="s">
         <v>16</v>
@@ -6476,10 +6482,10 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>211112415</v>
+        <v>211112182</v>
       </c>
       <c r="B145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
@@ -6488,25 +6494,25 @@
         <v>15</v>
       </c>
       <c r="E145">
-        <v>11070</v>
+        <v>11673</v>
       </c>
       <c r="F145" t="s">
         <v>19</v>
       </c>
       <c r="G145" s="1">
-        <v>45893.523460648146</v>
+        <v>45907.622719907406</v>
       </c>
       <c r="H145" s="1">
-        <v>45863.523460648146</v>
+        <v>45877.623020833329</v>
       </c>
       <c r="I145" s="2">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="J145" s="3">
-        <v>106.52</v>
+        <v>188.45000000000002</v>
       </c>
       <c r="K145" s="3">
-        <v>106.52</v>
+        <v>188.45000000000002</v>
       </c>
       <c r="L145" t="s">
         <v>16</v>
@@ -6517,10 +6523,10 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112415</v>
+        <v>211112224</v>
       </c>
       <c r="B146" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -6529,31 +6535,31 @@
         <v>15</v>
       </c>
       <c r="E146">
-        <v>11102</v>
+        <v>12180</v>
       </c>
       <c r="F146" t="s">
         <v>19</v>
       </c>
       <c r="G146" s="1">
-        <v>45896.526087962964</v>
+        <v>45891.438576388886</v>
       </c>
       <c r="H146" s="1">
-        <v>45866.526087962964</v>
+        <v>45891.438576388886</v>
       </c>
       <c r="I146" s="2">
-        <v>-11</v>
+        <v>3</v>
       </c>
       <c r="J146" s="3">
-        <v>48.92</v>
+        <v>210.09</v>
       </c>
       <c r="K146" s="3">
-        <v>48.92</v>
+        <v>210.09</v>
       </c>
       <c r="L146" t="s">
         <v>16</v>
       </c>
       <c r="M146" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6561,7 +6567,7 @@
         <v>211112415</v>
       </c>
       <c r="B147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C147" t="s">
         <v>14</v>
@@ -6570,31 +6576,31 @@
         <v>15</v>
       </c>
       <c r="E147">
-        <v>11360</v>
+        <v>10822</v>
       </c>
       <c r="F147" t="s">
         <v>19</v>
       </c>
       <c r="G147" s="1">
-        <v>45900.567083333328</v>
+        <v>45889.487743055557</v>
       </c>
       <c r="H147" s="1">
-        <v>45870.567083333328</v>
+        <v>45859.487743055557</v>
       </c>
       <c r="I147" s="2">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="J147" s="3">
-        <v>50.69</v>
+        <v>95.87</v>
       </c>
       <c r="K147" s="3">
-        <v>50.69</v>
+        <v>95.87</v>
       </c>
       <c r="L147" t="s">
         <v>16</v>
       </c>
       <c r="M147" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6602,7 +6608,7 @@
         <v>211112415</v>
       </c>
       <c r="B148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -6611,39 +6617,39 @@
         <v>15</v>
       </c>
       <c r="E148">
-        <v>11543</v>
+        <v>11070</v>
       </c>
       <c r="F148" t="s">
         <v>19</v>
       </c>
       <c r="G148" s="1">
-        <v>45905.539733796293</v>
+        <v>45893.523460648146</v>
       </c>
       <c r="H148" s="1">
-        <v>45875.539733796293</v>
+        <v>45863.523460648146</v>
       </c>
       <c r="I148" s="2">
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="J148" s="3">
-        <v>61.22</v>
+        <v>106.52</v>
       </c>
       <c r="K148" s="3">
-        <v>61.22</v>
+        <v>106.52</v>
       </c>
       <c r="L148" t="s">
         <v>16</v>
       </c>
       <c r="M148" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>211112544</v>
+        <v>211112415</v>
       </c>
       <c r="B149" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
@@ -6652,39 +6658,39 @@
         <v>15</v>
       </c>
       <c r="E149">
-        <v>11192</v>
+        <v>11102</v>
       </c>
       <c r="F149" t="s">
         <v>19</v>
       </c>
       <c r="G149" s="1">
-        <v>45868.475057870368</v>
+        <v>45896.526087962964</v>
       </c>
       <c r="H149" s="1">
-        <v>45868.475057870368</v>
+        <v>45866.526087962964</v>
       </c>
       <c r="I149" s="2">
-        <v>16.524942129632109</v>
+        <v>-2</v>
       </c>
       <c r="J149" s="3">
-        <v>1971.6000000000001</v>
+        <v>48.92</v>
       </c>
       <c r="K149" s="3">
-        <v>1971.6000000000001</v>
+        <v>48.92</v>
       </c>
       <c r="L149" t="s">
         <v>16</v>
       </c>
       <c r="M149" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>211112544</v>
+        <v>211112415</v>
       </c>
       <c r="B150" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C150" t="s">
         <v>14</v>
@@ -6693,39 +6699,39 @@
         <v>15</v>
       </c>
       <c r="E150">
-        <v>11426</v>
+        <v>11360</v>
       </c>
       <c r="F150" t="s">
         <v>19</v>
       </c>
       <c r="G150" s="1">
-        <v>45874.460439814815</v>
+        <v>45900.567083333328</v>
       </c>
       <c r="H150" s="1">
-        <v>45874.460439814815</v>
+        <v>45870.567083333328</v>
       </c>
       <c r="I150" s="2">
-        <v>10.53956018518511</v>
+        <v>-6</v>
       </c>
       <c r="J150" s="3">
-        <v>890.4</v>
+        <v>50.69</v>
       </c>
       <c r="K150" s="3">
-        <v>890.4</v>
+        <v>50.69</v>
       </c>
       <c r="L150" t="s">
         <v>16</v>
       </c>
       <c r="M150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>211121278</v>
+        <v>211112415</v>
       </c>
       <c r="B151" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C151" t="s">
         <v>14</v>
@@ -6734,39 +6740,39 @@
         <v>15</v>
       </c>
       <c r="E151">
-        <v>9555</v>
+        <v>11543</v>
       </c>
       <c r="F151" t="s">
         <v>19</v>
       </c>
       <c r="G151" s="1">
-        <v>45858.607731481483</v>
+        <v>45905.539733796293</v>
       </c>
       <c r="H151" s="1">
-        <v>45828.608090277776</v>
+        <v>45875.539733796293</v>
       </c>
       <c r="I151" s="2">
-        <v>26.392268518517085</v>
+        <v>-11</v>
       </c>
       <c r="J151" s="3">
-        <v>75.600000000000009</v>
+        <v>61.22</v>
       </c>
       <c r="K151" s="3">
-        <v>75.600000000000009</v>
+        <v>61.22</v>
       </c>
       <c r="L151" t="s">
         <v>16</v>
       </c>
       <c r="M151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>211121278</v>
+        <v>211112415</v>
       </c>
       <c r="B152" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -6775,39 +6781,39 @@
         <v>15</v>
       </c>
       <c r="E152">
-        <v>9722</v>
+        <v>11977</v>
       </c>
       <c r="F152" t="s">
         <v>19</v>
       </c>
       <c r="G152" s="1">
-        <v>45863.601412037038</v>
+        <v>45917.603981481479</v>
       </c>
       <c r="H152" s="1">
-        <v>45833.602407407408</v>
+        <v>45887.604467592588</v>
       </c>
       <c r="I152" s="2">
-        <v>21.398587962961756</v>
+        <v>-23</v>
       </c>
       <c r="J152" s="3">
-        <v>102.60000000000001</v>
+        <v>143.14000000000001</v>
       </c>
       <c r="K152" s="3">
-        <v>102.60000000000001</v>
+        <v>143.14000000000001</v>
       </c>
       <c r="L152" t="s">
         <v>16</v>
       </c>
       <c r="M152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>211121278</v>
+        <v>211112415</v>
       </c>
       <c r="B153" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
@@ -6816,39 +6822,39 @@
         <v>15</v>
       </c>
       <c r="E153">
-        <v>10076</v>
+        <v>12092</v>
       </c>
       <c r="F153" t="s">
         <v>19</v>
       </c>
       <c r="G153" s="1">
-        <v>45871.611539351848</v>
+        <v>45919.599108796298</v>
       </c>
       <c r="H153" s="1">
-        <v>45841.612893518519</v>
+        <v>45889.599108796298</v>
       </c>
       <c r="I153" s="2">
-        <v>13.388460648151522</v>
+        <v>-25</v>
       </c>
       <c r="J153" s="3">
-        <v>91.8</v>
+        <v>54.33</v>
       </c>
       <c r="K153" s="3">
-        <v>91.8</v>
+        <v>54.33</v>
       </c>
       <c r="L153" t="s">
         <v>16</v>
       </c>
       <c r="M153" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>211121278</v>
+        <v>211112415</v>
       </c>
       <c r="B154" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -6857,71 +6863,235 @@
         <v>15</v>
       </c>
       <c r="E154">
-        <v>10229</v>
+        <v>12204</v>
       </c>
       <c r="F154" t="s">
         <v>19</v>
       </c>
       <c r="G154" s="1">
-        <v>45875.600995370369</v>
+        <v>45921.449178240742</v>
       </c>
       <c r="H154" s="1">
-        <v>45845.602673611109</v>
+        <v>45891.449178240742</v>
       </c>
       <c r="I154" s="2">
-        <v>9.3990046296312357</v>
+        <v>-27</v>
       </c>
       <c r="J154" s="3">
-        <v>86.4</v>
+        <v>61.940000000000005</v>
       </c>
       <c r="K154" s="3">
-        <v>86.4</v>
+        <v>61.940000000000005</v>
       </c>
       <c r="L154" t="s">
         <v>16</v>
       </c>
       <c r="M154" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
+        <v>211112544</v>
+      </c>
+      <c r="B155" t="s">
+        <v>46</v>
+      </c>
+      <c r="C155" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155">
+        <v>11192</v>
+      </c>
+      <c r="F155" t="s">
+        <v>19</v>
+      </c>
+      <c r="G155" s="1">
+        <v>45868.475057870368</v>
+      </c>
+      <c r="H155" s="1">
+        <v>45868.475057870368</v>
+      </c>
+      <c r="I155" s="2">
+        <v>26</v>
+      </c>
+      <c r="J155" s="3">
+        <v>1971.6000000000001</v>
+      </c>
+      <c r="K155" s="3">
+        <v>1971.6000000000001</v>
+      </c>
+      <c r="L155" t="s">
+        <v>16</v>
+      </c>
+      <c r="M155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>211112544</v>
+      </c>
+      <c r="B156" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156">
+        <v>11426</v>
+      </c>
+      <c r="F156" t="s">
+        <v>19</v>
+      </c>
+      <c r="G156" s="1">
+        <v>45874.460439814815</v>
+      </c>
+      <c r="H156" s="1">
+        <v>45874.460439814815</v>
+      </c>
+      <c r="I156" s="2">
+        <v>20</v>
+      </c>
+      <c r="J156" s="3">
+        <v>890.4</v>
+      </c>
+      <c r="K156" s="3">
+        <v>890.4</v>
+      </c>
+      <c r="L156" t="s">
+        <v>16</v>
+      </c>
+      <c r="M156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>211121278</v>
       </c>
-      <c r="B155" t="s">
-        <v>45</v>
-      </c>
-      <c r="C155" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155">
+      <c r="B157" t="s">
+        <v>44</v>
+      </c>
+      <c r="C157" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157">
+        <v>10076</v>
+      </c>
+      <c r="F157" t="s">
+        <v>19</v>
+      </c>
+      <c r="G157" s="1">
+        <v>45871.611539351848</v>
+      </c>
+      <c r="H157" s="1">
+        <v>45841.612893518519</v>
+      </c>
+      <c r="I157" s="2">
+        <v>23</v>
+      </c>
+      <c r="J157" s="3">
+        <v>91.8</v>
+      </c>
+      <c r="K157" s="3">
+        <v>91.8</v>
+      </c>
+      <c r="L157" t="s">
+        <v>16</v>
+      </c>
+      <c r="M157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>211121278</v>
+      </c>
+      <c r="B158" t="s">
+        <v>44</v>
+      </c>
+      <c r="C158" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158">
+        <v>10229</v>
+      </c>
+      <c r="F158" t="s">
+        <v>19</v>
+      </c>
+      <c r="G158" s="1">
+        <v>45875.600995370369</v>
+      </c>
+      <c r="H158" s="1">
+        <v>45845.602673611109</v>
+      </c>
+      <c r="I158" s="2">
+        <v>19</v>
+      </c>
+      <c r="J158" s="3">
+        <v>86.4</v>
+      </c>
+      <c r="K158" s="3">
+        <v>86.4</v>
+      </c>
+      <c r="L158" t="s">
+        <v>16</v>
+      </c>
+      <c r="M158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>211121278</v>
+      </c>
+      <c r="B159" t="s">
+        <v>44</v>
+      </c>
+      <c r="C159" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159">
         <v>11294</v>
       </c>
-      <c r="F155" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" s="1">
+      <c r="F159" t="s">
+        <v>19</v>
+      </c>
+      <c r="G159" s="1">
         <v>45899.61278935185</v>
       </c>
-      <c r="H155" s="1">
+      <c r="H159" s="1">
         <v>45869.613032407404</v>
       </c>
-      <c r="I155" s="2">
-        <v>-14</v>
-      </c>
-      <c r="J155" s="3">
+      <c r="I159" s="2">
+        <v>-5</v>
+      </c>
+      <c r="J159" s="3">
         <v>21.6</v>
       </c>
-      <c r="K155" s="3">
+      <c r="K159" s="3">
         <v>21.6</v>
       </c>
-      <c r="L155" t="s">
-        <v>16</v>
-      </c>
-      <c r="M155" t="s">
+      <c r="L159" t="s">
+        <v>16</v>
+      </c>
+      <c r="M159" t="s">
         <v>18</v>
       </c>
     </row>

--- a/PCosta.xlsx
+++ b/PCosta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741F6EB6-748B-43A5-BE7E-FCB3BE2855EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91983259-D090-4C4E-A195-1FCDD1DD1054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F8F3D65-BB50-4D14-936D-C9FEA2B7CDDC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="52">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -176,19 +176,22 @@
     <t>Sara Macedo Unip., Lda</t>
   </si>
   <si>
-    <t>Fresbeira - Indústria de Carnes, Lda</t>
-  </si>
-  <si>
     <t>Gelfer Unipessoal, Lda</t>
   </si>
   <si>
     <t>RPR</t>
   </si>
   <si>
-    <t>Jacinto Ferreira Carvalho</t>
+    <t>José Henrique C.Martins Unip.,Lda</t>
   </si>
   <si>
-    <t>José Henrique C.Martins Unip.,Lda</t>
+    <t>61A90</t>
+  </si>
+  <si>
+    <t>Albino Novais Unipessoal, Lda</t>
+  </si>
+  <si>
+    <t>Pastelaria E Pão Quente Miminho,Lda</t>
   </si>
 </sst>
 </file>
@@ -563,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4044F161-0F67-4AC3-9595-1EB749614D68}">
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M159"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,31 +634,31 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>10774</v>
+        <v>11337</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1">
-        <v>45886.494421296295</v>
+        <v>45900.505578703705</v>
       </c>
       <c r="H2" s="1">
-        <v>45856.494421296295</v>
+        <v>45870.505578703705</v>
       </c>
       <c r="I2" s="2">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J2" s="3">
-        <v>112.93</v>
+        <v>89.52</v>
       </c>
       <c r="K2" s="3">
-        <v>112.93</v>
+        <v>89.52</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -672,31 +675,31 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>11051</v>
+        <v>11906</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="1">
-        <v>45893.509270833332</v>
+        <v>45913.559317129628</v>
       </c>
       <c r="H3" s="1">
-        <v>45863.509282407409</v>
+        <v>45883.559317129628</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>-14</v>
       </c>
       <c r="J3" s="3">
-        <v>84.06</v>
+        <v>107.10000000000001</v>
       </c>
       <c r="K3" s="3">
-        <v>84.06</v>
+        <v>107.10000000000001</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -713,25 +716,25 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>11337</v>
+        <v>12194</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="1">
-        <v>45900.505578703705</v>
+        <v>45921.441608796296</v>
       </c>
       <c r="H4" s="1">
-        <v>45870.505578703705</v>
+        <v>45891.441608796296</v>
       </c>
       <c r="I4" s="2">
-        <v>-6</v>
+        <v>-22</v>
       </c>
       <c r="J4" s="3">
-        <v>89.52</v>
+        <v>109.26</v>
       </c>
       <c r="K4" s="3">
-        <v>89.52</v>
+        <v>109.26</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -754,25 +757,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>11906</v>
+        <v>12421</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="1">
-        <v>45913.559317129628</v>
+        <v>45928.417754629627</v>
       </c>
       <c r="H5" s="1">
-        <v>45883.559317129628</v>
+        <v>45898.417766203704</v>
       </c>
       <c r="I5" s="2">
-        <v>-19</v>
+        <v>-29</v>
       </c>
       <c r="J5" s="3">
-        <v>107.10000000000001</v>
+        <v>122.31</v>
       </c>
       <c r="K5" s="3">
-        <v>107.10000000000001</v>
+        <v>122.31</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -783,10 +786,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>211110090</v>
+        <v>211110212</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -795,31 +798,31 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>12194</v>
+        <v>9932</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="1">
-        <v>45921.441608796296</v>
+        <v>45869.375613425924</v>
       </c>
       <c r="H6" s="1">
-        <v>45891.441608796296</v>
+        <v>45839.378171296295</v>
       </c>
       <c r="I6" s="2">
-        <v>-27</v>
+        <v>30</v>
       </c>
       <c r="J6" s="3">
-        <v>109.26</v>
+        <v>45.85</v>
       </c>
       <c r="K6" s="3">
-        <v>109.26</v>
+        <v>45.85</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -830,31 +833,31 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>2025</v>
       </c>
       <c r="E7">
-        <v>9932</v>
+        <v>612</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="1">
-        <v>45869.375613425924</v>
+        <v>45871</v>
       </c>
       <c r="H7" s="1">
-        <v>45839.378171296295</v>
+        <v>45841</v>
       </c>
       <c r="I7" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J7" s="3">
-        <v>45.85</v>
+        <v>-36.31</v>
       </c>
       <c r="K7" s="3">
-        <v>45.85</v>
+        <v>-36.31</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -871,31 +874,31 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>612</v>
+        <v>10045</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="1">
-        <v>45871</v>
+        <v>45871.497974537036</v>
       </c>
       <c r="H8" s="1">
-        <v>45841</v>
+        <v>45841.497974537036</v>
       </c>
       <c r="I8" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J8" s="3">
-        <v>-36.31</v>
+        <v>140.92000000000002</v>
       </c>
       <c r="K8" s="3">
-        <v>-36.31</v>
+        <v>140.92000000000002</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -918,25 +921,25 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>10045</v>
+        <v>10181</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="1">
-        <v>45871.497974537036</v>
+        <v>45872.603391203702</v>
       </c>
       <c r="H9" s="1">
-        <v>45841.497974537036</v>
+        <v>45842.603391203702</v>
       </c>
       <c r="I9" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J9" s="3">
-        <v>140.92000000000002</v>
+        <v>64.11</v>
       </c>
       <c r="K9" s="3">
-        <v>140.92000000000002</v>
+        <v>64.11</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -959,25 +962,25 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>10181</v>
+        <v>10358</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="1">
-        <v>45872.603391203702</v>
+        <v>45877.498981481476</v>
       </c>
       <c r="H10" s="1">
-        <v>45842.603391203702</v>
+        <v>45847.498993055553</v>
       </c>
       <c r="I10" s="2">
         <v>22</v>
       </c>
       <c r="J10" s="3">
-        <v>64.11</v>
+        <v>174.55</v>
       </c>
       <c r="K10" s="3">
-        <v>64.11</v>
+        <v>174.55</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -1000,25 +1003,25 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>10358</v>
+        <v>10491</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="1">
-        <v>45877.498981481476</v>
+        <v>45879.477118055554</v>
       </c>
       <c r="H11" s="1">
-        <v>45847.498993055553</v>
+        <v>45849.477754629625</v>
       </c>
       <c r="I11" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J11" s="3">
-        <v>174.55</v>
+        <v>208.79</v>
       </c>
       <c r="K11" s="3">
-        <v>174.55</v>
+        <v>208.79</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -1041,25 +1044,25 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>10491</v>
+        <v>10555</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="1">
-        <v>45879.477118055554</v>
+        <v>45883.417129629626</v>
       </c>
       <c r="H12" s="1">
-        <v>45849.477754629625</v>
+        <v>45853.417523148149</v>
       </c>
       <c r="I12" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12" s="3">
-        <v>208.79</v>
+        <v>231.02</v>
       </c>
       <c r="K12" s="3">
-        <v>208.79</v>
+        <v>231.02</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1082,25 +1085,25 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>10555</v>
+        <v>10716</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="1">
-        <v>45883.417129629626</v>
+        <v>45885.561157407406</v>
       </c>
       <c r="H13" s="1">
-        <v>45853.417523148149</v>
+        <v>45855.561655092592</v>
       </c>
       <c r="I13" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J13" s="3">
-        <v>231.02</v>
+        <v>236.83</v>
       </c>
       <c r="K13" s="3">
-        <v>231.02</v>
+        <v>236.83</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1123,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>10716</v>
+        <v>10887</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="1">
-        <v>45885.561157407406</v>
+        <v>45890.594178240739</v>
       </c>
       <c r="H14" s="1">
-        <v>45855.561655092592</v>
+        <v>45860.594571759255</v>
       </c>
       <c r="I14" s="2">
         <v>9</v>
       </c>
       <c r="J14" s="3">
-        <v>236.83</v>
+        <v>66.320000000000007</v>
       </c>
       <c r="K14" s="3">
-        <v>236.83</v>
+        <v>66.320000000000007</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1158,37 +1161,37 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>2025</v>
       </c>
       <c r="E15">
-        <v>10887</v>
+        <v>672</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="1">
-        <v>45890.594178240739</v>
+        <v>45891</v>
       </c>
       <c r="H15" s="1">
-        <v>45860.594571759255</v>
+        <v>45861</v>
       </c>
       <c r="I15" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>66.320000000000007</v>
+        <v>-80.42</v>
       </c>
       <c r="K15" s="3">
-        <v>66.320000000000007</v>
+        <v>-80.42</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1199,37 +1202,37 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>672</v>
+        <v>10960</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="1">
-        <v>45891</v>
+        <v>45891.569016203699</v>
       </c>
       <c r="H16" s="1">
-        <v>45861</v>
+        <v>45861.569016203699</v>
       </c>
       <c r="I16" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J16" s="3">
-        <v>-80.42</v>
+        <v>217.13</v>
       </c>
       <c r="K16" s="3">
-        <v>-80.42</v>
+        <v>217.13</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1246,31 +1249,31 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>10960</v>
+        <v>11077</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="1">
-        <v>45891.569016203699</v>
+        <v>45893.634097222217</v>
       </c>
       <c r="H17" s="1">
-        <v>45861.569016203699</v>
+        <v>45863.634097222217</v>
       </c>
       <c r="I17" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J17" s="3">
-        <v>217.13</v>
+        <v>22.37</v>
       </c>
       <c r="K17" s="3">
-        <v>217.13</v>
+        <v>22.37</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1287,31 +1290,31 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>11077</v>
+        <v>11363</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="1">
-        <v>45893.634097222217</v>
+        <v>45900.582465277774</v>
       </c>
       <c r="H18" s="1">
-        <v>45863.634097222217</v>
+        <v>45870.582754629628</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J18" s="3">
-        <v>22.37</v>
+        <v>217.11</v>
       </c>
       <c r="K18" s="3">
-        <v>22.37</v>
+        <v>217.11</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1328,25 +1331,25 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>11363</v>
+        <v>11427</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="1">
-        <v>45900.582465277774</v>
+        <v>45904.485185185185</v>
       </c>
       <c r="H19" s="1">
-        <v>45870.582754629628</v>
+        <v>45874.485185185185</v>
       </c>
       <c r="I19" s="2">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="J19" s="3">
-        <v>217.11</v>
+        <v>22.77</v>
       </c>
       <c r="K19" s="3">
-        <v>217.11</v>
+        <v>22.77</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -1369,25 +1372,25 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>11427</v>
+        <v>11546</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="1">
-        <v>45904.485185185185</v>
+        <v>45905.635393518518</v>
       </c>
       <c r="H20" s="1">
-        <v>45874.485185185185</v>
+        <v>45875.636099537034</v>
       </c>
       <c r="I20" s="2">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="J20" s="3">
-        <v>22.77</v>
+        <v>102.96000000000001</v>
       </c>
       <c r="K20" s="3">
-        <v>22.77</v>
+        <v>102.96000000000001</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1410,25 +1413,25 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>11546</v>
+        <v>11596</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="1">
-        <v>45905.635393518518</v>
+        <v>45906.626793981479</v>
       </c>
       <c r="H21" s="1">
-        <v>45875.636099537034</v>
+        <v>45876.629236111112</v>
       </c>
       <c r="I21" s="2">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="J21" s="3">
-        <v>102.96000000000001</v>
+        <v>304.66000000000003</v>
       </c>
       <c r="K21" s="3">
-        <v>102.96000000000001</v>
+        <v>304.66000000000003</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -1451,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>11596</v>
+        <v>11919</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="1">
-        <v>45906.626793981479</v>
+        <v>45913.617384259254</v>
       </c>
       <c r="H22" s="1">
-        <v>45876.629236111112</v>
+        <v>45883.618368055555</v>
       </c>
       <c r="I22" s="2">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="J22" s="3">
-        <v>304.66000000000003</v>
+        <v>326.77</v>
       </c>
       <c r="K22" s="3">
-        <v>304.66000000000003</v>
+        <v>326.77</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1492,25 +1495,25 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>11919</v>
+        <v>11998</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="1">
-        <v>45913.617384259254</v>
+        <v>45918.526053240741</v>
       </c>
       <c r="H23" s="1">
-        <v>45883.618368055555</v>
+        <v>45888.526053240741</v>
       </c>
       <c r="I23" s="2">
         <v>-19</v>
       </c>
       <c r="J23" s="3">
-        <v>326.77</v>
+        <v>310.14</v>
       </c>
       <c r="K23" s="3">
-        <v>326.77</v>
+        <v>310.14</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1533,25 +1536,25 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>11998</v>
+        <v>12076</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="1">
-        <v>45918.526053240741</v>
+        <v>45919.572534722218</v>
       </c>
       <c r="H24" s="1">
-        <v>45888.526053240741</v>
+        <v>45889.572546296295</v>
       </c>
       <c r="I24" s="2">
-        <v>-24</v>
+        <v>-20</v>
       </c>
       <c r="J24" s="3">
-        <v>310.14</v>
+        <v>111.94</v>
       </c>
       <c r="K24" s="3">
-        <v>310.14</v>
+        <v>111.94</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -1568,31 +1571,31 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>2025</v>
       </c>
       <c r="E25">
-        <v>12076</v>
+        <v>776</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="1">
-        <v>45919.572534722218</v>
+        <v>45920</v>
       </c>
       <c r="H25" s="1">
-        <v>45889.572546296295</v>
+        <v>45890</v>
       </c>
       <c r="I25" s="2">
-        <v>-25</v>
+        <v>-21</v>
       </c>
       <c r="J25" s="3">
-        <v>111.94</v>
+        <v>-69.58</v>
       </c>
       <c r="K25" s="3">
-        <v>111.94</v>
+        <v>-69.58</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -1627,7 +1630,7 @@
         <v>45891.411099537036</v>
       </c>
       <c r="I26" s="2">
-        <v>-27</v>
+        <v>-22</v>
       </c>
       <c r="J26" s="3">
         <v>103.94</v>
@@ -1644,10 +1647,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>211110264</v>
+        <v>211110212</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1656,31 +1659,31 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>6743</v>
+        <v>12250</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="1">
-        <v>45800.598414351851</v>
+        <v>45925.348124999997</v>
       </c>
       <c r="H27" s="1">
-        <v>45770.600486111107</v>
+        <v>45895.348136574074</v>
       </c>
       <c r="I27" s="2">
-        <v>94</v>
+        <v>-26</v>
       </c>
       <c r="J27" s="3">
-        <v>519.91999999999996</v>
+        <v>304.56</v>
       </c>
       <c r="K27" s="3">
-        <v>519.91999999999996</v>
+        <v>304.56</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
       </c>
       <c r="M27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1697,72 +1700,72 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>8698</v>
+        <v>6743</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="1">
-        <v>45837.66951388889</v>
+        <v>45800.598414351851</v>
       </c>
       <c r="H28" s="1">
-        <v>45807.669710648144</v>
+        <v>45770.600486111107</v>
       </c>
       <c r="I28" s="2">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="J28" s="3">
-        <v>87.67</v>
+        <v>519.91999999999996</v>
       </c>
       <c r="K28" s="3">
-        <v>87.67</v>
+        <v>519.91999999999996</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
       </c>
       <c r="M28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>211110285</v>
+        <v>211110264</v>
       </c>
       <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>8698</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="1">
+        <v>45837.66951388889</v>
+      </c>
+      <c r="H29" s="1">
+        <v>45807.669710648144</v>
+      </c>
+      <c r="I29" s="2">
+        <v>62</v>
+      </c>
+      <c r="J29" s="3">
+        <v>87.67</v>
+      </c>
+      <c r="K29" s="3">
+        <v>87.67</v>
+      </c>
+      <c r="L29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" t="s">
         <v>49</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29">
-        <v>12111</v>
-      </c>
-      <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="1">
-        <v>45920.510196759256</v>
-      </c>
-      <c r="H29" s="1">
-        <v>45890.510949074072</v>
-      </c>
-      <c r="I29" s="2">
-        <v>-26</v>
-      </c>
-      <c r="J29" s="3">
-        <v>252.01000000000002</v>
-      </c>
-      <c r="K29" s="3">
-        <v>252.01000000000002</v>
-      </c>
-      <c r="L29" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1791,7 +1794,7 @@
         <v>45849.403611111113</v>
       </c>
       <c r="I30" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J30" s="3">
         <v>544.83000000000004</v>
@@ -1832,7 +1835,7 @@
         <v>45852.474629629629</v>
       </c>
       <c r="I31" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J31" s="3">
         <v>603.02</v>
@@ -1873,7 +1876,7 @@
         <v>45854.469351851847</v>
       </c>
       <c r="I32" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J32" s="3">
         <v>447.87</v>
@@ -1914,7 +1917,7 @@
         <v>45856.48542824074</v>
       </c>
       <c r="I33" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J33" s="3">
         <v>783.17000000000007</v>
@@ -1955,7 +1958,7 @@
         <v>45859.487719907404</v>
       </c>
       <c r="I34" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J34" s="3">
         <v>527.75</v>
@@ -1967,7 +1970,7 @@
         <v>16</v>
       </c>
       <c r="M34" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1996,7 +1999,7 @@
         <v>45861</v>
       </c>
       <c r="I35" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J35" s="3">
         <v>-2.87</v>
@@ -2008,7 +2011,7 @@
         <v>16</v>
       </c>
       <c r="M35" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2037,7 +2040,7 @@
         <v>45861</v>
       </c>
       <c r="I36" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J36" s="3">
         <v>-10.09</v>
@@ -2049,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="M36" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2078,7 +2081,7 @@
         <v>45861.550312499996</v>
       </c>
       <c r="I37" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J37" s="3">
         <v>548.45000000000005</v>
@@ -2090,7 +2093,7 @@
         <v>16</v>
       </c>
       <c r="M37" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2119,7 +2122,7 @@
         <v>45863.524328703701</v>
       </c>
       <c r="I38" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J38" s="3">
         <v>558.34</v>
@@ -2131,7 +2134,7 @@
         <v>16</v>
       </c>
       <c r="M38" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2160,7 +2163,7 @@
         <v>45866.534999999996</v>
       </c>
       <c r="I39" s="2">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="J39" s="3">
         <v>212.67000000000002</v>
@@ -2172,7 +2175,7 @@
         <v>16</v>
       </c>
       <c r="M39" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2201,7 +2204,7 @@
         <v>45868.501168981478</v>
       </c>
       <c r="I40" s="2">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="J40" s="3">
         <v>578.64</v>
@@ -2213,7 +2216,7 @@
         <v>16</v>
       </c>
       <c r="M40" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2242,7 +2245,7 @@
         <v>45870.567037037035</v>
       </c>
       <c r="I41" s="2">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="J41" s="3">
         <v>476.82</v>
@@ -2283,7 +2286,7 @@
         <v>45873.547291666662</v>
       </c>
       <c r="I42" s="2">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="J42" s="3">
         <v>356.84000000000003</v>
@@ -2324,7 +2327,7 @@
         <v>45875.539675925924</v>
       </c>
       <c r="I43" s="2">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="J43" s="3">
         <v>489.72</v>
@@ -2365,7 +2368,7 @@
         <v>45877.577685185184</v>
       </c>
       <c r="I44" s="2">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="J44" s="3">
         <v>265.88</v>
@@ -2406,7 +2409,7 @@
         <v>45880.500196759254</v>
       </c>
       <c r="I45" s="2">
-        <v>-16</v>
+        <v>-11</v>
       </c>
       <c r="J45" s="3">
         <v>556.11</v>
@@ -2447,7 +2450,7 @@
         <v>45882.51939814815</v>
       </c>
       <c r="I46" s="2">
-        <v>-18</v>
+        <v>-13</v>
       </c>
       <c r="J46" s="3">
         <v>806.80000000000007</v>
@@ -2488,7 +2491,7 @@
         <v>45887.599583333329</v>
       </c>
       <c r="I47" s="2">
-        <v>-23</v>
+        <v>-18</v>
       </c>
       <c r="J47" s="3">
         <v>625.95000000000005</v>
@@ -2529,7 +2532,7 @@
         <v>45889.599085648144</v>
       </c>
       <c r="I48" s="2">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="J48" s="3">
         <v>578.58000000000004</v>
@@ -2570,7 +2573,7 @@
         <v>45891.449155092589</v>
       </c>
       <c r="I49" s="2">
-        <v>-27</v>
+        <v>-22</v>
       </c>
       <c r="J49" s="3">
         <v>474.01</v>
@@ -2587,92 +2590,92 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>211110472</v>
+        <v>211110364</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>12242</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="1">
-        <v>45760</v>
+        <v>45924.556018518517</v>
       </c>
       <c r="H50" s="1">
-        <v>45730</v>
+        <v>45894.556030092594</v>
       </c>
       <c r="I50" s="2">
-        <v>134</v>
+        <v>-25</v>
       </c>
       <c r="J50" s="3">
-        <v>-541.79999999999995</v>
+        <v>479.96000000000004</v>
       </c>
       <c r="K50" s="3">
-        <v>-10.33</v>
+        <v>479.96000000000004</v>
       </c>
       <c r="L50" t="s">
         <v>16</v>
       </c>
       <c r="M50" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>211110472</v>
+        <v>211110364</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <v>12335</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
       </c>
       <c r="G51" s="1">
-        <v>45847</v>
+        <v>45926.416400462964</v>
       </c>
       <c r="H51" s="1">
-        <v>45817</v>
+        <v>45896.416400462964</v>
       </c>
       <c r="I51" s="2">
-        <v>47</v>
+        <v>-27</v>
       </c>
       <c r="J51" s="3">
-        <v>-224.79</v>
+        <v>611.29</v>
       </c>
       <c r="K51" s="3">
-        <v>-9</v>
+        <v>611.29</v>
       </c>
       <c r="L51" t="s">
         <v>16</v>
       </c>
       <c r="M51" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>211110472</v>
+        <v>211110364</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2681,31 +2684,31 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>9291</v>
+        <v>12409</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
       <c r="G52" s="1">
-        <v>45854.443333333329</v>
+        <v>45928.370115740741</v>
       </c>
       <c r="H52" s="1">
-        <v>45824.44427083333</v>
+        <v>45898.370127314811</v>
       </c>
       <c r="I52" s="2">
-        <v>40</v>
+        <v>-29</v>
       </c>
       <c r="J52" s="3">
-        <v>156.46</v>
+        <v>980.96</v>
       </c>
       <c r="K52" s="3">
-        <v>156.46</v>
+        <v>980.96</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
       </c>
       <c r="M52" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2716,37 +2719,37 @@
         <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53">
-        <v>9627</v>
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="G53" s="1">
-        <v>45861.535300925927</v>
+        <v>45760</v>
       </c>
       <c r="H53" s="1">
-        <v>45831.535729166666</v>
+        <v>45730</v>
       </c>
       <c r="I53" s="2">
+        <v>139</v>
+      </c>
+      <c r="J53" s="3">
+        <v>-541.79999999999995</v>
+      </c>
+      <c r="K53" s="3">
+        <v>-10.33</v>
+      </c>
+      <c r="L53" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" t="s">
         <v>33</v>
-      </c>
-      <c r="J53" s="3">
-        <v>244.68</v>
-      </c>
-      <c r="K53" s="3">
-        <v>244.68</v>
-      </c>
-      <c r="L53" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2757,37 +2760,37 @@
         <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54">
-        <v>10211</v>
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
       </c>
       <c r="G54" s="1">
-        <v>45875.481921296298</v>
+        <v>45847</v>
       </c>
       <c r="H54" s="1">
-        <v>45845.481932870367</v>
+        <v>45817</v>
       </c>
       <c r="I54" s="2">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="J54" s="3">
-        <v>276.02</v>
+        <v>-224.79</v>
       </c>
       <c r="K54" s="3">
-        <v>276.02</v>
+        <v>-9</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
       </c>
       <c r="M54" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2804,25 +2807,25 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>10509</v>
+        <v>10211</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="1">
-        <v>45882.471388888887</v>
+        <v>45875.481921296298</v>
       </c>
       <c r="H55" s="1">
-        <v>45852.471388888887</v>
+        <v>45845.481932870367</v>
       </c>
       <c r="I55" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J55" s="3">
-        <v>316.33</v>
+        <v>276.02</v>
       </c>
       <c r="K55" s="3">
-        <v>316.33</v>
+        <v>276.02</v>
       </c>
       <c r="L55" t="s">
         <v>16</v>
@@ -2845,25 +2848,25 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>10787</v>
+        <v>10509</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
       </c>
       <c r="G56" s="1">
-        <v>45886.62290509259</v>
+        <v>45882.471388888887</v>
       </c>
       <c r="H56" s="1">
-        <v>45856.623715277776</v>
+        <v>45852.471388888887</v>
       </c>
       <c r="I56" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J56" s="3">
-        <v>55.27</v>
+        <v>316.33</v>
       </c>
       <c r="K56" s="3">
-        <v>55.27</v>
+        <v>316.33</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
@@ -2886,31 +2889,31 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>10813</v>
+        <v>10787</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
       </c>
       <c r="G57" s="1">
-        <v>45889.484826388885</v>
+        <v>45886.62290509259</v>
       </c>
       <c r="H57" s="1">
-        <v>45859.484826388885</v>
+        <v>45856.623715277776</v>
       </c>
       <c r="I57" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J57" s="3">
-        <v>200.74</v>
+        <v>55.27</v>
       </c>
       <c r="K57" s="3">
-        <v>200.74</v>
+        <v>55.27</v>
       </c>
       <c r="L57" t="s">
         <v>16</v>
       </c>
       <c r="M57" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -2927,31 +2930,31 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>11083</v>
+        <v>10813</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
       </c>
       <c r="G58" s="1">
-        <v>45893.645833333328</v>
+        <v>45889.484826388885</v>
       </c>
       <c r="H58" s="1">
-        <v>45863.645833333328</v>
+        <v>45859.484826388885</v>
       </c>
       <c r="I58" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J58" s="3">
-        <v>54.58</v>
+        <v>200.74</v>
       </c>
       <c r="K58" s="3">
-        <v>54.58</v>
+        <v>200.74</v>
       </c>
       <c r="L58" t="s">
         <v>16</v>
       </c>
       <c r="M58" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -2968,31 +2971,31 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>11097</v>
+        <v>11083</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
       </c>
       <c r="G59" s="1">
-        <v>45896.476898148147</v>
+        <v>45893.645833333328</v>
       </c>
       <c r="H59" s="1">
-        <v>45866.476909722223</v>
+        <v>45863.645833333328</v>
       </c>
       <c r="I59" s="2">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="J59" s="3">
-        <v>251.39000000000001</v>
+        <v>54.58</v>
       </c>
       <c r="K59" s="3">
-        <v>251.39000000000001</v>
+        <v>54.58</v>
       </c>
       <c r="L59" t="s">
         <v>16</v>
       </c>
       <c r="M59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3009,31 +3012,31 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>11409</v>
+        <v>11097</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
       </c>
       <c r="G60" s="1">
-        <v>45903.568784722222</v>
+        <v>45896.476898148147</v>
       </c>
       <c r="H60" s="1">
-        <v>45873.568784722222</v>
+        <v>45866.476909722223</v>
       </c>
       <c r="I60" s="2">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="J60" s="3">
-        <v>55.120000000000005</v>
+        <v>251.39000000000001</v>
       </c>
       <c r="K60" s="3">
-        <v>55.120000000000005</v>
+        <v>251.39000000000001</v>
       </c>
       <c r="L60" t="s">
         <v>16</v>
       </c>
       <c r="M60" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3050,25 +3053,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>11759</v>
+        <v>11409</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
       </c>
       <c r="G61" s="1">
-        <v>45911.499259259261</v>
+        <v>45903.568784722222</v>
       </c>
       <c r="H61" s="1">
-        <v>45881.499259259261</v>
+        <v>45873.568784722222</v>
       </c>
       <c r="I61" s="2">
-        <v>-17</v>
+        <v>-4</v>
       </c>
       <c r="J61" s="3">
-        <v>110.74000000000001</v>
+        <v>55.120000000000005</v>
       </c>
       <c r="K61" s="3">
-        <v>110.74000000000001</v>
+        <v>55.120000000000005</v>
       </c>
       <c r="L61" t="s">
         <v>16</v>
@@ -3091,25 +3094,25 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>12123</v>
+        <v>11759</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
       </c>
       <c r="G62" s="1">
-        <v>45920.52716435185</v>
+        <v>45911.499259259261</v>
       </c>
       <c r="H62" s="1">
-        <v>45890.52716435185</v>
+        <v>45881.499259259261</v>
       </c>
       <c r="I62" s="2">
-        <v>-26</v>
+        <v>-12</v>
       </c>
       <c r="J62" s="3">
-        <v>53.26</v>
+        <v>110.74000000000001</v>
       </c>
       <c r="K62" s="3">
-        <v>53.26</v>
+        <v>110.74000000000001</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
@@ -3120,43 +3123,43 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>211110601</v>
+        <v>211110472</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
-      <c r="D63">
-        <v>2025</v>
+      <c r="D63" t="s">
+        <v>15</v>
       </c>
       <c r="E63">
-        <v>62</v>
+        <v>12123</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
       </c>
       <c r="G63" s="1">
-        <v>45874.611296296294</v>
+        <v>45920.52716435185</v>
       </c>
       <c r="H63" s="1">
-        <v>45814.611319444441</v>
+        <v>45890.52716435185</v>
       </c>
       <c r="I63" s="2">
-        <v>20</v>
+        <v>-21</v>
       </c>
       <c r="J63" s="3">
-        <v>1149.52</v>
+        <v>53.26</v>
       </c>
       <c r="K63" s="3">
-        <v>1149.52</v>
+        <v>53.26</v>
       </c>
       <c r="L63" t="s">
         <v>16</v>
       </c>
       <c r="M63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3169,29 +3172,29 @@
       <c r="C64" t="s">
         <v>14</v>
       </c>
-      <c r="D64">
-        <v>2025</v>
+      <c r="D64" t="s">
+        <v>15</v>
       </c>
       <c r="E64">
-        <v>68</v>
+        <v>9275</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
       </c>
       <c r="G64" s="1">
-        <v>45874.685046296298</v>
+        <v>45884.33143518518</v>
       </c>
       <c r="H64" s="1">
-        <v>45814.685057870367</v>
+        <v>45824.332418981481</v>
       </c>
       <c r="I64" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J64" s="3">
-        <v>124.59</v>
+        <v>1044.22</v>
       </c>
       <c r="K64" s="3">
-        <v>124.59</v>
+        <v>1044.22</v>
       </c>
       <c r="L64" t="s">
         <v>16</v>
@@ -3214,31 +3217,31 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>9275</v>
+        <v>10190</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
       </c>
       <c r="G65" s="1">
-        <v>45884.33143518518</v>
+        <v>45902.667199074072</v>
       </c>
       <c r="H65" s="1">
-        <v>45824.332418981481</v>
+        <v>45842.669027777774</v>
       </c>
       <c r="I65" s="2">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="J65" s="3">
-        <v>1044.22</v>
+        <v>732.56000000000006</v>
       </c>
       <c r="K65" s="3">
-        <v>1044.22</v>
+        <v>732.56000000000006</v>
       </c>
       <c r="L65" t="s">
         <v>16</v>
       </c>
       <c r="M65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3255,25 +3258,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>10190</v>
+        <v>11072</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
       </c>
       <c r="G66" s="1">
-        <v>45902.667199074072</v>
+        <v>45923.525937499995</v>
       </c>
       <c r="H66" s="1">
-        <v>45842.669027777774</v>
+        <v>45863.525949074072</v>
       </c>
       <c r="I66" s="2">
-        <v>-8</v>
+        <v>-24</v>
       </c>
       <c r="J66" s="3">
-        <v>732.56000000000006</v>
+        <v>1189.3500000000001</v>
       </c>
       <c r="K66" s="3">
-        <v>732.56000000000006</v>
+        <v>1189.3500000000001</v>
       </c>
       <c r="L66" t="s">
         <v>16</v>
@@ -3296,25 +3299,25 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>11072</v>
+        <v>11862</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
       </c>
       <c r="G67" s="1">
-        <v>45923.525937499995</v>
+        <v>45942.658090277779</v>
       </c>
       <c r="H67" s="1">
-        <v>45863.525949074072</v>
+        <v>45882.665937500002</v>
       </c>
       <c r="I67" s="2">
-        <v>-29</v>
+        <v>-43</v>
       </c>
       <c r="J67" s="3">
-        <v>1189.3500000000001</v>
+        <v>804.67000000000007</v>
       </c>
       <c r="K67" s="3">
-        <v>1189.3500000000001</v>
+        <v>804.67000000000007</v>
       </c>
       <c r="L67" t="s">
         <v>16</v>
@@ -3337,25 +3340,25 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>11862</v>
+        <v>12205</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
       </c>
       <c r="G68" s="1">
-        <v>45942.658090277779</v>
+        <v>45951.486747685187</v>
       </c>
       <c r="H68" s="1">
-        <v>45882.665937500002</v>
+        <v>45891.488124999996</v>
       </c>
       <c r="I68" s="2">
-        <v>-48</v>
+        <v>-52</v>
       </c>
       <c r="J68" s="3">
-        <v>804.67000000000007</v>
+        <v>775.22</v>
       </c>
       <c r="K68" s="3">
-        <v>804.67000000000007</v>
+        <v>775.22</v>
       </c>
       <c r="L68" t="s">
         <v>16</v>
@@ -3378,25 +3381,25 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>12205</v>
+        <v>12207</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
       </c>
       <c r="G69" s="1">
-        <v>45951.486747685187</v>
+        <v>45951.498171296291</v>
       </c>
       <c r="H69" s="1">
-        <v>45891.488124999996</v>
+        <v>45891.498182870368</v>
       </c>
       <c r="I69" s="2">
-        <v>-57</v>
+        <v>-52</v>
       </c>
       <c r="J69" s="3">
-        <v>775.22</v>
+        <v>62.72</v>
       </c>
       <c r="K69" s="3">
-        <v>775.22</v>
+        <v>62.72</v>
       </c>
       <c r="L69" t="s">
         <v>16</v>
@@ -3407,43 +3410,43 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>211110601</v>
+        <v>211110972</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D70">
+        <v>2025</v>
       </c>
       <c r="E70">
-        <v>12207</v>
+        <v>147</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
       </c>
       <c r="G70" s="1">
-        <v>45951.498171296291</v>
+        <v>45719</v>
       </c>
       <c r="H70" s="1">
-        <v>45891.498182870368</v>
+        <v>45719</v>
       </c>
       <c r="I70" s="2">
-        <v>-57</v>
+        <v>180</v>
       </c>
       <c r="J70" s="3">
-        <v>62.72</v>
+        <v>-70.86</v>
       </c>
       <c r="K70" s="3">
-        <v>62.72</v>
+        <v>-70.86</v>
       </c>
       <c r="L70" t="s">
         <v>16</v>
       </c>
       <c r="M70" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3454,45 +3457,45 @@
         <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
       </c>
       <c r="E71">
-        <v>147</v>
+        <v>7925</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
       </c>
       <c r="G71" s="1">
-        <v>45719</v>
+        <v>45793.585856481477</v>
       </c>
       <c r="H71" s="1">
-        <v>45719</v>
+        <v>45793.585856481477</v>
       </c>
       <c r="I71" s="2">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="J71" s="3">
-        <v>-70.86</v>
+        <v>305.11</v>
       </c>
       <c r="K71" s="3">
-        <v>-70.86</v>
+        <v>305.11</v>
       </c>
       <c r="L71" t="s">
         <v>16</v>
       </c>
       <c r="M71" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>211110972</v>
+        <v>211111193</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -3501,31 +3504,31 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>7925</v>
+        <v>10278</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
       </c>
       <c r="G72" s="1">
-        <v>45793.585856481477</v>
+        <v>45876.453530092593</v>
       </c>
       <c r="H72" s="1">
-        <v>45793.585856481477</v>
+        <v>45846.45412037037</v>
       </c>
       <c r="I72" s="2">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J72" s="3">
-        <v>305.11</v>
+        <v>185.83</v>
       </c>
       <c r="K72" s="3">
-        <v>305.11</v>
+        <v>185.83</v>
       </c>
       <c r="L72" t="s">
         <v>16</v>
       </c>
       <c r="M72" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3542,25 +3545,25 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>10278</v>
+        <v>10417</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
       </c>
       <c r="G73" s="1">
-        <v>45876.453530092593</v>
+        <v>45878.429606481477</v>
       </c>
       <c r="H73" s="1">
-        <v>45846.45412037037</v>
+        <v>45848.429606481477</v>
       </c>
       <c r="I73" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J73" s="3">
-        <v>185.83</v>
+        <v>157.53</v>
       </c>
       <c r="K73" s="3">
-        <v>185.83</v>
+        <v>157.53</v>
       </c>
       <c r="L73" t="s">
         <v>16</v>
@@ -3583,31 +3586,31 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>10417</v>
+        <v>11464</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
       </c>
       <c r="G74" s="1">
-        <v>45878.429606481477</v>
+        <v>45904.599629629629</v>
       </c>
       <c r="H74" s="1">
-        <v>45848.429606481477</v>
+        <v>45874.600023148145</v>
       </c>
       <c r="I74" s="2">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="J74" s="3">
-        <v>157.53</v>
+        <v>150.27000000000001</v>
       </c>
       <c r="K74" s="3">
-        <v>157.53</v>
+        <v>150.27000000000001</v>
       </c>
       <c r="L74" t="s">
         <v>16</v>
       </c>
       <c r="M74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3624,25 +3627,25 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>11464</v>
+        <v>12390</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
       </c>
       <c r="G75" s="1">
-        <v>45904.599629629629</v>
+        <v>45927.692523148144</v>
       </c>
       <c r="H75" s="1">
-        <v>45874.600023148145</v>
+        <v>45897.697824074072</v>
       </c>
       <c r="I75" s="2">
-        <v>-10</v>
+        <v>-28</v>
       </c>
       <c r="J75" s="3">
-        <v>150.27000000000001</v>
+        <v>95.77</v>
       </c>
       <c r="K75" s="3">
-        <v>150.27000000000001</v>
+        <v>95.77</v>
       </c>
       <c r="L75" t="s">
         <v>16</v>
@@ -3653,10 +3656,10 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>211111387</v>
+        <v>211111193</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3665,31 +3668,31 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>9950</v>
+        <v>12458</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
       </c>
       <c r="G76" s="1">
-        <v>45870.400196759256</v>
+        <v>45928.588912037034</v>
       </c>
       <c r="H76" s="1">
-        <v>45840.403055555551</v>
+        <v>45898.590173611112</v>
       </c>
       <c r="I76" s="2">
-        <v>24</v>
+        <v>-29</v>
       </c>
       <c r="J76" s="3">
-        <v>199.05</v>
+        <v>44.94</v>
       </c>
       <c r="K76" s="3">
-        <v>199.05</v>
+        <v>44.94</v>
       </c>
       <c r="L76" t="s">
         <v>16</v>
       </c>
       <c r="M76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3706,31 +3709,31 @@
         <v>15</v>
       </c>
       <c r="E77">
-        <v>10220</v>
+        <v>11378</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
       </c>
       <c r="G77" s="1">
-        <v>45875.488275462958</v>
+        <v>45903.47488425926</v>
       </c>
       <c r="H77" s="1">
-        <v>45845.488275462958</v>
+        <v>45873.47488425926</v>
       </c>
       <c r="I77" s="2">
-        <v>19</v>
+        <v>-4</v>
       </c>
       <c r="J77" s="3">
-        <v>129.57</v>
+        <v>601.37</v>
       </c>
       <c r="K77" s="3">
-        <v>129.57</v>
+        <v>601.37</v>
       </c>
       <c r="L77" t="s">
         <v>16</v>
       </c>
       <c r="M77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3747,31 +3750,31 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>10288</v>
+        <v>11720</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
       </c>
       <c r="G78" s="1">
-        <v>45876.543657407405</v>
+        <v>45910.544293981482</v>
       </c>
       <c r="H78" s="1">
-        <v>45846.543877314813</v>
+        <v>45880.544293981482</v>
       </c>
       <c r="I78" s="2">
-        <v>18</v>
+        <v>-11</v>
       </c>
       <c r="J78" s="3">
-        <v>270.58</v>
+        <v>350.65000000000003</v>
       </c>
       <c r="K78" s="3">
-        <v>270.58</v>
+        <v>350.65000000000003</v>
       </c>
       <c r="L78" t="s">
         <v>16</v>
       </c>
       <c r="M78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3788,31 +3791,31 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>10520</v>
+        <v>11921</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
       </c>
       <c r="G79" s="1">
-        <v>45882.479305555556</v>
+        <v>45913.619004629625</v>
       </c>
       <c r="H79" s="1">
-        <v>45852.479317129626</v>
+        <v>45883.619282407402</v>
       </c>
       <c r="I79" s="2">
-        <v>12</v>
+        <v>-14</v>
       </c>
       <c r="J79" s="3">
-        <v>309.35000000000002</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="K79" s="3">
-        <v>309.35000000000002</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="L79" t="s">
         <v>16</v>
       </c>
       <c r="M79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3829,31 +3832,31 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>10553</v>
+        <v>11958</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
       </c>
       <c r="G80" s="1">
-        <v>45883.416145833333</v>
+        <v>45917.500104166662</v>
       </c>
       <c r="H80" s="1">
-        <v>45853.416481481479</v>
+        <v>45887.501932870371</v>
       </c>
       <c r="I80" s="2">
-        <v>11</v>
+        <v>-18</v>
       </c>
       <c r="J80" s="3">
-        <v>131.41</v>
+        <v>421.36</v>
       </c>
       <c r="K80" s="3">
-        <v>131.41</v>
+        <v>421.36</v>
       </c>
       <c r="L80" t="s">
         <v>16</v>
       </c>
       <c r="M80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3870,31 +3873,31 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>10809</v>
+        <v>12219</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
       </c>
       <c r="G81" s="1">
-        <v>45889.482916666668</v>
+        <v>45924.431400462963</v>
       </c>
       <c r="H81" s="1">
-        <v>45859.482916666668</v>
+        <v>45894.431400462963</v>
       </c>
       <c r="I81" s="2">
-        <v>5</v>
+        <v>-25</v>
       </c>
       <c r="J81" s="3">
-        <v>395.15000000000003</v>
+        <v>223.47</v>
       </c>
       <c r="K81" s="3">
-        <v>395.15000000000003</v>
+        <v>223.47</v>
       </c>
       <c r="L81" t="s">
         <v>16</v>
       </c>
       <c r="M81" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3905,45 +3908,45 @@
         <v>35</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
       </c>
       <c r="E82">
-        <v>684</v>
+        <v>12457</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
       </c>
       <c r="G82" s="1">
-        <v>45892</v>
+        <v>45928.581006944441</v>
       </c>
       <c r="H82" s="1">
-        <v>45862</v>
+        <v>45898.581319444442</v>
       </c>
       <c r="I82" s="2">
-        <v>2</v>
+        <v>-29</v>
       </c>
       <c r="J82" s="3">
-        <v>-13.73</v>
+        <v>370</v>
       </c>
       <c r="K82" s="3">
-        <v>-13.73</v>
+        <v>370</v>
       </c>
       <c r="L82" t="s">
         <v>16</v>
       </c>
       <c r="M82" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>211111387</v>
+        <v>211111478</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3952,39 +3955,39 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>11094</v>
+        <v>10964</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
       </c>
       <c r="G83" s="1">
-        <v>45896.473761574074</v>
+        <v>45891.654791666668</v>
       </c>
       <c r="H83" s="1">
-        <v>45866.473761574074</v>
+        <v>45861.655266203699</v>
       </c>
       <c r="I83" s="2">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="J83" s="3">
-        <v>299.01</v>
+        <v>78.75</v>
       </c>
       <c r="K83" s="3">
-        <v>299.01</v>
+        <v>78.75</v>
       </c>
       <c r="L83" t="s">
         <v>16</v>
       </c>
       <c r="M83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>211111387</v>
+        <v>211111478</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -3993,25 +3996,25 @@
         <v>15</v>
       </c>
       <c r="E84">
-        <v>11136</v>
+        <v>11256</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
       </c>
       <c r="G84" s="1">
-        <v>45896.75268518518</v>
+        <v>45899.266192129631</v>
       </c>
       <c r="H84" s="1">
-        <v>45866.754085648143</v>
+        <v>45869.26662037037</v>
       </c>
       <c r="I84" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J84" s="3">
-        <v>395.47</v>
+        <v>24.94</v>
       </c>
       <c r="K84" s="3">
-        <v>395.47</v>
+        <v>24.94</v>
       </c>
       <c r="L84" t="s">
         <v>16</v>
@@ -4022,10 +4025,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>211111387</v>
+        <v>211111478</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -4034,25 +4037,25 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>11263</v>
+        <v>11465</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
       </c>
       <c r="G85" s="1">
-        <v>45899.415798611109</v>
+        <v>45904.638726851852</v>
       </c>
       <c r="H85" s="1">
-        <v>45869.416585648149</v>
+        <v>45874.640844907408</v>
       </c>
       <c r="I85" s="2">
         <v>-5</v>
       </c>
       <c r="J85" s="3">
-        <v>111.83</v>
+        <v>72.960000000000008</v>
       </c>
       <c r="K85" s="3">
-        <v>111.83</v>
+        <v>72.960000000000008</v>
       </c>
       <c r="L85" t="s">
         <v>16</v>
@@ -4063,10 +4066,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211111387</v>
+        <v>211111506</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4075,25 +4078,25 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>11378</v>
+        <v>12232</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
       </c>
       <c r="G86" s="1">
-        <v>45903.47488425926</v>
+        <v>45924.493969907402</v>
       </c>
       <c r="H86" s="1">
-        <v>45873.47488425926</v>
+        <v>45894.49664351852</v>
       </c>
       <c r="I86" s="2">
-        <v>-9</v>
+        <v>-25</v>
       </c>
       <c r="J86" s="3">
-        <v>601.37</v>
+        <v>555.91</v>
       </c>
       <c r="K86" s="3">
-        <v>601.37</v>
+        <v>555.91</v>
       </c>
       <c r="L86" t="s">
         <v>16</v>
@@ -4104,10 +4107,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211111387</v>
+        <v>211111506</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4116,25 +4119,25 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>11720</v>
+        <v>12267</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
       </c>
       <c r="G87" s="1">
-        <v>45910.544293981482</v>
+        <v>45925.395023148143</v>
       </c>
       <c r="H87" s="1">
-        <v>45880.544293981482</v>
+        <v>45895.400532407402</v>
       </c>
       <c r="I87" s="2">
-        <v>-16</v>
+        <v>-26</v>
       </c>
       <c r="J87" s="3">
-        <v>350.65000000000003</v>
+        <v>110.86</v>
       </c>
       <c r="K87" s="3">
-        <v>350.65000000000003</v>
+        <v>110.86</v>
       </c>
       <c r="L87" t="s">
         <v>16</v>
@@ -4145,10 +4148,10 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211111387</v>
+        <v>211111506</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4157,25 +4160,25 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>11921</v>
+        <v>12272</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
       </c>
       <c r="G88" s="1">
-        <v>45913.619004629625</v>
+        <v>45925.496944444443</v>
       </c>
       <c r="H88" s="1">
-        <v>45883.619282407402</v>
+        <v>45895.502094907402</v>
       </c>
       <c r="I88" s="2">
-        <v>-19</v>
+        <v>-26</v>
       </c>
       <c r="J88" s="3">
-        <v>139.30000000000001</v>
+        <v>87.95</v>
       </c>
       <c r="K88" s="3">
-        <v>139.30000000000001</v>
+        <v>87.95</v>
       </c>
       <c r="L88" t="s">
         <v>16</v>
@@ -4186,10 +4189,10 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211111387</v>
+        <v>211111506</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -4198,25 +4201,25 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>11958</v>
+        <v>12437</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
       </c>
       <c r="G89" s="1">
-        <v>45917.500104166662</v>
+        <v>45928.499907407408</v>
       </c>
       <c r="H89" s="1">
-        <v>45887.501932870371</v>
+        <v>45898.500115740739</v>
       </c>
       <c r="I89" s="2">
-        <v>-23</v>
+        <v>-29</v>
       </c>
       <c r="J89" s="3">
-        <v>421.36</v>
+        <v>451.16</v>
       </c>
       <c r="K89" s="3">
-        <v>421.36</v>
+        <v>451.16</v>
       </c>
       <c r="L89" t="s">
         <v>16</v>
@@ -4227,51 +4230,51 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211111478</v>
+        <v>211111625</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D90">
+        <v>2025</v>
       </c>
       <c r="E90">
-        <v>10964</v>
+        <v>602</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
       </c>
       <c r="G90" s="1">
-        <v>45891.654791666668</v>
+        <v>45869</v>
       </c>
       <c r="H90" s="1">
-        <v>45861.655266203699</v>
+        <v>45839</v>
       </c>
       <c r="I90" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J90" s="3">
-        <v>78.75</v>
+        <v>-38.380000000000003</v>
       </c>
       <c r="K90" s="3">
-        <v>78.75</v>
+        <v>-38.380000000000003</v>
       </c>
       <c r="L90" t="s">
         <v>16</v>
       </c>
       <c r="M90" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211111478</v>
+        <v>211111625</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4280,39 +4283,39 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>11256</v>
+        <v>9936</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
       </c>
       <c r="G91" s="1">
-        <v>45899.266192129631</v>
+        <v>45869.406018518515</v>
       </c>
       <c r="H91" s="1">
-        <v>45869.26662037037</v>
+        <v>45839.407280092593</v>
       </c>
       <c r="I91" s="2">
-        <v>-5</v>
+        <v>30</v>
       </c>
       <c r="J91" s="3">
-        <v>24.94</v>
+        <v>328.58</v>
       </c>
       <c r="K91" s="3">
-        <v>24.94</v>
+        <v>328.58</v>
       </c>
       <c r="L91" t="s">
         <v>16</v>
       </c>
       <c r="M91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211111478</v>
+        <v>211111625</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -4321,39 +4324,39 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>11465</v>
+        <v>11145</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
       </c>
       <c r="G92" s="1">
-        <v>45904.638726851852</v>
+        <v>45897.404432870368</v>
       </c>
       <c r="H92" s="1">
-        <v>45874.640844907408</v>
+        <v>45867.405844907407</v>
       </c>
       <c r="I92" s="2">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="J92" s="3">
-        <v>72.960000000000008</v>
+        <v>89.11</v>
       </c>
       <c r="K92" s="3">
-        <v>72.960000000000008</v>
+        <v>89.11</v>
       </c>
       <c r="L92" t="s">
         <v>16</v>
       </c>
       <c r="M92" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211111506</v>
+        <v>211111625</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -4362,25 +4365,25 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>11968</v>
+        <v>11455</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
       </c>
       <c r="G93" s="1">
-        <v>45917.587361111109</v>
+        <v>45904.54042824074</v>
       </c>
       <c r="H93" s="1">
-        <v>45887.587789351848</v>
+        <v>45874.54042824074</v>
       </c>
       <c r="I93" s="2">
-        <v>-23</v>
+        <v>-5</v>
       </c>
       <c r="J93" s="3">
-        <v>199.9</v>
+        <v>1218.51</v>
       </c>
       <c r="K93" s="3">
-        <v>199.9</v>
+        <v>1218.51</v>
       </c>
       <c r="L93" t="s">
         <v>16</v>
@@ -4391,10 +4394,10 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211111506</v>
+        <v>211111625</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4403,25 +4406,25 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>11971</v>
+        <v>11739</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
       </c>
       <c r="G94" s="1">
-        <v>45917.595879629625</v>
+        <v>45911.439444444441</v>
       </c>
       <c r="H94" s="1">
-        <v>45887.596631944441</v>
+        <v>45881.439444444441</v>
       </c>
       <c r="I94" s="2">
-        <v>-23</v>
+        <v>-12</v>
       </c>
       <c r="J94" s="3">
-        <v>147.93</v>
+        <v>116.93</v>
       </c>
       <c r="K94" s="3">
-        <v>147.93</v>
+        <v>116.93</v>
       </c>
       <c r="L94" t="s">
         <v>16</v>
@@ -4432,10 +4435,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211111506</v>
+        <v>211111625</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -4444,25 +4447,25 @@
         <v>15</v>
       </c>
       <c r="E95">
-        <v>11983</v>
+        <v>12012</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
       </c>
       <c r="G95" s="1">
-        <v>45918.311018518514</v>
+        <v>45918.532141203701</v>
       </c>
       <c r="H95" s="1">
-        <v>45888.311354166668</v>
+        <v>45888.532141203701</v>
       </c>
       <c r="I95" s="2">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="J95" s="3">
-        <v>53.26</v>
+        <v>1075.79</v>
       </c>
       <c r="K95" s="3">
-        <v>53.26</v>
+        <v>1075.79</v>
       </c>
       <c r="L95" t="s">
         <v>16</v>
@@ -4473,10 +4476,10 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211111506</v>
+        <v>211111625</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -4485,25 +4488,25 @@
         <v>15</v>
       </c>
       <c r="E96">
-        <v>12023</v>
+        <v>12193</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
       </c>
       <c r="G96" s="1">
-        <v>45918.567291666666</v>
+        <v>45921.441585648143</v>
       </c>
       <c r="H96" s="1">
-        <v>45888.567546296297</v>
+        <v>45891.441585648143</v>
       </c>
       <c r="I96" s="2">
-        <v>-24</v>
+        <v>-22</v>
       </c>
       <c r="J96" s="3">
-        <v>390.39</v>
+        <v>655.7</v>
       </c>
       <c r="K96" s="3">
-        <v>390.39</v>
+        <v>655.7</v>
       </c>
       <c r="L96" t="s">
         <v>16</v>
@@ -4520,45 +4523,45 @@
         <v>38</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>602</v>
+        <v>12427</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
       </c>
       <c r="G97" s="1">
-        <v>45869</v>
+        <v>45928.42763888889</v>
       </c>
       <c r="H97" s="1">
-        <v>45839</v>
+        <v>45898.42765046296</v>
       </c>
       <c r="I97" s="2">
-        <v>25</v>
+        <v>-29</v>
       </c>
       <c r="J97" s="3">
-        <v>-38.380000000000003</v>
+        <v>926.02</v>
       </c>
       <c r="K97" s="3">
-        <v>-38.380000000000003</v>
+        <v>926.02</v>
       </c>
       <c r="L97" t="s">
         <v>16</v>
       </c>
       <c r="M97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -4567,25 +4570,25 @@
         <v>15</v>
       </c>
       <c r="E98">
-        <v>9936</v>
+        <v>10144</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
       </c>
       <c r="G98" s="1">
-        <v>45869.406018518515</v>
+        <v>45872.453831018516</v>
       </c>
       <c r="H98" s="1">
-        <v>45839.407280092593</v>
+        <v>45842.453831018516</v>
       </c>
       <c r="I98" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J98" s="3">
-        <v>328.58</v>
+        <v>833.06000000000006</v>
       </c>
       <c r="K98" s="3">
-        <v>328.58</v>
+        <v>833.06000000000006</v>
       </c>
       <c r="L98" t="s">
         <v>16</v>
@@ -4596,10 +4599,10 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4608,39 +4611,39 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>11145</v>
+        <v>10277</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
       </c>
       <c r="G99" s="1">
-        <v>45897.404432870368</v>
+        <v>45876.441319444442</v>
       </c>
       <c r="H99" s="1">
-        <v>45867.405844907407</v>
+        <v>45846.441319444442</v>
       </c>
       <c r="I99" s="2">
-        <v>-3</v>
+        <v>23</v>
       </c>
       <c r="J99" s="3">
-        <v>89.11</v>
+        <v>1056.32</v>
       </c>
       <c r="K99" s="3">
-        <v>89.11</v>
+        <v>1056.32</v>
       </c>
       <c r="L99" t="s">
         <v>16</v>
       </c>
       <c r="M99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -4649,80 +4652,80 @@
         <v>15</v>
       </c>
       <c r="E100">
-        <v>11175</v>
+        <v>10352</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
       </c>
       <c r="G100" s="1">
-        <v>45897.554768518516</v>
+        <v>45877.450138888889</v>
       </c>
       <c r="H100" s="1">
-        <v>45867.554780092592</v>
+        <v>45847.450150462959</v>
       </c>
       <c r="I100" s="2">
-        <v>-3</v>
+        <v>22</v>
       </c>
       <c r="J100" s="3">
-        <v>742.58</v>
+        <v>210.29</v>
       </c>
       <c r="K100" s="3">
-        <v>742.58</v>
+        <v>210.29</v>
       </c>
       <c r="L100" t="s">
         <v>16</v>
       </c>
       <c r="M100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D101">
+        <v>2025</v>
       </c>
       <c r="E101">
-        <v>11311</v>
+        <v>636</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
       </c>
       <c r="G101" s="1">
-        <v>45900.455590277779</v>
+        <v>45878</v>
       </c>
       <c r="H101" s="1">
-        <v>45870.455590277779</v>
+        <v>45848</v>
       </c>
       <c r="I101" s="2">
-        <v>-6</v>
+        <v>21</v>
       </c>
       <c r="J101" s="3">
-        <v>528.91999999999996</v>
+        <v>-507.94</v>
       </c>
       <c r="K101" s="3">
-        <v>528.91999999999996</v>
+        <v>-507.94</v>
       </c>
       <c r="L101" t="s">
         <v>16</v>
       </c>
       <c r="M101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -4731,39 +4734,39 @@
         <v>15</v>
       </c>
       <c r="E102">
-        <v>11455</v>
+        <v>10419</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
       </c>
       <c r="G102" s="1">
-        <v>45904.54042824074</v>
+        <v>45878.429652777777</v>
       </c>
       <c r="H102" s="1">
-        <v>45874.54042824074</v>
+        <v>45848.429652777777</v>
       </c>
       <c r="I102" s="2">
-        <v>-10</v>
+        <v>21</v>
       </c>
       <c r="J102" s="3">
-        <v>1218.51</v>
+        <v>540.54999999999995</v>
       </c>
       <c r="K102" s="3">
-        <v>1218.51</v>
+        <v>540.54999999999995</v>
       </c>
       <c r="L102" t="s">
         <v>16</v>
       </c>
       <c r="M102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4772,39 +4775,39 @@
         <v>15</v>
       </c>
       <c r="E103">
-        <v>11739</v>
+        <v>10477</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
       </c>
       <c r="G103" s="1">
-        <v>45911.439444444441</v>
+        <v>45879.432314814811</v>
       </c>
       <c r="H103" s="1">
-        <v>45881.439444444441</v>
+        <v>45849.432314814811</v>
       </c>
       <c r="I103" s="2">
-        <v>-17</v>
+        <v>20</v>
       </c>
       <c r="J103" s="3">
-        <v>116.93</v>
+        <v>165.06</v>
       </c>
       <c r="K103" s="3">
-        <v>116.93</v>
+        <v>165.06</v>
       </c>
       <c r="L103" t="s">
         <v>16</v>
       </c>
       <c r="M103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -4813,39 +4816,39 @@
         <v>15</v>
       </c>
       <c r="E104">
-        <v>12012</v>
+        <v>10508</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
       </c>
       <c r="G104" s="1">
-        <v>45918.532141203701</v>
+        <v>45882.471365740741</v>
       </c>
       <c r="H104" s="1">
-        <v>45888.532141203701</v>
+        <v>45852.471365740741</v>
       </c>
       <c r="I104" s="2">
-        <v>-24</v>
+        <v>17</v>
       </c>
       <c r="J104" s="3">
-        <v>1075.79</v>
+        <v>110.59</v>
       </c>
       <c r="K104" s="3">
-        <v>1075.79</v>
+        <v>110.59</v>
       </c>
       <c r="L104" t="s">
         <v>16</v>
       </c>
       <c r="M104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -4854,31 +4857,31 @@
         <v>15</v>
       </c>
       <c r="E105">
-        <v>12193</v>
+        <v>10519</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
       </c>
       <c r="G105" s="1">
-        <v>45921.441585648143</v>
+        <v>45882.479282407403</v>
       </c>
       <c r="H105" s="1">
-        <v>45891.441585648143</v>
+        <v>45852.479282407403</v>
       </c>
       <c r="I105" s="2">
-        <v>-27</v>
+        <v>17</v>
       </c>
       <c r="J105" s="3">
-        <v>655.7</v>
+        <v>439.56</v>
       </c>
       <c r="K105" s="3">
-        <v>655.7</v>
+        <v>439.56</v>
       </c>
       <c r="L105" t="s">
         <v>16</v>
       </c>
       <c r="M105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4895,25 +4898,25 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <v>10144</v>
+        <v>10626</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
       </c>
       <c r="G106" s="1">
-        <v>45872.453831018516</v>
+        <v>45884.449004629627</v>
       </c>
       <c r="H106" s="1">
-        <v>45842.453831018516</v>
+        <v>45854.449004629627</v>
       </c>
       <c r="I106" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J106" s="3">
-        <v>833.06000000000006</v>
+        <v>49.69</v>
       </c>
       <c r="K106" s="3">
-        <v>833.06000000000006</v>
+        <v>49.69</v>
       </c>
       <c r="L106" t="s">
         <v>16</v>
@@ -4936,25 +4939,25 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>10277</v>
+        <v>10811</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
       </c>
       <c r="G107" s="1">
-        <v>45876.441319444442</v>
+        <v>45889.48296296296</v>
       </c>
       <c r="H107" s="1">
-        <v>45846.441319444442</v>
+        <v>45859.48296296296</v>
       </c>
       <c r="I107" s="2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J107" s="3">
-        <v>1056.32</v>
+        <v>481.88</v>
       </c>
       <c r="K107" s="3">
-        <v>1056.32</v>
+        <v>481.88</v>
       </c>
       <c r="L107" t="s">
         <v>16</v>
@@ -4971,31 +4974,31 @@
         <v>39</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D108">
+        <v>2025</v>
       </c>
       <c r="E108">
-        <v>10352</v>
+        <v>666</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
       </c>
       <c r="G108" s="1">
-        <v>45877.450138888889</v>
+        <v>45891</v>
       </c>
       <c r="H108" s="1">
-        <v>45847.450150462959</v>
+        <v>45861</v>
       </c>
       <c r="I108" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J108" s="3">
-        <v>210.29</v>
+        <v>-359.47</v>
       </c>
       <c r="K108" s="3">
-        <v>210.29</v>
+        <v>-359.47</v>
       </c>
       <c r="L108" t="s">
         <v>16</v>
@@ -5018,25 +5021,25 @@
         <v>2025</v>
       </c>
       <c r="E109">
-        <v>636</v>
+        <v>679</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
       </c>
       <c r="G109" s="1">
-        <v>45878</v>
+        <v>45892</v>
       </c>
       <c r="H109" s="1">
-        <v>45848</v>
+        <v>45862</v>
       </c>
       <c r="I109" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J109" s="3">
-        <v>-507.94</v>
+        <v>-11.61</v>
       </c>
       <c r="K109" s="3">
-        <v>-507.94</v>
+        <v>-11.61</v>
       </c>
       <c r="L109" t="s">
         <v>16</v>
@@ -5059,25 +5062,25 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <v>10419</v>
+        <v>10999</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
       </c>
       <c r="G110" s="1">
-        <v>45878.429652777777</v>
+        <v>45892.498240740737</v>
       </c>
       <c r="H110" s="1">
-        <v>45848.429652777777</v>
+        <v>45862.498240740737</v>
       </c>
       <c r="I110" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J110" s="3">
-        <v>540.54999999999995</v>
+        <v>134.38</v>
       </c>
       <c r="K110" s="3">
-        <v>540.54999999999995</v>
+        <v>134.38</v>
       </c>
       <c r="L110" t="s">
         <v>16</v>
@@ -5100,31 +5103,31 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>10477</v>
+        <v>11123</v>
       </c>
       <c r="F111" t="s">
         <v>19</v>
       </c>
       <c r="G111" s="1">
-        <v>45879.432314814811</v>
+        <v>45896.546006944445</v>
       </c>
       <c r="H111" s="1">
-        <v>45849.432314814811</v>
+        <v>45866.547673611109</v>
       </c>
       <c r="I111" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J111" s="3">
-        <v>165.06</v>
+        <v>727.73</v>
       </c>
       <c r="K111" s="3">
-        <v>165.06</v>
+        <v>727.73</v>
       </c>
       <c r="L111" t="s">
         <v>16</v>
       </c>
       <c r="M111" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5141,31 +5144,31 @@
         <v>15</v>
       </c>
       <c r="E112">
-        <v>10508</v>
+        <v>11288</v>
       </c>
       <c r="F112" t="s">
         <v>19</v>
       </c>
       <c r="G112" s="1">
-        <v>45882.471365740741</v>
+        <v>45899.506018518514</v>
       </c>
       <c r="H112" s="1">
-        <v>45852.471365740741</v>
+        <v>45869.506030092591</v>
       </c>
       <c r="I112" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J112" s="3">
-        <v>110.59</v>
+        <v>228.8</v>
       </c>
       <c r="K112" s="3">
-        <v>110.59</v>
+        <v>228.8</v>
       </c>
       <c r="L112" t="s">
         <v>16</v>
       </c>
       <c r="M112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5176,37 +5179,37 @@
         <v>39</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D113">
+        <v>2025</v>
       </c>
       <c r="E113">
-        <v>10519</v>
+        <v>713</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
       </c>
       <c r="G113" s="1">
-        <v>45882.479282407403</v>
+        <v>45900</v>
       </c>
       <c r="H113" s="1">
-        <v>45852.479282407403</v>
+        <v>45870</v>
       </c>
       <c r="I113" s="2">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J113" s="3">
-        <v>439.56</v>
+        <v>-15.39</v>
       </c>
       <c r="K113" s="3">
-        <v>439.56</v>
+        <v>-15.39</v>
       </c>
       <c r="L113" t="s">
         <v>16</v>
       </c>
       <c r="M113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5223,31 +5226,31 @@
         <v>15</v>
       </c>
       <c r="E114">
-        <v>10626</v>
+        <v>11344</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
       </c>
       <c r="G114" s="1">
-        <v>45884.449004629627</v>
+        <v>45900.516886574071</v>
       </c>
       <c r="H114" s="1">
-        <v>45854.449004629627</v>
+        <v>45870.516898148147</v>
       </c>
       <c r="I114" s="2">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J114" s="3">
-        <v>49.69</v>
+        <v>741.32</v>
       </c>
       <c r="K114" s="3">
-        <v>49.69</v>
+        <v>741.32</v>
       </c>
       <c r="L114" t="s">
         <v>16</v>
       </c>
       <c r="M114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5264,31 +5267,31 @@
         <v>15</v>
       </c>
       <c r="E115">
-        <v>10811</v>
+        <v>11446</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
       </c>
       <c r="G115" s="1">
-        <v>45889.48296296296</v>
+        <v>45904.531446759254</v>
       </c>
       <c r="H115" s="1">
-        <v>45859.48296296296</v>
+        <v>45874.531446759254</v>
       </c>
       <c r="I115" s="2">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="J115" s="3">
-        <v>481.88</v>
+        <v>49.82</v>
       </c>
       <c r="K115" s="3">
-        <v>481.88</v>
+        <v>49.82</v>
       </c>
       <c r="L115" t="s">
         <v>16</v>
       </c>
       <c r="M115" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5299,37 +5302,37 @@
         <v>39</v>
       </c>
       <c r="C116" t="s">
-        <v>21</v>
-      </c>
-      <c r="D116">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D116" t="s">
+        <v>15</v>
       </c>
       <c r="E116">
-        <v>666</v>
+        <v>11547</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
       </c>
       <c r="G116" s="1">
-        <v>45891</v>
+        <v>45905.643067129626</v>
       </c>
       <c r="H116" s="1">
-        <v>45861</v>
+        <v>45875.643437499995</v>
       </c>
       <c r="I116" s="2">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="J116" s="3">
-        <v>-359.47</v>
+        <v>699.11</v>
       </c>
       <c r="K116" s="3">
-        <v>-359.47</v>
+        <v>699.11</v>
       </c>
       <c r="L116" t="s">
         <v>16</v>
       </c>
       <c r="M116" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5340,37 +5343,37 @@
         <v>39</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
-      </c>
-      <c r="D117">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D117" t="s">
+        <v>15</v>
       </c>
       <c r="E117">
-        <v>679</v>
+        <v>11552</v>
       </c>
       <c r="F117" t="s">
         <v>19</v>
       </c>
       <c r="G117" s="1">
-        <v>45892</v>
+        <v>45906.357638888891</v>
       </c>
       <c r="H117" s="1">
-        <v>45862</v>
+        <v>45876.35765046296</v>
       </c>
       <c r="I117" s="2">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="J117" s="3">
-        <v>-11.61</v>
+        <v>179.12</v>
       </c>
       <c r="K117" s="3">
-        <v>-11.61</v>
+        <v>179.12</v>
       </c>
       <c r="L117" t="s">
         <v>16</v>
       </c>
       <c r="M117" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5387,31 +5390,31 @@
         <v>15</v>
       </c>
       <c r="E118">
-        <v>10999</v>
+        <v>11660</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
       </c>
       <c r="G118" s="1">
-        <v>45892.498240740737</v>
+        <v>45907.602372685185</v>
       </c>
       <c r="H118" s="1">
-        <v>45862.498240740737</v>
+        <v>45877.602372685185</v>
       </c>
       <c r="I118" s="2">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="J118" s="3">
-        <v>134.38</v>
+        <v>81.33</v>
       </c>
       <c r="K118" s="3">
-        <v>134.38</v>
+        <v>81.33</v>
       </c>
       <c r="L118" t="s">
         <v>16</v>
       </c>
       <c r="M118" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5428,25 +5431,25 @@
         <v>15</v>
       </c>
       <c r="E119">
-        <v>11123</v>
+        <v>11718</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
       </c>
       <c r="G119" s="1">
-        <v>45896.546006944445</v>
+        <v>45910.541782407403</v>
       </c>
       <c r="H119" s="1">
-        <v>45866.547673611109</v>
+        <v>45880.54179398148</v>
       </c>
       <c r="I119" s="2">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="J119" s="3">
-        <v>727.73</v>
+        <v>119.29</v>
       </c>
       <c r="K119" s="3">
-        <v>727.73</v>
+        <v>119.29</v>
       </c>
       <c r="L119" t="s">
         <v>16</v>
@@ -5469,25 +5472,25 @@
         <v>15</v>
       </c>
       <c r="E120">
-        <v>11288</v>
+        <v>12039</v>
       </c>
       <c r="F120" t="s">
         <v>19</v>
       </c>
       <c r="G120" s="1">
-        <v>45899.506018518514</v>
+        <v>45919.406863425924</v>
       </c>
       <c r="H120" s="1">
-        <v>45869.506030092591</v>
+        <v>45889.407824074071</v>
       </c>
       <c r="I120" s="2">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="J120" s="3">
-        <v>228.8</v>
+        <v>156.55000000000001</v>
       </c>
       <c r="K120" s="3">
-        <v>228.8</v>
+        <v>156.55000000000001</v>
       </c>
       <c r="L120" t="s">
         <v>16</v>
@@ -5504,31 +5507,31 @@
         <v>39</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
-      </c>
-      <c r="D121">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D121" t="s">
+        <v>15</v>
       </c>
       <c r="E121">
-        <v>713</v>
+        <v>12077</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
       </c>
       <c r="G121" s="1">
-        <v>45900</v>
+        <v>45919.572557870371</v>
       </c>
       <c r="H121" s="1">
-        <v>45870</v>
+        <v>45889.572569444441</v>
       </c>
       <c r="I121" s="2">
-        <v>-6</v>
+        <v>-20</v>
       </c>
       <c r="J121" s="3">
-        <v>-15.39</v>
+        <v>242.01</v>
       </c>
       <c r="K121" s="3">
-        <v>-15.39</v>
+        <v>242.01</v>
       </c>
       <c r="L121" t="s">
         <v>16</v>
@@ -5551,25 +5554,25 @@
         <v>15</v>
       </c>
       <c r="E122">
-        <v>11344</v>
+        <v>12212</v>
       </c>
       <c r="F122" t="s">
         <v>19</v>
       </c>
       <c r="G122" s="1">
-        <v>45900.516886574071</v>
+        <v>45921.610219907408</v>
       </c>
       <c r="H122" s="1">
-        <v>45870.516898148147</v>
+        <v>45891.614027777774</v>
       </c>
       <c r="I122" s="2">
-        <v>-6</v>
+        <v>-22</v>
       </c>
       <c r="J122" s="3">
-        <v>741.32</v>
+        <v>101</v>
       </c>
       <c r="K122" s="3">
-        <v>741.32</v>
+        <v>101</v>
       </c>
       <c r="L122" t="s">
         <v>16</v>
@@ -5592,25 +5595,25 @@
         <v>15</v>
       </c>
       <c r="E123">
-        <v>11446</v>
+        <v>12251</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
       </c>
       <c r="G123" s="1">
-        <v>45904.531446759254</v>
+        <v>45925.350347222222</v>
       </c>
       <c r="H123" s="1">
-        <v>45874.531446759254</v>
+        <v>45895.350358796291</v>
       </c>
       <c r="I123" s="2">
-        <v>-10</v>
+        <v>-26</v>
       </c>
       <c r="J123" s="3">
-        <v>49.82</v>
+        <v>153.34</v>
       </c>
       <c r="K123" s="3">
-        <v>49.82</v>
+        <v>153.34</v>
       </c>
       <c r="L123" t="s">
         <v>16</v>
@@ -5621,10 +5624,10 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>211111888</v>
+        <v>211111892</v>
       </c>
       <c r="B124" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
@@ -5633,25 +5636,25 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>11547</v>
+        <v>12230</v>
       </c>
       <c r="F124" t="s">
         <v>19</v>
       </c>
       <c r="G124" s="1">
-        <v>45905.643067129626</v>
+        <v>45924.45648148148</v>
       </c>
       <c r="H124" s="1">
-        <v>45875.643437499995</v>
+        <v>45894.45648148148</v>
       </c>
       <c r="I124" s="2">
-        <v>-11</v>
+        <v>-25</v>
       </c>
       <c r="J124" s="3">
-        <v>699.11</v>
+        <v>73.91</v>
       </c>
       <c r="K124" s="3">
-        <v>699.11</v>
+        <v>73.91</v>
       </c>
       <c r="L124" t="s">
         <v>16</v>
@@ -5662,10 +5665,10 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>211111888</v>
+        <v>211111943</v>
       </c>
       <c r="B125" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
@@ -5674,25 +5677,25 @@
         <v>15</v>
       </c>
       <c r="E125">
-        <v>11552</v>
+        <v>11857</v>
       </c>
       <c r="F125" t="s">
         <v>19</v>
       </c>
       <c r="G125" s="1">
-        <v>45906.357638888891</v>
+        <v>45912.582881944443</v>
       </c>
       <c r="H125" s="1">
-        <v>45876.35765046296</v>
+        <v>45882.58289351852</v>
       </c>
       <c r="I125" s="2">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="J125" s="3">
-        <v>179.12</v>
+        <v>46.86</v>
       </c>
       <c r="K125" s="3">
-        <v>179.12</v>
+        <v>46.86</v>
       </c>
       <c r="L125" t="s">
         <v>16</v>
@@ -5703,10 +5706,10 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>211111888</v>
+        <v>211111943</v>
       </c>
       <c r="B126" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
@@ -5715,25 +5718,25 @@
         <v>15</v>
       </c>
       <c r="E126">
-        <v>11660</v>
+        <v>12028</v>
       </c>
       <c r="F126" t="s">
         <v>19</v>
       </c>
       <c r="G126" s="1">
-        <v>45907.602372685185</v>
+        <v>45918.675983796296</v>
       </c>
       <c r="H126" s="1">
-        <v>45877.602372685185</v>
+        <v>45888.676168981481</v>
       </c>
       <c r="I126" s="2">
-        <v>-13</v>
+        <v>-19</v>
       </c>
       <c r="J126" s="3">
-        <v>81.33</v>
+        <v>139.79</v>
       </c>
       <c r="K126" s="3">
-        <v>81.33</v>
+        <v>139.79</v>
       </c>
       <c r="L126" t="s">
         <v>16</v>
@@ -5744,10 +5747,10 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
@@ -5756,39 +5759,39 @@
         <v>15</v>
       </c>
       <c r="E127">
-        <v>11718</v>
+        <v>10431</v>
       </c>
       <c r="F127" t="s">
         <v>19</v>
       </c>
       <c r="G127" s="1">
-        <v>45910.541782407403</v>
+        <v>45878.592581018514</v>
       </c>
       <c r="H127" s="1">
-        <v>45880.54179398148</v>
+        <v>45848.592581018514</v>
       </c>
       <c r="I127" s="2">
-        <v>-16</v>
+        <v>21</v>
       </c>
       <c r="J127" s="3">
-        <v>119.29</v>
+        <v>414.76</v>
       </c>
       <c r="K127" s="3">
-        <v>119.29</v>
+        <v>414.76</v>
       </c>
       <c r="L127" t="s">
         <v>16</v>
       </c>
       <c r="M127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C128" t="s">
         <v>14</v>
@@ -5797,39 +5800,39 @@
         <v>15</v>
       </c>
       <c r="E128">
-        <v>12039</v>
+        <v>10728</v>
       </c>
       <c r="F128" t="s">
         <v>19</v>
       </c>
       <c r="G128" s="1">
-        <v>45919.406863425924</v>
+        <v>45886.283738425926</v>
       </c>
       <c r="H128" s="1">
-        <v>45889.407824074071</v>
+        <v>45856.284224537034</v>
       </c>
       <c r="I128" s="2">
-        <v>-25</v>
+        <v>13</v>
       </c>
       <c r="J128" s="3">
-        <v>156.55000000000001</v>
+        <v>278.35000000000002</v>
       </c>
       <c r="K128" s="3">
-        <v>156.55000000000001</v>
+        <v>278.35000000000002</v>
       </c>
       <c r="L128" t="s">
         <v>16</v>
       </c>
       <c r="M128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -5838,25 +5841,25 @@
         <v>15</v>
       </c>
       <c r="E129">
-        <v>12077</v>
+        <v>11297</v>
       </c>
       <c r="F129" t="s">
         <v>19</v>
       </c>
       <c r="G129" s="1">
-        <v>45919.572557870371</v>
+        <v>45900.295555555553</v>
       </c>
       <c r="H129" s="1">
-        <v>45889.572569444441</v>
+        <v>45870.300393518519</v>
       </c>
       <c r="I129" s="2">
-        <v>-25</v>
+        <v>-1</v>
       </c>
       <c r="J129" s="3">
-        <v>242.01</v>
+        <v>482.92</v>
       </c>
       <c r="K129" s="3">
-        <v>242.01</v>
+        <v>482.92</v>
       </c>
       <c r="L129" t="s">
         <v>16</v>
@@ -5867,10 +5870,10 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -5879,25 +5882,25 @@
         <v>15</v>
       </c>
       <c r="E130">
-        <v>12212</v>
+        <v>11608</v>
       </c>
       <c r="F130" t="s">
         <v>19</v>
       </c>
       <c r="G130" s="1">
-        <v>45921.610219907408</v>
+        <v>45907.470601851848</v>
       </c>
       <c r="H130" s="1">
-        <v>45891.614027777774</v>
+        <v>45877.476655092592</v>
       </c>
       <c r="I130" s="2">
-        <v>-27</v>
+        <v>-8</v>
       </c>
       <c r="J130" s="3">
-        <v>101</v>
+        <v>412.48</v>
       </c>
       <c r="K130" s="3">
-        <v>101</v>
+        <v>412.48</v>
       </c>
       <c r="L130" t="s">
         <v>16</v>
@@ -5908,10 +5911,10 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>211111943</v>
+        <v>211112004</v>
       </c>
       <c r="B131" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -5920,25 +5923,25 @@
         <v>15</v>
       </c>
       <c r="E131">
-        <v>11857</v>
+        <v>11915</v>
       </c>
       <c r="F131" t="s">
         <v>19</v>
       </c>
       <c r="G131" s="1">
-        <v>45912.582881944443</v>
+        <v>45913.566678240742</v>
       </c>
       <c r="H131" s="1">
-        <v>45882.58289351852</v>
+        <v>45883.567129629628</v>
       </c>
       <c r="I131" s="2">
-        <v>-18</v>
+        <v>-14</v>
       </c>
       <c r="J131" s="3">
-        <v>46.86</v>
+        <v>809.44</v>
       </c>
       <c r="K131" s="3">
-        <v>46.86</v>
+        <v>809.44</v>
       </c>
       <c r="L131" t="s">
         <v>16</v>
@@ -5949,10 +5952,10 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211111943</v>
+        <v>211112004</v>
       </c>
       <c r="B132" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -5961,25 +5964,25 @@
         <v>15</v>
       </c>
       <c r="E132">
-        <v>12028</v>
+        <v>12216</v>
       </c>
       <c r="F132" t="s">
         <v>19</v>
       </c>
       <c r="G132" s="1">
-        <v>45918.675983796296</v>
+        <v>45924.339039351849</v>
       </c>
       <c r="H132" s="1">
-        <v>45888.676168981481</v>
+        <v>45894.342268518514</v>
       </c>
       <c r="I132" s="2">
-        <v>-24</v>
+        <v>-25</v>
       </c>
       <c r="J132" s="3">
-        <v>139.79</v>
+        <v>274.67</v>
       </c>
       <c r="K132" s="3">
-        <v>139.79</v>
+        <v>274.67</v>
       </c>
       <c r="L132" t="s">
         <v>16</v>
@@ -6002,39 +6005,39 @@
         <v>15</v>
       </c>
       <c r="E133">
-        <v>10431</v>
+        <v>12401</v>
       </c>
       <c r="F133" t="s">
         <v>19</v>
       </c>
       <c r="G133" s="1">
-        <v>45878.592581018514</v>
+        <v>45928.366875</v>
       </c>
       <c r="H133" s="1">
-        <v>45848.592581018514</v>
+        <v>45898.366875</v>
       </c>
       <c r="I133" s="2">
-        <v>16</v>
+        <v>-29</v>
       </c>
       <c r="J133" s="3">
-        <v>414.76</v>
+        <v>412.95</v>
       </c>
       <c r="K133" s="3">
-        <v>414.76</v>
+        <v>412.95</v>
       </c>
       <c r="L133" t="s">
         <v>16</v>
       </c>
       <c r="M133" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>211112004</v>
+        <v>211112022</v>
       </c>
       <c r="B134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6043,25 +6046,25 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>10728</v>
+        <v>11861</v>
       </c>
       <c r="F134" t="s">
         <v>19</v>
       </c>
       <c r="G134" s="1">
-        <v>45886.283738425926</v>
+        <v>45882.647453703699</v>
       </c>
       <c r="H134" s="1">
-        <v>45856.284224537034</v>
+        <v>45882.647453703699</v>
       </c>
       <c r="I134" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J134" s="3">
-        <v>278.35000000000002</v>
+        <v>158.86000000000001</v>
       </c>
       <c r="K134" s="3">
-        <v>278.35000000000002</v>
+        <v>158.86000000000001</v>
       </c>
       <c r="L134" t="s">
         <v>16</v>
@@ -6072,10 +6075,10 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>211112004</v>
+        <v>211112034</v>
       </c>
       <c r="B135" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6084,39 +6087,39 @@
         <v>15</v>
       </c>
       <c r="E135">
-        <v>11297</v>
+        <v>10900</v>
       </c>
       <c r="F135" t="s">
         <v>19</v>
       </c>
       <c r="G135" s="1">
-        <v>45900.295555555553</v>
+        <v>45891.499594907407</v>
       </c>
       <c r="H135" s="1">
-        <v>45870.300393518519</v>
+        <v>45861.500196759254</v>
       </c>
       <c r="I135" s="2">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="J135" s="3">
-        <v>482.92</v>
+        <v>227.62</v>
       </c>
       <c r="K135" s="3">
-        <v>482.92</v>
+        <v>227.62</v>
       </c>
       <c r="L135" t="s">
         <v>16</v>
       </c>
       <c r="M135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112004</v>
+        <v>211112034</v>
       </c>
       <c r="B136" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -6125,39 +6128,39 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>11608</v>
+        <v>11243</v>
       </c>
       <c r="F136" t="s">
         <v>19</v>
       </c>
       <c r="G136" s="1">
-        <v>45907.470601851848</v>
+        <v>45898.51180555555</v>
       </c>
       <c r="H136" s="1">
-        <v>45877.476655092592</v>
+        <v>45868.512175925927</v>
       </c>
       <c r="I136" s="2">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="J136" s="3">
-        <v>412.48</v>
+        <v>140.12</v>
       </c>
       <c r="K136" s="3">
-        <v>412.48</v>
+        <v>140.12</v>
       </c>
       <c r="L136" t="s">
         <v>16</v>
       </c>
       <c r="M136" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211112004</v>
+        <v>211112034</v>
       </c>
       <c r="B137" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -6166,25 +6169,25 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <v>11915</v>
+        <v>11535</v>
       </c>
       <c r="F137" t="s">
         <v>19</v>
       </c>
       <c r="G137" s="1">
-        <v>45913.566678240742</v>
+        <v>45905.529490740737</v>
       </c>
       <c r="H137" s="1">
-        <v>45883.567129629628</v>
+        <v>45875.530717592592</v>
       </c>
       <c r="I137" s="2">
-        <v>-19</v>
+        <v>-6</v>
       </c>
       <c r="J137" s="3">
-        <v>809.44</v>
+        <v>285.49</v>
       </c>
       <c r="K137" s="3">
-        <v>809.44</v>
+        <v>285.49</v>
       </c>
       <c r="L137" t="s">
         <v>16</v>
@@ -6195,10 +6198,10 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112022</v>
+        <v>211112034</v>
       </c>
       <c r="B138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
@@ -6207,31 +6210,31 @@
         <v>15</v>
       </c>
       <c r="E138">
-        <v>11861</v>
+        <v>11770</v>
       </c>
       <c r="F138" t="s">
         <v>19</v>
       </c>
       <c r="G138" s="1">
-        <v>45882.647453703699</v>
+        <v>45911.678842592592</v>
       </c>
       <c r="H138" s="1">
-        <v>45882.647453703699</v>
+        <v>45881.679826388885</v>
       </c>
       <c r="I138" s="2">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="J138" s="3">
-        <v>158.86000000000001</v>
+        <v>127.13000000000001</v>
       </c>
       <c r="K138" s="3">
-        <v>158.86000000000001</v>
+        <v>127.13000000000001</v>
       </c>
       <c r="L138" t="s">
         <v>16</v>
       </c>
       <c r="M138" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6248,31 +6251,31 @@
         <v>15</v>
       </c>
       <c r="E139">
-        <v>10900</v>
+        <v>11831</v>
       </c>
       <c r="F139" t="s">
         <v>19</v>
       </c>
       <c r="G139" s="1">
-        <v>45891.499594907407</v>
+        <v>45912.51599537037</v>
       </c>
       <c r="H139" s="1">
-        <v>45861.500196759254</v>
+        <v>45882.516168981478</v>
       </c>
       <c r="I139" s="2">
-        <v>3</v>
+        <v>-13</v>
       </c>
       <c r="J139" s="3">
-        <v>227.62</v>
+        <v>43.1</v>
       </c>
       <c r="K139" s="3">
-        <v>227.62</v>
+        <v>43.1</v>
       </c>
       <c r="L139" t="s">
         <v>16</v>
       </c>
       <c r="M139" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6289,25 +6292,25 @@
         <v>15</v>
       </c>
       <c r="E140">
-        <v>11243</v>
+        <v>11997</v>
       </c>
       <c r="F140" t="s">
         <v>19</v>
       </c>
       <c r="G140" s="1">
-        <v>45898.51180555555</v>
+        <v>45918.483773148146</v>
       </c>
       <c r="H140" s="1">
-        <v>45868.512175925927</v>
+        <v>45888.485208333332</v>
       </c>
       <c r="I140" s="2">
-        <v>-4</v>
+        <v>-19</v>
       </c>
       <c r="J140" s="3">
-        <v>140.12</v>
+        <v>158.41</v>
       </c>
       <c r="K140" s="3">
-        <v>140.12</v>
+        <v>158.41</v>
       </c>
       <c r="L140" t="s">
         <v>16</v>
@@ -6330,25 +6333,25 @@
         <v>15</v>
       </c>
       <c r="E141">
-        <v>11535</v>
+        <v>12271</v>
       </c>
       <c r="F141" t="s">
         <v>19</v>
       </c>
       <c r="G141" s="1">
-        <v>45905.529490740737</v>
+        <v>45925.472824074073</v>
       </c>
       <c r="H141" s="1">
-        <v>45875.530717592592</v>
+        <v>45895.473333333328</v>
       </c>
       <c r="I141" s="2">
-        <v>-11</v>
+        <v>-26</v>
       </c>
       <c r="J141" s="3">
-        <v>285.49</v>
+        <v>236.85</v>
       </c>
       <c r="K141" s="3">
-        <v>285.49</v>
+        <v>236.85</v>
       </c>
       <c r="L141" t="s">
         <v>16</v>
@@ -6359,10 +6362,10 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>211112034</v>
+        <v>211112182</v>
       </c>
       <c r="B142" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
@@ -6371,25 +6374,25 @@
         <v>15</v>
       </c>
       <c r="E142">
-        <v>11770</v>
+        <v>11673</v>
       </c>
       <c r="F142" t="s">
         <v>19</v>
       </c>
       <c r="G142" s="1">
-        <v>45911.678842592592</v>
+        <v>45907.622719907406</v>
       </c>
       <c r="H142" s="1">
-        <v>45881.679826388885</v>
+        <v>45877.623020833329</v>
       </c>
       <c r="I142" s="2">
-        <v>-17</v>
+        <v>-8</v>
       </c>
       <c r="J142" s="3">
-        <v>127.13000000000001</v>
+        <v>188.45000000000002</v>
       </c>
       <c r="K142" s="3">
-        <v>127.13000000000001</v>
+        <v>188.45000000000002</v>
       </c>
       <c r="L142" t="s">
         <v>16</v>
@@ -6400,10 +6403,10 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>211112034</v>
+        <v>211112184</v>
       </c>
       <c r="B143" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
@@ -6412,39 +6415,39 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>11831</v>
+        <v>12402</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G143" s="1">
-        <v>45912.51599537037</v>
+        <v>45898.366898148146</v>
       </c>
       <c r="H143" s="1">
-        <v>45882.516168981478</v>
+        <v>45898.366898148146</v>
       </c>
       <c r="I143" s="2">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="J143" s="3">
-        <v>43.1</v>
+        <v>123.46000000000001</v>
       </c>
       <c r="K143" s="3">
-        <v>43.1</v>
+        <v>123.46000000000001</v>
       </c>
       <c r="L143" t="s">
         <v>16</v>
       </c>
       <c r="M143" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>211112034</v>
+        <v>211112224</v>
       </c>
       <c r="B144" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -6453,39 +6456,39 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>11997</v>
+        <v>12180</v>
       </c>
       <c r="F144" t="s">
         <v>19</v>
       </c>
       <c r="G144" s="1">
-        <v>45918.483773148146</v>
+        <v>45891.438576388886</v>
       </c>
       <c r="H144" s="1">
-        <v>45888.485208333332</v>
+        <v>45891.438576388886</v>
       </c>
       <c r="I144" s="2">
-        <v>-24</v>
+        <v>8</v>
       </c>
       <c r="J144" s="3">
-        <v>158.41</v>
+        <v>210.09</v>
       </c>
       <c r="K144" s="3">
-        <v>158.41</v>
+        <v>210.09</v>
       </c>
       <c r="L144" t="s">
         <v>16</v>
       </c>
       <c r="M144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>211112182</v>
+        <v>211112415</v>
       </c>
       <c r="B145" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
@@ -6494,39 +6497,39 @@
         <v>15</v>
       </c>
       <c r="E145">
-        <v>11673</v>
+        <v>11070</v>
       </c>
       <c r="F145" t="s">
         <v>19</v>
       </c>
       <c r="G145" s="1">
-        <v>45907.622719907406</v>
+        <v>45893.523460648146</v>
       </c>
       <c r="H145" s="1">
-        <v>45877.623020833329</v>
+        <v>45863.523460648146</v>
       </c>
       <c r="I145" s="2">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="J145" s="3">
-        <v>188.45000000000002</v>
+        <v>106.52</v>
       </c>
       <c r="K145" s="3">
-        <v>188.45000000000002</v>
+        <v>106.52</v>
       </c>
       <c r="L145" t="s">
         <v>16</v>
       </c>
       <c r="M145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112224</v>
+        <v>211112415</v>
       </c>
       <c r="B146" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -6535,25 +6538,25 @@
         <v>15</v>
       </c>
       <c r="E146">
-        <v>12180</v>
+        <v>11102</v>
       </c>
       <c r="F146" t="s">
         <v>19</v>
       </c>
       <c r="G146" s="1">
-        <v>45891.438576388886</v>
+        <v>45896.526087962964</v>
       </c>
       <c r="H146" s="1">
-        <v>45891.438576388886</v>
+        <v>45866.526087962964</v>
       </c>
       <c r="I146" s="2">
         <v>3</v>
       </c>
       <c r="J146" s="3">
-        <v>210.09</v>
+        <v>48.92</v>
       </c>
       <c r="K146" s="3">
-        <v>210.09</v>
+        <v>48.92</v>
       </c>
       <c r="L146" t="s">
         <v>16</v>
@@ -6576,31 +6579,31 @@
         <v>15</v>
       </c>
       <c r="E147">
-        <v>10822</v>
+        <v>11360</v>
       </c>
       <c r="F147" t="s">
         <v>19</v>
       </c>
       <c r="G147" s="1">
-        <v>45889.487743055557</v>
+        <v>45900.567083333328</v>
       </c>
       <c r="H147" s="1">
-        <v>45859.487743055557</v>
+        <v>45870.567083333328</v>
       </c>
       <c r="I147" s="2">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="J147" s="3">
-        <v>95.87</v>
+        <v>50.69</v>
       </c>
       <c r="K147" s="3">
-        <v>95.87</v>
+        <v>50.69</v>
       </c>
       <c r="L147" t="s">
         <v>16</v>
       </c>
       <c r="M147" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6617,31 +6620,31 @@
         <v>15</v>
       </c>
       <c r="E148">
-        <v>11070</v>
+        <v>11543</v>
       </c>
       <c r="F148" t="s">
         <v>19</v>
       </c>
       <c r="G148" s="1">
-        <v>45893.523460648146</v>
+        <v>45905.539733796293</v>
       </c>
       <c r="H148" s="1">
-        <v>45863.523460648146</v>
+        <v>45875.539733796293</v>
       </c>
       <c r="I148" s="2">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="J148" s="3">
-        <v>106.52</v>
+        <v>61.22</v>
       </c>
       <c r="K148" s="3">
-        <v>106.52</v>
+        <v>61.22</v>
       </c>
       <c r="L148" t="s">
         <v>16</v>
       </c>
       <c r="M148" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6658,25 +6661,25 @@
         <v>15</v>
       </c>
       <c r="E149">
-        <v>11102</v>
+        <v>11977</v>
       </c>
       <c r="F149" t="s">
         <v>19</v>
       </c>
       <c r="G149" s="1">
-        <v>45896.526087962964</v>
+        <v>45917.603981481479</v>
       </c>
       <c r="H149" s="1">
-        <v>45866.526087962964</v>
+        <v>45887.604467592588</v>
       </c>
       <c r="I149" s="2">
-        <v>-2</v>
+        <v>-18</v>
       </c>
       <c r="J149" s="3">
-        <v>48.92</v>
+        <v>143.14000000000001</v>
       </c>
       <c r="K149" s="3">
-        <v>48.92</v>
+        <v>143.14000000000001</v>
       </c>
       <c r="L149" t="s">
         <v>16</v>
@@ -6699,25 +6702,25 @@
         <v>15</v>
       </c>
       <c r="E150">
-        <v>11360</v>
+        <v>12092</v>
       </c>
       <c r="F150" t="s">
         <v>19</v>
       </c>
       <c r="G150" s="1">
-        <v>45900.567083333328</v>
+        <v>45919.599108796298</v>
       </c>
       <c r="H150" s="1">
-        <v>45870.567083333328</v>
+        <v>45889.599108796298</v>
       </c>
       <c r="I150" s="2">
-        <v>-6</v>
+        <v>-20</v>
       </c>
       <c r="J150" s="3">
-        <v>50.69</v>
+        <v>54.33</v>
       </c>
       <c r="K150" s="3">
-        <v>50.69</v>
+        <v>54.33</v>
       </c>
       <c r="L150" t="s">
         <v>16</v>
@@ -6740,25 +6743,25 @@
         <v>15</v>
       </c>
       <c r="E151">
-        <v>11543</v>
+        <v>12204</v>
       </c>
       <c r="F151" t="s">
         <v>19</v>
       </c>
       <c r="G151" s="1">
-        <v>45905.539733796293</v>
+        <v>45921.449178240742</v>
       </c>
       <c r="H151" s="1">
-        <v>45875.539733796293</v>
+        <v>45891.449178240742</v>
       </c>
       <c r="I151" s="2">
-        <v>-11</v>
+        <v>-22</v>
       </c>
       <c r="J151" s="3">
-        <v>61.22</v>
+        <v>61.940000000000005</v>
       </c>
       <c r="K151" s="3">
-        <v>61.22</v>
+        <v>61.940000000000005</v>
       </c>
       <c r="L151" t="s">
         <v>16</v>
@@ -6775,31 +6778,31 @@
         <v>43</v>
       </c>
       <c r="C152" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D152">
+        <v>2025</v>
       </c>
       <c r="E152">
-        <v>11977</v>
+        <v>785</v>
       </c>
       <c r="F152" t="s">
         <v>19</v>
       </c>
       <c r="G152" s="1">
-        <v>45917.603981481479</v>
+        <v>45922</v>
       </c>
       <c r="H152" s="1">
-        <v>45887.604467592588</v>
+        <v>45892</v>
       </c>
       <c r="I152" s="2">
         <v>-23</v>
       </c>
       <c r="J152" s="3">
-        <v>143.14000000000001</v>
+        <v>-13.91</v>
       </c>
       <c r="K152" s="3">
-        <v>143.14000000000001</v>
+        <v>-13.91</v>
       </c>
       <c r="L152" t="s">
         <v>16</v>
@@ -6822,25 +6825,25 @@
         <v>15</v>
       </c>
       <c r="E153">
-        <v>12092</v>
+        <v>12336</v>
       </c>
       <c r="F153" t="s">
         <v>19</v>
       </c>
       <c r="G153" s="1">
-        <v>45919.599108796298</v>
+        <v>45926.416435185187</v>
       </c>
       <c r="H153" s="1">
-        <v>45889.599108796298</v>
+        <v>45896.416435185187</v>
       </c>
       <c r="I153" s="2">
-        <v>-25</v>
+        <v>-27</v>
       </c>
       <c r="J153" s="3">
-        <v>54.33</v>
+        <v>78.34</v>
       </c>
       <c r="K153" s="3">
-        <v>54.33</v>
+        <v>78.34</v>
       </c>
       <c r="L153" t="s">
         <v>16</v>
@@ -6851,10 +6854,10 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>211112415</v>
+        <v>211121278</v>
       </c>
       <c r="B154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -6863,39 +6866,39 @@
         <v>15</v>
       </c>
       <c r="E154">
-        <v>12204</v>
+        <v>10076</v>
       </c>
       <c r="F154" t="s">
         <v>19</v>
       </c>
       <c r="G154" s="1">
-        <v>45921.449178240742</v>
+        <v>45871.611539351848</v>
       </c>
       <c r="H154" s="1">
-        <v>45891.449178240742</v>
+        <v>45841.612893518519</v>
       </c>
       <c r="I154" s="2">
-        <v>-27</v>
+        <v>28</v>
       </c>
       <c r="J154" s="3">
-        <v>61.940000000000005</v>
+        <v>91.8</v>
       </c>
       <c r="K154" s="3">
-        <v>61.940000000000005</v>
+        <v>91.8</v>
       </c>
       <c r="L154" t="s">
         <v>16</v>
       </c>
       <c r="M154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>211112544</v>
+        <v>211121278</v>
       </c>
       <c r="B155" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C155" t="s">
         <v>14</v>
@@ -6904,25 +6907,25 @@
         <v>15</v>
       </c>
       <c r="E155">
-        <v>11192</v>
+        <v>10229</v>
       </c>
       <c r="F155" t="s">
         <v>19</v>
       </c>
       <c r="G155" s="1">
-        <v>45868.475057870368</v>
+        <v>45875.600995370369</v>
       </c>
       <c r="H155" s="1">
-        <v>45868.475057870368</v>
+        <v>45845.602673611109</v>
       </c>
       <c r="I155" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J155" s="3">
-        <v>1971.6000000000001</v>
+        <v>86.4</v>
       </c>
       <c r="K155" s="3">
-        <v>1971.6000000000001</v>
+        <v>86.4</v>
       </c>
       <c r="L155" t="s">
         <v>16</v>
@@ -6933,10 +6936,10 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>211112544</v>
+        <v>211121278</v>
       </c>
       <c r="B156" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
@@ -6945,153 +6948,30 @@
         <v>15</v>
       </c>
       <c r="E156">
-        <v>11426</v>
+        <v>11294</v>
       </c>
       <c r="F156" t="s">
         <v>19</v>
       </c>
       <c r="G156" s="1">
-        <v>45874.460439814815</v>
+        <v>45899.61278935185</v>
       </c>
       <c r="H156" s="1">
-        <v>45874.460439814815</v>
+        <v>45869.613032407404</v>
       </c>
       <c r="I156" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J156" s="3">
-        <v>890.4</v>
+        <v>21.6</v>
       </c>
       <c r="K156" s="3">
-        <v>890.4</v>
+        <v>21.6</v>
       </c>
       <c r="L156" t="s">
         <v>16</v>
       </c>
       <c r="M156" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>211121278</v>
-      </c>
-      <c r="B157" t="s">
-        <v>44</v>
-      </c>
-      <c r="C157" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157">
-        <v>10076</v>
-      </c>
-      <c r="F157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" s="1">
-        <v>45871.611539351848</v>
-      </c>
-      <c r="H157" s="1">
-        <v>45841.612893518519</v>
-      </c>
-      <c r="I157" s="2">
-        <v>23</v>
-      </c>
-      <c r="J157" s="3">
-        <v>91.8</v>
-      </c>
-      <c r="K157" s="3">
-        <v>91.8</v>
-      </c>
-      <c r="L157" t="s">
-        <v>16</v>
-      </c>
-      <c r="M157" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>211121278</v>
-      </c>
-      <c r="B158" t="s">
-        <v>44</v>
-      </c>
-      <c r="C158" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158">
-        <v>10229</v>
-      </c>
-      <c r="F158" t="s">
-        <v>19</v>
-      </c>
-      <c r="G158" s="1">
-        <v>45875.600995370369</v>
-      </c>
-      <c r="H158" s="1">
-        <v>45845.602673611109</v>
-      </c>
-      <c r="I158" s="2">
-        <v>19</v>
-      </c>
-      <c r="J158" s="3">
-        <v>86.4</v>
-      </c>
-      <c r="K158" s="3">
-        <v>86.4</v>
-      </c>
-      <c r="L158" t="s">
-        <v>16</v>
-      </c>
-      <c r="M158" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>211121278</v>
-      </c>
-      <c r="B159" t="s">
-        <v>44</v>
-      </c>
-      <c r="C159" t="s">
-        <v>14</v>
-      </c>
-      <c r="D159" t="s">
-        <v>15</v>
-      </c>
-      <c r="E159">
-        <v>11294</v>
-      </c>
-      <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" s="1">
-        <v>45899.61278935185</v>
-      </c>
-      <c r="H159" s="1">
-        <v>45869.613032407404</v>
-      </c>
-      <c r="I159" s="2">
-        <v>-5</v>
-      </c>
-      <c r="J159" s="3">
-        <v>21.6</v>
-      </c>
-      <c r="K159" s="3">
-        <v>21.6</v>
-      </c>
-      <c r="L159" t="s">
-        <v>16</v>
-      </c>
-      <c r="M159" t="s">
         <v>18</v>
       </c>
     </row>

--- a/PCosta.xlsx
+++ b/PCosta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91983259-D090-4C4E-A195-1FCDD1DD1054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22D1958-0C0B-4FD3-B364-2CEC7C513862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F8F3D65-BB50-4D14-936D-C9FEA2B7CDDC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="46">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -116,15 +116,6 @@
     <t>Elpicarnes - Indústria Carnes, Lda.</t>
   </si>
   <si>
-    <t>CCR</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Transferência</t>
-  </si>
-  <si>
     <t>91A120</t>
   </si>
   <si>
@@ -147,9 +138,6 @@
   </si>
   <si>
     <t>Nunicarnes-Ind.E Com.De Carnes,Lda</t>
-  </si>
-  <si>
-    <t>Msro, Lda</t>
   </si>
   <si>
     <t>Casa Do Coucieiro Enchidos</t>
@@ -179,19 +167,13 @@
     <t>Gelfer Unipessoal, Lda</t>
   </si>
   <si>
-    <t>RPR</t>
-  </si>
-  <si>
     <t>José Henrique C.Martins Unip.,Lda</t>
   </si>
   <si>
     <t>61A90</t>
   </si>
   <si>
-    <t>Albino Novais Unipessoal, Lda</t>
-  </si>
-  <si>
-    <t>Pastelaria E Pão Quente Miminho,Lda</t>
+    <t>José António Moreira Soares</t>
   </si>
 </sst>
 </file>
@@ -566,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4044F161-0F67-4AC3-9595-1EB749614D68}">
-  <dimension ref="A1:M156"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +619,7 @@
         <v>11337</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1">
         <v>45900.505578703705</v>
@@ -646,7 +628,7 @@
         <v>45870.505578703705</v>
       </c>
       <c r="I2" s="2">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="J2" s="3">
         <v>89.52</v>
@@ -658,7 +640,7 @@
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -678,7 +660,7 @@
         <v>11906</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1">
         <v>45913.559317129628</v>
@@ -687,7 +669,7 @@
         <v>45883.559317129628</v>
       </c>
       <c r="I3" s="2">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <v>107.10000000000001</v>
@@ -728,7 +710,7 @@
         <v>45891.441608796296</v>
       </c>
       <c r="I4" s="2">
-        <v>-22</v>
+        <v>-8</v>
       </c>
       <c r="J4" s="3">
         <v>109.26</v>
@@ -769,7 +751,7 @@
         <v>45898.417766203704</v>
       </c>
       <c r="I5" s="2">
-        <v>-29</v>
+        <v>-15</v>
       </c>
       <c r="J5" s="3">
         <v>122.31</v>
@@ -798,25 +780,25 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>9932</v>
+        <v>11363</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="1">
-        <v>45869.375613425924</v>
+        <v>45900.582465277774</v>
       </c>
       <c r="H6" s="1">
-        <v>45839.378171296295</v>
+        <v>45870.582754629628</v>
       </c>
       <c r="I6" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J6" s="3">
-        <v>45.85</v>
+        <v>217.11</v>
       </c>
       <c r="K6" s="3">
-        <v>45.85</v>
+        <v>217.11</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -833,31 +815,31 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>612</v>
+        <v>11427</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="1">
-        <v>45871</v>
+        <v>45904.485185185185</v>
       </c>
       <c r="H7" s="1">
-        <v>45841</v>
+        <v>45874.485185185185</v>
       </c>
       <c r="I7" s="2">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J7" s="3">
-        <v>-36.31</v>
+        <v>22.77</v>
       </c>
       <c r="K7" s="3">
-        <v>-36.31</v>
+        <v>22.77</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -880,25 +862,25 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>10045</v>
+        <v>11546</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="1">
-        <v>45871.497974537036</v>
+        <v>45905.635393518518</v>
       </c>
       <c r="H8" s="1">
-        <v>45841.497974537036</v>
+        <v>45875.636099537034</v>
       </c>
       <c r="I8" s="2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J8" s="3">
-        <v>140.92000000000002</v>
+        <v>102.96000000000001</v>
       </c>
       <c r="K8" s="3">
-        <v>140.92000000000002</v>
+        <v>102.96000000000001</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -921,25 +903,25 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>10181</v>
+        <v>11596</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="1">
-        <v>45872.603391203702</v>
+        <v>45906.626793981479</v>
       </c>
       <c r="H9" s="1">
-        <v>45842.603391203702</v>
+        <v>45876.629236111112</v>
       </c>
       <c r="I9" s="2">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J9" s="3">
-        <v>64.11</v>
+        <v>304.66000000000003</v>
       </c>
       <c r="K9" s="3">
-        <v>64.11</v>
+        <v>304.66000000000003</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -962,31 +944,31 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>10358</v>
+        <v>11919</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="1">
-        <v>45877.498981481476</v>
+        <v>45913.617384259254</v>
       </c>
       <c r="H10" s="1">
-        <v>45847.498993055553</v>
+        <v>45883.618368055555</v>
       </c>
       <c r="I10" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>174.55</v>
+        <v>326.77</v>
       </c>
       <c r="K10" s="3">
-        <v>174.55</v>
+        <v>326.77</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1003,31 +985,31 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>10491</v>
+        <v>11998</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="1">
-        <v>45879.477118055554</v>
+        <v>45918.526053240741</v>
       </c>
       <c r="H11" s="1">
-        <v>45849.477754629625</v>
+        <v>45888.526053240741</v>
       </c>
       <c r="I11" s="2">
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="J11" s="3">
-        <v>208.79</v>
+        <v>310.14</v>
       </c>
       <c r="K11" s="3">
-        <v>208.79</v>
+        <v>310.14</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1044,31 +1026,31 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>10555</v>
+        <v>12076</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="1">
-        <v>45883.417129629626</v>
+        <v>45919.572534722218</v>
       </c>
       <c r="H12" s="1">
-        <v>45853.417523148149</v>
+        <v>45889.572546296295</v>
       </c>
       <c r="I12" s="2">
-        <v>16</v>
+        <v>-6</v>
       </c>
       <c r="J12" s="3">
-        <v>231.02</v>
+        <v>111.94</v>
       </c>
       <c r="K12" s="3">
-        <v>231.02</v>
+        <v>111.94</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1079,37 +1061,37 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>2025</v>
       </c>
       <c r="E13">
-        <v>10716</v>
+        <v>776</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="1">
-        <v>45885.561157407406</v>
+        <v>45920</v>
       </c>
       <c r="H13" s="1">
-        <v>45855.561655092592</v>
+        <v>45890</v>
       </c>
       <c r="I13" s="2">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="J13" s="3">
-        <v>236.83</v>
+        <v>-69.58</v>
       </c>
       <c r="K13" s="3">
-        <v>236.83</v>
+        <v>-69.58</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1126,31 +1108,31 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>10887</v>
+        <v>12150</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="1">
-        <v>45890.594178240739</v>
+        <v>45921.411087962959</v>
       </c>
       <c r="H14" s="1">
-        <v>45860.594571759255</v>
+        <v>45891.411099537036</v>
       </c>
       <c r="I14" s="2">
-        <v>9</v>
+        <v>-8</v>
       </c>
       <c r="J14" s="3">
-        <v>66.320000000000007</v>
+        <v>103.94</v>
       </c>
       <c r="K14" s="3">
-        <v>66.320000000000007</v>
+        <v>103.94</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1167,31 +1149,31 @@
         <v>2025</v>
       </c>
       <c r="E15">
-        <v>672</v>
+        <v>793</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="1">
-        <v>45891</v>
+        <v>45925</v>
       </c>
       <c r="H15" s="1">
-        <v>45861</v>
+        <v>45895</v>
       </c>
       <c r="I15" s="2">
-        <v>8</v>
+        <v>-12</v>
       </c>
       <c r="J15" s="3">
-        <v>-80.42</v>
+        <v>-144.97</v>
       </c>
       <c r="K15" s="3">
-        <v>-80.42</v>
+        <v>-144.97</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1208,31 +1190,31 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>10960</v>
+        <v>12250</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="1">
-        <v>45891.569016203699</v>
+        <v>45925.348124999997</v>
       </c>
       <c r="H16" s="1">
-        <v>45861.569016203699</v>
+        <v>45895.348136574074</v>
       </c>
       <c r="I16" s="2">
-        <v>8</v>
+        <v>-12</v>
       </c>
       <c r="J16" s="3">
-        <v>217.13</v>
+        <v>304.56</v>
       </c>
       <c r="K16" s="3">
-        <v>217.13</v>
+        <v>304.56</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1243,37 +1225,37 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17">
-        <v>11077</v>
+        <v>558</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="1">
-        <v>45893.634097222217</v>
+        <v>45927</v>
       </c>
       <c r="H17" s="1">
-        <v>45863.634097222217</v>
+        <v>45897</v>
       </c>
       <c r="I17" s="2">
-        <v>6</v>
+        <v>-14</v>
       </c>
       <c r="J17" s="3">
-        <v>22.37</v>
+        <v>-5.89</v>
       </c>
       <c r="K17" s="3">
-        <v>22.37</v>
+        <v>-5.89</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1284,31 +1266,31 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18">
-        <v>11363</v>
+        <v>563</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="1">
-        <v>45900.582465277774</v>
+        <v>45931</v>
       </c>
       <c r="H18" s="1">
-        <v>45870.582754629628</v>
+        <v>45901</v>
       </c>
       <c r="I18" s="2">
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="J18" s="3">
-        <v>217.11</v>
+        <v>-0.84</v>
       </c>
       <c r="K18" s="3">
-        <v>217.11</v>
+        <v>-0.84</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1331,25 +1313,25 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>11427</v>
+        <v>12476</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="1">
-        <v>45904.485185185185</v>
+        <v>45931.439513888887</v>
       </c>
       <c r="H19" s="1">
-        <v>45874.485185185185</v>
+        <v>45901.439513888887</v>
       </c>
       <c r="I19" s="2">
-        <v>-5</v>
+        <v>-18</v>
       </c>
       <c r="J19" s="3">
-        <v>22.77</v>
+        <v>201.26</v>
       </c>
       <c r="K19" s="3">
-        <v>22.77</v>
+        <v>201.26</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -1372,25 +1354,25 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>11546</v>
+        <v>12648</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="1">
-        <v>45905.635393518518</v>
+        <v>45935.450162037036</v>
       </c>
       <c r="H20" s="1">
-        <v>45875.636099537034</v>
+        <v>45905.451828703699</v>
       </c>
       <c r="I20" s="2">
-        <v>-6</v>
+        <v>-22</v>
       </c>
       <c r="J20" s="3">
-        <v>102.96000000000001</v>
+        <v>298.93</v>
       </c>
       <c r="K20" s="3">
-        <v>102.96000000000001</v>
+        <v>298.93</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1413,25 +1395,25 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>11596</v>
+        <v>12754</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="1">
-        <v>45906.626793981479</v>
+        <v>45939.482928240737</v>
       </c>
       <c r="H21" s="1">
-        <v>45876.629236111112</v>
+        <v>45909.482928240737</v>
       </c>
       <c r="I21" s="2">
-        <v>-7</v>
+        <v>-26</v>
       </c>
       <c r="J21" s="3">
-        <v>304.66000000000003</v>
+        <v>780.63</v>
       </c>
       <c r="K21" s="3">
-        <v>304.66000000000003</v>
+        <v>780.63</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -1454,25 +1436,25 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>11919</v>
+        <v>12855</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="1">
-        <v>45913.617384259254</v>
+        <v>45941.450960648144</v>
       </c>
       <c r="H22" s="1">
-        <v>45883.618368055555</v>
+        <v>45911.450972222221</v>
       </c>
       <c r="I22" s="2">
-        <v>-14</v>
+        <v>-28</v>
       </c>
       <c r="J22" s="3">
-        <v>326.77</v>
+        <v>246.48000000000002</v>
       </c>
       <c r="K22" s="3">
-        <v>326.77</v>
+        <v>246.48000000000002</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1495,25 +1477,25 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>11998</v>
+        <v>12901</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="1">
-        <v>45918.526053240741</v>
+        <v>45942.399629629625</v>
       </c>
       <c r="H23" s="1">
-        <v>45888.526053240741</v>
+        <v>45912.399641203701</v>
       </c>
       <c r="I23" s="2">
-        <v>-19</v>
+        <v>-29</v>
       </c>
       <c r="J23" s="3">
-        <v>310.14</v>
+        <v>137.65</v>
       </c>
       <c r="K23" s="3">
-        <v>310.14</v>
+        <v>137.65</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1524,10 +1506,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>211110212</v>
+        <v>211110264</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1536,80 +1518,80 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>12076</v>
+        <v>6743</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="1">
-        <v>45919.572534722218</v>
+        <v>45800.598414351851</v>
       </c>
       <c r="H24" s="1">
-        <v>45889.572546296295</v>
+        <v>45770.600486111107</v>
       </c>
       <c r="I24" s="2">
-        <v>-20</v>
+        <v>113</v>
       </c>
       <c r="J24" s="3">
-        <v>111.94</v>
+        <v>519.91999999999996</v>
       </c>
       <c r="K24" s="3">
-        <v>111.94</v>
+        <v>519.91999999999996</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>211110212</v>
+        <v>211110264</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>776</v>
+        <v>8698</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="1">
-        <v>45920</v>
+        <v>45837.66951388889</v>
       </c>
       <c r="H25" s="1">
-        <v>45890</v>
+        <v>45807.669710648144</v>
       </c>
       <c r="I25" s="2">
-        <v>-21</v>
+        <v>76</v>
       </c>
       <c r="J25" s="3">
-        <v>-69.58</v>
+        <v>87.67</v>
       </c>
       <c r="K25" s="3">
-        <v>-69.58</v>
+        <v>87.67</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>211110212</v>
+        <v>211110364</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1618,39 +1600,39 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>12150</v>
+        <v>10768</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="1">
-        <v>45921.411087962959</v>
+        <v>45886.485416666663</v>
       </c>
       <c r="H26" s="1">
-        <v>45891.411099537036</v>
+        <v>45856.48542824074</v>
       </c>
       <c r="I26" s="2">
-        <v>-22</v>
+        <v>27</v>
       </c>
       <c r="J26" s="3">
-        <v>103.94</v>
+        <v>783.17000000000007</v>
       </c>
       <c r="K26" s="3">
-        <v>103.94</v>
+        <v>783.17000000000007</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
       </c>
       <c r="M26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>211110212</v>
+        <v>211110364</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1659,113 +1641,113 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>12250</v>
+        <v>10821</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="1">
-        <v>45925.348124999997</v>
+        <v>45889.487719907404</v>
       </c>
       <c r="H27" s="1">
-        <v>45895.348136574074</v>
+        <v>45859.487719907404</v>
       </c>
       <c r="I27" s="2">
-        <v>-26</v>
+        <v>24</v>
       </c>
       <c r="J27" s="3">
-        <v>304.56</v>
+        <v>527.75</v>
       </c>
       <c r="K27" s="3">
-        <v>304.56</v>
+        <v>527.75</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
       </c>
       <c r="M27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>211110264</v>
+        <v>211110364</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>2025</v>
       </c>
       <c r="E28">
-        <v>6743</v>
+        <v>667</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="1">
-        <v>45800.598414351851</v>
+        <v>45891</v>
       </c>
       <c r="H28" s="1">
-        <v>45770.600486111107</v>
+        <v>45861</v>
       </c>
       <c r="I28" s="2">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="J28" s="3">
-        <v>519.91999999999996</v>
+        <v>-2.87</v>
       </c>
       <c r="K28" s="3">
-        <v>519.91999999999996</v>
+        <v>-2.87</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
       </c>
       <c r="M28" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>211110264</v>
+        <v>211110364</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>2025</v>
       </c>
       <c r="E29">
-        <v>8698</v>
+        <v>670</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="1">
-        <v>45837.66951388889</v>
+        <v>45891</v>
       </c>
       <c r="H29" s="1">
-        <v>45807.669710648144</v>
+        <v>45861</v>
       </c>
       <c r="I29" s="2">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="J29" s="3">
-        <v>87.67</v>
+        <v>-10.09</v>
       </c>
       <c r="K29" s="3">
-        <v>87.67</v>
+        <v>-10.09</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
       </c>
       <c r="M29" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1782,25 +1764,25 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>10469</v>
+        <v>10932</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="1">
-        <v>45879.403611111113</v>
+        <v>45891.550300925926</v>
       </c>
       <c r="H30" s="1">
-        <v>45849.403611111113</v>
+        <v>45861.550312499996</v>
       </c>
       <c r="I30" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J30" s="3">
-        <v>544.83000000000004</v>
+        <v>548.45000000000005</v>
       </c>
       <c r="K30" s="3">
-        <v>544.83000000000004</v>
+        <v>548.45000000000005</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -1823,25 +1805,25 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>10515</v>
+        <v>11071</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="1">
-        <v>45882.474629629629</v>
+        <v>45893.524328703701</v>
       </c>
       <c r="H31" s="1">
-        <v>45852.474629629629</v>
+        <v>45863.524328703701</v>
       </c>
       <c r="I31" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J31" s="3">
-        <v>603.02</v>
+        <v>558.34</v>
       </c>
       <c r="K31" s="3">
-        <v>603.02</v>
+        <v>558.34</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -1864,25 +1846,25 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>10646</v>
+        <v>11114</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
       </c>
       <c r="G32" s="1">
-        <v>45884.469351851847</v>
+        <v>45896.534999999996</v>
       </c>
       <c r="H32" s="1">
-        <v>45854.469351851847</v>
+        <v>45866.534999999996</v>
       </c>
       <c r="I32" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J32" s="3">
-        <v>447.87</v>
+        <v>212.67000000000002</v>
       </c>
       <c r="K32" s="3">
-        <v>447.87</v>
+        <v>212.67000000000002</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
@@ -1905,25 +1887,25 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>10768</v>
+        <v>11240</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
       </c>
       <c r="G33" s="1">
-        <v>45886.485416666663</v>
+        <v>45898.501168981478</v>
       </c>
       <c r="H33" s="1">
-        <v>45856.48542824074</v>
+        <v>45868.501168981478</v>
       </c>
       <c r="I33" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J33" s="3">
-        <v>783.17000000000007</v>
+        <v>578.64</v>
       </c>
       <c r="K33" s="3">
-        <v>783.17000000000007</v>
+        <v>578.64</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -1946,25 +1928,25 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>10821</v>
+        <v>11358</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
       </c>
       <c r="G34" s="1">
-        <v>45889.487719907404</v>
+        <v>45900.567037037035</v>
       </c>
       <c r="H34" s="1">
-        <v>45859.487719907404</v>
+        <v>45870.567037037035</v>
       </c>
       <c r="I34" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J34" s="3">
-        <v>527.75</v>
+        <v>476.82</v>
       </c>
       <c r="K34" s="3">
-        <v>527.75</v>
+        <v>476.82</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
@@ -1981,31 +1963,31 @@
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>667</v>
+        <v>11399</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
       </c>
       <c r="G35" s="1">
-        <v>45891</v>
+        <v>45903.547291666662</v>
       </c>
       <c r="H35" s="1">
-        <v>45861</v>
+        <v>45873.547291666662</v>
       </c>
       <c r="I35" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J35" s="3">
-        <v>-2.87</v>
+        <v>356.84000000000003</v>
       </c>
       <c r="K35" s="3">
-        <v>-2.87</v>
+        <v>356.84000000000003</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
@@ -2022,31 +2004,31 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
       </c>
       <c r="E36">
-        <v>670</v>
+        <v>11541</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
       </c>
       <c r="G36" s="1">
-        <v>45891</v>
+        <v>45905.539664351847</v>
       </c>
       <c r="H36" s="1">
-        <v>45861</v>
+        <v>45875.539675925924</v>
       </c>
       <c r="I36" s="2">
         <v>8</v>
       </c>
       <c r="J36" s="3">
-        <v>-10.09</v>
+        <v>489.72</v>
       </c>
       <c r="K36" s="3">
-        <v>-10.09</v>
+        <v>489.72</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -2069,25 +2051,25 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>10932</v>
+        <v>11636</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" s="1">
-        <v>45891.550300925926</v>
+        <v>45907.577685185184</v>
       </c>
       <c r="H37" s="1">
-        <v>45861.550312499996</v>
+        <v>45877.577685185184</v>
       </c>
       <c r="I37" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J37" s="3">
-        <v>548.45000000000005</v>
+        <v>265.88</v>
       </c>
       <c r="K37" s="3">
-        <v>548.45000000000005</v>
+        <v>265.88</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -2110,31 +2092,31 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>11071</v>
+        <v>11707</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
       </c>
       <c r="G38" s="1">
-        <v>45893.524328703701</v>
+        <v>45910.500196759254</v>
       </c>
       <c r="H38" s="1">
-        <v>45863.524328703701</v>
+        <v>45880.500196759254</v>
       </c>
       <c r="I38" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J38" s="3">
-        <v>558.34</v>
+        <v>556.11</v>
       </c>
       <c r="K38" s="3">
-        <v>558.34</v>
+        <v>556.11</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
       </c>
       <c r="M38" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2151,25 +2133,25 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>11114</v>
+        <v>11842</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
       </c>
       <c r="G39" s="1">
-        <v>45896.534999999996</v>
+        <v>45912.519386574073</v>
       </c>
       <c r="H39" s="1">
-        <v>45866.534999999996</v>
+        <v>45882.51939814815</v>
       </c>
       <c r="I39" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" s="3">
-        <v>212.67000000000002</v>
+        <v>806.80000000000007</v>
       </c>
       <c r="K39" s="3">
-        <v>212.67000000000002</v>
+        <v>806.80000000000007</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -2192,31 +2174,31 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>11240</v>
+        <v>11973</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
       </c>
       <c r="G40" s="1">
-        <v>45898.501168981478</v>
+        <v>45917.598541666666</v>
       </c>
       <c r="H40" s="1">
-        <v>45868.501168981478</v>
+        <v>45887.599583333329</v>
       </c>
       <c r="I40" s="2">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="J40" s="3">
-        <v>578.64</v>
+        <v>625.95000000000005</v>
       </c>
       <c r="K40" s="3">
-        <v>578.64</v>
+        <v>625.95000000000005</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
       </c>
       <c r="M40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2233,25 +2215,25 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>11358</v>
+        <v>12091</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
       </c>
       <c r="G41" s="1">
-        <v>45900.567037037035</v>
+        <v>45919.599074074074</v>
       </c>
       <c r="H41" s="1">
-        <v>45870.567037037035</v>
+        <v>45889.599085648144</v>
       </c>
       <c r="I41" s="2">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="J41" s="3">
-        <v>476.82</v>
+        <v>578.58000000000004</v>
       </c>
       <c r="K41" s="3">
-        <v>476.82</v>
+        <v>578.58000000000004</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
@@ -2274,25 +2256,25 @@
         <v>15</v>
       </c>
       <c r="E42">
-        <v>11399</v>
+        <v>12203</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="G42" s="1">
-        <v>45903.547291666662</v>
+        <v>45921.449143518519</v>
       </c>
       <c r="H42" s="1">
-        <v>45873.547291666662</v>
+        <v>45891.449155092589</v>
       </c>
       <c r="I42" s="2">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="J42" s="3">
-        <v>356.84000000000003</v>
+        <v>474.01</v>
       </c>
       <c r="K42" s="3">
-        <v>356.84000000000003</v>
+        <v>474.01</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
@@ -2315,25 +2297,25 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>11541</v>
+        <v>12242</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
       </c>
       <c r="G43" s="1">
-        <v>45905.539664351847</v>
+        <v>45924.556018518517</v>
       </c>
       <c r="H43" s="1">
-        <v>45875.539675925924</v>
+        <v>45894.556030092594</v>
       </c>
       <c r="I43" s="2">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="J43" s="3">
-        <v>489.72</v>
+        <v>479.96000000000004</v>
       </c>
       <c r="K43" s="3">
-        <v>489.72</v>
+        <v>479.96000000000004</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
@@ -2356,25 +2338,25 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>11636</v>
+        <v>12335</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
       </c>
       <c r="G44" s="1">
-        <v>45907.577685185184</v>
+        <v>45926.416400462964</v>
       </c>
       <c r="H44" s="1">
-        <v>45877.577685185184</v>
+        <v>45896.416400462964</v>
       </c>
       <c r="I44" s="2">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="J44" s="3">
-        <v>265.88</v>
+        <v>611.29</v>
       </c>
       <c r="K44" s="3">
-        <v>265.88</v>
+        <v>611.29</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
@@ -2397,25 +2379,25 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>11707</v>
+        <v>12409</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="G45" s="1">
-        <v>45910.500196759254</v>
+        <v>45928.370115740741</v>
       </c>
       <c r="H45" s="1">
-        <v>45880.500196759254</v>
+        <v>45898.370127314811</v>
       </c>
       <c r="I45" s="2">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="J45" s="3">
-        <v>556.11</v>
+        <v>980.96</v>
       </c>
       <c r="K45" s="3">
-        <v>556.11</v>
+        <v>980.96</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
@@ -2438,25 +2420,25 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>11842</v>
+        <v>12541</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
       </c>
       <c r="G46" s="1">
-        <v>45912.519386574073</v>
+        <v>45933.419363425921</v>
       </c>
       <c r="H46" s="1">
-        <v>45882.51939814815</v>
+        <v>45903.419363425921</v>
       </c>
       <c r="I46" s="2">
-        <v>-13</v>
+        <v>-20</v>
       </c>
       <c r="J46" s="3">
-        <v>806.80000000000007</v>
+        <v>127.61</v>
       </c>
       <c r="K46" s="3">
-        <v>806.80000000000007</v>
+        <v>127.61</v>
       </c>
       <c r="L46" t="s">
         <v>16</v>
@@ -2479,25 +2461,25 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>11973</v>
+        <v>12687</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
       </c>
       <c r="G47" s="1">
-        <v>45917.598541666666</v>
+        <v>45938.445277777777</v>
       </c>
       <c r="H47" s="1">
-        <v>45887.599583333329</v>
+        <v>45908.445277777777</v>
       </c>
       <c r="I47" s="2">
-        <v>-18</v>
+        <v>-25</v>
       </c>
       <c r="J47" s="3">
-        <v>625.95000000000005</v>
+        <v>83.3</v>
       </c>
       <c r="K47" s="3">
-        <v>625.95000000000005</v>
+        <v>83.3</v>
       </c>
       <c r="L47" t="s">
         <v>16</v>
@@ -2520,25 +2502,25 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>12091</v>
+        <v>12775</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
       </c>
       <c r="G48" s="1">
-        <v>45919.599074074074</v>
+        <v>45940.437488425923</v>
       </c>
       <c r="H48" s="1">
-        <v>45889.599085648144</v>
+        <v>45910.437835648147</v>
       </c>
       <c r="I48" s="2">
-        <v>-20</v>
+        <v>-27</v>
       </c>
       <c r="J48" s="3">
-        <v>578.58000000000004</v>
+        <v>159.21</v>
       </c>
       <c r="K48" s="3">
-        <v>578.58000000000004</v>
+        <v>159.21</v>
       </c>
       <c r="L48" t="s">
         <v>16</v>
@@ -2549,51 +2531,51 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>10813</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="1">
+        <v>45889.484826388885</v>
+      </c>
+      <c r="H49" s="1">
+        <v>45859.484826388885</v>
+      </c>
+      <c r="I49" s="2">
         <v>24</v>
       </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49">
-        <v>12203</v>
-      </c>
-      <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="1">
-        <v>45921.449143518519</v>
-      </c>
-      <c r="H49" s="1">
-        <v>45891.449155092589</v>
-      </c>
-      <c r="I49" s="2">
-        <v>-22</v>
-      </c>
       <c r="J49" s="3">
-        <v>474.01</v>
+        <v>200.74</v>
       </c>
       <c r="K49" s="3">
-        <v>474.01</v>
+        <v>200.74</v>
       </c>
       <c r="L49" t="s">
         <v>16</v>
       </c>
       <c r="M49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -2602,39 +2584,39 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>12242</v>
+        <v>11083</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="1">
-        <v>45924.556018518517</v>
+        <v>45893.645833333328</v>
       </c>
       <c r="H50" s="1">
-        <v>45894.556030092594</v>
+        <v>45863.645833333328</v>
       </c>
       <c r="I50" s="2">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="J50" s="3">
-        <v>479.96000000000004</v>
+        <v>54.58</v>
       </c>
       <c r="K50" s="3">
-        <v>479.96000000000004</v>
+        <v>54.58</v>
       </c>
       <c r="L50" t="s">
         <v>16</v>
       </c>
       <c r="M50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -2643,39 +2625,39 @@
         <v>15</v>
       </c>
       <c r="E51">
-        <v>12335</v>
+        <v>11097</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
       </c>
       <c r="G51" s="1">
-        <v>45926.416400462964</v>
+        <v>45896.476898148147</v>
       </c>
       <c r="H51" s="1">
-        <v>45896.416400462964</v>
+        <v>45866.476909722223</v>
       </c>
       <c r="I51" s="2">
-        <v>-27</v>
+        <v>17</v>
       </c>
       <c r="J51" s="3">
-        <v>611.29</v>
+        <v>251.39000000000001</v>
       </c>
       <c r="K51" s="3">
-        <v>611.29</v>
+        <v>251.39000000000001</v>
       </c>
       <c r="L51" t="s">
         <v>16</v>
       </c>
       <c r="M51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>211110364</v>
+        <v>211110472</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2684,31 +2666,31 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>12409</v>
+        <v>11409</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
       <c r="G52" s="1">
-        <v>45928.370115740741</v>
+        <v>45903.568784722222</v>
       </c>
       <c r="H52" s="1">
-        <v>45898.370127314811</v>
+        <v>45873.568784722222</v>
       </c>
       <c r="I52" s="2">
-        <v>-29</v>
+        <v>10</v>
       </c>
       <c r="J52" s="3">
-        <v>980.96</v>
+        <v>55.120000000000005</v>
       </c>
       <c r="K52" s="3">
-        <v>980.96</v>
+        <v>55.120000000000005</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
       </c>
       <c r="M52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2719,37 +2701,37 @@
         <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="E53">
+        <v>11759</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="G53" s="1">
-        <v>45760</v>
+        <v>45911.499259259261</v>
       </c>
       <c r="H53" s="1">
-        <v>45730</v>
+        <v>45881.499259259261</v>
       </c>
       <c r="I53" s="2">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="J53" s="3">
-        <v>-541.79999999999995</v>
+        <v>110.74000000000001</v>
       </c>
       <c r="K53" s="3">
-        <v>-10.33</v>
+        <v>110.74000000000001</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
       </c>
       <c r="M53" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2760,45 +2742,45 @@
         <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>12123</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
       </c>
       <c r="G54" s="1">
-        <v>45847</v>
+        <v>45920.52716435185</v>
       </c>
       <c r="H54" s="1">
-        <v>45817</v>
+        <v>45890.52716435185</v>
       </c>
       <c r="I54" s="2">
-        <v>52</v>
+        <v>-7</v>
       </c>
       <c r="J54" s="3">
-        <v>-224.79</v>
+        <v>53.26</v>
       </c>
       <c r="K54" s="3">
-        <v>-9</v>
+        <v>53.26</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
       </c>
       <c r="M54" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -2807,39 +2789,39 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>10211</v>
+        <v>11072</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="1">
-        <v>45875.481921296298</v>
+        <v>45923.525937499995</v>
       </c>
       <c r="H55" s="1">
-        <v>45845.481932870367</v>
+        <v>45863.525949074072</v>
       </c>
       <c r="I55" s="2">
-        <v>24</v>
+        <v>-10</v>
       </c>
       <c r="J55" s="3">
-        <v>276.02</v>
+        <v>1189.3500000000001</v>
       </c>
       <c r="K55" s="3">
-        <v>276.02</v>
+        <v>1189.3500000000001</v>
       </c>
       <c r="L55" t="s">
         <v>16</v>
       </c>
       <c r="M55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2848,39 +2830,39 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>10509</v>
+        <v>11862</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
       </c>
       <c r="G56" s="1">
-        <v>45882.471388888887</v>
+        <v>45942.658090277779</v>
       </c>
       <c r="H56" s="1">
-        <v>45852.471388888887</v>
+        <v>45882.665937500002</v>
       </c>
       <c r="I56" s="2">
-        <v>17</v>
+        <v>-29</v>
       </c>
       <c r="J56" s="3">
-        <v>316.33</v>
+        <v>804.67000000000007</v>
       </c>
       <c r="K56" s="3">
-        <v>316.33</v>
+        <v>804.67000000000007</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
       </c>
       <c r="M56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2889,39 +2871,39 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>10787</v>
+        <v>12205</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
       </c>
       <c r="G57" s="1">
-        <v>45886.62290509259</v>
+        <v>45951.486747685187</v>
       </c>
       <c r="H57" s="1">
-        <v>45856.623715277776</v>
+        <v>45891.488124999996</v>
       </c>
       <c r="I57" s="2">
-        <v>13</v>
+        <v>-38</v>
       </c>
       <c r="J57" s="3">
-        <v>55.27</v>
+        <v>775.22</v>
       </c>
       <c r="K57" s="3">
-        <v>55.27</v>
+        <v>775.22</v>
       </c>
       <c r="L57" t="s">
         <v>16</v>
       </c>
       <c r="M57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2930,39 +2912,39 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>10813</v>
+        <v>12207</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
       </c>
       <c r="G58" s="1">
-        <v>45889.484826388885</v>
+        <v>45951.498171296291</v>
       </c>
       <c r="H58" s="1">
-        <v>45859.484826388885</v>
+        <v>45891.498182870368</v>
       </c>
       <c r="I58" s="2">
-        <v>10</v>
+        <v>-38</v>
       </c>
       <c r="J58" s="3">
-        <v>200.74</v>
+        <v>62.72</v>
       </c>
       <c r="K58" s="3">
-        <v>200.74</v>
+        <v>62.72</v>
       </c>
       <c r="L58" t="s">
         <v>16</v>
       </c>
       <c r="M58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>211110472</v>
+        <v>211110601</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -2971,80 +2953,80 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>11083</v>
+        <v>12820</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
       </c>
       <c r="G59" s="1">
-        <v>45893.645833333328</v>
+        <v>45970.673310185186</v>
       </c>
       <c r="H59" s="1">
-        <v>45863.645833333328</v>
+        <v>45910.674282407403</v>
       </c>
       <c r="I59" s="2">
-        <v>6</v>
+        <v>-57</v>
       </c>
       <c r="J59" s="3">
-        <v>54.58</v>
+        <v>1196.3800000000001</v>
       </c>
       <c r="K59" s="3">
-        <v>54.58</v>
+        <v>1196.3800000000001</v>
       </c>
       <c r="L59" t="s">
         <v>16</v>
       </c>
       <c r="M59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>211110472</v>
+        <v>211110972</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D60">
+        <v>2025</v>
       </c>
       <c r="E60">
-        <v>11097</v>
+        <v>147</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
       </c>
       <c r="G60" s="1">
-        <v>45896.476898148147</v>
+        <v>45719</v>
       </c>
       <c r="H60" s="1">
-        <v>45866.476909722223</v>
+        <v>45719</v>
       </c>
       <c r="I60" s="2">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="J60" s="3">
-        <v>251.39000000000001</v>
+        <v>-70.86</v>
       </c>
       <c r="K60" s="3">
-        <v>251.39000000000001</v>
+        <v>-70.86</v>
       </c>
       <c r="L60" t="s">
         <v>16</v>
       </c>
       <c r="M60" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>211110472</v>
+        <v>211110972</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3053,39 +3035,39 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>11409</v>
+        <v>7925</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
       </c>
       <c r="G61" s="1">
-        <v>45903.568784722222</v>
+        <v>45793.585856481477</v>
       </c>
       <c r="H61" s="1">
-        <v>45873.568784722222</v>
+        <v>45793.585856481477</v>
       </c>
       <c r="I61" s="2">
-        <v>-4</v>
+        <v>120</v>
       </c>
       <c r="J61" s="3">
-        <v>55.120000000000005</v>
+        <v>305.11</v>
       </c>
       <c r="K61" s="3">
-        <v>55.120000000000005</v>
+        <v>305.11</v>
       </c>
       <c r="L61" t="s">
         <v>16</v>
       </c>
       <c r="M61" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>211110472</v>
+        <v>211111193</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3094,39 +3076,39 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>11759</v>
+        <v>10278</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
       </c>
       <c r="G62" s="1">
-        <v>45911.499259259261</v>
+        <v>45876.453530092593</v>
       </c>
       <c r="H62" s="1">
-        <v>45881.499259259261</v>
+        <v>45846.45412037037</v>
       </c>
       <c r="I62" s="2">
-        <v>-12</v>
+        <v>37</v>
       </c>
       <c r="J62" s="3">
-        <v>110.74000000000001</v>
+        <v>185.83</v>
       </c>
       <c r="K62" s="3">
-        <v>110.74000000000001</v>
+        <v>185.83</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
       </c>
       <c r="M62" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>211110472</v>
+        <v>211111193</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3135,36 +3117,36 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>12123</v>
+        <v>10417</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
       </c>
       <c r="G63" s="1">
-        <v>45920.52716435185</v>
+        <v>45878.429606481477</v>
       </c>
       <c r="H63" s="1">
-        <v>45890.52716435185</v>
+        <v>45848.429606481477</v>
       </c>
       <c r="I63" s="2">
-        <v>-21</v>
+        <v>35</v>
       </c>
       <c r="J63" s="3">
-        <v>53.26</v>
+        <v>157.53</v>
       </c>
       <c r="K63" s="3">
-        <v>53.26</v>
+        <v>157.53</v>
       </c>
       <c r="L63" t="s">
         <v>16</v>
       </c>
       <c r="M63" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>211110601</v>
+        <v>211111193</v>
       </c>
       <c r="B64" t="s">
         <v>31</v>
@@ -3176,36 +3158,36 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>9275</v>
+        <v>12390</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
       </c>
       <c r="G64" s="1">
-        <v>45884.33143518518</v>
+        <v>45927.692523148144</v>
       </c>
       <c r="H64" s="1">
-        <v>45824.332418981481</v>
+        <v>45897.697824074072</v>
       </c>
       <c r="I64" s="2">
-        <v>15</v>
+        <v>-14</v>
       </c>
       <c r="J64" s="3">
-        <v>1044.22</v>
+        <v>95.77</v>
       </c>
       <c r="K64" s="3">
-        <v>1044.22</v>
+        <v>95.77</v>
       </c>
       <c r="L64" t="s">
         <v>16</v>
       </c>
       <c r="M64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>211110601</v>
+        <v>211111193</v>
       </c>
       <c r="B65" t="s">
         <v>31</v>
@@ -3217,25 +3199,25 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>10190</v>
+        <v>12458</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
       </c>
       <c r="G65" s="1">
-        <v>45902.667199074072</v>
+        <v>45928.588912037034</v>
       </c>
       <c r="H65" s="1">
-        <v>45842.669027777774</v>
+        <v>45898.590173611112</v>
       </c>
       <c r="I65" s="2">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="J65" s="3">
-        <v>732.56000000000006</v>
+        <v>44.94</v>
       </c>
       <c r="K65" s="3">
-        <v>732.56000000000006</v>
+        <v>44.94</v>
       </c>
       <c r="L65" t="s">
         <v>16</v>
@@ -3246,7 +3228,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>211110601</v>
+        <v>211111193</v>
       </c>
       <c r="B66" t="s">
         <v>31</v>
@@ -3258,25 +3240,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>11072</v>
+        <v>12517</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
       </c>
       <c r="G66" s="1">
-        <v>45923.525937499995</v>
+        <v>45932.425763888888</v>
       </c>
       <c r="H66" s="1">
-        <v>45863.525949074072</v>
+        <v>45902.425983796296</v>
       </c>
       <c r="I66" s="2">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="J66" s="3">
-        <v>1189.3500000000001</v>
+        <v>107.93</v>
       </c>
       <c r="K66" s="3">
-        <v>1189.3500000000001</v>
+        <v>107.93</v>
       </c>
       <c r="L66" t="s">
         <v>16</v>
@@ -3287,7 +3269,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>211110601</v>
+        <v>211111193</v>
       </c>
       <c r="B67" t="s">
         <v>31</v>
@@ -3299,25 +3281,25 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>11862</v>
+        <v>12907</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
       </c>
       <c r="G67" s="1">
-        <v>45942.658090277779</v>
+        <v>45942.441388888888</v>
       </c>
       <c r="H67" s="1">
-        <v>45882.665937500002</v>
+        <v>45912.441655092589</v>
       </c>
       <c r="I67" s="2">
-        <v>-43</v>
+        <v>-29</v>
       </c>
       <c r="J67" s="3">
-        <v>804.67000000000007</v>
+        <v>242.85</v>
       </c>
       <c r="K67" s="3">
-        <v>804.67000000000007</v>
+        <v>242.85</v>
       </c>
       <c r="L67" t="s">
         <v>16</v>
@@ -3328,10 +3310,10 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>211110601</v>
+        <v>211111387</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -3340,39 +3322,39 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>12205</v>
+        <v>11378</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
       </c>
       <c r="G68" s="1">
-        <v>45951.486747685187</v>
+        <v>45903.47488425926</v>
       </c>
       <c r="H68" s="1">
-        <v>45891.488124999996</v>
+        <v>45873.47488425926</v>
       </c>
       <c r="I68" s="2">
-        <v>-52</v>
+        <v>10</v>
       </c>
       <c r="J68" s="3">
-        <v>775.22</v>
+        <v>601.37</v>
       </c>
       <c r="K68" s="3">
-        <v>775.22</v>
+        <v>601.37</v>
       </c>
       <c r="L68" t="s">
         <v>16</v>
       </c>
       <c r="M68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>211110601</v>
+        <v>211111387</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -3381,77 +3363,77 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>12207</v>
+        <v>11720</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
       </c>
       <c r="G69" s="1">
-        <v>45951.498171296291</v>
+        <v>45910.544293981482</v>
       </c>
       <c r="H69" s="1">
-        <v>45891.498182870368</v>
+        <v>45880.544293981482</v>
       </c>
       <c r="I69" s="2">
-        <v>-52</v>
+        <v>3</v>
       </c>
       <c r="J69" s="3">
-        <v>62.72</v>
+        <v>350.65000000000003</v>
       </c>
       <c r="K69" s="3">
-        <v>62.72</v>
+        <v>350.65000000000003</v>
       </c>
       <c r="L69" t="s">
         <v>16</v>
       </c>
       <c r="M69" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>211110972</v>
+        <v>211111387</v>
       </c>
       <c r="B70" t="s">
         <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
       </c>
       <c r="E70">
-        <v>147</v>
+        <v>11921</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
       </c>
       <c r="G70" s="1">
-        <v>45719</v>
+        <v>45913.619004629625</v>
       </c>
       <c r="H70" s="1">
-        <v>45719</v>
+        <v>45883.619282407402</v>
       </c>
       <c r="I70" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>-70.86</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="K70" s="3">
-        <v>-70.86</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="L70" t="s">
         <v>16</v>
       </c>
       <c r="M70" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>211110972</v>
+        <v>211111387</v>
       </c>
       <c r="B71" t="s">
         <v>32</v>
@@ -3463,39 +3445,39 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>7925</v>
+        <v>11958</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
       </c>
       <c r="G71" s="1">
-        <v>45793.585856481477</v>
+        <v>45917.500104166662</v>
       </c>
       <c r="H71" s="1">
-        <v>45793.585856481477</v>
+        <v>45887.501932870371</v>
       </c>
       <c r="I71" s="2">
-        <v>106</v>
+        <v>-4</v>
       </c>
       <c r="J71" s="3">
-        <v>305.11</v>
+        <v>421.36</v>
       </c>
       <c r="K71" s="3">
-        <v>305.11</v>
+        <v>421.36</v>
       </c>
       <c r="L71" t="s">
         <v>16</v>
       </c>
       <c r="M71" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>211111193</v>
+        <v>211111387</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -3504,39 +3486,39 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>10278</v>
+        <v>12219</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
       </c>
       <c r="G72" s="1">
-        <v>45876.453530092593</v>
+        <v>45924.431400462963</v>
       </c>
       <c r="H72" s="1">
-        <v>45846.45412037037</v>
+        <v>45894.431400462963</v>
       </c>
       <c r="I72" s="2">
-        <v>23</v>
+        <v>-11</v>
       </c>
       <c r="J72" s="3">
-        <v>185.83</v>
+        <v>223.47</v>
       </c>
       <c r="K72" s="3">
-        <v>185.83</v>
+        <v>223.47</v>
       </c>
       <c r="L72" t="s">
         <v>16</v>
       </c>
       <c r="M72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>211111193</v>
+        <v>211111387</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -3545,39 +3527,39 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>10417</v>
+        <v>12457</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
       </c>
       <c r="G73" s="1">
-        <v>45878.429606481477</v>
+        <v>45928.581006944441</v>
       </c>
       <c r="H73" s="1">
-        <v>45848.429606481477</v>
+        <v>45898.581319444442</v>
       </c>
       <c r="I73" s="2">
-        <v>21</v>
+        <v>-15</v>
       </c>
       <c r="J73" s="3">
-        <v>157.53</v>
+        <v>370</v>
       </c>
       <c r="K73" s="3">
-        <v>157.53</v>
+        <v>370</v>
       </c>
       <c r="L73" t="s">
         <v>16</v>
       </c>
       <c r="M73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>211111193</v>
+        <v>211111387</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3586,25 +3568,25 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>11464</v>
+        <v>12684</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
       </c>
       <c r="G74" s="1">
-        <v>45904.599629629629</v>
+        <v>45938.445092592592</v>
       </c>
       <c r="H74" s="1">
-        <v>45874.600023148145</v>
+        <v>45908.445092592592</v>
       </c>
       <c r="I74" s="2">
-        <v>-5</v>
+        <v>-25</v>
       </c>
       <c r="J74" s="3">
-        <v>150.27000000000001</v>
+        <v>119.65</v>
       </c>
       <c r="K74" s="3">
-        <v>150.27000000000001</v>
+        <v>119.65</v>
       </c>
       <c r="L74" t="s">
         <v>16</v>
@@ -3615,10 +3597,10 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>211111193</v>
+        <v>211111387</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3627,25 +3609,25 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>12390</v>
+        <v>12864</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
       </c>
       <c r="G75" s="1">
-        <v>45927.692523148144</v>
+        <v>45941.641064814816</v>
       </c>
       <c r="H75" s="1">
-        <v>45897.697824074072</v>
+        <v>45911.641550925924</v>
       </c>
       <c r="I75" s="2">
         <v>-28</v>
       </c>
       <c r="J75" s="3">
-        <v>95.77</v>
+        <v>301.61</v>
       </c>
       <c r="K75" s="3">
-        <v>95.77</v>
+        <v>301.61</v>
       </c>
       <c r="L75" t="s">
         <v>16</v>
@@ -3656,10 +3638,10 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>211111193</v>
+        <v>211111478</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3668,25 +3650,25 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>12458</v>
+        <v>12579</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
       </c>
       <c r="G76" s="1">
-        <v>45928.588912037034</v>
+        <v>45933.601388888885</v>
       </c>
       <c r="H76" s="1">
-        <v>45898.590173611112</v>
+        <v>45903.601643518516</v>
       </c>
       <c r="I76" s="2">
-        <v>-29</v>
+        <v>-20</v>
       </c>
       <c r="J76" s="3">
-        <v>44.94</v>
+        <v>48.22</v>
       </c>
       <c r="K76" s="3">
-        <v>44.94</v>
+        <v>48.22</v>
       </c>
       <c r="L76" t="s">
         <v>16</v>
@@ -3697,10 +3679,10 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>211111387</v>
+        <v>211111599</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3709,25 +3691,25 @@
         <v>15</v>
       </c>
       <c r="E77">
-        <v>11378</v>
+        <v>12745</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
       </c>
       <c r="G77" s="1">
-        <v>45903.47488425926</v>
+        <v>45924.459363425922</v>
       </c>
       <c r="H77" s="1">
-        <v>45873.47488425926</v>
+        <v>45909.459374999999</v>
       </c>
       <c r="I77" s="2">
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="J77" s="3">
-        <v>601.37</v>
+        <v>109.86</v>
       </c>
       <c r="K77" s="3">
-        <v>601.37</v>
+        <v>109.86</v>
       </c>
       <c r="L77" t="s">
         <v>16</v>
@@ -3738,10 +3720,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>211111387</v>
+        <v>211111625</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3750,25 +3732,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>11720</v>
+        <v>12012</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
       </c>
       <c r="G78" s="1">
-        <v>45910.544293981482</v>
+        <v>45918.532141203701</v>
       </c>
       <c r="H78" s="1">
-        <v>45880.544293981482</v>
+        <v>45888.532141203701</v>
       </c>
       <c r="I78" s="2">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="J78" s="3">
-        <v>350.65000000000003</v>
+        <v>1075.79</v>
       </c>
       <c r="K78" s="3">
-        <v>350.65000000000003</v>
+        <v>1075.79</v>
       </c>
       <c r="L78" t="s">
         <v>16</v>
@@ -3779,10 +3761,10 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>211111387</v>
+        <v>211111625</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3791,25 +3773,25 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>11921</v>
+        <v>12193</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
       </c>
       <c r="G79" s="1">
-        <v>45913.619004629625</v>
+        <v>45921.441585648143</v>
       </c>
       <c r="H79" s="1">
-        <v>45883.619282407402</v>
+        <v>45891.441585648143</v>
       </c>
       <c r="I79" s="2">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="J79" s="3">
-        <v>139.30000000000001</v>
+        <v>655.7</v>
       </c>
       <c r="K79" s="3">
-        <v>139.30000000000001</v>
+        <v>655.7</v>
       </c>
       <c r="L79" t="s">
         <v>16</v>
@@ -3820,10 +3802,10 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>211111387</v>
+        <v>211111625</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3832,25 +3814,25 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>11958</v>
+        <v>12427</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
       </c>
       <c r="G80" s="1">
-        <v>45917.500104166662</v>
+        <v>45928.42763888889</v>
       </c>
       <c r="H80" s="1">
-        <v>45887.501932870371</v>
+        <v>45898.42765046296</v>
       </c>
       <c r="I80" s="2">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="J80" s="3">
-        <v>421.36</v>
+        <v>926.02</v>
       </c>
       <c r="K80" s="3">
-        <v>421.36</v>
+        <v>926.02</v>
       </c>
       <c r="L80" t="s">
         <v>16</v>
@@ -3861,10 +3843,10 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>211111387</v>
+        <v>211111625</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3873,25 +3855,25 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>12219</v>
+        <v>12594</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
       </c>
       <c r="G81" s="1">
-        <v>45924.431400462963</v>
+        <v>45934.385648148149</v>
       </c>
       <c r="H81" s="1">
-        <v>45894.431400462963</v>
+        <v>45904.386504629627</v>
       </c>
       <c r="I81" s="2">
-        <v>-25</v>
+        <v>-21</v>
       </c>
       <c r="J81" s="3">
-        <v>223.47</v>
+        <v>488.15000000000003</v>
       </c>
       <c r="K81" s="3">
-        <v>223.47</v>
+        <v>488.15000000000003</v>
       </c>
       <c r="L81" t="s">
         <v>16</v>
@@ -3902,7 +3884,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>211111387</v>
+        <v>211111888</v>
       </c>
       <c r="B82" t="s">
         <v>35</v>
@@ -3914,39 +3896,39 @@
         <v>15</v>
       </c>
       <c r="E82">
-        <v>12457</v>
+        <v>10144</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
       </c>
       <c r="G82" s="1">
-        <v>45928.581006944441</v>
+        <v>45872.453831018516</v>
       </c>
       <c r="H82" s="1">
-        <v>45898.581319444442</v>
+        <v>45842.453831018516</v>
       </c>
       <c r="I82" s="2">
-        <v>-29</v>
+        <v>41</v>
       </c>
       <c r="J82" s="3">
-        <v>370</v>
+        <v>833.06000000000006</v>
       </c>
       <c r="K82" s="3">
-        <v>370</v>
+        <v>833.06000000000006</v>
       </c>
       <c r="L82" t="s">
         <v>16</v>
       </c>
       <c r="M82" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>211111478</v>
+        <v>211111888</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3955,121 +3937,121 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>10964</v>
+        <v>10277</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
       </c>
       <c r="G83" s="1">
-        <v>45891.654791666668</v>
+        <v>45876.441319444442</v>
       </c>
       <c r="H83" s="1">
-        <v>45861.655266203699</v>
+        <v>45846.441319444442</v>
       </c>
       <c r="I83" s="2">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="J83" s="3">
-        <v>78.75</v>
+        <v>1056.32</v>
       </c>
       <c r="K83" s="3">
-        <v>78.75</v>
+        <v>1056.32</v>
       </c>
       <c r="L83" t="s">
         <v>16</v>
       </c>
       <c r="M83" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>211111478</v>
+        <v>211111888</v>
       </c>
       <c r="B84" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84">
+        <v>10352</v>
+      </c>
+      <c r="F84" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="1">
+        <v>45877.450138888889</v>
+      </c>
+      <c r="H84" s="1">
+        <v>45847.450150462959</v>
+      </c>
+      <c r="I84" s="2">
         <v>36</v>
       </c>
-      <c r="C84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84">
-        <v>11256</v>
-      </c>
-      <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" s="1">
-        <v>45899.266192129631</v>
-      </c>
-      <c r="H84" s="1">
-        <v>45869.26662037037</v>
-      </c>
-      <c r="I84" s="2">
-        <v>0</v>
-      </c>
       <c r="J84" s="3">
-        <v>24.94</v>
+        <v>210.29</v>
       </c>
       <c r="K84" s="3">
-        <v>24.94</v>
+        <v>210.29</v>
       </c>
       <c r="L84" t="s">
         <v>16</v>
       </c>
       <c r="M84" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>211111478</v>
+        <v>211111888</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D85">
+        <v>2025</v>
       </c>
       <c r="E85">
-        <v>11465</v>
+        <v>636</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
       </c>
       <c r="G85" s="1">
-        <v>45904.638726851852</v>
+        <v>45878</v>
       </c>
       <c r="H85" s="1">
-        <v>45874.640844907408</v>
+        <v>45848</v>
       </c>
       <c r="I85" s="2">
-        <v>-5</v>
+        <v>35</v>
       </c>
       <c r="J85" s="3">
-        <v>72.960000000000008</v>
+        <v>-507.94</v>
       </c>
       <c r="K85" s="3">
-        <v>72.960000000000008</v>
+        <v>-507.94</v>
       </c>
       <c r="L85" t="s">
         <v>16</v>
       </c>
       <c r="M85" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211111506</v>
+        <v>211111888</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4078,39 +4060,39 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>12232</v>
+        <v>10419</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
       </c>
       <c r="G86" s="1">
-        <v>45924.493969907402</v>
+        <v>45878.429652777777</v>
       </c>
       <c r="H86" s="1">
-        <v>45894.49664351852</v>
+        <v>45848.429652777777</v>
       </c>
       <c r="I86" s="2">
-        <v>-25</v>
+        <v>35</v>
       </c>
       <c r="J86" s="3">
-        <v>555.91</v>
+        <v>540.54999999999995</v>
       </c>
       <c r="K86" s="3">
-        <v>555.91</v>
+        <v>540.54999999999995</v>
       </c>
       <c r="L86" t="s">
         <v>16</v>
       </c>
       <c r="M86" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211111506</v>
+        <v>211111888</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4119,39 +4101,39 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>12267</v>
+        <v>10477</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
       </c>
       <c r="G87" s="1">
-        <v>45925.395023148143</v>
+        <v>45879.432314814811</v>
       </c>
       <c r="H87" s="1">
-        <v>45895.400532407402</v>
+        <v>45849.432314814811</v>
       </c>
       <c r="I87" s="2">
-        <v>-26</v>
+        <v>34</v>
       </c>
       <c r="J87" s="3">
-        <v>110.86</v>
+        <v>165.06</v>
       </c>
       <c r="K87" s="3">
-        <v>110.86</v>
+        <v>165.06</v>
       </c>
       <c r="L87" t="s">
         <v>16</v>
       </c>
       <c r="M87" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211111506</v>
+        <v>211111888</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4160,39 +4142,39 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>12272</v>
+        <v>10508</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
       </c>
       <c r="G88" s="1">
-        <v>45925.496944444443</v>
+        <v>45882.471365740741</v>
       </c>
       <c r="H88" s="1">
-        <v>45895.502094907402</v>
+        <v>45852.471365740741</v>
       </c>
       <c r="I88" s="2">
-        <v>-26</v>
+        <v>31</v>
       </c>
       <c r="J88" s="3">
-        <v>87.95</v>
+        <v>110.59</v>
       </c>
       <c r="K88" s="3">
-        <v>87.95</v>
+        <v>110.59</v>
       </c>
       <c r="L88" t="s">
         <v>16</v>
       </c>
       <c r="M88" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211111506</v>
+        <v>211111888</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -4201,66 +4183,66 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>12437</v>
+        <v>10519</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
       </c>
       <c r="G89" s="1">
-        <v>45928.499907407408</v>
+        <v>45882.479282407403</v>
       </c>
       <c r="H89" s="1">
-        <v>45898.500115740739</v>
+        <v>45852.479282407403</v>
       </c>
       <c r="I89" s="2">
-        <v>-29</v>
+        <v>31</v>
       </c>
       <c r="J89" s="3">
-        <v>451.16</v>
+        <v>439.56</v>
       </c>
       <c r="K89" s="3">
-        <v>451.16</v>
+        <v>439.56</v>
       </c>
       <c r="L89" t="s">
         <v>16</v>
       </c>
       <c r="M89" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
       </c>
       <c r="E90">
-        <v>602</v>
+        <v>10626</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
       </c>
       <c r="G90" s="1">
-        <v>45869</v>
+        <v>45884.449004629627</v>
       </c>
       <c r="H90" s="1">
-        <v>45839</v>
+        <v>45854.449004629627</v>
       </c>
       <c r="I90" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J90" s="3">
-        <v>-38.380000000000003</v>
+        <v>49.69</v>
       </c>
       <c r="K90" s="3">
-        <v>-38.380000000000003</v>
+        <v>49.69</v>
       </c>
       <c r="L90" t="s">
         <v>16</v>
@@ -4271,10 +4253,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4283,25 +4265,25 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>9936</v>
+        <v>10811</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
       </c>
       <c r="G91" s="1">
-        <v>45869.406018518515</v>
+        <v>45889.48296296296</v>
       </c>
       <c r="H91" s="1">
-        <v>45839.407280092593</v>
+        <v>45859.48296296296</v>
       </c>
       <c r="I91" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J91" s="3">
-        <v>328.58</v>
+        <v>481.88</v>
       </c>
       <c r="K91" s="3">
-        <v>328.58</v>
+        <v>481.88</v>
       </c>
       <c r="L91" t="s">
         <v>16</v>
@@ -4312,92 +4294,92 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D92">
+        <v>2025</v>
       </c>
       <c r="E92">
-        <v>11145</v>
+        <v>666</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
       </c>
       <c r="G92" s="1">
-        <v>45897.404432870368</v>
+        <v>45891</v>
       </c>
       <c r="H92" s="1">
-        <v>45867.405844907407</v>
+        <v>45861</v>
       </c>
       <c r="I92" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J92" s="3">
-        <v>89.11</v>
+        <v>-359.47</v>
       </c>
       <c r="K92" s="3">
-        <v>89.11</v>
+        <v>-359.47</v>
       </c>
       <c r="L92" t="s">
         <v>16</v>
       </c>
       <c r="M92" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D93">
+        <v>2025</v>
       </c>
       <c r="E93">
-        <v>11455</v>
+        <v>679</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
       </c>
       <c r="G93" s="1">
-        <v>45904.54042824074</v>
+        <v>45892</v>
       </c>
       <c r="H93" s="1">
-        <v>45874.54042824074</v>
+        <v>45862</v>
       </c>
       <c r="I93" s="2">
-        <v>-5</v>
+        <v>21</v>
       </c>
       <c r="J93" s="3">
-        <v>1218.51</v>
+        <v>-11.61</v>
       </c>
       <c r="K93" s="3">
-        <v>1218.51</v>
+        <v>-11.61</v>
       </c>
       <c r="L93" t="s">
         <v>16</v>
       </c>
       <c r="M93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4406,39 +4388,39 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>11739</v>
+        <v>10999</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
       </c>
       <c r="G94" s="1">
-        <v>45911.439444444441</v>
+        <v>45892.498240740737</v>
       </c>
       <c r="H94" s="1">
-        <v>45881.439444444441</v>
+        <v>45862.498240740737</v>
       </c>
       <c r="I94" s="2">
-        <v>-12</v>
+        <v>21</v>
       </c>
       <c r="J94" s="3">
-        <v>116.93</v>
+        <v>134.38</v>
       </c>
       <c r="K94" s="3">
-        <v>116.93</v>
+        <v>134.38</v>
       </c>
       <c r="L94" t="s">
         <v>16</v>
       </c>
       <c r="M94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -4447,80 +4429,80 @@
         <v>15</v>
       </c>
       <c r="E95">
-        <v>12012</v>
+        <v>11123</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
       </c>
       <c r="G95" s="1">
-        <v>45918.532141203701</v>
+        <v>45896.546006944445</v>
       </c>
       <c r="H95" s="1">
-        <v>45888.532141203701</v>
+        <v>45866.547673611109</v>
       </c>
       <c r="I95" s="2">
-        <v>-19</v>
+        <v>17</v>
       </c>
       <c r="J95" s="3">
-        <v>1075.79</v>
+        <v>727.73</v>
       </c>
       <c r="K95" s="3">
-        <v>1075.79</v>
+        <v>727.73</v>
       </c>
       <c r="L95" t="s">
         <v>16</v>
       </c>
       <c r="M95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D96">
+        <v>2025</v>
       </c>
       <c r="E96">
-        <v>12193</v>
+        <v>713</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
       </c>
       <c r="G96" s="1">
-        <v>45921.441585648143</v>
+        <v>45900</v>
       </c>
       <c r="H96" s="1">
-        <v>45891.441585648143</v>
+        <v>45870</v>
       </c>
       <c r="I96" s="2">
-        <v>-22</v>
+        <v>13</v>
       </c>
       <c r="J96" s="3">
-        <v>655.7</v>
+        <v>-15.39</v>
       </c>
       <c r="K96" s="3">
-        <v>655.7</v>
+        <v>-15.39</v>
       </c>
       <c r="L96" t="s">
         <v>16</v>
       </c>
       <c r="M96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211111625</v>
+        <v>211111888</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -4529,31 +4511,31 @@
         <v>15</v>
       </c>
       <c r="E97">
-        <v>12427</v>
+        <v>11344</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
       </c>
       <c r="G97" s="1">
-        <v>45928.42763888889</v>
+        <v>45900.516886574071</v>
       </c>
       <c r="H97" s="1">
-        <v>45898.42765046296</v>
+        <v>45870.516898148147</v>
       </c>
       <c r="I97" s="2">
-        <v>-29</v>
+        <v>13</v>
       </c>
       <c r="J97" s="3">
-        <v>926.02</v>
+        <v>741.32</v>
       </c>
       <c r="K97" s="3">
-        <v>926.02</v>
+        <v>741.32</v>
       </c>
       <c r="L97" t="s">
         <v>16</v>
       </c>
       <c r="M97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4561,7 +4543,7 @@
         <v>211111888</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -4570,25 +4552,25 @@
         <v>15</v>
       </c>
       <c r="E98">
-        <v>10144</v>
+        <v>11446</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
       </c>
       <c r="G98" s="1">
-        <v>45872.453831018516</v>
+        <v>45904.531446759254</v>
       </c>
       <c r="H98" s="1">
-        <v>45842.453831018516</v>
+        <v>45874.531446759254</v>
       </c>
       <c r="I98" s="2">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J98" s="3">
-        <v>833.06000000000006</v>
+        <v>49.82</v>
       </c>
       <c r="K98" s="3">
-        <v>833.06000000000006</v>
+        <v>49.82</v>
       </c>
       <c r="L98" t="s">
         <v>16</v>
@@ -4602,7 +4584,7 @@
         <v>211111888</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4611,25 +4593,25 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>10277</v>
+        <v>11547</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
       </c>
       <c r="G99" s="1">
-        <v>45876.441319444442</v>
+        <v>45905.643067129626</v>
       </c>
       <c r="H99" s="1">
-        <v>45846.441319444442</v>
+        <v>45875.643437499995</v>
       </c>
       <c r="I99" s="2">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J99" s="3">
-        <v>1056.32</v>
+        <v>699.11</v>
       </c>
       <c r="K99" s="3">
-        <v>1056.32</v>
+        <v>699.11</v>
       </c>
       <c r="L99" t="s">
         <v>16</v>
@@ -4643,7 +4625,7 @@
         <v>211111888</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -4652,25 +4634,25 @@
         <v>15</v>
       </c>
       <c r="E100">
-        <v>10352</v>
+        <v>11552</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
       </c>
       <c r="G100" s="1">
-        <v>45877.450138888889</v>
+        <v>45906.357638888891</v>
       </c>
       <c r="H100" s="1">
-        <v>45847.450150462959</v>
+        <v>45876.35765046296</v>
       </c>
       <c r="I100" s="2">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J100" s="3">
-        <v>210.29</v>
+        <v>179.12</v>
       </c>
       <c r="K100" s="3">
-        <v>210.29</v>
+        <v>179.12</v>
       </c>
       <c r="L100" t="s">
         <v>16</v>
@@ -4684,34 +4666,34 @@
         <v>211111888</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>15</v>
       </c>
       <c r="E101">
-        <v>636</v>
+        <v>11660</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
       </c>
       <c r="G101" s="1">
-        <v>45878</v>
+        <v>45907.602372685185</v>
       </c>
       <c r="H101" s="1">
-        <v>45848</v>
+        <v>45877.602372685185</v>
       </c>
       <c r="I101" s="2">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J101" s="3">
-        <v>-507.94</v>
+        <v>81.33</v>
       </c>
       <c r="K101" s="3">
-        <v>-507.94</v>
+        <v>81.33</v>
       </c>
       <c r="L101" t="s">
         <v>16</v>
@@ -4725,7 +4707,7 @@
         <v>211111888</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -4734,31 +4716,31 @@
         <v>15</v>
       </c>
       <c r="E102">
-        <v>10419</v>
+        <v>11718</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
       </c>
       <c r="G102" s="1">
-        <v>45878.429652777777</v>
+        <v>45910.541782407403</v>
       </c>
       <c r="H102" s="1">
-        <v>45848.429652777777</v>
+        <v>45880.54179398148</v>
       </c>
       <c r="I102" s="2">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J102" s="3">
-        <v>540.54999999999995</v>
+        <v>119.29</v>
       </c>
       <c r="K102" s="3">
-        <v>540.54999999999995</v>
+        <v>119.29</v>
       </c>
       <c r="L102" t="s">
         <v>16</v>
       </c>
       <c r="M102" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4766,7 +4748,7 @@
         <v>211111888</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4775,31 +4757,31 @@
         <v>15</v>
       </c>
       <c r="E103">
-        <v>10477</v>
+        <v>12039</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
       </c>
       <c r="G103" s="1">
-        <v>45879.432314814811</v>
+        <v>45919.406863425924</v>
       </c>
       <c r="H103" s="1">
-        <v>45849.432314814811</v>
+        <v>45889.407824074071</v>
       </c>
       <c r="I103" s="2">
-        <v>20</v>
+        <v>-6</v>
       </c>
       <c r="J103" s="3">
-        <v>165.06</v>
+        <v>156.55000000000001</v>
       </c>
       <c r="K103" s="3">
-        <v>165.06</v>
+        <v>156.55000000000001</v>
       </c>
       <c r="L103" t="s">
         <v>16</v>
       </c>
       <c r="M103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4807,7 +4789,7 @@
         <v>211111888</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -4816,31 +4798,31 @@
         <v>15</v>
       </c>
       <c r="E104">
-        <v>10508</v>
+        <v>12077</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
       </c>
       <c r="G104" s="1">
-        <v>45882.471365740741</v>
+        <v>45919.572557870371</v>
       </c>
       <c r="H104" s="1">
-        <v>45852.471365740741</v>
+        <v>45889.572569444441</v>
       </c>
       <c r="I104" s="2">
-        <v>17</v>
+        <v>-6</v>
       </c>
       <c r="J104" s="3">
-        <v>110.59</v>
+        <v>242.01</v>
       </c>
       <c r="K104" s="3">
-        <v>110.59</v>
+        <v>242.01</v>
       </c>
       <c r="L104" t="s">
         <v>16</v>
       </c>
       <c r="M104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4848,7 +4830,7 @@
         <v>211111888</v>
       </c>
       <c r="B105" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -4857,31 +4839,31 @@
         <v>15</v>
       </c>
       <c r="E105">
-        <v>10519</v>
+        <v>12212</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
       </c>
       <c r="G105" s="1">
-        <v>45882.479282407403</v>
+        <v>45921.610219907408</v>
       </c>
       <c r="H105" s="1">
-        <v>45852.479282407403</v>
+        <v>45891.614027777774</v>
       </c>
       <c r="I105" s="2">
-        <v>17</v>
+        <v>-8</v>
       </c>
       <c r="J105" s="3">
-        <v>439.56</v>
+        <v>101</v>
       </c>
       <c r="K105" s="3">
-        <v>439.56</v>
+        <v>101</v>
       </c>
       <c r="L105" t="s">
         <v>16</v>
       </c>
       <c r="M105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4889,7 +4871,7 @@
         <v>211111888</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -4898,31 +4880,31 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <v>10626</v>
+        <v>12251</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
       </c>
       <c r="G106" s="1">
-        <v>45884.449004629627</v>
+        <v>45925.350347222222</v>
       </c>
       <c r="H106" s="1">
-        <v>45854.449004629627</v>
+        <v>45895.350358796291</v>
       </c>
       <c r="I106" s="2">
-        <v>15</v>
+        <v>-12</v>
       </c>
       <c r="J106" s="3">
-        <v>49.69</v>
+        <v>153.34</v>
       </c>
       <c r="K106" s="3">
-        <v>49.69</v>
+        <v>153.34</v>
       </c>
       <c r="L106" t="s">
         <v>16</v>
       </c>
       <c r="M106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4930,7 +4912,7 @@
         <v>211111888</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4939,121 +4921,121 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>10811</v>
+        <v>12751</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
       </c>
       <c r="G107" s="1">
-        <v>45889.48296296296</v>
+        <v>45939.4605787037</v>
       </c>
       <c r="H107" s="1">
-        <v>45859.48296296296</v>
+        <v>45909.4605787037</v>
       </c>
       <c r="I107" s="2">
-        <v>10</v>
+        <v>-26</v>
       </c>
       <c r="J107" s="3">
-        <v>481.88</v>
+        <v>399.14</v>
       </c>
       <c r="K107" s="3">
-        <v>481.88</v>
+        <v>399.14</v>
       </c>
       <c r="L107" t="s">
         <v>16</v>
       </c>
       <c r="M107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211111888</v>
+        <v>211111943</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
       </c>
       <c r="E108">
-        <v>666</v>
+        <v>11857</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
       </c>
       <c r="G108" s="1">
-        <v>45891</v>
+        <v>45912.582881944443</v>
       </c>
       <c r="H108" s="1">
-        <v>45861</v>
+        <v>45882.58289351852</v>
       </c>
       <c r="I108" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J108" s="3">
-        <v>-359.47</v>
+        <v>46.86</v>
       </c>
       <c r="K108" s="3">
-        <v>-359.47</v>
+        <v>46.86</v>
       </c>
       <c r="L108" t="s">
         <v>16</v>
       </c>
       <c r="M108" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211111888</v>
+        <v>211111943</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
       </c>
       <c r="E109">
-        <v>679</v>
+        <v>12028</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
       </c>
       <c r="G109" s="1">
-        <v>45892</v>
+        <v>45918.675983796296</v>
       </c>
       <c r="H109" s="1">
-        <v>45862</v>
+        <v>45888.676168981481</v>
       </c>
       <c r="I109" s="2">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="J109" s="3">
-        <v>-11.61</v>
+        <v>139.79</v>
       </c>
       <c r="K109" s="3">
-        <v>-11.61</v>
+        <v>139.79</v>
       </c>
       <c r="L109" t="s">
         <v>16</v>
       </c>
       <c r="M109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -5062,25 +5044,25 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <v>10999</v>
+        <v>11297</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
       </c>
       <c r="G110" s="1">
-        <v>45892.498240740737</v>
+        <v>45900.295555555553</v>
       </c>
       <c r="H110" s="1">
-        <v>45862.498240740737</v>
+        <v>45870.300393518519</v>
       </c>
       <c r="I110" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J110" s="3">
-        <v>134.38</v>
+        <v>482.92</v>
       </c>
       <c r="K110" s="3">
-        <v>134.38</v>
+        <v>482.92</v>
       </c>
       <c r="L110" t="s">
         <v>16</v>
@@ -5091,10 +5073,10 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5103,39 +5085,39 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>11123</v>
+        <v>11608</v>
       </c>
       <c r="F111" t="s">
         <v>19</v>
       </c>
       <c r="G111" s="1">
-        <v>45896.546006944445</v>
+        <v>45907.470601851848</v>
       </c>
       <c r="H111" s="1">
-        <v>45866.547673611109</v>
+        <v>45877.476655092592</v>
       </c>
       <c r="I111" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J111" s="3">
-        <v>727.73</v>
+        <v>412.48</v>
       </c>
       <c r="K111" s="3">
-        <v>727.73</v>
+        <v>412.48</v>
       </c>
       <c r="L111" t="s">
         <v>16</v>
       </c>
       <c r="M111" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
@@ -5144,25 +5126,25 @@
         <v>15</v>
       </c>
       <c r="E112">
-        <v>11288</v>
+        <v>11915</v>
       </c>
       <c r="F112" t="s">
         <v>19</v>
       </c>
       <c r="G112" s="1">
-        <v>45899.506018518514</v>
+        <v>45913.566678240742</v>
       </c>
       <c r="H112" s="1">
-        <v>45869.506030092591</v>
+        <v>45883.567129629628</v>
       </c>
       <c r="I112" s="2">
         <v>0</v>
       </c>
       <c r="J112" s="3">
-        <v>228.8</v>
+        <v>809.44</v>
       </c>
       <c r="K112" s="3">
-        <v>228.8</v>
+        <v>809.44</v>
       </c>
       <c r="L112" t="s">
         <v>16</v>
@@ -5173,37 +5155,37 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B113" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D113" t="s">
+        <v>15</v>
       </c>
       <c r="E113">
-        <v>713</v>
+        <v>12216</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
       </c>
       <c r="G113" s="1">
-        <v>45900</v>
+        <v>45924.339039351849</v>
       </c>
       <c r="H113" s="1">
-        <v>45870</v>
+        <v>45894.342268518514</v>
       </c>
       <c r="I113" s="2">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="J113" s="3">
-        <v>-15.39</v>
+        <v>274.67</v>
       </c>
       <c r="K113" s="3">
-        <v>-15.39</v>
+        <v>274.67</v>
       </c>
       <c r="L113" t="s">
         <v>16</v>
@@ -5214,10 +5196,10 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -5226,25 +5208,25 @@
         <v>15</v>
       </c>
       <c r="E114">
-        <v>11344</v>
+        <v>12401</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
       </c>
       <c r="G114" s="1">
-        <v>45900.516886574071</v>
+        <v>45928.366875</v>
       </c>
       <c r="H114" s="1">
-        <v>45870.516898148147</v>
+        <v>45898.366875</v>
       </c>
       <c r="I114" s="2">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="J114" s="3">
-        <v>741.32</v>
+        <v>412.95</v>
       </c>
       <c r="K114" s="3">
-        <v>741.32</v>
+        <v>412.95</v>
       </c>
       <c r="L114" t="s">
         <v>16</v>
@@ -5255,10 +5237,10 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B115" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -5267,25 +5249,25 @@
         <v>15</v>
       </c>
       <c r="E115">
-        <v>11446</v>
+        <v>12487</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
       </c>
       <c r="G115" s="1">
-        <v>45904.531446759254</v>
+        <v>45932.33189814815</v>
       </c>
       <c r="H115" s="1">
-        <v>45874.531446759254</v>
+        <v>45902.333310185182</v>
       </c>
       <c r="I115" s="2">
-        <v>-5</v>
+        <v>-19</v>
       </c>
       <c r="J115" s="3">
-        <v>49.82</v>
+        <v>275.86</v>
       </c>
       <c r="K115" s="3">
-        <v>49.82</v>
+        <v>275.86</v>
       </c>
       <c r="L115" t="s">
         <v>16</v>
@@ -5296,10 +5278,10 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>211111888</v>
+        <v>211112004</v>
       </c>
       <c r="B116" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -5308,25 +5290,25 @@
         <v>15</v>
       </c>
       <c r="E116">
-        <v>11547</v>
+        <v>12709</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
       </c>
       <c r="G116" s="1">
-        <v>45905.643067129626</v>
+        <v>45939.350648148145</v>
       </c>
       <c r="H116" s="1">
-        <v>45875.643437499995</v>
+        <v>45909.350659722222</v>
       </c>
       <c r="I116" s="2">
-        <v>-6</v>
+        <v>-26</v>
       </c>
       <c r="J116" s="3">
-        <v>699.11</v>
+        <v>498.54</v>
       </c>
       <c r="K116" s="3">
-        <v>699.11</v>
+        <v>498.54</v>
       </c>
       <c r="L116" t="s">
         <v>16</v>
@@ -5337,10 +5319,10 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>211111888</v>
+        <v>211112022</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
@@ -5349,39 +5331,39 @@
         <v>15</v>
       </c>
       <c r="E117">
-        <v>11552</v>
+        <v>11861</v>
       </c>
       <c r="F117" t="s">
         <v>19</v>
       </c>
       <c r="G117" s="1">
-        <v>45906.357638888891</v>
+        <v>45882.647453703699</v>
       </c>
       <c r="H117" s="1">
-        <v>45876.35765046296</v>
+        <v>45882.647453703699</v>
       </c>
       <c r="I117" s="2">
-        <v>-7</v>
+        <v>31</v>
       </c>
       <c r="J117" s="3">
-        <v>179.12</v>
+        <v>158.86000000000001</v>
       </c>
       <c r="K117" s="3">
-        <v>179.12</v>
+        <v>158.86000000000001</v>
       </c>
       <c r="L117" t="s">
         <v>16</v>
       </c>
       <c r="M117" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>211111888</v>
+        <v>211112034</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -5390,39 +5372,39 @@
         <v>15</v>
       </c>
       <c r="E118">
-        <v>11660</v>
+        <v>11770</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
       </c>
       <c r="G118" s="1">
-        <v>45907.602372685185</v>
+        <v>45911.678842592592</v>
       </c>
       <c r="H118" s="1">
-        <v>45877.602372685185</v>
+        <v>45881.679826388885</v>
       </c>
       <c r="I118" s="2">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="J118" s="3">
-        <v>81.33</v>
+        <v>127.13000000000001</v>
       </c>
       <c r="K118" s="3">
-        <v>81.33</v>
+        <v>127.13000000000001</v>
       </c>
       <c r="L118" t="s">
         <v>16</v>
       </c>
       <c r="M118" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>211111888</v>
+        <v>211112034</v>
       </c>
       <c r="B119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
@@ -5431,39 +5413,39 @@
         <v>15</v>
       </c>
       <c r="E119">
-        <v>11718</v>
+        <v>11831</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
       </c>
       <c r="G119" s="1">
-        <v>45910.541782407403</v>
+        <v>45912.51599537037</v>
       </c>
       <c r="H119" s="1">
-        <v>45880.54179398148</v>
+        <v>45882.516168981478</v>
       </c>
       <c r="I119" s="2">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="J119" s="3">
-        <v>119.29</v>
+        <v>43.1</v>
       </c>
       <c r="K119" s="3">
-        <v>119.29</v>
+        <v>43.1</v>
       </c>
       <c r="L119" t="s">
         <v>16</v>
       </c>
       <c r="M119" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>211111888</v>
+        <v>211112034</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
@@ -5472,25 +5454,25 @@
         <v>15</v>
       </c>
       <c r="E120">
-        <v>12039</v>
+        <v>11997</v>
       </c>
       <c r="F120" t="s">
         <v>19</v>
       </c>
       <c r="G120" s="1">
-        <v>45919.406863425924</v>
+        <v>45918.483773148146</v>
       </c>
       <c r="H120" s="1">
-        <v>45889.407824074071</v>
+        <v>45888.485208333332</v>
       </c>
       <c r="I120" s="2">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="J120" s="3">
-        <v>156.55000000000001</v>
+        <v>158.41</v>
       </c>
       <c r="K120" s="3">
-        <v>156.55000000000001</v>
+        <v>158.41</v>
       </c>
       <c r="L120" t="s">
         <v>16</v>
@@ -5501,10 +5483,10 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>211111888</v>
+        <v>211112034</v>
       </c>
       <c r="B121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
@@ -5513,25 +5495,25 @@
         <v>15</v>
       </c>
       <c r="E121">
-        <v>12077</v>
+        <v>12271</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
       </c>
       <c r="G121" s="1">
-        <v>45919.572557870371</v>
+        <v>45925.472824074073</v>
       </c>
       <c r="H121" s="1">
-        <v>45889.572569444441</v>
+        <v>45895.473333333328</v>
       </c>
       <c r="I121" s="2">
-        <v>-20</v>
+        <v>-12</v>
       </c>
       <c r="J121" s="3">
-        <v>242.01</v>
+        <v>236.85</v>
       </c>
       <c r="K121" s="3">
-        <v>242.01</v>
+        <v>236.85</v>
       </c>
       <c r="L121" t="s">
         <v>16</v>
@@ -5542,10 +5524,10 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>211111888</v>
+        <v>211112034</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
@@ -5554,25 +5536,25 @@
         <v>15</v>
       </c>
       <c r="E122">
-        <v>12212</v>
+        <v>12583</v>
       </c>
       <c r="F122" t="s">
         <v>19</v>
       </c>
       <c r="G122" s="1">
-        <v>45921.610219907408</v>
+        <v>45933.666284722218</v>
       </c>
       <c r="H122" s="1">
-        <v>45891.614027777774</v>
+        <v>45903.669351851851</v>
       </c>
       <c r="I122" s="2">
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="J122" s="3">
-        <v>101</v>
+        <v>46.36</v>
       </c>
       <c r="K122" s="3">
-        <v>101</v>
+        <v>46.36</v>
       </c>
       <c r="L122" t="s">
         <v>16</v>
@@ -5583,10 +5565,10 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>211111888</v>
+        <v>211112034</v>
       </c>
       <c r="B123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
@@ -5595,25 +5577,25 @@
         <v>15</v>
       </c>
       <c r="E123">
-        <v>12251</v>
+        <v>12667</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
       </c>
       <c r="G123" s="1">
-        <v>45925.350347222222</v>
+        <v>45935.524409722224</v>
       </c>
       <c r="H123" s="1">
-        <v>45895.350358796291</v>
+        <v>45905.525289351848</v>
       </c>
       <c r="I123" s="2">
-        <v>-26</v>
+        <v>-22</v>
       </c>
       <c r="J123" s="3">
-        <v>153.34</v>
+        <v>88.14</v>
       </c>
       <c r="K123" s="3">
-        <v>153.34</v>
+        <v>88.14</v>
       </c>
       <c r="L123" t="s">
         <v>16</v>
@@ -5624,10 +5606,10 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>211111892</v>
+        <v>211112034</v>
       </c>
       <c r="B124" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
@@ -5636,25 +5618,25 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>12230</v>
+        <v>12760</v>
       </c>
       <c r="F124" t="s">
         <v>19</v>
       </c>
       <c r="G124" s="1">
-        <v>45924.45648148148</v>
+        <v>45939.488819444443</v>
       </c>
       <c r="H124" s="1">
-        <v>45894.45648148148</v>
+        <v>45909.491168981476</v>
       </c>
       <c r="I124" s="2">
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="J124" s="3">
-        <v>73.91</v>
+        <v>44.730000000000004</v>
       </c>
       <c r="K124" s="3">
-        <v>73.91</v>
+        <v>44.730000000000004</v>
       </c>
       <c r="L124" t="s">
         <v>16</v>
@@ -5665,10 +5647,10 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>211111943</v>
+        <v>211112034</v>
       </c>
       <c r="B125" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
@@ -5677,25 +5659,25 @@
         <v>15</v>
       </c>
       <c r="E125">
-        <v>11857</v>
+        <v>12777</v>
       </c>
       <c r="F125" t="s">
         <v>19</v>
       </c>
       <c r="G125" s="1">
-        <v>45912.582881944443</v>
+        <v>45940.446388888886</v>
       </c>
       <c r="H125" s="1">
-        <v>45882.58289351852</v>
+        <v>45910.446655092594</v>
       </c>
       <c r="I125" s="2">
-        <v>-13</v>
+        <v>-27</v>
       </c>
       <c r="J125" s="3">
-        <v>46.86</v>
+        <v>143.91</v>
       </c>
       <c r="K125" s="3">
-        <v>46.86</v>
+        <v>143.91</v>
       </c>
       <c r="L125" t="s">
         <v>16</v>
@@ -5706,10 +5688,10 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>211111943</v>
+        <v>211112182</v>
       </c>
       <c r="B126" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
@@ -5718,25 +5700,25 @@
         <v>15</v>
       </c>
       <c r="E126">
-        <v>12028</v>
+        <v>12624</v>
       </c>
       <c r="F126" t="s">
         <v>19</v>
       </c>
       <c r="G126" s="1">
-        <v>45918.675983796296</v>
+        <v>45934.599444444444</v>
       </c>
       <c r="H126" s="1">
-        <v>45888.676168981481</v>
+        <v>45904.619386574072</v>
       </c>
       <c r="I126" s="2">
-        <v>-19</v>
+        <v>-21</v>
       </c>
       <c r="J126" s="3">
-        <v>139.79</v>
+        <v>223.70000000000002</v>
       </c>
       <c r="K126" s="3">
-        <v>139.79</v>
+        <v>223.70000000000002</v>
       </c>
       <c r="L126" t="s">
         <v>16</v>
@@ -5747,10 +5729,10 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>211112004</v>
+        <v>211112224</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
@@ -5759,25 +5741,25 @@
         <v>15</v>
       </c>
       <c r="E127">
-        <v>10431</v>
+        <v>12180</v>
       </c>
       <c r="F127" t="s">
         <v>19</v>
       </c>
       <c r="G127" s="1">
-        <v>45878.592581018514</v>
+        <v>45891.438576388886</v>
       </c>
       <c r="H127" s="1">
-        <v>45848.592581018514</v>
+        <v>45891.438576388886</v>
       </c>
       <c r="I127" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J127" s="3">
-        <v>414.76</v>
+        <v>210.09</v>
       </c>
       <c r="K127" s="3">
-        <v>414.76</v>
+        <v>210.09</v>
       </c>
       <c r="L127" t="s">
         <v>16</v>
@@ -5788,10 +5770,10 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>211112004</v>
+        <v>211112415</v>
       </c>
       <c r="B128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C128" t="s">
         <v>14</v>
@@ -5800,25 +5782,25 @@
         <v>15</v>
       </c>
       <c r="E128">
-        <v>10728</v>
+        <v>11360</v>
       </c>
       <c r="F128" t="s">
         <v>19</v>
       </c>
       <c r="G128" s="1">
-        <v>45886.283738425926</v>
+        <v>45900.567083333328</v>
       </c>
       <c r="H128" s="1">
-        <v>45856.284224537034</v>
+        <v>45870.567083333328</v>
       </c>
       <c r="I128" s="2">
         <v>13</v>
       </c>
       <c r="J128" s="3">
-        <v>278.35000000000002</v>
+        <v>50.69</v>
       </c>
       <c r="K128" s="3">
-        <v>278.35000000000002</v>
+        <v>50.69</v>
       </c>
       <c r="L128" t="s">
         <v>16</v>
@@ -5829,10 +5811,10 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>211112004</v>
+        <v>211112415</v>
       </c>
       <c r="B129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -5841,39 +5823,39 @@
         <v>15</v>
       </c>
       <c r="E129">
-        <v>11297</v>
+        <v>11543</v>
       </c>
       <c r="F129" t="s">
         <v>19</v>
       </c>
       <c r="G129" s="1">
-        <v>45900.295555555553</v>
+        <v>45905.539733796293</v>
       </c>
       <c r="H129" s="1">
-        <v>45870.300393518519</v>
+        <v>45875.539733796293</v>
       </c>
       <c r="I129" s="2">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J129" s="3">
-        <v>482.92</v>
+        <v>61.22</v>
       </c>
       <c r="K129" s="3">
-        <v>482.92</v>
+        <v>61.22</v>
       </c>
       <c r="L129" t="s">
         <v>16</v>
       </c>
       <c r="M129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>211112004</v>
+        <v>211112415</v>
       </c>
       <c r="B130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -5882,25 +5864,25 @@
         <v>15</v>
       </c>
       <c r="E130">
-        <v>11608</v>
+        <v>11977</v>
       </c>
       <c r="F130" t="s">
         <v>19</v>
       </c>
       <c r="G130" s="1">
-        <v>45907.470601851848</v>
+        <v>45917.603981481479</v>
       </c>
       <c r="H130" s="1">
-        <v>45877.476655092592</v>
+        <v>45887.604467592588</v>
       </c>
       <c r="I130" s="2">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="J130" s="3">
-        <v>412.48</v>
+        <v>143.14000000000001</v>
       </c>
       <c r="K130" s="3">
-        <v>412.48</v>
+        <v>143.14000000000001</v>
       </c>
       <c r="L130" t="s">
         <v>16</v>
@@ -5911,10 +5893,10 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>211112004</v>
+        <v>211112415</v>
       </c>
       <c r="B131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -5923,25 +5905,25 @@
         <v>15</v>
       </c>
       <c r="E131">
-        <v>11915</v>
+        <v>12092</v>
       </c>
       <c r="F131" t="s">
         <v>19</v>
       </c>
       <c r="G131" s="1">
-        <v>45913.566678240742</v>
+        <v>45919.599108796298</v>
       </c>
       <c r="H131" s="1">
-        <v>45883.567129629628</v>
+        <v>45889.599108796298</v>
       </c>
       <c r="I131" s="2">
-        <v>-14</v>
+        <v>-6</v>
       </c>
       <c r="J131" s="3">
-        <v>809.44</v>
+        <v>54.33</v>
       </c>
       <c r="K131" s="3">
-        <v>809.44</v>
+        <v>54.33</v>
       </c>
       <c r="L131" t="s">
         <v>16</v>
@@ -5952,10 +5934,10 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211112004</v>
+        <v>211112415</v>
       </c>
       <c r="B132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -5964,25 +5946,25 @@
         <v>15</v>
       </c>
       <c r="E132">
-        <v>12216</v>
+        <v>12204</v>
       </c>
       <c r="F132" t="s">
         <v>19</v>
       </c>
       <c r="G132" s="1">
-        <v>45924.339039351849</v>
+        <v>45921.449178240742</v>
       </c>
       <c r="H132" s="1">
-        <v>45894.342268518514</v>
+        <v>45891.449178240742</v>
       </c>
       <c r="I132" s="2">
-        <v>-25</v>
+        <v>-8</v>
       </c>
       <c r="J132" s="3">
-        <v>274.67</v>
+        <v>61.940000000000005</v>
       </c>
       <c r="K132" s="3">
-        <v>274.67</v>
+        <v>61.940000000000005</v>
       </c>
       <c r="L132" t="s">
         <v>16</v>
@@ -5993,37 +5975,37 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>211112004</v>
+        <v>211112415</v>
       </c>
       <c r="B133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D133">
+        <v>2025</v>
       </c>
       <c r="E133">
-        <v>12401</v>
+        <v>785</v>
       </c>
       <c r="F133" t="s">
         <v>19</v>
       </c>
       <c r="G133" s="1">
-        <v>45928.366875</v>
+        <v>45922</v>
       </c>
       <c r="H133" s="1">
-        <v>45898.366875</v>
+        <v>45892</v>
       </c>
       <c r="I133" s="2">
-        <v>-29</v>
+        <v>-9</v>
       </c>
       <c r="J133" s="3">
-        <v>412.95</v>
+        <v>-13.91</v>
       </c>
       <c r="K133" s="3">
-        <v>412.95</v>
+        <v>-13.91</v>
       </c>
       <c r="L133" t="s">
         <v>16</v>
@@ -6034,10 +6016,10 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>211112022</v>
+        <v>211112415</v>
       </c>
       <c r="B134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6046,39 +6028,39 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>11861</v>
+        <v>12336</v>
       </c>
       <c r="F134" t="s">
         <v>19</v>
       </c>
       <c r="G134" s="1">
-        <v>45882.647453703699</v>
+        <v>45926.416435185187</v>
       </c>
       <c r="H134" s="1">
-        <v>45882.647453703699</v>
+        <v>45896.416435185187</v>
       </c>
       <c r="I134" s="2">
-        <v>17</v>
+        <v>-13</v>
       </c>
       <c r="J134" s="3">
-        <v>158.86000000000001</v>
+        <v>78.34</v>
       </c>
       <c r="K134" s="3">
-        <v>158.86000000000001</v>
+        <v>78.34</v>
       </c>
       <c r="L134" t="s">
         <v>16</v>
       </c>
       <c r="M134" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>211112034</v>
+        <v>211112415</v>
       </c>
       <c r="B135" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6087,80 +6069,80 @@
         <v>15</v>
       </c>
       <c r="E135">
-        <v>10900</v>
+        <v>12883</v>
       </c>
       <c r="F135" t="s">
         <v>19</v>
       </c>
       <c r="G135" s="1">
-        <v>45891.499594907407</v>
+        <v>45942.351180555554</v>
       </c>
       <c r="H135" s="1">
-        <v>45861.500196759254</v>
+        <v>45912.351180555554</v>
       </c>
       <c r="I135" s="2">
-        <v>8</v>
+        <v>-29</v>
       </c>
       <c r="J135" s="3">
-        <v>227.62</v>
+        <v>112.89</v>
       </c>
       <c r="K135" s="3">
-        <v>227.62</v>
+        <v>112.89</v>
       </c>
       <c r="L135" t="s">
         <v>16</v>
       </c>
       <c r="M135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112034</v>
+        <v>211121278</v>
       </c>
       <c r="B136" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136">
+        <v>10076</v>
+      </c>
+      <c r="F136" t="s">
+        <v>19</v>
+      </c>
+      <c r="G136" s="1">
+        <v>45871.611539351848</v>
+      </c>
+      <c r="H136" s="1">
+        <v>45841.612893518519</v>
+      </c>
+      <c r="I136" s="2">
         <v>42</v>
       </c>
-      <c r="C136" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" t="s">
-        <v>15</v>
-      </c>
-      <c r="E136">
-        <v>11243</v>
-      </c>
-      <c r="F136" t="s">
-        <v>19</v>
-      </c>
-      <c r="G136" s="1">
-        <v>45898.51180555555</v>
-      </c>
-      <c r="H136" s="1">
-        <v>45868.512175925927</v>
-      </c>
-      <c r="I136" s="2">
-        <v>1</v>
-      </c>
       <c r="J136" s="3">
-        <v>140.12</v>
+        <v>91.8</v>
       </c>
       <c r="K136" s="3">
-        <v>140.12</v>
+        <v>91.8</v>
       </c>
       <c r="L136" t="s">
         <v>16</v>
       </c>
       <c r="M136" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211112034</v>
+        <v>211121278</v>
       </c>
       <c r="B137" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -6169,39 +6151,39 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <v>11535</v>
+        <v>10229</v>
       </c>
       <c r="F137" t="s">
         <v>19</v>
       </c>
       <c r="G137" s="1">
-        <v>45905.529490740737</v>
+        <v>45875.600995370369</v>
       </c>
       <c r="H137" s="1">
-        <v>45875.530717592592</v>
+        <v>45845.602673611109</v>
       </c>
       <c r="I137" s="2">
-        <v>-6</v>
+        <v>38</v>
       </c>
       <c r="J137" s="3">
-        <v>285.49</v>
+        <v>86.4</v>
       </c>
       <c r="K137" s="3">
-        <v>285.49</v>
+        <v>86.4</v>
       </c>
       <c r="L137" t="s">
         <v>16</v>
       </c>
       <c r="M137" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112034</v>
+        <v>211121278</v>
       </c>
       <c r="B138" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
@@ -6210,769 +6192,31 @@
         <v>15</v>
       </c>
       <c r="E138">
-        <v>11770</v>
+        <v>11294</v>
       </c>
       <c r="F138" t="s">
         <v>19</v>
       </c>
       <c r="G138" s="1">
-        <v>45911.678842592592</v>
+        <v>45899.61278935185</v>
       </c>
       <c r="H138" s="1">
-        <v>45881.679826388885</v>
+        <v>45869.613032407404</v>
       </c>
       <c r="I138" s="2">
-        <v>-12</v>
+        <v>14</v>
       </c>
       <c r="J138" s="3">
-        <v>127.13000000000001</v>
+        <v>21.6</v>
       </c>
       <c r="K138" s="3">
-        <v>127.13000000000001</v>
+        <v>21.6</v>
       </c>
       <c r="L138" t="s">
         <v>16</v>
       </c>
       <c r="M138" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>211112034</v>
-      </c>
-      <c r="B139" t="s">
-        <v>42</v>
-      </c>
-      <c r="C139" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" t="s">
-        <v>15</v>
-      </c>
-      <c r="E139">
-        <v>11831</v>
-      </c>
-      <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" s="1">
-        <v>45912.51599537037</v>
-      </c>
-      <c r="H139" s="1">
-        <v>45882.516168981478</v>
-      </c>
-      <c r="I139" s="2">
-        <v>-13</v>
-      </c>
-      <c r="J139" s="3">
-        <v>43.1</v>
-      </c>
-      <c r="K139" s="3">
-        <v>43.1</v>
-      </c>
-      <c r="L139" t="s">
-        <v>16</v>
-      </c>
-      <c r="M139" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>211112034</v>
-      </c>
-      <c r="B140" t="s">
-        <v>42</v>
-      </c>
-      <c r="C140" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140">
-        <v>11997</v>
-      </c>
-      <c r="F140" t="s">
-        <v>19</v>
-      </c>
-      <c r="G140" s="1">
-        <v>45918.483773148146</v>
-      </c>
-      <c r="H140" s="1">
-        <v>45888.485208333332</v>
-      </c>
-      <c r="I140" s="2">
-        <v>-19</v>
-      </c>
-      <c r="J140" s="3">
-        <v>158.41</v>
-      </c>
-      <c r="K140" s="3">
-        <v>158.41</v>
-      </c>
-      <c r="L140" t="s">
-        <v>16</v>
-      </c>
-      <c r="M140" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>211112034</v>
-      </c>
-      <c r="B141" t="s">
-        <v>42</v>
-      </c>
-      <c r="C141" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141">
-        <v>12271</v>
-      </c>
-      <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" s="1">
-        <v>45925.472824074073</v>
-      </c>
-      <c r="H141" s="1">
-        <v>45895.473333333328</v>
-      </c>
-      <c r="I141" s="2">
-        <v>-26</v>
-      </c>
-      <c r="J141" s="3">
-        <v>236.85</v>
-      </c>
-      <c r="K141" s="3">
-        <v>236.85</v>
-      </c>
-      <c r="L141" t="s">
-        <v>16</v>
-      </c>
-      <c r="M141" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>211112182</v>
-      </c>
-      <c r="B142" t="s">
-        <v>45</v>
-      </c>
-      <c r="C142" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" t="s">
-        <v>15</v>
-      </c>
-      <c r="E142">
-        <v>11673</v>
-      </c>
-      <c r="F142" t="s">
-        <v>19</v>
-      </c>
-      <c r="G142" s="1">
-        <v>45907.622719907406</v>
-      </c>
-      <c r="H142" s="1">
-        <v>45877.623020833329</v>
-      </c>
-      <c r="I142" s="2">
-        <v>-8</v>
-      </c>
-      <c r="J142" s="3">
-        <v>188.45000000000002</v>
-      </c>
-      <c r="K142" s="3">
-        <v>188.45000000000002</v>
-      </c>
-      <c r="L142" t="s">
-        <v>16</v>
-      </c>
-      <c r="M142" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>211112184</v>
-      </c>
-      <c r="B143" t="s">
-        <v>51</v>
-      </c>
-      <c r="C143" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E143">
-        <v>12402</v>
-      </c>
-      <c r="F143" t="s">
-        <v>47</v>
-      </c>
-      <c r="G143" s="1">
-        <v>45898.366898148146</v>
-      </c>
-      <c r="H143" s="1">
-        <v>45898.366898148146</v>
-      </c>
-      <c r="I143" s="2">
-        <v>1</v>
-      </c>
-      <c r="J143" s="3">
-        <v>123.46000000000001</v>
-      </c>
-      <c r="K143" s="3">
-        <v>123.46000000000001</v>
-      </c>
-      <c r="L143" t="s">
-        <v>16</v>
-      </c>
-      <c r="M143" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>211112224</v>
-      </c>
-      <c r="B144" t="s">
-        <v>48</v>
-      </c>
-      <c r="C144" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" t="s">
-        <v>15</v>
-      </c>
-      <c r="E144">
-        <v>12180</v>
-      </c>
-      <c r="F144" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" s="1">
-        <v>45891.438576388886</v>
-      </c>
-      <c r="H144" s="1">
-        <v>45891.438576388886</v>
-      </c>
-      <c r="I144" s="2">
-        <v>8</v>
-      </c>
-      <c r="J144" s="3">
-        <v>210.09</v>
-      </c>
-      <c r="K144" s="3">
-        <v>210.09</v>
-      </c>
-      <c r="L144" t="s">
-        <v>16</v>
-      </c>
-      <c r="M144" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>211112415</v>
-      </c>
-      <c r="B145" t="s">
-        <v>43</v>
-      </c>
-      <c r="C145" t="s">
-        <v>14</v>
-      </c>
-      <c r="D145" t="s">
-        <v>15</v>
-      </c>
-      <c r="E145">
-        <v>11070</v>
-      </c>
-      <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" s="1">
-        <v>45893.523460648146</v>
-      </c>
-      <c r="H145" s="1">
-        <v>45863.523460648146</v>
-      </c>
-      <c r="I145" s="2">
-        <v>6</v>
-      </c>
-      <c r="J145" s="3">
-        <v>106.52</v>
-      </c>
-      <c r="K145" s="3">
-        <v>106.52</v>
-      </c>
-      <c r="L145" t="s">
-        <v>16</v>
-      </c>
-      <c r="M145" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>211112415</v>
-      </c>
-      <c r="B146" t="s">
-        <v>43</v>
-      </c>
-      <c r="C146" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" t="s">
-        <v>15</v>
-      </c>
-      <c r="E146">
-        <v>11102</v>
-      </c>
-      <c r="F146" t="s">
-        <v>19</v>
-      </c>
-      <c r="G146" s="1">
-        <v>45896.526087962964</v>
-      </c>
-      <c r="H146" s="1">
-        <v>45866.526087962964</v>
-      </c>
-      <c r="I146" s="2">
-        <v>3</v>
-      </c>
-      <c r="J146" s="3">
-        <v>48.92</v>
-      </c>
-      <c r="K146" s="3">
-        <v>48.92</v>
-      </c>
-      <c r="L146" t="s">
-        <v>16</v>
-      </c>
-      <c r="M146" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>211112415</v>
-      </c>
-      <c r="B147" t="s">
-        <v>43</v>
-      </c>
-      <c r="C147" t="s">
-        <v>14</v>
-      </c>
-      <c r="D147" t="s">
-        <v>15</v>
-      </c>
-      <c r="E147">
-        <v>11360</v>
-      </c>
-      <c r="F147" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" s="1">
-        <v>45900.567083333328</v>
-      </c>
-      <c r="H147" s="1">
-        <v>45870.567083333328</v>
-      </c>
-      <c r="I147" s="2">
-        <v>-1</v>
-      </c>
-      <c r="J147" s="3">
-        <v>50.69</v>
-      </c>
-      <c r="K147" s="3">
-        <v>50.69</v>
-      </c>
-      <c r="L147" t="s">
-        <v>16</v>
-      </c>
-      <c r="M147" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>211112415</v>
-      </c>
-      <c r="B148" t="s">
-        <v>43</v>
-      </c>
-      <c r="C148" t="s">
-        <v>14</v>
-      </c>
-      <c r="D148" t="s">
-        <v>15</v>
-      </c>
-      <c r="E148">
-        <v>11543</v>
-      </c>
-      <c r="F148" t="s">
-        <v>19</v>
-      </c>
-      <c r="G148" s="1">
-        <v>45905.539733796293</v>
-      </c>
-      <c r="H148" s="1">
-        <v>45875.539733796293</v>
-      </c>
-      <c r="I148" s="2">
-        <v>-6</v>
-      </c>
-      <c r="J148" s="3">
-        <v>61.22</v>
-      </c>
-      <c r="K148" s="3">
-        <v>61.22</v>
-      </c>
-      <c r="L148" t="s">
-        <v>16</v>
-      </c>
-      <c r="M148" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>211112415</v>
-      </c>
-      <c r="B149" t="s">
-        <v>43</v>
-      </c>
-      <c r="C149" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E149">
-        <v>11977</v>
-      </c>
-      <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" s="1">
-        <v>45917.603981481479</v>
-      </c>
-      <c r="H149" s="1">
-        <v>45887.604467592588</v>
-      </c>
-      <c r="I149" s="2">
-        <v>-18</v>
-      </c>
-      <c r="J149" s="3">
-        <v>143.14000000000001</v>
-      </c>
-      <c r="K149" s="3">
-        <v>143.14000000000001</v>
-      </c>
-      <c r="L149" t="s">
-        <v>16</v>
-      </c>
-      <c r="M149" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>211112415</v>
-      </c>
-      <c r="B150" t="s">
-        <v>43</v>
-      </c>
-      <c r="C150" t="s">
-        <v>14</v>
-      </c>
-      <c r="D150" t="s">
-        <v>15</v>
-      </c>
-      <c r="E150">
-        <v>12092</v>
-      </c>
-      <c r="F150" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" s="1">
-        <v>45919.599108796298</v>
-      </c>
-      <c r="H150" s="1">
-        <v>45889.599108796298</v>
-      </c>
-      <c r="I150" s="2">
-        <v>-20</v>
-      </c>
-      <c r="J150" s="3">
-        <v>54.33</v>
-      </c>
-      <c r="K150" s="3">
-        <v>54.33</v>
-      </c>
-      <c r="L150" t="s">
-        <v>16</v>
-      </c>
-      <c r="M150" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>211112415</v>
-      </c>
-      <c r="B151" t="s">
-        <v>43</v>
-      </c>
-      <c r="C151" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" t="s">
-        <v>15</v>
-      </c>
-      <c r="E151">
-        <v>12204</v>
-      </c>
-      <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" s="1">
-        <v>45921.449178240742</v>
-      </c>
-      <c r="H151" s="1">
-        <v>45891.449178240742</v>
-      </c>
-      <c r="I151" s="2">
-        <v>-22</v>
-      </c>
-      <c r="J151" s="3">
-        <v>61.940000000000005</v>
-      </c>
-      <c r="K151" s="3">
-        <v>61.940000000000005</v>
-      </c>
-      <c r="L151" t="s">
-        <v>16</v>
-      </c>
-      <c r="M151" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>211112415</v>
-      </c>
-      <c r="B152" t="s">
-        <v>43</v>
-      </c>
-      <c r="C152" t="s">
-        <v>21</v>
-      </c>
-      <c r="D152">
-        <v>2025</v>
-      </c>
-      <c r="E152">
-        <v>785</v>
-      </c>
-      <c r="F152" t="s">
-        <v>19</v>
-      </c>
-      <c r="G152" s="1">
-        <v>45922</v>
-      </c>
-      <c r="H152" s="1">
-        <v>45892</v>
-      </c>
-      <c r="I152" s="2">
-        <v>-23</v>
-      </c>
-      <c r="J152" s="3">
-        <v>-13.91</v>
-      </c>
-      <c r="K152" s="3">
-        <v>-13.91</v>
-      </c>
-      <c r="L152" t="s">
-        <v>16</v>
-      </c>
-      <c r="M152" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>211112415</v>
-      </c>
-      <c r="B153" t="s">
-        <v>43</v>
-      </c>
-      <c r="C153" t="s">
-        <v>14</v>
-      </c>
-      <c r="D153" t="s">
-        <v>15</v>
-      </c>
-      <c r="E153">
-        <v>12336</v>
-      </c>
-      <c r="F153" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" s="1">
-        <v>45926.416435185187</v>
-      </c>
-      <c r="H153" s="1">
-        <v>45896.416435185187</v>
-      </c>
-      <c r="I153" s="2">
-        <v>-27</v>
-      </c>
-      <c r="J153" s="3">
-        <v>78.34</v>
-      </c>
-      <c r="K153" s="3">
-        <v>78.34</v>
-      </c>
-      <c r="L153" t="s">
-        <v>16</v>
-      </c>
-      <c r="M153" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>211121278</v>
-      </c>
-      <c r="B154" t="s">
-        <v>44</v>
-      </c>
-      <c r="C154" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" t="s">
-        <v>15</v>
-      </c>
-      <c r="E154">
-        <v>10076</v>
-      </c>
-      <c r="F154" t="s">
-        <v>19</v>
-      </c>
-      <c r="G154" s="1">
-        <v>45871.611539351848</v>
-      </c>
-      <c r="H154" s="1">
-        <v>45841.612893518519</v>
-      </c>
-      <c r="I154" s="2">
-        <v>28</v>
-      </c>
-      <c r="J154" s="3">
-        <v>91.8</v>
-      </c>
-      <c r="K154" s="3">
-        <v>91.8</v>
-      </c>
-      <c r="L154" t="s">
-        <v>16</v>
-      </c>
-      <c r="M154" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>211121278</v>
-      </c>
-      <c r="B155" t="s">
-        <v>44</v>
-      </c>
-      <c r="C155" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155">
-        <v>10229</v>
-      </c>
-      <c r="F155" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" s="1">
-        <v>45875.600995370369</v>
-      </c>
-      <c r="H155" s="1">
-        <v>45845.602673611109</v>
-      </c>
-      <c r="I155" s="2">
-        <v>24</v>
-      </c>
-      <c r="J155" s="3">
-        <v>86.4</v>
-      </c>
-      <c r="K155" s="3">
-        <v>86.4</v>
-      </c>
-      <c r="L155" t="s">
-        <v>16</v>
-      </c>
-      <c r="M155" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>211121278</v>
-      </c>
-      <c r="B156" t="s">
-        <v>44</v>
-      </c>
-      <c r="C156" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156">
-        <v>11294</v>
-      </c>
-      <c r="F156" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" s="1">
-        <v>45899.61278935185</v>
-      </c>
-      <c r="H156" s="1">
-        <v>45869.613032407404</v>
-      </c>
-      <c r="I156" s="2">
-        <v>0</v>
-      </c>
-      <c r="J156" s="3">
-        <v>21.6</v>
-      </c>
-      <c r="K156" s="3">
-        <v>21.6</v>
-      </c>
-      <c r="L156" t="s">
-        <v>16</v>
-      </c>
-      <c r="M156" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
